--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0421268</v>
+        <v>0.0428007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0407691</v>
+        <v>0.0386118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0337152</v>
+        <v>0.0365419</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0446004</v>
+        <v>0.0439608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0434368</v>
+        <v>0.0395991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0340686</v>
+        <v>0.0379287</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0493575</v>
+        <v>0.0466822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0491986</v>
+        <v>0.0418063</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0361923</v>
+        <v>0.0391944</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0521062</v>
+        <v>0.0515945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0570756</v>
+        <v>0.0447322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0377032</v>
+        <v>0.0414481</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0638219</v>
+        <v>0.06021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0666962</v>
+        <v>0.0483336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0414177</v>
+        <v>0.0440106</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07258340000000001</v>
+        <v>0.0719537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0808041</v>
+        <v>0.0557496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0496895</v>
+        <v>0.049654</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0941693</v>
+        <v>0.0997788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103137</v>
+        <v>0.0661843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0586703</v>
+        <v>0.0618843</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123465</v>
+        <v>0.124013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138258</v>
+        <v>0.0353936</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0321018</v>
+        <v>0.0367489</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0400966</v>
+        <v>0.0393167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0383408</v>
+        <v>0.037437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0332751</v>
+        <v>0.0355797</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0419994</v>
+        <v>0.0394122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.037753</v>
+        <v>0.0361327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0325203</v>
+        <v>0.0359238</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0414721</v>
+        <v>0.0392984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0385611</v>
+        <v>0.0352707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.033359</v>
+        <v>0.0366846</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0422533</v>
+        <v>0.0403403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0396355</v>
+        <v>0.0359788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0340381</v>
+        <v>0.0370834</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0428779</v>
+        <v>0.0408003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0428949</v>
+        <v>0.0357743</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0343311</v>
+        <v>0.0360377</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0443092</v>
+        <v>0.0425026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0437169</v>
+        <v>0.036261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0343988</v>
+        <v>0.0363161</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0463844</v>
+        <v>0.0436704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0442566</v>
+        <v>0.0383353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0349533</v>
+        <v>0.0369378</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0469762</v>
+        <v>0.0455013</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0478361</v>
+        <v>0.037886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0352995</v>
+        <v>0.0377575</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0513203</v>
+        <v>0.0485963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0558013</v>
+        <v>0.0405439</v>
       </c>
       <c r="D18" t="n">
-        <v>0.038563</v>
+        <v>0.0400501</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0563231</v>
+        <v>0.0545286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0612457</v>
+        <v>0.0416375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0394838</v>
+        <v>0.0415609</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0633929</v>
+        <v>0.0614969</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0675878</v>
+        <v>0.0461828</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0431038</v>
+        <v>0.0449892</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07866430000000001</v>
+        <v>0.07193239999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0816248</v>
+        <v>0.050975</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0499465</v>
+        <v>0.0513497</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0975009</v>
+        <v>0.0923538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104284</v>
+        <v>0.0615817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0577238</v>
+        <v>0.0607513</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126048</v>
+        <v>0.119968</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142948</v>
+        <v>0.0357902</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0334231</v>
+        <v>0.0368363</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0431302</v>
+        <v>0.0408313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0394252</v>
+        <v>0.0357275</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0336053</v>
+        <v>0.0360801</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0448563</v>
+        <v>0.041757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0393886</v>
+        <v>0.0359635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.034103</v>
+        <v>0.0368305</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0450251</v>
+        <v>0.0416226</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0409393</v>
+        <v>0.0370235</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0340859</v>
+        <v>0.0366322</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0449485</v>
+        <v>0.0425581</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0421835</v>
+        <v>0.0365568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0345854</v>
+        <v>0.0367516</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0469996</v>
+        <v>0.0439204</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04345</v>
+        <v>0.0368338</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0364268</v>
+        <v>0.0379438</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0489007</v>
+        <v>0.0448612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0443347</v>
+        <v>0.0377439</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0357556</v>
+        <v>0.0374394</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0483864</v>
+        <v>0.0460137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0461138</v>
+        <v>0.0389013</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0372799</v>
+        <v>0.0398111</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0505475</v>
+        <v>0.0483368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04881</v>
+        <v>0.0393973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0380585</v>
+        <v>0.0390441</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0537989</v>
+        <v>0.0517349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0537546</v>
+        <v>0.0408788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0398578</v>
+        <v>0.0407525</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0587717</v>
+        <v>0.0562799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0609667</v>
+        <v>0.0432565</v>
       </c>
       <c r="D33" t="n">
-        <v>0.041112</v>
+        <v>0.042337</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0670593</v>
+        <v>0.0636502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06683699999999999</v>
+        <v>0.0468516</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0428908</v>
+        <v>0.0451914</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0755309</v>
+        <v>0.07278129999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0786487</v>
+        <v>0.0511617</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0488358</v>
+        <v>0.0509427</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0945922</v>
+        <v>0.09019489999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.106733</v>
+        <v>0.0596524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0587361</v>
+        <v>0.0593198</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.12359</v>
+        <v>0.116739</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142142</v>
+        <v>0.0385052</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0365679</v>
+        <v>0.0388383</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0482448</v>
+        <v>0.0465383</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0439339</v>
+        <v>0.0389619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0363378</v>
+        <v>0.0393134</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0488584</v>
+        <v>0.0457971</v>
       </c>
       <c r="C39" t="n">
-        <v>0.046039</v>
+        <v>0.0416341</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0374087</v>
+        <v>0.0394057</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0485349</v>
+        <v>0.0468024</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0447972</v>
+        <v>0.0398733</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0369344</v>
+        <v>0.0394567</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0494797</v>
+        <v>0.0474698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0459489</v>
+        <v>0.0403733</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0383569</v>
+        <v>0.0403066</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0505651</v>
+        <v>0.0498753</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0468406</v>
+        <v>0.0399348</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0393383</v>
+        <v>0.0403492</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0510908</v>
+        <v>0.0493603</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0487604</v>
+        <v>0.0409215</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0393353</v>
+        <v>0.0403081</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0518779</v>
+        <v>0.0552264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0509817</v>
+        <v>0.042239</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0392599</v>
+        <v>0.0452658</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0542387</v>
+        <v>0.0522218</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0532409</v>
+        <v>0.0446696</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0411937</v>
+        <v>0.042097</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0592699</v>
+        <v>0.0546716</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0577607</v>
+        <v>0.0440771</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0431181</v>
+        <v>0.0435177</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06319</v>
+        <v>0.0605125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0657619</v>
+        <v>0.0473232</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0459721</v>
+        <v>0.0453897</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0683111</v>
+        <v>0.0654119</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0706252</v>
+        <v>0.0481846</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0482813</v>
+        <v>0.0504446</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0782248</v>
+        <v>0.0745696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0836499</v>
+        <v>0.0526126</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0535928</v>
+        <v>0.0539685</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0933435</v>
+        <v>0.0884158</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102012</v>
+        <v>0.0605435</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0593178</v>
+        <v>0.060317</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122347</v>
+        <v>0.113672</v>
       </c>
       <c r="C51" t="n">
-        <v>0.130386</v>
+        <v>0.0448499</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0435323</v>
+        <v>0.0447592</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159946</v>
+        <v>0.152381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171411</v>
+        <v>0.0452787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0457795</v>
+        <v>0.0451295</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0579206</v>
+        <v>0.0558129</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0531844</v>
+        <v>0.0455881</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0450711</v>
+        <v>0.0456451</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0584906</v>
+        <v>0.0570551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0554594</v>
+        <v>0.0471924</v>
       </c>
       <c r="D54" t="n">
-        <v>0.045597</v>
+        <v>0.0468214</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0595299</v>
+        <v>0.058166</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0561443</v>
+        <v>0.0470394</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0462351</v>
+        <v>0.0471759</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06288870000000001</v>
+        <v>0.0585129</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0566206</v>
+        <v>0.047502</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0450396</v>
+        <v>0.0477521</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0622811</v>
+        <v>0.0591978</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0593992</v>
+        <v>0.0499975</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0462422</v>
+        <v>0.0489695</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0652874</v>
+        <v>0.0636774</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0619584</v>
+        <v>0.050131</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0472554</v>
+        <v>0.0498714</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0654328</v>
+        <v>0.06685770000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0636618</v>
+        <v>0.0511482</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0485071</v>
+        <v>0.0533753</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0699775</v>
+        <v>0.0682582</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0676794</v>
+        <v>0.0529637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0504846</v>
+        <v>0.0527657</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0723627</v>
+        <v>0.0750849</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0728055</v>
+        <v>0.0559649</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0531673</v>
+        <v>0.0565013</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0799166</v>
+        <v>0.07734149999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0839029</v>
+        <v>0.058049</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0550419</v>
+        <v>0.058253</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0890582</v>
+        <v>0.0879968</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0917153</v>
+        <v>0.0634224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0604558</v>
+        <v>0.0630496</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100883</v>
+        <v>0.102029</v>
       </c>
       <c r="C64" t="n">
-        <v>0.112406</v>
+        <v>0.073226</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06768010000000001</v>
+        <v>0.07093099999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.122365</v>
+        <v>0.121952</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135811</v>
+        <v>0.07938439999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07804419999999999</v>
+        <v>0.08085539999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157497</v>
+        <v>0.159311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181366</v>
+        <v>0.052586</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04973</v>
+        <v>0.0533417</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06704889999999999</v>
+        <v>0.06641030000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0637149</v>
+        <v>0.0543625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0506117</v>
+        <v>0.0551001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0680789</v>
+        <v>0.06908110000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06269859999999999</v>
+        <v>0.0558331</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0504766</v>
+        <v>0.0551366</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0709495</v>
+        <v>0.06954829999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0649039</v>
+        <v>0.0548354</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0526311</v>
+        <v>0.0564054</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0719789</v>
+        <v>0.0699703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0654409</v>
+        <v>0.0552014</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0540362</v>
+        <v>0.0554958</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0718186</v>
+        <v>0.0703298</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0680756</v>
+        <v>0.0585019</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0522462</v>
+        <v>0.0569825</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0755508</v>
+        <v>0.075695</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0749843</v>
+        <v>0.0585945</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0540554</v>
+        <v>0.0586373</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07760789999999999</v>
+        <v>0.0795947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07779990000000001</v>
+        <v>0.0611822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0569885</v>
+        <v>0.0608967</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0827883</v>
+        <v>0.08110879999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08201899999999999</v>
+        <v>0.0623556</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0582592</v>
+        <v>0.0614916</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.085438</v>
+        <v>0.0854922</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0872193</v>
+        <v>0.06524720000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0599087</v>
+        <v>0.0643572</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09134050000000001</v>
+        <v>0.0962322</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0984139</v>
+        <v>0.0692257</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0658861</v>
+        <v>0.0677089</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105116</v>
+        <v>0.105001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.11227</v>
+        <v>0.0726292</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0686322</v>
+        <v>0.0732661</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119159</v>
+        <v>0.118047</v>
       </c>
       <c r="C78" t="n">
-        <v>0.126084</v>
+        <v>0.08038869999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0789406</v>
+        <v>0.0816322</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.149718</v>
+        <v>0.140339</v>
       </c>
       <c r="C79" t="n">
-        <v>0.149725</v>
+        <v>0.0960907</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0960025</v>
+        <v>0.096377</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.179129</v>
+        <v>0.176979</v>
       </c>
       <c r="C80" t="n">
-        <v>0.194182</v>
+        <v>0.0617149</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0577067</v>
+        <v>0.0607389</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08286590000000001</v>
+        <v>0.08300539999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07505000000000001</v>
+        <v>0.0632503</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0596103</v>
+        <v>0.0618173</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0844603</v>
+        <v>0.08588320000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0783449</v>
+        <v>0.06501990000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0578946</v>
+        <v>0.06584859999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.084657</v>
+        <v>0.0910999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0789386</v>
+        <v>0.0660356</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0587701</v>
+        <v>0.069573</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08905100000000001</v>
+        <v>0.0874176</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0843714</v>
+        <v>0.07167220000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06300119999999999</v>
+        <v>0.067135</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09149500000000001</v>
+        <v>0.0928499</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0878563</v>
+        <v>0.0718361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0627875</v>
+        <v>0.0728226</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0909679</v>
+        <v>0.101653</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0900369</v>
+        <v>0.0678028</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0660428</v>
+        <v>0.0698738</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09698909999999999</v>
+        <v>0.0975519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0969653</v>
+        <v>0.0711096</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0671551</v>
+        <v>0.07099080000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.105092</v>
+        <v>0.100746</v>
       </c>
       <c r="C88" t="n">
-        <v>0.103542</v>
+        <v>0.0741323</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07030260000000001</v>
+        <v>0.0733975</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.106163</v>
+        <v>0.107221</v>
       </c>
       <c r="C89" t="n">
-        <v>0.106666</v>
+        <v>0.0794821</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0725063</v>
+        <v>0.0782814</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.116559</v>
+        <v>0.115004</v>
       </c>
       <c r="C90" t="n">
-        <v>0.119092</v>
+        <v>0.0827079</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0785646</v>
+        <v>0.0817906</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123615</v>
+        <v>0.1242</v>
       </c>
       <c r="C91" t="n">
-        <v>0.130163</v>
+        <v>0.08727210000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0864264</v>
+        <v>0.08740390000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.137545</v>
+        <v>0.140934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.146557</v>
+        <v>0.09787410000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0910403</v>
+        <v>0.09796390000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158213</v>
+        <v>0.158094</v>
       </c>
       <c r="C93" t="n">
-        <v>0.171519</v>
+        <v>0.106766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.102862</v>
+        <v>0.107805</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19563</v>
+        <v>0.196697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.214693</v>
+        <v>0.0807272</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07791149999999999</v>
+        <v>0.0791172</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107072</v>
+        <v>0.109381</v>
       </c>
       <c r="C95" t="n">
-        <v>0.107272</v>
+        <v>0.08138720000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0830058</v>
+        <v>0.08262849999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.113675</v>
+        <v>0.118757</v>
       </c>
       <c r="C96" t="n">
-        <v>0.107656</v>
+        <v>0.0834111</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0827011</v>
+        <v>0.0851804</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.112475</v>
+        <v>0.117167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.109769</v>
+        <v>0.09425840000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08130030000000001</v>
+        <v>0.0913248</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.113675</v>
+        <v>0.120692</v>
       </c>
       <c r="C98" t="n">
-        <v>0.113212</v>
+        <v>0.0885727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08655880000000001</v>
+        <v>0.08766500000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.123396</v>
+        <v>0.123764</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117072</v>
+        <v>0.0920362</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08722480000000001</v>
+        <v>0.0877913</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.120372</v>
+        <v>0.118198</v>
       </c>
       <c r="C100" t="n">
-        <v>0.117759</v>
+        <v>0.0907414</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0898362</v>
+        <v>0.09221500000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.132218</v>
+        <v>0.130034</v>
       </c>
       <c r="C101" t="n">
-        <v>0.121887</v>
+        <v>0.09702280000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0929666</v>
+        <v>0.0957037</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130202</v>
+        <v>0.13049</v>
       </c>
       <c r="C102" t="n">
-        <v>0.129226</v>
+        <v>0.0975504</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0950588</v>
+        <v>0.09785480000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.141384</v>
+        <v>0.135462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.135131</v>
+        <v>0.0995545</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09823519999999999</v>
+        <v>0.0994227</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.144823</v>
+        <v>0.141134</v>
       </c>
       <c r="C104" t="n">
-        <v>0.142215</v>
+        <v>0.102013</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106401</v>
+        <v>0.103183</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150393</v>
+        <v>0.152774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.156142</v>
+        <v>0.112135</v>
       </c>
       <c r="D105" t="n">
-        <v>0.108397</v>
+        <v>0.108001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.165755</v>
+        <v>0.163475</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175853</v>
+        <v>0.121289</v>
       </c>
       <c r="D106" t="n">
-        <v>0.117142</v>
+        <v>0.117921</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.187304</v>
+        <v>0.192545</v>
       </c>
       <c r="C107" t="n">
-        <v>0.202929</v>
+        <v>0.131697</v>
       </c>
       <c r="D107" t="n">
-        <v>0.127807</v>
+        <v>0.128527</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226482</v>
+        <v>0.229283</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245635</v>
+        <v>0.162102</v>
       </c>
       <c r="D108" t="n">
-        <v>0.16446</v>
+        <v>0.166813</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.274526</v>
+        <v>0.284187</v>
       </c>
       <c r="C109" t="n">
-        <v>0.327284</v>
+        <v>0.173224</v>
       </c>
       <c r="D109" t="n">
-        <v>0.163547</v>
+        <v>0.176461</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.204887</v>
+        <v>0.213841</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184914</v>
+        <v>0.172156</v>
       </c>
       <c r="D110" t="n">
-        <v>0.164</v>
+        <v>0.16749</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.19573</v>
+        <v>0.210736</v>
       </c>
       <c r="C111" t="n">
-        <v>0.190778</v>
+        <v>0.170752</v>
       </c>
       <c r="D111" t="n">
-        <v>0.173911</v>
+        <v>0.169793</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.202922</v>
+        <v>0.20568</v>
       </c>
       <c r="C112" t="n">
-        <v>0.208566</v>
+        <v>0.171079</v>
       </c>
       <c r="D112" t="n">
-        <v>0.166483</v>
+        <v>0.181262</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.20591</v>
+        <v>0.217152</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206076</v>
+        <v>0.17132</v>
       </c>
       <c r="D113" t="n">
-        <v>0.170232</v>
+        <v>0.172773</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.202753</v>
+        <v>0.211763</v>
       </c>
       <c r="C114" t="n">
-        <v>0.194539</v>
+        <v>0.176071</v>
       </c>
       <c r="D114" t="n">
-        <v>0.175049</v>
+        <v>0.172753</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.207691</v>
+        <v>0.219107</v>
       </c>
       <c r="C115" t="n">
-        <v>0.203457</v>
+        <v>0.175079</v>
       </c>
       <c r="D115" t="n">
-        <v>0.173406</v>
+        <v>0.172597</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212041</v>
+        <v>0.225262</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211153</v>
+        <v>0.177822</v>
       </c>
       <c r="D116" t="n">
-        <v>0.17516</v>
+        <v>0.174584</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227159</v>
+        <v>0.220279</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217807</v>
+        <v>0.17879</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180903</v>
+        <v>0.185058</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231148</v>
+        <v>0.228787</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2323</v>
+        <v>0.194452</v>
       </c>
       <c r="D118" t="n">
-        <v>0.188239</v>
+        <v>0.185944</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237985</v>
+        <v>0.247055</v>
       </c>
       <c r="C119" t="n">
-        <v>0.242426</v>
+        <v>0.188384</v>
       </c>
       <c r="D119" t="n">
-        <v>0.184651</v>
+        <v>0.190062</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.267663</v>
+        <v>0.258422</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254066</v>
+        <v>0.195225</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1921</v>
+        <v>0.193449</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.276826</v>
+        <v>0.279442</v>
       </c>
       <c r="C121" t="n">
-        <v>0.285474</v>
+        <v>0.211327</v>
       </c>
       <c r="D121" t="n">
-        <v>0.211984</v>
+        <v>0.210849</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.311984</v>
+        <v>0.326108</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319699</v>
+        <v>0.233813</v>
       </c>
       <c r="D122" t="n">
-        <v>0.227022</v>
+        <v>0.233977</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.395776</v>
+        <v>0.383416</v>
       </c>
       <c r="C123" t="n">
-        <v>0.408555</v>
+        <v>0.261262</v>
       </c>
       <c r="D123" t="n">
-        <v>0.26247</v>
+        <v>0.258459</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.308771</v>
+        <v>0.313962</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276059</v>
+        <v>0.255292</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257688</v>
+        <v>0.259634</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.309282</v>
+        <v>0.320274</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286523</v>
+        <v>0.262682</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256843</v>
+        <v>0.261718</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316567</v>
+        <v>0.316965</v>
       </c>
       <c r="C126" t="n">
-        <v>0.292574</v>
+        <v>0.271023</v>
       </c>
       <c r="D126" t="n">
-        <v>0.264753</v>
+        <v>0.262054</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319306</v>
+        <v>0.321246</v>
       </c>
       <c r="C127" t="n">
-        <v>0.292513</v>
+        <v>0.261746</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266852</v>
+        <v>0.261594</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320912</v>
+        <v>0.324977</v>
       </c>
       <c r="C128" t="n">
-        <v>0.300146</v>
+        <v>0.264901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.266343</v>
+        <v>0.270407</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.327879</v>
+        <v>0.331336</v>
       </c>
       <c r="C129" t="n">
-        <v>0.30251</v>
+        <v>0.277419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26975</v>
+        <v>0.26958</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.339691</v>
+        <v>0.341525</v>
       </c>
       <c r="C130" t="n">
-        <v>0.319071</v>
+        <v>0.2739</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274772</v>
+        <v>0.270276</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.346137</v>
+        <v>0.346052</v>
       </c>
       <c r="C131" t="n">
-        <v>0.321245</v>
+        <v>0.273272</v>
       </c>
       <c r="D131" t="n">
-        <v>0.274103</v>
+        <v>0.274707</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.359096</v>
+        <v>0.354221</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333772</v>
+        <v>0.278352</v>
       </c>
       <c r="D132" t="n">
-        <v>0.281196</v>
+        <v>0.277657</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.366639</v>
+        <v>0.368579</v>
       </c>
       <c r="C133" t="n">
-        <v>0.354108</v>
+        <v>0.278514</v>
       </c>
       <c r="D133" t="n">
-        <v>0.279398</v>
+        <v>0.285756</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.387692</v>
+        <v>0.388278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.361496</v>
+        <v>0.293486</v>
       </c>
       <c r="D134" t="n">
-        <v>0.288216</v>
+        <v>0.295404</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.406272</v>
+        <v>0.409986</v>
       </c>
       <c r="C135" t="n">
-        <v>0.392498</v>
+        <v>0.298274</v>
       </c>
       <c r="D135" t="n">
-        <v>0.311782</v>
+        <v>0.309175</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.462035</v>
+        <v>0.454497</v>
       </c>
       <c r="C136" t="n">
-        <v>0.451257</v>
+        <v>0.327276</v>
       </c>
       <c r="D136" t="n">
-        <v>0.341776</v>
+        <v>0.319801</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.536627</v>
+        <v>0.542349</v>
       </c>
       <c r="C137" t="n">
-        <v>0.535758</v>
+        <v>0.312648</v>
       </c>
       <c r="D137" t="n">
-        <v>0.309987</v>
+        <v>0.307974</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.396045</v>
+        <v>0.376022</v>
       </c>
       <c r="C138" t="n">
-        <v>0.336355</v>
+        <v>0.315068</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3107</v>
+        <v>0.309864</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.387855</v>
+        <v>0.377888</v>
       </c>
       <c r="C139" t="n">
-        <v>0.34661</v>
+        <v>0.315565</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313924</v>
+        <v>0.317572</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.392214</v>
+        <v>0.389963</v>
       </c>
       <c r="C140" t="n">
-        <v>0.357931</v>
+        <v>0.325801</v>
       </c>
       <c r="D140" t="n">
-        <v>0.317322</v>
+        <v>0.321246</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.392988</v>
+        <v>0.393476</v>
       </c>
       <c r="C141" t="n">
-        <v>0.358619</v>
+        <v>0.319017</v>
       </c>
       <c r="D141" t="n">
-        <v>0.312635</v>
+        <v>0.319803</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403686</v>
+        <v>0.398182</v>
       </c>
       <c r="C142" t="n">
-        <v>0.361452</v>
+        <v>0.314089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.32112</v>
+        <v>0.321663</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.408282</v>
+        <v>0.403798</v>
       </c>
       <c r="C143" t="n">
-        <v>0.374471</v>
+        <v>0.328028</v>
       </c>
       <c r="D143" t="n">
-        <v>0.328795</v>
+        <v>0.323228</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0428007</v>
+        <v>0.0407317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0386118</v>
+        <v>0.0375294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0365419</v>
+        <v>0.036693</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0439608</v>
+        <v>0.0449716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0395991</v>
+        <v>0.0389836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0379287</v>
+        <v>0.038025</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0466822</v>
+        <v>0.0463831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0418063</v>
+        <v>0.0411101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0391944</v>
+        <v>0.0392725</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0515945</v>
+        <v>0.0515303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0447322</v>
+        <v>0.0441901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0414481</v>
+        <v>0.0413195</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06021</v>
+        <v>0.0575536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0483336</v>
+        <v>0.0470894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0440106</v>
+        <v>0.0439467</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0719537</v>
+        <v>0.06870610000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0557496</v>
+        <v>0.0543974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.049654</v>
+        <v>0.0515418</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0997788</v>
+        <v>0.09431639999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0661843</v>
+        <v>0.0664942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0618843</v>
+        <v>0.0603241</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124013</v>
+        <v>0.12559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0353936</v>
+        <v>0.03521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0367489</v>
+        <v>0.0360361</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0393167</v>
+        <v>0.0388855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.037437</v>
+        <v>0.0358015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0355797</v>
+        <v>0.03657</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0394122</v>
+        <v>0.0413123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0361327</v>
+        <v>0.0363033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0359238</v>
+        <v>0.0359545</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0392984</v>
+        <v>0.0410731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0352707</v>
+        <v>0.036553</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0366846</v>
+        <v>0.0369217</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0403403</v>
+        <v>0.0414843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0359788</v>
+        <v>0.0378175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0370834</v>
+        <v>0.0381057</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408003</v>
+        <v>0.042462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0357743</v>
+        <v>0.0375322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0360377</v>
+        <v>0.0384838</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0425026</v>
+        <v>0.0433516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.036261</v>
+        <v>0.0372726</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0363161</v>
+        <v>0.0376149</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0436704</v>
+        <v>0.0448973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0383353</v>
+        <v>0.0380318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0369378</v>
+        <v>0.0386422</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0455013</v>
+        <v>0.0499503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.037886</v>
+        <v>0.0395964</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0377575</v>
+        <v>0.0396648</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0485963</v>
+        <v>0.0525056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0405439</v>
+        <v>0.0405305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0400501</v>
+        <v>0.041896</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0545286</v>
+        <v>0.0553232</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0416375</v>
+        <v>0.0428352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0415609</v>
+        <v>0.0417176</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0614969</v>
+        <v>0.063523</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0461828</v>
+        <v>0.0460691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0449892</v>
+        <v>0.0451999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07193239999999999</v>
+        <v>0.078088</v>
       </c>
       <c r="C21" t="n">
-        <v>0.050975</v>
+        <v>0.0538226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0513497</v>
+        <v>0.0530522</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0923538</v>
+        <v>0.09939190000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615817</v>
+        <v>0.06485200000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0607513</v>
+        <v>0.0609001</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119968</v>
+        <v>0.1268</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0357902</v>
+        <v>0.0369417</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0368363</v>
+        <v>0.0379869</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0408313</v>
+        <v>0.0425986</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0357275</v>
+        <v>0.0370772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0360801</v>
+        <v>0.0376465</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.041757</v>
+        <v>0.0424162</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0359635</v>
+        <v>0.0372572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0368305</v>
+        <v>0.0401026</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0416226</v>
+        <v>0.0454085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0370235</v>
+        <v>0.0378261</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0366322</v>
+        <v>0.0371662</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0425581</v>
+        <v>0.0447782</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0365568</v>
+        <v>0.0388302</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0367516</v>
+        <v>0.0384165</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0439204</v>
+        <v>0.046111</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0368338</v>
+        <v>0.0391768</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0379438</v>
+        <v>0.0378861</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0448612</v>
+        <v>0.0460526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0377439</v>
+        <v>0.0400448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0374394</v>
+        <v>0.0396599</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0460137</v>
+        <v>0.0485538</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0389013</v>
+        <v>0.0405798</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0398111</v>
+        <v>0.0394325</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0483368</v>
+        <v>0.0529833</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0393973</v>
+        <v>0.0407214</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0390441</v>
+        <v>0.0413902</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0517349</v>
+        <v>0.0544938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0408788</v>
+        <v>0.0434977</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0407525</v>
+        <v>0.0434411</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562799</v>
+        <v>0.0592255</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0432565</v>
+        <v>0.0442997</v>
       </c>
       <c r="D33" t="n">
-        <v>0.042337</v>
+        <v>0.0443986</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0636502</v>
+        <v>0.0646613</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0468516</v>
+        <v>0.0491818</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0451914</v>
+        <v>0.0463117</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07278129999999999</v>
+        <v>0.07703599999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0511617</v>
+        <v>0.0533021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0509427</v>
+        <v>0.0548935</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09019489999999999</v>
+        <v>0.09483560000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0596524</v>
+        <v>0.0610836</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0593198</v>
+        <v>0.0618666</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116739</v>
+        <v>0.119498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0385052</v>
+        <v>0.0398615</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0388383</v>
+        <v>0.0404523</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0465383</v>
+        <v>0.0474882</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0389619</v>
+        <v>0.0418097</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0393134</v>
+        <v>0.0421361</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0457971</v>
+        <v>0.0482758</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0416341</v>
+        <v>0.0408969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0394057</v>
+        <v>0.0411058</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0468024</v>
+        <v>0.048915</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0398733</v>
+        <v>0.0422068</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0394567</v>
+        <v>0.0403511</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0474698</v>
+        <v>0.0523698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0403733</v>
+        <v>0.0405947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0403066</v>
+        <v>0.0410508</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0498753</v>
+        <v>0.0489316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0399348</v>
+        <v>0.0423823</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0403492</v>
+        <v>0.0419186</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0493603</v>
+        <v>0.0505486</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0409215</v>
+        <v>0.0430412</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0403081</v>
+        <v>0.0430547</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0552264</v>
+        <v>0.0527706</v>
       </c>
       <c r="C44" t="n">
-        <v>0.042239</v>
+        <v>0.0439508</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0452658</v>
+        <v>0.0435295</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0522218</v>
+        <v>0.0558287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0446696</v>
+        <v>0.0456422</v>
       </c>
       <c r="D45" t="n">
-        <v>0.042097</v>
+        <v>0.0438682</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0546716</v>
+        <v>0.0578052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0440771</v>
+        <v>0.0456613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0435177</v>
+        <v>0.0456606</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0605125</v>
+        <v>0.061421</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0473232</v>
+        <v>0.0468216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0453897</v>
+        <v>0.0485326</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0654119</v>
+        <v>0.067785</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0481846</v>
+        <v>0.0506354</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0504446</v>
+        <v>0.0515285</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0745696</v>
+        <v>0.0779421</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0526126</v>
+        <v>0.0556958</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0539685</v>
+        <v>0.0555987</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0884158</v>
+        <v>0.0914949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0605435</v>
+        <v>0.0631742</v>
       </c>
       <c r="D50" t="n">
-        <v>0.060317</v>
+        <v>0.0646997</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.113672</v>
+        <v>0.120661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0448499</v>
+        <v>0.0469109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0447592</v>
+        <v>0.0496601</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.152381</v>
+        <v>0.158646</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0452787</v>
+        <v>0.0466215</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0451295</v>
+        <v>0.0472388</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0558129</v>
+        <v>0.0580362</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0455881</v>
+        <v>0.0469631</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0456451</v>
+        <v>0.0470034</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0570551</v>
+        <v>0.05837</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0471924</v>
+        <v>0.0476118</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0468214</v>
+        <v>0.0485756</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.058166</v>
+        <v>0.0590748</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0470394</v>
+        <v>0.048995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0471759</v>
+        <v>0.0493712</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0585129</v>
+        <v>0.0617565</v>
       </c>
       <c r="C56" t="n">
-        <v>0.047502</v>
+        <v>0.0506697</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0477521</v>
+        <v>0.0495057</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0591978</v>
+        <v>0.0622464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0499975</v>
+        <v>0.048935</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0489695</v>
+        <v>0.0511781</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0636774</v>
+        <v>0.0650935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.050131</v>
+        <v>0.051473</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0498714</v>
+        <v>0.0514716</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06685770000000001</v>
+        <v>0.0643029</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0511482</v>
+        <v>0.0519493</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0533753</v>
+        <v>0.052385</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0682582</v>
+        <v>0.0687744</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0529637</v>
+        <v>0.0531239</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0527657</v>
+        <v>0.0526627</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0750849</v>
+        <v>0.0739303</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0559649</v>
+        <v>0.0559537</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0565013</v>
+        <v>0.0556184</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07734149999999999</v>
+        <v>0.0792822</v>
       </c>
       <c r="C62" t="n">
-        <v>0.058049</v>
+        <v>0.0578783</v>
       </c>
       <c r="D62" t="n">
-        <v>0.058253</v>
+        <v>0.0590658</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0879968</v>
+        <v>0.0847696</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0634224</v>
+        <v>0.0617807</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0630496</v>
+        <v>0.0620283</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102029</v>
+        <v>0.10237</v>
       </c>
       <c r="C64" t="n">
-        <v>0.073226</v>
+        <v>0.0700052</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07093099999999999</v>
+        <v>0.0701908</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.121952</v>
+        <v>0.12784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07938439999999999</v>
+        <v>0.0830611</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08085539999999999</v>
+        <v>0.08466079999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159311</v>
+        <v>0.166432</v>
       </c>
       <c r="C66" t="n">
-        <v>0.052586</v>
+        <v>0.0537713</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0533417</v>
+        <v>0.0526265</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06641030000000001</v>
+        <v>0.06595189999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0543625</v>
+        <v>0.0531168</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0551001</v>
+        <v>0.0528586</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06908110000000001</v>
+        <v>0.0673969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0558331</v>
+        <v>0.0569099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0551366</v>
+        <v>0.0538417</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06954829999999999</v>
+        <v>0.06926930000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0548354</v>
+        <v>0.0551941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0564054</v>
+        <v>0.0559133</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0699703</v>
+        <v>0.0706155</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0552014</v>
+        <v>0.0551193</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0554958</v>
+        <v>0.0566112</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0703298</v>
+        <v>0.0719374</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0585019</v>
+        <v>0.0570604</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0569825</v>
+        <v>0.0578354</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.075695</v>
+        <v>0.0761389</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0585945</v>
+        <v>0.0580055</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0586373</v>
+        <v>0.0580858</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0795947</v>
+        <v>0.0768162</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0611822</v>
+        <v>0.0592245</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0608967</v>
+        <v>0.0602809</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08110879999999999</v>
+        <v>0.08345329999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0623556</v>
+        <v>0.0618525</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0614916</v>
+        <v>0.0611318</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0854922</v>
+        <v>0.08627070000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06524720000000001</v>
+        <v>0.065333</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0643572</v>
+        <v>0.0645348</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0962322</v>
+        <v>0.0956466</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0692257</v>
+        <v>0.0681973</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0677089</v>
+        <v>0.06833939999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105001</v>
+        <v>0.105471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0726292</v>
+        <v>0.07381210000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0732661</v>
+        <v>0.0738028</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.118047</v>
+        <v>0.120654</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08038869999999999</v>
+        <v>0.0801943</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0816322</v>
+        <v>0.0809126</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.140339</v>
+        <v>0.141596</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0960907</v>
+        <v>0.09277050000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.096377</v>
+        <v>0.09241580000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176979</v>
+        <v>0.184015</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0617149</v>
+        <v>0.0598324</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0607389</v>
+        <v>0.0599943</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08300539999999999</v>
+        <v>0.0808263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0632503</v>
+        <v>0.0620723</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0618173</v>
+        <v>0.059911</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08588320000000001</v>
+        <v>0.08449420000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06501990000000001</v>
+        <v>0.0619121</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06584859999999999</v>
+        <v>0.061338</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0910999</v>
+        <v>0.0839121</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0660356</v>
+        <v>0.0634773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.069573</v>
+        <v>0.0644774</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0874176</v>
+        <v>0.0874646</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07167220000000001</v>
+        <v>0.0664389</v>
       </c>
       <c r="D84" t="n">
-        <v>0.067135</v>
+        <v>0.0658628</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0928499</v>
+        <v>0.09256060000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0718361</v>
+        <v>0.0679449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0728226</v>
+        <v>0.0684979</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.101653</v>
+        <v>0.0952664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0678028</v>
+        <v>0.0690765</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0698738</v>
+        <v>0.0686964</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0975519</v>
+        <v>0.09543069999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0711096</v>
+        <v>0.0722846</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07099080000000001</v>
+        <v>0.06979249999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.100746</v>
+        <v>0.101212</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0741323</v>
+        <v>0.07393710000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0733975</v>
+        <v>0.0746211</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107221</v>
+        <v>0.106715</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0794821</v>
+        <v>0.0768892</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0782814</v>
+        <v>0.07830910000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115004</v>
+        <v>0.112435</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0827079</v>
+        <v>0.0814222</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0817906</v>
+        <v>0.0810196</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1242</v>
+        <v>0.123453</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08727210000000001</v>
+        <v>0.0859535</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08740390000000001</v>
+        <v>0.08815530000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.140934</v>
+        <v>0.139735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09787410000000001</v>
+        <v>0.0937432</v>
       </c>
       <c r="D92" t="n">
-        <v>0.09796390000000001</v>
+        <v>0.0970121</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158094</v>
+        <v>0.16156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.106766</v>
+        <v>0.110033</v>
       </c>
       <c r="D93" t="n">
-        <v>0.107805</v>
+        <v>0.107636</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196697</v>
+        <v>0.190224</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0807272</v>
+        <v>0.0831725</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0791172</v>
+        <v>0.0798637</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.109381</v>
+        <v>0.106276</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08138720000000001</v>
+        <v>0.082556</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08262849999999999</v>
+        <v>0.0831129</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.118757</v>
+        <v>0.108808</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0834111</v>
+        <v>0.085566</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0851804</v>
+        <v>0.0851982</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.117167</v>
+        <v>0.113882</v>
       </c>
       <c r="C97" t="n">
-        <v>0.09425840000000001</v>
+        <v>0.086018</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0913248</v>
+        <v>0.0873588</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.120692</v>
+        <v>0.11296</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0885727</v>
+        <v>0.0857147</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08766500000000001</v>
+        <v>0.0883341</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.123764</v>
+        <v>0.118477</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0920362</v>
+        <v>0.0895002</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0877913</v>
+        <v>0.0900319</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.118198</v>
+        <v>0.123348</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0907414</v>
+        <v>0.09105679999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09221500000000001</v>
+        <v>0.0916782</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.130034</v>
+        <v>0.128492</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09702280000000001</v>
+        <v>0.09280140000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0957037</v>
+        <v>0.0971641</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13049</v>
+        <v>0.133739</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0975504</v>
+        <v>0.0971692</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09785480000000001</v>
+        <v>0.0947303</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135462</v>
+        <v>0.134405</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0995545</v>
+        <v>0.0978463</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0994227</v>
+        <v>0.101916</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.141134</v>
+        <v>0.138459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.102013</v>
+        <v>0.104798</v>
       </c>
       <c r="D104" t="n">
-        <v>0.103183</v>
+        <v>0.104215</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.152774</v>
+        <v>0.149685</v>
       </c>
       <c r="C105" t="n">
-        <v>0.112135</v>
+        <v>0.112536</v>
       </c>
       <c r="D105" t="n">
-        <v>0.108001</v>
+        <v>0.110775</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.163475</v>
+        <v>0.166145</v>
       </c>
       <c r="C106" t="n">
-        <v>0.121289</v>
+        <v>0.118107</v>
       </c>
       <c r="D106" t="n">
-        <v>0.117921</v>
+        <v>0.114331</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.192545</v>
+        <v>0.185548</v>
       </c>
       <c r="C107" t="n">
-        <v>0.131697</v>
+        <v>0.129688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.128527</v>
+        <v>0.128181</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.229283</v>
+        <v>0.223116</v>
       </c>
       <c r="C108" t="n">
-        <v>0.162102</v>
+        <v>0.163475</v>
       </c>
       <c r="D108" t="n">
-        <v>0.166813</v>
+        <v>0.161969</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.284187</v>
+        <v>0.282611</v>
       </c>
       <c r="C109" t="n">
-        <v>0.173224</v>
+        <v>0.16503</v>
       </c>
       <c r="D109" t="n">
-        <v>0.176461</v>
+        <v>0.161956</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.213841</v>
+        <v>0.195499</v>
       </c>
       <c r="C110" t="n">
-        <v>0.172156</v>
+        <v>0.164308</v>
       </c>
       <c r="D110" t="n">
-        <v>0.16749</v>
+        <v>0.166543</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.210736</v>
+        <v>0.196479</v>
       </c>
       <c r="C111" t="n">
-        <v>0.170752</v>
+        <v>0.167171</v>
       </c>
       <c r="D111" t="n">
-        <v>0.169793</v>
+        <v>0.164993</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.20568</v>
+        <v>0.212294</v>
       </c>
       <c r="C112" t="n">
-        <v>0.171079</v>
+        <v>0.171708</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181262</v>
+        <v>0.166461</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.217152</v>
+        <v>0.207749</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17132</v>
+        <v>0.168656</v>
       </c>
       <c r="D113" t="n">
-        <v>0.172773</v>
+        <v>0.171818</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.211763</v>
+        <v>0.208601</v>
       </c>
       <c r="C114" t="n">
-        <v>0.176071</v>
+        <v>0.1718</v>
       </c>
       <c r="D114" t="n">
-        <v>0.172753</v>
+        <v>0.177896</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.219107</v>
+        <v>0.209194</v>
       </c>
       <c r="C115" t="n">
-        <v>0.175079</v>
+        <v>0.176682</v>
       </c>
       <c r="D115" t="n">
-        <v>0.172597</v>
+        <v>0.181581</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.225262</v>
+        <v>0.217583</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177822</v>
+        <v>0.185216</v>
       </c>
       <c r="D116" t="n">
-        <v>0.174584</v>
+        <v>0.183501</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.220279</v>
+        <v>0.223652</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17879</v>
+        <v>0.178659</v>
       </c>
       <c r="D117" t="n">
-        <v>0.185058</v>
+        <v>0.192274</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.228787</v>
+        <v>0.243238</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194452</v>
+        <v>0.18729</v>
       </c>
       <c r="D118" t="n">
-        <v>0.185944</v>
+        <v>0.183208</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.247055</v>
+        <v>0.245939</v>
       </c>
       <c r="C119" t="n">
-        <v>0.188384</v>
+        <v>0.195781</v>
       </c>
       <c r="D119" t="n">
-        <v>0.190062</v>
+        <v>0.19048</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258422</v>
+        <v>0.254696</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195225</v>
+        <v>0.199208</v>
       </c>
       <c r="D120" t="n">
-        <v>0.193449</v>
+        <v>0.195185</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279442</v>
+        <v>0.277701</v>
       </c>
       <c r="C121" t="n">
-        <v>0.211327</v>
+        <v>0.209435</v>
       </c>
       <c r="D121" t="n">
-        <v>0.210849</v>
+        <v>0.222432</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.326108</v>
+        <v>0.307972</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233813</v>
+        <v>0.236381</v>
       </c>
       <c r="D122" t="n">
-        <v>0.233977</v>
+        <v>0.248491</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.383416</v>
+        <v>0.383802</v>
       </c>
       <c r="C123" t="n">
-        <v>0.261262</v>
+        <v>0.25926</v>
       </c>
       <c r="D123" t="n">
-        <v>0.258459</v>
+        <v>0.253561</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313962</v>
+        <v>0.309603</v>
       </c>
       <c r="C124" t="n">
-        <v>0.255292</v>
+        <v>0.260152</v>
       </c>
       <c r="D124" t="n">
-        <v>0.259634</v>
+        <v>0.265463</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.320274</v>
+        <v>0.315338</v>
       </c>
       <c r="C125" t="n">
-        <v>0.262682</v>
+        <v>0.26387</v>
       </c>
       <c r="D125" t="n">
-        <v>0.261718</v>
+        <v>0.256177</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316965</v>
+        <v>0.318901</v>
       </c>
       <c r="C126" t="n">
-        <v>0.271023</v>
+        <v>0.258448</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262054</v>
+        <v>0.253157</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.321246</v>
+        <v>0.326345</v>
       </c>
       <c r="C127" t="n">
-        <v>0.261746</v>
+        <v>0.269657</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261594</v>
+        <v>0.27243</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324977</v>
+        <v>0.332614</v>
       </c>
       <c r="C128" t="n">
-        <v>0.264901</v>
+        <v>0.266272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.270407</v>
+        <v>0.263374</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.331336</v>
+        <v>0.334538</v>
       </c>
       <c r="C129" t="n">
-        <v>0.277419</v>
+        <v>0.268867</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26958</v>
+        <v>0.268587</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.341525</v>
+        <v>0.33401</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2739</v>
+        <v>0.278151</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270276</v>
+        <v>0.27359</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.346052</v>
+        <v>0.34547</v>
       </c>
       <c r="C131" t="n">
-        <v>0.273272</v>
+        <v>0.277522</v>
       </c>
       <c r="D131" t="n">
-        <v>0.274707</v>
+        <v>0.269028</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354221</v>
+        <v>0.356548</v>
       </c>
       <c r="C132" t="n">
-        <v>0.278352</v>
+        <v>0.281586</v>
       </c>
       <c r="D132" t="n">
-        <v>0.277657</v>
+        <v>0.293869</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.368579</v>
+        <v>0.364306</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278514</v>
+        <v>0.287523</v>
       </c>
       <c r="D133" t="n">
-        <v>0.285756</v>
+        <v>0.284957</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.388278</v>
+        <v>0.386868</v>
       </c>
       <c r="C134" t="n">
-        <v>0.293486</v>
+        <v>0.296216</v>
       </c>
       <c r="D134" t="n">
-        <v>0.295404</v>
+        <v>0.295962</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.409986</v>
+        <v>0.417921</v>
       </c>
       <c r="C135" t="n">
-        <v>0.298274</v>
+        <v>0.31052</v>
       </c>
       <c r="D135" t="n">
-        <v>0.309175</v>
+        <v>0.323582</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.454497</v>
+        <v>0.45573</v>
       </c>
       <c r="C136" t="n">
-        <v>0.327276</v>
+        <v>0.328376</v>
       </c>
       <c r="D136" t="n">
-        <v>0.319801</v>
+        <v>0.338565</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.542349</v>
+        <v>0.534674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.312648</v>
+        <v>0.31301</v>
       </c>
       <c r="D137" t="n">
-        <v>0.307974</v>
+        <v>0.310779</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.376022</v>
+        <v>0.377962</v>
       </c>
       <c r="C138" t="n">
-        <v>0.315068</v>
+        <v>0.320248</v>
       </c>
       <c r="D138" t="n">
-        <v>0.309864</v>
+        <v>0.314751</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.377888</v>
+        <v>0.382316</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315565</v>
+        <v>0.313463</v>
       </c>
       <c r="D139" t="n">
-        <v>0.317572</v>
+        <v>0.316212</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.389963</v>
+        <v>0.390348</v>
       </c>
       <c r="C140" t="n">
-        <v>0.325801</v>
+        <v>0.321758</v>
       </c>
       <c r="D140" t="n">
-        <v>0.321246</v>
+        <v>0.317364</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.393476</v>
+        <v>0.4028</v>
       </c>
       <c r="C141" t="n">
-        <v>0.319017</v>
+        <v>0.32143</v>
       </c>
       <c r="D141" t="n">
-        <v>0.319803</v>
+        <v>0.314914</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.398182</v>
+        <v>0.398457</v>
       </c>
       <c r="C142" t="n">
-        <v>0.314089</v>
+        <v>0.321533</v>
       </c>
       <c r="D142" t="n">
-        <v>0.321663</v>
+        <v>0.32381</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.403798</v>
+        <v>0.405869</v>
       </c>
       <c r="C143" t="n">
-        <v>0.328028</v>
+        <v>0.321705</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323228</v>
+        <v>0.335016</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0407317</v>
+        <v>0.0428112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0375294</v>
+        <v>0.0387192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.036693</v>
+        <v>0.0368614</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449716</v>
+        <v>0.0449097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0389836</v>
+        <v>0.0386806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038025</v>
+        <v>0.0389186</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0463831</v>
+        <v>0.0484471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0411101</v>
+        <v>0.0414452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0392725</v>
+        <v>0.0406974</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0515303</v>
+        <v>0.0526451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441901</v>
+        <v>0.0453318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0413195</v>
+        <v>0.0405104</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0575536</v>
+        <v>0.0614592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0470894</v>
+        <v>0.047529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439467</v>
+        <v>0.0439596</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06870610000000001</v>
+        <v>0.07464759999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0543974</v>
+        <v>0.0544538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0515418</v>
+        <v>0.0522448</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09431639999999999</v>
+        <v>0.0954101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0664942</v>
+        <v>0.06630510000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0603241</v>
+        <v>0.0616113</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12559</v>
+        <v>0.125396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03521</v>
+        <v>0.0365517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0360361</v>
+        <v>0.037267</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0388855</v>
+        <v>0.0400348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0358015</v>
+        <v>0.0361069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03657</v>
+        <v>0.0367486</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0413123</v>
+        <v>0.0408348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0363033</v>
+        <v>0.0359313</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0359545</v>
+        <v>0.036456</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0410731</v>
+        <v>0.0417163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.036553</v>
+        <v>0.0365168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0369217</v>
+        <v>0.0363838</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0414843</v>
+        <v>0.0410412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378175</v>
+        <v>0.0367779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0381057</v>
+        <v>0.0373941</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.042462</v>
+        <v>0.0437078</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0375322</v>
+        <v>0.0365631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0384838</v>
+        <v>0.0370598</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0433516</v>
+        <v>0.0433842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0372726</v>
+        <v>0.0370352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0376149</v>
+        <v>0.0384546</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0448973</v>
+        <v>0.0457982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0380318</v>
+        <v>0.0392522</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0386422</v>
+        <v>0.0387493</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0499503</v>
+        <v>0.0474216</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0395964</v>
+        <v>0.0399158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0396648</v>
+        <v>0.0391712</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525056</v>
+        <v>0.0511729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0405305</v>
+        <v>0.0408662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.041896</v>
+        <v>0.0412256</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0553232</v>
+        <v>0.0566505</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0428352</v>
+        <v>0.0448038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0417176</v>
+        <v>0.0429018</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.063523</v>
+        <v>0.0665645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0460691</v>
+        <v>0.0457729</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0451999</v>
+        <v>0.0470417</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.078088</v>
+        <v>0.0773464</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0538226</v>
+        <v>0.0532732</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0530522</v>
+        <v>0.0520854</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09939190000000001</v>
+        <v>0.0931768</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06485200000000001</v>
+        <v>0.0633997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0609001</v>
+        <v>0.06292639999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1268</v>
+        <v>0.126247</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0369417</v>
+        <v>0.0360834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0379869</v>
+        <v>0.0376279</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0425986</v>
+        <v>0.0458832</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0370772</v>
+        <v>0.0366787</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0376465</v>
+        <v>0.036999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0424162</v>
+        <v>0.0428606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0372572</v>
+        <v>0.0368423</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0401026</v>
+        <v>0.0372316</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0454085</v>
+        <v>0.0442497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0378261</v>
+        <v>0.0374001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0371662</v>
+        <v>0.037819</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0447782</v>
+        <v>0.0445475</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0388302</v>
+        <v>0.0380739</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0384165</v>
+        <v>0.0376668</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.046111</v>
+        <v>0.0469316</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0391768</v>
+        <v>0.0395379</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0378861</v>
+        <v>0.039423</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0460526</v>
+        <v>0.0465832</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0400448</v>
+        <v>0.0404035</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0396599</v>
+        <v>0.0399933</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0485538</v>
+        <v>0.0490192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0405798</v>
+        <v>0.0398069</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0394325</v>
+        <v>0.0392306</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0529833</v>
+        <v>0.0514133</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0407214</v>
+        <v>0.0409541</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0413902</v>
+        <v>0.0405123</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0544938</v>
+        <v>0.0558312</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0434977</v>
+        <v>0.0437319</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0434411</v>
+        <v>0.0421092</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0592255</v>
+        <v>0.0588735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0442997</v>
+        <v>0.0444642</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0443986</v>
+        <v>0.0438974</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0646613</v>
+        <v>0.06688239999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0491818</v>
+        <v>0.0487711</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0463117</v>
+        <v>0.0464773</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07703599999999999</v>
+        <v>0.07851080000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0533021</v>
+        <v>0.0539015</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0548935</v>
+        <v>0.0525948</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09483560000000001</v>
+        <v>0.0932955</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0610836</v>
+        <v>0.0623822</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0618666</v>
+        <v>0.0622277</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119498</v>
+        <v>0.125153</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0398615</v>
+        <v>0.0412908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0404523</v>
+        <v>0.0404649</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0474882</v>
+        <v>0.0476611</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0418097</v>
+        <v>0.0398699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0421361</v>
+        <v>0.0398076</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0482758</v>
+        <v>0.0483608</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0408969</v>
+        <v>0.0406636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0411058</v>
+        <v>0.0402644</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.048915</v>
+        <v>0.0482218</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422068</v>
+        <v>0.0404485</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0403511</v>
+        <v>0.0409391</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0523698</v>
+        <v>0.0500359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0405947</v>
+        <v>0.0413017</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0410508</v>
+        <v>0.0407581</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0489316</v>
+        <v>0.050744</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0423823</v>
+        <v>0.0410973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0419186</v>
+        <v>0.0435915</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0505486</v>
+        <v>0.0504366</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0430412</v>
+        <v>0.0422932</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0430547</v>
+        <v>0.0430783</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0527706</v>
+        <v>0.0528653</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0439508</v>
+        <v>0.0434618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0435295</v>
+        <v>0.0431373</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0558287</v>
+        <v>0.0563286</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0456422</v>
+        <v>0.0453779</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0438682</v>
+        <v>0.0435299</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0578052</v>
+        <v>0.0590408</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0456613</v>
+        <v>0.0457539</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0456606</v>
+        <v>0.0449987</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061421</v>
+        <v>0.06406630000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0468216</v>
+        <v>0.0475355</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0485326</v>
+        <v>0.0484856</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.067785</v>
+        <v>0.0689406</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0506354</v>
+        <v>0.0505063</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0515285</v>
+        <v>0.0494563</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0779421</v>
+        <v>0.07898189999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0556958</v>
+        <v>0.0545023</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0555987</v>
+        <v>0.0533123</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0914949</v>
+        <v>0.09503540000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0631742</v>
+        <v>0.0622152</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0646997</v>
+        <v>0.0642808</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120661</v>
+        <v>0.121016</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0469109</v>
+        <v>0.0467809</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0496601</v>
+        <v>0.0467085</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.158646</v>
+        <v>0.159966</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0466215</v>
+        <v>0.0477155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0472388</v>
+        <v>0.047729</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0580362</v>
+        <v>0.058032</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0469631</v>
+        <v>0.046703</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0470034</v>
+        <v>0.0482419</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05837</v>
+        <v>0.0582653</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0476118</v>
+        <v>0.04918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0485756</v>
+        <v>0.049401</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0590748</v>
+        <v>0.0595444</v>
       </c>
       <c r="C55" t="n">
-        <v>0.048995</v>
+        <v>0.0491829</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0493712</v>
+        <v>0.0492915</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0617565</v>
+        <v>0.0612231</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0506697</v>
+        <v>0.0512045</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0495057</v>
+        <v>0.0502388</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0622464</v>
+        <v>0.0605371</v>
       </c>
       <c r="C57" t="n">
-        <v>0.048935</v>
+        <v>0.0497699</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0511781</v>
+        <v>0.0502788</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0650935</v>
+        <v>0.0649952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.051473</v>
+        <v>0.0513382</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0514716</v>
+        <v>0.0513268</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0643029</v>
+        <v>0.0662946</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0519493</v>
+        <v>0.0526155</v>
       </c>
       <c r="D59" t="n">
-        <v>0.052385</v>
+        <v>0.0521148</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0687744</v>
+        <v>0.06785919999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0531239</v>
+        <v>0.0531149</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0526627</v>
+        <v>0.0546391</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0739303</v>
+        <v>0.0739168</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0559537</v>
+        <v>0.0545588</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0556184</v>
+        <v>0.0571286</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0792822</v>
+        <v>0.07789359999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0578783</v>
+        <v>0.0592646</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0590658</v>
+        <v>0.0582652</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0847696</v>
+        <v>0.08962199999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0617807</v>
+        <v>0.06270199999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0620283</v>
+        <v>0.0639436</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10237</v>
+        <v>0.100557</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0700052</v>
+        <v>0.0739375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0701908</v>
+        <v>0.0701435</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12784</v>
+        <v>0.12163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0830611</v>
+        <v>0.0832975</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08466079999999999</v>
+        <v>0.0817697</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166432</v>
+        <v>0.157455</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0537713</v>
+        <v>0.0522981</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0526265</v>
+        <v>0.052232</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06595189999999999</v>
+        <v>0.06664059999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0531168</v>
+        <v>0.0535558</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0528586</v>
+        <v>0.0538736</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0673969</v>
+        <v>0.06950919999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0569099</v>
+        <v>0.0537967</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0538417</v>
+        <v>0.0554822</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06926930000000001</v>
+        <v>0.0700456</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0551941</v>
+        <v>0.0542669</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0559133</v>
+        <v>0.0557343</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0706155</v>
+        <v>0.06884659999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0551193</v>
+        <v>0.0566769</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0566112</v>
+        <v>0.0557955</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0719374</v>
+        <v>0.0727208</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0570604</v>
+        <v>0.058428</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0578354</v>
+        <v>0.0576775</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0761389</v>
+        <v>0.0740277</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0580055</v>
+        <v>0.0577113</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0580858</v>
+        <v>0.0594848</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0768162</v>
+        <v>0.07778450000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0592245</v>
+        <v>0.0597475</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0602809</v>
+        <v>0.0597113</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08345329999999999</v>
+        <v>0.08591890000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0618525</v>
+        <v>0.0611265</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0611318</v>
+        <v>0.0609905</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08627070000000001</v>
+        <v>0.0881238</v>
       </c>
       <c r="C75" t="n">
-        <v>0.065333</v>
+        <v>0.06585580000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0645348</v>
+        <v>0.0656537</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0956466</v>
+        <v>0.094108</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0681973</v>
+        <v>0.06742339999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06833939999999999</v>
+        <v>0.07145849999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105471</v>
+        <v>0.103889</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07381210000000001</v>
+        <v>0.0745405</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0738028</v>
+        <v>0.0742746</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.120654</v>
+        <v>0.116561</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0801943</v>
+        <v>0.0807401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0809126</v>
+        <v>0.0818485</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141596</v>
+        <v>0.138074</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09277050000000001</v>
+        <v>0.0948957</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09241580000000001</v>
+        <v>0.0956775</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.184015</v>
+        <v>0.174958</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0598324</v>
+        <v>0.060667</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0599943</v>
+        <v>0.0600688</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0808263</v>
+        <v>0.0811921</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0620723</v>
+        <v>0.0611676</v>
       </c>
       <c r="D81" t="n">
-        <v>0.059911</v>
+        <v>0.0607202</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08449420000000001</v>
+        <v>0.0799161</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0619121</v>
+        <v>0.0626255</v>
       </c>
       <c r="D82" t="n">
-        <v>0.061338</v>
+        <v>0.0638282</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0839121</v>
+        <v>0.0860395</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0634773</v>
+        <v>0.06417539999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0644774</v>
+        <v>0.0640804</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0874646</v>
+        <v>0.0860601</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0664389</v>
+        <v>0.0649743</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0658628</v>
+        <v>0.0666648</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09256060000000001</v>
+        <v>0.0918176</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0679449</v>
+        <v>0.06720329999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0684979</v>
+        <v>0.0668653</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0952664</v>
+        <v>0.09609570000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0690765</v>
+        <v>0.0677753</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0686964</v>
+        <v>0.0690986</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09543069999999999</v>
+        <v>0.09935380000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0722846</v>
+        <v>0.07137739999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06979249999999999</v>
+        <v>0.0714834</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101212</v>
+        <v>0.105408</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07393710000000001</v>
+        <v>0.0734868</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0746211</v>
+        <v>0.0749821</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.106715</v>
+        <v>0.109163</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0768892</v>
+        <v>0.07700070000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07830910000000001</v>
+        <v>0.07597470000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.112435</v>
+        <v>0.115256</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0814222</v>
+        <v>0.0820703</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0810196</v>
+        <v>0.0824155</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123453</v>
+        <v>0.125234</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0859535</v>
+        <v>0.08715729999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08815530000000001</v>
+        <v>0.08615109999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139735</v>
+        <v>0.136211</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0937432</v>
+        <v>0.09710829999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0970121</v>
+        <v>0.0991775</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.16156</v>
+        <v>0.15995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.110033</v>
+        <v>0.104503</v>
       </c>
       <c r="D93" t="n">
-        <v>0.107636</v>
+        <v>0.109211</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190224</v>
+        <v>0.195592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0831725</v>
+        <v>0.0814622</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0798637</v>
+        <v>0.08067390000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.106276</v>
+        <v>0.108311</v>
       </c>
       <c r="C95" t="n">
-        <v>0.082556</v>
+        <v>0.08360860000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0831129</v>
+        <v>0.0829732</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.108808</v>
+        <v>0.110077</v>
       </c>
       <c r="C96" t="n">
-        <v>0.085566</v>
+        <v>0.0886769</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0851982</v>
+        <v>0.0834188</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113882</v>
+        <v>0.111405</v>
       </c>
       <c r="C97" t="n">
-        <v>0.086018</v>
+        <v>0.0860877</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0873588</v>
+        <v>0.0864539</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.11296</v>
+        <v>0.118649</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0857147</v>
+        <v>0.0904539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0883341</v>
+        <v>0.0925433</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118477</v>
+        <v>0.11711</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0895002</v>
+        <v>0.08746520000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0900319</v>
+        <v>0.09002839999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.123348</v>
+        <v>0.122123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09105679999999999</v>
+        <v>0.0905575</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0916782</v>
+        <v>0.0918277</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.128492</v>
+        <v>0.124893</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09280140000000001</v>
+        <v>0.09209059999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0971641</v>
+        <v>0.0928307</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133739</v>
+        <v>0.127714</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0971692</v>
+        <v>0.0976093</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0947303</v>
+        <v>0.0953122</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134405</v>
+        <v>0.136604</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0978463</v>
+        <v>0.100086</v>
       </c>
       <c r="D103" t="n">
-        <v>0.101916</v>
+        <v>0.1016</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.138459</v>
+        <v>0.140183</v>
       </c>
       <c r="C104" t="n">
-        <v>0.104798</v>
+        <v>0.105669</v>
       </c>
       <c r="D104" t="n">
-        <v>0.104215</v>
+        <v>0.106468</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149685</v>
+        <v>0.150404</v>
       </c>
       <c r="C105" t="n">
-        <v>0.112536</v>
+        <v>0.109924</v>
       </c>
       <c r="D105" t="n">
-        <v>0.110775</v>
+        <v>0.107821</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.166145</v>
+        <v>0.167864</v>
       </c>
       <c r="C106" t="n">
-        <v>0.118107</v>
+        <v>0.114678</v>
       </c>
       <c r="D106" t="n">
-        <v>0.114331</v>
+        <v>0.117626</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185548</v>
+        <v>0.185805</v>
       </c>
       <c r="C107" t="n">
-        <v>0.129688</v>
+        <v>0.129555</v>
       </c>
       <c r="D107" t="n">
-        <v>0.128181</v>
+        <v>0.130743</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223116</v>
+        <v>0.219799</v>
       </c>
       <c r="C108" t="n">
-        <v>0.163475</v>
+        <v>0.160025</v>
       </c>
       <c r="D108" t="n">
-        <v>0.161969</v>
+        <v>0.170503</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.282611</v>
+        <v>0.283836</v>
       </c>
       <c r="C109" t="n">
-        <v>0.16503</v>
+        <v>0.168717</v>
       </c>
       <c r="D109" t="n">
-        <v>0.161956</v>
+        <v>0.172883</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.195499</v>
+        <v>0.193301</v>
       </c>
       <c r="C110" t="n">
-        <v>0.164308</v>
+        <v>0.166741</v>
       </c>
       <c r="D110" t="n">
-        <v>0.166543</v>
+        <v>0.161309</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.196479</v>
+        <v>0.202398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.167171</v>
+        <v>0.164142</v>
       </c>
       <c r="D111" t="n">
-        <v>0.164993</v>
+        <v>0.1703</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.212294</v>
+        <v>0.210004</v>
       </c>
       <c r="C112" t="n">
-        <v>0.171708</v>
+        <v>0.16494</v>
       </c>
       <c r="D112" t="n">
-        <v>0.166461</v>
+        <v>0.165744</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.207749</v>
+        <v>0.211851</v>
       </c>
       <c r="C113" t="n">
-        <v>0.168656</v>
+        <v>0.170322</v>
       </c>
       <c r="D113" t="n">
-        <v>0.171818</v>
+        <v>0.174662</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.208601</v>
+        <v>0.212172</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1718</v>
+        <v>0.170445</v>
       </c>
       <c r="D114" t="n">
-        <v>0.177896</v>
+        <v>0.169039</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.209194</v>
+        <v>0.21481</v>
       </c>
       <c r="C115" t="n">
-        <v>0.176682</v>
+        <v>0.175705</v>
       </c>
       <c r="D115" t="n">
-        <v>0.181581</v>
+        <v>0.173488</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217583</v>
+        <v>0.21605</v>
       </c>
       <c r="C116" t="n">
-        <v>0.185216</v>
+        <v>0.178351</v>
       </c>
       <c r="D116" t="n">
-        <v>0.183501</v>
+        <v>0.181545</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223652</v>
+        <v>0.222949</v>
       </c>
       <c r="C117" t="n">
-        <v>0.178659</v>
+        <v>0.186901</v>
       </c>
       <c r="D117" t="n">
-        <v>0.192274</v>
+        <v>0.194318</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.243238</v>
+        <v>0.231475</v>
       </c>
       <c r="C118" t="n">
-        <v>0.18729</v>
+        <v>0.182937</v>
       </c>
       <c r="D118" t="n">
-        <v>0.183208</v>
+        <v>0.18292</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.245939</v>
+        <v>0.238055</v>
       </c>
       <c r="C119" t="n">
-        <v>0.195781</v>
+        <v>0.18796</v>
       </c>
       <c r="D119" t="n">
-        <v>0.19048</v>
+        <v>0.191217</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254696</v>
+        <v>0.2685</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199208</v>
+        <v>0.195788</v>
       </c>
       <c r="D120" t="n">
-        <v>0.195185</v>
+        <v>0.196096</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.277701</v>
+        <v>0.279609</v>
       </c>
       <c r="C121" t="n">
-        <v>0.209435</v>
+        <v>0.208079</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222432</v>
+        <v>0.206888</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307972</v>
+        <v>0.30845</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236381</v>
+        <v>0.224626</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248491</v>
+        <v>0.225235</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.383802</v>
+        <v>0.396928</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25926</v>
+        <v>0.254501</v>
       </c>
       <c r="D123" t="n">
-        <v>0.253561</v>
+        <v>0.254288</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.309603</v>
+        <v>0.320337</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260152</v>
+        <v>0.253364</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265463</v>
+        <v>0.254365</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315338</v>
+        <v>0.322531</v>
       </c>
       <c r="C125" t="n">
-        <v>0.26387</v>
+        <v>0.26148</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256177</v>
+        <v>0.25512</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.318901</v>
+        <v>0.317606</v>
       </c>
       <c r="C126" t="n">
-        <v>0.258448</v>
+        <v>0.265509</v>
       </c>
       <c r="D126" t="n">
-        <v>0.253157</v>
+        <v>0.267491</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326345</v>
+        <v>0.324617</v>
       </c>
       <c r="C127" t="n">
-        <v>0.269657</v>
+        <v>0.270007</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27243</v>
+        <v>0.266134</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.332614</v>
+        <v>0.319116</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266272</v>
+        <v>0.268054</v>
       </c>
       <c r="D128" t="n">
-        <v>0.263374</v>
+        <v>0.26366</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.334538</v>
+        <v>0.326707</v>
       </c>
       <c r="C129" t="n">
-        <v>0.268867</v>
+        <v>0.276693</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268587</v>
+        <v>0.268267</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.33401</v>
+        <v>0.335355</v>
       </c>
       <c r="C130" t="n">
-        <v>0.278151</v>
+        <v>0.278715</v>
       </c>
       <c r="D130" t="n">
-        <v>0.27359</v>
+        <v>0.271877</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.34547</v>
+        <v>0.35291</v>
       </c>
       <c r="C131" t="n">
-        <v>0.277522</v>
+        <v>0.275782</v>
       </c>
       <c r="D131" t="n">
-        <v>0.269028</v>
+        <v>0.293423</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.356548</v>
+        <v>0.358818</v>
       </c>
       <c r="C132" t="n">
-        <v>0.281586</v>
+        <v>0.286522</v>
       </c>
       <c r="D132" t="n">
-        <v>0.293869</v>
+        <v>0.283787</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.364306</v>
+        <v>0.369682</v>
       </c>
       <c r="C133" t="n">
-        <v>0.287523</v>
+        <v>0.284345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.284957</v>
+        <v>0.283066</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.386868</v>
+        <v>0.385758</v>
       </c>
       <c r="C134" t="n">
-        <v>0.296216</v>
+        <v>0.296548</v>
       </c>
       <c r="D134" t="n">
-        <v>0.295962</v>
+        <v>0.301397</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.417921</v>
+        <v>0.413238</v>
       </c>
       <c r="C135" t="n">
-        <v>0.31052</v>
+        <v>0.314325</v>
       </c>
       <c r="D135" t="n">
-        <v>0.323582</v>
+        <v>0.311853</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.45573</v>
+        <v>0.457903</v>
       </c>
       <c r="C136" t="n">
-        <v>0.328376</v>
+        <v>0.323874</v>
       </c>
       <c r="D136" t="n">
-        <v>0.338565</v>
+        <v>0.333081</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.534674</v>
+        <v>0.539071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.31301</v>
+        <v>0.316681</v>
       </c>
       <c r="D137" t="n">
-        <v>0.310779</v>
+        <v>0.305617</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.377962</v>
+        <v>0.384543</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320248</v>
+        <v>0.315134</v>
       </c>
       <c r="D138" t="n">
-        <v>0.314751</v>
+        <v>0.314872</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382316</v>
+        <v>0.382707</v>
       </c>
       <c r="C139" t="n">
-        <v>0.313463</v>
+        <v>0.312946</v>
       </c>
       <c r="D139" t="n">
-        <v>0.316212</v>
+        <v>0.311392</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.390348</v>
+        <v>0.383596</v>
       </c>
       <c r="C140" t="n">
-        <v>0.321758</v>
+        <v>0.319082</v>
       </c>
       <c r="D140" t="n">
-        <v>0.317364</v>
+        <v>0.315439</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4028</v>
+        <v>0.391054</v>
       </c>
       <c r="C141" t="n">
-        <v>0.32143</v>
+        <v>0.317636</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314914</v>
+        <v>0.332145</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.398457</v>
+        <v>0.395238</v>
       </c>
       <c r="C142" t="n">
-        <v>0.321533</v>
+        <v>0.32508</v>
       </c>
       <c r="D142" t="n">
-        <v>0.32381</v>
+        <v>0.328421</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405869</v>
+        <v>0.405482</v>
       </c>
       <c r="C143" t="n">
-        <v>0.321705</v>
+        <v>0.328955</v>
       </c>
       <c r="D143" t="n">
-        <v>0.335016</v>
+        <v>0.324902</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0428112</v>
+        <v>0.0410787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0387192</v>
+        <v>0.0361397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0368614</v>
+        <v>0.111122</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449097</v>
+        <v>0.0434785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0386806</v>
+        <v>0.0378541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0389186</v>
+        <v>0.114579</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0484471</v>
+        <v>0.0457764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0414452</v>
+        <v>0.0391253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0406974</v>
+        <v>0.120538</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0526451</v>
+        <v>0.0526381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0453318</v>
+        <v>0.0427274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0405104</v>
+        <v>0.125868</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0614592</v>
+        <v>0.056882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.047529</v>
+        <v>0.0454926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439596</v>
+        <v>0.128047</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07464759999999999</v>
+        <v>0.0681474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0544538</v>
+        <v>0.0550574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0522448</v>
+        <v>0.0953755</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0954101</v>
+        <v>0.0841378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06630510000000001</v>
+        <v>0.0645575</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0616113</v>
+        <v>0.0991291</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125396</v>
+        <v>0.119398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0365517</v>
+        <v>0.0344614</v>
       </c>
       <c r="D9" t="n">
-        <v>0.037267</v>
+        <v>0.102882</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0400348</v>
+        <v>0.0381437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0361069</v>
+        <v>0.0345417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0367486</v>
+        <v>0.107977</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0408348</v>
+        <v>0.0387979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0359313</v>
+        <v>0.0347992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.036456</v>
+        <v>0.112259</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0417163</v>
+        <v>0.038852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0365168</v>
+        <v>0.0350865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0363838</v>
+        <v>0.115628</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0410412</v>
+        <v>0.0425049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0367779</v>
+        <v>0.0354476</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0373941</v>
+        <v>0.119598</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0437078</v>
+        <v>0.0416069</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0365631</v>
+        <v>0.0360543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0370598</v>
+        <v>0.124601</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0433842</v>
+        <v>0.0418044</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0370352</v>
+        <v>0.0362819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0384546</v>
+        <v>0.135458</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0457982</v>
+        <v>0.0448277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0392522</v>
+        <v>0.0369527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0387493</v>
+        <v>0.130885</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0474216</v>
+        <v>0.0471037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399158</v>
+        <v>0.03788</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0391712</v>
+        <v>0.134731</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511729</v>
+        <v>0.0486031</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0408662</v>
+        <v>0.0390186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0412256</v>
+        <v>0.138283</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0566505</v>
+        <v>0.0542069</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0448038</v>
+        <v>0.0415374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0429018</v>
+        <v>0.148714</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0665645</v>
+        <v>0.0621949</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0457729</v>
+        <v>0.0451851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0470417</v>
+        <v>0.157964</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773464</v>
+        <v>0.0744973</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0532732</v>
+        <v>0.0537634</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0520854</v>
+        <v>0.116846</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0931768</v>
+        <v>0.09645280000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0633997</v>
+        <v>0.0628736</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06292639999999999</v>
+        <v>0.111574</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126247</v>
+        <v>0.118931</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0360834</v>
+        <v>0.0367052</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0376279</v>
+        <v>0.115572</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0458832</v>
+        <v>0.0455292</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0366787</v>
+        <v>0.038303</v>
       </c>
       <c r="D24" t="n">
-        <v>0.036999</v>
+        <v>0.126166</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0428606</v>
+        <v>0.0438184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0368423</v>
+        <v>0.0373738</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0372316</v>
+        <v>0.127138</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0442497</v>
+        <v>0.0434346</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374001</v>
+        <v>0.0374074</v>
       </c>
       <c r="D26" t="n">
-        <v>0.037819</v>
+        <v>0.134079</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0445475</v>
+        <v>0.044683</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0380739</v>
+        <v>0.0372523</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0376668</v>
+        <v>0.140619</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0469316</v>
+        <v>0.0453221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0395379</v>
+        <v>0.0379445</v>
       </c>
       <c r="D28" t="n">
-        <v>0.039423</v>
+        <v>0.143656</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0465832</v>
+        <v>0.0467617</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0404035</v>
+        <v>0.0395878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0399933</v>
+        <v>0.148933</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0490192</v>
+        <v>0.0501711</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398069</v>
+        <v>0.040255</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0392306</v>
+        <v>0.155434</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0514133</v>
+        <v>0.0499305</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0409541</v>
+        <v>0.0412885</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0405123</v>
+        <v>0.15107</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558312</v>
+        <v>0.0534778</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0437319</v>
+        <v>0.0428754</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0421092</v>
+        <v>0.162836</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0588735</v>
+        <v>0.0613428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0444642</v>
+        <v>0.0453549</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0438974</v>
+        <v>0.165664</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06688239999999999</v>
+        <v>0.06741030000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0487711</v>
+        <v>0.0500836</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0464773</v>
+        <v>0.181373</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07851080000000001</v>
+        <v>0.0790217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0539015</v>
+        <v>0.0519548</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0525948</v>
+        <v>0.121984</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0932955</v>
+        <v>0.09247950000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0623822</v>
+        <v>0.0597272</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0622277</v>
+        <v>0.135765</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.125153</v>
+        <v>0.127184</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0412908</v>
+        <v>0.0400183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0404649</v>
+        <v>0.141704</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0476611</v>
+        <v>0.0462133</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0398699</v>
+        <v>0.040326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0398076</v>
+        <v>0.149287</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0483608</v>
+        <v>0.0486317</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0406636</v>
+        <v>0.0419625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0402644</v>
+        <v>0.156578</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0482218</v>
+        <v>0.0480572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0404485</v>
+        <v>0.0425709</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0409391</v>
+        <v>0.159474</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0500359</v>
+        <v>0.0486754</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0413017</v>
+        <v>0.0410147</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0407581</v>
+        <v>0.168975</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.050744</v>
+        <v>0.0503557</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0410973</v>
+        <v>0.0421648</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0435915</v>
+        <v>0.178969</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0504366</v>
+        <v>0.0514842</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0422932</v>
+        <v>0.0428378</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0430783</v>
+        <v>0.190868</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0528653</v>
+        <v>0.055736</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0434618</v>
+        <v>0.0428147</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0431373</v>
+        <v>0.197208</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563286</v>
+        <v>0.0555873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0453779</v>
+        <v>0.0442957</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0435299</v>
+        <v>0.205229</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0590408</v>
+        <v>0.0582053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0457539</v>
+        <v>0.0470778</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0449987</v>
+        <v>0.218266</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06406630000000001</v>
+        <v>0.0628403</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0475355</v>
+        <v>0.0479994</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0484856</v>
+        <v>0.23879</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0689406</v>
+        <v>0.06859179999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0505063</v>
+        <v>0.0519499</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0494563</v>
+        <v>0.258304</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07898189999999999</v>
+        <v>0.0843503</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0545023</v>
+        <v>0.0565898</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0533123</v>
+        <v>0.27178</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09503540000000001</v>
+        <v>0.0930608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0622152</v>
+        <v>0.06285399999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0642808</v>
+        <v>0.219379</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121016</v>
+        <v>0.120812</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0467809</v>
+        <v>0.0458305</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0467085</v>
+        <v>0.226494</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159966</v>
+        <v>0.163357</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0477155</v>
+        <v>0.0470578</v>
       </c>
       <c r="D52" t="n">
-        <v>0.047729</v>
+        <v>0.239174</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.058032</v>
+        <v>0.0592852</v>
       </c>
       <c r="C53" t="n">
-        <v>0.046703</v>
+        <v>0.0486202</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0482419</v>
+        <v>0.254232</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0582653</v>
+        <v>0.0594998</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04918</v>
+        <v>0.0477522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.049401</v>
+        <v>0.269692</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0595444</v>
+        <v>0.060114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0491829</v>
+        <v>0.0493492</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0492915</v>
+        <v>0.283955</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612231</v>
+        <v>0.0617672</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0512045</v>
+        <v>0.0480333</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0502388</v>
+        <v>0.302941</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605371</v>
+        <v>0.0609479</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0497699</v>
+        <v>0.0493671</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0502788</v>
+        <v>0.317314</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0649952</v>
+        <v>0.0639154</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0513382</v>
+        <v>0.0511424</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0513268</v>
+        <v>0.340928</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0662946</v>
+        <v>0.0653976</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0526155</v>
+        <v>0.0510226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0521148</v>
+        <v>0.358513</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06785919999999999</v>
+        <v>0.067897</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0531149</v>
+        <v>0.05362</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0546391</v>
+        <v>0.380693</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0739168</v>
+        <v>0.072334</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0545588</v>
+        <v>0.0558201</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0571286</v>
+        <v>0.396429</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07789359999999999</v>
+        <v>0.0814317</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0592646</v>
+        <v>0.0576996</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0582652</v>
+        <v>0.422544</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08962199999999999</v>
+        <v>0.087367</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06270199999999999</v>
+        <v>0.0635903</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0639436</v>
+        <v>0.448447</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100557</v>
+        <v>0.104879</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0739375</v>
+        <v>0.0702947</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0701435</v>
+        <v>0.349145</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12163</v>
+        <v>0.127399</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0832975</v>
+        <v>0.0831081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0817697</v>
+        <v>0.365888</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157455</v>
+        <v>0.165139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0522981</v>
+        <v>0.0541118</v>
       </c>
       <c r="D66" t="n">
-        <v>0.052232</v>
+        <v>0.385463</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06664059999999999</v>
+        <v>0.0669435</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0535558</v>
+        <v>0.0542178</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0538736</v>
+        <v>0.395664</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06950919999999999</v>
+        <v>0.0677401</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0537967</v>
+        <v>0.0534722</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0554822</v>
+        <v>0.409851</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0700456</v>
+        <v>0.0690607</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0542669</v>
+        <v>0.0554103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0557343</v>
+        <v>0.426285</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06884659999999999</v>
+        <v>0.0699647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0566769</v>
+        <v>0.0554841</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0557955</v>
+        <v>0.438216</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0727208</v>
+        <v>0.0732096</v>
       </c>
       <c r="C71" t="n">
-        <v>0.058428</v>
+        <v>0.0566426</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0576775</v>
+        <v>0.472959</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0740277</v>
+        <v>0.07476670000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0577113</v>
+        <v>0.057655</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0594848</v>
+        <v>0.492885</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07778450000000001</v>
+        <v>0.077695</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0597475</v>
+        <v>0.0597462</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0597113</v>
+        <v>0.5049169999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08591890000000001</v>
+        <v>0.0814703</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0611265</v>
+        <v>0.0605364</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0609905</v>
+        <v>0.5180670000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0881238</v>
+        <v>0.08295950000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06585580000000001</v>
+        <v>0.0639599</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0656537</v>
+        <v>0.564928</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.094108</v>
+        <v>0.0973663</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06742339999999999</v>
+        <v>0.06770710000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07145849999999999</v>
+        <v>0.575327</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103889</v>
+        <v>0.106349</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0745405</v>
+        <v>0.0736942</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0742746</v>
+        <v>0.58319</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116561</v>
+        <v>0.119776</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0807401</v>
+        <v>0.0811441</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0818485</v>
+        <v>0.458699</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.138074</v>
+        <v>0.138921</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0948957</v>
+        <v>0.0937093</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0956775</v>
+        <v>0.465442</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.174958</v>
+        <v>0.177536</v>
       </c>
       <c r="C80" t="n">
-        <v>0.060667</v>
+        <v>0.0603349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0600688</v>
+        <v>0.477989</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0811921</v>
+        <v>0.08080469999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0611676</v>
+        <v>0.0632514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0607202</v>
+        <v>0.493697</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0799161</v>
+        <v>0.0889742</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0626255</v>
+        <v>0.0617917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0638282</v>
+        <v>0.5261400000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0860395</v>
+        <v>0.0863917</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06417539999999999</v>
+        <v>0.06449050000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0640804</v>
+        <v>0.524153</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0860601</v>
+        <v>0.0895697</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0649743</v>
+        <v>0.0645096</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0666648</v>
+        <v>0.542049</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0918176</v>
+        <v>0.0906168</v>
       </c>
       <c r="C85" t="n">
-        <v>0.06720329999999999</v>
+        <v>0.0690788</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0668653</v>
+        <v>0.557854</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09609570000000001</v>
+        <v>0.0930655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0677753</v>
+        <v>0.06781420000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0690986</v>
+        <v>0.57112</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09935380000000001</v>
+        <v>0.0974122</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07137739999999999</v>
+        <v>0.06969119999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0714834</v>
+        <v>0.598682</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.105408</v>
+        <v>0.102295</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0734868</v>
+        <v>0.07257669999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0749821</v>
+        <v>0.633147</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.109163</v>
+        <v>0.111447</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07700070000000001</v>
+        <v>0.0781509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07597470000000001</v>
+        <v>0.64399</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115256</v>
+        <v>0.112968</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0820703</v>
+        <v>0.0805623</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0824155</v>
+        <v>0.6536650000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125234</v>
+        <v>0.123875</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08715729999999999</v>
+        <v>0.08640249999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08615109999999999</v>
+        <v>0.707049</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.136211</v>
+        <v>0.138583</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09710829999999999</v>
+        <v>0.095235</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0991775</v>
+        <v>0.520073</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.15995</v>
+        <v>0.161492</v>
       </c>
       <c r="C93" t="n">
-        <v>0.104503</v>
+        <v>0.107958</v>
       </c>
       <c r="D93" t="n">
-        <v>0.109211</v>
+        <v>0.529276</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195592</v>
+        <v>0.19393</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0814622</v>
+        <v>0.08360330000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08067390000000001</v>
+        <v>0.543153</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.108311</v>
+        <v>0.111168</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08360860000000001</v>
+        <v>0.0819829</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0829732</v>
+        <v>0.552115</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110077</v>
+        <v>0.113467</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0886769</v>
+        <v>0.0830399</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0834188</v>
+        <v>0.586395</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111405</v>
+        <v>0.113508</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0860877</v>
+        <v>0.0871623</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0864539</v>
+        <v>0.589947</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118649</v>
+        <v>0.112501</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0904539</v>
+        <v>0.08497209999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0925433</v>
+        <v>0.621126</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11711</v>
+        <v>0.118392</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08746520000000001</v>
+        <v>0.0909919</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09002839999999999</v>
+        <v>0.626618</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.122123</v>
+        <v>0.121259</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0905575</v>
+        <v>0.09276769999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0918277</v>
+        <v>0.6784829999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124893</v>
+        <v>0.125238</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09209059999999999</v>
+        <v>0.0934203</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0928307</v>
+        <v>0.672556</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.127714</v>
+        <v>0.130044</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0976093</v>
+        <v>0.100091</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0953122</v>
+        <v>0.698855</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.136604</v>
+        <v>0.134431</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100086</v>
+        <v>0.0975554</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1016</v>
+        <v>0.705947</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.140183</v>
+        <v>0.135608</v>
       </c>
       <c r="C104" t="n">
-        <v>0.105669</v>
+        <v>0.104354</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106468</v>
+        <v>0.747515</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150404</v>
+        <v>0.152232</v>
       </c>
       <c r="C105" t="n">
-        <v>0.109924</v>
+        <v>0.106901</v>
       </c>
       <c r="D105" t="n">
-        <v>0.107821</v>
+        <v>0.749317</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167864</v>
+        <v>0.161559</v>
       </c>
       <c r="C106" t="n">
-        <v>0.114678</v>
+        <v>0.116104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.117626</v>
+        <v>0.776163</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185805</v>
+        <v>0.186279</v>
       </c>
       <c r="C107" t="n">
-        <v>0.129555</v>
+        <v>0.127747</v>
       </c>
       <c r="D107" t="n">
-        <v>0.130743</v>
+        <v>0.571758</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.219799</v>
+        <v>0.220539</v>
       </c>
       <c r="C108" t="n">
-        <v>0.160025</v>
+        <v>0.164086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.170503</v>
+        <v>0.594194</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.283836</v>
+        <v>0.278873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168717</v>
+        <v>0.163143</v>
       </c>
       <c r="D109" t="n">
-        <v>0.172883</v>
+        <v>0.620326</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.193301</v>
+        <v>0.19426</v>
       </c>
       <c r="C110" t="n">
-        <v>0.166741</v>
+        <v>0.163872</v>
       </c>
       <c r="D110" t="n">
-        <v>0.161309</v>
+        <v>0.654751</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.202398</v>
+        <v>0.200045</v>
       </c>
       <c r="C111" t="n">
-        <v>0.164142</v>
+        <v>0.173127</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1703</v>
+        <v>0.674101</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.210004</v>
+        <v>0.200962</v>
       </c>
       <c r="C112" t="n">
-        <v>0.16494</v>
+        <v>0.16885</v>
       </c>
       <c r="D112" t="n">
-        <v>0.165744</v>
+        <v>0.672387</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.211851</v>
+        <v>0.208698</v>
       </c>
       <c r="C113" t="n">
-        <v>0.170322</v>
+        <v>0.173654</v>
       </c>
       <c r="D113" t="n">
-        <v>0.174662</v>
+        <v>0.677056</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.212172</v>
+        <v>0.21138</v>
       </c>
       <c r="C114" t="n">
-        <v>0.170445</v>
+        <v>0.181432</v>
       </c>
       <c r="D114" t="n">
-        <v>0.169039</v>
+        <v>0.761383</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21481</v>
+        <v>0.214068</v>
       </c>
       <c r="C115" t="n">
-        <v>0.175705</v>
+        <v>0.179028</v>
       </c>
       <c r="D115" t="n">
-        <v>0.173488</v>
+        <v>0.794878</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21605</v>
+        <v>0.218404</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178351</v>
+        <v>0.179984</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181545</v>
+        <v>0.745405</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222949</v>
+        <v>0.225853</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186901</v>
+        <v>0.180668</v>
       </c>
       <c r="D117" t="n">
-        <v>0.194318</v>
+        <v>0.868103</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231475</v>
+        <v>0.234186</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182937</v>
+        <v>0.181438</v>
       </c>
       <c r="D118" t="n">
-        <v>0.18292</v>
+        <v>0.880211</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238055</v>
+        <v>0.242176</v>
       </c>
       <c r="C119" t="n">
-        <v>0.18796</v>
+        <v>0.187803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.191217</v>
+        <v>0.817967</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2685</v>
+        <v>0.258709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195788</v>
+        <v>0.196359</v>
       </c>
       <c r="D120" t="n">
-        <v>0.196096</v>
+        <v>0.872842</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279609</v>
+        <v>0.30466</v>
       </c>
       <c r="C121" t="n">
-        <v>0.208079</v>
+        <v>0.210069</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206888</v>
+        <v>0.650647</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.30845</v>
+        <v>0.322784</v>
       </c>
       <c r="C122" t="n">
-        <v>0.224626</v>
+        <v>0.238959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.225235</v>
+        <v>0.665104</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.396928</v>
+        <v>0.37566</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254501</v>
+        <v>0.255465</v>
       </c>
       <c r="D123" t="n">
-        <v>0.254288</v>
+        <v>0.678599</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320337</v>
+        <v>0.31288</v>
       </c>
       <c r="C124" t="n">
-        <v>0.253364</v>
+        <v>0.259646</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254365</v>
+        <v>0.7209100000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.322531</v>
+        <v>0.307102</v>
       </c>
       <c r="C125" t="n">
-        <v>0.26148</v>
+        <v>0.26075</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25512</v>
+        <v>0.727171</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317606</v>
+        <v>0.31613</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265509</v>
+        <v>0.268629</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267491</v>
+        <v>0.763157</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.324617</v>
+        <v>0.332581</v>
       </c>
       <c r="C127" t="n">
-        <v>0.270007</v>
+        <v>0.257862</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266134</v>
+        <v>0.782649</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319116</v>
+        <v>0.33132</v>
       </c>
       <c r="C128" t="n">
-        <v>0.268054</v>
+        <v>0.263623</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26366</v>
+        <v>0.816635</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.326707</v>
+        <v>0.33055</v>
       </c>
       <c r="C129" t="n">
-        <v>0.276693</v>
+        <v>0.271347</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268267</v>
+        <v>0.855959</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335355</v>
+        <v>0.342034</v>
       </c>
       <c r="C130" t="n">
-        <v>0.278715</v>
+        <v>0.278949</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271877</v>
+        <v>0.884626</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.35291</v>
+        <v>0.356506</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275782</v>
+        <v>0.277028</v>
       </c>
       <c r="D131" t="n">
-        <v>0.293423</v>
+        <v>0.903272</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358818</v>
+        <v>0.363099</v>
       </c>
       <c r="C132" t="n">
-        <v>0.286522</v>
+        <v>0.285751</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283787</v>
+        <v>0.944861</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369682</v>
+        <v>0.361697</v>
       </c>
       <c r="C133" t="n">
-        <v>0.284345</v>
+        <v>0.285961</v>
       </c>
       <c r="D133" t="n">
-        <v>0.283066</v>
+        <v>0.964026</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.385758</v>
+        <v>0.384927</v>
       </c>
       <c r="C134" t="n">
-        <v>0.296548</v>
+        <v>0.288216</v>
       </c>
       <c r="D134" t="n">
-        <v>0.301397</v>
+        <v>1.02652</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.413238</v>
+        <v>0.411879</v>
       </c>
       <c r="C135" t="n">
-        <v>0.314325</v>
+        <v>0.319297</v>
       </c>
       <c r="D135" t="n">
-        <v>0.311853</v>
+        <v>0.835726</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.457903</v>
+        <v>0.458207</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323874</v>
+        <v>0.33126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.333081</v>
+        <v>0.869808</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.539071</v>
+        <v>0.547428</v>
       </c>
       <c r="C137" t="n">
-        <v>0.316681</v>
+        <v>0.316606</v>
       </c>
       <c r="D137" t="n">
-        <v>0.305617</v>
+        <v>0.907047</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.384543</v>
+        <v>0.389946</v>
       </c>
       <c r="C138" t="n">
-        <v>0.315134</v>
+        <v>0.310822</v>
       </c>
       <c r="D138" t="n">
-        <v>0.314872</v>
+        <v>0.934581</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382707</v>
+        <v>0.382341</v>
       </c>
       <c r="C139" t="n">
-        <v>0.312946</v>
+        <v>0.316284</v>
       </c>
       <c r="D139" t="n">
-        <v>0.311392</v>
+        <v>0.963744</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.383596</v>
+        <v>0.39318</v>
       </c>
       <c r="C140" t="n">
-        <v>0.319082</v>
+        <v>0.315396</v>
       </c>
       <c r="D140" t="n">
-        <v>0.315439</v>
+        <v>0.9975039999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391054</v>
+        <v>0.387676</v>
       </c>
       <c r="C141" t="n">
-        <v>0.317636</v>
+        <v>0.32347</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332145</v>
+        <v>1.02575</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.395238</v>
+        <v>0.379845</v>
       </c>
       <c r="C142" t="n">
-        <v>0.32508</v>
+        <v>0.320739</v>
       </c>
       <c r="D142" t="n">
-        <v>0.328421</v>
+        <v>1.06133</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405482</v>
+        <v>0.407241</v>
       </c>
       <c r="C143" t="n">
-        <v>0.328955</v>
+        <v>0.32808</v>
       </c>
       <c r="D143" t="n">
-        <v>0.324902</v>
+        <v>1.10108</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0428112</v>
+        <v>0.0439604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0387192</v>
+        <v>0.039318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0368614</v>
+        <v>0.0401184</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449097</v>
+        <v>0.0467403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0386806</v>
+        <v>0.0424898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0389186</v>
+        <v>0.0394926</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0484471</v>
+        <v>0.0461011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0414452</v>
+        <v>0.0433125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0406974</v>
+        <v>0.0427567</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0526451</v>
+        <v>0.0498697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0453318</v>
+        <v>0.0469085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0405104</v>
+        <v>0.0427972</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0614592</v>
+        <v>0.0593702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.047529</v>
+        <v>0.0501807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0439596</v>
+        <v>0.0474133</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07464759999999999</v>
+        <v>0.06882439999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0544538</v>
+        <v>0.056296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0522448</v>
+        <v>0.05464</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0954101</v>
+        <v>0.0907876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06630510000000001</v>
+        <v>0.0688068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0616113</v>
+        <v>0.0670162</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125396</v>
+        <v>0.12523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0365517</v>
+        <v>0.0379125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.037267</v>
+        <v>0.0374665</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0400348</v>
+        <v>0.0406098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0361069</v>
+        <v>0.0371785</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0367486</v>
+        <v>0.0360368</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0408348</v>
+        <v>0.0414737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0359313</v>
+        <v>0.0369712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.036456</v>
+        <v>0.0367951</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0417163</v>
+        <v>0.0411919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0365168</v>
+        <v>0.0386423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0363838</v>
+        <v>0.0379574</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0410412</v>
+        <v>0.0425093</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0367779</v>
+        <v>0.0378868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0373941</v>
+        <v>0.0383483</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0437078</v>
+        <v>0.0430065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0365631</v>
+        <v>0.0389974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0370598</v>
+        <v>0.0370007</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0433842</v>
+        <v>0.0441583</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0370352</v>
+        <v>0.0396038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0384546</v>
+        <v>0.0387284</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0457982</v>
+        <v>0.0458283</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0392522</v>
+        <v>0.0413331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0387493</v>
+        <v>0.0396729</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0474216</v>
+        <v>0.0488396</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399158</v>
+        <v>0.0432153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0391712</v>
+        <v>0.0390067</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511729</v>
+        <v>0.0530195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0408662</v>
+        <v>0.0421822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0412256</v>
+        <v>0.040423</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0566505</v>
+        <v>0.0610676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0448038</v>
+        <v>0.0446948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0429018</v>
+        <v>0.0424251</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0665645</v>
+        <v>0.0685143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0457729</v>
+        <v>0.0501776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0470417</v>
+        <v>0.0463488</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773464</v>
+        <v>0.0802351</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0532732</v>
+        <v>0.0564076</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0520854</v>
+        <v>0.0525821</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0931768</v>
+        <v>0.09845660000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0633997</v>
+        <v>0.06664680000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06292639999999999</v>
+        <v>0.0646847</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126247</v>
+        <v>0.126271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0360834</v>
+        <v>0.0378079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0376279</v>
+        <v>0.0383143</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0458832</v>
+        <v>0.0436603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0366787</v>
+        <v>0.0374283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.036999</v>
+        <v>0.0367941</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0428606</v>
+        <v>0.0437793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0368423</v>
+        <v>0.0382635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0372316</v>
+        <v>0.0383372</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0442497</v>
+        <v>0.0469492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374001</v>
+        <v>0.0389877</v>
       </c>
       <c r="D26" t="n">
-        <v>0.037819</v>
+        <v>0.0388526</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0445475</v>
+        <v>0.0458447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0380739</v>
+        <v>0.0387566</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0376668</v>
+        <v>0.0396734</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0469316</v>
+        <v>0.0456752</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0395379</v>
+        <v>0.0393785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.039423</v>
+        <v>0.0377278</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0465832</v>
+        <v>0.0478357</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0404035</v>
+        <v>0.0402803</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0399933</v>
+        <v>0.0390448</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0490192</v>
+        <v>0.050046</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398069</v>
+        <v>0.0430516</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0392306</v>
+        <v>0.0400459</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0514133</v>
+        <v>0.052592</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0409541</v>
+        <v>0.0418794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0405123</v>
+        <v>0.0418859</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0558312</v>
+        <v>0.0552481</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0437319</v>
+        <v>0.0441232</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0421092</v>
+        <v>0.0429701</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0588735</v>
+        <v>0.060988</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0444642</v>
+        <v>0.0455007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0438974</v>
+        <v>0.0455065</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06688239999999999</v>
+        <v>0.0670008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0487711</v>
+        <v>0.0509697</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0464773</v>
+        <v>0.0510456</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07851080000000001</v>
+        <v>0.0795777</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0539015</v>
+        <v>0.0545692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0525948</v>
+        <v>0.054361</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0932955</v>
+        <v>0.0928855</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0623822</v>
+        <v>0.06584859999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0622277</v>
+        <v>0.0627747</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.125153</v>
+        <v>0.126324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0412908</v>
+        <v>0.0444513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0404649</v>
+        <v>0.0426518</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0476611</v>
+        <v>0.0479001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0398699</v>
+        <v>0.0416086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0398076</v>
+        <v>0.0417136</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0483608</v>
+        <v>0.0482908</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0406636</v>
+        <v>0.0424251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0402644</v>
+        <v>0.0415741</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0482218</v>
+        <v>0.0521305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0404485</v>
+        <v>0.0417693</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0409391</v>
+        <v>0.0415341</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0500359</v>
+        <v>0.0506848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0413017</v>
+        <v>0.0430673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0407581</v>
+        <v>0.0420528</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.050744</v>
+        <v>0.0527433</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0410973</v>
+        <v>0.0465879</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0435915</v>
+        <v>0.0417839</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0504366</v>
+        <v>0.0519736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0422932</v>
+        <v>0.0461063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0430783</v>
+        <v>0.0448449</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0528653</v>
+        <v>0.0555451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0434618</v>
+        <v>0.0476498</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0431373</v>
+        <v>0.0430155</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563286</v>
+        <v>0.0565544</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0453779</v>
+        <v>0.0479448</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0435299</v>
+        <v>0.0459358</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0590408</v>
+        <v>0.0614374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0457539</v>
+        <v>0.0476792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0449987</v>
+        <v>0.0469096</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06406630000000001</v>
+        <v>0.0638712</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0475355</v>
+        <v>0.0490259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0484856</v>
+        <v>0.0486457</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0689406</v>
+        <v>0.0714853</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0505063</v>
+        <v>0.0553006</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0494563</v>
+        <v>0.0526245</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07898189999999999</v>
+        <v>0.0796345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0545023</v>
+        <v>0.0563138</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0533123</v>
+        <v>0.0576457</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09503540000000001</v>
+        <v>0.0995993</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0622152</v>
+        <v>0.06483609999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0642808</v>
+        <v>0.06300939999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121016</v>
+        <v>0.120762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0467809</v>
+        <v>0.0488401</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0467085</v>
+        <v>0.0484814</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159966</v>
+        <v>0.15992</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0477155</v>
+        <v>0.0506767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.047729</v>
+        <v>0.0478186</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.058032</v>
+        <v>0.0593982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.046703</v>
+        <v>0.0485634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0482419</v>
+        <v>0.0503422</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0582653</v>
+        <v>0.0603355</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04918</v>
+        <v>0.0509503</v>
       </c>
       <c r="D54" t="n">
-        <v>0.049401</v>
+        <v>0.0511433</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0595444</v>
+        <v>0.0641644</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0491829</v>
+        <v>0.0488025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0492915</v>
+        <v>0.0516815</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612231</v>
+        <v>0.0612293</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0512045</v>
+        <v>0.051573</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0502388</v>
+        <v>0.0501532</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0605371</v>
+        <v>0.06307210000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0497699</v>
+        <v>0.0491505</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0502788</v>
+        <v>0.0499587</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0649952</v>
+        <v>0.06605370000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0513382</v>
+        <v>0.0532844</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0513268</v>
+        <v>0.0533822</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0662946</v>
+        <v>0.0678642</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0526155</v>
+        <v>0.0545902</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0521148</v>
+        <v>0.0527756</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06785919999999999</v>
+        <v>0.0686016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0531149</v>
+        <v>0.0547537</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0546391</v>
+        <v>0.0539637</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0739168</v>
+        <v>0.0725227</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0545588</v>
+        <v>0.0587397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0571286</v>
+        <v>0.0579603</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07789359999999999</v>
+        <v>0.0799462</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0592646</v>
+        <v>0.0609497</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0582652</v>
+        <v>0.0604403</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08962199999999999</v>
+        <v>0.0908113</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06270199999999999</v>
+        <v>0.0644367</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0639436</v>
+        <v>0.065884</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100557</v>
+        <v>0.102715</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0739375</v>
+        <v>0.07448050000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0701435</v>
+        <v>0.07211289999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12163</v>
+        <v>0.127053</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0832975</v>
+        <v>0.0859066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0817697</v>
+        <v>0.0865583</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157455</v>
+        <v>0.171791</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0522981</v>
+        <v>0.0544864</v>
       </c>
       <c r="D66" t="n">
-        <v>0.052232</v>
+        <v>0.0564609</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06664059999999999</v>
+        <v>0.0684056</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0535558</v>
+        <v>0.0571694</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0538736</v>
+        <v>0.0548684</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06950919999999999</v>
+        <v>0.0707631</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0537967</v>
+        <v>0.0581251</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0554822</v>
+        <v>0.0547638</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0700456</v>
+        <v>0.07074179999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0542669</v>
+        <v>0.0566501</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0557343</v>
+        <v>0.056085</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06884659999999999</v>
+        <v>0.07432850000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0566769</v>
+        <v>0.0571836</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0557955</v>
+        <v>0.0623649</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0727208</v>
+        <v>0.0737377</v>
       </c>
       <c r="C71" t="n">
-        <v>0.058428</v>
+        <v>0.0575128</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0576775</v>
+        <v>0.061132</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0740277</v>
+        <v>0.0802495</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0577113</v>
+        <v>0.0611011</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0594848</v>
+        <v>0.0607849</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07778450000000001</v>
+        <v>0.0821105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0597475</v>
+        <v>0.06482209999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0597113</v>
+        <v>0.0632293</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08591890000000001</v>
+        <v>0.087127</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0611265</v>
+        <v>0.0653353</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0609905</v>
+        <v>0.0642649</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0881238</v>
+        <v>0.092415</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06585580000000001</v>
+        <v>0.06857729999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0656537</v>
+        <v>0.06795</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.094108</v>
+        <v>0.101969</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06742339999999999</v>
+        <v>0.0707908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07145849999999999</v>
+        <v>0.0725673</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103889</v>
+        <v>0.111126</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0745405</v>
+        <v>0.07990559999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0742746</v>
+        <v>0.07872949999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116561</v>
+        <v>0.128736</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0807401</v>
+        <v>0.0877516</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0818485</v>
+        <v>0.08740829999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.138074</v>
+        <v>0.156861</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0948957</v>
+        <v>0.100796</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0956775</v>
+        <v>0.101782</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.174958</v>
+        <v>0.186421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.060667</v>
+        <v>0.0630983</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0600688</v>
+        <v>0.062431</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0811921</v>
+        <v>0.0878655</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0611676</v>
+        <v>0.06479070000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0607202</v>
+        <v>0.06502869999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0799161</v>
+        <v>0.0890865</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0626255</v>
+        <v>0.06820379999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0638282</v>
+        <v>0.06574820000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0860395</v>
+        <v>0.0917734</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06417539999999999</v>
+        <v>0.0669825</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0640804</v>
+        <v>0.0674271</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0860601</v>
+        <v>0.0934513</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0649743</v>
+        <v>0.0693179</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0666648</v>
+        <v>0.0706101</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0918176</v>
+        <v>0.09592000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.06720329999999999</v>
+        <v>0.0686847</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0668653</v>
+        <v>0.0736536</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09609570000000001</v>
+        <v>0.106457</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0677753</v>
+        <v>0.07476919999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0690986</v>
+        <v>0.07309010000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09935380000000001</v>
+        <v>0.106842</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07137739999999999</v>
+        <v>0.07606350000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0714834</v>
+        <v>0.0758069</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.105408</v>
+        <v>0.106854</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0734868</v>
+        <v>0.0749977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0749821</v>
+        <v>0.0775985</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.109163</v>
+        <v>0.114444</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07700070000000001</v>
+        <v>0.0833889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07597470000000001</v>
+        <v>0.0849014</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115256</v>
+        <v>0.121639</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0820703</v>
+        <v>0.0867518</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0824155</v>
+        <v>0.08875959999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125234</v>
+        <v>0.129633</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08715729999999999</v>
+        <v>0.0917905</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08615109999999999</v>
+        <v>0.0922355</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.136211</v>
+        <v>0.148441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09710829999999999</v>
+        <v>0.09912899999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0991775</v>
+        <v>0.102167</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.15995</v>
+        <v>0.171682</v>
       </c>
       <c r="C93" t="n">
-        <v>0.104503</v>
+        <v>0.110365</v>
       </c>
       <c r="D93" t="n">
-        <v>0.109211</v>
+        <v>0.112558</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195592</v>
+        <v>0.19844</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0814622</v>
+        <v>0.0833072</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08067390000000001</v>
+        <v>0.0874265</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.108311</v>
+        <v>0.115299</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08360860000000001</v>
+        <v>0.08622059999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0829732</v>
+        <v>0.0908109</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110077</v>
+        <v>0.118282</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0886769</v>
+        <v>0.0881387</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0834188</v>
+        <v>0.0920349</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111405</v>
+        <v>0.121246</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0860877</v>
+        <v>0.0912893</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0864539</v>
+        <v>0.0880276</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118649</v>
+        <v>0.12387</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0904539</v>
+        <v>0.0949981</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0925433</v>
+        <v>0.09331</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11711</v>
+        <v>0.124597</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08746520000000001</v>
+        <v>0.0953065</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09002839999999999</v>
+        <v>0.0963256</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.122123</v>
+        <v>0.135595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0905575</v>
+        <v>0.0955008</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0918277</v>
+        <v>0.0968633</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124893</v>
+        <v>0.136373</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09209059999999999</v>
+        <v>0.100728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0928307</v>
+        <v>0.101511</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.127714</v>
+        <v>0.149468</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0976093</v>
+        <v>0.108846</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0953122</v>
+        <v>0.110252</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.136604</v>
+        <v>0.144421</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100086</v>
+        <v>0.109284</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1016</v>
+        <v>0.110512</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.140183</v>
+        <v>0.156847</v>
       </c>
       <c r="C104" t="n">
-        <v>0.105669</v>
+        <v>0.109218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106468</v>
+        <v>0.109986</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150404</v>
+        <v>0.162141</v>
       </c>
       <c r="C105" t="n">
-        <v>0.109924</v>
+        <v>0.11676</v>
       </c>
       <c r="D105" t="n">
-        <v>0.107821</v>
+        <v>0.117022</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167864</v>
+        <v>0.176081</v>
       </c>
       <c r="C106" t="n">
-        <v>0.114678</v>
+        <v>0.123475</v>
       </c>
       <c r="D106" t="n">
-        <v>0.117626</v>
+        <v>0.120922</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.185805</v>
+        <v>0.194302</v>
       </c>
       <c r="C107" t="n">
-        <v>0.129555</v>
+        <v>0.138133</v>
       </c>
       <c r="D107" t="n">
-        <v>0.130743</v>
+        <v>0.136677</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.219799</v>
+        <v>0.230597</v>
       </c>
       <c r="C108" t="n">
-        <v>0.160025</v>
+        <v>0.183434</v>
       </c>
       <c r="D108" t="n">
-        <v>0.170503</v>
+        <v>0.170802</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.283836</v>
+        <v>0.303207</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168717</v>
+        <v>0.171296</v>
       </c>
       <c r="D109" t="n">
-        <v>0.172883</v>
+        <v>0.177586</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.193301</v>
+        <v>0.221555</v>
       </c>
       <c r="C110" t="n">
-        <v>0.166741</v>
+        <v>0.177315</v>
       </c>
       <c r="D110" t="n">
-        <v>0.161309</v>
+        <v>0.189742</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.202398</v>
+        <v>0.224903</v>
       </c>
       <c r="C111" t="n">
-        <v>0.164142</v>
+        <v>0.186615</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1703</v>
+        <v>0.180209</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.210004</v>
+        <v>0.221409</v>
       </c>
       <c r="C112" t="n">
-        <v>0.16494</v>
+        <v>0.174621</v>
       </c>
       <c r="D112" t="n">
-        <v>0.165744</v>
+        <v>0.186293</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.211851</v>
+        <v>0.240031</v>
       </c>
       <c r="C113" t="n">
-        <v>0.170322</v>
+        <v>0.183156</v>
       </c>
       <c r="D113" t="n">
-        <v>0.174662</v>
+        <v>0.183673</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.212172</v>
+        <v>0.231407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.170445</v>
+        <v>0.182807</v>
       </c>
       <c r="D114" t="n">
-        <v>0.169039</v>
+        <v>0.185964</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21481</v>
+        <v>0.236381</v>
       </c>
       <c r="C115" t="n">
-        <v>0.175705</v>
+        <v>0.183656</v>
       </c>
       <c r="D115" t="n">
-        <v>0.173488</v>
+        <v>0.184443</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21605</v>
+        <v>0.23624</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178351</v>
+        <v>0.185668</v>
       </c>
       <c r="D116" t="n">
-        <v>0.181545</v>
+        <v>0.202516</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222949</v>
+        <v>0.243138</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186901</v>
+        <v>0.191015</v>
       </c>
       <c r="D117" t="n">
-        <v>0.194318</v>
+        <v>0.193702</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231475</v>
+        <v>0.254607</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182937</v>
+        <v>0.198714</v>
       </c>
       <c r="D118" t="n">
-        <v>0.18292</v>
+        <v>0.191826</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238055</v>
+        <v>0.271813</v>
       </c>
       <c r="C119" t="n">
-        <v>0.18796</v>
+        <v>0.202968</v>
       </c>
       <c r="D119" t="n">
-        <v>0.191217</v>
+        <v>0.210997</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2685</v>
+        <v>0.277514</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195788</v>
+        <v>0.211962</v>
       </c>
       <c r="D120" t="n">
-        <v>0.196096</v>
+        <v>0.207601</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279609</v>
+        <v>0.315441</v>
       </c>
       <c r="C121" t="n">
-        <v>0.208079</v>
+        <v>0.214422</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206888</v>
+        <v>0.220164</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.30845</v>
+        <v>0.339604</v>
       </c>
       <c r="C122" t="n">
-        <v>0.224626</v>
+        <v>0.243548</v>
       </c>
       <c r="D122" t="n">
-        <v>0.225235</v>
+        <v>0.245972</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.396928</v>
+        <v>0.424098</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254501</v>
+        <v>0.266086</v>
       </c>
       <c r="D123" t="n">
-        <v>0.254288</v>
+        <v>0.270291</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320337</v>
+        <v>0.325923</v>
       </c>
       <c r="C124" t="n">
-        <v>0.253364</v>
+        <v>0.26846</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254365</v>
+        <v>0.270081</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.322531</v>
+        <v>0.325415</v>
       </c>
       <c r="C125" t="n">
-        <v>0.26148</v>
+        <v>0.272715</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25512</v>
+        <v>0.270755</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317606</v>
+        <v>0.330861</v>
       </c>
       <c r="C126" t="n">
-        <v>0.265509</v>
+        <v>0.269515</v>
       </c>
       <c r="D126" t="n">
-        <v>0.267491</v>
+        <v>0.273459</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.324617</v>
+        <v>0.334979</v>
       </c>
       <c r="C127" t="n">
-        <v>0.270007</v>
+        <v>0.276962</v>
       </c>
       <c r="D127" t="n">
-        <v>0.266134</v>
+        <v>0.279887</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319116</v>
+        <v>0.343432</v>
       </c>
       <c r="C128" t="n">
-        <v>0.268054</v>
+        <v>0.275369</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26366</v>
+        <v>0.275864</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.326707</v>
+        <v>0.347104</v>
       </c>
       <c r="C129" t="n">
-        <v>0.276693</v>
+        <v>0.281381</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268267</v>
+        <v>0.286339</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335355</v>
+        <v>0.358617</v>
       </c>
       <c r="C130" t="n">
-        <v>0.278715</v>
+        <v>0.284674</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271877</v>
+        <v>0.289134</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.35291</v>
+        <v>0.361825</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275782</v>
+        <v>0.291629</v>
       </c>
       <c r="D131" t="n">
-        <v>0.293423</v>
+        <v>0.294654</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358818</v>
+        <v>0.372234</v>
       </c>
       <c r="C132" t="n">
-        <v>0.286522</v>
+        <v>0.296086</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283787</v>
+        <v>0.289771</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369682</v>
+        <v>0.37987</v>
       </c>
       <c r="C133" t="n">
-        <v>0.284345</v>
+        <v>0.294451</v>
       </c>
       <c r="D133" t="n">
-        <v>0.283066</v>
+        <v>0.293885</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.385758</v>
+        <v>0.405559</v>
       </c>
       <c r="C134" t="n">
-        <v>0.296548</v>
+        <v>0.309427</v>
       </c>
       <c r="D134" t="n">
-        <v>0.301397</v>
+        <v>0.315523</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.413238</v>
+        <v>0.442315</v>
       </c>
       <c r="C135" t="n">
-        <v>0.314325</v>
+        <v>0.322464</v>
       </c>
       <c r="D135" t="n">
-        <v>0.311853</v>
+        <v>0.325903</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.457903</v>
+        <v>0.474658</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323874</v>
+        <v>0.344355</v>
       </c>
       <c r="D136" t="n">
-        <v>0.333081</v>
+        <v>0.345616</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.539071</v>
+        <v>0.56172</v>
       </c>
       <c r="C137" t="n">
-        <v>0.316681</v>
+        <v>0.32401</v>
       </c>
       <c r="D137" t="n">
-        <v>0.305617</v>
+        <v>0.312981</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.384543</v>
+        <v>0.403655</v>
       </c>
       <c r="C138" t="n">
-        <v>0.315134</v>
+        <v>0.317364</v>
       </c>
       <c r="D138" t="n">
-        <v>0.314872</v>
+        <v>0.321202</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382707</v>
+        <v>0.392512</v>
       </c>
       <c r="C139" t="n">
-        <v>0.312946</v>
+        <v>0.320984</v>
       </c>
       <c r="D139" t="n">
-        <v>0.311392</v>
+        <v>0.329895</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.383596</v>
+        <v>0.400277</v>
       </c>
       <c r="C140" t="n">
-        <v>0.319082</v>
+        <v>0.317814</v>
       </c>
       <c r="D140" t="n">
-        <v>0.315439</v>
+        <v>0.321395</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391054</v>
+        <v>0.417941</v>
       </c>
       <c r="C141" t="n">
-        <v>0.317636</v>
+        <v>0.326886</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332145</v>
+        <v>0.329469</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.395238</v>
+        <v>0.421627</v>
       </c>
       <c r="C142" t="n">
-        <v>0.32508</v>
+        <v>0.350714</v>
       </c>
       <c r="D142" t="n">
-        <v>0.328421</v>
+        <v>0.334621</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405482</v>
+        <v>0.439435</v>
       </c>
       <c r="C143" t="n">
-        <v>0.328955</v>
+        <v>0.333014</v>
       </c>
       <c r="D143" t="n">
-        <v>0.324902</v>
+        <v>0.346329</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0439604</v>
+        <v>0.0417273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039318</v>
+        <v>0.0403191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0401184</v>
+        <v>0.0406509</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0467403</v>
+        <v>0.0448388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0424898</v>
+        <v>0.0440123</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0394926</v>
+        <v>0.0400039</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0461011</v>
+        <v>0.0462336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0433125</v>
+        <v>0.0448365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0427567</v>
+        <v>0.0411918</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0498697</v>
+        <v>0.0533808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0469085</v>
+        <v>0.0465257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0427972</v>
+        <v>0.0435728</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0593702</v>
+        <v>0.0606362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0501807</v>
+        <v>0.0521553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0474133</v>
+        <v>0.0479242</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06882439999999999</v>
+        <v>0.0728594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.056296</v>
+        <v>0.0590962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05464</v>
+        <v>0.0551898</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0907876</v>
+        <v>0.0946004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0688068</v>
+        <v>0.06984849999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0670162</v>
+        <v>0.0687902</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12523</v>
+        <v>0.129706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0379125</v>
+        <v>0.0369348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0374665</v>
+        <v>0.0360364</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0406098</v>
+        <v>0.0402701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0371785</v>
+        <v>0.0376787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0360368</v>
+        <v>0.0373117</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0414737</v>
+        <v>0.0413663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0369712</v>
+        <v>0.0399349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0367951</v>
+        <v>0.0363786</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0411919</v>
+        <v>0.0407519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0386423</v>
+        <v>0.0397745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0379574</v>
+        <v>0.0398294</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0425093</v>
+        <v>0.0435735</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378868</v>
+        <v>0.0387659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0383483</v>
+        <v>0.0377207</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0430065</v>
+        <v>0.0437512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0389974</v>
+        <v>0.0390401</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0370007</v>
+        <v>0.0368722</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0441583</v>
+        <v>0.0436931</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0396038</v>
+        <v>0.0385425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0387284</v>
+        <v>0.0392127</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0458283</v>
+        <v>0.0469319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0413331</v>
+        <v>0.0418203</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0396729</v>
+        <v>0.0391564</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0488396</v>
+        <v>0.0481276</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0432153</v>
+        <v>0.0405482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0390067</v>
+        <v>0.0403883</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0530195</v>
+        <v>0.0508941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0421822</v>
+        <v>0.0444756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.040423</v>
+        <v>0.0429941</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0610676</v>
+        <v>0.0567816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0446948</v>
+        <v>0.0467537</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0424251</v>
+        <v>0.0449737</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0685143</v>
+        <v>0.06431630000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0501776</v>
+        <v>0.0492564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0463488</v>
+        <v>0.0464722</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0802351</v>
+        <v>0.07642690000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0564076</v>
+        <v>0.054104</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0525821</v>
+        <v>0.0541281</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09845660000000001</v>
+        <v>0.0958003</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06664680000000001</v>
+        <v>0.06445910000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0646847</v>
+        <v>0.0635797</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126271</v>
+        <v>0.123718</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0378079</v>
+        <v>0.0376594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0383143</v>
+        <v>0.0364922</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0436603</v>
+        <v>0.0431959</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0374283</v>
+        <v>0.0398017</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0367941</v>
+        <v>0.0382378</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0437793</v>
+        <v>0.0444817</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0382635</v>
+        <v>0.0393222</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0383372</v>
+        <v>0.0383083</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0469492</v>
+        <v>0.0458441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0389877</v>
+        <v>0.0391288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0388526</v>
+        <v>0.0418249</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0458447</v>
+        <v>0.0455429</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0387566</v>
+        <v>0.0394848</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0396734</v>
+        <v>0.0375876</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0456752</v>
+        <v>0.0458365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0393785</v>
+        <v>0.0399866</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0377278</v>
+        <v>0.0394837</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0478357</v>
+        <v>0.0464977</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0402803</v>
+        <v>0.0422493</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0390448</v>
+        <v>0.0403254</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.050046</v>
+        <v>0.0498928</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0430516</v>
+        <v>0.0418408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0400459</v>
+        <v>0.0404491</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.052592</v>
+        <v>0.0520186</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0418794</v>
+        <v>0.0426274</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0418859</v>
+        <v>0.0414904</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0552481</v>
+        <v>0.0559104</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0441232</v>
+        <v>0.0437726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0429701</v>
+        <v>0.0432843</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.060988</v>
+        <v>0.0589101</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0455007</v>
+        <v>0.0483604</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0455065</v>
+        <v>0.0455871</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0670008</v>
+        <v>0.0682305</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0509697</v>
+        <v>0.0500992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0510456</v>
+        <v>0.0509188</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0795777</v>
+        <v>0.0802784</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0545692</v>
+        <v>0.0564074</v>
       </c>
       <c r="D35" t="n">
-        <v>0.054361</v>
+        <v>0.0548504</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0928855</v>
+        <v>0.09361070000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06584859999999999</v>
+        <v>0.0646481</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0627747</v>
+        <v>0.0647611</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.126324</v>
+        <v>0.124821</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0444513</v>
+        <v>0.043802</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0426518</v>
+        <v>0.041468</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0479001</v>
+        <v>0.0479617</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0416086</v>
+        <v>0.0440129</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0417136</v>
+        <v>0.0406222</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0482908</v>
+        <v>0.0473257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0424251</v>
+        <v>0.0422349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0415741</v>
+        <v>0.0413582</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0521305</v>
+        <v>0.0498457</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0417693</v>
+        <v>0.0422936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0415341</v>
+        <v>0.0428872</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0506848</v>
+        <v>0.0491078</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0430673</v>
+        <v>0.0429239</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0420528</v>
+        <v>0.0452966</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0527433</v>
+        <v>0.0511097</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0465879</v>
+        <v>0.0434802</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0417839</v>
+        <v>0.0432229</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0519736</v>
+        <v>0.0528823</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0461063</v>
+        <v>0.0436662</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0448449</v>
+        <v>0.0431738</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0555451</v>
+        <v>0.0536867</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0476498</v>
+        <v>0.0435056</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0430155</v>
+        <v>0.0462195</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0565544</v>
+        <v>0.0546139</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0479448</v>
+        <v>0.0439231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0459358</v>
+        <v>0.0457126</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0614374</v>
+        <v>0.0576662</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0476792</v>
+        <v>0.0472698</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0469096</v>
+        <v>0.0464063</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0638712</v>
+        <v>0.0619876</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0490259</v>
+        <v>0.0490479</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0486457</v>
+        <v>0.047701</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0714853</v>
+        <v>0.0712787</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0553006</v>
+        <v>0.0517329</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0526245</v>
+        <v>0.0517332</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0796345</v>
+        <v>0.08114300000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0563138</v>
+        <v>0.0576746</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0576457</v>
+        <v>0.0577353</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0995993</v>
+        <v>0.0932311</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06483609999999999</v>
+        <v>0.0643938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06300939999999999</v>
+        <v>0.0656925</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120762</v>
+        <v>0.123204</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0488401</v>
+        <v>0.047433</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0484814</v>
+        <v>0.0477593</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15992</v>
+        <v>0.164756</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0506767</v>
+        <v>0.0494464</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0478186</v>
+        <v>0.0488656</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0593982</v>
+        <v>0.0574903</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0485634</v>
+        <v>0.0480411</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0503422</v>
+        <v>0.0502087</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0603355</v>
+        <v>0.0615472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0509503</v>
+        <v>0.0501437</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0511433</v>
+        <v>0.0478206</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0641644</v>
+        <v>0.0616425</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0488025</v>
+        <v>0.0512154</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0516815</v>
+        <v>0.0514478</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612293</v>
+        <v>0.062671</v>
       </c>
       <c r="C56" t="n">
-        <v>0.051573</v>
+        <v>0.0523157</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0501532</v>
+        <v>0.0509535</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06307210000000001</v>
+        <v>0.0640033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0491505</v>
+        <v>0.0533015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0499587</v>
+        <v>0.0503385</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06605370000000001</v>
+        <v>0.06419229999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0532844</v>
+        <v>0.0519164</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0533822</v>
+        <v>0.051959</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0678642</v>
+        <v>0.0719036</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0545902</v>
+        <v>0.0560272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0527756</v>
+        <v>0.0548593</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0686016</v>
+        <v>0.06884949999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0547537</v>
+        <v>0.0567587</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0539637</v>
+        <v>0.0543233</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0725227</v>
+        <v>0.0766757</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0587397</v>
+        <v>0.0572965</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0579603</v>
+        <v>0.056666</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0799462</v>
+        <v>0.0798285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0609497</v>
+        <v>0.0598618</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0604403</v>
+        <v>0.0582549</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0908113</v>
+        <v>0.0920031</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0644367</v>
+        <v>0.0649676</v>
       </c>
       <c r="D63" t="n">
-        <v>0.065884</v>
+        <v>0.06847109999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102715</v>
+        <v>0.103719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07448050000000001</v>
+        <v>0.07361760000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07211289999999999</v>
+        <v>0.07546650000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.127053</v>
+        <v>0.131648</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0859066</v>
+        <v>0.08403910000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0865583</v>
+        <v>0.085026</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.171791</v>
+        <v>0.166408</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0544864</v>
+        <v>0.0566773</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0564609</v>
+        <v>0.0553434</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0684056</v>
+        <v>0.06792529999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0571694</v>
+        <v>0.056427</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0548684</v>
+        <v>0.0545492</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0707631</v>
+        <v>0.06952990000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0581251</v>
+        <v>0.0559911</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0547638</v>
+        <v>0.055694</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07074179999999999</v>
+        <v>0.0730104</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0566501</v>
+        <v>0.0563091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.056085</v>
+        <v>0.0558444</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07432850000000001</v>
+        <v>0.07094789999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0571836</v>
+        <v>0.0577833</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0623649</v>
+        <v>0.0590673</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0737377</v>
+        <v>0.079371</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0575128</v>
+        <v>0.0590615</v>
       </c>
       <c r="D71" t="n">
-        <v>0.061132</v>
+        <v>0.0593846</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0802495</v>
+        <v>0.0758726</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0611011</v>
+        <v>0.0613807</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0607849</v>
+        <v>0.0607544</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0821105</v>
+        <v>0.080801</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06482209999999999</v>
+        <v>0.0609792</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0632293</v>
+        <v>0.0611748</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.087127</v>
+        <v>0.0862781</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0653353</v>
+        <v>0.0641254</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0642649</v>
+        <v>0.0654305</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.092415</v>
+        <v>0.0960869</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06857729999999999</v>
+        <v>0.0724397</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06795</v>
+        <v>0.0692647</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.101969</v>
+        <v>0.0999154</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0707908</v>
+        <v>0.0743084</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0725673</v>
+        <v>0.0722742</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.111126</v>
+        <v>0.111489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07990559999999999</v>
+        <v>0.0779948</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07872949999999999</v>
+        <v>0.0808995</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.128736</v>
+        <v>0.125197</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0877516</v>
+        <v>0.0926853</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08740829999999999</v>
+        <v>0.0882044</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.156861</v>
+        <v>0.149419</v>
       </c>
       <c r="C79" t="n">
-        <v>0.100796</v>
+        <v>0.101782</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101782</v>
+        <v>0.102872</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.186421</v>
+        <v>0.188232</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0630983</v>
+        <v>0.06493980000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.062431</v>
+        <v>0.0633582</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0878655</v>
+        <v>0.085637</v>
       </c>
       <c r="C81" t="n">
-        <v>0.06479070000000001</v>
+        <v>0.06482839999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06502869999999999</v>
+        <v>0.064623</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0890865</v>
+        <v>0.0886607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06820379999999999</v>
+        <v>0.0698756</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06574820000000001</v>
+        <v>0.0638715</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0917734</v>
+        <v>0.0904862</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0669825</v>
+        <v>0.067111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0674271</v>
+        <v>0.0685809</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0934513</v>
+        <v>0.09863130000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0693179</v>
+        <v>0.0726943</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0706101</v>
+        <v>0.0732072</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09592000000000001</v>
+        <v>0.0970726</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0686847</v>
+        <v>0.0747346</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0736536</v>
+        <v>0.07274369999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.106457</v>
+        <v>0.0986761</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07476919999999999</v>
+        <v>0.0760903</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07309010000000001</v>
+        <v>0.07181899999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.106842</v>
+        <v>0.103735</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07606350000000001</v>
+        <v>0.0733032</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0758069</v>
+        <v>0.0753323</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.106854</v>
+        <v>0.109536</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0749977</v>
+        <v>0.0792905</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0775985</v>
+        <v>0.07828690000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.114444</v>
+        <v>0.11332</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0833889</v>
+        <v>0.08426690000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0849014</v>
+        <v>0.0815999</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121639</v>
+        <v>0.119923</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0867518</v>
+        <v>0.0858136</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08875959999999999</v>
+        <v>0.0873348</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.129633</v>
+        <v>0.133206</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0917905</v>
+        <v>0.0901665</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0922355</v>
+        <v>0.09225369999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.148441</v>
+        <v>0.147925</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09912899999999999</v>
+        <v>0.0981891</v>
       </c>
       <c r="D92" t="n">
-        <v>0.102167</v>
+        <v>0.0999406</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.171682</v>
+        <v>0.166094</v>
       </c>
       <c r="C93" t="n">
-        <v>0.110365</v>
+        <v>0.110725</v>
       </c>
       <c r="D93" t="n">
-        <v>0.112558</v>
+        <v>0.114596</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19844</v>
+        <v>0.204475</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0833072</v>
+        <v>0.0923353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0874265</v>
+        <v>0.08454689999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.115299</v>
+        <v>0.113784</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08622059999999999</v>
+        <v>0.090604</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0908109</v>
+        <v>0.08905739999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.118282</v>
+        <v>0.119698</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0881387</v>
+        <v>0.09164129999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0920349</v>
+        <v>0.09054180000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.121246</v>
+        <v>0.126281</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0912893</v>
+        <v>0.0949985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0880276</v>
+        <v>0.09420920000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.12387</v>
+        <v>0.119836</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0949981</v>
+        <v>0.0943581</v>
       </c>
       <c r="D98" t="n">
-        <v>0.09331</v>
+        <v>0.09543459999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.124597</v>
+        <v>0.124415</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0953065</v>
+        <v>0.09457210000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0963256</v>
+        <v>0.0954644</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.135595</v>
+        <v>0.127619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0955008</v>
+        <v>0.0998415</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0968633</v>
+        <v>0.09700400000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.136373</v>
+        <v>0.13401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.100728</v>
+        <v>0.109712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.101511</v>
+        <v>0.104308</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.149468</v>
+        <v>0.137637</v>
       </c>
       <c r="C102" t="n">
-        <v>0.108846</v>
+        <v>0.107443</v>
       </c>
       <c r="D102" t="n">
-        <v>0.110252</v>
+        <v>0.101532</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.144421</v>
+        <v>0.145441</v>
       </c>
       <c r="C103" t="n">
-        <v>0.109284</v>
+        <v>0.10769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.110512</v>
+        <v>0.109213</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.156847</v>
+        <v>0.152679</v>
       </c>
       <c r="C104" t="n">
-        <v>0.109218</v>
+        <v>0.110671</v>
       </c>
       <c r="D104" t="n">
-        <v>0.109986</v>
+        <v>0.113653</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.162141</v>
+        <v>0.168517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.11676</v>
+        <v>0.120036</v>
       </c>
       <c r="D105" t="n">
-        <v>0.117022</v>
+        <v>0.119094</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.176081</v>
+        <v>0.18453</v>
       </c>
       <c r="C106" t="n">
-        <v>0.123475</v>
+        <v>0.129926</v>
       </c>
       <c r="D106" t="n">
-        <v>0.120922</v>
+        <v>0.130203</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.194302</v>
+        <v>0.199462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.138133</v>
+        <v>0.1382</v>
       </c>
       <c r="D107" t="n">
-        <v>0.136677</v>
+        <v>0.140974</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.230597</v>
+        <v>0.234495</v>
       </c>
       <c r="C108" t="n">
-        <v>0.183434</v>
+        <v>0.191842</v>
       </c>
       <c r="D108" t="n">
-        <v>0.170802</v>
+        <v>0.199223</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.303207</v>
+        <v>0.29464</v>
       </c>
       <c r="C109" t="n">
-        <v>0.171296</v>
+        <v>0.191692</v>
       </c>
       <c r="D109" t="n">
-        <v>0.177586</v>
+        <v>0.184052</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.221555</v>
+        <v>0.221017</v>
       </c>
       <c r="C110" t="n">
-        <v>0.177315</v>
+        <v>0.194792</v>
       </c>
       <c r="D110" t="n">
-        <v>0.189742</v>
+        <v>0.184833</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.224903</v>
+        <v>0.226063</v>
       </c>
       <c r="C111" t="n">
-        <v>0.186615</v>
+        <v>0.18976</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180209</v>
+        <v>0.198537</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.221409</v>
+        <v>0.224403</v>
       </c>
       <c r="C112" t="n">
-        <v>0.174621</v>
+        <v>0.192347</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186293</v>
+        <v>0.194592</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240031</v>
+        <v>0.23813</v>
       </c>
       <c r="C113" t="n">
-        <v>0.183156</v>
+        <v>0.197955</v>
       </c>
       <c r="D113" t="n">
-        <v>0.183673</v>
+        <v>0.200556</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231407</v>
+        <v>0.228698</v>
       </c>
       <c r="C114" t="n">
-        <v>0.182807</v>
+        <v>0.196149</v>
       </c>
       <c r="D114" t="n">
-        <v>0.185964</v>
+        <v>0.19837</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.236381</v>
+        <v>0.229252</v>
       </c>
       <c r="C115" t="n">
-        <v>0.183656</v>
+        <v>0.210104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.184443</v>
+        <v>0.212291</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.23624</v>
+        <v>0.256487</v>
       </c>
       <c r="C116" t="n">
-        <v>0.185668</v>
+        <v>0.209485</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202516</v>
+        <v>0.220539</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243138</v>
+        <v>0.261983</v>
       </c>
       <c r="C117" t="n">
-        <v>0.191015</v>
+        <v>0.201388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.193702</v>
+        <v>0.220462</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.254607</v>
+        <v>0.262627</v>
       </c>
       <c r="C118" t="n">
-        <v>0.198714</v>
+        <v>0.216582</v>
       </c>
       <c r="D118" t="n">
-        <v>0.191826</v>
+        <v>0.214828</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271813</v>
+        <v>0.264405</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202968</v>
+        <v>0.236515</v>
       </c>
       <c r="D119" t="n">
-        <v>0.210997</v>
+        <v>0.230506</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277514</v>
+        <v>0.286183</v>
       </c>
       <c r="C120" t="n">
-        <v>0.211962</v>
+        <v>0.224559</v>
       </c>
       <c r="D120" t="n">
-        <v>0.207601</v>
+        <v>0.233123</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315441</v>
+        <v>0.302696</v>
       </c>
       <c r="C121" t="n">
-        <v>0.214422</v>
+        <v>0.256999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.220164</v>
+        <v>0.246386</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.339604</v>
+        <v>0.345554</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243548</v>
+        <v>0.258549</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245972</v>
+        <v>0.262553</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.424098</v>
+        <v>0.419017</v>
       </c>
       <c r="C123" t="n">
-        <v>0.266086</v>
+        <v>0.306623</v>
       </c>
       <c r="D123" t="n">
-        <v>0.270291</v>
+        <v>0.305666</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.325923</v>
+        <v>0.330881</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26846</v>
+        <v>0.305042</v>
       </c>
       <c r="D124" t="n">
-        <v>0.270081</v>
+        <v>0.308071</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.325415</v>
+        <v>0.321152</v>
       </c>
       <c r="C125" t="n">
-        <v>0.272715</v>
+        <v>0.305537</v>
       </c>
       <c r="D125" t="n">
-        <v>0.270755</v>
+        <v>0.306153</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.330861</v>
+        <v>0.333672</v>
       </c>
       <c r="C126" t="n">
-        <v>0.269515</v>
+        <v>0.323066</v>
       </c>
       <c r="D126" t="n">
-        <v>0.273459</v>
+        <v>0.314562</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.334979</v>
+        <v>0.341895</v>
       </c>
       <c r="C127" t="n">
-        <v>0.276962</v>
+        <v>0.319491</v>
       </c>
       <c r="D127" t="n">
-        <v>0.279887</v>
+        <v>0.313844</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.343432</v>
+        <v>0.355332</v>
       </c>
       <c r="C128" t="n">
-        <v>0.275369</v>
+        <v>0.326976</v>
       </c>
       <c r="D128" t="n">
-        <v>0.275864</v>
+        <v>0.32025</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.347104</v>
+        <v>0.346873</v>
       </c>
       <c r="C129" t="n">
-        <v>0.281381</v>
+        <v>0.324892</v>
       </c>
       <c r="D129" t="n">
-        <v>0.286339</v>
+        <v>0.333381</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.358617</v>
+        <v>0.356128</v>
       </c>
       <c r="C130" t="n">
-        <v>0.284674</v>
+        <v>0.326408</v>
       </c>
       <c r="D130" t="n">
-        <v>0.289134</v>
+        <v>0.322987</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361825</v>
+        <v>0.361326</v>
       </c>
       <c r="C131" t="n">
-        <v>0.291629</v>
+        <v>0.331654</v>
       </c>
       <c r="D131" t="n">
-        <v>0.294654</v>
+        <v>0.326124</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.372234</v>
+        <v>0.373508</v>
       </c>
       <c r="C132" t="n">
-        <v>0.296086</v>
+        <v>0.335109</v>
       </c>
       <c r="D132" t="n">
-        <v>0.289771</v>
+        <v>0.332773</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37987</v>
+        <v>0.388053</v>
       </c>
       <c r="C133" t="n">
-        <v>0.294451</v>
+        <v>0.343062</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293885</v>
+        <v>0.337748</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.405559</v>
+        <v>0.405728</v>
       </c>
       <c r="C134" t="n">
-        <v>0.309427</v>
+        <v>0.354687</v>
       </c>
       <c r="D134" t="n">
-        <v>0.315523</v>
+        <v>0.343751</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.442315</v>
+        <v>0.443599</v>
       </c>
       <c r="C135" t="n">
-        <v>0.322464</v>
+        <v>0.35581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.325903</v>
+        <v>0.352336</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.474658</v>
+        <v>0.476687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.344355</v>
+        <v>0.38484</v>
       </c>
       <c r="D136" t="n">
-        <v>0.345616</v>
+        <v>0.388846</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.56172</v>
+        <v>0.559827</v>
       </c>
       <c r="C137" t="n">
-        <v>0.32401</v>
+        <v>0.380181</v>
       </c>
       <c r="D137" t="n">
-        <v>0.312981</v>
+        <v>0.381549</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.403655</v>
+        <v>0.385776</v>
       </c>
       <c r="C138" t="n">
-        <v>0.317364</v>
+        <v>0.383269</v>
       </c>
       <c r="D138" t="n">
-        <v>0.321202</v>
+        <v>0.374434</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.392512</v>
+        <v>0.400082</v>
       </c>
       <c r="C139" t="n">
-        <v>0.320984</v>
+        <v>0.387485</v>
       </c>
       <c r="D139" t="n">
-        <v>0.329895</v>
+        <v>0.383834</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.400277</v>
+        <v>0.40081</v>
       </c>
       <c r="C140" t="n">
-        <v>0.317814</v>
+        <v>0.387658</v>
       </c>
       <c r="D140" t="n">
-        <v>0.321395</v>
+        <v>0.384946</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.417941</v>
+        <v>0.413946</v>
       </c>
       <c r="C141" t="n">
-        <v>0.326886</v>
+        <v>0.383505</v>
       </c>
       <c r="D141" t="n">
-        <v>0.329469</v>
+        <v>0.389423</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.421627</v>
+        <v>0.420234</v>
       </c>
       <c r="C142" t="n">
-        <v>0.350714</v>
+        <v>0.388603</v>
       </c>
       <c r="D142" t="n">
-        <v>0.334621</v>
+        <v>0.394685</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.439435</v>
+        <v>0.417948</v>
       </c>
       <c r="C143" t="n">
-        <v>0.333014</v>
+        <v>0.397649</v>
       </c>
       <c r="D143" t="n">
-        <v>0.346329</v>
+        <v>0.402169</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0417273</v>
+        <v>0.0427523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0403191</v>
+        <v>0.0399002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0406509</v>
+        <v>0.0399209</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0448388</v>
+        <v>0.0454088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0440123</v>
+        <v>0.041712</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400039</v>
+        <v>0.0406455</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0462336</v>
+        <v>0.0484022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0448365</v>
+        <v>0.0455268</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0411918</v>
+        <v>0.041038</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0533808</v>
+        <v>0.0529045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0465257</v>
+        <v>0.048304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0435728</v>
+        <v>0.0442743</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0606362</v>
+        <v>0.0608597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0521553</v>
+        <v>0.0521478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0479242</v>
+        <v>0.0463069</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0728594</v>
+        <v>0.0739518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0590962</v>
+        <v>0.0591882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0551898</v>
+        <v>0.057908</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0946004</v>
+        <v>0.0958092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06984849999999999</v>
+        <v>0.0708268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0687902</v>
+        <v>0.0701557</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.129706</v>
+        <v>0.127144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0369348</v>
+        <v>0.03731</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0360364</v>
+        <v>0.0394122</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0402701</v>
+        <v>0.0413529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0376787</v>
+        <v>0.0383212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0373117</v>
+        <v>0.0384169</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0413663</v>
+        <v>0.0403296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0399349</v>
+        <v>0.0384474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0363786</v>
+        <v>0.0375455</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0407519</v>
+        <v>0.0409186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0397745</v>
+        <v>0.037747</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0398294</v>
+        <v>0.0363034</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0435735</v>
+        <v>0.0438834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0387659</v>
+        <v>0.0374286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0377207</v>
+        <v>0.0371718</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0437512</v>
+        <v>0.0446149</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0390401</v>
+        <v>0.0384439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0368722</v>
+        <v>0.0372546</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0436931</v>
+        <v>0.0442535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0385425</v>
+        <v>0.0387387</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0392127</v>
+        <v>0.0386292</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0469319</v>
+        <v>0.0457518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0418203</v>
+        <v>0.0406332</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0391564</v>
+        <v>0.0404739</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0481276</v>
+        <v>0.0472639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0405482</v>
+        <v>0.0404205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0403883</v>
+        <v>0.0398685</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508941</v>
+        <v>0.0507735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444756</v>
+        <v>0.0434892</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0429941</v>
+        <v>0.0407031</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0567816</v>
+        <v>0.0569987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0467537</v>
+        <v>0.044832</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0449737</v>
+        <v>0.0433394</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06431630000000001</v>
+        <v>0.0645502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0492564</v>
+        <v>0.048105</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0464722</v>
+        <v>0.0466987</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07642690000000001</v>
+        <v>0.0784241</v>
       </c>
       <c r="C21" t="n">
-        <v>0.054104</v>
+        <v>0.0565671</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0541281</v>
+        <v>0.0558167</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0958003</v>
+        <v>0.100161</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06445910000000001</v>
+        <v>0.06622359999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0635797</v>
+        <v>0.0643514</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123718</v>
+        <v>0.125218</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0376594</v>
+        <v>0.0420505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0364922</v>
+        <v>0.0385633</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0431959</v>
+        <v>0.0439803</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0398017</v>
+        <v>0.0399158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0382378</v>
+        <v>0.0386214</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0444817</v>
+        <v>0.0437135</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0393222</v>
+        <v>0.0383828</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0383083</v>
+        <v>0.0386528</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0458441</v>
+        <v>0.0447712</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0391288</v>
+        <v>0.0397342</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0418249</v>
+        <v>0.0377977</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0455429</v>
+        <v>0.0469055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0394848</v>
+        <v>0.0407668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0375876</v>
+        <v>0.0400851</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0458365</v>
+        <v>0.0451258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0399866</v>
+        <v>0.0413074</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0394837</v>
+        <v>0.0387237</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464977</v>
+        <v>0.0497339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0422493</v>
+        <v>0.0400416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0403254</v>
+        <v>0.0401608</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0498928</v>
+        <v>0.0473778</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0418408</v>
+        <v>0.0427777</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0404491</v>
+        <v>0.0409866</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0520186</v>
+        <v>0.0503856</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0426274</v>
+        <v>0.04195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0414904</v>
+        <v>0.0405518</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559104</v>
+        <v>0.0552814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0437726</v>
+        <v>0.0438828</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0432843</v>
+        <v>0.0431456</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0589101</v>
+        <v>0.0580716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0483604</v>
+        <v>0.0472034</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0455871</v>
+        <v>0.0443063</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0682305</v>
+        <v>0.0678093</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0500992</v>
+        <v>0.0507049</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0509188</v>
+        <v>0.0491694</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0802784</v>
+        <v>0.07631689999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0564074</v>
+        <v>0.056416</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0548504</v>
+        <v>0.0542882</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09361070000000001</v>
+        <v>0.09352969999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0646481</v>
+        <v>0.0634873</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0647611</v>
+        <v>0.06436790000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.124821</v>
+        <v>0.119515</v>
       </c>
       <c r="C37" t="n">
-        <v>0.043802</v>
+        <v>0.0427072</v>
       </c>
       <c r="D37" t="n">
-        <v>0.041468</v>
+        <v>0.0418266</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0479617</v>
+        <v>0.0484057</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0440129</v>
+        <v>0.0429672</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0406222</v>
+        <v>0.0414064</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0473257</v>
+        <v>0.048272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0422349</v>
+        <v>0.0414151</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0413582</v>
+        <v>0.0406741</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0498457</v>
+        <v>0.0499377</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422936</v>
+        <v>0.0417638</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0428872</v>
+        <v>0.0425377</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0491078</v>
+        <v>0.0484643</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0429239</v>
+        <v>0.043057</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0452966</v>
+        <v>0.0446654</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0511097</v>
+        <v>0.0504977</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0434802</v>
+        <v>0.0421243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0432229</v>
+        <v>0.0434904</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0528823</v>
+        <v>0.0528622</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0436662</v>
+        <v>0.0453163</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0431738</v>
+        <v>0.0442839</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0536867</v>
+        <v>0.0562025</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0435056</v>
+        <v>0.0471934</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0462195</v>
+        <v>0.0440963</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0546139</v>
+        <v>0.0561017</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0439231</v>
+        <v>0.0449161</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0457126</v>
+        <v>0.0448106</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0576662</v>
+        <v>0.0615458</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0472698</v>
+        <v>0.0472971</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0464063</v>
+        <v>0.047186</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0619876</v>
+        <v>0.066499</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0490479</v>
+        <v>0.0488364</v>
       </c>
       <c r="D47" t="n">
-        <v>0.047701</v>
+        <v>0.0506437</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0712787</v>
+        <v>0.07102070000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0517329</v>
+        <v>0.0520338</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0517332</v>
+        <v>0.0523671</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08114300000000001</v>
+        <v>0.0812063</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0576746</v>
+        <v>0.0567102</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0577353</v>
+        <v>0.0552777</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0932311</v>
+        <v>0.0964267</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0643938</v>
+        <v>0.0655007</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0656925</v>
+        <v>0.0655309</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123204</v>
+        <v>0.120526</v>
       </c>
       <c r="C51" t="n">
-        <v>0.047433</v>
+        <v>0.0487625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0477593</v>
+        <v>0.0508939</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164756</v>
+        <v>0.163568</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0494464</v>
+        <v>0.0467978</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0488656</v>
+        <v>0.0477844</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0574903</v>
+        <v>0.0577088</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0480411</v>
+        <v>0.049801</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0502087</v>
+        <v>0.0491356</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0615472</v>
+        <v>0.0590846</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0501437</v>
+        <v>0.0504472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0478206</v>
+        <v>0.0495289</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0616425</v>
+        <v>0.062068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0512154</v>
+        <v>0.0520414</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0514478</v>
+        <v>0.048916</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.062671</v>
+        <v>0.0650867</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0523157</v>
+        <v>0.0517287</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0509535</v>
+        <v>0.0514537</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0640033</v>
+        <v>0.06561980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0533015</v>
+        <v>0.0509441</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0503385</v>
+        <v>0.0512078</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06419229999999999</v>
+        <v>0.0666247</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0519164</v>
+        <v>0.0539402</v>
       </c>
       <c r="D58" t="n">
-        <v>0.051959</v>
+        <v>0.0547545</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0719036</v>
+        <v>0.0673612</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0560272</v>
+        <v>0.052771</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0548593</v>
+        <v>0.0536249</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06884949999999999</v>
+        <v>0.0696505</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0567587</v>
+        <v>0.0577269</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0543233</v>
+        <v>0.0559541</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0766757</v>
+        <v>0.0753842</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0572965</v>
+        <v>0.0566938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.056666</v>
+        <v>0.0600437</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0798285</v>
+        <v>0.0813735</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0598618</v>
+        <v>0.0598511</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0582549</v>
+        <v>0.059823</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0920031</v>
+        <v>0.0935701</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0649676</v>
+        <v>0.06597840000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06847109999999999</v>
+        <v>0.0651861</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.103719</v>
+        <v>0.105578</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07361760000000001</v>
+        <v>0.0721427</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07546650000000001</v>
+        <v>0.0704579</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.131648</v>
+        <v>0.130435</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08403910000000001</v>
+        <v>0.0883809</v>
       </c>
       <c r="D65" t="n">
-        <v>0.085026</v>
+        <v>0.08586630000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.166408</v>
+        <v>0.173082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0566773</v>
+        <v>0.0550114</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0553434</v>
+        <v>0.0563171</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06792529999999999</v>
+        <v>0.06964430000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.056427</v>
+        <v>0.0566356</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0545492</v>
+        <v>0.0560293</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06952990000000001</v>
+        <v>0.0696456</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0559911</v>
+        <v>0.0556098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.055694</v>
+        <v>0.0572091</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0730104</v>
+        <v>0.0734976</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0563091</v>
+        <v>0.0568987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0558444</v>
+        <v>0.0578386</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07094789999999999</v>
+        <v>0.0738603</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0577833</v>
+        <v>0.0600914</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0590673</v>
+        <v>0.057893</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.079371</v>
+        <v>0.08092530000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0590615</v>
+        <v>0.0598006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0593846</v>
+        <v>0.0612097</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0758726</v>
+        <v>0.0773638</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0613807</v>
+        <v>0.0595248</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0607544</v>
+        <v>0.0625806</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.080801</v>
+        <v>0.08446380000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0609792</v>
+        <v>0.0623361</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0611748</v>
+        <v>0.0631704</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0862781</v>
+        <v>0.0878893</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0641254</v>
+        <v>0.0637783</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0654305</v>
+        <v>0.0654015</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0960869</v>
+        <v>0.09528159999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0724397</v>
+        <v>0.06770370000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0692647</v>
+        <v>0.0686814</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0999154</v>
+        <v>0.108489</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0743084</v>
+        <v>0.0750079</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0722742</v>
+        <v>0.0719347</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.111489</v>
+        <v>0.114512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0779948</v>
+        <v>0.08002860000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0808995</v>
+        <v>0.07735350000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.125197</v>
+        <v>0.12716</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0926853</v>
+        <v>0.08556080000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0882044</v>
+        <v>0.0869259</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.149419</v>
+        <v>0.152129</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101782</v>
+        <v>0.0985338</v>
       </c>
       <c r="D79" t="n">
-        <v>0.102872</v>
+        <v>0.09882870000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.188232</v>
+        <v>0.19151</v>
       </c>
       <c r="C80" t="n">
-        <v>0.06493980000000001</v>
+        <v>0.06646000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0633582</v>
+        <v>0.0633408</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.085637</v>
+        <v>0.08529399999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.06482839999999999</v>
+        <v>0.06383809999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.064623</v>
+        <v>0.064567</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0886607</v>
+        <v>0.0894739</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0698756</v>
+        <v>0.0663065</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0638715</v>
+        <v>0.0629914</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0904862</v>
+        <v>0.0921945</v>
       </c>
       <c r="C83" t="n">
-        <v>0.067111</v>
+        <v>0.06748</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0685809</v>
+        <v>0.0682975</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09863130000000001</v>
+        <v>0.0994169</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0726943</v>
+        <v>0.0761178</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0732072</v>
+        <v>0.07036630000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0970726</v>
+        <v>0.09716470000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0747346</v>
+        <v>0.07381509999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.07274369999999999</v>
+        <v>0.0713539</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0986761</v>
+        <v>0.102656</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0760903</v>
+        <v>0.07284</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07181899999999999</v>
+        <v>0.0755893</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.103735</v>
+        <v>0.108589</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0733032</v>
+        <v>0.0820162</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0753323</v>
+        <v>0.0737387</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.109536</v>
+        <v>0.109473</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0792905</v>
+        <v>0.07759779999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07828690000000001</v>
+        <v>0.0792385</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.11332</v>
+        <v>0.120866</v>
       </c>
       <c r="C89" t="n">
-        <v>0.08426690000000001</v>
+        <v>0.08201120000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0815999</v>
+        <v>0.0815847</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119923</v>
+        <v>0.124627</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0858136</v>
+        <v>0.0911889</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0873348</v>
+        <v>0.0872961</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.133206</v>
+        <v>0.138296</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0901665</v>
+        <v>0.0909377</v>
       </c>
       <c r="D91" t="n">
-        <v>0.09225369999999999</v>
+        <v>0.0956183</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.147925</v>
+        <v>0.151086</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0981891</v>
+        <v>0.100568</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0999406</v>
+        <v>0.105025</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.166094</v>
+        <v>0.168112</v>
       </c>
       <c r="C93" t="n">
-        <v>0.110725</v>
+        <v>0.113511</v>
       </c>
       <c r="D93" t="n">
-        <v>0.114596</v>
+        <v>0.11262</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.204475</v>
+        <v>0.210635</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0923353</v>
+        <v>0.0868177</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08454689999999999</v>
+        <v>0.0873094</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.113784</v>
+        <v>0.113488</v>
       </c>
       <c r="C95" t="n">
-        <v>0.090604</v>
+        <v>0.08618729999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08905739999999999</v>
+        <v>0.0913223</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.119698</v>
+        <v>0.118795</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09164129999999999</v>
+        <v>0.0893403</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09054180000000001</v>
+        <v>0.0889761</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.126281</v>
+        <v>0.124924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0949985</v>
+        <v>0.0941562</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09420920000000001</v>
+        <v>0.0886425</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.119836</v>
+        <v>0.12187</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0943581</v>
+        <v>0.0947409</v>
       </c>
       <c r="D98" t="n">
-        <v>0.09543459999999999</v>
+        <v>0.09075569999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.124415</v>
+        <v>0.130968</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09457210000000001</v>
+        <v>0.100672</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0954644</v>
+        <v>0.0937805</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127619</v>
+        <v>0.136066</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0998415</v>
+        <v>0.10064</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09700400000000001</v>
+        <v>0.105632</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13401</v>
+        <v>0.134274</v>
       </c>
       <c r="C101" t="n">
-        <v>0.109712</v>
+        <v>0.102288</v>
       </c>
       <c r="D101" t="n">
-        <v>0.104308</v>
+        <v>0.102744</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.137637</v>
+        <v>0.142442</v>
       </c>
       <c r="C102" t="n">
-        <v>0.107443</v>
+        <v>0.105354</v>
       </c>
       <c r="D102" t="n">
-        <v>0.101532</v>
+        <v>0.103803</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.145441</v>
+        <v>0.147068</v>
       </c>
       <c r="C103" t="n">
-        <v>0.10769</v>
+        <v>0.105955</v>
       </c>
       <c r="D103" t="n">
-        <v>0.109213</v>
+        <v>0.105995</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.152679</v>
+        <v>0.147674</v>
       </c>
       <c r="C104" t="n">
-        <v>0.110671</v>
+        <v>0.108816</v>
       </c>
       <c r="D104" t="n">
-        <v>0.113653</v>
+        <v>0.111929</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.168517</v>
+        <v>0.163975</v>
       </c>
       <c r="C105" t="n">
-        <v>0.120036</v>
+        <v>0.118416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.119094</v>
+        <v>0.117602</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18453</v>
+        <v>0.17754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.129926</v>
+        <v>0.125829</v>
       </c>
       <c r="D106" t="n">
-        <v>0.130203</v>
+        <v>0.123223</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.199462</v>
+        <v>0.192732</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1382</v>
+        <v>0.140002</v>
       </c>
       <c r="D107" t="n">
-        <v>0.140974</v>
+        <v>0.137687</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234495</v>
+        <v>0.231776</v>
       </c>
       <c r="C108" t="n">
-        <v>0.191842</v>
+        <v>0.180849</v>
       </c>
       <c r="D108" t="n">
-        <v>0.199223</v>
+        <v>0.184205</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.29464</v>
+        <v>0.301107</v>
       </c>
       <c r="C109" t="n">
-        <v>0.191692</v>
+        <v>0.18055</v>
       </c>
       <c r="D109" t="n">
-        <v>0.184052</v>
+        <v>0.178825</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.221017</v>
+        <v>0.214141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.194792</v>
+        <v>0.18797</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184833</v>
+        <v>0.173203</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.226063</v>
+        <v>0.218968</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18976</v>
+        <v>0.179606</v>
       </c>
       <c r="D111" t="n">
-        <v>0.198537</v>
+        <v>0.181889</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.224403</v>
+        <v>0.227789</v>
       </c>
       <c r="C112" t="n">
-        <v>0.192347</v>
+        <v>0.179245</v>
       </c>
       <c r="D112" t="n">
-        <v>0.194592</v>
+        <v>0.17717</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23813</v>
+        <v>0.226895</v>
       </c>
       <c r="C113" t="n">
-        <v>0.197955</v>
+        <v>0.184795</v>
       </c>
       <c r="D113" t="n">
-        <v>0.200556</v>
+        <v>0.188342</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.228698</v>
+        <v>0.235389</v>
       </c>
       <c r="C114" t="n">
-        <v>0.196149</v>
+        <v>0.185545</v>
       </c>
       <c r="D114" t="n">
-        <v>0.19837</v>
+        <v>0.188659</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229252</v>
+        <v>0.2432</v>
       </c>
       <c r="C115" t="n">
-        <v>0.210104</v>
+        <v>0.18862</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212291</v>
+        <v>0.197881</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.256487</v>
+        <v>0.242262</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209485</v>
+        <v>0.200508</v>
       </c>
       <c r="D116" t="n">
-        <v>0.220539</v>
+        <v>0.205654</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.261983</v>
+        <v>0.249402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.201388</v>
+        <v>0.198479</v>
       </c>
       <c r="D117" t="n">
-        <v>0.220462</v>
+        <v>0.195117</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.262627</v>
+        <v>0.260142</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216582</v>
+        <v>0.205033</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214828</v>
+        <v>0.198188</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.264405</v>
+        <v>0.270841</v>
       </c>
       <c r="C119" t="n">
-        <v>0.236515</v>
+        <v>0.208626</v>
       </c>
       <c r="D119" t="n">
-        <v>0.230506</v>
+        <v>0.209339</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.286183</v>
+        <v>0.282692</v>
       </c>
       <c r="C120" t="n">
-        <v>0.224559</v>
+        <v>0.215445</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233123</v>
+        <v>0.20952</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.302696</v>
+        <v>0.317637</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256999</v>
+        <v>0.217677</v>
       </c>
       <c r="D121" t="n">
-        <v>0.246386</v>
+        <v>0.221373</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.345554</v>
+        <v>0.359444</v>
       </c>
       <c r="C122" t="n">
-        <v>0.258549</v>
+        <v>0.240563</v>
       </c>
       <c r="D122" t="n">
-        <v>0.262553</v>
+        <v>0.249099</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419017</v>
+        <v>0.424636</v>
       </c>
       <c r="C123" t="n">
-        <v>0.306623</v>
+        <v>0.281146</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305666</v>
+        <v>0.266725</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.330881</v>
+        <v>0.339836</v>
       </c>
       <c r="C124" t="n">
-        <v>0.305042</v>
+        <v>0.282968</v>
       </c>
       <c r="D124" t="n">
-        <v>0.308071</v>
+        <v>0.275005</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321152</v>
+        <v>0.337452</v>
       </c>
       <c r="C125" t="n">
-        <v>0.305537</v>
+        <v>0.272766</v>
       </c>
       <c r="D125" t="n">
-        <v>0.306153</v>
+        <v>0.274636</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333672</v>
+        <v>0.329475</v>
       </c>
       <c r="C126" t="n">
-        <v>0.323066</v>
+        <v>0.270714</v>
       </c>
       <c r="D126" t="n">
-        <v>0.314562</v>
+        <v>0.273915</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.341895</v>
+        <v>0.336898</v>
       </c>
       <c r="C127" t="n">
-        <v>0.319491</v>
+        <v>0.282168</v>
       </c>
       <c r="D127" t="n">
-        <v>0.313844</v>
+        <v>0.280606</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.355332</v>
+        <v>0.336013</v>
       </c>
       <c r="C128" t="n">
-        <v>0.326976</v>
+        <v>0.281758</v>
       </c>
       <c r="D128" t="n">
-        <v>0.32025</v>
+        <v>0.281568</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.346873</v>
+        <v>0.345849</v>
       </c>
       <c r="C129" t="n">
-        <v>0.324892</v>
+        <v>0.284386</v>
       </c>
       <c r="D129" t="n">
-        <v>0.333381</v>
+        <v>0.280076</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.356128</v>
+        <v>0.362466</v>
       </c>
       <c r="C130" t="n">
-        <v>0.326408</v>
+        <v>0.288874</v>
       </c>
       <c r="D130" t="n">
-        <v>0.322987</v>
+        <v>0.285592</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.361326</v>
+        <v>0.368442</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331654</v>
+        <v>0.283813</v>
       </c>
       <c r="D131" t="n">
-        <v>0.326124</v>
+        <v>0.287617</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.373508</v>
+        <v>0.380226</v>
       </c>
       <c r="C132" t="n">
-        <v>0.335109</v>
+        <v>0.292197</v>
       </c>
       <c r="D132" t="n">
-        <v>0.332773</v>
+        <v>0.297134</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.388053</v>
+        <v>0.381254</v>
       </c>
       <c r="C133" t="n">
-        <v>0.343062</v>
+        <v>0.304442</v>
       </c>
       <c r="D133" t="n">
-        <v>0.337748</v>
+        <v>0.305711</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.405728</v>
+        <v>0.401647</v>
       </c>
       <c r="C134" t="n">
-        <v>0.354687</v>
+        <v>0.302408</v>
       </c>
       <c r="D134" t="n">
-        <v>0.343751</v>
+        <v>0.319333</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.443599</v>
+        <v>0.430731</v>
       </c>
       <c r="C135" t="n">
-        <v>0.35581</v>
+        <v>0.326291</v>
       </c>
       <c r="D135" t="n">
-        <v>0.352336</v>
+        <v>0.320553</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.476687</v>
+        <v>0.467582</v>
       </c>
       <c r="C136" t="n">
-        <v>0.38484</v>
+        <v>0.348409</v>
       </c>
       <c r="D136" t="n">
-        <v>0.388846</v>
+        <v>0.34258</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.559827</v>
+        <v>0.562204</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380181</v>
+        <v>0.316875</v>
       </c>
       <c r="D137" t="n">
-        <v>0.381549</v>
+        <v>0.320554</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.385776</v>
+        <v>0.399405</v>
       </c>
       <c r="C138" t="n">
-        <v>0.383269</v>
+        <v>0.314779</v>
       </c>
       <c r="D138" t="n">
-        <v>0.374434</v>
+        <v>0.309503</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.400082</v>
+        <v>0.400902</v>
       </c>
       <c r="C139" t="n">
-        <v>0.387485</v>
+        <v>0.328843</v>
       </c>
       <c r="D139" t="n">
-        <v>0.383834</v>
+        <v>0.324248</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.40081</v>
+        <v>0.391815</v>
       </c>
       <c r="C140" t="n">
-        <v>0.387658</v>
+        <v>0.330897</v>
       </c>
       <c r="D140" t="n">
-        <v>0.384946</v>
+        <v>0.32975</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.413946</v>
+        <v>0.404821</v>
       </c>
       <c r="C141" t="n">
-        <v>0.383505</v>
+        <v>0.339047</v>
       </c>
       <c r="D141" t="n">
-        <v>0.389423</v>
+        <v>0.336667</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.420234</v>
+        <v>0.414592</v>
       </c>
       <c r="C142" t="n">
-        <v>0.388603</v>
+        <v>0.344307</v>
       </c>
       <c r="D142" t="n">
-        <v>0.394685</v>
+        <v>0.344055</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.417948</v>
+        <v>0.419923</v>
       </c>
       <c r="C143" t="n">
-        <v>0.397649</v>
+        <v>0.336923</v>
       </c>
       <c r="D143" t="n">
-        <v>0.402169</v>
+        <v>0.347381</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410787</v>
+        <v>0.0410337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361397</v>
+        <v>0.0389645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111122</v>
+        <v>0.119117</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0434785</v>
+        <v>0.0431964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0378541</v>
+        <v>0.0414623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114579</v>
+        <v>0.125139</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0457764</v>
+        <v>0.0461262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0391253</v>
+        <v>0.0424248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120538</v>
+        <v>0.125778</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0526381</v>
+        <v>0.0483762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0427274</v>
+        <v>0.0458107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.125868</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056882</v>
+        <v>0.0550607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0454926</v>
+        <v>0.0491722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128047</v>
+        <v>0.139022</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0681474</v>
+        <v>0.0667539</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0550574</v>
+        <v>0.057436</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0953755</v>
+        <v>0.100879</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0841378</v>
+        <v>0.0879566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0645575</v>
+        <v>0.0676423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0991291</v>
+        <v>0.106793</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119398</v>
+        <v>0.116092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0344614</v>
+        <v>0.0374792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.102882</v>
+        <v>0.110665</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0381437</v>
+        <v>0.0407283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0345417</v>
+        <v>0.0362619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107977</v>
+        <v>0.116157</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0387979</v>
+        <v>0.040119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0347992</v>
+        <v>0.0377921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112259</v>
+        <v>0.119328</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.038852</v>
+        <v>0.0410415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0350865</v>
+        <v>0.0376308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115628</v>
+        <v>0.125229</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0425049</v>
+        <v>0.0426569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0354476</v>
+        <v>0.0378225</v>
       </c>
       <c r="D13" t="n">
-        <v>0.119598</v>
+        <v>0.129146</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0416069</v>
+        <v>0.0426917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0360543</v>
+        <v>0.0383411</v>
       </c>
       <c r="D14" t="n">
-        <v>0.124601</v>
+        <v>0.141055</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0418044</v>
+        <v>0.0431945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0362819</v>
+        <v>0.0381652</v>
       </c>
       <c r="D15" t="n">
-        <v>0.135458</v>
+        <v>0.14219</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0448277</v>
+        <v>0.0447275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0369527</v>
+        <v>0.0395611</v>
       </c>
       <c r="D16" t="n">
-        <v>0.130885</v>
+        <v>0.141216</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0471037</v>
+        <v>0.0465236</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03788</v>
+        <v>0.0399925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.134731</v>
+        <v>0.147347</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0486031</v>
+        <v>0.0515926</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0390186</v>
+        <v>0.042543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.138283</v>
+        <v>0.149507</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0542069</v>
+        <v>0.0556158</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0415374</v>
+        <v>0.0444411</v>
       </c>
       <c r="D19" t="n">
-        <v>0.148714</v>
+        <v>0.154203</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621949</v>
+        <v>0.0624655</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0451851</v>
+        <v>0.0495577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157964</v>
+        <v>0.157362</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0744973</v>
+        <v>0.0755683</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0537634</v>
+        <v>0.0561735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.116846</v>
+        <v>0.113091</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09645280000000001</v>
+        <v>0.09076190000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0628736</v>
+        <v>0.0649193</v>
       </c>
       <c r="D22" t="n">
-        <v>0.111574</v>
+        <v>0.116104</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118931</v>
+        <v>0.121875</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0367052</v>
+        <v>0.0378651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.115572</v>
+        <v>0.122376</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0455292</v>
+        <v>0.0435704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.038303</v>
+        <v>0.0374915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.126166</v>
+        <v>0.125534</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0438184</v>
+        <v>0.0440569</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0373738</v>
+        <v>0.0391972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.127138</v>
+        <v>0.138186</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0434346</v>
+        <v>0.0458441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0374074</v>
+        <v>0.0389021</v>
       </c>
       <c r="D26" t="n">
-        <v>0.134079</v>
+        <v>0.133012</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.044683</v>
+        <v>0.0432415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0372523</v>
+        <v>0.0379744</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140619</v>
+        <v>0.141002</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0453221</v>
+        <v>0.0459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0379445</v>
+        <v>0.0392614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.143656</v>
+        <v>0.149976</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0467617</v>
+        <v>0.0464434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0395878</v>
+        <v>0.039989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.148933</v>
+        <v>0.15096</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0501711</v>
+        <v>0.0495299</v>
       </c>
       <c r="C30" t="n">
-        <v>0.040255</v>
+        <v>0.0408907</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155434</v>
+        <v>0.156019</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0499305</v>
+        <v>0.0513809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0412885</v>
+        <v>0.0411726</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15107</v>
+        <v>0.161712</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0534778</v>
+        <v>0.0553575</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0428754</v>
+        <v>0.044214</v>
       </c>
       <c r="D32" t="n">
-        <v>0.162836</v>
+        <v>0.166099</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0613428</v>
+        <v>0.057701</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0453549</v>
+        <v>0.047653</v>
       </c>
       <c r="D33" t="n">
-        <v>0.165664</v>
+        <v>0.182954</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06741030000000001</v>
+        <v>0.0675362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0500836</v>
+        <v>0.0494811</v>
       </c>
       <c r="D34" t="n">
-        <v>0.181373</v>
+        <v>0.188035</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0790217</v>
+        <v>0.0757814</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0519548</v>
+        <v>0.0541891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.121984</v>
+        <v>0.135135</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09247950000000001</v>
+        <v>0.0927172</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0597272</v>
+        <v>0.0634772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.135765</v>
+        <v>0.139668</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127184</v>
+        <v>0.120151</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0400183</v>
+        <v>0.0414525</v>
       </c>
       <c r="D37" t="n">
-        <v>0.141704</v>
+        <v>0.146124</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0462133</v>
+        <v>0.0464481</v>
       </c>
       <c r="C38" t="n">
-        <v>0.040326</v>
+        <v>0.0418681</v>
       </c>
       <c r="D38" t="n">
-        <v>0.149287</v>
+        <v>0.153957</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0486317</v>
+        <v>0.0498148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0419625</v>
+        <v>0.0404026</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156578</v>
+        <v>0.160125</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0480572</v>
+        <v>0.049685</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0425709</v>
+        <v>0.0417095</v>
       </c>
       <c r="D40" t="n">
-        <v>0.159474</v>
+        <v>0.167333</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0486754</v>
+        <v>0.0501305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0410147</v>
+        <v>0.042348</v>
       </c>
       <c r="D41" t="n">
-        <v>0.168975</v>
+        <v>0.183639</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0503557</v>
+        <v>0.0493373</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0421648</v>
+        <v>0.0439087</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178969</v>
+        <v>0.189447</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0514842</v>
+        <v>0.0508732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0428378</v>
+        <v>0.0435873</v>
       </c>
       <c r="D43" t="n">
-        <v>0.190868</v>
+        <v>0.196766</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.055736</v>
+        <v>0.0534567</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0428147</v>
+        <v>0.0443387</v>
       </c>
       <c r="D44" t="n">
-        <v>0.197208</v>
+        <v>0.218517</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0555873</v>
+        <v>0.0563944</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0442957</v>
+        <v>0.0455712</v>
       </c>
       <c r="D45" t="n">
-        <v>0.205229</v>
+        <v>0.228641</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0582053</v>
+        <v>0.0588978</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0470778</v>
+        <v>0.0465432</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218266</v>
+        <v>0.239942</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0628403</v>
+        <v>0.064757</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0479994</v>
+        <v>0.0473674</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23879</v>
+        <v>0.248043</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06859179999999999</v>
+        <v>0.06822549999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519499</v>
+        <v>0.0519373</v>
       </c>
       <c r="D48" t="n">
-        <v>0.258304</v>
+        <v>0.25849</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0843503</v>
+        <v>0.0798837</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0565898</v>
+        <v>0.0556306</v>
       </c>
       <c r="D49" t="n">
-        <v>0.27178</v>
+        <v>0.291095</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0930608</v>
+        <v>0.093012</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06285399999999999</v>
+        <v>0.0637842</v>
       </c>
       <c r="D50" t="n">
-        <v>0.219379</v>
+        <v>0.218902</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120812</v>
+        <v>0.118071</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0458305</v>
+        <v>0.0468729</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226494</v>
+        <v>0.234534</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163357</v>
+        <v>0.15773</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0470578</v>
+        <v>0.0481505</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239174</v>
+        <v>0.246133</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0592852</v>
+        <v>0.058511</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0486202</v>
+        <v>0.0470937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254232</v>
+        <v>0.263572</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0594998</v>
+        <v>0.0593968</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0477522</v>
+        <v>0.0484107</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269692</v>
+        <v>0.279424</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.060114</v>
+        <v>0.059934</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0493492</v>
+        <v>0.0497284</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283955</v>
+        <v>0.298707</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0617672</v>
+        <v>0.0622355</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0480333</v>
+        <v>0.0490141</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302941</v>
+        <v>0.31974</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609479</v>
+        <v>0.063011</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0493671</v>
+        <v>0.0493651</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317314</v>
+        <v>0.331937</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0639154</v>
+        <v>0.0629902</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0511424</v>
+        <v>0.0511202</v>
       </c>
       <c r="D58" t="n">
-        <v>0.340928</v>
+        <v>0.350019</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0653976</v>
+        <v>0.06477960000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0510226</v>
+        <v>0.0521365</v>
       </c>
       <c r="D59" t="n">
-        <v>0.358513</v>
+        <v>0.36505</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.067897</v>
+        <v>0.06765740000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05362</v>
+        <v>0.0523425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.380693</v>
+        <v>0.377574</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.072334</v>
+        <v>0.07459979999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0558201</v>
+        <v>0.0564703</v>
       </c>
       <c r="D61" t="n">
-        <v>0.396429</v>
+        <v>0.40272</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0814317</v>
+        <v>0.07833130000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0576996</v>
+        <v>0.0591487</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422544</v>
+        <v>0.416596</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.087367</v>
+        <v>0.0895914</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0635903</v>
+        <v>0.0630883</v>
       </c>
       <c r="D63" t="n">
-        <v>0.448447</v>
+        <v>0.456361</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.104879</v>
+        <v>0.0994009</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0702947</v>
+        <v>0.0734209</v>
       </c>
       <c r="D64" t="n">
-        <v>0.349145</v>
+        <v>0.352233</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.127399</v>
+        <v>0.12526</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0831081</v>
+        <v>0.08276360000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.365888</v>
+        <v>0.359889</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165139</v>
+        <v>0.167314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0541118</v>
+        <v>0.0544856</v>
       </c>
       <c r="D66" t="n">
-        <v>0.385463</v>
+        <v>0.381993</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0669435</v>
+        <v>0.0673419</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0542178</v>
+        <v>0.0537385</v>
       </c>
       <c r="D67" t="n">
-        <v>0.395664</v>
+        <v>0.399116</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0677401</v>
+        <v>0.0664468</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0534722</v>
+        <v>0.0545709</v>
       </c>
       <c r="D68" t="n">
-        <v>0.409851</v>
+        <v>0.405676</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0690607</v>
+        <v>0.0689023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0554103</v>
+        <v>0.0549625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.426285</v>
+        <v>0.417549</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0699647</v>
+        <v>0.0705819</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0554841</v>
+        <v>0.0552912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.438216</v>
+        <v>0.458795</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0732096</v>
+        <v>0.072324</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0566426</v>
+        <v>0.0563308</v>
       </c>
       <c r="D71" t="n">
-        <v>0.472959</v>
+        <v>0.467156</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07476670000000001</v>
+        <v>0.07291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.057655</v>
+        <v>0.060725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.492885</v>
+        <v>0.468214</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.077695</v>
+        <v>0.0781855</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0597462</v>
+        <v>0.0610575</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5049169999999999</v>
+        <v>0.499239</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0814703</v>
+        <v>0.0836126</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0605364</v>
+        <v>0.0638104</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5180670000000001</v>
+        <v>0.51742</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08295950000000001</v>
+        <v>0.0871252</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0639599</v>
+        <v>0.065377</v>
       </c>
       <c r="D75" t="n">
-        <v>0.564928</v>
+        <v>0.528826</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0973663</v>
+        <v>0.0930494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06770710000000001</v>
+        <v>0.0678671</v>
       </c>
       <c r="D76" t="n">
-        <v>0.575327</v>
+        <v>0.555129</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.106349</v>
+        <v>0.106021</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0736942</v>
+        <v>0.0765692</v>
       </c>
       <c r="D77" t="n">
-        <v>0.58319</v>
+        <v>0.581611</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119776</v>
+        <v>0.12089</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0811441</v>
+        <v>0.08437260000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.458699</v>
+        <v>0.448743</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.138921</v>
+        <v>0.139634</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0937093</v>
+        <v>0.09339160000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.465442</v>
+        <v>0.457067</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177536</v>
+        <v>0.175669</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0603349</v>
+        <v>0.0614009</v>
       </c>
       <c r="D80" t="n">
-        <v>0.477989</v>
+        <v>0.475605</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08080469999999999</v>
+        <v>0.0840441</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0632514</v>
+        <v>0.0635628</v>
       </c>
       <c r="D81" t="n">
-        <v>0.493697</v>
+        <v>0.499489</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0889742</v>
+        <v>0.0866971</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0617917</v>
+        <v>0.0641646</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5261400000000001</v>
+        <v>0.517489</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0863917</v>
+        <v>0.084588</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06449050000000001</v>
+        <v>0.06432019999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.524153</v>
+        <v>0.524535</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0895697</v>
+        <v>0.08591749999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0645096</v>
+        <v>0.0685678</v>
       </c>
       <c r="D84" t="n">
-        <v>0.542049</v>
+        <v>0.549255</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0906168</v>
+        <v>0.09408130000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0690788</v>
+        <v>0.067236</v>
       </c>
       <c r="D85" t="n">
-        <v>0.557854</v>
+        <v>0.570901</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0930655</v>
+        <v>0.0945285</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06781420000000001</v>
+        <v>0.06911779999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.57112</v>
+        <v>0.5726290000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0974122</v>
+        <v>0.0995162</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06969119999999999</v>
+        <v>0.0720758</v>
       </c>
       <c r="D87" t="n">
-        <v>0.598682</v>
+        <v>0.599521</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102295</v>
+        <v>0.101271</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07257669999999999</v>
+        <v>0.072584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.633147</v>
+        <v>0.604797</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.111447</v>
+        <v>0.107237</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0781509</v>
+        <v>0.0775988</v>
       </c>
       <c r="D89" t="n">
-        <v>0.64399</v>
+        <v>0.645343</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.112968</v>
+        <v>0.114453</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0805623</v>
+        <v>0.080125</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6536650000000001</v>
+        <v>0.673381</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123875</v>
+        <v>0.124134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08640249999999999</v>
+        <v>0.0870846</v>
       </c>
       <c r="D91" t="n">
-        <v>0.707049</v>
+        <v>0.666987</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.138583</v>
+        <v>0.134198</v>
       </c>
       <c r="C92" t="n">
-        <v>0.095235</v>
+        <v>0.0949103</v>
       </c>
       <c r="D92" t="n">
-        <v>0.520073</v>
+        <v>0.522744</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.161492</v>
+        <v>0.156271</v>
       </c>
       <c r="C93" t="n">
-        <v>0.107958</v>
+        <v>0.105747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.529276</v>
+        <v>0.539054</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19393</v>
+        <v>0.190643</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08360330000000001</v>
+        <v>0.0805612</v>
       </c>
       <c r="D94" t="n">
-        <v>0.543153</v>
+        <v>0.552067</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.111168</v>
+        <v>0.107217</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0819829</v>
+        <v>0.0823494</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552115</v>
+        <v>0.568971</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.113467</v>
+        <v>0.112309</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0830399</v>
+        <v>0.0840523</v>
       </c>
       <c r="D96" t="n">
-        <v>0.586395</v>
+        <v>0.5829839999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113508</v>
+        <v>0.113747</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0871623</v>
+        <v>0.08479440000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.589947</v>
+        <v>0.61073</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.112501</v>
+        <v>0.117036</v>
       </c>
       <c r="C98" t="n">
-        <v>0.08497209999999999</v>
+        <v>0.0865452</v>
       </c>
       <c r="D98" t="n">
-        <v>0.621126</v>
+        <v>0.608386</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118392</v>
+        <v>0.118755</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0909919</v>
+        <v>0.08915140000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.626618</v>
+        <v>0.621494</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121259</v>
+        <v>0.119464</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09276769999999999</v>
+        <v>0.0943016</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6784829999999999</v>
+        <v>0.655173</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.125238</v>
+        <v>0.127425</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0934203</v>
+        <v>0.09439889999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.672556</v>
+        <v>0.665697</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130044</v>
+        <v>0.132394</v>
       </c>
       <c r="C102" t="n">
-        <v>0.100091</v>
+        <v>0.0958711</v>
       </c>
       <c r="D102" t="n">
-        <v>0.698855</v>
+        <v>0.689376</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134431</v>
+        <v>0.133103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0975554</v>
+        <v>0.100076</v>
       </c>
       <c r="D103" t="n">
-        <v>0.705947</v>
+        <v>0.729304</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.135608</v>
+        <v>0.14527</v>
       </c>
       <c r="C104" t="n">
-        <v>0.104354</v>
+        <v>0.102795</v>
       </c>
       <c r="D104" t="n">
-        <v>0.747515</v>
+        <v>0.7367089999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.152232</v>
+        <v>0.15102</v>
       </c>
       <c r="C105" t="n">
-        <v>0.106901</v>
+        <v>0.107879</v>
       </c>
       <c r="D105" t="n">
-        <v>0.749317</v>
+        <v>0.753349</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.161559</v>
+        <v>0.167793</v>
       </c>
       <c r="C106" t="n">
-        <v>0.116104</v>
+        <v>0.119052</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776163</v>
+        <v>0.7896879999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186279</v>
+        <v>0.188589</v>
       </c>
       <c r="C107" t="n">
-        <v>0.127747</v>
+        <v>0.127904</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571758</v>
+        <v>0.593969</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.220539</v>
+        <v>0.217573</v>
       </c>
       <c r="C108" t="n">
-        <v>0.164086</v>
+        <v>0.161172</v>
       </c>
       <c r="D108" t="n">
-        <v>0.594194</v>
+        <v>0.601537</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.278873</v>
+        <v>0.285578</v>
       </c>
       <c r="C109" t="n">
-        <v>0.163143</v>
+        <v>0.168735</v>
       </c>
       <c r="D109" t="n">
-        <v>0.620326</v>
+        <v>0.618649</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.19426</v>
+        <v>0.209172</v>
       </c>
       <c r="C110" t="n">
-        <v>0.163872</v>
+        <v>0.168759</v>
       </c>
       <c r="D110" t="n">
-        <v>0.654751</v>
+        <v>0.649405</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.200045</v>
+        <v>0.199877</v>
       </c>
       <c r="C111" t="n">
-        <v>0.173127</v>
+        <v>0.169966</v>
       </c>
       <c r="D111" t="n">
-        <v>0.674101</v>
+        <v>0.710017</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.200962</v>
+        <v>0.20428</v>
       </c>
       <c r="C112" t="n">
-        <v>0.16885</v>
+        <v>0.168949</v>
       </c>
       <c r="D112" t="n">
-        <v>0.672387</v>
+        <v>0.665863</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.208698</v>
+        <v>0.206251</v>
       </c>
       <c r="C113" t="n">
-        <v>0.173654</v>
+        <v>0.167821</v>
       </c>
       <c r="D113" t="n">
-        <v>0.677056</v>
+        <v>0.691168</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.21138</v>
+        <v>0.206116</v>
       </c>
       <c r="C114" t="n">
-        <v>0.181432</v>
+        <v>0.17494</v>
       </c>
       <c r="D114" t="n">
-        <v>0.761383</v>
+        <v>0.717814</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214068</v>
+        <v>0.212881</v>
       </c>
       <c r="C115" t="n">
-        <v>0.179028</v>
+        <v>0.171405</v>
       </c>
       <c r="D115" t="n">
-        <v>0.794878</v>
+        <v>0.715514</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218404</v>
+        <v>0.213129</v>
       </c>
       <c r="C116" t="n">
-        <v>0.179984</v>
+        <v>0.173563</v>
       </c>
       <c r="D116" t="n">
-        <v>0.745405</v>
+        <v>0.757259</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.225853</v>
+        <v>0.235772</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180668</v>
+        <v>0.181515</v>
       </c>
       <c r="D117" t="n">
-        <v>0.868103</v>
+        <v>0.779262</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.234186</v>
+        <v>0.235999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.181438</v>
+        <v>0.18393</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880211</v>
+        <v>0.797832</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242176</v>
+        <v>0.241688</v>
       </c>
       <c r="C119" t="n">
-        <v>0.187803</v>
+        <v>0.183251</v>
       </c>
       <c r="D119" t="n">
-        <v>0.817967</v>
+        <v>0.808704</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258709</v>
+        <v>0.26684</v>
       </c>
       <c r="C120" t="n">
-        <v>0.196359</v>
+        <v>0.195052</v>
       </c>
       <c r="D120" t="n">
-        <v>0.872842</v>
+        <v>0.866004</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.30466</v>
+        <v>0.283058</v>
       </c>
       <c r="C121" t="n">
-        <v>0.210069</v>
+        <v>0.21197</v>
       </c>
       <c r="D121" t="n">
-        <v>0.650647</v>
+        <v>0.669767</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.322784</v>
+        <v>0.316048</v>
       </c>
       <c r="C122" t="n">
-        <v>0.238959</v>
+        <v>0.233156</v>
       </c>
       <c r="D122" t="n">
-        <v>0.665104</v>
+        <v>0.669865</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.37566</v>
+        <v>0.383098</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255465</v>
+        <v>0.265159</v>
       </c>
       <c r="D123" t="n">
-        <v>0.678599</v>
+        <v>0.698012</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31288</v>
+        <v>0.313304</v>
       </c>
       <c r="C124" t="n">
-        <v>0.259646</v>
+        <v>0.26425</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7209100000000001</v>
+        <v>0.706497</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307102</v>
+        <v>0.315928</v>
       </c>
       <c r="C125" t="n">
-        <v>0.26075</v>
+        <v>0.258907</v>
       </c>
       <c r="D125" t="n">
-        <v>0.727171</v>
+        <v>0.762825</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.31613</v>
+        <v>0.322144</v>
       </c>
       <c r="C126" t="n">
-        <v>0.268629</v>
+        <v>0.26191</v>
       </c>
       <c r="D126" t="n">
-        <v>0.763157</v>
+        <v>0.764553</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332581</v>
+        <v>0.319982</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257862</v>
+        <v>0.2662</v>
       </c>
       <c r="D127" t="n">
-        <v>0.782649</v>
+        <v>0.783829</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.33132</v>
+        <v>0.324206</v>
       </c>
       <c r="C128" t="n">
-        <v>0.263623</v>
+        <v>0.260432</v>
       </c>
       <c r="D128" t="n">
-        <v>0.816635</v>
+        <v>0.819828</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.33055</v>
+        <v>0.334713</v>
       </c>
       <c r="C129" t="n">
-        <v>0.271347</v>
+        <v>0.264887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855959</v>
+        <v>0.831287</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.342034</v>
+        <v>0.340631</v>
       </c>
       <c r="C130" t="n">
-        <v>0.278949</v>
+        <v>0.269442</v>
       </c>
       <c r="D130" t="n">
-        <v>0.884626</v>
+        <v>0.868577</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.356506</v>
+        <v>0.344817</v>
       </c>
       <c r="C131" t="n">
-        <v>0.277028</v>
+        <v>0.275701</v>
       </c>
       <c r="D131" t="n">
-        <v>0.903272</v>
+        <v>0.9047770000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.363099</v>
+        <v>0.36048</v>
       </c>
       <c r="C132" t="n">
-        <v>0.285751</v>
+        <v>0.273942</v>
       </c>
       <c r="D132" t="n">
-        <v>0.944861</v>
+        <v>0.949119</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.361697</v>
+        <v>0.37299</v>
       </c>
       <c r="C133" t="n">
-        <v>0.285961</v>
+        <v>0.282553</v>
       </c>
       <c r="D133" t="n">
-        <v>0.964026</v>
+        <v>0.98233</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.384927</v>
+        <v>0.382619</v>
       </c>
       <c r="C134" t="n">
-        <v>0.288216</v>
+        <v>0.298739</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02652</v>
+        <v>1.02682</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.411879</v>
+        <v>0.406745</v>
       </c>
       <c r="C135" t="n">
-        <v>0.319297</v>
+        <v>0.310389</v>
       </c>
       <c r="D135" t="n">
-        <v>0.835726</v>
+        <v>0.848343</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.458207</v>
+        <v>0.449618</v>
       </c>
       <c r="C136" t="n">
-        <v>0.33126</v>
+        <v>0.326076</v>
       </c>
       <c r="D136" t="n">
-        <v>0.869808</v>
+        <v>0.898604</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.547428</v>
+        <v>0.534118</v>
       </c>
       <c r="C137" t="n">
-        <v>0.316606</v>
+        <v>0.306983</v>
       </c>
       <c r="D137" t="n">
-        <v>0.907047</v>
+        <v>0.910988</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.389946</v>
+        <v>0.379436</v>
       </c>
       <c r="C138" t="n">
-        <v>0.310822</v>
+        <v>0.316494</v>
       </c>
       <c r="D138" t="n">
-        <v>0.934581</v>
+        <v>0.927503</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382341</v>
+        <v>0.38785</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316284</v>
+        <v>0.309729</v>
       </c>
       <c r="D139" t="n">
-        <v>0.963744</v>
+        <v>0.978195</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.39318</v>
+        <v>0.387795</v>
       </c>
       <c r="C140" t="n">
-        <v>0.315396</v>
+        <v>0.318614</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9975039999999999</v>
+        <v>1.00371</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.387676</v>
+        <v>0.399841</v>
       </c>
       <c r="C141" t="n">
-        <v>0.32347</v>
+        <v>0.318424</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02575</v>
+        <v>1.03849</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.379845</v>
+        <v>0.397353</v>
       </c>
       <c r="C142" t="n">
-        <v>0.320739</v>
+        <v>0.324973</v>
       </c>
       <c r="D142" t="n">
-        <v>1.06133</v>
+        <v>1.1522</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.407241</v>
+        <v>0.39918</v>
       </c>
       <c r="C143" t="n">
-        <v>0.32808</v>
+        <v>0.33343</v>
       </c>
       <c r="D143" t="n">
-        <v>1.10108</v>
+        <v>1.11965</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410337</v>
+        <v>0.0438255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0389645</v>
+        <v>0.0422406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119117</v>
+        <v>0.118734</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0431964</v>
+        <v>0.0456086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0414623</v>
+        <v>0.0422008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125139</v>
+        <v>0.122358</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0461262</v>
+        <v>0.0493954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0424248</v>
+        <v>0.0448274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125778</v>
+        <v>0.131773</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0483762</v>
+        <v>0.0528152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0458107</v>
+        <v>0.0473822</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356</v>
+        <v>0.133621</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550607</v>
+        <v>0.0623381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0491722</v>
+        <v>0.0501707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139022</v>
+        <v>0.143623</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0667539</v>
+        <v>0.0772925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.057436</v>
+        <v>0.0598869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100879</v>
+        <v>0.0982032</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0879566</v>
+        <v>0.0982338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0676423</v>
+        <v>0.0726357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.106793</v>
+        <v>0.104095</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116092</v>
+        <v>0.121858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0374792</v>
+        <v>0.0399985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110665</v>
+        <v>0.10982</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0407283</v>
+        <v>0.0414196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0362619</v>
+        <v>0.0404359</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116157</v>
+        <v>0.11498</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040119</v>
+        <v>0.0402567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0377921</v>
+        <v>0.0404211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119328</v>
+        <v>0.118352</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0410415</v>
+        <v>0.0401761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0376308</v>
+        <v>0.0414147</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125229</v>
+        <v>0.123656</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0426569</v>
+        <v>0.0407651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378225</v>
+        <v>0.0423532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129146</v>
+        <v>0.128868</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0426917</v>
+        <v>0.0413611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0383411</v>
+        <v>0.0409205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141055</v>
+        <v>0.135116</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0431945</v>
+        <v>0.0434891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0381652</v>
+        <v>0.0420527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14219</v>
+        <v>0.137217</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447275</v>
+        <v>0.0451112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0395611</v>
+        <v>0.0423692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.141216</v>
+        <v>0.138053</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0465236</v>
+        <v>0.0460684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399925</v>
+        <v>0.0435321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.147347</v>
+        <v>0.143368</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0515926</v>
+        <v>0.0499882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042543</v>
+        <v>0.0449824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149507</v>
+        <v>0.146359</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0556158</v>
+        <v>0.0538199</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0444411</v>
+        <v>0.0471376</v>
       </c>
       <c r="D19" t="n">
-        <v>0.154203</v>
+        <v>0.153752</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624655</v>
+        <v>0.062219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0495577</v>
+        <v>0.0517184</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157362</v>
+        <v>0.158877</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0755683</v>
+        <v>0.0714873</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0561735</v>
+        <v>0.0573061</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113091</v>
+        <v>0.113251</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.0937813</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0649193</v>
+        <v>0.0655293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116104</v>
+        <v>0.113674</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121875</v>
+        <v>0.125034</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0378651</v>
+        <v>0.0408755</v>
       </c>
       <c r="D23" t="n">
-        <v>0.122376</v>
+        <v>0.121545</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0435704</v>
+        <v>0.0422029</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0374915</v>
+        <v>0.042208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125534</v>
+        <v>0.127119</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0440569</v>
+        <v>0.0429224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0391972</v>
+        <v>0.0431477</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138186</v>
+        <v>0.133442</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0458441</v>
+        <v>0.0436052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0389021</v>
+        <v>0.0418631</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133012</v>
+        <v>0.134846</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0432415</v>
+        <v>0.0436536</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0379744</v>
+        <v>0.0425002</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141002</v>
+        <v>0.144372</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0459</v>
+        <v>0.0457684</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0392614</v>
+        <v>0.0437754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.149976</v>
+        <v>0.14525</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464434</v>
+        <v>0.0468449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.039989</v>
+        <v>0.0433511</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15096</v>
+        <v>0.152201</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0495299</v>
+        <v>0.0492897</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0408907</v>
+        <v>0.044262</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156019</v>
+        <v>0.154518</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0513809</v>
+        <v>0.0502736</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0411726</v>
+        <v>0.0450297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161712</v>
+        <v>0.159615</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0553575</v>
+        <v>0.0549197</v>
       </c>
       <c r="C32" t="n">
-        <v>0.044214</v>
+        <v>0.0472509</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166099</v>
+        <v>0.170452</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.057701</v>
+        <v>0.0579273</v>
       </c>
       <c r="C33" t="n">
-        <v>0.047653</v>
+        <v>0.0483943</v>
       </c>
       <c r="D33" t="n">
-        <v>0.182954</v>
+        <v>0.176319</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0675362</v>
+        <v>0.0660427</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0494811</v>
+        <v>0.0537463</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188035</v>
+        <v>0.17988</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0757814</v>
+        <v>0.0765277</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0541891</v>
+        <v>0.06004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135135</v>
+        <v>0.130907</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0927172</v>
+        <v>0.09166340000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0634772</v>
+        <v>0.06543110000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139668</v>
+        <v>0.139189</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120151</v>
+        <v>0.12632</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0414525</v>
+        <v>0.0438386</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146124</v>
+        <v>0.146275</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0464481</v>
+        <v>0.0481516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0418681</v>
+        <v>0.0456199</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153957</v>
+        <v>0.154711</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0498148</v>
+        <v>0.0479262</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0404026</v>
+        <v>0.0449906</v>
       </c>
       <c r="D39" t="n">
-        <v>0.160125</v>
+        <v>0.161292</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.049685</v>
+        <v>0.0484561</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0417095</v>
+        <v>0.0449971</v>
       </c>
       <c r="D40" t="n">
-        <v>0.167333</v>
+        <v>0.17178</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0501305</v>
+        <v>0.0494546</v>
       </c>
       <c r="C41" t="n">
-        <v>0.042348</v>
+        <v>0.0461202</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183639</v>
+        <v>0.186446</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0493373</v>
+        <v>0.0513216</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0439087</v>
+        <v>0.0465794</v>
       </c>
       <c r="D42" t="n">
-        <v>0.189447</v>
+        <v>0.191988</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0508732</v>
+        <v>0.0526856</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0435873</v>
+        <v>0.0470464</v>
       </c>
       <c r="D43" t="n">
-        <v>0.196766</v>
+        <v>0.205128</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0534567</v>
+        <v>0.0538978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0443387</v>
+        <v>0.0483317</v>
       </c>
       <c r="D44" t="n">
-        <v>0.218517</v>
+        <v>0.220106</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563944</v>
+        <v>0.0552574</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455712</v>
+        <v>0.0478436</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228641</v>
+        <v>0.236315</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0588978</v>
+        <v>0.0606304</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0465432</v>
+        <v>0.0501897</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239942</v>
+        <v>0.24712</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.064757</v>
+        <v>0.0627919</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0473674</v>
+        <v>0.0520852</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248043</v>
+        <v>0.258888</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06822549999999999</v>
+        <v>0.0701432</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519373</v>
+        <v>0.054635</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25849</v>
+        <v>0.267448</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0798837</v>
+        <v>0.0796526</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0556306</v>
+        <v>0.059252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291095</v>
+        <v>0.298289</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.093012</v>
+        <v>0.0947828</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0637842</v>
+        <v>0.06669170000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218902</v>
+        <v>0.228054</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118071</v>
+        <v>0.116836</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0468729</v>
+        <v>0.0518714</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234534</v>
+        <v>0.238879</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15773</v>
+        <v>0.162281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0481505</v>
+        <v>0.0532602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.246133</v>
+        <v>0.25972</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.058511</v>
+        <v>0.058455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0470937</v>
+        <v>0.0534686</v>
       </c>
       <c r="D53" t="n">
-        <v>0.263572</v>
+        <v>0.265452</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0593968</v>
+        <v>0.0581559</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0484107</v>
+        <v>0.052347</v>
       </c>
       <c r="D54" t="n">
-        <v>0.279424</v>
+        <v>0.287153</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.059934</v>
+        <v>0.0597976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497284</v>
+        <v>0.0532531</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298707</v>
+        <v>0.301673</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0622355</v>
+        <v>0.0622153</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0490141</v>
+        <v>0.0544519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31974</v>
+        <v>0.319109</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.063011</v>
+        <v>0.0634193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0493651</v>
+        <v>0.0549193</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331937</v>
+        <v>0.339105</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0629902</v>
+        <v>0.06516950000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0511202</v>
+        <v>0.0547075</v>
       </c>
       <c r="D58" t="n">
-        <v>0.350019</v>
+        <v>0.354071</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06477960000000001</v>
+        <v>0.0652866</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0521365</v>
+        <v>0.0580984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.36505</v>
+        <v>0.373372</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06765740000000001</v>
+        <v>0.06886639999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0523425</v>
+        <v>0.059047</v>
       </c>
       <c r="D60" t="n">
-        <v>0.377574</v>
+        <v>0.392662</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07459979999999999</v>
+        <v>0.0734942</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0564703</v>
+        <v>0.0609868</v>
       </c>
       <c r="D61" t="n">
-        <v>0.40272</v>
+        <v>0.409772</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07833130000000001</v>
+        <v>0.0806212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0591487</v>
+        <v>0.064319</v>
       </c>
       <c r="D62" t="n">
-        <v>0.416596</v>
+        <v>0.459072</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0895914</v>
+        <v>0.08948449999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0630883</v>
+        <v>0.0670684</v>
       </c>
       <c r="D63" t="n">
-        <v>0.456361</v>
+        <v>0.459312</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0994009</v>
+        <v>0.0994128</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0734209</v>
+        <v>0.0751998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.352233</v>
+        <v>0.365073</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12526</v>
+        <v>0.123004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08276360000000001</v>
+        <v>0.08633639999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.359889</v>
+        <v>0.373046</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167314</v>
+        <v>0.160494</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0544856</v>
+        <v>0.0590338</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381993</v>
+        <v>0.405429</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0673419</v>
+        <v>0.0664873</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0537385</v>
+        <v>0.0594547</v>
       </c>
       <c r="D67" t="n">
-        <v>0.399116</v>
+        <v>0.405958</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0664468</v>
+        <v>0.06962160000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0545709</v>
+        <v>0.0613042</v>
       </c>
       <c r="D68" t="n">
-        <v>0.405676</v>
+        <v>0.415098</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0689023</v>
+        <v>0.07069110000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0549625</v>
+        <v>0.0619018</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417549</v>
+        <v>0.427203</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0705819</v>
+        <v>0.0690487</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0552912</v>
+        <v>0.0615866</v>
       </c>
       <c r="D70" t="n">
-        <v>0.458795</v>
+        <v>0.462894</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.072324</v>
+        <v>0.0732727</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0563308</v>
+        <v>0.0627722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.467156</v>
+        <v>0.479652</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07291</v>
+        <v>0.07628070000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.060725</v>
+        <v>0.0632035</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468214</v>
+        <v>0.492752</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0781855</v>
+        <v>0.0802377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0610575</v>
+        <v>0.0669254</v>
       </c>
       <c r="D73" t="n">
-        <v>0.499239</v>
+        <v>0.49415</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0836126</v>
+        <v>0.0801596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0638104</v>
+        <v>0.06664050000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51742</v>
+        <v>0.527451</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0871252</v>
+        <v>0.0861968</v>
       </c>
       <c r="C75" t="n">
-        <v>0.065377</v>
+        <v>0.07042959999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.528826</v>
+        <v>0.556725</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0930494</v>
+        <v>0.09539980000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0678671</v>
+        <v>0.0740915</v>
       </c>
       <c r="D76" t="n">
-        <v>0.555129</v>
+        <v>0.571697</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.106021</v>
+        <v>0.101416</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0765692</v>
+        <v>0.07933080000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.581611</v>
+        <v>0.581113</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12089</v>
+        <v>0.119707</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08437260000000001</v>
+        <v>0.08602509999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.448743</v>
+        <v>0.455666</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.139634</v>
+        <v>0.136981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09339160000000001</v>
+        <v>0.0992297</v>
       </c>
       <c r="D79" t="n">
-        <v>0.457067</v>
+        <v>0.47519</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175669</v>
+        <v>0.182172</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0614009</v>
+        <v>0.06658989999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475605</v>
+        <v>0.498179</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0840441</v>
+        <v>0.0835205</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0635628</v>
+        <v>0.0669251</v>
       </c>
       <c r="D81" t="n">
-        <v>0.499489</v>
+        <v>0.500992</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0866971</v>
+        <v>0.0850785</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0641646</v>
+        <v>0.0688491</v>
       </c>
       <c r="D82" t="n">
-        <v>0.517489</v>
+        <v>0.515396</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.084588</v>
+        <v>0.0864234</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06432019999999999</v>
+        <v>0.0707918</v>
       </c>
       <c r="D83" t="n">
-        <v>0.524535</v>
+        <v>0.524411</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08591749999999999</v>
+        <v>0.0868569</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0685678</v>
+        <v>0.07150529999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.549255</v>
+        <v>0.553916</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09408130000000001</v>
+        <v>0.09003029999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.067236</v>
+        <v>0.07315969999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.570901</v>
+        <v>0.573221</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0945285</v>
+        <v>0.095002</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06911779999999999</v>
+        <v>0.07484830000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.574749</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0995162</v>
+        <v>0.0995273</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0720758</v>
+        <v>0.07949639999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.599521</v>
+        <v>0.6049</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101271</v>
+        <v>0.104144</v>
       </c>
       <c r="C88" t="n">
-        <v>0.072584</v>
+        <v>0.0801269</v>
       </c>
       <c r="D88" t="n">
-        <v>0.604797</v>
+        <v>0.630076</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107237</v>
+        <v>0.105533</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0775988</v>
+        <v>0.0829719</v>
       </c>
       <c r="D89" t="n">
-        <v>0.645343</v>
+        <v>0.65873</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114453</v>
+        <v>0.114873</v>
       </c>
       <c r="C90" t="n">
-        <v>0.080125</v>
+        <v>0.0880017</v>
       </c>
       <c r="D90" t="n">
-        <v>0.673381</v>
+        <v>0.654946</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.124134</v>
+        <v>0.123716</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0870846</v>
+        <v>0.0944604</v>
       </c>
       <c r="D91" t="n">
-        <v>0.666987</v>
+        <v>0.6855560000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.134198</v>
+        <v>0.135637</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0949103</v>
+        <v>0.10246</v>
       </c>
       <c r="D92" t="n">
-        <v>0.522744</v>
+        <v>0.52695</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.156271</v>
+        <v>0.161862</v>
       </c>
       <c r="C93" t="n">
-        <v>0.105747</v>
+        <v>0.111858</v>
       </c>
       <c r="D93" t="n">
-        <v>0.539054</v>
+        <v>0.538413</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190643</v>
+        <v>0.203993</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0805612</v>
+        <v>0.0883183</v>
       </c>
       <c r="D94" t="n">
-        <v>0.552067</v>
+        <v>0.55145</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107217</v>
+        <v>0.1111</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0823494</v>
+        <v>0.0907496</v>
       </c>
       <c r="D95" t="n">
-        <v>0.568971</v>
+        <v>0.573369</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112309</v>
+        <v>0.111018</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0840523</v>
+        <v>0.09347320000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5829839999999999</v>
+        <v>0.574739</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113747</v>
+        <v>0.112479</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08479440000000001</v>
+        <v>0.0971858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.61073</v>
+        <v>0.596011</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117036</v>
+        <v>0.11646</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0865452</v>
+        <v>0.09442970000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.608386</v>
+        <v>0.614884</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118755</v>
+        <v>0.122388</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08915140000000001</v>
+        <v>0.0998122</v>
       </c>
       <c r="D99" t="n">
-        <v>0.621494</v>
+        <v>0.619347</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119464</v>
+        <v>0.121197</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0943016</v>
+        <v>0.102155</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655173</v>
+        <v>0.663471</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.127425</v>
+        <v>0.130511</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09439889999999999</v>
+        <v>0.10397</v>
       </c>
       <c r="D101" t="n">
-        <v>0.665697</v>
+        <v>0.681017</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132394</v>
+        <v>0.134775</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0958711</v>
+        <v>0.106158</v>
       </c>
       <c r="D102" t="n">
-        <v>0.689376</v>
+        <v>0.693392</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.133103</v>
+        <v>0.137045</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100076</v>
+        <v>0.113963</v>
       </c>
       <c r="D103" t="n">
-        <v>0.729304</v>
+        <v>0.7245740000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.14527</v>
+        <v>0.142921</v>
       </c>
       <c r="C104" t="n">
-        <v>0.102795</v>
+        <v>0.113417</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7367089999999999</v>
+        <v>0.747565</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15102</v>
+        <v>0.153799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.107879</v>
+        <v>0.118906</v>
       </c>
       <c r="D105" t="n">
-        <v>0.753349</v>
+        <v>0.74878</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167793</v>
+        <v>0.166914</v>
       </c>
       <c r="C106" t="n">
-        <v>0.119052</v>
+        <v>0.13062</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7896879999999999</v>
+        <v>0.818561</v>
       </c>
     </row>
     <row r="107">
@@ -4719,10 +4719,10 @@
         <v>0.188589</v>
       </c>
       <c r="C107" t="n">
-        <v>0.127904</v>
+        <v>0.144701</v>
       </c>
       <c r="D107" t="n">
-        <v>0.593969</v>
+        <v>0.5999949999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217573</v>
+        <v>0.219747</v>
       </c>
       <c r="C108" t="n">
-        <v>0.161172</v>
+        <v>0.183902</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601537</v>
+        <v>0.626269</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.285578</v>
+        <v>0.279793</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168735</v>
+        <v>0.181772</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618649</v>
+        <v>0.631576</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209172</v>
+        <v>0.201555</v>
       </c>
       <c r="C110" t="n">
-        <v>0.168759</v>
+        <v>0.182688</v>
       </c>
       <c r="D110" t="n">
-        <v>0.649405</v>
+        <v>0.624915</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.199877</v>
+        <v>0.206058</v>
       </c>
       <c r="C111" t="n">
-        <v>0.169966</v>
+        <v>0.172856</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710017</v>
+        <v>0.656765</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.20428</v>
+        <v>0.20587</v>
       </c>
       <c r="C112" t="n">
-        <v>0.168949</v>
+        <v>0.176469</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665863</v>
+        <v>0.66512</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.206251</v>
+        <v>0.207011</v>
       </c>
       <c r="C113" t="n">
-        <v>0.167821</v>
+        <v>0.195607</v>
       </c>
       <c r="D113" t="n">
-        <v>0.691168</v>
+        <v>0.6912970000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.206116</v>
+        <v>0.20729</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17494</v>
+        <v>0.182713</v>
       </c>
       <c r="D114" t="n">
-        <v>0.717814</v>
+        <v>0.704314</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212881</v>
+        <v>0.214153</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171405</v>
+        <v>0.182694</v>
       </c>
       <c r="D115" t="n">
-        <v>0.715514</v>
+        <v>0.7247670000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213129</v>
+        <v>0.21003</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173563</v>
+        <v>0.186013</v>
       </c>
       <c r="D116" t="n">
-        <v>0.757259</v>
+        <v>0.75581</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.235772</v>
+        <v>0.227402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181515</v>
+        <v>0.191474</v>
       </c>
       <c r="D117" t="n">
-        <v>0.779262</v>
+        <v>0.76297</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.235999</v>
+        <v>0.232491</v>
       </c>
       <c r="C118" t="n">
-        <v>0.18393</v>
+        <v>0.193815</v>
       </c>
       <c r="D118" t="n">
-        <v>0.797832</v>
+        <v>0.787371</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241688</v>
+        <v>0.23613</v>
       </c>
       <c r="C119" t="n">
-        <v>0.183251</v>
+        <v>0.196196</v>
       </c>
       <c r="D119" t="n">
-        <v>0.808704</v>
+        <v>0.819959</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26684</v>
+        <v>0.25828</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195052</v>
+        <v>0.209419</v>
       </c>
       <c r="D120" t="n">
-        <v>0.866004</v>
+        <v>0.862368</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283058</v>
+        <v>0.275561</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21197</v>
+        <v>0.218774</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669767</v>
+        <v>0.717273</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.316048</v>
+        <v>0.311068</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233156</v>
+        <v>0.238615</v>
       </c>
       <c r="D122" t="n">
-        <v>0.669865</v>
+        <v>0.668853</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.383098</v>
+        <v>0.382179</v>
       </c>
       <c r="C123" t="n">
-        <v>0.265159</v>
+        <v>0.278704</v>
       </c>
       <c r="D123" t="n">
-        <v>0.698012</v>
+        <v>0.685424</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313304</v>
+        <v>0.307488</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26425</v>
+        <v>0.28131</v>
       </c>
       <c r="D124" t="n">
-        <v>0.706497</v>
+        <v>0.723589</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315928</v>
+        <v>0.315511</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258907</v>
+        <v>0.294287</v>
       </c>
       <c r="D125" t="n">
-        <v>0.762825</v>
+        <v>0.756463</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322144</v>
+        <v>0.320483</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26191</v>
+        <v>0.282736</v>
       </c>
       <c r="D126" t="n">
-        <v>0.764553</v>
+        <v>0.765052</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319982</v>
+        <v>0.327155</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2662</v>
+        <v>0.291051</v>
       </c>
       <c r="D127" t="n">
-        <v>0.783829</v>
+        <v>0.785212</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324206</v>
+        <v>0.322287</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260432</v>
+        <v>0.294444</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819828</v>
+        <v>0.799145</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.334713</v>
+        <v>0.331543</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264887</v>
+        <v>0.286866</v>
       </c>
       <c r="D129" t="n">
-        <v>0.831287</v>
+        <v>0.861075</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.340631</v>
+        <v>0.342549</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269442</v>
+        <v>0.294432</v>
       </c>
       <c r="D130" t="n">
-        <v>0.868577</v>
+        <v>0.892019</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.344817</v>
+        <v>0.347783</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275701</v>
+        <v>0.30599</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9047770000000001</v>
+        <v>0.907878</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36048</v>
+        <v>0.354128</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273942</v>
+        <v>0.304977</v>
       </c>
       <c r="D132" t="n">
-        <v>0.949119</v>
+        <v>0.95111</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37299</v>
+        <v>0.370576</v>
       </c>
       <c r="C133" t="n">
-        <v>0.282553</v>
+        <v>0.309117</v>
       </c>
       <c r="D133" t="n">
-        <v>0.98233</v>
+        <v>0.997552</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382619</v>
+        <v>0.386605</v>
       </c>
       <c r="C134" t="n">
-        <v>0.298739</v>
+        <v>0.322142</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02682</v>
+        <v>1.03292</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.406745</v>
+        <v>0.416122</v>
       </c>
       <c r="C135" t="n">
-        <v>0.310389</v>
+        <v>0.333482</v>
       </c>
       <c r="D135" t="n">
-        <v>0.848343</v>
+        <v>0.856738</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.449618</v>
+        <v>0.451021</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326076</v>
+        <v>0.341421</v>
       </c>
       <c r="D136" t="n">
-        <v>0.898604</v>
+        <v>0.889556</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.534118</v>
+        <v>0.53781</v>
       </c>
       <c r="C137" t="n">
-        <v>0.306983</v>
+        <v>0.337504</v>
       </c>
       <c r="D137" t="n">
-        <v>0.910988</v>
+        <v>0.914284</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379436</v>
+        <v>0.381542</v>
       </c>
       <c r="C138" t="n">
-        <v>0.316494</v>
+        <v>0.330638</v>
       </c>
       <c r="D138" t="n">
-        <v>0.927503</v>
+        <v>0.957863</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.38785</v>
+        <v>0.381637</v>
       </c>
       <c r="C139" t="n">
-        <v>0.309729</v>
+        <v>0.340952</v>
       </c>
       <c r="D139" t="n">
-        <v>0.978195</v>
+        <v>0.990326</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.387795</v>
+        <v>0.386543</v>
       </c>
       <c r="C140" t="n">
-        <v>0.318614</v>
+        <v>0.344169</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00371</v>
+        <v>0.999882</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.399841</v>
+        <v>0.387063</v>
       </c>
       <c r="C141" t="n">
-        <v>0.318424</v>
+        <v>0.339318</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03849</v>
+        <v>1.04881</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397353</v>
+        <v>0.39706</v>
       </c>
       <c r="C142" t="n">
-        <v>0.324973</v>
+        <v>0.351967</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1522</v>
+        <v>1.07939</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.39918</v>
+        <v>0.407</v>
       </c>
       <c r="C143" t="n">
-        <v>0.33343</v>
+        <v>0.356926</v>
       </c>
       <c r="D143" t="n">
-        <v>1.11965</v>
+        <v>1.13083</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410337</v>
+        <v>0.0416968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0389645</v>
+        <v>0.0379696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119117</v>
+        <v>0.114966</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0431964</v>
+        <v>0.0446754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0414623</v>
+        <v>0.0407964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125139</v>
+        <v>0.11583</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0461262</v>
+        <v>0.0467889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0424248</v>
+        <v>0.0422794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125778</v>
+        <v>0.122141</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0483762</v>
+        <v>0.0494345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0458107</v>
+        <v>0.0453582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356</v>
+        <v>0.129895</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550607</v>
+        <v>0.0560289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0491722</v>
+        <v>0.0503598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139022</v>
+        <v>0.134164</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0667539</v>
+        <v>0.0688955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.057436</v>
+        <v>0.0568826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100879</v>
+        <v>0.09829930000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0879566</v>
+        <v>0.087549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0676423</v>
+        <v>0.0678512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.106793</v>
+        <v>0.101005</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116092</v>
+        <v>0.120074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0374792</v>
+        <v>0.0364943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110665</v>
+        <v>0.103642</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0407283</v>
+        <v>0.0393547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0362619</v>
+        <v>0.0361676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116157</v>
+        <v>0.110514</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040119</v>
+        <v>0.0393935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0377921</v>
+        <v>0.0363791</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119328</v>
+        <v>0.11693</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0410415</v>
+        <v>0.0405022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0376308</v>
+        <v>0.0370239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125229</v>
+        <v>0.120363</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0426569</v>
+        <v>0.0410269</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378225</v>
+        <v>0.0378855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129146</v>
+        <v>0.123999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0426917</v>
+        <v>0.0427367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0383411</v>
+        <v>0.0377463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141055</v>
+        <v>0.127704</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0431945</v>
+        <v>0.0430239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0381652</v>
+        <v>0.0372966</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14219</v>
+        <v>0.133153</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447275</v>
+        <v>0.0466173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0395611</v>
+        <v>0.0385008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.141216</v>
+        <v>0.135817</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0465236</v>
+        <v>0.0494017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399925</v>
+        <v>0.0405051</v>
       </c>
       <c r="D17" t="n">
-        <v>0.147347</v>
+        <v>0.136289</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0515926</v>
+        <v>0.053541</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042543</v>
+        <v>0.0426565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149507</v>
+        <v>0.140228</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0556158</v>
+        <v>0.0592931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0444411</v>
+        <v>0.0454789</v>
       </c>
       <c r="D19" t="n">
-        <v>0.154203</v>
+        <v>0.149579</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624655</v>
+        <v>0.0666674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0495577</v>
+        <v>0.0469694</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157362</v>
+        <v>0.147784</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0755683</v>
+        <v>0.07672519999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0561735</v>
+        <v>0.0544737</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113091</v>
+        <v>0.107067</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.09618019999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0649193</v>
+        <v>0.0662951</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116104</v>
+        <v>0.112575</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121875</v>
+        <v>0.129521</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0378651</v>
+        <v>0.0365394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.122376</v>
+        <v>0.119517</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0435704</v>
+        <v>0.0432605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0374915</v>
+        <v>0.0366713</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125534</v>
+        <v>0.120571</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0440569</v>
+        <v>0.0441099</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0391972</v>
+        <v>0.037289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138186</v>
+        <v>0.127022</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0458441</v>
+        <v>0.0451869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0389021</v>
+        <v>0.0371152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133012</v>
+        <v>0.134697</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0432415</v>
+        <v>0.043741</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0379744</v>
+        <v>0.0379809</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141002</v>
+        <v>0.132406</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0459</v>
+        <v>0.0448737</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0392614</v>
+        <v>0.0386476</v>
       </c>
       <c r="D28" t="n">
-        <v>0.149976</v>
+        <v>0.139368</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464434</v>
+        <v>0.0479097</v>
       </c>
       <c r="C29" t="n">
-        <v>0.039989</v>
+        <v>0.0395923</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15096</v>
+        <v>0.143868</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0495299</v>
+        <v>0.0479768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0408907</v>
+        <v>0.0396834</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156019</v>
+        <v>0.151493</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0513809</v>
+        <v>0.0498807</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0411726</v>
+        <v>0.0421855</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161712</v>
+        <v>0.152998</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0553575</v>
+        <v>0.056461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.044214</v>
+        <v>0.0429328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166099</v>
+        <v>0.155381</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.057701</v>
+        <v>0.0584134</v>
       </c>
       <c r="C33" t="n">
-        <v>0.047653</v>
+        <v>0.0456345</v>
       </c>
       <c r="D33" t="n">
-        <v>0.182954</v>
+        <v>0.166203</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0675362</v>
+        <v>0.06594469999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0494811</v>
+        <v>0.0487106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188035</v>
+        <v>0.174337</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0757814</v>
+        <v>0.0785949</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0541891</v>
+        <v>0.0541988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135135</v>
+        <v>0.128678</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0927172</v>
+        <v>0.0915209</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0634772</v>
+        <v>0.0616212</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139668</v>
+        <v>0.140099</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120151</v>
+        <v>0.121447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0414525</v>
+        <v>0.0409125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146124</v>
+        <v>0.144824</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0464481</v>
+        <v>0.0490104</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0418681</v>
+        <v>0.0410605</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153957</v>
+        <v>0.153039</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0498148</v>
+        <v>0.0476053</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0404026</v>
+        <v>0.0418253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.160125</v>
+        <v>0.160113</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.049685</v>
+        <v>0.0483124</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0417095</v>
+        <v>0.0403855</v>
       </c>
       <c r="D40" t="n">
-        <v>0.167333</v>
+        <v>0.167164</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0501305</v>
+        <v>0.048867</v>
       </c>
       <c r="C41" t="n">
-        <v>0.042348</v>
+        <v>0.0423103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183639</v>
+        <v>0.175519</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0493373</v>
+        <v>0.051194</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0439087</v>
+        <v>0.0430807</v>
       </c>
       <c r="D42" t="n">
-        <v>0.189447</v>
+        <v>0.185819</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0508732</v>
+        <v>0.0505457</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0435873</v>
+        <v>0.0429488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.196766</v>
+        <v>0.204275</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0534567</v>
+        <v>0.051969</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0443387</v>
+        <v>0.0427544</v>
       </c>
       <c r="D44" t="n">
-        <v>0.218517</v>
+        <v>0.203619</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563944</v>
+        <v>0.0539675</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455712</v>
+        <v>0.0447266</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228641</v>
+        <v>0.224162</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0588978</v>
+        <v>0.0584213</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0465432</v>
+        <v>0.0467771</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239942</v>
+        <v>0.226767</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.064757</v>
+        <v>0.0629444</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0473674</v>
+        <v>0.047727</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248043</v>
+        <v>0.246885</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06822549999999999</v>
+        <v>0.06880749999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519373</v>
+        <v>0.0510893</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25849</v>
+        <v>0.257425</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0798837</v>
+        <v>0.07948089999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0556306</v>
+        <v>0.0540146</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291095</v>
+        <v>0.277604</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.093012</v>
+        <v>0.0969893</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0637842</v>
+        <v>0.0628276</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218902</v>
+        <v>0.21587</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118071</v>
+        <v>0.117525</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0468729</v>
+        <v>0.0470196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234534</v>
+        <v>0.239413</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15773</v>
+        <v>0.1555</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0481505</v>
+        <v>0.0468453</v>
       </c>
       <c r="D52" t="n">
-        <v>0.246133</v>
+        <v>0.242555</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.058511</v>
+        <v>0.0571238</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0470937</v>
+        <v>0.0477262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.263572</v>
+        <v>0.268378</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0593968</v>
+        <v>0.058912</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0484107</v>
+        <v>0.0472415</v>
       </c>
       <c r="D54" t="n">
-        <v>0.279424</v>
+        <v>0.273994</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.059934</v>
+        <v>0.0622269</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497284</v>
+        <v>0.0490396</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298707</v>
+        <v>0.291323</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0622355</v>
+        <v>0.0629281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0490141</v>
+        <v>0.0491714</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31974</v>
+        <v>0.30184</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.063011</v>
+        <v>0.0614799</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0493651</v>
+        <v>0.0500566</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331937</v>
+        <v>0.323953</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0629902</v>
+        <v>0.06628290000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0511202</v>
+        <v>0.0515259</v>
       </c>
       <c r="D58" t="n">
-        <v>0.350019</v>
+        <v>0.349842</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06477960000000001</v>
+        <v>0.06438820000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0521365</v>
+        <v>0.0516815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.36505</v>
+        <v>0.366875</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06765740000000001</v>
+        <v>0.06863089999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0523425</v>
+        <v>0.0542063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.377574</v>
+        <v>0.390054</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07459979999999999</v>
+        <v>0.0723437</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0564703</v>
+        <v>0.0577062</v>
       </c>
       <c r="D61" t="n">
-        <v>0.40272</v>
+        <v>0.410051</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07833130000000001</v>
+        <v>0.07740809999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0591487</v>
+        <v>0.0581303</v>
       </c>
       <c r="D62" t="n">
-        <v>0.416596</v>
+        <v>0.428839</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0895914</v>
+        <v>0.0871372</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0630883</v>
+        <v>0.0639063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.456361</v>
+        <v>0.453242</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0994009</v>
+        <v>0.101029</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0734209</v>
+        <v>0.0689278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.352233</v>
+        <v>0.363045</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12526</v>
+        <v>0.123457</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08276360000000001</v>
+        <v>0.08428430000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.359889</v>
+        <v>0.389918</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167314</v>
+        <v>0.158624</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0544856</v>
+        <v>0.0528575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381993</v>
+        <v>0.399543</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0673419</v>
+        <v>0.0665689</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0537385</v>
+        <v>0.0534391</v>
       </c>
       <c r="D67" t="n">
-        <v>0.399116</v>
+        <v>0.395098</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0664468</v>
+        <v>0.067008</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0545709</v>
+        <v>0.0535731</v>
       </c>
       <c r="D68" t="n">
-        <v>0.405676</v>
+        <v>0.418488</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0689023</v>
+        <v>0.0685033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0549625</v>
+        <v>0.0549672</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417549</v>
+        <v>0.439393</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0705819</v>
+        <v>0.0708804</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0552912</v>
+        <v>0.0562307</v>
       </c>
       <c r="D70" t="n">
-        <v>0.458795</v>
+        <v>0.465679</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.072324</v>
+        <v>0.0731755</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0563308</v>
+        <v>0.0562592</v>
       </c>
       <c r="D71" t="n">
-        <v>0.467156</v>
+        <v>0.462163</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07291</v>
+        <v>0.0729638</v>
       </c>
       <c r="C72" t="n">
-        <v>0.060725</v>
+        <v>0.0574891</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468214</v>
+        <v>0.483609</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0781855</v>
+        <v>0.0783102</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0610575</v>
+        <v>0.0588806</v>
       </c>
       <c r="D73" t="n">
-        <v>0.499239</v>
+        <v>0.498134</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0836126</v>
+        <v>0.0806798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0638104</v>
+        <v>0.0615535</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51742</v>
+        <v>0.5329970000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0871252</v>
+        <v>0.0871905</v>
       </c>
       <c r="C75" t="n">
-        <v>0.065377</v>
+        <v>0.0644791</v>
       </c>
       <c r="D75" t="n">
-        <v>0.528826</v>
+        <v>0.549415</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0930494</v>
+        <v>0.0982425</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0678671</v>
+        <v>0.06730129999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.555129</v>
+        <v>0.553077</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.106021</v>
+        <v>0.110862</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0765692</v>
+        <v>0.0740731</v>
       </c>
       <c r="D77" t="n">
-        <v>0.581611</v>
+        <v>0.595369</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12089</v>
+        <v>0.125734</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08437260000000001</v>
+        <v>0.0813662</v>
       </c>
       <c r="D78" t="n">
-        <v>0.448743</v>
+        <v>0.457559</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.139634</v>
+        <v>0.14728</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09339160000000001</v>
+        <v>0.0956878</v>
       </c>
       <c r="D79" t="n">
-        <v>0.457067</v>
+        <v>0.459589</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175669</v>
+        <v>0.180616</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0614009</v>
+        <v>0.0618116</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475605</v>
+        <v>0.479614</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0840441</v>
+        <v>0.0828468</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0635628</v>
+        <v>0.06321789999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.499489</v>
+        <v>0.485423</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0866971</v>
+        <v>0.08585710000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0641646</v>
+        <v>0.0655888</v>
       </c>
       <c r="D82" t="n">
-        <v>0.517489</v>
+        <v>0.517927</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.084588</v>
+        <v>0.088153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06432019999999999</v>
+        <v>0.06578680000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.524535</v>
+        <v>0.528074</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08591749999999999</v>
+        <v>0.0965398</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0685678</v>
+        <v>0.06972680000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.549255</v>
+        <v>0.549074</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09408130000000001</v>
+        <v>0.0962315</v>
       </c>
       <c r="C85" t="n">
-        <v>0.067236</v>
+        <v>0.0705088</v>
       </c>
       <c r="D85" t="n">
-        <v>0.570901</v>
+        <v>0.559649</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0945285</v>
+        <v>0.102872</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06911779999999999</v>
+        <v>0.0777124</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.597657</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0995162</v>
+        <v>0.106127</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0720758</v>
+        <v>0.0767593</v>
       </c>
       <c r="D87" t="n">
-        <v>0.599521</v>
+        <v>0.601749</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101271</v>
+        <v>0.103304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.072584</v>
+        <v>0.08071209999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.604797</v>
+        <v>0.611726</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107237</v>
+        <v>0.10693</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0775988</v>
+        <v>0.08133749999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.645343</v>
+        <v>0.6523409999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114453</v>
+        <v>0.113343</v>
       </c>
       <c r="C90" t="n">
-        <v>0.080125</v>
+        <v>0.0827085</v>
       </c>
       <c r="D90" t="n">
-        <v>0.673381</v>
+        <v>0.652396</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.124134</v>
+        <v>0.124558</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0870846</v>
+        <v>0.085859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.666987</v>
+        <v>0.685457</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.134198</v>
+        <v>0.140302</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0949103</v>
+        <v>0.0950681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.522744</v>
+        <v>0.515655</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.156271</v>
+        <v>0.160083</v>
       </c>
       <c r="C93" t="n">
-        <v>0.105747</v>
+        <v>0.108397</v>
       </c>
       <c r="D93" t="n">
-        <v>0.539054</v>
+        <v>0.539949</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190643</v>
+        <v>0.192062</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0805612</v>
+        <v>0.0815099</v>
       </c>
       <c r="D94" t="n">
-        <v>0.552067</v>
+        <v>0.555679</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107217</v>
+        <v>0.107101</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0823494</v>
+        <v>0.0869196</v>
       </c>
       <c r="D95" t="n">
-        <v>0.568971</v>
+        <v>0.572511</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112309</v>
+        <v>0.114852</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0840523</v>
+        <v>0.0915178</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5829839999999999</v>
+        <v>0.574179</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113747</v>
+        <v>0.120114</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08479440000000001</v>
+        <v>0.090891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.61073</v>
+        <v>0.594328</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117036</v>
+        <v>0.124812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0865452</v>
+        <v>0.0934981</v>
       </c>
       <c r="D98" t="n">
-        <v>0.608386</v>
+        <v>0.629669</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118755</v>
+        <v>0.125239</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08915140000000001</v>
+        <v>0.0946866</v>
       </c>
       <c r="D99" t="n">
-        <v>0.621494</v>
+        <v>0.6296929999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119464</v>
+        <v>0.130662</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0943016</v>
+        <v>0.0957793</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655173</v>
+        <v>0.638401</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.127425</v>
+        <v>0.131619</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09439889999999999</v>
+        <v>0.09705129999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.665697</v>
+        <v>0.66289</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132394</v>
+        <v>0.135284</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0958711</v>
+        <v>0.103543</v>
       </c>
       <c r="D102" t="n">
-        <v>0.689376</v>
+        <v>0.702013</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.133103</v>
+        <v>0.142622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100076</v>
+        <v>0.10594</v>
       </c>
       <c r="D103" t="n">
-        <v>0.729304</v>
+        <v>0.71367</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.14527</v>
+        <v>0.147766</v>
       </c>
       <c r="C104" t="n">
-        <v>0.102795</v>
+        <v>0.11221</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7367089999999999</v>
+        <v>0.72681</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15102</v>
+        <v>0.159581</v>
       </c>
       <c r="C105" t="n">
-        <v>0.107879</v>
+        <v>0.118838</v>
       </c>
       <c r="D105" t="n">
-        <v>0.753349</v>
+        <v>0.74481</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167793</v>
+        <v>0.174845</v>
       </c>
       <c r="C106" t="n">
-        <v>0.119052</v>
+        <v>0.121723</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7896879999999999</v>
+        <v>0.783946</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188589</v>
+        <v>0.19278</v>
       </c>
       <c r="C107" t="n">
-        <v>0.127904</v>
+        <v>0.131325</v>
       </c>
       <c r="D107" t="n">
-        <v>0.593969</v>
+        <v>0.624075</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217573</v>
+        <v>0.223412</v>
       </c>
       <c r="C108" t="n">
-        <v>0.161172</v>
+        <v>0.173431</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601537</v>
+        <v>0.637622</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.285578</v>
+        <v>0.283373</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168735</v>
+        <v>0.16444</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618649</v>
+        <v>0.65598</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209172</v>
+        <v>0.20593</v>
       </c>
       <c r="C110" t="n">
-        <v>0.168759</v>
+        <v>0.166384</v>
       </c>
       <c r="D110" t="n">
-        <v>0.649405</v>
+        <v>0.652048</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.199877</v>
+        <v>0.206581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.169966</v>
+        <v>0.170169</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710017</v>
+        <v>0.662443</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.20428</v>
+        <v>0.216835</v>
       </c>
       <c r="C112" t="n">
-        <v>0.168949</v>
+        <v>0.173964</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665863</v>
+        <v>0.722023</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.206251</v>
+        <v>0.214614</v>
       </c>
       <c r="C113" t="n">
-        <v>0.167821</v>
+        <v>0.182348</v>
       </c>
       <c r="D113" t="n">
-        <v>0.691168</v>
+        <v>0.748609</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.206116</v>
+        <v>0.221941</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17494</v>
+        <v>0.168539</v>
       </c>
       <c r="D114" t="n">
-        <v>0.717814</v>
+        <v>0.733089</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212881</v>
+        <v>0.210388</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171405</v>
+        <v>0.179198</v>
       </c>
       <c r="D115" t="n">
-        <v>0.715514</v>
+        <v>0.730305</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213129</v>
+        <v>0.232046</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173563</v>
+        <v>0.188927</v>
       </c>
       <c r="D116" t="n">
-        <v>0.757259</v>
+        <v>0.798264</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.235772</v>
+        <v>0.233066</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181515</v>
+        <v>0.181805</v>
       </c>
       <c r="D117" t="n">
-        <v>0.779262</v>
+        <v>0.855187</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.235999</v>
+        <v>0.245922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.18393</v>
+        <v>0.192866</v>
       </c>
       <c r="D118" t="n">
-        <v>0.797832</v>
+        <v>0.801207</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241688</v>
+        <v>0.242241</v>
       </c>
       <c r="C119" t="n">
-        <v>0.183251</v>
+        <v>0.196939</v>
       </c>
       <c r="D119" t="n">
-        <v>0.808704</v>
+        <v>0.858244</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26684</v>
+        <v>0.27234</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195052</v>
+        <v>0.20417</v>
       </c>
       <c r="D120" t="n">
-        <v>0.866004</v>
+        <v>0.848511</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283058</v>
+        <v>0.276529</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21197</v>
+        <v>0.214007</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669767</v>
+        <v>0.698565</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.316048</v>
+        <v>0.334824</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233156</v>
+        <v>0.240559</v>
       </c>
       <c r="D122" t="n">
-        <v>0.669865</v>
+        <v>0.663736</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.383098</v>
+        <v>0.371793</v>
       </c>
       <c r="C123" t="n">
-        <v>0.265159</v>
+        <v>0.252412</v>
       </c>
       <c r="D123" t="n">
-        <v>0.698012</v>
+        <v>0.69339</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313304</v>
+        <v>0.30559</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26425</v>
+        <v>0.255287</v>
       </c>
       <c r="D124" t="n">
-        <v>0.706497</v>
+        <v>0.698425</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315928</v>
+        <v>0.310569</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258907</v>
+        <v>0.26568</v>
       </c>
       <c r="D125" t="n">
-        <v>0.762825</v>
+        <v>0.760586</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322144</v>
+        <v>0.325157</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26191</v>
+        <v>0.270655</v>
       </c>
       <c r="D126" t="n">
-        <v>0.764553</v>
+        <v>0.793099</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319982</v>
+        <v>0.326857</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2662</v>
+        <v>0.264454</v>
       </c>
       <c r="D127" t="n">
-        <v>0.783829</v>
+        <v>0.793022</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324206</v>
+        <v>0.330892</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260432</v>
+        <v>0.271135</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819828</v>
+        <v>0.820166</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.334713</v>
+        <v>0.338537</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264887</v>
+        <v>0.270628</v>
       </c>
       <c r="D129" t="n">
-        <v>0.831287</v>
+        <v>0.8460800000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.340631</v>
+        <v>0.35188</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269442</v>
+        <v>0.270255</v>
       </c>
       <c r="D130" t="n">
-        <v>0.868577</v>
+        <v>0.8667</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.344817</v>
+        <v>0.339369</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275701</v>
+        <v>0.276452</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9047770000000001</v>
+        <v>0.894842</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36048</v>
+        <v>0.356054</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273942</v>
+        <v>0.285727</v>
       </c>
       <c r="D132" t="n">
-        <v>0.949119</v>
+        <v>0.942395</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37299</v>
+        <v>0.369314</v>
       </c>
       <c r="C133" t="n">
-        <v>0.282553</v>
+        <v>0.284819</v>
       </c>
       <c r="D133" t="n">
-        <v>0.98233</v>
+        <v>0.985112</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382619</v>
+        <v>0.386818</v>
       </c>
       <c r="C134" t="n">
-        <v>0.298739</v>
+        <v>0.297696</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02682</v>
+        <v>1.02162</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.406745</v>
+        <v>0.416094</v>
       </c>
       <c r="C135" t="n">
-        <v>0.310389</v>
+        <v>0.318779</v>
       </c>
       <c r="D135" t="n">
-        <v>0.848343</v>
+        <v>0.841963</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.449618</v>
+        <v>0.46274</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326076</v>
+        <v>0.32855</v>
       </c>
       <c r="D136" t="n">
-        <v>0.898604</v>
+        <v>0.861086</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.534118</v>
+        <v>0.529657</v>
       </c>
       <c r="C137" t="n">
-        <v>0.306983</v>
+        <v>0.314805</v>
       </c>
       <c r="D137" t="n">
-        <v>0.910988</v>
+        <v>0.929038</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379436</v>
+        <v>0.38077</v>
       </c>
       <c r="C138" t="n">
-        <v>0.316494</v>
+        <v>0.302552</v>
       </c>
       <c r="D138" t="n">
-        <v>0.927503</v>
+        <v>0.9287260000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.38785</v>
+        <v>0.384101</v>
       </c>
       <c r="C139" t="n">
-        <v>0.309729</v>
+        <v>0.311805</v>
       </c>
       <c r="D139" t="n">
-        <v>0.978195</v>
+        <v>0.97772</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.387795</v>
+        <v>0.394234</v>
       </c>
       <c r="C140" t="n">
-        <v>0.318614</v>
+        <v>0.314925</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00371</v>
+        <v>0.996017</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.399841</v>
+        <v>0.401342</v>
       </c>
       <c r="C141" t="n">
-        <v>0.318424</v>
+        <v>0.317642</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03849</v>
+        <v>1.02533</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397353</v>
+        <v>0.39917</v>
       </c>
       <c r="C142" t="n">
-        <v>0.324973</v>
+        <v>0.325116</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1522</v>
+        <v>1.07863</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.39918</v>
+        <v>0.394118</v>
       </c>
       <c r="C143" t="n">
-        <v>0.33343</v>
+        <v>0.327129</v>
       </c>
       <c r="D143" t="n">
-        <v>1.11965</v>
+        <v>1.10858</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410337</v>
+        <v>0.0424531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0389645</v>
+        <v>0.0322501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119117</v>
+        <v>0.115024</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0431964</v>
+        <v>0.0434118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0414623</v>
+        <v>0.0336861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125139</v>
+        <v>0.122107</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0461262</v>
+        <v>0.0464417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0424248</v>
+        <v>0.034392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125778</v>
+        <v>0.125213</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0483762</v>
+        <v>0.0512698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0458107</v>
+        <v>0.0373832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356</v>
+        <v>0.127411</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550607</v>
+        <v>0.059575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0491722</v>
+        <v>0.0403991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.139022</v>
+        <v>0.133757</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0667539</v>
+        <v>0.0729725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.057436</v>
+        <v>0.0476133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100879</v>
+        <v>0.09841610000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0879566</v>
+        <v>0.0932805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0676423</v>
+        <v>0.0583869</v>
       </c>
       <c r="D8" t="n">
-        <v>0.106793</v>
+        <v>0.102837</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116092</v>
+        <v>0.124972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0374792</v>
+        <v>0.0305415</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110665</v>
+        <v>0.106376</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0407283</v>
+        <v>0.0392586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0362619</v>
+        <v>0.0317585</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116157</v>
+        <v>0.115458</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040119</v>
+        <v>0.0398061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0377921</v>
+        <v>0.0324754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119328</v>
+        <v>0.113909</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0410415</v>
+        <v>0.03974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0376308</v>
+        <v>0.0316983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125229</v>
+        <v>0.123918</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0426569</v>
+        <v>0.0414484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378225</v>
+        <v>0.0331793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129146</v>
+        <v>0.121436</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0426917</v>
+        <v>0.0426271</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0383411</v>
+        <v>0.032206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141055</v>
+        <v>0.132436</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0431945</v>
+        <v>0.0431099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0381652</v>
+        <v>0.032553</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14219</v>
+        <v>0.128955</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0447275</v>
+        <v>0.0451686</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0395611</v>
+        <v>0.0360931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.141216</v>
+        <v>0.132906</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0465236</v>
+        <v>0.0467536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399925</v>
+        <v>0.0345405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.147347</v>
+        <v>0.137257</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0515926</v>
+        <v>0.0496863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042543</v>
+        <v>0.0363083</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149507</v>
+        <v>0.140219</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0556158</v>
+        <v>0.055266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0444411</v>
+        <v>0.0387174</v>
       </c>
       <c r="D19" t="n">
-        <v>0.154203</v>
+        <v>0.146957</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624655</v>
+        <v>0.0632287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0495577</v>
+        <v>0.0437599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157362</v>
+        <v>0.155562</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0755683</v>
+        <v>0.0746709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0561735</v>
+        <v>0.0503888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.113091</v>
+        <v>0.109685</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09076190000000001</v>
+        <v>0.0933674</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0649193</v>
+        <v>0.0583792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116104</v>
+        <v>0.114409</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121875</v>
+        <v>0.119654</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0378651</v>
+        <v>0.0323391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.122376</v>
+        <v>0.120034</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0435704</v>
+        <v>0.0430098</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0374915</v>
+        <v>0.0317005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125534</v>
+        <v>0.127824</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0440569</v>
+        <v>0.0437737</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0391972</v>
+        <v>0.0331229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138186</v>
+        <v>0.135916</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0458441</v>
+        <v>0.0447261</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0389021</v>
+        <v>0.0335611</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133012</v>
+        <v>0.133518</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0432415</v>
+        <v>0.0467348</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0379744</v>
+        <v>0.0328643</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141002</v>
+        <v>0.141418</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0459</v>
+        <v>0.0464638</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0392614</v>
+        <v>0.0331001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.149976</v>
+        <v>0.143884</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464434</v>
+        <v>0.047009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.039989</v>
+        <v>0.0336778</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15096</v>
+        <v>0.143805</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0495299</v>
+        <v>0.0480895</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0408907</v>
+        <v>0.035385</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156019</v>
+        <v>0.150819</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0513809</v>
+        <v>0.0505712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0411726</v>
+        <v>0.0353464</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161712</v>
+        <v>0.161656</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0553575</v>
+        <v>0.0539309</v>
       </c>
       <c r="C32" t="n">
-        <v>0.044214</v>
+        <v>0.0394645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166099</v>
+        <v>0.164767</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.057701</v>
+        <v>0.0584377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.047653</v>
+        <v>0.0386482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.182954</v>
+        <v>0.169969</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0675362</v>
+        <v>0.0636849</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0494811</v>
+        <v>0.0438041</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188035</v>
+        <v>0.168474</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0757814</v>
+        <v>0.0761695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0541891</v>
+        <v>0.0481912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135135</v>
+        <v>0.13131</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0927172</v>
+        <v>0.09147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0634772</v>
+        <v>0.0555144</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139668</v>
+        <v>0.134531</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120151</v>
+        <v>0.119745</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0414525</v>
+        <v>0.0355502</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146124</v>
+        <v>0.141983</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0464481</v>
+        <v>0.047401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0418681</v>
+        <v>0.0351733</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153957</v>
+        <v>0.148794</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0498148</v>
+        <v>0.0469046</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0404026</v>
+        <v>0.0364401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.160125</v>
+        <v>0.158127</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.049685</v>
+        <v>0.0486651</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0417095</v>
+        <v>0.0366429</v>
       </c>
       <c r="D40" t="n">
-        <v>0.167333</v>
+        <v>0.163555</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0501305</v>
+        <v>0.0481068</v>
       </c>
       <c r="C41" t="n">
-        <v>0.042348</v>
+        <v>0.0374408</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183639</v>
+        <v>0.174186</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0493373</v>
+        <v>0.0514816</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0439087</v>
+        <v>0.0375539</v>
       </c>
       <c r="D42" t="n">
-        <v>0.189447</v>
+        <v>0.183221</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0508732</v>
+        <v>0.0505269</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0435873</v>
+        <v>0.0370724</v>
       </c>
       <c r="D43" t="n">
-        <v>0.196766</v>
+        <v>0.199344</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0534567</v>
+        <v>0.0505956</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0443387</v>
+        <v>0.0381674</v>
       </c>
       <c r="D44" t="n">
-        <v>0.218517</v>
+        <v>0.208647</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563944</v>
+        <v>0.0536361</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455712</v>
+        <v>0.038243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228641</v>
+        <v>0.225419</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0588978</v>
+        <v>0.0574108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0465432</v>
+        <v>0.0412659</v>
       </c>
       <c r="D46" t="n">
-        <v>0.239942</v>
+        <v>0.240186</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.064757</v>
+        <v>0.0608771</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0473674</v>
+        <v>0.0434683</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248043</v>
+        <v>0.245228</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06822549999999999</v>
+        <v>0.0698993</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519373</v>
+        <v>0.0467038</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25849</v>
+        <v>0.268429</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0798837</v>
+        <v>0.0766515</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0556306</v>
+        <v>0.0492483</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291095</v>
+        <v>0.279537</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.093012</v>
+        <v>0.09263</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0637842</v>
+        <v>0.058458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218902</v>
+        <v>0.214698</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118071</v>
+        <v>0.11875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0468729</v>
+        <v>0.0414399</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234534</v>
+        <v>0.231056</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15773</v>
+        <v>0.154944</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0481505</v>
+        <v>0.0423107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.246133</v>
+        <v>0.245911</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.058511</v>
+        <v>0.0571774</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0470937</v>
+        <v>0.0438293</v>
       </c>
       <c r="D53" t="n">
-        <v>0.263572</v>
+        <v>0.267367</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0593968</v>
+        <v>0.0595043</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0484107</v>
+        <v>0.0449987</v>
       </c>
       <c r="D54" t="n">
-        <v>0.279424</v>
+        <v>0.288177</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.059934</v>
+        <v>0.06254609999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497284</v>
+        <v>0.04584</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298707</v>
+        <v>0.306633</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0622355</v>
+        <v>0.06266579999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0490141</v>
+        <v>0.0440528</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31974</v>
+        <v>0.314101</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.063011</v>
+        <v>0.0622053</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0493651</v>
+        <v>0.0458079</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331937</v>
+        <v>0.333429</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0629902</v>
+        <v>0.06377910000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0511202</v>
+        <v>0.0457958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.350019</v>
+        <v>0.344701</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06477960000000001</v>
+        <v>0.06579840000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0521365</v>
+        <v>0.0470494</v>
       </c>
       <c r="D59" t="n">
-        <v>0.36505</v>
+        <v>0.381493</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06765740000000001</v>
+        <v>0.06894260000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0523425</v>
+        <v>0.0491761</v>
       </c>
       <c r="D60" t="n">
-        <v>0.377574</v>
+        <v>0.379802</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07459979999999999</v>
+        <v>0.0717454</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0564703</v>
+        <v>0.0502383</v>
       </c>
       <c r="D61" t="n">
-        <v>0.40272</v>
+        <v>0.397123</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07833130000000001</v>
+        <v>0.07992730000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0591487</v>
+        <v>0.0531523</v>
       </c>
       <c r="D62" t="n">
-        <v>0.416596</v>
+        <v>0.417108</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0895914</v>
+        <v>0.0860467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0630883</v>
+        <v>0.0593101</v>
       </c>
       <c r="D63" t="n">
-        <v>0.456361</v>
+        <v>0.445761</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0994009</v>
+        <v>0.10159</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0734209</v>
+        <v>0.0679331</v>
       </c>
       <c r="D64" t="n">
-        <v>0.352233</v>
+        <v>0.346956</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12526</v>
+        <v>0.122948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08276360000000001</v>
+        <v>0.0759806</v>
       </c>
       <c r="D65" t="n">
-        <v>0.359889</v>
+        <v>0.361694</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167314</v>
+        <v>0.15941</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0544856</v>
+        <v>0.0471402</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381993</v>
+        <v>0.376751</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0673419</v>
+        <v>0.0658622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0537385</v>
+        <v>0.0478747</v>
       </c>
       <c r="D67" t="n">
-        <v>0.399116</v>
+        <v>0.39199</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0664468</v>
+        <v>0.069961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0545709</v>
+        <v>0.0505837</v>
       </c>
       <c r="D68" t="n">
-        <v>0.405676</v>
+        <v>0.425333</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0689023</v>
+        <v>0.06951010000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0549625</v>
+        <v>0.05023</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417549</v>
+        <v>0.445462</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0705819</v>
+        <v>0.0705026</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0552912</v>
+        <v>0.0509215</v>
       </c>
       <c r="D70" t="n">
-        <v>0.458795</v>
+        <v>0.476362</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.072324</v>
+        <v>0.0721651</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0563308</v>
+        <v>0.0533239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.467156</v>
+        <v>0.455544</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07291</v>
+        <v>0.0718411</v>
       </c>
       <c r="C72" t="n">
-        <v>0.060725</v>
+        <v>0.0520787</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468214</v>
+        <v>0.480395</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0781855</v>
+        <v>0.0774519</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0610575</v>
+        <v>0.0536439</v>
       </c>
       <c r="D73" t="n">
-        <v>0.499239</v>
+        <v>0.505437</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0836126</v>
+        <v>0.08145620000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0638104</v>
+        <v>0.0564919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51742</v>
+        <v>0.52418</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0871252</v>
+        <v>0.08572970000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.065377</v>
+        <v>0.0596372</v>
       </c>
       <c r="D75" t="n">
-        <v>0.528826</v>
+        <v>0.559799</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0930494</v>
+        <v>0.09490800000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0678671</v>
+        <v>0.064137</v>
       </c>
       <c r="D76" t="n">
-        <v>0.555129</v>
+        <v>0.580404</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.106021</v>
+        <v>0.100936</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0765692</v>
+        <v>0.06797209999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.581611</v>
+        <v>0.576612</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12089</v>
+        <v>0.12221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08437260000000001</v>
+        <v>0.0756381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.448743</v>
+        <v>0.460897</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.139634</v>
+        <v>0.144977</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09339160000000001</v>
+        <v>0.0876884</v>
       </c>
       <c r="D79" t="n">
-        <v>0.457067</v>
+        <v>0.459385</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175669</v>
+        <v>0.185327</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0614009</v>
+        <v>0.0560588</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475605</v>
+        <v>0.476324</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0840441</v>
+        <v>0.0827754</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0635628</v>
+        <v>0.0577358</v>
       </c>
       <c r="D81" t="n">
-        <v>0.499489</v>
+        <v>0.495566</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0866971</v>
+        <v>0.08012039999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0641646</v>
+        <v>0.0556372</v>
       </c>
       <c r="D82" t="n">
-        <v>0.517489</v>
+        <v>0.509008</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.084588</v>
+        <v>0.0894283</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06432019999999999</v>
+        <v>0.0574491</v>
       </c>
       <c r="D83" t="n">
-        <v>0.524535</v>
+        <v>0.514803</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08591749999999999</v>
+        <v>0.09038309999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0685678</v>
+        <v>0.0590259</v>
       </c>
       <c r="D84" t="n">
-        <v>0.549255</v>
+        <v>0.554615</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09408130000000001</v>
+        <v>0.09221550000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.067236</v>
+        <v>0.0625768</v>
       </c>
       <c r="D85" t="n">
-        <v>0.570901</v>
+        <v>0.552995</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0945285</v>
+        <v>0.0937274</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06911779999999999</v>
+        <v>0.0636898</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.588037</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0995162</v>
+        <v>0.09647849999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0720758</v>
+        <v>0.0676784</v>
       </c>
       <c r="D87" t="n">
-        <v>0.599521</v>
+        <v>0.5965859999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101271</v>
+        <v>0.100884</v>
       </c>
       <c r="C88" t="n">
-        <v>0.072584</v>
+        <v>0.06942089999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.604797</v>
+        <v>0.623827</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107237</v>
+        <v>0.108143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0775988</v>
+        <v>0.0717132</v>
       </c>
       <c r="D89" t="n">
-        <v>0.645343</v>
+        <v>0.636502</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114453</v>
+        <v>0.113812</v>
       </c>
       <c r="C90" t="n">
-        <v>0.080125</v>
+        <v>0.0749541</v>
       </c>
       <c r="D90" t="n">
-        <v>0.673381</v>
+        <v>0.678514</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.124134</v>
+        <v>0.12237</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0870846</v>
+        <v>0.0798812</v>
       </c>
       <c r="D91" t="n">
-        <v>0.666987</v>
+        <v>0.690943</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.134198</v>
+        <v>0.136817</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0949103</v>
+        <v>0.0877713</v>
       </c>
       <c r="D92" t="n">
-        <v>0.522744</v>
+        <v>0.523347</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.156271</v>
+        <v>0.156008</v>
       </c>
       <c r="C93" t="n">
-        <v>0.105747</v>
+        <v>0.100493</v>
       </c>
       <c r="D93" t="n">
-        <v>0.539054</v>
+        <v>0.53474</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190643</v>
+        <v>0.194975</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0805612</v>
+        <v>0.0748818</v>
       </c>
       <c r="D94" t="n">
-        <v>0.552067</v>
+        <v>0.5364100000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107217</v>
+        <v>0.1067</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0823494</v>
+        <v>0.0772029</v>
       </c>
       <c r="D95" t="n">
-        <v>0.568971</v>
+        <v>0.5759919999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112309</v>
+        <v>0.110427</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0840523</v>
+        <v>0.0774738</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5829839999999999</v>
+        <v>0.578643</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113747</v>
+        <v>0.11111</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08479440000000001</v>
+        <v>0.0810694</v>
       </c>
       <c r="D97" t="n">
-        <v>0.61073</v>
+        <v>0.588743</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117036</v>
+        <v>0.112101</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0865452</v>
+        <v>0.0820514</v>
       </c>
       <c r="D98" t="n">
-        <v>0.608386</v>
+        <v>0.604047</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118755</v>
+        <v>0.119298</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08915140000000001</v>
+        <v>0.0819347</v>
       </c>
       <c r="D99" t="n">
-        <v>0.621494</v>
+        <v>0.627904</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119464</v>
+        <v>0.125563</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0943016</v>
+        <v>0.08608780000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655173</v>
+        <v>0.656378</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.127425</v>
+        <v>0.124274</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09439889999999999</v>
+        <v>0.0883922</v>
       </c>
       <c r="D101" t="n">
-        <v>0.665697</v>
+        <v>0.667202</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132394</v>
+        <v>0.129109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0958711</v>
+        <v>0.0905849</v>
       </c>
       <c r="D102" t="n">
-        <v>0.689376</v>
+        <v>0.700394</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.133103</v>
+        <v>0.138773</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100076</v>
+        <v>0.0962175</v>
       </c>
       <c r="D103" t="n">
-        <v>0.729304</v>
+        <v>0.711968</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.14527</v>
+        <v>0.145627</v>
       </c>
       <c r="C104" t="n">
-        <v>0.102795</v>
+        <v>0.09859569999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7367089999999999</v>
+        <v>0.740801</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15102</v>
+        <v>0.15031</v>
       </c>
       <c r="C105" t="n">
-        <v>0.107879</v>
+        <v>0.102859</v>
       </c>
       <c r="D105" t="n">
-        <v>0.753349</v>
+        <v>0.747347</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167793</v>
+        <v>0.167154</v>
       </c>
       <c r="C106" t="n">
-        <v>0.119052</v>
+        <v>0.112849</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7896879999999999</v>
+        <v>0.776596</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188589</v>
+        <v>0.181941</v>
       </c>
       <c r="C107" t="n">
-        <v>0.127904</v>
+        <v>0.120485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.593969</v>
+        <v>0.570379</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217573</v>
+        <v>0.221193</v>
       </c>
       <c r="C108" t="n">
-        <v>0.161172</v>
+        <v>0.15475</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601537</v>
+        <v>0.603104</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.285578</v>
+        <v>0.278823</v>
       </c>
       <c r="C109" t="n">
-        <v>0.168735</v>
+        <v>0.160551</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618649</v>
+        <v>0.625416</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209172</v>
+        <v>0.205349</v>
       </c>
       <c r="C110" t="n">
-        <v>0.168759</v>
+        <v>0.166486</v>
       </c>
       <c r="D110" t="n">
-        <v>0.649405</v>
+        <v>0.623517</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.199877</v>
+        <v>0.202154</v>
       </c>
       <c r="C111" t="n">
-        <v>0.169966</v>
+        <v>0.161671</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710017</v>
+        <v>0.636548</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.20428</v>
+        <v>0.207681</v>
       </c>
       <c r="C112" t="n">
-        <v>0.168949</v>
+        <v>0.163106</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665863</v>
+        <v>0.6990960000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.206251</v>
+        <v>0.205079</v>
       </c>
       <c r="C113" t="n">
-        <v>0.167821</v>
+        <v>0.163775</v>
       </c>
       <c r="D113" t="n">
-        <v>0.691168</v>
+        <v>0.6791469999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.206116</v>
+        <v>0.203426</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17494</v>
+        <v>0.167554</v>
       </c>
       <c r="D114" t="n">
-        <v>0.717814</v>
+        <v>0.706941</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212881</v>
+        <v>0.212991</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171405</v>
+        <v>0.165806</v>
       </c>
       <c r="D115" t="n">
-        <v>0.715514</v>
+        <v>0.708259</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213129</v>
+        <v>0.231132</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173563</v>
+        <v>0.171095</v>
       </c>
       <c r="D116" t="n">
-        <v>0.757259</v>
+        <v>0.737012</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.235772</v>
+        <v>0.219878</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181515</v>
+        <v>0.17641</v>
       </c>
       <c r="D117" t="n">
-        <v>0.779262</v>
+        <v>0.750796</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.235999</v>
+        <v>0.238124</v>
       </c>
       <c r="C118" t="n">
-        <v>0.18393</v>
+        <v>0.179289</v>
       </c>
       <c r="D118" t="n">
-        <v>0.797832</v>
+        <v>0.76934</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241688</v>
+        <v>0.24541</v>
       </c>
       <c r="C119" t="n">
-        <v>0.183251</v>
+        <v>0.184052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.808704</v>
+        <v>0.805017</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26684</v>
+        <v>0.261856</v>
       </c>
       <c r="C120" t="n">
-        <v>0.195052</v>
+        <v>0.18782</v>
       </c>
       <c r="D120" t="n">
-        <v>0.866004</v>
+        <v>0.842301</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.283058</v>
+        <v>0.279911</v>
       </c>
       <c r="C121" t="n">
-        <v>0.21197</v>
+        <v>0.202422</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669767</v>
+        <v>0.64617</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.316048</v>
+        <v>0.305702</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233156</v>
+        <v>0.218709</v>
       </c>
       <c r="D122" t="n">
-        <v>0.669865</v>
+        <v>0.658228</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.383098</v>
+        <v>0.386064</v>
       </c>
       <c r="C123" t="n">
-        <v>0.265159</v>
+        <v>0.252598</v>
       </c>
       <c r="D123" t="n">
-        <v>0.698012</v>
+        <v>0.672459</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.313304</v>
+        <v>0.309286</v>
       </c>
       <c r="C124" t="n">
-        <v>0.26425</v>
+        <v>0.250165</v>
       </c>
       <c r="D124" t="n">
-        <v>0.706497</v>
+        <v>0.698663</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315928</v>
+        <v>0.315428</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258907</v>
+        <v>0.252833</v>
       </c>
       <c r="D125" t="n">
-        <v>0.762825</v>
+        <v>0.718155</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322144</v>
+        <v>0.316327</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26191</v>
+        <v>0.257622</v>
       </c>
       <c r="D126" t="n">
-        <v>0.764553</v>
+        <v>0.745269</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319982</v>
+        <v>0.316009</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2662</v>
+        <v>0.253484</v>
       </c>
       <c r="D127" t="n">
-        <v>0.783829</v>
+        <v>0.777617</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324206</v>
+        <v>0.330068</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260432</v>
+        <v>0.262895</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819828</v>
+        <v>0.792347</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.334713</v>
+        <v>0.339081</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264887</v>
+        <v>0.26175</v>
       </c>
       <c r="D129" t="n">
-        <v>0.831287</v>
+        <v>0.820872</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.340631</v>
+        <v>0.335866</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269442</v>
+        <v>0.270075</v>
       </c>
       <c r="D130" t="n">
-        <v>0.868577</v>
+        <v>0.874732</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.344817</v>
+        <v>0.339302</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275701</v>
+        <v>0.271303</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9047770000000001</v>
+        <v>0.895258</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36048</v>
+        <v>0.361608</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273942</v>
+        <v>0.269782</v>
       </c>
       <c r="D132" t="n">
-        <v>0.949119</v>
+        <v>0.922064</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37299</v>
+        <v>0.360198</v>
       </c>
       <c r="C133" t="n">
-        <v>0.282553</v>
+        <v>0.273717</v>
       </c>
       <c r="D133" t="n">
-        <v>0.98233</v>
+        <v>0.969455</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382619</v>
+        <v>0.40158</v>
       </c>
       <c r="C134" t="n">
-        <v>0.298739</v>
+        <v>0.28491</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02682</v>
+        <v>1.0261</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.406745</v>
+        <v>0.410218</v>
       </c>
       <c r="C135" t="n">
-        <v>0.310389</v>
+        <v>0.298005</v>
       </c>
       <c r="D135" t="n">
-        <v>0.848343</v>
+        <v>0.821374</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.449618</v>
+        <v>0.460171</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326076</v>
+        <v>0.319427</v>
       </c>
       <c r="D136" t="n">
-        <v>0.898604</v>
+        <v>0.8570990000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.534118</v>
+        <v>0.529772</v>
       </c>
       <c r="C137" t="n">
-        <v>0.306983</v>
+        <v>0.306538</v>
       </c>
       <c r="D137" t="n">
-        <v>0.910988</v>
+        <v>0.894605</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379436</v>
+        <v>0.380771</v>
       </c>
       <c r="C138" t="n">
-        <v>0.316494</v>
+        <v>0.307567</v>
       </c>
       <c r="D138" t="n">
-        <v>0.927503</v>
+        <v>0.936785</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.38785</v>
+        <v>0.382586</v>
       </c>
       <c r="C139" t="n">
-        <v>0.309729</v>
+        <v>0.307369</v>
       </c>
       <c r="D139" t="n">
-        <v>0.978195</v>
+        <v>0.945071</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.387795</v>
+        <v>0.391077</v>
       </c>
       <c r="C140" t="n">
-        <v>0.318614</v>
+        <v>0.305956</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00371</v>
+        <v>0.981871</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.399841</v>
+        <v>0.390326</v>
       </c>
       <c r="C141" t="n">
-        <v>0.318424</v>
+        <v>0.314112</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03849</v>
+        <v>1.03384</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397353</v>
+        <v>0.3988</v>
       </c>
       <c r="C142" t="n">
-        <v>0.324973</v>
+        <v>0.312497</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1522</v>
+        <v>1.04723</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.39918</v>
+        <v>0.395783</v>
       </c>
       <c r="C143" t="n">
-        <v>0.33343</v>
+        <v>0.316304</v>
       </c>
       <c r="D143" t="n">
-        <v>1.11965</v>
+        <v>1.08057</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0424531</v>
+        <v>0.0413997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0322501</v>
+        <v>0.0324931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.115024</v>
+        <v>0.121537</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0434118</v>
+        <v>0.0444995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0336861</v>
+        <v>0.0334547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122107</v>
+        <v>0.12432</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0464417</v>
+        <v>0.0473975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.034392</v>
+        <v>0.0345723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125213</v>
+        <v>0.129469</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0512698</v>
+        <v>0.05206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0373832</v>
+        <v>0.0369286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.127411</v>
+        <v>0.132311</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.059575</v>
+        <v>0.0596259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0403991</v>
+        <v>0.0393779</v>
       </c>
       <c r="D6" t="n">
-        <v>0.133757</v>
+        <v>0.141169</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0729725</v>
+        <v>0.0723674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0476133</v>
+        <v>0.0484656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09841610000000001</v>
+        <v>0.10224</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0932805</v>
+        <v>0.09240279999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0583869</v>
+        <v>0.0588542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102837</v>
+        <v>0.107057</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124972</v>
+        <v>0.122439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0305415</v>
+        <v>0.0311042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106376</v>
+        <v>0.11041</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0392586</v>
+        <v>0.0390542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0317585</v>
+        <v>0.030476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115458</v>
+        <v>0.115982</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0398061</v>
+        <v>0.0413295</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0324754</v>
+        <v>0.0321834</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113909</v>
+        <v>0.121248</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03974</v>
+        <v>0.0400907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0316983</v>
+        <v>0.0311239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.123918</v>
+        <v>0.126696</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0414484</v>
+        <v>0.0405413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0331793</v>
+        <v>0.0319079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.121436</v>
+        <v>0.129572</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0426271</v>
+        <v>0.0419929</v>
       </c>
       <c r="C14" t="n">
-        <v>0.032206</v>
+        <v>0.0318734</v>
       </c>
       <c r="D14" t="n">
-        <v>0.132436</v>
+        <v>0.133612</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0431099</v>
+        <v>0.0435136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.032553</v>
+        <v>0.0328694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128955</v>
+        <v>0.137194</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0451686</v>
+        <v>0.0449454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0360931</v>
+        <v>0.0328849</v>
       </c>
       <c r="D16" t="n">
-        <v>0.132906</v>
+        <v>0.140464</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0467536</v>
+        <v>0.0468339</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0345405</v>
+        <v>0.0352375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.137257</v>
+        <v>0.146803</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0496863</v>
+        <v>0.0495758</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0363083</v>
+        <v>0.0364373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.140219</v>
+        <v>0.151336</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.055266</v>
+        <v>0.0555711</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0387174</v>
+        <v>0.0373733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146957</v>
+        <v>0.153943</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0632287</v>
+        <v>0.0652344</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0437599</v>
+        <v>0.0414315</v>
       </c>
       <c r="D20" t="n">
-        <v>0.155562</v>
+        <v>0.15874</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0746709</v>
+        <v>0.0751708</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0503888</v>
+        <v>0.046658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.109685</v>
+        <v>0.119854</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0933674</v>
+        <v>0.09228069999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0583792</v>
+        <v>0.0614856</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114409</v>
+        <v>0.124358</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119654</v>
+        <v>0.124052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0323391</v>
+        <v>0.0315892</v>
       </c>
       <c r="D23" t="n">
-        <v>0.120034</v>
+        <v>0.122973</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0430098</v>
+        <v>0.041406</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0317005</v>
+        <v>0.0316699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.127824</v>
+        <v>0.132926</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0437737</v>
+        <v>0.0434496</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0331229</v>
+        <v>0.032161</v>
       </c>
       <c r="D25" t="n">
-        <v>0.135916</v>
+        <v>0.138809</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0447261</v>
+        <v>0.0444624</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0335611</v>
+        <v>0.0324863</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133518</v>
+        <v>0.141651</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0467348</v>
+        <v>0.043601</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0328643</v>
+        <v>0.0321994</v>
       </c>
       <c r="D27" t="n">
-        <v>0.141418</v>
+        <v>0.151852</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0464638</v>
+        <v>0.0457501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0331001</v>
+        <v>0.0341977</v>
       </c>
       <c r="D28" t="n">
-        <v>0.143884</v>
+        <v>0.152124</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.047009</v>
+        <v>0.0464073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0336778</v>
+        <v>0.0338013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.143805</v>
+        <v>0.15493</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0480895</v>
+        <v>0.0486387</v>
       </c>
       <c r="C30" t="n">
-        <v>0.035385</v>
+        <v>0.0362432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.150819</v>
+        <v>0.159792</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0505712</v>
+        <v>0.0514522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0353464</v>
+        <v>0.0357875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.161656</v>
+        <v>0.162214</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0539309</v>
+        <v>0.0542571</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0394645</v>
+        <v>0.035823</v>
       </c>
       <c r="D32" t="n">
-        <v>0.164767</v>
+        <v>0.167725</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0584377</v>
+        <v>0.057174</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0386482</v>
+        <v>0.0387131</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169969</v>
+        <v>0.173387</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0636849</v>
+        <v>0.06695130000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0438041</v>
+        <v>0.0419637</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168474</v>
+        <v>0.182556</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0761695</v>
+        <v>0.0752265</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0481912</v>
+        <v>0.0462792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.13131</v>
+        <v>0.135634</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09147</v>
+        <v>0.0923731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0555144</v>
+        <v>0.0549873</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134531</v>
+        <v>0.142787</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119745</v>
+        <v>0.119153</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0355502</v>
+        <v>0.0350962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.141983</v>
+        <v>0.147595</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.047401</v>
+        <v>0.0486508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0351733</v>
+        <v>0.0353498</v>
       </c>
       <c r="D38" t="n">
-        <v>0.148794</v>
+        <v>0.154485</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0469046</v>
+        <v>0.0479704</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0364401</v>
+        <v>0.0346671</v>
       </c>
       <c r="D39" t="n">
-        <v>0.158127</v>
+        <v>0.161262</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0486651</v>
+        <v>0.0480513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0366429</v>
+        <v>0.0358602</v>
       </c>
       <c r="D40" t="n">
-        <v>0.163555</v>
+        <v>0.169264</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0481068</v>
+        <v>0.0484458</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0374408</v>
+        <v>0.0368722</v>
       </c>
       <c r="D41" t="n">
-        <v>0.174186</v>
+        <v>0.18163</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0514816</v>
+        <v>0.0491491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0375539</v>
+        <v>0.0354807</v>
       </c>
       <c r="D42" t="n">
-        <v>0.183221</v>
+        <v>0.192219</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0505269</v>
+        <v>0.0512638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0370724</v>
+        <v>0.0372898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.199344</v>
+        <v>0.205091</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0505956</v>
+        <v>0.0534473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0381674</v>
+        <v>0.0385202</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208647</v>
+        <v>0.210478</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536361</v>
+        <v>0.0551443</v>
       </c>
       <c r="C45" t="n">
-        <v>0.038243</v>
+        <v>0.0406141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225419</v>
+        <v>0.221479</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0574108</v>
+        <v>0.0590187</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0412659</v>
+        <v>0.039555</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240186</v>
+        <v>0.237472</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0608771</v>
+        <v>0.0613498</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0434683</v>
+        <v>0.0429112</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245228</v>
+        <v>0.244571</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0698993</v>
+        <v>0.0682244</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0467038</v>
+        <v>0.0443482</v>
       </c>
       <c r="D48" t="n">
-        <v>0.268429</v>
+        <v>0.263053</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0766515</v>
+        <v>0.0777815</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0492483</v>
+        <v>0.0484394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.279537</v>
+        <v>0.289178</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09263</v>
+        <v>0.09429659999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.058458</v>
+        <v>0.055038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214698</v>
+        <v>0.216782</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11875</v>
+        <v>0.121907</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0414399</v>
+        <v>0.042705</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231056</v>
+        <v>0.226643</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154944</v>
+        <v>0.156224</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0423107</v>
+        <v>0.0426288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.245911</v>
+        <v>0.239842</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0571774</v>
+        <v>0.0578169</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0438293</v>
+        <v>0.044892</v>
       </c>
       <c r="D53" t="n">
-        <v>0.267367</v>
+        <v>0.262596</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0595043</v>
+        <v>0.0574538</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0449987</v>
+        <v>0.0437371</v>
       </c>
       <c r="D54" t="n">
-        <v>0.288177</v>
+        <v>0.272406</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06254609999999999</v>
+        <v>0.0619075</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04584</v>
+        <v>0.0447128</v>
       </c>
       <c r="D55" t="n">
-        <v>0.306633</v>
+        <v>0.289997</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06266579999999999</v>
+        <v>0.0612959</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0440528</v>
+        <v>0.0449458</v>
       </c>
       <c r="D56" t="n">
-        <v>0.314101</v>
+        <v>0.309815</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0622053</v>
+        <v>0.0613761</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0458079</v>
+        <v>0.0450539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.333429</v>
+        <v>0.325283</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06377910000000001</v>
+        <v>0.06241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0457958</v>
+        <v>0.0473815</v>
       </c>
       <c r="D58" t="n">
-        <v>0.344701</v>
+        <v>0.338997</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06579840000000001</v>
+        <v>0.0650135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0470494</v>
+        <v>0.0477629</v>
       </c>
       <c r="D59" t="n">
-        <v>0.381493</v>
+        <v>0.369314</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06894260000000001</v>
+        <v>0.0702122</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0491761</v>
+        <v>0.049733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.379802</v>
+        <v>0.38398</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0717454</v>
+        <v>0.076267</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0502383</v>
+        <v>0.0506658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397123</v>
+        <v>0.414385</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07992730000000001</v>
+        <v>0.0790261</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0531523</v>
+        <v>0.0522925</v>
       </c>
       <c r="D62" t="n">
-        <v>0.417108</v>
+        <v>0.437157</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0860467</v>
+        <v>0.08606519999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0593101</v>
+        <v>0.0585374</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445761</v>
+        <v>0.442115</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10159</v>
+        <v>0.103449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0679331</v>
+        <v>0.0663159</v>
       </c>
       <c r="D64" t="n">
-        <v>0.346956</v>
+        <v>0.361093</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.122948</v>
+        <v>0.127643</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0759806</v>
+        <v>0.0781129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.361694</v>
+        <v>0.363707</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15941</v>
+        <v>0.163013</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0471402</v>
+        <v>0.0470443</v>
       </c>
       <c r="D66" t="n">
-        <v>0.376751</v>
+        <v>0.376205</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0658622</v>
+        <v>0.06639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0478747</v>
+        <v>0.0489098</v>
       </c>
       <c r="D67" t="n">
-        <v>0.39199</v>
+        <v>0.400515</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.069961</v>
+        <v>0.06864770000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0505837</v>
+        <v>0.0493219</v>
       </c>
       <c r="D68" t="n">
-        <v>0.425333</v>
+        <v>0.410095</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06951010000000001</v>
+        <v>0.0683632</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05023</v>
+        <v>0.0490207</v>
       </c>
       <c r="D69" t="n">
-        <v>0.445462</v>
+        <v>0.42668</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0705026</v>
+        <v>0.0702948</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0509215</v>
+        <v>0.0496285</v>
       </c>
       <c r="D70" t="n">
-        <v>0.476362</v>
+        <v>0.448642</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0721651</v>
+        <v>0.0705505</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0533239</v>
+        <v>0.0520705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455544</v>
+        <v>0.469454</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0718411</v>
+        <v>0.0727058</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0520787</v>
+        <v>0.0531041</v>
       </c>
       <c r="D72" t="n">
-        <v>0.480395</v>
+        <v>0.492917</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0774519</v>
+        <v>0.0759773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0536439</v>
+        <v>0.056182</v>
       </c>
       <c r="D73" t="n">
-        <v>0.505437</v>
+        <v>0.500665</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08145620000000001</v>
+        <v>0.0837223</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0564919</v>
+        <v>0.0569915</v>
       </c>
       <c r="D74" t="n">
-        <v>0.52418</v>
+        <v>0.524743</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08572970000000001</v>
+        <v>0.08684989999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0596372</v>
+        <v>0.0600541</v>
       </c>
       <c r="D75" t="n">
-        <v>0.559799</v>
+        <v>0.539753</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09490800000000001</v>
+        <v>0.0930083</v>
       </c>
       <c r="C76" t="n">
-        <v>0.064137</v>
+        <v>0.06207</v>
       </c>
       <c r="D76" t="n">
-        <v>0.580404</v>
+        <v>0.5841730000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.100936</v>
+        <v>0.102476</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06797209999999999</v>
+        <v>0.0657876</v>
       </c>
       <c r="D77" t="n">
-        <v>0.576612</v>
+        <v>0.595432</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12221</v>
+        <v>0.116331</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0756381</v>
+        <v>0.0758272</v>
       </c>
       <c r="D78" t="n">
-        <v>0.460897</v>
+        <v>0.442885</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.144977</v>
+        <v>0.140653</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0876884</v>
+        <v>0.0845048</v>
       </c>
       <c r="D79" t="n">
-        <v>0.459385</v>
+        <v>0.454594</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.185327</v>
+        <v>0.175307</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0560588</v>
+        <v>0.0551512</v>
       </c>
       <c r="D80" t="n">
-        <v>0.476324</v>
+        <v>0.488987</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0827754</v>
+        <v>0.0797004</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0577358</v>
+        <v>0.0560285</v>
       </c>
       <c r="D81" t="n">
-        <v>0.495566</v>
+        <v>0.480396</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08012039999999999</v>
+        <v>0.08234229999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0556372</v>
+        <v>0.0568386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.509008</v>
+        <v>0.526007</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0894283</v>
+        <v>0.08523119999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0574491</v>
+        <v>0.058144</v>
       </c>
       <c r="D83" t="n">
-        <v>0.514803</v>
+        <v>0.528247</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09038309999999999</v>
+        <v>0.08696189999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0590259</v>
+        <v>0.0606579</v>
       </c>
       <c r="D84" t="n">
-        <v>0.554615</v>
+        <v>0.542532</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09221550000000001</v>
+        <v>0.0885055</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0625768</v>
+        <v>0.0604336</v>
       </c>
       <c r="D85" t="n">
-        <v>0.552995</v>
+        <v>0.563899</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0937274</v>
+        <v>0.0949074</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0636898</v>
+        <v>0.0676901</v>
       </c>
       <c r="D86" t="n">
-        <v>0.588037</v>
+        <v>0.5810419999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09647849999999999</v>
+        <v>0.0962773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0676784</v>
+        <v>0.0650768</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5965859999999999</v>
+        <v>0.595149</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.100884</v>
+        <v>0.101003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06942089999999999</v>
+        <v>0.06816</v>
       </c>
       <c r="D88" t="n">
-        <v>0.623827</v>
+        <v>0.61769</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.108143</v>
+        <v>0.107686</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0717132</v>
+        <v>0.07100629999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.636502</v>
+        <v>0.636668</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.113812</v>
+        <v>0.113167</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0749541</v>
+        <v>0.0771047</v>
       </c>
       <c r="D90" t="n">
-        <v>0.678514</v>
+        <v>0.66514</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.12237</v>
+        <v>0.126562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0798812</v>
+        <v>0.0825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.690943</v>
+        <v>0.688505</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.136817</v>
+        <v>0.139696</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0877713</v>
+        <v>0.0908566</v>
       </c>
       <c r="D92" t="n">
-        <v>0.523347</v>
+        <v>0.511953</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.156008</v>
+        <v>0.158247</v>
       </c>
       <c r="C93" t="n">
-        <v>0.100493</v>
+        <v>0.101672</v>
       </c>
       <c r="D93" t="n">
-        <v>0.53474</v>
+        <v>0.526536</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194975</v>
+        <v>0.195079</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0748818</v>
+        <v>0.0763117</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5364100000000001</v>
+        <v>0.562674</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1067</v>
+        <v>0.10937</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0772029</v>
+        <v>0.0769798</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5759919999999999</v>
+        <v>0.572547</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110427</v>
+        <v>0.111917</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0774738</v>
+        <v>0.0763334</v>
       </c>
       <c r="D96" t="n">
-        <v>0.578643</v>
+        <v>0.593469</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.11111</v>
+        <v>0.112397</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0810694</v>
+        <v>0.0787955</v>
       </c>
       <c r="D97" t="n">
-        <v>0.588743</v>
+        <v>0.5834589999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.112101</v>
+        <v>0.113937</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0820514</v>
+        <v>0.0818451</v>
       </c>
       <c r="D98" t="n">
-        <v>0.604047</v>
+        <v>0.613866</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.119298</v>
+        <v>0.115522</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0819347</v>
+        <v>0.0827586</v>
       </c>
       <c r="D99" t="n">
-        <v>0.627904</v>
+        <v>0.621517</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.125563</v>
+        <v>0.119775</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08608780000000001</v>
+        <v>0.0854053</v>
       </c>
       <c r="D100" t="n">
-        <v>0.656378</v>
+        <v>0.659656</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124274</v>
+        <v>0.126159</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0883922</v>
+        <v>0.0896134</v>
       </c>
       <c r="D101" t="n">
-        <v>0.667202</v>
+        <v>0.670157</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129109</v>
+        <v>0.12759</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0905849</v>
+        <v>0.09322950000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.700394</v>
+        <v>0.6863629999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.138773</v>
+        <v>0.134853</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0962175</v>
+        <v>0.0925055</v>
       </c>
       <c r="D103" t="n">
-        <v>0.711968</v>
+        <v>0.716742</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.145627</v>
+        <v>0.141607</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09859569999999999</v>
+        <v>0.09662510000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.740801</v>
+        <v>0.724445</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15031</v>
+        <v>0.150115</v>
       </c>
       <c r="C105" t="n">
-        <v>0.102859</v>
+        <v>0.102116</v>
       </c>
       <c r="D105" t="n">
-        <v>0.747347</v>
+        <v>0.788484</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167154</v>
+        <v>0.162271</v>
       </c>
       <c r="C106" t="n">
-        <v>0.112849</v>
+        <v>0.107861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776596</v>
+        <v>0.784177</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.181941</v>
+        <v>0.187715</v>
       </c>
       <c r="C107" t="n">
-        <v>0.120485</v>
+        <v>0.121427</v>
       </c>
       <c r="D107" t="n">
-        <v>0.570379</v>
+        <v>0.576501</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.221193</v>
+        <v>0.225373</v>
       </c>
       <c r="C108" t="n">
-        <v>0.15475</v>
+        <v>0.159326</v>
       </c>
       <c r="D108" t="n">
-        <v>0.603104</v>
+        <v>0.600068</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.278823</v>
+        <v>0.275551</v>
       </c>
       <c r="C109" t="n">
-        <v>0.160551</v>
+        <v>0.155356</v>
       </c>
       <c r="D109" t="n">
-        <v>0.625416</v>
+        <v>0.629948</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.205349</v>
+        <v>0.196295</v>
       </c>
       <c r="C110" t="n">
-        <v>0.166486</v>
+        <v>0.164473</v>
       </c>
       <c r="D110" t="n">
-        <v>0.623517</v>
+        <v>0.654838</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.202154</v>
+        <v>0.203586</v>
       </c>
       <c r="C111" t="n">
-        <v>0.161671</v>
+        <v>0.170883</v>
       </c>
       <c r="D111" t="n">
-        <v>0.636548</v>
+        <v>0.69018</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.207681</v>
+        <v>0.200104</v>
       </c>
       <c r="C112" t="n">
-        <v>0.163106</v>
+        <v>0.165698</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6990960000000001</v>
+        <v>0.706383</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.205079</v>
+        <v>0.204859</v>
       </c>
       <c r="C113" t="n">
-        <v>0.163775</v>
+        <v>0.162952</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6791469999999999</v>
+        <v>0.677565</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.203426</v>
+        <v>0.223335</v>
       </c>
       <c r="C114" t="n">
-        <v>0.167554</v>
+        <v>0.16888</v>
       </c>
       <c r="D114" t="n">
-        <v>0.706941</v>
+        <v>0.714906</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212991</v>
+        <v>0.213996</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165806</v>
+        <v>0.169852</v>
       </c>
       <c r="D115" t="n">
-        <v>0.708259</v>
+        <v>0.730969</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.231132</v>
+        <v>0.215772</v>
       </c>
       <c r="C116" t="n">
-        <v>0.171095</v>
+        <v>0.171399</v>
       </c>
       <c r="D116" t="n">
-        <v>0.737012</v>
+        <v>0.763388</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.219878</v>
+        <v>0.22274</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17641</v>
+        <v>0.173874</v>
       </c>
       <c r="D117" t="n">
-        <v>0.750796</v>
+        <v>0.781565</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238124</v>
+        <v>0.238798</v>
       </c>
       <c r="C118" t="n">
-        <v>0.179289</v>
+        <v>0.178975</v>
       </c>
       <c r="D118" t="n">
-        <v>0.76934</v>
+        <v>0.788762</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24541</v>
+        <v>0.246395</v>
       </c>
       <c r="C119" t="n">
-        <v>0.184052</v>
+        <v>0.180495</v>
       </c>
       <c r="D119" t="n">
-        <v>0.805017</v>
+        <v>0.813026</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261856</v>
+        <v>0.254487</v>
       </c>
       <c r="C120" t="n">
-        <v>0.18782</v>
+        <v>0.189198</v>
       </c>
       <c r="D120" t="n">
-        <v>0.842301</v>
+        <v>0.834212</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.279911</v>
+        <v>0.268021</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202422</v>
+        <v>0.204997</v>
       </c>
       <c r="D121" t="n">
-        <v>0.64617</v>
+        <v>0.643195</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.305702</v>
+        <v>0.313896</v>
       </c>
       <c r="C122" t="n">
-        <v>0.218709</v>
+        <v>0.214257</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658228</v>
+        <v>0.647728</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.386064</v>
+        <v>0.369896</v>
       </c>
       <c r="C123" t="n">
-        <v>0.252598</v>
+        <v>0.246997</v>
       </c>
       <c r="D123" t="n">
-        <v>0.672459</v>
+        <v>0.692318</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.309286</v>
+        <v>0.308811</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250165</v>
+        <v>0.24672</v>
       </c>
       <c r="D124" t="n">
-        <v>0.698663</v>
+        <v>0.70768</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315428</v>
+        <v>0.310609</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252833</v>
+        <v>0.247885</v>
       </c>
       <c r="D125" t="n">
-        <v>0.718155</v>
+        <v>0.736277</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316327</v>
+        <v>0.315809</v>
       </c>
       <c r="C126" t="n">
-        <v>0.257622</v>
+        <v>0.248441</v>
       </c>
       <c r="D126" t="n">
-        <v>0.745269</v>
+        <v>0.760748</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.316009</v>
+        <v>0.318983</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253484</v>
+        <v>0.258655</v>
       </c>
       <c r="D127" t="n">
-        <v>0.777617</v>
+        <v>0.791511</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330068</v>
+        <v>0.326709</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262895</v>
+        <v>0.257308</v>
       </c>
       <c r="D128" t="n">
-        <v>0.792347</v>
+        <v>0.794478</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.339081</v>
+        <v>0.335941</v>
       </c>
       <c r="C129" t="n">
-        <v>0.26175</v>
+        <v>0.260203</v>
       </c>
       <c r="D129" t="n">
-        <v>0.820872</v>
+        <v>0.836427</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335866</v>
+        <v>0.336588</v>
       </c>
       <c r="C130" t="n">
-        <v>0.270075</v>
+        <v>0.263717</v>
       </c>
       <c r="D130" t="n">
-        <v>0.874732</v>
+        <v>0.863049</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.339302</v>
+        <v>0.340559</v>
       </c>
       <c r="C131" t="n">
-        <v>0.271303</v>
+        <v>0.267526</v>
       </c>
       <c r="D131" t="n">
-        <v>0.895258</v>
+        <v>0.891213</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361608</v>
+        <v>0.360424</v>
       </c>
       <c r="C132" t="n">
-        <v>0.269782</v>
+        <v>0.272993</v>
       </c>
       <c r="D132" t="n">
-        <v>0.922064</v>
+        <v>0.921368</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.360198</v>
+        <v>0.359292</v>
       </c>
       <c r="C133" t="n">
-        <v>0.273717</v>
+        <v>0.274821</v>
       </c>
       <c r="D133" t="n">
-        <v>0.969455</v>
+        <v>0.969024</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.40158</v>
+        <v>0.383388</v>
       </c>
       <c r="C134" t="n">
-        <v>0.28491</v>
+        <v>0.284894</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0261</v>
+        <v>1.01715</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.410218</v>
+        <v>0.408585</v>
       </c>
       <c r="C135" t="n">
-        <v>0.298005</v>
+        <v>0.301535</v>
       </c>
       <c r="D135" t="n">
-        <v>0.821374</v>
+        <v>0.8433890000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.460171</v>
+        <v>0.459769</v>
       </c>
       <c r="C136" t="n">
-        <v>0.319427</v>
+        <v>0.317154</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8570990000000001</v>
+        <v>0.856427</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.529772</v>
+        <v>0.542967</v>
       </c>
       <c r="C137" t="n">
-        <v>0.306538</v>
+        <v>0.302668</v>
       </c>
       <c r="D137" t="n">
-        <v>0.894605</v>
+        <v>0.899759</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.380771</v>
+        <v>0.382091</v>
       </c>
       <c r="C138" t="n">
-        <v>0.307567</v>
+        <v>0.308198</v>
       </c>
       <c r="D138" t="n">
-        <v>0.936785</v>
+        <v>0.918702</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382586</v>
+        <v>0.375295</v>
       </c>
       <c r="C139" t="n">
-        <v>0.307369</v>
+        <v>0.30848</v>
       </c>
       <c r="D139" t="n">
-        <v>0.945071</v>
+        <v>0.966194</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.391077</v>
+        <v>0.38926</v>
       </c>
       <c r="C140" t="n">
-        <v>0.305956</v>
+        <v>0.312069</v>
       </c>
       <c r="D140" t="n">
-        <v>0.981871</v>
+        <v>0.990389</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.390326</v>
+        <v>0.391648</v>
       </c>
       <c r="C141" t="n">
-        <v>0.314112</v>
+        <v>0.315592</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03384</v>
+        <v>1.0294</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3988</v>
+        <v>0.39928</v>
       </c>
       <c r="C142" t="n">
-        <v>0.312497</v>
+        <v>0.319803</v>
       </c>
       <c r="D142" t="n">
-        <v>1.04723</v>
+        <v>1.06359</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.395783</v>
+        <v>0.411805</v>
       </c>
       <c r="C143" t="n">
-        <v>0.316304</v>
+        <v>0.319582</v>
       </c>
       <c r="D143" t="n">
-        <v>1.08057</v>
+        <v>1.10171</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0413997</v>
+        <v>0.0401328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0324931</v>
+        <v>0.111186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121537</v>
+        <v>0.0315187</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0330441</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0444995</v>
+        <v>0.0420397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0334547</v>
+        <v>0.113668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12432</v>
+        <v>0.0319832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0334412</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0473975</v>
+        <v>0.0443631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0345723</v>
+        <v>0.118875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.129469</v>
+        <v>0.0328063</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0346067</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05206</v>
+        <v>0.0489297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0369286</v>
+        <v>0.124658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132311</v>
+        <v>0.0351251</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.036479</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0596259</v>
+        <v>0.0564134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0393779</v>
+        <v>0.129769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.141169</v>
+        <v>0.0393101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0397387</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0723674</v>
+        <v>0.0711318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0484656</v>
+        <v>0.0951076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10224</v>
+        <v>0.0469535</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0462723</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09240279999999999</v>
+        <v>0.09444080000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0588542</v>
+        <v>0.09926260000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107057</v>
+        <v>0.0575227</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0578036</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122439</v>
+        <v>0.12395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0311042</v>
+        <v>0.104035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.11041</v>
+        <v>0.0300908</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0320902</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0390542</v>
+        <v>0.0385666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.030476</v>
+        <v>0.108217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115982</v>
+        <v>0.0298142</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0323882</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0413295</v>
+        <v>0.0389489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0321834</v>
+        <v>0.111437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121248</v>
+        <v>0.030063</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0326764</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0400907</v>
+        <v>0.0394386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311239</v>
+        <v>0.115558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126696</v>
+        <v>0.0303926</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0330612</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0405413</v>
+        <v>0.040232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0319079</v>
+        <v>0.119551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129572</v>
+        <v>0.0307825</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0338054</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0419929</v>
+        <v>0.0417183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0318734</v>
+        <v>0.123809</v>
       </c>
       <c r="D14" t="n">
-        <v>0.133612</v>
+        <v>0.0310284</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0343267</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0435136</v>
+        <v>0.0426774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0328694</v>
+        <v>0.127482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.137194</v>
+        <v>0.0316126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0350997</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0449454</v>
+        <v>0.0436446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0328849</v>
+        <v>0.1345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.140464</v>
+        <v>0.0328065</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0359307</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0468339</v>
+        <v>0.0460218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0352375</v>
+        <v>0.134175</v>
       </c>
       <c r="D17" t="n">
-        <v>0.146803</v>
+        <v>0.0336334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0368671</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0495758</v>
+        <v>0.0508113</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0364373</v>
+        <v>0.138248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151336</v>
+        <v>0.0346644</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0381072</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0555711</v>
+        <v>0.0561808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0373733</v>
+        <v>0.142761</v>
       </c>
       <c r="D19" t="n">
-        <v>0.153943</v>
+        <v>0.0367125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04071</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0652344</v>
+        <v>0.0635918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0414315</v>
+        <v>0.146701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.15874</v>
+        <v>0.0404131</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0452934</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0751708</v>
+        <v>0.0739645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.046658</v>
+        <v>0.111305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119854</v>
+        <v>0.046208</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0515517</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09228069999999999</v>
+        <v>0.09378839999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0614856</v>
+        <v>0.113663</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124358</v>
+        <v>0.0571217</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0619574</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124052</v>
+        <v>0.12042</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0315892</v>
+        <v>0.116057</v>
       </c>
       <c r="D23" t="n">
-        <v>0.122973</v>
+        <v>0.0304369</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0348957</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.041406</v>
+        <v>0.0409712</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0316699</v>
+        <v>0.120987</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132926</v>
+        <v>0.0307436</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.035867</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0434496</v>
+        <v>0.0416735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.032161</v>
+        <v>0.123081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138809</v>
+        <v>0.0307509</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0353902</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0444624</v>
+        <v>0.0420041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0324863</v>
+        <v>0.128428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141651</v>
+        <v>0.0310375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0363118</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.043601</v>
+        <v>0.0429296</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0321994</v>
+        <v>0.13199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.151852</v>
+        <v>0.0314817</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0365921</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0457501</v>
+        <v>0.0438854</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0341977</v>
+        <v>0.138508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.152124</v>
+        <v>0.0330533</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0386159</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464073</v>
+        <v>0.0452449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0338013</v>
+        <v>0.141726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15493</v>
+        <v>0.0327061</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0390979</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0486387</v>
+        <v>0.0469856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0362432</v>
+        <v>0.143655</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159792</v>
+        <v>0.0330749</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0399837</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0514522</v>
+        <v>0.0489906</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0357875</v>
+        <v>0.150264</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162214</v>
+        <v>0.0346092</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0408892</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0542571</v>
+        <v>0.0543927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.035823</v>
+        <v>0.152595</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167725</v>
+        <v>0.0350648</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0419838</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.057174</v>
+        <v>0.0581797</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0387131</v>
+        <v>0.163602</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173387</v>
+        <v>0.036907</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.043971</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06695130000000001</v>
+        <v>0.06528879999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0419637</v>
+        <v>0.163716</v>
       </c>
       <c r="D34" t="n">
-        <v>0.182556</v>
+        <v>0.0403565</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.047344</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0752265</v>
+        <v>0.0751807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0462792</v>
+        <v>0.123869</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135634</v>
+        <v>0.0461912</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.053714</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0923731</v>
+        <v>0.0924314</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0549873</v>
+        <v>0.130166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.142787</v>
+        <v>0.0534978</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0616268</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119153</v>
+        <v>0.120187</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0350962</v>
+        <v>0.135089</v>
       </c>
       <c r="D37" t="n">
-        <v>0.147595</v>
+        <v>0.0333603</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.043224</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0486508</v>
+        <v>0.0453857</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0353498</v>
+        <v>0.141225</v>
       </c>
       <c r="D38" t="n">
-        <v>0.154485</v>
+        <v>0.033459</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0424831</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0479704</v>
+        <v>0.0458321</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0346671</v>
+        <v>0.151895</v>
       </c>
       <c r="D39" t="n">
-        <v>0.161262</v>
+        <v>0.03484</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0447591</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0480513</v>
+        <v>0.0467788</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0358602</v>
+        <v>0.158291</v>
       </c>
       <c r="D40" t="n">
-        <v>0.169264</v>
+        <v>0.0340731</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0442501</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0484458</v>
+        <v>0.0481845</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0368722</v>
+        <v>0.168342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.18163</v>
+        <v>0.0349108</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0457749</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0491491</v>
+        <v>0.048617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0354807</v>
+        <v>0.177411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192219</v>
+        <v>0.0354629</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0466323</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0512638</v>
+        <v>0.049159</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0372898</v>
+        <v>0.187001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205091</v>
+        <v>0.0363404</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0478899</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0534473</v>
+        <v>0.0510441</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0385202</v>
+        <v>0.196542</v>
       </c>
       <c r="D44" t="n">
-        <v>0.210478</v>
+        <v>0.0368973</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0498833</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0551443</v>
+        <v>0.0530618</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0406141</v>
+        <v>0.21388</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221479</v>
+        <v>0.0375454</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0512274</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0590187</v>
+        <v>0.0565394</v>
       </c>
       <c r="C46" t="n">
-        <v>0.039555</v>
+        <v>0.21966</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237472</v>
+        <v>0.0394688</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0526871</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0613498</v>
+        <v>0.061001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0429112</v>
+        <v>0.231514</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244571</v>
+        <v>0.0402122</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0549756</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0682244</v>
+        <v>0.0671433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0443482</v>
+        <v>0.247666</v>
       </c>
       <c r="D48" t="n">
-        <v>0.263053</v>
+        <v>0.0428944</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0589192</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0777815</v>
+        <v>0.0763918</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0484394</v>
+        <v>0.262916</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289178</v>
+        <v>0.0468719</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.06332450000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09429659999999999</v>
+        <v>0.09345729999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.055038</v>
+        <v>0.212322</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216782</v>
+        <v>0.0534782</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0709637</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121907</v>
+        <v>0.116824</v>
       </c>
       <c r="C51" t="n">
-        <v>0.042705</v>
+        <v>0.224741</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226643</v>
+        <v>0.0402451</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0521435</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.156224</v>
+        <v>0.15452</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0426288</v>
+        <v>0.238991</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239842</v>
+        <v>0.0412361</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0526807</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0578169</v>
+        <v>0.0560492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.044892</v>
+        <v>0.252266</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262596</v>
+        <v>0.0416517</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0530033</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0574538</v>
+        <v>0.0563245</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0437371</v>
+        <v>0.269184</v>
       </c>
       <c r="D54" t="n">
-        <v>0.272406</v>
+        <v>0.0415036</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0541272</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0619075</v>
+        <v>0.0571569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0447128</v>
+        <v>0.274212</v>
       </c>
       <c r="D55" t="n">
-        <v>0.289997</v>
+        <v>0.043004</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0552165</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612959</v>
+        <v>0.0590235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0449458</v>
+        <v>0.291901</v>
       </c>
       <c r="D56" t="n">
-        <v>0.309815</v>
+        <v>0.0437117</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0562733</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0613761</v>
+        <v>0.0612237</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0450539</v>
+        <v>0.305341</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325283</v>
+        <v>0.044512</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0591397</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06241</v>
+        <v>0.0625815</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0473815</v>
+        <v>0.323895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338997</v>
+        <v>0.0447589</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0596749</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0650135</v>
+        <v>0.06297369999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0477629</v>
+        <v>0.341529</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369314</v>
+        <v>0.0457032</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0614015</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0702122</v>
+        <v>0.06689290000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.049733</v>
+        <v>0.358865</v>
       </c>
       <c r="D60" t="n">
-        <v>0.38398</v>
+        <v>0.0472149</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0636694</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.076267</v>
+        <v>0.0700766</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0506658</v>
+        <v>0.378546</v>
       </c>
       <c r="D61" t="n">
-        <v>0.414385</v>
+        <v>0.0495257</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0675137</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0790261</v>
+        <v>0.07574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0522925</v>
+        <v>0.404949</v>
       </c>
       <c r="D62" t="n">
-        <v>0.437157</v>
+        <v>0.0516458</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0705648</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08606519999999999</v>
+        <v>0.08464140000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0585374</v>
+        <v>0.423924</v>
       </c>
       <c r="D63" t="n">
-        <v>0.442115</v>
+        <v>0.0557063</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.07696169999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.103449</v>
+        <v>0.09793830000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0663159</v>
+        <v>0.334635</v>
       </c>
       <c r="D64" t="n">
-        <v>0.361093</v>
+        <v>0.0624579</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0844123</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.127643</v>
+        <v>0.120708</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0781129</v>
+        <v>0.352845</v>
       </c>
       <c r="D65" t="n">
-        <v>0.363707</v>
+        <v>0.0753345</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0982005</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163013</v>
+        <v>0.156662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0470443</v>
+        <v>0.371921</v>
       </c>
       <c r="D66" t="n">
-        <v>0.376205</v>
+        <v>0.0458096</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0590508</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06639</v>
+        <v>0.06385490000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0489098</v>
+        <v>0.381189</v>
       </c>
       <c r="D67" t="n">
-        <v>0.400515</v>
+        <v>0.0468359</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0615432</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06864770000000001</v>
+        <v>0.064956</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0493219</v>
+        <v>0.398054</v>
       </c>
       <c r="D68" t="n">
-        <v>0.410095</v>
+        <v>0.0479335</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0627007</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0683632</v>
+        <v>0.0658774</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0490207</v>
+        <v>0.423743</v>
       </c>
       <c r="D69" t="n">
-        <v>0.42668</v>
+        <v>0.0479617</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0673966</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0702948</v>
+        <v>0.0676307</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0496285</v>
+        <v>0.423069</v>
       </c>
       <c r="D70" t="n">
-        <v>0.448642</v>
+        <v>0.0485342</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.06473230000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0705505</v>
+        <v>0.0695679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0520705</v>
+        <v>0.442751</v>
       </c>
       <c r="D71" t="n">
-        <v>0.469454</v>
+        <v>0.049469</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.06646639999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0727058</v>
+        <v>0.0702619</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0531041</v>
+        <v>0.459857</v>
       </c>
       <c r="D72" t="n">
-        <v>0.492917</v>
+        <v>0.0515351</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0695593</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0759773</v>
+        <v>0.0727853</v>
       </c>
       <c r="C73" t="n">
-        <v>0.056182</v>
+        <v>0.479417</v>
       </c>
       <c r="D73" t="n">
-        <v>0.500665</v>
+        <v>0.0520519</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0709587</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0837223</v>
+        <v>0.077099</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0569915</v>
+        <v>0.503988</v>
       </c>
       <c r="D74" t="n">
-        <v>0.524743</v>
+        <v>0.0545625</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0748989</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08684989999999999</v>
+        <v>0.080538</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0600541</v>
+        <v>0.52499</v>
       </c>
       <c r="D75" t="n">
-        <v>0.539753</v>
+        <v>0.0565017</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0784344</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0930083</v>
+        <v>0.0851909</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06207</v>
+        <v>0.544952</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5841730000000001</v>
+        <v>0.0585877</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0865017</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.102476</v>
+        <v>0.095094</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0657876</v>
+        <v>0.56124</v>
       </c>
       <c r="D77" t="n">
-        <v>0.595432</v>
+        <v>0.0641555</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.090238</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116331</v>
+        <v>0.10687</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0758272</v>
+        <v>0.439473</v>
       </c>
       <c r="D78" t="n">
-        <v>0.442885</v>
+        <v>0.0700875</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.101362</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.140653</v>
+        <v>0.12983</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0845048</v>
+        <v>0.449164</v>
       </c>
       <c r="D79" t="n">
-        <v>0.454594</v>
+        <v>0.0810004</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.118161</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175307</v>
+        <v>0.164622</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0551512</v>
+        <v>0.466136</v>
       </c>
       <c r="D80" t="n">
-        <v>0.488987</v>
+        <v>0.0510401</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0702825</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0797004</v>
+        <v>0.0825428</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0560285</v>
+        <v>0.485608</v>
       </c>
       <c r="D81" t="n">
-        <v>0.480396</v>
+        <v>0.054881</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0770319</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08234229999999999</v>
+        <v>0.0755459</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0568386</v>
+        <v>0.497062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.526007</v>
+        <v>0.052937</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0747094</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08523119999999999</v>
+        <v>0.0768003</v>
       </c>
       <c r="C83" t="n">
-        <v>0.058144</v>
+        <v>0.507151</v>
       </c>
       <c r="D83" t="n">
-        <v>0.528247</v>
+        <v>0.0548292</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0771415</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08696189999999999</v>
+        <v>0.0804812</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0606579</v>
+        <v>0.527075</v>
       </c>
       <c r="D84" t="n">
-        <v>0.542532</v>
+        <v>0.0556916</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0814593</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0885055</v>
+        <v>0.0862309</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0604336</v>
+        <v>0.562883</v>
       </c>
       <c r="D85" t="n">
-        <v>0.563899</v>
+        <v>0.0579749</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.08403579999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0949074</v>
+        <v>0.0860334</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0676901</v>
+        <v>0.565029</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5810419999999999</v>
+        <v>0.0596232</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.087578</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0962773</v>
+        <v>0.089159</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0650768</v>
+        <v>0.578072</v>
       </c>
       <c r="D87" t="n">
-        <v>0.595149</v>
+        <v>0.06187</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0918276</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101003</v>
+        <v>0.0934574</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06816</v>
+        <v>0.595118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.61769</v>
+        <v>0.064597</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0963681</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107686</v>
+        <v>0.09875</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07100629999999999</v>
+        <v>0.614843</v>
       </c>
       <c r="D89" t="n">
-        <v>0.636668</v>
+        <v>0.0680066</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.101693</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.113167</v>
+        <v>0.106171</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0771047</v>
+        <v>0.643057</v>
       </c>
       <c r="D90" t="n">
-        <v>0.66514</v>
+        <v>0.07298</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.110246</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.126562</v>
+        <v>0.115103</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0825</v>
+        <v>0.656484</v>
       </c>
       <c r="D91" t="n">
-        <v>0.688505</v>
+        <v>0.07832409999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.118061</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139696</v>
+        <v>0.128239</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0908566</v>
+        <v>0.502945</v>
       </c>
       <c r="D92" t="n">
-        <v>0.511953</v>
+        <v>0.0860305</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.130105</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158247</v>
+        <v>0.148914</v>
       </c>
       <c r="C93" t="n">
-        <v>0.101672</v>
+        <v>0.5138</v>
       </c>
       <c r="D93" t="n">
-        <v>0.526536</v>
+        <v>0.0962234</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.149603</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195079</v>
+        <v>0.181087</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0763117</v>
+        <v>0.5263</v>
       </c>
       <c r="D94" t="n">
-        <v>0.562674</v>
+        <v>0.0707169</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.102414</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.10937</v>
+        <v>0.100442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0769798</v>
+        <v>0.538824</v>
       </c>
       <c r="D95" t="n">
-        <v>0.572547</v>
+        <v>0.0723062</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.105155</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.111917</v>
+        <v>0.102938</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0763334</v>
+        <v>0.553396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593469</v>
+        <v>0.0736759</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.108924</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.112397</v>
+        <v>0.105893</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0787955</v>
+        <v>0.5752890000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5834589999999999</v>
+        <v>0.0760354</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.11288</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.113937</v>
+        <v>0.108877</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0818451</v>
+        <v>0.593158</v>
       </c>
       <c r="D98" t="n">
-        <v>0.613866</v>
+        <v>0.0778491</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.116918</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.115522</v>
+        <v>0.112138</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0827586</v>
+        <v>0.616254</v>
       </c>
       <c r="D99" t="n">
-        <v>0.621517</v>
+        <v>0.08121100000000001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.125894</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119775</v>
+        <v>0.114043</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0854053</v>
+        <v>0.6234</v>
       </c>
       <c r="D100" t="n">
-        <v>0.659656</v>
+        <v>0.0816649</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.124896</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.126159</v>
+        <v>0.117986</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0896134</v>
+        <v>0.645904</v>
       </c>
       <c r="D101" t="n">
-        <v>0.670157</v>
+        <v>0.0844366</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.128819</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.12759</v>
+        <v>0.122089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09322950000000001</v>
+        <v>0.656497</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6863629999999999</v>
+        <v>0.0857609</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.133138</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134853</v>
+        <v>0.128401</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0925055</v>
+        <v>0.694296</v>
       </c>
       <c r="D103" t="n">
-        <v>0.716742</v>
+        <v>0.0898514</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.139654</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.141607</v>
+        <v>0.134488</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09662510000000001</v>
+        <v>0.708299</v>
       </c>
       <c r="D104" t="n">
-        <v>0.724445</v>
+        <v>0.0930754</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.145423</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150115</v>
+        <v>0.143035</v>
       </c>
       <c r="C105" t="n">
-        <v>0.102116</v>
+        <v>0.731037</v>
       </c>
       <c r="D105" t="n">
-        <v>0.788484</v>
+        <v>0.100774</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.159693</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.162271</v>
+        <v>0.15831</v>
       </c>
       <c r="C106" t="n">
-        <v>0.107861</v>
+        <v>0.758937</v>
       </c>
       <c r="D106" t="n">
-        <v>0.784177</v>
+        <v>0.106778</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.166974</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.187715</v>
+        <v>0.176782</v>
       </c>
       <c r="C107" t="n">
-        <v>0.121427</v>
+        <v>0.555029</v>
       </c>
       <c r="D107" t="n">
-        <v>0.576501</v>
+        <v>0.115474</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.183519</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225373</v>
+        <v>0.21051</v>
       </c>
       <c r="C108" t="n">
-        <v>0.159326</v>
+        <v>0.572374</v>
       </c>
       <c r="D108" t="n">
-        <v>0.600068</v>
+        <v>0.148824</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.191906</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.275551</v>
+        <v>0.26512</v>
       </c>
       <c r="C109" t="n">
-        <v>0.155356</v>
+        <v>0.580663</v>
       </c>
       <c r="D109" t="n">
-        <v>0.629948</v>
+        <v>0.15199</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.190139</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.196295</v>
+        <v>0.183095</v>
       </c>
       <c r="C110" t="n">
-        <v>0.164473</v>
+        <v>0.6412639999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.654838</v>
+        <v>0.15172</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.193222</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.203586</v>
+        <v>0.184578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.170883</v>
+        <v>0.616873</v>
       </c>
       <c r="D111" t="n">
-        <v>0.69018</v>
+        <v>0.151186</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.198032</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.200104</v>
+        <v>0.187339</v>
       </c>
       <c r="C112" t="n">
-        <v>0.165698</v>
+        <v>0.63053</v>
       </c>
       <c r="D112" t="n">
-        <v>0.706383</v>
+        <v>0.163566</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.203096</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.204859</v>
+        <v>0.189015</v>
       </c>
       <c r="C113" t="n">
-        <v>0.162952</v>
+        <v>0.647567</v>
       </c>
       <c r="D113" t="n">
-        <v>0.677565</v>
+        <v>0.157222</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.208984</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223335</v>
+        <v>0.20378</v>
       </c>
       <c r="C114" t="n">
-        <v>0.16888</v>
+        <v>0.666604</v>
       </c>
       <c r="D114" t="n">
-        <v>0.714906</v>
+        <v>0.155466</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.209497</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.213996</v>
+        <v>0.195297</v>
       </c>
       <c r="C115" t="n">
-        <v>0.169852</v>
+        <v>0.685951</v>
       </c>
       <c r="D115" t="n">
-        <v>0.730969</v>
+        <v>0.161133</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.224226</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.215772</v>
+        <v>0.209306</v>
       </c>
       <c r="C116" t="n">
-        <v>0.171399</v>
+        <v>0.72707</v>
       </c>
       <c r="D116" t="n">
-        <v>0.763388</v>
+        <v>0.164294</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.225148</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22274</v>
+        <v>0.206838</v>
       </c>
       <c r="C117" t="n">
-        <v>0.173874</v>
+        <v>0.725145</v>
       </c>
       <c r="D117" t="n">
-        <v>0.781565</v>
+        <v>0.165232</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.228905</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238798</v>
+        <v>0.214897</v>
       </c>
       <c r="C118" t="n">
-        <v>0.178975</v>
+        <v>0.746116</v>
       </c>
       <c r="D118" t="n">
-        <v>0.788762</v>
+        <v>0.166452</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.237474</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.246395</v>
+        <v>0.22643</v>
       </c>
       <c r="C119" t="n">
-        <v>0.180495</v>
+        <v>0.770338</v>
       </c>
       <c r="D119" t="n">
-        <v>0.813026</v>
+        <v>0.18214</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.243031</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254487</v>
+        <v>0.232957</v>
       </c>
       <c r="C120" t="n">
-        <v>0.189198</v>
+        <v>0.806368</v>
       </c>
       <c r="D120" t="n">
-        <v>0.834212</v>
+        <v>0.181432</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.256282</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.268021</v>
+        <v>0.274747</v>
       </c>
       <c r="C121" t="n">
-        <v>0.204997</v>
+        <v>0.613347</v>
       </c>
       <c r="D121" t="n">
-        <v>0.643195</v>
+        <v>0.188409</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.279128</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.313896</v>
+        <v>0.295427</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214257</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.647728</v>
+        <v>0.214176</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.30468</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.369896</v>
+        <v>0.345619</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246997</v>
+        <v>0.6460630000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.692318</v>
+        <v>0.236717</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.290287</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.308811</v>
+        <v>0.299834</v>
       </c>
       <c r="C124" t="n">
-        <v>0.24672</v>
+        <v>0.662758</v>
       </c>
       <c r="D124" t="n">
-        <v>0.70768</v>
+        <v>0.236107</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.293214</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310609</v>
+        <v>0.296952</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247885</v>
+        <v>0.684635</v>
       </c>
       <c r="D125" t="n">
-        <v>0.736277</v>
+        <v>0.24184</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.299984</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315809</v>
+        <v>0.307314</v>
       </c>
       <c r="C126" t="n">
-        <v>0.248441</v>
+        <v>0.708995</v>
       </c>
       <c r="D126" t="n">
-        <v>0.760748</v>
+        <v>0.243307</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.301748</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.318983</v>
+        <v>0.301949</v>
       </c>
       <c r="C127" t="n">
-        <v>0.258655</v>
+        <v>0.718705</v>
       </c>
       <c r="D127" t="n">
-        <v>0.791511</v>
+        <v>0.239348</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.304705</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326709</v>
+        <v>0.313226</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257308</v>
+        <v>0.747097</v>
       </c>
       <c r="D128" t="n">
-        <v>0.794478</v>
+        <v>0.248476</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.323834</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.335941</v>
+        <v>0.313067</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260203</v>
+        <v>0.776209</v>
       </c>
       <c r="D129" t="n">
-        <v>0.836427</v>
+        <v>0.248242</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.317076</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.336588</v>
+        <v>0.329872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.263717</v>
+        <v>0.80318</v>
       </c>
       <c r="D130" t="n">
-        <v>0.863049</v>
+        <v>0.247306</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.322567</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.340559</v>
+        <v>0.324673</v>
       </c>
       <c r="C131" t="n">
-        <v>0.267526</v>
+        <v>0.828333</v>
       </c>
       <c r="D131" t="n">
-        <v>0.891213</v>
+        <v>0.252468</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.33382</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360424</v>
+        <v>0.334585</v>
       </c>
       <c r="C132" t="n">
-        <v>0.272993</v>
+        <v>0.853347</v>
       </c>
       <c r="D132" t="n">
-        <v>0.921368</v>
+        <v>0.263218</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.339769</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.359292</v>
+        <v>0.353702</v>
       </c>
       <c r="C133" t="n">
-        <v>0.274821</v>
+        <v>0.877582</v>
       </c>
       <c r="D133" t="n">
-        <v>0.969024</v>
+        <v>0.261092</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.356186</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.383388</v>
+        <v>0.370948</v>
       </c>
       <c r="C134" t="n">
-        <v>0.284894</v>
+        <v>0.920564</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01715</v>
+        <v>0.26956</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.371514</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.408585</v>
+        <v>0.390444</v>
       </c>
       <c r="C135" t="n">
-        <v>0.301535</v>
+        <v>0.766554</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8433890000000001</v>
+        <v>0.278954</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.383531</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.459769</v>
+        <v>0.432007</v>
       </c>
       <c r="C136" t="n">
-        <v>0.317154</v>
+        <v>0.786483</v>
       </c>
       <c r="D136" t="n">
-        <v>0.856427</v>
+        <v>0.302382</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.414803</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.542967</v>
+        <v>0.52036</v>
       </c>
       <c r="C137" t="n">
-        <v>0.302668</v>
+        <v>0.825855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.899759</v>
+        <v>0.290451</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.34971</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.382091</v>
+        <v>0.366248</v>
       </c>
       <c r="C138" t="n">
-        <v>0.308198</v>
+        <v>0.848259</v>
       </c>
       <c r="D138" t="n">
-        <v>0.918702</v>
+        <v>0.292981</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.35496</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.375295</v>
+        <v>0.369195</v>
       </c>
       <c r="C139" t="n">
-        <v>0.30848</v>
+        <v>0.8802680000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.966194</v>
+        <v>0.295888</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.356504</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.38926</v>
+        <v>0.368867</v>
       </c>
       <c r="C140" t="n">
-        <v>0.312069</v>
+        <v>0.905837</v>
       </c>
       <c r="D140" t="n">
-        <v>0.990389</v>
+        <v>0.294664</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.368501</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391648</v>
+        <v>0.382172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.315592</v>
+        <v>0.9330270000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>1.0294</v>
+        <v>0.300559</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.3707</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.39928</v>
+        <v>0.383276</v>
       </c>
       <c r="C142" t="n">
-        <v>0.319803</v>
+        <v>0.983385</v>
       </c>
       <c r="D142" t="n">
-        <v>1.06359</v>
+        <v>0.302329</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.377204</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.411805</v>
+        <v>0.388234</v>
       </c>
       <c r="C143" t="n">
-        <v>0.319582</v>
+        <v>1.01183</v>
       </c>
       <c r="D143" t="n">
-        <v>1.10171</v>
+        <v>0.303655</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.386038</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0401328</v>
+        <v>0.0398311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111186</v>
+        <v>0.0403718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0315187</v>
+        <v>0.0319431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0330441</v>
+        <v>0.033111</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0420397</v>
+        <v>0.0425634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113668</v>
+        <v>0.0428615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0319832</v>
+        <v>0.032287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0334412</v>
+        <v>0.0334405</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0443631</v>
+        <v>0.0466384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.118875</v>
+        <v>0.0448137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0328063</v>
+        <v>0.0333142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0346067</v>
+        <v>0.0345467</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0489297</v>
+        <v>0.0524867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124658</v>
+        <v>0.0496006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0351251</v>
+        <v>0.0352733</v>
       </c>
       <c r="E5" t="n">
-        <v>0.036479</v>
+        <v>0.0361875</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0564134</v>
+        <v>0.0565448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.129769</v>
+        <v>0.0575099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0393101</v>
+        <v>0.0392527</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0397387</v>
+        <v>0.0389549</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0711318</v>
+        <v>0.0725399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0951076</v>
+        <v>0.0694975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0469535</v>
+        <v>0.047349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0462723</v>
+        <v>0.0454819</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09444080000000001</v>
+        <v>0.0871242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09926260000000001</v>
+        <v>0.084103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0575227</v>
+        <v>0.0576085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0578036</v>
+        <v>0.0569452</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12395</v>
+        <v>0.121486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104035</v>
+        <v>0.112547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300908</v>
+        <v>0.0298071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0320902</v>
+        <v>0.0321897</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0385666</v>
+        <v>0.0380133</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108217</v>
+        <v>0.0401914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0298142</v>
+        <v>0.0299317</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0323882</v>
+        <v>0.0327959</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0389489</v>
+        <v>0.0384427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111437</v>
+        <v>0.0407991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030063</v>
+        <v>0.0303308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0326764</v>
+        <v>0.0329043</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0394386</v>
+        <v>0.0399648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115558</v>
+        <v>0.0416996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0303926</v>
+        <v>0.0305438</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0330612</v>
+        <v>0.0333601</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.040232</v>
+        <v>0.0396251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.119551</v>
+        <v>0.0424691</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0307825</v>
+        <v>0.0308415</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0338054</v>
+        <v>0.0337556</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0417183</v>
+        <v>0.0403005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.123809</v>
+        <v>0.0434698</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0310284</v>
+        <v>0.031131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0343267</v>
+        <v>0.0344693</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0426774</v>
+        <v>0.0411321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127482</v>
+        <v>0.0446967</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0316126</v>
+        <v>0.031788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0350997</v>
+        <v>0.0349771</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0436446</v>
+        <v>0.0436851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1345</v>
+        <v>0.0460352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0328065</v>
+        <v>0.033171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0359307</v>
+        <v>0.0356619</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460218</v>
+        <v>0.0453742</v>
       </c>
       <c r="C17" t="n">
-        <v>0.134175</v>
+        <v>0.0491928</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0336334</v>
+        <v>0.0340981</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0368671</v>
+        <v>0.036643</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508113</v>
+        <v>0.0479709</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138248</v>
+        <v>0.0513848</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0346644</v>
+        <v>0.0351434</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0381072</v>
+        <v>0.037796</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0561808</v>
+        <v>0.0529713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.142761</v>
+        <v>0.0569001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367125</v>
+        <v>0.0369413</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04071</v>
+        <v>0.0397155</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0635918</v>
+        <v>0.0596441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.146701</v>
+        <v>0.0642879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0404131</v>
+        <v>0.0408039</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0452934</v>
+        <v>0.0439693</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0739645</v>
+        <v>0.0700175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111305</v>
+        <v>0.0753446</v>
       </c>
       <c r="D21" t="n">
-        <v>0.046208</v>
+        <v>0.0455074</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0515517</v>
+        <v>0.0500225</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09378839999999999</v>
+        <v>0.08971949999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113663</v>
+        <v>0.09446599999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0571217</v>
+        <v>0.0571574</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0619574</v>
+        <v>0.0619512</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12042</v>
+        <v>0.121347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116057</v>
+        <v>0.12622</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0304369</v>
+        <v>0.0310824</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0348957</v>
+        <v>0.0348485</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0409712</v>
+        <v>0.0412265</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120987</v>
+        <v>0.0453487</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0307436</v>
+        <v>0.0308289</v>
       </c>
       <c r="E24" t="n">
-        <v>0.035867</v>
+        <v>0.0358985</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0416735</v>
+        <v>0.0414603</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123081</v>
+        <v>0.0456742</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0307509</v>
+        <v>0.0311097</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0353902</v>
+        <v>0.0356892</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0420041</v>
+        <v>0.0424115</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128428</v>
+        <v>0.0475889</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0310375</v>
+        <v>0.0310752</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0363118</v>
+        <v>0.0366491</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0429296</v>
+        <v>0.0452347</v>
       </c>
       <c r="C27" t="n">
-        <v>0.13199</v>
+        <v>0.0485184</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0314817</v>
+        <v>0.031542</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0365921</v>
+        <v>0.037619</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0438854</v>
+        <v>0.0444578</v>
       </c>
       <c r="C28" t="n">
-        <v>0.138508</v>
+        <v>0.049537</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0330533</v>
+        <v>0.0319649</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0386159</v>
+        <v>0.0384873</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0452449</v>
+        <v>0.0450455</v>
       </c>
       <c r="C29" t="n">
-        <v>0.141726</v>
+        <v>0.0513133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0327061</v>
+        <v>0.0326796</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0390979</v>
+        <v>0.0395434</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0469856</v>
+        <v>0.0464805</v>
       </c>
       <c r="C30" t="n">
-        <v>0.143655</v>
+        <v>0.0554021</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0330749</v>
+        <v>0.0333227</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0399837</v>
+        <v>0.0404956</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0489906</v>
+        <v>0.049671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.150264</v>
+        <v>0.0590876</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0346092</v>
+        <v>0.0351962</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0408892</v>
+        <v>0.0422041</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0543927</v>
+        <v>0.0524465</v>
       </c>
       <c r="C32" t="n">
-        <v>0.152595</v>
+        <v>0.061588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0350648</v>
+        <v>0.0351915</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0419838</v>
+        <v>0.0433442</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581797</v>
+        <v>0.0575179</v>
       </c>
       <c r="C33" t="n">
-        <v>0.163602</v>
+        <v>0.0667164</v>
       </c>
       <c r="D33" t="n">
-        <v>0.036907</v>
+        <v>0.0369494</v>
       </c>
       <c r="E33" t="n">
-        <v>0.043971</v>
+        <v>0.0452866</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06528879999999999</v>
+        <v>0.06417100000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.163716</v>
+        <v>0.073911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0403565</v>
+        <v>0.0402687</v>
       </c>
       <c r="E34" t="n">
-        <v>0.047344</v>
+        <v>0.0491069</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0751807</v>
+        <v>0.0745405</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123869</v>
+        <v>0.0836886</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0461912</v>
+        <v>0.0459344</v>
       </c>
       <c r="E35" t="n">
-        <v>0.053714</v>
+        <v>0.0545333</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0924314</v>
+        <v>0.0911648</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130166</v>
+        <v>0.100614</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0534978</v>
+        <v>0.0534949</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0616268</v>
+        <v>0.0633383</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120187</v>
+        <v>0.117923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135089</v>
+        <v>0.125107</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0333603</v>
+        <v>0.0338264</v>
       </c>
       <c r="E37" t="n">
-        <v>0.043224</v>
+        <v>0.0431298</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0453857</v>
+        <v>0.0464716</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141225</v>
+        <v>0.0568343</v>
       </c>
       <c r="D38" t="n">
-        <v>0.033459</v>
+        <v>0.0334614</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0424831</v>
+        <v>0.0423791</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0458321</v>
+        <v>0.0463368</v>
       </c>
       <c r="C39" t="n">
-        <v>0.151895</v>
+        <v>0.0581045</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03484</v>
+        <v>0.0338824</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0447591</v>
+        <v>0.0432621</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0467788</v>
+        <v>0.0464733</v>
       </c>
       <c r="C40" t="n">
-        <v>0.158291</v>
+        <v>0.0618634</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0340731</v>
+        <v>0.0350557</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0442501</v>
+        <v>0.0471812</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0481845</v>
+        <v>0.0484366</v>
       </c>
       <c r="C41" t="n">
-        <v>0.168342</v>
+        <v>0.0607314</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0349108</v>
+        <v>0.0346931</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0457749</v>
+        <v>0.0463052</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.048617</v>
+        <v>0.0481092</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177411</v>
+        <v>0.06264459999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0354629</v>
+        <v>0.036894</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0466323</v>
+        <v>0.0470502</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.049159</v>
+        <v>0.0491242</v>
       </c>
       <c r="C43" t="n">
-        <v>0.187001</v>
+        <v>0.06681140000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0363404</v>
+        <v>0.0355161</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0478899</v>
+        <v>0.0478112</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0510441</v>
+        <v>0.0513231</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196542</v>
+        <v>0.06727180000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0368973</v>
+        <v>0.0367791</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0498833</v>
+        <v>0.0492151</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0530618</v>
+        <v>0.0530562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21388</v>
+        <v>0.070812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0375454</v>
+        <v>0.0372535</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0512274</v>
+        <v>0.0511846</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0565394</v>
+        <v>0.0566676</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21966</v>
+        <v>0.07949680000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0394688</v>
+        <v>0.041697</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0526871</v>
+        <v>0.054837</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061001</v>
+        <v>0.063309</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231514</v>
+        <v>0.0818671</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0402122</v>
+        <v>0.0408745</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0549756</v>
+        <v>0.056472</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0671433</v>
+        <v>0.0681175</v>
       </c>
       <c r="C48" t="n">
-        <v>0.247666</v>
+        <v>0.0871876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0428944</v>
+        <v>0.0439379</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0589192</v>
+        <v>0.0585919</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0763918</v>
+        <v>0.07548009999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.262916</v>
+        <v>0.0973049</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0468719</v>
+        <v>0.0478197</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06332450000000001</v>
+        <v>0.065001</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09345729999999999</v>
+        <v>0.0903204</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212322</v>
+        <v>0.115175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0534782</v>
+        <v>0.0535228</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0709637</v>
+        <v>0.0712956</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116824</v>
+        <v>0.113526</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224741</v>
+        <v>0.135587</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0402451</v>
+        <v>0.0402456</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0521435</v>
+        <v>0.0523049</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15452</v>
+        <v>0.153554</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238991</v>
+        <v>0.176368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0412361</v>
+        <v>0.0408513</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0526807</v>
+        <v>0.0525715</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0560492</v>
+        <v>0.0560999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.252266</v>
+        <v>0.078775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0416517</v>
+        <v>0.0435581</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0530033</v>
+        <v>0.0552927</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0563245</v>
+        <v>0.0588202</v>
       </c>
       <c r="C54" t="n">
-        <v>0.269184</v>
+        <v>0.0775569</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0415036</v>
+        <v>0.0425567</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0541272</v>
+        <v>0.0546444</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0571569</v>
+        <v>0.0567316</v>
       </c>
       <c r="C55" t="n">
-        <v>0.274212</v>
+        <v>0.07696219999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.043004</v>
+        <v>0.042973</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0552165</v>
+        <v>0.0559428</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0590235</v>
+        <v>0.0591348</v>
       </c>
       <c r="C56" t="n">
-        <v>0.291901</v>
+        <v>0.0796076</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0437117</v>
+        <v>0.0437166</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0562733</v>
+        <v>0.0588269</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0612237</v>
+        <v>0.0588068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.305341</v>
+        <v>0.0819235</v>
       </c>
       <c r="D57" t="n">
-        <v>0.044512</v>
+        <v>0.0436573</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0591397</v>
+        <v>0.0581906</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0625815</v>
+        <v>0.0628552</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323895</v>
+        <v>0.0852646</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0447589</v>
+        <v>0.0444955</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0596749</v>
+        <v>0.0615799</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06297369999999999</v>
+        <v>0.0635868</v>
       </c>
       <c r="C59" t="n">
-        <v>0.341529</v>
+        <v>0.0945824</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0457032</v>
+        <v>0.0461024</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0614015</v>
+        <v>0.06172</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06689290000000001</v>
+        <v>0.0670645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.358865</v>
+        <v>0.094775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0472149</v>
+        <v>0.0476256</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0636694</v>
+        <v>0.06420720000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0700766</v>
+        <v>0.0709345</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378546</v>
+        <v>0.09937260000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0495257</v>
+        <v>0.0490574</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0675137</v>
+        <v>0.06721489999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07574</v>
+        <v>0.0749102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.404949</v>
+        <v>0.107467</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0516458</v>
+        <v>0.0519757</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0705648</v>
+        <v>0.0709664</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08464140000000001</v>
+        <v>0.08457240000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.423924</v>
+        <v>0.120108</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0557063</v>
+        <v>0.0564088</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07696169999999999</v>
+        <v>0.077385</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09793830000000001</v>
+        <v>0.0994172</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334635</v>
+        <v>0.137806</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0624579</v>
+        <v>0.06265370000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0844123</v>
+        <v>0.0855138</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120708</v>
+        <v>0.11855</v>
       </c>
       <c r="C65" t="n">
-        <v>0.352845</v>
+        <v>0.16341</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0753345</v>
+        <v>0.0733157</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0982005</v>
+        <v>0.0978774</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156662</v>
+        <v>0.154899</v>
       </c>
       <c r="C66" t="n">
-        <v>0.371921</v>
+        <v>0.202032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0458096</v>
+        <v>0.0460926</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0590508</v>
+        <v>0.0600262</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06385490000000001</v>
+        <v>0.0647836</v>
       </c>
       <c r="C67" t="n">
-        <v>0.381189</v>
+        <v>0.0879524</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0468359</v>
+        <v>0.0470534</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0615432</v>
+        <v>0.0615906</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.064956</v>
+        <v>0.0655955</v>
       </c>
       <c r="C68" t="n">
-        <v>0.398054</v>
+        <v>0.09074889999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0479335</v>
+        <v>0.0473975</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0627007</v>
+        <v>0.065404</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0658774</v>
+        <v>0.06607209999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.423743</v>
+        <v>0.0923245</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0479617</v>
+        <v>0.0480153</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0673966</v>
+        <v>0.0633499</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0676307</v>
+        <v>0.0690703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.423069</v>
+        <v>0.0992666</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0485342</v>
+        <v>0.0499955</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06473230000000001</v>
+        <v>0.0658092</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0695679</v>
+        <v>0.0692865</v>
       </c>
       <c r="C71" t="n">
-        <v>0.442751</v>
+        <v>0.102832</v>
       </c>
       <c r="D71" t="n">
-        <v>0.049469</v>
+        <v>0.0504541</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06646639999999999</v>
+        <v>0.06917429999999999</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0702619</v>
+        <v>0.0729871</v>
       </c>
       <c r="C72" t="n">
-        <v>0.459857</v>
+        <v>0.105641</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0515351</v>
+        <v>0.0519294</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0695593</v>
+        <v>0.07108639999999999</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727853</v>
+        <v>0.0745691</v>
       </c>
       <c r="C73" t="n">
-        <v>0.479417</v>
+        <v>0.109358</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0520519</v>
+        <v>0.0528465</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0709587</v>
+        <v>0.07310759999999999</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.077099</v>
+        <v>0.0768682</v>
       </c>
       <c r="C74" t="n">
-        <v>0.503988</v>
+        <v>0.116029</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0545625</v>
+        <v>0.0550002</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0748989</v>
+        <v>0.0754552</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.080538</v>
+        <v>0.0828719</v>
       </c>
       <c r="C75" t="n">
-        <v>0.52499</v>
+        <v>0.125573</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0565017</v>
+        <v>0.0561351</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0784344</v>
+        <v>0.07939499999999999</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0851909</v>
+        <v>0.08733349999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.544952</v>
+        <v>0.143876</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0585877</v>
+        <v>0.0593282</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0865017</v>
+        <v>0.08346679999999999</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.095094</v>
+        <v>0.100046</v>
       </c>
       <c r="C77" t="n">
-        <v>0.56124</v>
+        <v>0.150529</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0641555</v>
+        <v>0.06628240000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.090238</v>
+        <v>0.09171749999999999</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10687</v>
+        <v>0.108785</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439473</v>
+        <v>0.171345</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0700875</v>
+        <v>0.07049329999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.101362</v>
+        <v>0.101216</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.12983</v>
+        <v>0.129194</v>
       </c>
       <c r="C79" t="n">
-        <v>0.449164</v>
+        <v>0.201425</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0810004</v>
+        <v>0.08245039999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.118161</v>
+        <v>0.117052</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164622</v>
+        <v>0.163446</v>
       </c>
       <c r="C80" t="n">
-        <v>0.466136</v>
+        <v>0.250636</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0510401</v>
+        <v>0.0515928</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0702825</v>
+        <v>0.0703434</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0825428</v>
+        <v>0.07734340000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.485608</v>
+        <v>0.109496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.054881</v>
+        <v>0.0528242</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0770319</v>
+        <v>0.0755528</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0755459</v>
+        <v>0.0769224</v>
       </c>
       <c r="C82" t="n">
-        <v>0.497062</v>
+        <v>0.121454</v>
       </c>
       <c r="D82" t="n">
-        <v>0.052937</v>
+        <v>0.0531738</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0747094</v>
+        <v>0.0744707</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0768003</v>
+        <v>0.0778196</v>
       </c>
       <c r="C83" t="n">
-        <v>0.507151</v>
+        <v>0.129448</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0548292</v>
+        <v>0.0555287</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0771415</v>
+        <v>0.0795188</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0804812</v>
+        <v>0.0823691</v>
       </c>
       <c r="C84" t="n">
-        <v>0.527075</v>
+        <v>0.128768</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0556916</v>
+        <v>0.0565508</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0814593</v>
+        <v>0.08068400000000001</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0862309</v>
+        <v>0.0848067</v>
       </c>
       <c r="C85" t="n">
-        <v>0.562883</v>
+        <v>0.133577</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0579749</v>
+        <v>0.0584785</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08403579999999999</v>
+        <v>0.09091970000000001</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0860334</v>
+        <v>0.0861069</v>
       </c>
       <c r="C86" t="n">
-        <v>0.565029</v>
+        <v>0.137812</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0596232</v>
+        <v>0.0618207</v>
       </c>
       <c r="E86" t="n">
-        <v>0.087578</v>
+        <v>0.0895012</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.089159</v>
+        <v>0.0908617</v>
       </c>
       <c r="C87" t="n">
-        <v>0.578072</v>
+        <v>0.14368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06187</v>
+        <v>0.0618928</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0918276</v>
+        <v>0.0950208</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0934574</v>
+        <v>0.09557980000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.595118</v>
+        <v>0.153945</v>
       </c>
       <c r="D88" t="n">
-        <v>0.064597</v>
+        <v>0.0642641</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0963681</v>
+        <v>0.0972215</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09875</v>
+        <v>0.0993525</v>
       </c>
       <c r="C89" t="n">
-        <v>0.614843</v>
+        <v>0.161088</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0680066</v>
+        <v>0.0677944</v>
       </c>
       <c r="E89" t="n">
-        <v>0.101693</v>
+        <v>0.103121</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.106171</v>
+        <v>0.107055</v>
       </c>
       <c r="C90" t="n">
-        <v>0.643057</v>
+        <v>0.172299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07298</v>
+        <v>0.0733877</v>
       </c>
       <c r="E90" t="n">
-        <v>0.110246</v>
+        <v>0.110626</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.115103</v>
+        <v>0.115648</v>
       </c>
       <c r="C91" t="n">
-        <v>0.656484</v>
+        <v>0.189388</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07832409999999999</v>
+        <v>0.0767357</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118061</v>
+        <v>0.116937</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.128239</v>
+        <v>0.129957</v>
       </c>
       <c r="C92" t="n">
-        <v>0.502945</v>
+        <v>0.210404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0860305</v>
+        <v>0.0853492</v>
       </c>
       <c r="E92" t="n">
-        <v>0.130105</v>
+        <v>0.127226</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148914</v>
+        <v>0.148073</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5138</v>
+        <v>0.259477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0962234</v>
+        <v>0.0957968</v>
       </c>
       <c r="E93" t="n">
-        <v>0.149603</v>
+        <v>0.144071</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.181087</v>
+        <v>0.181473</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5263</v>
+        <v>0.28805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0707169</v>
+        <v>0.0710209</v>
       </c>
       <c r="E94" t="n">
-        <v>0.102414</v>
+        <v>0.102429</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.100442</v>
+        <v>0.101542</v>
       </c>
       <c r="C95" t="n">
-        <v>0.538824</v>
+        <v>0.155332</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0723062</v>
+        <v>0.0725727</v>
       </c>
       <c r="E95" t="n">
-        <v>0.105155</v>
+        <v>0.105841</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.102938</v>
+        <v>0.10303</v>
       </c>
       <c r="C96" t="n">
-        <v>0.553396</v>
+        <v>0.158309</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0736759</v>
+        <v>0.07829029999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.108924</v>
+        <v>0.110003</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.105893</v>
+        <v>0.105609</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5752890000000001</v>
+        <v>0.16885</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0760354</v>
+        <v>0.0766507</v>
       </c>
       <c r="E97" t="n">
-        <v>0.11288</v>
+        <v>0.11486</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.108877</v>
+        <v>0.107852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.593158</v>
+        <v>0.170084</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0778491</v>
+        <v>0.0780652</v>
       </c>
       <c r="E98" t="n">
-        <v>0.116918</v>
+        <v>0.116597</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.112138</v>
+        <v>0.111049</v>
       </c>
       <c r="C99" t="n">
-        <v>0.616254</v>
+        <v>0.179467</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08121100000000001</v>
+        <v>0.0796198</v>
       </c>
       <c r="E99" t="n">
-        <v>0.125894</v>
+        <v>0.120427</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.114043</v>
+        <v>0.115037</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6234</v>
+        <v>0.182977</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0816649</v>
+        <v>0.0826081</v>
       </c>
       <c r="E100" t="n">
-        <v>0.124896</v>
+        <v>0.130434</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.117986</v>
+        <v>0.117231</v>
       </c>
       <c r="C101" t="n">
-        <v>0.645904</v>
+        <v>0.18986</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0844366</v>
+        <v>0.087726</v>
       </c>
       <c r="E101" t="n">
-        <v>0.128819</v>
+        <v>0.128762</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.122089</v>
+        <v>0.127042</v>
       </c>
       <c r="C102" t="n">
-        <v>0.656497</v>
+        <v>0.200003</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0857609</v>
+        <v>0.08666020000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.133138</v>
+        <v>0.134972</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.128401</v>
+        <v>0.128281</v>
       </c>
       <c r="C103" t="n">
-        <v>0.694296</v>
+        <v>0.208953</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0898514</v>
+        <v>0.0899054</v>
       </c>
       <c r="E103" t="n">
-        <v>0.139654</v>
+        <v>0.139638</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.134488</v>
+        <v>0.133852</v>
       </c>
       <c r="C104" t="n">
-        <v>0.708299</v>
+        <v>0.233585</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0930754</v>
+        <v>0.0940632</v>
       </c>
       <c r="E104" t="n">
-        <v>0.145423</v>
+        <v>0.147292</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.143035</v>
+        <v>0.144419</v>
       </c>
       <c r="C105" t="n">
-        <v>0.731037</v>
+        <v>0.236559</v>
       </c>
       <c r="D105" t="n">
-        <v>0.100774</v>
+        <v>0.09811</v>
       </c>
       <c r="E105" t="n">
-        <v>0.159693</v>
+        <v>0.154794</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.15831</v>
+        <v>0.15664</v>
       </c>
       <c r="C106" t="n">
-        <v>0.758937</v>
+        <v>0.261385</v>
       </c>
       <c r="D106" t="n">
-        <v>0.106778</v>
+        <v>0.106258</v>
       </c>
       <c r="E106" t="n">
-        <v>0.166974</v>
+        <v>0.17242</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.176782</v>
+        <v>0.180107</v>
       </c>
       <c r="C107" t="n">
-        <v>0.555029</v>
+        <v>0.291667</v>
       </c>
       <c r="D107" t="n">
-        <v>0.115474</v>
+        <v>0.117007</v>
       </c>
       <c r="E107" t="n">
-        <v>0.183519</v>
+        <v>0.182542</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.21051</v>
+        <v>0.208309</v>
       </c>
       <c r="C108" t="n">
-        <v>0.572374</v>
+        <v>0.341051</v>
       </c>
       <c r="D108" t="n">
-        <v>0.148824</v>
+        <v>0.14908</v>
       </c>
       <c r="E108" t="n">
-        <v>0.191906</v>
+        <v>0.192652</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26512</v>
+        <v>0.266562</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580663</v>
+        <v>0.427261</v>
       </c>
       <c r="D109" t="n">
-        <v>0.15199</v>
+        <v>0.151125</v>
       </c>
       <c r="E109" t="n">
-        <v>0.190139</v>
+        <v>0.194681</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.183095</v>
+        <v>0.19197</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6412639999999999</v>
+        <v>0.246194</v>
       </c>
       <c r="D110" t="n">
-        <v>0.15172</v>
+        <v>0.151706</v>
       </c>
       <c r="E110" t="n">
-        <v>0.193222</v>
+        <v>0.193361</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.184578</v>
+        <v>0.199551</v>
       </c>
       <c r="C111" t="n">
-        <v>0.616873</v>
+        <v>0.257987</v>
       </c>
       <c r="D111" t="n">
-        <v>0.151186</v>
+        <v>0.153303</v>
       </c>
       <c r="E111" t="n">
-        <v>0.198032</v>
+        <v>0.202614</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.187339</v>
+        <v>0.187125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.63053</v>
+        <v>0.26485</v>
       </c>
       <c r="D112" t="n">
-        <v>0.163566</v>
+        <v>0.157436</v>
       </c>
       <c r="E112" t="n">
-        <v>0.203096</v>
+        <v>0.204208</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.189015</v>
+        <v>0.190759</v>
       </c>
       <c r="C113" t="n">
-        <v>0.647567</v>
+        <v>0.275135</v>
       </c>
       <c r="D113" t="n">
-        <v>0.157222</v>
+        <v>0.155331</v>
       </c>
       <c r="E113" t="n">
-        <v>0.208984</v>
+        <v>0.208742</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20378</v>
+        <v>0.201873</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666604</v>
+        <v>0.277072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.155466</v>
+        <v>0.158666</v>
       </c>
       <c r="E114" t="n">
-        <v>0.209497</v>
+        <v>0.213187</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.195297</v>
+        <v>0.199116</v>
       </c>
       <c r="C115" t="n">
-        <v>0.685951</v>
+        <v>0.28988</v>
       </c>
       <c r="D115" t="n">
-        <v>0.161133</v>
+        <v>0.158802</v>
       </c>
       <c r="E115" t="n">
-        <v>0.224226</v>
+        <v>0.219479</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209306</v>
+        <v>0.200957</v>
       </c>
       <c r="C116" t="n">
-        <v>0.72707</v>
+        <v>0.296955</v>
       </c>
       <c r="D116" t="n">
-        <v>0.164294</v>
+        <v>0.160778</v>
       </c>
       <c r="E116" t="n">
-        <v>0.225148</v>
+        <v>0.221053</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206838</v>
+        <v>0.204965</v>
       </c>
       <c r="C117" t="n">
-        <v>0.725145</v>
+        <v>0.302287</v>
       </c>
       <c r="D117" t="n">
-        <v>0.165232</v>
+        <v>0.168023</v>
       </c>
       <c r="E117" t="n">
-        <v>0.228905</v>
+        <v>0.227451</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214897</v>
+        <v>0.230202</v>
       </c>
       <c r="C118" t="n">
-        <v>0.746116</v>
+        <v>0.31779</v>
       </c>
       <c r="D118" t="n">
-        <v>0.166452</v>
+        <v>0.16538</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237474</v>
+        <v>0.238136</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.22643</v>
+        <v>0.251024</v>
       </c>
       <c r="C119" t="n">
-        <v>0.770338</v>
+        <v>0.343597</v>
       </c>
       <c r="D119" t="n">
-        <v>0.18214</v>
+        <v>0.173686</v>
       </c>
       <c r="E119" t="n">
-        <v>0.243031</v>
+        <v>0.247995</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232957</v>
+        <v>0.237146</v>
       </c>
       <c r="C120" t="n">
-        <v>0.806368</v>
+        <v>0.361481</v>
       </c>
       <c r="D120" t="n">
-        <v>0.181432</v>
+        <v>0.178635</v>
       </c>
       <c r="E120" t="n">
-        <v>0.256282</v>
+        <v>0.256544</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.274747</v>
+        <v>0.253263</v>
       </c>
       <c r="C121" t="n">
-        <v>0.613347</v>
+        <v>0.398043</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188409</v>
+        <v>0.187662</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279128</v>
+        <v>0.27444</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295427</v>
+        <v>0.292541</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6303299999999999</v>
+        <v>0.461755</v>
       </c>
       <c r="D122" t="n">
-        <v>0.214176</v>
+        <v>0.206663</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30468</v>
+        <v>0.306573</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.345619</v>
+        <v>0.35033</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6460630000000001</v>
+        <v>0.573335</v>
       </c>
       <c r="D123" t="n">
-        <v>0.236717</v>
+        <v>0.237019</v>
       </c>
       <c r="E123" t="n">
-        <v>0.290287</v>
+        <v>0.295629</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.299834</v>
+        <v>0.299049</v>
       </c>
       <c r="C124" t="n">
-        <v>0.662758</v>
+        <v>0.375058</v>
       </c>
       <c r="D124" t="n">
-        <v>0.236107</v>
+        <v>0.235675</v>
       </c>
       <c r="E124" t="n">
-        <v>0.293214</v>
+        <v>0.290979</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.296952</v>
+        <v>0.295647</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684635</v>
+        <v>0.374521</v>
       </c>
       <c r="D125" t="n">
-        <v>0.24184</v>
+        <v>0.242216</v>
       </c>
       <c r="E125" t="n">
-        <v>0.299984</v>
+        <v>0.304073</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307314</v>
+        <v>0.299718</v>
       </c>
       <c r="C126" t="n">
-        <v>0.708995</v>
+        <v>0.377897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.243307</v>
+        <v>0.239605</v>
       </c>
       <c r="E126" t="n">
-        <v>0.301748</v>
+        <v>0.302581</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301949</v>
+        <v>0.306152</v>
       </c>
       <c r="C127" t="n">
-        <v>0.718705</v>
+        <v>0.392285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.239348</v>
+        <v>0.242333</v>
       </c>
       <c r="E127" t="n">
-        <v>0.304705</v>
+        <v>0.307955</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.313226</v>
+        <v>0.310467</v>
       </c>
       <c r="C128" t="n">
-        <v>0.747097</v>
+        <v>0.39537</v>
       </c>
       <c r="D128" t="n">
-        <v>0.248476</v>
+        <v>0.244754</v>
       </c>
       <c r="E128" t="n">
-        <v>0.323834</v>
+        <v>0.319489</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313067</v>
+        <v>0.310501</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776209</v>
+        <v>0.40419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248242</v>
+        <v>0.251159</v>
       </c>
       <c r="E129" t="n">
-        <v>0.317076</v>
+        <v>0.324863</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.329872</v>
+        <v>0.331232</v>
       </c>
       <c r="C130" t="n">
-        <v>0.80318</v>
+        <v>0.428361</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247306</v>
+        <v>0.251329</v>
       </c>
       <c r="E130" t="n">
-        <v>0.322567</v>
+        <v>0.324273</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.324673</v>
+        <v>0.327716</v>
       </c>
       <c r="C131" t="n">
-        <v>0.828333</v>
+        <v>0.436993</v>
       </c>
       <c r="D131" t="n">
-        <v>0.252468</v>
+        <v>0.252069</v>
       </c>
       <c r="E131" t="n">
-        <v>0.33382</v>
+        <v>0.336361</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334585</v>
+        <v>0.341249</v>
       </c>
       <c r="C132" t="n">
-        <v>0.853347</v>
+        <v>0.440774</v>
       </c>
       <c r="D132" t="n">
-        <v>0.263218</v>
+        <v>0.257285</v>
       </c>
       <c r="E132" t="n">
-        <v>0.339769</v>
+        <v>0.346351</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.353702</v>
+        <v>0.348391</v>
       </c>
       <c r="C133" t="n">
-        <v>0.877582</v>
+        <v>0.464955</v>
       </c>
       <c r="D133" t="n">
-        <v>0.261092</v>
+        <v>0.263416</v>
       </c>
       <c r="E133" t="n">
-        <v>0.356186</v>
+        <v>0.351367</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370948</v>
+        <v>0.36512</v>
       </c>
       <c r="C134" t="n">
-        <v>0.920564</v>
+        <v>0.491266</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26956</v>
+        <v>0.271029</v>
       </c>
       <c r="E134" t="n">
-        <v>0.371514</v>
+        <v>0.368974</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.390444</v>
+        <v>0.403764</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766554</v>
+        <v>0.536486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.278954</v>
+        <v>0.292148</v>
       </c>
       <c r="E135" t="n">
-        <v>0.383531</v>
+        <v>0.384684</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.432007</v>
+        <v>0.444128</v>
       </c>
       <c r="C136" t="n">
-        <v>0.786483</v>
+        <v>0.626309</v>
       </c>
       <c r="D136" t="n">
-        <v>0.302382</v>
+        <v>0.298162</v>
       </c>
       <c r="E136" t="n">
-        <v>0.414803</v>
+        <v>0.419705</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.52036</v>
+        <v>0.512289</v>
       </c>
       <c r="C137" t="n">
-        <v>0.825855</v>
+        <v>0.723419</v>
       </c>
       <c r="D137" t="n">
-        <v>0.290451</v>
+        <v>0.290595</v>
       </c>
       <c r="E137" t="n">
-        <v>0.34971</v>
+        <v>0.353602</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366248</v>
+        <v>0.366302</v>
       </c>
       <c r="C138" t="n">
-        <v>0.848259</v>
+        <v>0.434237</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292981</v>
+        <v>0.294602</v>
       </c>
       <c r="E138" t="n">
-        <v>0.35496</v>
+        <v>0.357409</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369195</v>
+        <v>0.372737</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8802680000000001</v>
+        <v>0.460791</v>
       </c>
       <c r="D139" t="n">
-        <v>0.295888</v>
+        <v>0.295791</v>
       </c>
       <c r="E139" t="n">
-        <v>0.356504</v>
+        <v>0.356579</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.368867</v>
+        <v>0.369747</v>
       </c>
       <c r="C140" t="n">
-        <v>0.905837</v>
+        <v>0.455273</v>
       </c>
       <c r="D140" t="n">
-        <v>0.294664</v>
+        <v>0.296315</v>
       </c>
       <c r="E140" t="n">
-        <v>0.368501</v>
+        <v>0.360022</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.382172</v>
+        <v>0.376314</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9330270000000001</v>
+        <v>0.460567</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300559</v>
+        <v>0.303436</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3707</v>
+        <v>0.369811</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.383276</v>
+        <v>0.39281</v>
       </c>
       <c r="C142" t="n">
-        <v>0.983385</v>
+        <v>0.465703</v>
       </c>
       <c r="D142" t="n">
-        <v>0.302329</v>
+        <v>0.304074</v>
       </c>
       <c r="E142" t="n">
-        <v>0.377204</v>
+        <v>0.377444</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.388234</v>
+        <v>0.383787</v>
       </c>
       <c r="C143" t="n">
-        <v>1.01183</v>
+        <v>0.481549</v>
       </c>
       <c r="D143" t="n">
-        <v>0.303655</v>
+        <v>0.305757</v>
       </c>
       <c r="E143" t="n">
-        <v>0.386038</v>
+        <v>0.38469</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0401328</v>
+        <v>0.0427298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111186</v>
+        <v>0.112839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0315187</v>
+        <v>0.0320473</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0330441</v>
+        <v>0.0333445</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0420397</v>
+        <v>0.0430047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113668</v>
+        <v>0.116948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0319832</v>
+        <v>0.0320367</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0334412</v>
+        <v>0.0346579</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0443631</v>
+        <v>0.0477491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.118875</v>
+        <v>0.125305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0328063</v>
+        <v>0.0331177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0346067</v>
+        <v>0.0350648</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0489297</v>
+        <v>0.0525102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.124658</v>
+        <v>0.127307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0351251</v>
+        <v>0.035437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.036479</v>
+        <v>0.0372858</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0564134</v>
+        <v>0.0589706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.129769</v>
+        <v>0.130071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0393101</v>
+        <v>0.0408559</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0397387</v>
+        <v>0.040246</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0711318</v>
+        <v>0.07273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0951076</v>
+        <v>0.0962716</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0469535</v>
+        <v>0.0467944</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0462723</v>
+        <v>0.0476169</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09444080000000001</v>
+        <v>0.0898631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09926260000000001</v>
+        <v>0.102108</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0575227</v>
+        <v>0.0577788</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0578036</v>
+        <v>0.0592417</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12395</v>
+        <v>0.115533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104035</v>
+        <v>0.106591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300908</v>
+        <v>0.0297602</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0320902</v>
+        <v>0.0326509</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0385666</v>
+        <v>0.0400987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108217</v>
+        <v>0.107807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0298142</v>
+        <v>0.0301071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0323882</v>
+        <v>0.0326093</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0389489</v>
+        <v>0.0389923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111437</v>
+        <v>0.116808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030063</v>
+        <v>0.0304252</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0326764</v>
+        <v>0.0334402</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0394386</v>
+        <v>0.0406341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115558</v>
+        <v>0.123055</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0303926</v>
+        <v>0.0306931</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0330612</v>
+        <v>0.0333992</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.040232</v>
+        <v>0.0402311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.119551</v>
+        <v>0.120843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0307825</v>
+        <v>0.0325491</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0338054</v>
+        <v>0.0340308</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0417183</v>
+        <v>0.0423515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.123809</v>
+        <v>0.124049</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0310284</v>
+        <v>0.031831</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0343267</v>
+        <v>0.0341884</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0426774</v>
+        <v>0.0424358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127482</v>
+        <v>0.128513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0316126</v>
+        <v>0.0317485</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0350997</v>
+        <v>0.0351231</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0436446</v>
+        <v>0.0436832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1345</v>
+        <v>0.131856</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0328065</v>
+        <v>0.0353358</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0359307</v>
+        <v>0.0369585</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460218</v>
+        <v>0.0473671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.134175</v>
+        <v>0.137728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0336334</v>
+        <v>0.0345102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0368671</v>
+        <v>0.0368842</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508113</v>
+        <v>0.0502636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138248</v>
+        <v>0.140043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0346644</v>
+        <v>0.0356424</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0381072</v>
+        <v>0.0391305</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0561808</v>
+        <v>0.0570803</v>
       </c>
       <c r="C19" t="n">
-        <v>0.142761</v>
+        <v>0.143029</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367125</v>
+        <v>0.0371635</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04071</v>
+        <v>0.0413239</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0635918</v>
+        <v>0.06463720000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.146701</v>
+        <v>0.149128</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0404131</v>
+        <v>0.0407975</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0452934</v>
+        <v>0.0467648</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0739645</v>
+        <v>0.07524699999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111305</v>
+        <v>0.108044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.046208</v>
+        <v>0.0459013</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0515517</v>
+        <v>0.0501319</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09378839999999999</v>
+        <v>0.0978117</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113663</v>
+        <v>0.112817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0571217</v>
+        <v>0.0587679</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0619574</v>
+        <v>0.0614933</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12042</v>
+        <v>0.124312</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116057</v>
+        <v>0.116027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0304369</v>
+        <v>0.0308493</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0348957</v>
+        <v>0.0358562</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0409712</v>
+        <v>0.041523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120987</v>
+        <v>0.120011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0307436</v>
+        <v>0.0311447</v>
       </c>
       <c r="E24" t="n">
-        <v>0.035867</v>
+        <v>0.0368274</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0416735</v>
+        <v>0.041949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123081</v>
+        <v>0.126122</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0307509</v>
+        <v>0.032004</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0353902</v>
+        <v>0.0366829</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0420041</v>
+        <v>0.042297</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128428</v>
+        <v>0.128041</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0310375</v>
+        <v>0.0319595</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0363118</v>
+        <v>0.0367001</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0429296</v>
+        <v>0.0422669</v>
       </c>
       <c r="C27" t="n">
-        <v>0.13199</v>
+        <v>0.135199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0314817</v>
+        <v>0.0326534</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0365921</v>
+        <v>0.0390867</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0438854</v>
+        <v>0.0436741</v>
       </c>
       <c r="C28" t="n">
-        <v>0.138508</v>
+        <v>0.143683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0330533</v>
+        <v>0.0323564</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0386159</v>
+        <v>0.039576</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0452449</v>
+        <v>0.0447749</v>
       </c>
       <c r="C29" t="n">
-        <v>0.141726</v>
+        <v>0.142489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0327061</v>
+        <v>0.0335495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0390979</v>
+        <v>0.0388153</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0469856</v>
+        <v>0.0462644</v>
       </c>
       <c r="C30" t="n">
-        <v>0.143655</v>
+        <v>0.145356</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0330749</v>
+        <v>0.0339454</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0399837</v>
+        <v>0.0413045</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0489906</v>
+        <v>0.0489755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.150264</v>
+        <v>0.150026</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0346092</v>
+        <v>0.0360853</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0408892</v>
+        <v>0.0417398</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0543927</v>
+        <v>0.0543961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.152595</v>
+        <v>0.157827</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0350648</v>
+        <v>0.0350912</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0419838</v>
+        <v>0.043917</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581797</v>
+        <v>0.0608468</v>
       </c>
       <c r="C33" t="n">
-        <v>0.163602</v>
+        <v>0.164105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.036907</v>
+        <v>0.0370087</v>
       </c>
       <c r="E33" t="n">
-        <v>0.043971</v>
+        <v>0.0453886</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06528879999999999</v>
+        <v>0.06689340000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.163716</v>
+        <v>0.165387</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0403565</v>
+        <v>0.0402148</v>
       </c>
       <c r="E34" t="n">
-        <v>0.047344</v>
+        <v>0.0497868</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0751807</v>
+        <v>0.0755956</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123869</v>
+        <v>0.125525</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0461912</v>
+        <v>0.0453637</v>
       </c>
       <c r="E35" t="n">
-        <v>0.053714</v>
+        <v>0.055944</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0924314</v>
+        <v>0.0962455</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130166</v>
+        <v>0.135706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0534978</v>
+        <v>0.0539773</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0616268</v>
+        <v>0.0650013</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.120187</v>
+        <v>0.118573</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135089</v>
+        <v>0.139735</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0333603</v>
+        <v>0.0349802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.043224</v>
+        <v>0.0433009</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0453857</v>
+        <v>0.0473092</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141225</v>
+        <v>0.151489</v>
       </c>
       <c r="D38" t="n">
-        <v>0.033459</v>
+        <v>0.0345239</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0424831</v>
+        <v>0.0431225</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0458321</v>
+        <v>0.0480343</v>
       </c>
       <c r="C39" t="n">
-        <v>0.151895</v>
+        <v>0.162847</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03484</v>
+        <v>0.0346434</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0447591</v>
+        <v>0.045699</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0467788</v>
+        <v>0.0483576</v>
       </c>
       <c r="C40" t="n">
-        <v>0.158291</v>
+        <v>0.169732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0340731</v>
+        <v>0.0364593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0442501</v>
+        <v>0.0457025</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0481845</v>
+        <v>0.0495628</v>
       </c>
       <c r="C41" t="n">
-        <v>0.168342</v>
+        <v>0.174892</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0349108</v>
+        <v>0.0357676</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0457749</v>
+        <v>0.0472035</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.048617</v>
+        <v>0.0498538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177411</v>
+        <v>0.182354</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0354629</v>
+        <v>0.0356436</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0466323</v>
+        <v>0.0493255</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.049159</v>
+        <v>0.0502126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.187001</v>
+        <v>0.194211</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0363404</v>
+        <v>0.0395406</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0478899</v>
+        <v>0.0498273</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0510441</v>
+        <v>0.0524242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196542</v>
+        <v>0.202623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0368973</v>
+        <v>0.039485</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0498833</v>
+        <v>0.0498528</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0530618</v>
+        <v>0.0544627</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21388</v>
+        <v>0.214448</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0375454</v>
+        <v>0.0391193</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0512274</v>
+        <v>0.0520092</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0565394</v>
+        <v>0.0585613</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21966</v>
+        <v>0.233636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0394688</v>
+        <v>0.0393083</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0526871</v>
+        <v>0.0540925</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061001</v>
+        <v>0.0633613</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231514</v>
+        <v>0.254397</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0402122</v>
+        <v>0.0407252</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0549756</v>
+        <v>0.056027</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0671433</v>
+        <v>0.0700704</v>
       </c>
       <c r="C48" t="n">
-        <v>0.247666</v>
+        <v>0.271647</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0428944</v>
+        <v>0.0434208</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0589192</v>
+        <v>0.0598761</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0763918</v>
+        <v>0.0754341</v>
       </c>
       <c r="C49" t="n">
-        <v>0.262916</v>
+        <v>0.304427</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0468719</v>
+        <v>0.0500928</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06332450000000001</v>
+        <v>0.06528630000000001</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09345729999999999</v>
+        <v>0.0929432</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212322</v>
+        <v>0.228816</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0534782</v>
+        <v>0.0562034</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0709637</v>
+        <v>0.07631979999999999</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116824</v>
+        <v>0.116151</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224741</v>
+        <v>0.228516</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0402451</v>
+        <v>0.0400893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0521435</v>
+        <v>0.0515617</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15452</v>
+        <v>0.152868</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238991</v>
+        <v>0.247701</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0412361</v>
+        <v>0.041097</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0526807</v>
+        <v>0.0531271</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0560492</v>
+        <v>0.0554369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.252266</v>
+        <v>0.260056</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0416517</v>
+        <v>0.0438431</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0530033</v>
+        <v>0.0561954</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0563245</v>
+        <v>0.0570783</v>
       </c>
       <c r="C54" t="n">
-        <v>0.269184</v>
+        <v>0.276916</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0415036</v>
+        <v>0.0423707</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0541272</v>
+        <v>0.0566832</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0571569</v>
+        <v>0.0599503</v>
       </c>
       <c r="C55" t="n">
-        <v>0.274212</v>
+        <v>0.299831</v>
       </c>
       <c r="D55" t="n">
-        <v>0.043004</v>
+        <v>0.042711</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0552165</v>
+        <v>0.0575116</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0590235</v>
+        <v>0.0620841</v>
       </c>
       <c r="C56" t="n">
-        <v>0.291901</v>
+        <v>0.321774</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0437117</v>
+        <v>0.0451259</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0562733</v>
+        <v>0.0577172</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0612237</v>
+        <v>0.06323529999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.305341</v>
+        <v>0.326032</v>
       </c>
       <c r="D57" t="n">
-        <v>0.044512</v>
+        <v>0.0450192</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0591397</v>
+        <v>0.0614712</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0625815</v>
+        <v>0.0615652</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323895</v>
+        <v>0.347196</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0447589</v>
+        <v>0.0449736</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0596749</v>
+        <v>0.0644863</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06297369999999999</v>
+        <v>0.0646436</v>
       </c>
       <c r="C59" t="n">
-        <v>0.341529</v>
+        <v>0.365753</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0457032</v>
+        <v>0.0468321</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0614015</v>
+        <v>0.06349200000000001</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06689290000000001</v>
+        <v>0.0671619</v>
       </c>
       <c r="C60" t="n">
-        <v>0.358865</v>
+        <v>0.372867</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0472149</v>
+        <v>0.0476991</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0636694</v>
+        <v>0.06531099999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0700766</v>
+        <v>0.0713936</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378546</v>
+        <v>0.397023</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0495257</v>
+        <v>0.0497776</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0675137</v>
+        <v>0.07228420000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07574</v>
+        <v>0.075964</v>
       </c>
       <c r="C62" t="n">
-        <v>0.404949</v>
+        <v>0.414237</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0516458</v>
+        <v>0.0527198</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0705648</v>
+        <v>0.0712252</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08464140000000001</v>
+        <v>0.0842976</v>
       </c>
       <c r="C63" t="n">
-        <v>0.423924</v>
+        <v>0.440919</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0557063</v>
+        <v>0.0580128</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07696169999999999</v>
+        <v>0.07935440000000001</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09793830000000001</v>
+        <v>0.0981317</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334635</v>
+        <v>0.349203</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0624579</v>
+        <v>0.0618481</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0844123</v>
+        <v>0.08794970000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120708</v>
+        <v>0.121388</v>
       </c>
       <c r="C65" t="n">
-        <v>0.352845</v>
+        <v>0.366182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0753345</v>
+        <v>0.07431459999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0982005</v>
+        <v>0.102399</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156662</v>
+        <v>0.155671</v>
       </c>
       <c r="C66" t="n">
-        <v>0.371921</v>
+        <v>0.383506</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0458096</v>
+        <v>0.0485862</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0590508</v>
+        <v>0.0600773</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06385490000000001</v>
+        <v>0.0640864</v>
       </c>
       <c r="C67" t="n">
-        <v>0.381189</v>
+        <v>0.387929</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0468359</v>
+        <v>0.0477254</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0615432</v>
+        <v>0.061637</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.064956</v>
+        <v>0.0667885</v>
       </c>
       <c r="C68" t="n">
-        <v>0.398054</v>
+        <v>0.406969</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0479335</v>
+        <v>0.048885</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0627007</v>
+        <v>0.06356630000000001</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0658774</v>
+        <v>0.0665948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.423743</v>
+        <v>0.438077</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0479617</v>
+        <v>0.0492927</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0673966</v>
+        <v>0.06622980000000001</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0676307</v>
+        <v>0.07165100000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.423069</v>
+        <v>0.480542</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0485342</v>
+        <v>0.0505005</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06473230000000001</v>
+        <v>0.0673421</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0695679</v>
+        <v>0.0705958</v>
       </c>
       <c r="C71" t="n">
-        <v>0.442751</v>
+        <v>0.475158</v>
       </c>
       <c r="D71" t="n">
-        <v>0.049469</v>
+        <v>0.050117</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06646639999999999</v>
+        <v>0.06832530000000001</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0702619</v>
+        <v>0.0739452</v>
       </c>
       <c r="C72" t="n">
-        <v>0.459857</v>
+        <v>0.475635</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0515351</v>
+        <v>0.0522612</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0695593</v>
+        <v>0.0736677</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727853</v>
+        <v>0.07515579999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.479417</v>
+        <v>0.489195</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0520519</v>
+        <v>0.0528127</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0709587</v>
+        <v>0.0763752</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.077099</v>
+        <v>0.0779125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.503988</v>
+        <v>0.513508</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0545625</v>
+        <v>0.0542477</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0748989</v>
+        <v>0.07916239999999999</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.080538</v>
+        <v>0.0827022</v>
       </c>
       <c r="C75" t="n">
-        <v>0.52499</v>
+        <v>0.536994</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0565017</v>
+        <v>0.0583455</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0784344</v>
+        <v>0.08633159999999999</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0851909</v>
+        <v>0.0932047</v>
       </c>
       <c r="C76" t="n">
-        <v>0.544952</v>
+        <v>0.557041</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0585877</v>
+        <v>0.0608504</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0865017</v>
+        <v>0.09218170000000001</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.095094</v>
+        <v>0.103117</v>
       </c>
       <c r="C77" t="n">
-        <v>0.56124</v>
+        <v>0.5828449999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0641555</v>
+        <v>0.0683064</v>
       </c>
       <c r="E77" t="n">
-        <v>0.090238</v>
+        <v>0.10033</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10687</v>
+        <v>0.112754</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439473</v>
+        <v>0.436931</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0700875</v>
+        <v>0.0709713</v>
       </c>
       <c r="E78" t="n">
-        <v>0.101362</v>
+        <v>0.104415</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.12983</v>
+        <v>0.142511</v>
       </c>
       <c r="C79" t="n">
-        <v>0.449164</v>
+        <v>0.458525</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0810004</v>
+        <v>0.0872081</v>
       </c>
       <c r="E79" t="n">
-        <v>0.118161</v>
+        <v>0.129893</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164622</v>
+        <v>0.182487</v>
       </c>
       <c r="C80" t="n">
-        <v>0.466136</v>
+        <v>0.472451</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0510401</v>
+        <v>0.0540841</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0702825</v>
+        <v>0.075172</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0825428</v>
+        <v>0.0800008</v>
       </c>
       <c r="C81" t="n">
-        <v>0.485608</v>
+        <v>0.488075</v>
       </c>
       <c r="D81" t="n">
-        <v>0.054881</v>
+        <v>0.0557996</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0770319</v>
+        <v>0.0780686</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0755459</v>
+        <v>0.0821062</v>
       </c>
       <c r="C82" t="n">
-        <v>0.497062</v>
+        <v>0.512169</v>
       </c>
       <c r="D82" t="n">
-        <v>0.052937</v>
+        <v>0.0596009</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0747094</v>
+        <v>0.08529539999999999</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0768003</v>
+        <v>0.0877493</v>
       </c>
       <c r="C83" t="n">
-        <v>0.507151</v>
+        <v>0.534196</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0548292</v>
+        <v>0.0605386</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0771415</v>
+        <v>0.0813036</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0804812</v>
+        <v>0.0822836</v>
       </c>
       <c r="C84" t="n">
-        <v>0.527075</v>
+        <v>0.546524</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0556916</v>
+        <v>0.0624831</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0814593</v>
+        <v>0.0880126</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0862309</v>
+        <v>0.0873014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.562883</v>
+        <v>0.564925</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0579749</v>
+        <v>0.0603801</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08403579999999999</v>
+        <v>0.0883094</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0860334</v>
+        <v>0.08846420000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.565029</v>
+        <v>0.571812</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0596232</v>
+        <v>0.06402380000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.087578</v>
+        <v>0.09160450000000001</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.089159</v>
+        <v>0.0926202</v>
       </c>
       <c r="C87" t="n">
-        <v>0.578072</v>
+        <v>0.589283</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06187</v>
+        <v>0.06581430000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0918276</v>
+        <v>0.0983038</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0934574</v>
+        <v>0.09901799999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.595118</v>
+        <v>0.6360130000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.064597</v>
+        <v>0.06742860000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0963681</v>
+        <v>0.100062</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09875</v>
+        <v>0.105842</v>
       </c>
       <c r="C89" t="n">
-        <v>0.614843</v>
+        <v>0.646176</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0680066</v>
+        <v>0.06840010000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.101693</v>
+        <v>0.107268</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.106171</v>
+        <v>0.110953</v>
       </c>
       <c r="C90" t="n">
-        <v>0.643057</v>
+        <v>0.69382</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07298</v>
+        <v>0.0733552</v>
       </c>
       <c r="E90" t="n">
-        <v>0.110246</v>
+        <v>0.111633</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.115103</v>
+        <v>0.121895</v>
       </c>
       <c r="C91" t="n">
-        <v>0.656484</v>
+        <v>0.682707</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07832409999999999</v>
+        <v>0.0821593</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118061</v>
+        <v>0.120405</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.128239</v>
+        <v>0.141017</v>
       </c>
       <c r="C92" t="n">
-        <v>0.502945</v>
+        <v>0.5085730000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0860305</v>
+        <v>0.08836670000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.130105</v>
+        <v>0.130101</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148914</v>
+        <v>0.155367</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5138</v>
+        <v>0.534069</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0962234</v>
+        <v>0.09535250000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.149603</v>
+        <v>0.151377</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.181087</v>
+        <v>0.183127</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5263</v>
+        <v>0.542675</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0707169</v>
+        <v>0.0726965</v>
       </c>
       <c r="E94" t="n">
-        <v>0.102414</v>
+        <v>0.10706</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.100442</v>
+        <v>0.107005</v>
       </c>
       <c r="C95" t="n">
-        <v>0.538824</v>
+        <v>0.554002</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0723062</v>
+        <v>0.0753938</v>
       </c>
       <c r="E95" t="n">
-        <v>0.105155</v>
+        <v>0.108555</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.102938</v>
+        <v>0.106466</v>
       </c>
       <c r="C96" t="n">
-        <v>0.553396</v>
+        <v>0.560958</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0736759</v>
+        <v>0.0796766</v>
       </c>
       <c r="E96" t="n">
-        <v>0.108924</v>
+        <v>0.117646</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.105893</v>
+        <v>0.112745</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5752890000000001</v>
+        <v>0.590873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0760354</v>
+        <v>0.0765522</v>
       </c>
       <c r="E97" t="n">
-        <v>0.11288</v>
+        <v>0.119765</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.108877</v>
+        <v>0.113596</v>
       </c>
       <c r="C98" t="n">
-        <v>0.593158</v>
+        <v>0.617683</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0778491</v>
+        <v>0.0824346</v>
       </c>
       <c r="E98" t="n">
-        <v>0.116918</v>
+        <v>0.122947</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.112138</v>
+        <v>0.112469</v>
       </c>
       <c r="C99" t="n">
-        <v>0.616254</v>
+        <v>0.61414</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08121100000000001</v>
+        <v>0.0816873</v>
       </c>
       <c r="E99" t="n">
-        <v>0.125894</v>
+        <v>0.127291</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.114043</v>
+        <v>0.115982</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6234</v>
+        <v>0.664457</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0816649</v>
+        <v>0.0822621</v>
       </c>
       <c r="E100" t="n">
-        <v>0.124896</v>
+        <v>0.124748</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.117986</v>
+        <v>0.124432</v>
       </c>
       <c r="C101" t="n">
-        <v>0.645904</v>
+        <v>0.652968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0844366</v>
+        <v>0.0861531</v>
       </c>
       <c r="E101" t="n">
-        <v>0.128819</v>
+        <v>0.129919</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.122089</v>
+        <v>0.123332</v>
       </c>
       <c r="C102" t="n">
-        <v>0.656497</v>
+        <v>0.67549</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0857609</v>
+        <v>0.086935</v>
       </c>
       <c r="E102" t="n">
-        <v>0.133138</v>
+        <v>0.136498</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.128401</v>
+        <v>0.132455</v>
       </c>
       <c r="C103" t="n">
-        <v>0.694296</v>
+        <v>0.741468</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0898514</v>
+        <v>0.0913614</v>
       </c>
       <c r="E103" t="n">
-        <v>0.139654</v>
+        <v>0.142052</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.134488</v>
+        <v>0.134929</v>
       </c>
       <c r="C104" t="n">
-        <v>0.708299</v>
+        <v>0.717103</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0930754</v>
+        <v>0.0949492</v>
       </c>
       <c r="E104" t="n">
-        <v>0.145423</v>
+        <v>0.147486</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.143035</v>
+        <v>0.146194</v>
       </c>
       <c r="C105" t="n">
-        <v>0.731037</v>
+        <v>0.741063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.100774</v>
+        <v>0.101331</v>
       </c>
       <c r="E105" t="n">
-        <v>0.159693</v>
+        <v>0.157219</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.15831</v>
+        <v>0.162278</v>
       </c>
       <c r="C106" t="n">
-        <v>0.758937</v>
+        <v>0.773545</v>
       </c>
       <c r="D106" t="n">
-        <v>0.106778</v>
+        <v>0.109201</v>
       </c>
       <c r="E106" t="n">
-        <v>0.166974</v>
+        <v>0.168966</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.176782</v>
+        <v>0.180216</v>
       </c>
       <c r="C107" t="n">
-        <v>0.555029</v>
+        <v>0.58838</v>
       </c>
       <c r="D107" t="n">
-        <v>0.115474</v>
+        <v>0.120931</v>
       </c>
       <c r="E107" t="n">
-        <v>0.183519</v>
+        <v>0.193946</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.21051</v>
+        <v>0.227964</v>
       </c>
       <c r="C108" t="n">
-        <v>0.572374</v>
+        <v>0.611895</v>
       </c>
       <c r="D108" t="n">
-        <v>0.148824</v>
+        <v>0.15959</v>
       </c>
       <c r="E108" t="n">
-        <v>0.191906</v>
+        <v>0.192157</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26512</v>
+        <v>0.277964</v>
       </c>
       <c r="C109" t="n">
-        <v>0.580663</v>
+        <v>0.596143</v>
       </c>
       <c r="D109" t="n">
-        <v>0.15199</v>
+        <v>0.163955</v>
       </c>
       <c r="E109" t="n">
-        <v>0.190139</v>
+        <v>0.203041</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.183095</v>
+        <v>0.200147</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6412639999999999</v>
+        <v>0.602805</v>
       </c>
       <c r="D110" t="n">
-        <v>0.15172</v>
+        <v>0.160917</v>
       </c>
       <c r="E110" t="n">
-        <v>0.193222</v>
+        <v>0.2028</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.184578</v>
+        <v>0.201444</v>
       </c>
       <c r="C111" t="n">
-        <v>0.616873</v>
+        <v>0.631243</v>
       </c>
       <c r="D111" t="n">
-        <v>0.151186</v>
+        <v>0.166639</v>
       </c>
       <c r="E111" t="n">
-        <v>0.198032</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.187339</v>
+        <v>0.194989</v>
       </c>
       <c r="C112" t="n">
-        <v>0.63053</v>
+        <v>0.655291</v>
       </c>
       <c r="D112" t="n">
-        <v>0.163566</v>
+        <v>0.160831</v>
       </c>
       <c r="E112" t="n">
-        <v>0.203096</v>
+        <v>0.207365</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.189015</v>
+        <v>0.204305</v>
       </c>
       <c r="C113" t="n">
-        <v>0.647567</v>
+        <v>0.673547</v>
       </c>
       <c r="D113" t="n">
-        <v>0.157222</v>
+        <v>0.158858</v>
       </c>
       <c r="E113" t="n">
-        <v>0.208984</v>
+        <v>0.209408</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20378</v>
+        <v>0.210239</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666604</v>
+        <v>0.686676</v>
       </c>
       <c r="D114" t="n">
-        <v>0.155466</v>
+        <v>0.158719</v>
       </c>
       <c r="E114" t="n">
-        <v>0.209497</v>
+        <v>0.218834</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.195297</v>
+        <v>0.200875</v>
       </c>
       <c r="C115" t="n">
-        <v>0.685951</v>
+        <v>0.70024</v>
       </c>
       <c r="D115" t="n">
-        <v>0.161133</v>
+        <v>0.163368</v>
       </c>
       <c r="E115" t="n">
-        <v>0.224226</v>
+        <v>0.226408</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209306</v>
+        <v>0.220065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.72707</v>
+        <v>0.727032</v>
       </c>
       <c r="D116" t="n">
-        <v>0.164294</v>
+        <v>0.169617</v>
       </c>
       <c r="E116" t="n">
-        <v>0.225148</v>
+        <v>0.226503</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206838</v>
+        <v>0.211184</v>
       </c>
       <c r="C117" t="n">
-        <v>0.725145</v>
+        <v>0.764812</v>
       </c>
       <c r="D117" t="n">
-        <v>0.165232</v>
+        <v>0.181696</v>
       </c>
       <c r="E117" t="n">
-        <v>0.228905</v>
+        <v>0.247054</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214897</v>
+        <v>0.225002</v>
       </c>
       <c r="C118" t="n">
-        <v>0.746116</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.166452</v>
+        <v>0.177212</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237474</v>
+        <v>0.239733</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.22643</v>
+        <v>0.23541</v>
       </c>
       <c r="C119" t="n">
-        <v>0.770338</v>
+        <v>0.793649</v>
       </c>
       <c r="D119" t="n">
-        <v>0.18214</v>
+        <v>0.189436</v>
       </c>
       <c r="E119" t="n">
-        <v>0.243031</v>
+        <v>0.254837</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232957</v>
+        <v>0.249359</v>
       </c>
       <c r="C120" t="n">
-        <v>0.806368</v>
+        <v>0.820983</v>
       </c>
       <c r="D120" t="n">
-        <v>0.181432</v>
+        <v>0.180882</v>
       </c>
       <c r="E120" t="n">
-        <v>0.256282</v>
+        <v>0.265438</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.274747</v>
+        <v>0.285142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.613347</v>
+        <v>0.622013</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188409</v>
+        <v>0.19919</v>
       </c>
       <c r="E121" t="n">
-        <v>0.279128</v>
+        <v>0.283197</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295427</v>
+        <v>0.315647</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6303299999999999</v>
+        <v>0.632995</v>
       </c>
       <c r="D122" t="n">
-        <v>0.214176</v>
+        <v>0.223159</v>
       </c>
       <c r="E122" t="n">
-        <v>0.30468</v>
+        <v>0.313308</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.345619</v>
+        <v>0.372855</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6460630000000001</v>
+        <v>0.692623</v>
       </c>
       <c r="D123" t="n">
-        <v>0.236717</v>
+        <v>0.243436</v>
       </c>
       <c r="E123" t="n">
-        <v>0.290287</v>
+        <v>0.298773</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.299834</v>
+        <v>0.294474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.662758</v>
+        <v>0.6918609999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.236107</v>
+        <v>0.241477</v>
       </c>
       <c r="E124" t="n">
-        <v>0.293214</v>
+        <v>0.301459</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.296952</v>
+        <v>0.309194</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684635</v>
+        <v>0.7067830000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.24184</v>
+        <v>0.243902</v>
       </c>
       <c r="E125" t="n">
-        <v>0.299984</v>
+        <v>0.309285</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307314</v>
+        <v>0.307946</v>
       </c>
       <c r="C126" t="n">
-        <v>0.708995</v>
+        <v>0.738468</v>
       </c>
       <c r="D126" t="n">
-        <v>0.243307</v>
+        <v>0.247231</v>
       </c>
       <c r="E126" t="n">
-        <v>0.301748</v>
+        <v>0.320243</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301949</v>
+        <v>0.322257</v>
       </c>
       <c r="C127" t="n">
-        <v>0.718705</v>
+        <v>0.770956</v>
       </c>
       <c r="D127" t="n">
-        <v>0.239348</v>
+        <v>0.254959</v>
       </c>
       <c r="E127" t="n">
-        <v>0.304705</v>
+        <v>0.310272</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.313226</v>
+        <v>0.316288</v>
       </c>
       <c r="C128" t="n">
-        <v>0.747097</v>
+        <v>0.779277</v>
       </c>
       <c r="D128" t="n">
-        <v>0.248476</v>
+        <v>0.260612</v>
       </c>
       <c r="E128" t="n">
-        <v>0.323834</v>
+        <v>0.322338</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313067</v>
+        <v>0.320256</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776209</v>
+        <v>0.819825</v>
       </c>
       <c r="D129" t="n">
-        <v>0.248242</v>
+        <v>0.252951</v>
       </c>
       <c r="E129" t="n">
-        <v>0.317076</v>
+        <v>0.327691</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.329872</v>
+        <v>0.331397</v>
       </c>
       <c r="C130" t="n">
-        <v>0.80318</v>
+        <v>0.834842</v>
       </c>
       <c r="D130" t="n">
-        <v>0.247306</v>
+        <v>0.249806</v>
       </c>
       <c r="E130" t="n">
-        <v>0.322567</v>
+        <v>0.326871</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.324673</v>
+        <v>0.334536</v>
       </c>
       <c r="C131" t="n">
-        <v>0.828333</v>
+        <v>0.8807199999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.252468</v>
+        <v>0.262099</v>
       </c>
       <c r="E131" t="n">
-        <v>0.33382</v>
+        <v>0.336089</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334585</v>
+        <v>0.345559</v>
       </c>
       <c r="C132" t="n">
-        <v>0.853347</v>
+        <v>0.903593</v>
       </c>
       <c r="D132" t="n">
-        <v>0.263218</v>
+        <v>0.276994</v>
       </c>
       <c r="E132" t="n">
-        <v>0.339769</v>
+        <v>0.354655</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.353702</v>
+        <v>0.352185</v>
       </c>
       <c r="C133" t="n">
-        <v>0.877582</v>
+        <v>0.945522</v>
       </c>
       <c r="D133" t="n">
-        <v>0.261092</v>
+        <v>0.282978</v>
       </c>
       <c r="E133" t="n">
-        <v>0.356186</v>
+        <v>0.357813</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370948</v>
+        <v>0.373564</v>
       </c>
       <c r="C134" t="n">
-        <v>0.920564</v>
+        <v>0.969454</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26956</v>
+        <v>0.276001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.371514</v>
+        <v>0.380805</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.390444</v>
+        <v>0.409962</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766554</v>
+        <v>0.803957</v>
       </c>
       <c r="D135" t="n">
-        <v>0.278954</v>
+        <v>0.294845</v>
       </c>
       <c r="E135" t="n">
-        <v>0.383531</v>
+        <v>0.384919</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.432007</v>
+        <v>0.447973</v>
       </c>
       <c r="C136" t="n">
-        <v>0.786483</v>
+        <v>0.8240499999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.302382</v>
+        <v>0.315885</v>
       </c>
       <c r="E136" t="n">
-        <v>0.414803</v>
+        <v>0.425405</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.52036</v>
+        <v>0.521126</v>
       </c>
       <c r="C137" t="n">
-        <v>0.825855</v>
+        <v>0.8585429999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.290451</v>
+        <v>0.296414</v>
       </c>
       <c r="E137" t="n">
-        <v>0.34971</v>
+        <v>0.358842</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366248</v>
+        <v>0.371656</v>
       </c>
       <c r="C138" t="n">
-        <v>0.848259</v>
+        <v>0.885516</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292981</v>
+        <v>0.29492</v>
       </c>
       <c r="E138" t="n">
-        <v>0.35496</v>
+        <v>0.35665</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369195</v>
+        <v>0.382165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8802680000000001</v>
+        <v>0.907821</v>
       </c>
       <c r="D139" t="n">
-        <v>0.295888</v>
+        <v>0.303491</v>
       </c>
       <c r="E139" t="n">
-        <v>0.356504</v>
+        <v>0.356493</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.368867</v>
+        <v>0.384831</v>
       </c>
       <c r="C140" t="n">
-        <v>0.905837</v>
+        <v>0.949579</v>
       </c>
       <c r="D140" t="n">
-        <v>0.294664</v>
+        <v>0.306144</v>
       </c>
       <c r="E140" t="n">
-        <v>0.368501</v>
+        <v>0.373388</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.382172</v>
+        <v>0.384197</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9330270000000001</v>
+        <v>0.969297</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300559</v>
+        <v>0.30012</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3707</v>
+        <v>0.368776</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.383276</v>
+        <v>0.381095</v>
       </c>
       <c r="C142" t="n">
-        <v>0.983385</v>
+        <v>1.00328</v>
       </c>
       <c r="D142" t="n">
-        <v>0.302329</v>
+        <v>0.305004</v>
       </c>
       <c r="E142" t="n">
-        <v>0.377204</v>
+        <v>0.386281</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.388234</v>
+        <v>0.399019</v>
       </c>
       <c r="C143" t="n">
-        <v>1.01183</v>
+        <v>1.04029</v>
       </c>
       <c r="D143" t="n">
-        <v>0.303655</v>
+        <v>0.306329</v>
       </c>
       <c r="E143" t="n">
-        <v>0.386038</v>
+        <v>0.394295</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427298</v>
+        <v>0.0403478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112839</v>
+        <v>0.0418587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0320473</v>
+        <v>0.112649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0333445</v>
+        <v>0.0341305</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0329172</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0430047</v>
+        <v>0.0457722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.116948</v>
+        <v>0.0425769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0320367</v>
+        <v>0.117847</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0346579</v>
+        <v>0.0360532</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0334342</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0477491</v>
+        <v>0.0459112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125305</v>
+        <v>0.0465569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0331177</v>
+        <v>0.117279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350648</v>
+        <v>0.0350972</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0348603</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525102</v>
+        <v>0.0510298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127307</v>
+        <v>0.0538009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.035437</v>
+        <v>0.126782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0372858</v>
+        <v>0.0395226</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.036706</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0589706</v>
+        <v>0.0583501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.130071</v>
+        <v>0.0609585</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0408559</v>
+        <v>0.132169</v>
       </c>
       <c r="E6" t="n">
-        <v>0.040246</v>
+        <v>0.0422165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0398639</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07273</v>
+        <v>0.07202219999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0962716</v>
+        <v>0.073476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0467944</v>
+        <v>0.094129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0476169</v>
+        <v>0.048565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0489671</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0898631</v>
+        <v>0.0936649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102108</v>
+        <v>0.0933147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0577788</v>
+        <v>0.0995259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0592417</v>
+        <v>0.0604955</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0574787</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115533</v>
+        <v>0.128414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106591</v>
+        <v>0.125785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0297602</v>
+        <v>0.102635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0326509</v>
+        <v>0.0307141</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0331568</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0400987</v>
+        <v>0.0409162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107807</v>
+        <v>0.0417049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0301071</v>
+        <v>0.107375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0326093</v>
+        <v>0.0312452</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0324353</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0389923</v>
+        <v>0.0398651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116808</v>
+        <v>0.0406202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0304252</v>
+        <v>0.118606</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0334402</v>
+        <v>0.0307794</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0329962</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0406341</v>
+        <v>0.040226</v>
       </c>
       <c r="C12" t="n">
-        <v>0.123055</v>
+        <v>0.0420459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0306931</v>
+        <v>0.115341</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0333992</v>
+        <v>0.0318896</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0344892</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0402311</v>
+        <v>0.0403017</v>
       </c>
       <c r="C13" t="n">
-        <v>0.120843</v>
+        <v>0.0427808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0325491</v>
+        <v>0.119886</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0340308</v>
+        <v>0.0321123</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0338171</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0423515</v>
+        <v>0.0406903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.124049</v>
+        <v>0.04332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.031831</v>
+        <v>0.125694</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0341884</v>
+        <v>0.0328463</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0344222</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0424358</v>
+        <v>0.0417792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.128513</v>
+        <v>0.0444573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0317485</v>
+        <v>0.125912</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0351231</v>
+        <v>0.0335462</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0375562</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0436832</v>
+        <v>0.0442526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.131856</v>
+        <v>0.0494107</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0353358</v>
+        <v>0.134667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0369585</v>
+        <v>0.035181</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0358253</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0473671</v>
+        <v>0.0487206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.137728</v>
+        <v>0.0501328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0345102</v>
+        <v>0.136499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0368842</v>
+        <v>0.0375892</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0393574</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0502636</v>
+        <v>0.0504014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.140043</v>
+        <v>0.0532234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0356424</v>
+        <v>0.142941</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0391305</v>
+        <v>0.0378633</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0384594</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0570803</v>
+        <v>0.0577281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.143029</v>
+        <v>0.059275</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0371635</v>
+        <v>0.14408</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0413239</v>
+        <v>0.0391747</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0402402</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06463720000000001</v>
+        <v>0.0637868</v>
       </c>
       <c r="C20" t="n">
-        <v>0.149128</v>
+        <v>0.0679763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0407975</v>
+        <v>0.151102</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0467648</v>
+        <v>0.0428978</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0452189</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07524699999999999</v>
+        <v>0.0765532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.108044</v>
+        <v>0.0791738</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0459013</v>
+        <v>0.106575</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0501319</v>
+        <v>0.0498126</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.049653</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0978117</v>
+        <v>0.0969846</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112817</v>
+        <v>0.0983769</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0587679</v>
+        <v>0.116095</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0614933</v>
+        <v>0.0609763</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0635228</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124312</v>
+        <v>0.121288</v>
       </c>
       <c r="C23" t="n">
-        <v>0.116027</v>
+        <v>0.130639</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0308493</v>
+        <v>0.118741</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0358562</v>
+        <v>0.0312517</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0355274</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.041523</v>
+        <v>0.0414866</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120011</v>
+        <v>0.0461765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0311447</v>
+        <v>0.123659</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0368274</v>
+        <v>0.0318993</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0375738</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.041949</v>
+        <v>0.0431114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.126122</v>
+        <v>0.0477762</v>
       </c>
       <c r="D25" t="n">
-        <v>0.032004</v>
+        <v>0.129578</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0366829</v>
+        <v>0.0321368</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0365773</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.042297</v>
+        <v>0.0439607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128041</v>
+        <v>0.0474211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0319595</v>
+        <v>0.131501</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0367001</v>
+        <v>0.0322047</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0372113</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0422669</v>
+        <v>0.0430035</v>
       </c>
       <c r="C27" t="n">
-        <v>0.135199</v>
+        <v>0.0483163</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0326534</v>
+        <v>0.134561</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0390867</v>
+        <v>0.0321049</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0377261</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0436741</v>
+        <v>0.0440072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.143683</v>
+        <v>0.0500611</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0323564</v>
+        <v>0.140452</v>
       </c>
       <c r="E28" t="n">
-        <v>0.039576</v>
+        <v>0.0329133</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0397481</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0447749</v>
+        <v>0.0454778</v>
       </c>
       <c r="C29" t="n">
-        <v>0.142489</v>
+        <v>0.0518127</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0335495</v>
+        <v>0.143778</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0388153</v>
+        <v>0.0344193</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0391428</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0462644</v>
+        <v>0.0465453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.145356</v>
+        <v>0.0557879</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0339454</v>
+        <v>0.152228</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0413045</v>
+        <v>0.0348999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0409641</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0489755</v>
+        <v>0.0503646</v>
       </c>
       <c r="C31" t="n">
-        <v>0.150026</v>
+        <v>0.0580084</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0360853</v>
+        <v>0.153652</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0417398</v>
+        <v>0.0365766</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0443904</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0543961</v>
+        <v>0.0549661</v>
       </c>
       <c r="C32" t="n">
-        <v>0.157827</v>
+        <v>0.0585865</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0350912</v>
+        <v>0.157367</v>
       </c>
       <c r="E32" t="n">
-        <v>0.043917</v>
+        <v>0.0370902</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0428938</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0608468</v>
+        <v>0.0577751</v>
       </c>
       <c r="C33" t="n">
-        <v>0.164105</v>
+        <v>0.0637962</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0370087</v>
+        <v>0.166896</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0453886</v>
+        <v>0.0386173</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0455403</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06689340000000001</v>
+        <v>0.06474729999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.165387</v>
+        <v>0.07316309999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0402148</v>
+        <v>0.175482</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0497868</v>
+        <v>0.0425776</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0510728</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0755956</v>
+        <v>0.0771244</v>
       </c>
       <c r="C35" t="n">
-        <v>0.125525</v>
+        <v>0.0869361</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0453637</v>
+        <v>0.133354</v>
       </c>
       <c r="E35" t="n">
-        <v>0.055944</v>
+        <v>0.0475596</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0541048</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0962455</v>
+        <v>0.09288399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.135706</v>
+        <v>0.0989077</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0539773</v>
+        <v>0.138636</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0650013</v>
+        <v>0.0560053</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0619955</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118573</v>
+        <v>0.11588</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139735</v>
+        <v>0.124078</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0349802</v>
+        <v>0.136577</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0433009</v>
+        <v>0.0356877</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0421562</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0473092</v>
+        <v>0.0477911</v>
       </c>
       <c r="C38" t="n">
-        <v>0.151489</v>
+        <v>0.0567394</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0345239</v>
+        <v>0.144568</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0431225</v>
+        <v>0.0339289</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0421044</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0480343</v>
+        <v>0.0483314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.162847</v>
+        <v>0.0578411</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0346434</v>
+        <v>0.149664</v>
       </c>
       <c r="E39" t="n">
-        <v>0.045699</v>
+        <v>0.0356273</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0432143</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0483576</v>
+        <v>0.0471055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.169732</v>
+        <v>0.0595694</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0364593</v>
+        <v>0.160913</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0457025</v>
+        <v>0.0352508</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0450848</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0495628</v>
+        <v>0.047977</v>
       </c>
       <c r="C41" t="n">
-        <v>0.174892</v>
+        <v>0.0612507</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0357676</v>
+        <v>0.164544</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0472035</v>
+        <v>0.0354834</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0457491</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0498538</v>
+        <v>0.0490616</v>
       </c>
       <c r="C42" t="n">
-        <v>0.182354</v>
+        <v>0.06542539999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0356436</v>
+        <v>0.178511</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0493255</v>
+        <v>0.0354344</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0460673</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0502126</v>
+        <v>0.0494668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.194211</v>
+        <v>0.06458469999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0395406</v>
+        <v>0.180577</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0498273</v>
+        <v>0.0389526</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0481678</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0524242</v>
+        <v>0.051151</v>
       </c>
       <c r="C44" t="n">
-        <v>0.202623</v>
+        <v>0.06965929999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.039485</v>
+        <v>0.194351</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0498528</v>
+        <v>0.0370909</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0494176</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0544627</v>
+        <v>0.0547304</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214448</v>
+        <v>0.0725382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0391193</v>
+        <v>0.210184</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0520092</v>
+        <v>0.0390004</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0511922</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0585613</v>
+        <v>0.0568816</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233636</v>
+        <v>0.0747057</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0393083</v>
+        <v>0.224022</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0540925</v>
+        <v>0.0419903</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0567414</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0633613</v>
+        <v>0.0629039</v>
       </c>
       <c r="C47" t="n">
-        <v>0.254397</v>
+        <v>0.0845375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0407252</v>
+        <v>0.248913</v>
       </c>
       <c r="E47" t="n">
-        <v>0.056027</v>
+        <v>0.042465</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0570598</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0700704</v>
+        <v>0.0670072</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271647</v>
+        <v>0.0873891</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0434208</v>
+        <v>0.251547</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0598761</v>
+        <v>0.0454104</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0593888</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0754341</v>
+        <v>0.0763176</v>
       </c>
       <c r="C49" t="n">
-        <v>0.304427</v>
+        <v>0.0960082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0500928</v>
+        <v>0.262021</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06528630000000001</v>
+        <v>0.049122</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0668787</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0929432</v>
+        <v>0.0913934</v>
       </c>
       <c r="C50" t="n">
-        <v>0.228816</v>
+        <v>0.117537</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0562034</v>
+        <v>0.21444</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07631979999999999</v>
+        <v>0.0557328</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0717578</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116151</v>
+        <v>0.116638</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228516</v>
+        <v>0.143266</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0400893</v>
+        <v>0.220665</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0515617</v>
+        <v>0.0408324</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0513995</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.152868</v>
+        <v>0.153126</v>
       </c>
       <c r="C52" t="n">
-        <v>0.247701</v>
+        <v>0.175566</v>
       </c>
       <c r="D52" t="n">
-        <v>0.041097</v>
+        <v>0.242612</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0531271</v>
+        <v>0.0434667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0529426</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0554369</v>
+        <v>0.0555717</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260056</v>
+        <v>0.07230839999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0438431</v>
+        <v>0.250109</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0561954</v>
+        <v>0.0415566</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.05518</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0570783</v>
+        <v>0.057639</v>
       </c>
       <c r="C54" t="n">
-        <v>0.276916</v>
+        <v>0.0753605</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0423707</v>
+        <v>0.272849</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0566832</v>
+        <v>0.042151</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.056847</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0599503</v>
+        <v>0.0574334</v>
       </c>
       <c r="C55" t="n">
-        <v>0.299831</v>
+        <v>0.0783466</v>
       </c>
       <c r="D55" t="n">
-        <v>0.042711</v>
+        <v>0.277557</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0575116</v>
+        <v>0.0433986</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0574687</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0620841</v>
+        <v>0.0601636</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321774</v>
+        <v>0.0802957</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0451259</v>
+        <v>0.296501</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0577172</v>
+        <v>0.0429446</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0563936</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06323529999999999</v>
+        <v>0.0596674</v>
       </c>
       <c r="C57" t="n">
-        <v>0.326032</v>
+        <v>0.08514289999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0450192</v>
+        <v>0.314336</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0614712</v>
+        <v>0.0465437</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0602794</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0615652</v>
+        <v>0.0648122</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347196</v>
+        <v>0.0859954</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0449736</v>
+        <v>0.319549</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0644863</v>
+        <v>0.044449</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.062734</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0646436</v>
+        <v>0.0632424</v>
       </c>
       <c r="C59" t="n">
-        <v>0.365753</v>
+        <v>0.08802699999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0468321</v>
+        <v>0.341151</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06349200000000001</v>
+        <v>0.0462602</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0616992</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0671619</v>
+        <v>0.0655647</v>
       </c>
       <c r="C60" t="n">
-        <v>0.372867</v>
+        <v>0.0981186</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0476991</v>
+        <v>0.365429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06531099999999999</v>
+        <v>0.047376</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0639005</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0713936</v>
+        <v>0.07077940000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.397023</v>
+        <v>0.100619</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0497776</v>
+        <v>0.399239</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07228420000000001</v>
+        <v>0.0501428</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0678744</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.075964</v>
+        <v>0.07643750000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.414237</v>
+        <v>0.110902</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0527198</v>
+        <v>0.403076</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0712252</v>
+        <v>0.0524898</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.07325619999999999</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0842976</v>
+        <v>0.08336449999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.440919</v>
+        <v>0.125144</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0580128</v>
+        <v>0.429141</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07935440000000001</v>
+        <v>0.0564312</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0773788</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0981317</v>
+        <v>0.0956835</v>
       </c>
       <c r="C64" t="n">
-        <v>0.349203</v>
+        <v>0.135533</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0618481</v>
+        <v>0.336701</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08794970000000001</v>
+        <v>0.06537660000000001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.08594350000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.121388</v>
+        <v>0.117593</v>
       </c>
       <c r="C65" t="n">
-        <v>0.366182</v>
+        <v>0.162687</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07431459999999999</v>
+        <v>0.354871</v>
       </c>
       <c r="E65" t="n">
-        <v>0.102399</v>
+        <v>0.074138</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.099409</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155671</v>
+        <v>0.156805</v>
       </c>
       <c r="C66" t="n">
-        <v>0.383506</v>
+        <v>0.214517</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0485862</v>
+        <v>0.367571</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0600773</v>
+        <v>0.0478158</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0610858</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0640864</v>
+        <v>0.06573039999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.387929</v>
+        <v>0.0896233</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0477254</v>
+        <v>0.400895</v>
       </c>
       <c r="E67" t="n">
-        <v>0.061637</v>
+        <v>0.0482665</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0624781</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0667885</v>
+        <v>0.0673053</v>
       </c>
       <c r="C68" t="n">
-        <v>0.406969</v>
+        <v>0.0904368</v>
       </c>
       <c r="D68" t="n">
-        <v>0.048885</v>
+        <v>0.413366</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06356630000000001</v>
+        <v>0.0486928</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0628707</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0665948</v>
+        <v>0.0668928</v>
       </c>
       <c r="C69" t="n">
-        <v>0.438077</v>
+        <v>0.09346930000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0492927</v>
+        <v>0.414517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06622980000000001</v>
+        <v>0.0487634</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.06404319999999999</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07165100000000001</v>
+        <v>0.06934609999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480542</v>
+        <v>0.0964071</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0505005</v>
+        <v>0.443311</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0673421</v>
+        <v>0.0492994</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0653256</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0705958</v>
+        <v>0.0704325</v>
       </c>
       <c r="C71" t="n">
-        <v>0.475158</v>
+        <v>0.10722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.050117</v>
+        <v>0.44527</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06832530000000001</v>
+        <v>0.050415</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.06864679999999999</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0739452</v>
+        <v>0.07218670000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.475635</v>
+        <v>0.10806</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0522612</v>
+        <v>0.492269</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0736677</v>
+        <v>0.0518088</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0720898</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07515579999999999</v>
+        <v>0.0741634</v>
       </c>
       <c r="C73" t="n">
-        <v>0.489195</v>
+        <v>0.111279</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0528127</v>
+        <v>0.487653</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0763752</v>
+        <v>0.0548355</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0738375</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0779125</v>
+        <v>0.07715669999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.513508</v>
+        <v>0.117079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0542477</v>
+        <v>0.500493</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07916239999999999</v>
+        <v>0.0544719</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.07627539999999999</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0827022</v>
+        <v>0.0834674</v>
       </c>
       <c r="C75" t="n">
-        <v>0.536994</v>
+        <v>0.129966</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0583455</v>
+        <v>0.524124</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08633159999999999</v>
+        <v>0.0582916</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0858453</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0932047</v>
+        <v>0.0911676</v>
       </c>
       <c r="C76" t="n">
-        <v>0.557041</v>
+        <v>0.138836</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0608504</v>
+        <v>0.547789</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09218170000000001</v>
+        <v>0.0613024</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0952833</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103117</v>
+        <v>0.102271</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5828449999999999</v>
+        <v>0.158528</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0683064</v>
+        <v>0.569587</v>
       </c>
       <c r="E77" t="n">
-        <v>0.10033</v>
+        <v>0.06546059999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.095095</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.112754</v>
+        <v>0.111392</v>
       </c>
       <c r="C78" t="n">
-        <v>0.436931</v>
+        <v>0.186513</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0709713</v>
+        <v>0.457312</v>
       </c>
       <c r="E78" t="n">
-        <v>0.104415</v>
+        <v>0.07263219999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.107657</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.142511</v>
+        <v>0.13858</v>
       </c>
       <c r="C79" t="n">
-        <v>0.458525</v>
+        <v>0.208992</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0872081</v>
+        <v>0.464269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.129893</v>
+        <v>0.08481320000000001</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.122237</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.182487</v>
+        <v>0.165146</v>
       </c>
       <c r="C80" t="n">
-        <v>0.472451</v>
+        <v>0.252319</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0540841</v>
+        <v>0.483866</v>
       </c>
       <c r="E80" t="n">
-        <v>0.075172</v>
+        <v>0.0515429</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0715438</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0800008</v>
+        <v>0.07967929999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.488075</v>
+        <v>0.116452</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0557996</v>
+        <v>0.491731</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0780686</v>
+        <v>0.0529565</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0777491</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0821062</v>
+        <v>0.07914300000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.512169</v>
+        <v>0.121422</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0596009</v>
+        <v>0.511722</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08529539999999999</v>
+        <v>0.0541984</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0775598</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0877493</v>
+        <v>0.07944030000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.534196</v>
+        <v>0.127257</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0605386</v>
+        <v>0.533863</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0813036</v>
+        <v>0.0547601</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.081188</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0822836</v>
+        <v>0.0859463</v>
       </c>
       <c r="C84" t="n">
-        <v>0.546524</v>
+        <v>0.130306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0624831</v>
+        <v>0.546266</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0880126</v>
+        <v>0.0585637</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0854987</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0873014</v>
+        <v>0.0837883</v>
       </c>
       <c r="C85" t="n">
-        <v>0.564925</v>
+        <v>0.138625</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0603801</v>
+        <v>0.561926</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0883094</v>
+        <v>0.0594847</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0860846</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.08846420000000001</v>
+        <v>0.0882067</v>
       </c>
       <c r="C86" t="n">
-        <v>0.571812</v>
+        <v>0.144655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06402380000000001</v>
+        <v>0.592424</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09160450000000001</v>
+        <v>0.0616091</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.09388489999999999</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0926202</v>
+        <v>0.0938725</v>
       </c>
       <c r="C87" t="n">
-        <v>0.589283</v>
+        <v>0.148845</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06581430000000001</v>
+        <v>0.59314</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0983038</v>
+        <v>0.0636974</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0977189</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09901799999999999</v>
+        <v>0.0958572</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6360130000000001</v>
+        <v>0.160535</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06742860000000001</v>
+        <v>0.607954</v>
       </c>
       <c r="E88" t="n">
-        <v>0.100062</v>
+        <v>0.0694113</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.09929449999999999</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.105842</v>
+        <v>0.102529</v>
       </c>
       <c r="C89" t="n">
-        <v>0.646176</v>
+        <v>0.170532</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06840010000000001</v>
+        <v>0.6377660000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.107268</v>
+        <v>0.0690113</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.108187</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.110953</v>
+        <v>0.110858</v>
       </c>
       <c r="C90" t="n">
-        <v>0.69382</v>
+        <v>0.180454</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0733552</v>
+        <v>0.655182</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111633</v>
+        <v>0.0731719</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.112355</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.121895</v>
+        <v>0.118799</v>
       </c>
       <c r="C91" t="n">
-        <v>0.682707</v>
+        <v>0.200438</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0821593</v>
+        <v>0.675157</v>
       </c>
       <c r="E91" t="n">
-        <v>0.120405</v>
+        <v>0.079668</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.120185</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.141017</v>
+        <v>0.131754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5085730000000001</v>
+        <v>0.215072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08836670000000001</v>
+        <v>0.510715</v>
       </c>
       <c r="E92" t="n">
-        <v>0.130101</v>
+        <v>0.08641740000000001</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.137559</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.155367</v>
+        <v>0.150926</v>
       </c>
       <c r="C93" t="n">
-        <v>0.534069</v>
+        <v>0.259219</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09535250000000001</v>
+        <v>0.526857</v>
       </c>
       <c r="E93" t="n">
-        <v>0.151377</v>
+        <v>0.09804010000000001</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.148348</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183127</v>
+        <v>0.192562</v>
       </c>
       <c r="C94" t="n">
-        <v>0.542675</v>
+        <v>0.301513</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0726965</v>
+        <v>0.542504</v>
       </c>
       <c r="E94" t="n">
-        <v>0.10706</v>
+        <v>0.07292609999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.105889</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107005</v>
+        <v>0.10423</v>
       </c>
       <c r="C95" t="n">
-        <v>0.554002</v>
+        <v>0.161676</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0753938</v>
+        <v>0.553554</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108555</v>
+        <v>0.0760136</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.113556</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.106466</v>
+        <v>0.108679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.560958</v>
+        <v>0.167568</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0796766</v>
+        <v>0.5745749999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.117646</v>
+        <v>0.0766703</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.115513</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.112745</v>
+        <v>0.109223</v>
       </c>
       <c r="C97" t="n">
-        <v>0.590873</v>
+        <v>0.179995</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0765522</v>
+        <v>0.601817</v>
       </c>
       <c r="E97" t="n">
-        <v>0.119765</v>
+        <v>0.0811254</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.120796</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.113596</v>
+        <v>0.110643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.617683</v>
+        <v>0.174694</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0824346</v>
+        <v>0.614754</v>
       </c>
       <c r="E98" t="n">
-        <v>0.122947</v>
+        <v>0.07995090000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.122874</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.112469</v>
+        <v>0.11348</v>
       </c>
       <c r="C99" t="n">
-        <v>0.61414</v>
+        <v>0.178218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0816873</v>
+        <v>0.620737</v>
       </c>
       <c r="E99" t="n">
-        <v>0.127291</v>
+        <v>0.08531229999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.12812</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.115982</v>
+        <v>0.117244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.664457</v>
+        <v>0.19374</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0822621</v>
+        <v>0.642953</v>
       </c>
       <c r="E100" t="n">
-        <v>0.124748</v>
+        <v>0.0867521</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.132131</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124432</v>
+        <v>0.120139</v>
       </c>
       <c r="C101" t="n">
-        <v>0.652968</v>
+        <v>0.194725</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0861531</v>
+        <v>0.66033</v>
       </c>
       <c r="E101" t="n">
-        <v>0.129919</v>
+        <v>0.08898449999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.13844</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.123332</v>
+        <v>0.130318</v>
       </c>
       <c r="C102" t="n">
-        <v>0.67549</v>
+        <v>0.213152</v>
       </c>
       <c r="D102" t="n">
-        <v>0.086935</v>
+        <v>0.687069</v>
       </c>
       <c r="E102" t="n">
-        <v>0.136498</v>
+        <v>0.0890765</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.144402</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.132455</v>
+        <v>0.133994</v>
       </c>
       <c r="C103" t="n">
-        <v>0.741468</v>
+        <v>0.21021</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0913614</v>
+        <v>0.750596</v>
       </c>
       <c r="E103" t="n">
-        <v>0.142052</v>
+        <v>0.0907331</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.147199</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.134929</v>
+        <v>0.139159</v>
       </c>
       <c r="C104" t="n">
-        <v>0.717103</v>
+        <v>0.223937</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0949492</v>
+        <v>0.729677</v>
       </c>
       <c r="E104" t="n">
-        <v>0.147486</v>
+        <v>0.0993694</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.151748</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.146194</v>
+        <v>0.146966</v>
       </c>
       <c r="C105" t="n">
-        <v>0.741063</v>
+        <v>0.244235</v>
       </c>
       <c r="D105" t="n">
-        <v>0.101331</v>
+        <v>0.759741</v>
       </c>
       <c r="E105" t="n">
-        <v>0.157219</v>
+        <v>0.103286</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.162843</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.162278</v>
+        <v>0.160247</v>
       </c>
       <c r="C106" t="n">
-        <v>0.773545</v>
+        <v>0.266752</v>
       </c>
       <c r="D106" t="n">
-        <v>0.109201</v>
+        <v>0.791014</v>
       </c>
       <c r="E106" t="n">
-        <v>0.168966</v>
+        <v>0.110093</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.180776</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180216</v>
+        <v>0.184069</v>
       </c>
       <c r="C107" t="n">
-        <v>0.58838</v>
+        <v>0.295776</v>
       </c>
       <c r="D107" t="n">
-        <v>0.120931</v>
+        <v>0.601715</v>
       </c>
       <c r="E107" t="n">
-        <v>0.193946</v>
+        <v>0.126253</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.193446</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.227964</v>
+        <v>0.214207</v>
       </c>
       <c r="C108" t="n">
-        <v>0.611895</v>
+        <v>0.370961</v>
       </c>
       <c r="D108" t="n">
-        <v>0.15959</v>
+        <v>0.599239</v>
       </c>
       <c r="E108" t="n">
-        <v>0.192157</v>
+        <v>0.15975</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.206002</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.277964</v>
+        <v>0.267192</v>
       </c>
       <c r="C109" t="n">
-        <v>0.596143</v>
+        <v>0.446488</v>
       </c>
       <c r="D109" t="n">
-        <v>0.163955</v>
+        <v>0.639622</v>
       </c>
       <c r="E109" t="n">
-        <v>0.203041</v>
+        <v>0.16606</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.203402</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.200147</v>
+        <v>0.198989</v>
       </c>
       <c r="C110" t="n">
-        <v>0.602805</v>
+        <v>0.255461</v>
       </c>
       <c r="D110" t="n">
-        <v>0.160917</v>
+        <v>0.609065</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2028</v>
+        <v>0.178126</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.217293</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.201444</v>
+        <v>0.189871</v>
       </c>
       <c r="C111" t="n">
-        <v>0.631243</v>
+        <v>0.265803</v>
       </c>
       <c r="D111" t="n">
-        <v>0.166639</v>
+        <v>0.654481</v>
       </c>
       <c r="E111" t="n">
-        <v>0.209352</v>
+        <v>0.168409</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.214614</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.194989</v>
+        <v>0.200716</v>
       </c>
       <c r="C112" t="n">
-        <v>0.655291</v>
+        <v>0.268427</v>
       </c>
       <c r="D112" t="n">
-        <v>0.160831</v>
+        <v>0.655195</v>
       </c>
       <c r="E112" t="n">
-        <v>0.207365</v>
+        <v>0.175852</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.21609</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.204305</v>
+        <v>0.19658</v>
       </c>
       <c r="C113" t="n">
-        <v>0.673547</v>
+        <v>0.286039</v>
       </c>
       <c r="D113" t="n">
-        <v>0.158858</v>
+        <v>0.675998</v>
       </c>
       <c r="E113" t="n">
-        <v>0.209408</v>
+        <v>0.172378</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.223203</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.210239</v>
+        <v>0.200919</v>
       </c>
       <c r="C114" t="n">
-        <v>0.686676</v>
+        <v>0.31276</v>
       </c>
       <c r="D114" t="n">
-        <v>0.158719</v>
+        <v>0.755552</v>
       </c>
       <c r="E114" t="n">
-        <v>0.218834</v>
+        <v>0.174748</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.221526</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200875</v>
+        <v>0.200941</v>
       </c>
       <c r="C115" t="n">
-        <v>0.70024</v>
+        <v>0.295991</v>
       </c>
       <c r="D115" t="n">
-        <v>0.163368</v>
+        <v>0.763671</v>
       </c>
       <c r="E115" t="n">
-        <v>0.226408</v>
+        <v>0.17428</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.246306</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220065</v>
+        <v>0.207715</v>
       </c>
       <c r="C116" t="n">
-        <v>0.727032</v>
+        <v>0.299796</v>
       </c>
       <c r="D116" t="n">
-        <v>0.169617</v>
+        <v>0.799231</v>
       </c>
       <c r="E116" t="n">
-        <v>0.226503</v>
+        <v>0.186468</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.235574</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211184</v>
+        <v>0.21595</v>
       </c>
       <c r="C117" t="n">
-        <v>0.764812</v>
+        <v>0.324812</v>
       </c>
       <c r="D117" t="n">
-        <v>0.181696</v>
+        <v>0.755731</v>
       </c>
       <c r="E117" t="n">
-        <v>0.247054</v>
+        <v>0.17528</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.250987</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.225002</v>
+        <v>0.224884</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.32714</v>
       </c>
       <c r="D118" t="n">
-        <v>0.177212</v>
+        <v>0.780632</v>
       </c>
       <c r="E118" t="n">
-        <v>0.239733</v>
+        <v>0.178157</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.252331</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23541</v>
+        <v>0.233699</v>
       </c>
       <c r="C119" t="n">
-        <v>0.793649</v>
+        <v>0.356228</v>
       </c>
       <c r="D119" t="n">
-        <v>0.189436</v>
+        <v>0.795302</v>
       </c>
       <c r="E119" t="n">
-        <v>0.254837</v>
+        <v>0.183049</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.263008</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.249359</v>
+        <v>0.239236</v>
       </c>
       <c r="C120" t="n">
-        <v>0.820983</v>
+        <v>0.372917</v>
       </c>
       <c r="D120" t="n">
-        <v>0.180882</v>
+        <v>0.828339</v>
       </c>
       <c r="E120" t="n">
-        <v>0.265438</v>
+        <v>0.193771</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.279702</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.285142</v>
+        <v>0.293913</v>
       </c>
       <c r="C121" t="n">
-        <v>0.622013</v>
+        <v>0.428536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.19919</v>
+        <v>0.622286</v>
       </c>
       <c r="E121" t="n">
-        <v>0.283197</v>
+        <v>0.202813</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.288369</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.315647</v>
+        <v>0.307618</v>
       </c>
       <c r="C122" t="n">
-        <v>0.632995</v>
+        <v>0.472224</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223159</v>
+        <v>0.652288</v>
       </c>
       <c r="E122" t="n">
-        <v>0.313308</v>
+        <v>0.220504</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.318656</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.372855</v>
+        <v>0.368569</v>
       </c>
       <c r="C123" t="n">
-        <v>0.692623</v>
+        <v>0.574834</v>
       </c>
       <c r="D123" t="n">
-        <v>0.243436</v>
+        <v>0.676368</v>
       </c>
       <c r="E123" t="n">
-        <v>0.298773</v>
+        <v>0.260843</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.307202</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.294474</v>
+        <v>0.297245</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6918609999999999</v>
+        <v>0.367836</v>
       </c>
       <c r="D124" t="n">
-        <v>0.241477</v>
+        <v>0.678935</v>
       </c>
       <c r="E124" t="n">
-        <v>0.301459</v>
+        <v>0.262811</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.320527</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.309194</v>
+        <v>0.317942</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7067830000000001</v>
+        <v>0.383942</v>
       </c>
       <c r="D125" t="n">
-        <v>0.243902</v>
+        <v>0.695265</v>
       </c>
       <c r="E125" t="n">
-        <v>0.309285</v>
+        <v>0.260509</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.318944</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307946</v>
+        <v>0.313994</v>
       </c>
       <c r="C126" t="n">
-        <v>0.738468</v>
+        <v>0.392703</v>
       </c>
       <c r="D126" t="n">
-        <v>0.247231</v>
+        <v>0.735338</v>
       </c>
       <c r="E126" t="n">
-        <v>0.320243</v>
+        <v>0.259653</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.329712</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.322257</v>
+        <v>0.30735</v>
       </c>
       <c r="C127" t="n">
-        <v>0.770956</v>
+        <v>0.390943</v>
       </c>
       <c r="D127" t="n">
-        <v>0.254959</v>
+        <v>0.798901</v>
       </c>
       <c r="E127" t="n">
-        <v>0.310272</v>
+        <v>0.264161</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.332959</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.316288</v>
+        <v>0.312989</v>
       </c>
       <c r="C128" t="n">
-        <v>0.779277</v>
+        <v>0.409068</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260612</v>
+        <v>0.794857</v>
       </c>
       <c r="E128" t="n">
-        <v>0.322338</v>
+        <v>0.263779</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.334225</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320256</v>
+        <v>0.317958</v>
       </c>
       <c r="C129" t="n">
-        <v>0.819825</v>
+        <v>0.410232</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252951</v>
+        <v>0.816261</v>
       </c>
       <c r="E129" t="n">
-        <v>0.327691</v>
+        <v>0.271309</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.337933</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.331397</v>
+        <v>0.324615</v>
       </c>
       <c r="C130" t="n">
-        <v>0.834842</v>
+        <v>0.425038</v>
       </c>
       <c r="D130" t="n">
-        <v>0.249806</v>
+        <v>0.835693</v>
       </c>
       <c r="E130" t="n">
-        <v>0.326871</v>
+        <v>0.277821</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.345105</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.334536</v>
+        <v>0.345059</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8807199999999999</v>
+        <v>0.438652</v>
       </c>
       <c r="D131" t="n">
-        <v>0.262099</v>
+        <v>0.849078</v>
       </c>
       <c r="E131" t="n">
-        <v>0.336089</v>
+        <v>0.281202</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.35389</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.345559</v>
+        <v>0.340994</v>
       </c>
       <c r="C132" t="n">
-        <v>0.903593</v>
+        <v>0.444802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.276994</v>
+        <v>0.894078</v>
       </c>
       <c r="E132" t="n">
-        <v>0.354655</v>
+        <v>0.291939</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.369753</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.352185</v>
+        <v>0.352064</v>
       </c>
       <c r="C133" t="n">
-        <v>0.945522</v>
+        <v>0.484215</v>
       </c>
       <c r="D133" t="n">
-        <v>0.282978</v>
+        <v>0.907646</v>
       </c>
       <c r="E133" t="n">
-        <v>0.357813</v>
+        <v>0.284527</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.387269</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.373564</v>
+        <v>0.374328</v>
       </c>
       <c r="C134" t="n">
-        <v>0.969454</v>
+        <v>0.490107</v>
       </c>
       <c r="D134" t="n">
-        <v>0.276001</v>
+        <v>0.974221</v>
       </c>
       <c r="E134" t="n">
-        <v>0.380805</v>
+        <v>0.292598</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.39648</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.409962</v>
+        <v>0.407351</v>
       </c>
       <c r="C135" t="n">
-        <v>0.803957</v>
+        <v>0.540696</v>
       </c>
       <c r="D135" t="n">
-        <v>0.294845</v>
+        <v>0.7940199999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.384919</v>
+        <v>0.308467</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.408774</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.447973</v>
+        <v>0.443273</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8240499999999999</v>
+        <v>0.603185</v>
       </c>
       <c r="D136" t="n">
-        <v>0.315885</v>
+        <v>0.833983</v>
       </c>
       <c r="E136" t="n">
-        <v>0.425405</v>
+        <v>0.324637</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.449019</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.521126</v>
+        <v>0.510499</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8585429999999999</v>
+        <v>0.7122849999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.296414</v>
+        <v>0.848146</v>
       </c>
       <c r="E137" t="n">
-        <v>0.358842</v>
+        <v>0.317025</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.3817</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.371656</v>
+        <v>0.366155</v>
       </c>
       <c r="C138" t="n">
-        <v>0.885516</v>
+        <v>0.45452</v>
       </c>
       <c r="D138" t="n">
-        <v>0.29492</v>
+        <v>0.8742220000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.35665</v>
+        <v>0.320499</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.381387</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382165</v>
+        <v>0.389644</v>
       </c>
       <c r="C139" t="n">
-        <v>0.907821</v>
+        <v>0.450897</v>
       </c>
       <c r="D139" t="n">
-        <v>0.303491</v>
+        <v>0.9140779999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.356493</v>
+        <v>0.336641</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.395609</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.384831</v>
+        <v>0.380412</v>
       </c>
       <c r="C140" t="n">
-        <v>0.949579</v>
+        <v>0.471499</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306144</v>
+        <v>0.956361</v>
       </c>
       <c r="E140" t="n">
-        <v>0.373388</v>
+        <v>0.339699</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.395743</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.384197</v>
+        <v>0.392222</v>
       </c>
       <c r="C141" t="n">
-        <v>0.969297</v>
+        <v>0.463945</v>
       </c>
       <c r="D141" t="n">
-        <v>0.30012</v>
+        <v>0.9822</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368776</v>
+        <v>0.325216</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.400344</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.381095</v>
+        <v>0.392979</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00328</v>
+        <v>0.491851</v>
       </c>
       <c r="D142" t="n">
-        <v>0.305004</v>
+        <v>1.02939</v>
       </c>
       <c r="E142" t="n">
-        <v>0.386281</v>
+        <v>0.341496</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.409126</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.399019</v>
+        <v>0.40165</v>
       </c>
       <c r="C143" t="n">
-        <v>1.04029</v>
+        <v>0.507611</v>
       </c>
       <c r="D143" t="n">
-        <v>0.306329</v>
+        <v>1.05159</v>
       </c>
       <c r="E143" t="n">
-        <v>0.394295</v>
+        <v>0.331635</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.413331</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0403478</v>
+        <v>0.0404362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0418587</v>
+        <v>0.041986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.112649</v>
+        <v>0.116246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0341305</v>
+        <v>0.0324778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0329172</v>
+        <v>0.0327558</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0457722</v>
+        <v>0.0417594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0425769</v>
+        <v>0.0435933</v>
       </c>
       <c r="D3" t="n">
-        <v>0.117847</v>
+        <v>0.122458</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0360532</v>
+        <v>0.0337755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0334342</v>
+        <v>0.0335681</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0459112</v>
+        <v>0.0445887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0465569</v>
+        <v>0.0451925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.117279</v>
+        <v>0.124318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350972</v>
+        <v>0.0350723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0348603</v>
+        <v>0.0351705</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0510298</v>
+        <v>0.0502431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0538009</v>
+        <v>0.0499336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.126782</v>
+        <v>0.129965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0395226</v>
+        <v>0.0360469</v>
       </c>
       <c r="F5" t="n">
-        <v>0.036706</v>
+        <v>0.0359472</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0583501</v>
+        <v>0.0570153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0609585</v>
+        <v>0.0599362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.132169</v>
+        <v>0.138796</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0422165</v>
+        <v>0.0406152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0398639</v>
+        <v>0.0389581</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07202219999999999</v>
+        <v>0.06806909999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.073476</v>
+        <v>0.07032239999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.094129</v>
+        <v>0.099283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.048565</v>
+        <v>0.0479201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0489671</v>
+        <v>0.0456343</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0936649</v>
+        <v>0.0873116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0933147</v>
+        <v>0.092393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0995259</v>
+        <v>0.101528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0604955</v>
+        <v>0.0597865</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0574787</v>
+        <v>0.0572511</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.128414</v>
+        <v>0.119508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.125785</v>
+        <v>0.119817</v>
       </c>
       <c r="D9" t="n">
-        <v>0.102635</v>
+        <v>0.106786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0307141</v>
+        <v>0.0303854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0331568</v>
+        <v>0.033305</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0409162</v>
+        <v>0.0389041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0417049</v>
+        <v>0.0420637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.107375</v>
+        <v>0.11205</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0312452</v>
+        <v>0.031037</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0324353</v>
+        <v>0.0329142</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0398651</v>
+        <v>0.040616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0406202</v>
+        <v>0.041538</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118606</v>
+        <v>0.118638</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0307794</v>
+        <v>0.0306992</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0329962</v>
+        <v>0.0333101</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.040226</v>
+        <v>0.0395175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0420459</v>
+        <v>0.0450282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115341</v>
+        <v>0.122719</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0318896</v>
+        <v>0.0313068</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0344892</v>
+        <v>0.033834</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0403017</v>
+        <v>0.0399744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0427808</v>
+        <v>0.0453172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.119886</v>
+        <v>0.128513</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0321123</v>
+        <v>0.0314736</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0338171</v>
+        <v>0.03471</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0406903</v>
+        <v>0.0408352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04332</v>
+        <v>0.0450283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.125694</v>
+        <v>0.131175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0328463</v>
+        <v>0.0317195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0344222</v>
+        <v>0.0352389</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0417792</v>
+        <v>0.044551</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0444573</v>
+        <v>0.0457955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.125912</v>
+        <v>0.141678</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0335462</v>
+        <v>0.0331701</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0375562</v>
+        <v>0.0352946</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0442526</v>
+        <v>0.0435382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0494107</v>
+        <v>0.0474843</v>
       </c>
       <c r="D16" t="n">
-        <v>0.134667</v>
+        <v>0.144116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.035181</v>
+        <v>0.0357789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0358253</v>
+        <v>0.0359599</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0487206</v>
+        <v>0.0453576</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0501328</v>
+        <v>0.0485653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.136499</v>
+        <v>0.141976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0375892</v>
+        <v>0.0362708</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0393574</v>
+        <v>0.0373824</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0504014</v>
+        <v>0.0501786</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0532234</v>
+        <v>0.0543532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.142941</v>
+        <v>0.152324</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0378633</v>
+        <v>0.0374009</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0384594</v>
+        <v>0.0383808</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0577281</v>
+        <v>0.0544271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059275</v>
+        <v>0.059371</v>
       </c>
       <c r="D19" t="n">
-        <v>0.14408</v>
+        <v>0.151239</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0391747</v>
+        <v>0.0392211</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0402402</v>
+        <v>0.0418777</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0637868</v>
+        <v>0.0606677</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0679763</v>
+        <v>0.0645435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.151102</v>
+        <v>0.162025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0428978</v>
+        <v>0.0427745</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0452189</v>
+        <v>0.0439695</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0765532</v>
+        <v>0.074145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0791738</v>
+        <v>0.07972369999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106575</v>
+        <v>0.110723</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0498126</v>
+        <v>0.0483317</v>
       </c>
       <c r="F21" t="n">
-        <v>0.049653</v>
+        <v>0.0496986</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0969846</v>
+        <v>0.09081939999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0983769</v>
+        <v>0.09321119999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116095</v>
+        <v>0.112144</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609763</v>
+        <v>0.0609434</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0635228</v>
+        <v>0.0602872</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121288</v>
+        <v>0.120811</v>
       </c>
       <c r="C23" t="n">
-        <v>0.130639</v>
+        <v>0.122248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118741</v>
+        <v>0.118618</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0312517</v>
+        <v>0.030753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0355274</v>
+        <v>0.0353468</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0414866</v>
+        <v>0.0416771</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0461765</v>
+        <v>0.0478926</v>
       </c>
       <c r="D24" t="n">
-        <v>0.123659</v>
+        <v>0.125958</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0318993</v>
+        <v>0.0317401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0375738</v>
+        <v>0.0368002</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0431114</v>
+        <v>0.04164</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0477762</v>
+        <v>0.0478428</v>
       </c>
       <c r="D25" t="n">
-        <v>0.129578</v>
+        <v>0.130175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0321368</v>
+        <v>0.0312143</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365773</v>
+        <v>0.0365007</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0439607</v>
+        <v>0.0421758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0474211</v>
+        <v>0.0473957</v>
       </c>
       <c r="D26" t="n">
-        <v>0.131501</v>
+        <v>0.132907</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0322047</v>
+        <v>0.0315112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0372113</v>
+        <v>0.0368916</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0430035</v>
+        <v>0.0439696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0483163</v>
+        <v>0.050343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.134561</v>
+        <v>0.137876</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0321049</v>
+        <v>0.0325526</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0377261</v>
+        <v>0.0376497</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0440072</v>
+        <v>0.043697</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0500611</v>
+        <v>0.0502933</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140452</v>
+        <v>0.140166</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0329133</v>
+        <v>0.0326467</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0397481</v>
+        <v>0.0383194</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0454778</v>
+        <v>0.045005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0518127</v>
+        <v>0.0521585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.143778</v>
+        <v>0.149553</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0344193</v>
+        <v>0.0334457</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0391428</v>
+        <v>0.0387334</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465453</v>
+        <v>0.0465236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0557879</v>
+        <v>0.0538341</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152228</v>
+        <v>0.152487</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0348999</v>
+        <v>0.0349555</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0409641</v>
+        <v>0.040995</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0503646</v>
+        <v>0.0488954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0580084</v>
+        <v>0.0572025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.153652</v>
+        <v>0.156806</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0365766</v>
+        <v>0.0357641</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0443904</v>
+        <v>0.0417069</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0549661</v>
+        <v>0.0513122</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0585865</v>
+        <v>0.0614403</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157367</v>
+        <v>0.166565</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0370902</v>
+        <v>0.0368108</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0428938</v>
+        <v>0.042747</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0577751</v>
+        <v>0.0558583</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0637962</v>
+        <v>0.0665572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166896</v>
+        <v>0.171394</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0386173</v>
+        <v>0.0391967</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0455403</v>
+        <v>0.0453143</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06474729999999999</v>
+        <v>0.06331589999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07316309999999999</v>
+        <v>0.0722377</v>
       </c>
       <c r="D34" t="n">
-        <v>0.175482</v>
+        <v>0.171562</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0425776</v>
+        <v>0.0422655</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0510728</v>
+        <v>0.0482619</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0771244</v>
+        <v>0.0728707</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0869361</v>
+        <v>0.08380360000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.133354</v>
+        <v>0.128175</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475596</v>
+        <v>0.0475461</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0541048</v>
+        <v>0.0537826</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09288399999999999</v>
+        <v>0.08846759999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0989077</v>
+        <v>0.09875200000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.138636</v>
+        <v>0.134887</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560053</v>
+        <v>0.0560714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0619955</v>
+        <v>0.0628471</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.11588</v>
+        <v>0.117061</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124078</v>
+        <v>0.127238</v>
       </c>
       <c r="D37" t="n">
-        <v>0.136577</v>
+        <v>0.143487</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0356877</v>
+        <v>0.0344162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0421562</v>
+        <v>0.0430593</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0477911</v>
+        <v>0.0459329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0567394</v>
+        <v>0.0572698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.144568</v>
+        <v>0.150834</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0339289</v>
+        <v>0.0342813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0421044</v>
+        <v>0.0432442</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0483314</v>
+        <v>0.0487169</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0578411</v>
+        <v>0.0582866</v>
       </c>
       <c r="D39" t="n">
-        <v>0.149664</v>
+        <v>0.159981</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0356273</v>
+        <v>0.0378599</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0432143</v>
+        <v>0.044102</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0471055</v>
+        <v>0.0461593</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595694</v>
+        <v>0.0595433</v>
       </c>
       <c r="D40" t="n">
-        <v>0.160913</v>
+        <v>0.16531</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0352508</v>
+        <v>0.0344896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0450848</v>
+        <v>0.0443527</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.047977</v>
+        <v>0.0469866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0612507</v>
+        <v>0.0623402</v>
       </c>
       <c r="D41" t="n">
-        <v>0.164544</v>
+        <v>0.177457</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0354834</v>
+        <v>0.035605</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0457491</v>
+        <v>0.0495032</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0490616</v>
+        <v>0.0477105</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06542539999999999</v>
+        <v>0.0638729</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178511</v>
+        <v>0.193805</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354344</v>
+        <v>0.0354899</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0460673</v>
+        <v>0.0467169</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0494668</v>
+        <v>0.0488798</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06458469999999999</v>
+        <v>0.0655994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180577</v>
+        <v>0.197669</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0389526</v>
+        <v>0.0361927</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0481678</v>
+        <v>0.0476285</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.051151</v>
+        <v>0.0508165</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06965929999999999</v>
+        <v>0.0680159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.194351</v>
+        <v>0.205484</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0370909</v>
+        <v>0.0398077</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0494176</v>
+        <v>0.0492365</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0547304</v>
+        <v>0.0536734</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0725382</v>
+        <v>0.07188990000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210184</v>
+        <v>0.225882</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0390004</v>
+        <v>0.0381182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0511922</v>
+        <v>0.0510109</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0568816</v>
+        <v>0.0557344</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0747057</v>
+        <v>0.07529619999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224022</v>
+        <v>0.229607</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0419903</v>
+        <v>0.0395388</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0567414</v>
+        <v>0.052651</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0629039</v>
+        <v>0.0600394</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0845375</v>
+        <v>0.0806094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248913</v>
+        <v>0.244161</v>
       </c>
       <c r="E47" t="n">
-        <v>0.042465</v>
+        <v>0.0416194</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0570598</v>
+        <v>0.0568505</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0670072</v>
+        <v>0.0661538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0873891</v>
+        <v>0.0869086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251547</v>
+        <v>0.260082</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0454104</v>
+        <v>0.0457633</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0593888</v>
+        <v>0.0606538</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0763176</v>
+        <v>0.0759223</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0960082</v>
+        <v>0.10024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.262021</v>
+        <v>0.298851</v>
       </c>
       <c r="E49" t="n">
-        <v>0.049122</v>
+        <v>0.0489659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0668787</v>
+        <v>0.0649551</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0913934</v>
+        <v>0.0906221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.117537</v>
+        <v>0.11429</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21444</v>
+        <v>0.214434</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0557328</v>
+        <v>0.0556428</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0717578</v>
+        <v>0.0722276</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116638</v>
+        <v>0.12013</v>
       </c>
       <c r="C51" t="n">
-        <v>0.143266</v>
+        <v>0.141017</v>
       </c>
       <c r="D51" t="n">
-        <v>0.220665</v>
+        <v>0.237603</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0408324</v>
+        <v>0.0413313</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0513995</v>
+        <v>0.0528234</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.153126</v>
+        <v>0.154244</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175566</v>
+        <v>0.178435</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242612</v>
+        <v>0.240196</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0434667</v>
+        <v>0.0407936</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0529426</v>
+        <v>0.0548775</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0555717</v>
+        <v>0.0551701</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07230839999999999</v>
+        <v>0.07398349999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.250109</v>
+        <v>0.254403</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0415566</v>
+        <v>0.0412837</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05518</v>
+        <v>0.0530613</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.057639</v>
+        <v>0.0566962</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0753605</v>
+        <v>0.0757848</v>
       </c>
       <c r="D54" t="n">
-        <v>0.272849</v>
+        <v>0.271524</v>
       </c>
       <c r="E54" t="n">
-        <v>0.042151</v>
+        <v>0.0414938</v>
       </c>
       <c r="F54" t="n">
-        <v>0.056847</v>
+        <v>0.0544707</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0574334</v>
+        <v>0.0569572</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0783466</v>
+        <v>0.078907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277557</v>
+        <v>0.283266</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0433986</v>
+        <v>0.0427383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0574687</v>
+        <v>0.0561123</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0601636</v>
+        <v>0.058437</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0802957</v>
+        <v>0.0809004</v>
       </c>
       <c r="D56" t="n">
-        <v>0.296501</v>
+        <v>0.302774</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0429446</v>
+        <v>0.0427525</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0563936</v>
+        <v>0.0580761</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0596674</v>
+        <v>0.0593854</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08514289999999999</v>
+        <v>0.0910841</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314336</v>
+        <v>0.330268</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0465437</v>
+        <v>0.0444326</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0602794</v>
+        <v>0.0611473</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0648122</v>
+        <v>0.0614494</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0859954</v>
+        <v>0.0849065</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319549</v>
+        <v>0.336314</v>
       </c>
       <c r="E58" t="n">
-        <v>0.044449</v>
+        <v>0.0453353</v>
       </c>
       <c r="F58" t="n">
-        <v>0.062734</v>
+        <v>0.0614085</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0632424</v>
+        <v>0.0636515</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08802699999999999</v>
+        <v>0.0907852</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341151</v>
+        <v>0.355425</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0462602</v>
+        <v>0.0466662</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0616992</v>
+        <v>0.0630646</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0655647</v>
+        <v>0.0700942</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0981186</v>
+        <v>0.0933652</v>
       </c>
       <c r="D60" t="n">
-        <v>0.365429</v>
+        <v>0.371713</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047376</v>
+        <v>0.047456</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0639005</v>
+        <v>0.0651863</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07077940000000001</v>
+        <v>0.0710199</v>
       </c>
       <c r="C61" t="n">
-        <v>0.100619</v>
+        <v>0.101091</v>
       </c>
       <c r="D61" t="n">
-        <v>0.399239</v>
+        <v>0.388808</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0501428</v>
+        <v>0.0491451</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0678744</v>
+        <v>0.06736159999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07643750000000001</v>
+        <v>0.0756875</v>
       </c>
       <c r="C62" t="n">
-        <v>0.110902</v>
+        <v>0.106938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.403076</v>
+        <v>0.409971</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0524898</v>
+        <v>0.0521299</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07325619999999999</v>
+        <v>0.0723188</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08336449999999999</v>
+        <v>0.0853706</v>
       </c>
       <c r="C63" t="n">
-        <v>0.125144</v>
+        <v>0.11949</v>
       </c>
       <c r="D63" t="n">
-        <v>0.429141</v>
+        <v>0.434777</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0564312</v>
+        <v>0.0571107</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0773788</v>
+        <v>0.0777558</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0956835</v>
+        <v>0.09668350000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135533</v>
+        <v>0.134404</v>
       </c>
       <c r="D64" t="n">
-        <v>0.336701</v>
+        <v>0.344521</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06537660000000001</v>
+        <v>0.0631449</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08594350000000001</v>
+        <v>0.0854058</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117593</v>
+        <v>0.119381</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162687</v>
+        <v>0.159236</v>
       </c>
       <c r="D65" t="n">
-        <v>0.354871</v>
+        <v>0.351988</v>
       </c>
       <c r="E65" t="n">
-        <v>0.074138</v>
+        <v>0.0746338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.099409</v>
+        <v>0.0986189</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156805</v>
+        <v>0.158493</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214517</v>
+        <v>0.203579</v>
       </c>
       <c r="D66" t="n">
-        <v>0.367571</v>
+        <v>0.371605</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0478158</v>
+        <v>0.0475054</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0610858</v>
+        <v>0.061328</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06573039999999999</v>
+        <v>0.06386169999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0896233</v>
+        <v>0.0882926</v>
       </c>
       <c r="D67" t="n">
-        <v>0.400895</v>
+        <v>0.381588</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0482665</v>
+        <v>0.0468844</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0624781</v>
+        <v>0.0618258</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0673053</v>
+        <v>0.0650374</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0904368</v>
+        <v>0.0897511</v>
       </c>
       <c r="D68" t="n">
-        <v>0.413366</v>
+        <v>0.416642</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0486928</v>
+        <v>0.0477552</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0628707</v>
+        <v>0.06297460000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0668928</v>
+        <v>0.0654559</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09346930000000001</v>
+        <v>0.0954667</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414517</v>
+        <v>0.428868</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0487634</v>
+        <v>0.0476321</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06404319999999999</v>
+        <v>0.06471830000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06934609999999999</v>
+        <v>0.0669676</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0964071</v>
+        <v>0.0978571</v>
       </c>
       <c r="D70" t="n">
-        <v>0.443311</v>
+        <v>0.437423</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0492994</v>
+        <v>0.0497952</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0653256</v>
+        <v>0.0647721</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0704325</v>
+        <v>0.0688936</v>
       </c>
       <c r="C71" t="n">
-        <v>0.10722</v>
+        <v>0.100299</v>
       </c>
       <c r="D71" t="n">
-        <v>0.44527</v>
+        <v>0.456569</v>
       </c>
       <c r="E71" t="n">
-        <v>0.050415</v>
+        <v>0.0497732</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06864679999999999</v>
+        <v>0.0725305</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07218670000000001</v>
+        <v>0.07111969999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.10806</v>
+        <v>0.107175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.492269</v>
+        <v>0.468044</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518088</v>
+        <v>0.0518184</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0720898</v>
+        <v>0.07032629999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0741634</v>
+        <v>0.0727338</v>
       </c>
       <c r="C73" t="n">
-        <v>0.111279</v>
+        <v>0.112048</v>
       </c>
       <c r="D73" t="n">
-        <v>0.487653</v>
+        <v>0.486261</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0548355</v>
+        <v>0.0523911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738375</v>
+        <v>0.0738123</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07715669999999999</v>
+        <v>0.0753537</v>
       </c>
       <c r="C74" t="n">
-        <v>0.117079</v>
+        <v>0.119469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.500493</v>
+        <v>0.508954</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0544719</v>
+        <v>0.0546589</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07627539999999999</v>
+        <v>0.0789223</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0834674</v>
+        <v>0.0799859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.129966</v>
+        <v>0.128779</v>
       </c>
       <c r="D75" t="n">
-        <v>0.524124</v>
+        <v>0.549866</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0582916</v>
+        <v>0.0561139</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0858453</v>
+        <v>0.0796655</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0911676</v>
+        <v>0.0862149</v>
       </c>
       <c r="C76" t="n">
-        <v>0.138836</v>
+        <v>0.142744</v>
       </c>
       <c r="D76" t="n">
-        <v>0.547789</v>
+        <v>0.548701</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0613024</v>
+        <v>0.0598729</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0952833</v>
+        <v>0.0891107</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.102271</v>
+        <v>0.099398</v>
       </c>
       <c r="C77" t="n">
-        <v>0.158528</v>
+        <v>0.151816</v>
       </c>
       <c r="D77" t="n">
-        <v>0.569587</v>
+        <v>0.577696</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06546059999999999</v>
+        <v>0.0655797</v>
       </c>
       <c r="F77" t="n">
-        <v>0.095095</v>
+        <v>0.10123</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.111392</v>
+        <v>0.116046</v>
       </c>
       <c r="C78" t="n">
-        <v>0.186513</v>
+        <v>0.170264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.457312</v>
+        <v>0.435619</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07263219999999999</v>
+        <v>0.074755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.107657</v>
+        <v>0.106528</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.13858</v>
+        <v>0.129634</v>
       </c>
       <c r="C79" t="n">
-        <v>0.208992</v>
+        <v>0.201055</v>
       </c>
       <c r="D79" t="n">
-        <v>0.464269</v>
+        <v>0.452011</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08481320000000001</v>
+        <v>0.08676059999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.122237</v>
+        <v>0.118167</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.165146</v>
+        <v>0.177057</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252319</v>
+        <v>0.251908</v>
       </c>
       <c r="D80" t="n">
-        <v>0.483866</v>
+        <v>0.475599</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0515429</v>
+        <v>0.0539204</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0715438</v>
+        <v>0.0729897</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07967929999999999</v>
+        <v>0.07768890000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.116452</v>
+        <v>0.112193</v>
       </c>
       <c r="D81" t="n">
-        <v>0.491731</v>
+        <v>0.484759</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0529565</v>
+        <v>0.0542798</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0777491</v>
+        <v>0.0791089</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07914300000000001</v>
+        <v>0.0790233</v>
       </c>
       <c r="C82" t="n">
-        <v>0.121422</v>
+        <v>0.115862</v>
       </c>
       <c r="D82" t="n">
-        <v>0.511722</v>
+        <v>0.512985</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0541984</v>
+        <v>0.0571083</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0775598</v>
+        <v>0.07432900000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07944030000000001</v>
+        <v>0.0843458</v>
       </c>
       <c r="C83" t="n">
-        <v>0.127257</v>
+        <v>0.124253</v>
       </c>
       <c r="D83" t="n">
-        <v>0.533863</v>
+        <v>0.51098</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0547601</v>
+        <v>0.0583103</v>
       </c>
       <c r="F83" t="n">
-        <v>0.081188</v>
+        <v>0.0779292</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0859463</v>
+        <v>0.0893636</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130306</v>
+        <v>0.130475</v>
       </c>
       <c r="D84" t="n">
-        <v>0.546266</v>
+        <v>0.540766</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0585637</v>
+        <v>0.0617369</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0854987</v>
+        <v>0.0849266</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0837883</v>
+        <v>0.094219</v>
       </c>
       <c r="C85" t="n">
-        <v>0.138625</v>
+        <v>0.140659</v>
       </c>
       <c r="D85" t="n">
-        <v>0.561926</v>
+        <v>0.555134</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0594847</v>
+        <v>0.06457889999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0860846</v>
+        <v>0.0870744</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0882067</v>
+        <v>0.0979448</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144655</v>
+        <v>0.144325</v>
       </c>
       <c r="D86" t="n">
-        <v>0.592424</v>
+        <v>0.574121</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0616091</v>
+        <v>0.0676546</v>
       </c>
       <c r="F86" t="n">
-        <v>0.09388489999999999</v>
+        <v>0.0885669</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0938725</v>
+        <v>0.0984781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148845</v>
+        <v>0.148939</v>
       </c>
       <c r="D87" t="n">
-        <v>0.59314</v>
+        <v>0.586298</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0636974</v>
+        <v>0.0665384</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0977189</v>
+        <v>0.0913786</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0958572</v>
+        <v>0.0976479</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160535</v>
+        <v>0.1583</v>
       </c>
       <c r="D88" t="n">
-        <v>0.607954</v>
+        <v>0.601536</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0694113</v>
+        <v>0.0683646</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09929449999999999</v>
+        <v>0.0983782</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.102529</v>
+        <v>0.101102</v>
       </c>
       <c r="C89" t="n">
-        <v>0.170532</v>
+        <v>0.164007</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6377660000000001</v>
+        <v>0.620403</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0690113</v>
+        <v>0.06847350000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108187</v>
+        <v>0.102762</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.110858</v>
+        <v>0.1077</v>
       </c>
       <c r="C90" t="n">
-        <v>0.180454</v>
+        <v>0.174169</v>
       </c>
       <c r="D90" t="n">
-        <v>0.655182</v>
+        <v>0.641492</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0731719</v>
+        <v>0.0725128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.112355</v>
+        <v>0.110137</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.118799</v>
+        <v>0.1205</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200438</v>
+        <v>0.18898</v>
       </c>
       <c r="D91" t="n">
-        <v>0.675157</v>
+        <v>0.679501</v>
       </c>
       <c r="E91" t="n">
-        <v>0.079668</v>
+        <v>0.0788985</v>
       </c>
       <c r="F91" t="n">
-        <v>0.120185</v>
+        <v>0.118408</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131754</v>
+        <v>0.131985</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215072</v>
+        <v>0.215321</v>
       </c>
       <c r="D92" t="n">
-        <v>0.510715</v>
+        <v>0.508915</v>
       </c>
       <c r="E92" t="n">
-        <v>0.08641740000000001</v>
+        <v>0.0847053</v>
       </c>
       <c r="F92" t="n">
-        <v>0.137559</v>
+        <v>0.127258</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.150926</v>
+        <v>0.147601</v>
       </c>
       <c r="C93" t="n">
-        <v>0.259219</v>
+        <v>0.239659</v>
       </c>
       <c r="D93" t="n">
-        <v>0.526857</v>
+        <v>0.5164609999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09804010000000001</v>
+        <v>0.100589</v>
       </c>
       <c r="F93" t="n">
-        <v>0.148348</v>
+        <v>0.143147</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192562</v>
+        <v>0.180921</v>
       </c>
       <c r="C94" t="n">
-        <v>0.301513</v>
+        <v>0.288295</v>
       </c>
       <c r="D94" t="n">
-        <v>0.542504</v>
+        <v>0.550536</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07292609999999999</v>
+        <v>0.0736607</v>
       </c>
       <c r="F94" t="n">
-        <v>0.105889</v>
+        <v>0.106778</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.10423</v>
+        <v>0.107634</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161676</v>
+        <v>0.153023</v>
       </c>
       <c r="D95" t="n">
-        <v>0.553554</v>
+        <v>0.552986</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0760136</v>
+        <v>0.07269879999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.113556</v>
+        <v>0.106242</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.108679</v>
+        <v>0.105944</v>
       </c>
       <c r="C96" t="n">
-        <v>0.167568</v>
+        <v>0.160429</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5745749999999999</v>
+        <v>0.57694</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0766703</v>
+        <v>0.07476140000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.115513</v>
+        <v>0.109459</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.109223</v>
+        <v>0.107381</v>
       </c>
       <c r="C97" t="n">
-        <v>0.179995</v>
+        <v>0.166085</v>
       </c>
       <c r="D97" t="n">
-        <v>0.601817</v>
+        <v>0.581048</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0811254</v>
+        <v>0.07571170000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.120796</v>
+        <v>0.113953</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.110643</v>
+        <v>0.10852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.174694</v>
+        <v>0.175071</v>
       </c>
       <c r="D98" t="n">
-        <v>0.614754</v>
+        <v>0.593866</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07995090000000001</v>
+        <v>0.0780786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122874</v>
+        <v>0.117277</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11348</v>
+        <v>0.11235</v>
       </c>
       <c r="C99" t="n">
-        <v>0.178218</v>
+        <v>0.17442</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620737</v>
+        <v>0.615204</v>
       </c>
       <c r="E99" t="n">
-        <v>0.08531229999999999</v>
+        <v>0.0787761</v>
       </c>
       <c r="F99" t="n">
-        <v>0.12812</v>
+        <v>0.120136</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.117244</v>
+        <v>0.116102</v>
       </c>
       <c r="C100" t="n">
-        <v>0.19374</v>
+        <v>0.180881</v>
       </c>
       <c r="D100" t="n">
-        <v>0.642953</v>
+        <v>0.633903</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0867521</v>
+        <v>0.0821117</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132131</v>
+        <v>0.129824</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.120139</v>
+        <v>0.124719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.194725</v>
+        <v>0.193751</v>
       </c>
       <c r="D101" t="n">
-        <v>0.66033</v>
+        <v>0.68023</v>
       </c>
       <c r="E101" t="n">
-        <v>0.08898449999999999</v>
+        <v>0.0839321</v>
       </c>
       <c r="F101" t="n">
-        <v>0.13844</v>
+        <v>0.129727</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130318</v>
+        <v>0.124133</v>
       </c>
       <c r="C102" t="n">
-        <v>0.213152</v>
+        <v>0.202819</v>
       </c>
       <c r="D102" t="n">
-        <v>0.687069</v>
+        <v>0.669713</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0890765</v>
+        <v>0.0873278</v>
       </c>
       <c r="F102" t="n">
-        <v>0.144402</v>
+        <v>0.134873</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.133994</v>
+        <v>0.130664</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21021</v>
+        <v>0.20681</v>
       </c>
       <c r="D103" t="n">
-        <v>0.750596</v>
+        <v>0.692277</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0907331</v>
+        <v>0.0885615</v>
       </c>
       <c r="F103" t="n">
-        <v>0.147199</v>
+        <v>0.142146</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.139159</v>
+        <v>0.13302</v>
       </c>
       <c r="C104" t="n">
-        <v>0.223937</v>
+        <v>0.218941</v>
       </c>
       <c r="D104" t="n">
-        <v>0.729677</v>
+        <v>0.716569</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0993694</v>
+        <v>0.09418310000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.151748</v>
+        <v>0.145305</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.146966</v>
+        <v>0.149261</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244235</v>
+        <v>0.23741</v>
       </c>
       <c r="D105" t="n">
-        <v>0.759741</v>
+        <v>0.7390949999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.103286</v>
+        <v>0.0995622</v>
       </c>
       <c r="F105" t="n">
-        <v>0.162843</v>
+        <v>0.15793</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.160247</v>
+        <v>0.158719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.266752</v>
+        <v>0.263344</v>
       </c>
       <c r="D106" t="n">
-        <v>0.791014</v>
+        <v>0.767298</v>
       </c>
       <c r="E106" t="n">
-        <v>0.110093</v>
+        <v>0.1058</v>
       </c>
       <c r="F106" t="n">
-        <v>0.180776</v>
+        <v>0.168224</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184069</v>
+        <v>0.180233</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295776</v>
+        <v>0.295267</v>
       </c>
       <c r="D107" t="n">
-        <v>0.601715</v>
+        <v>0.571398</v>
       </c>
       <c r="E107" t="n">
-        <v>0.126253</v>
+        <v>0.117779</v>
       </c>
       <c r="F107" t="n">
-        <v>0.193446</v>
+        <v>0.18211</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.214207</v>
+        <v>0.212849</v>
       </c>
       <c r="C108" t="n">
-        <v>0.370961</v>
+        <v>0.341322</v>
       </c>
       <c r="D108" t="n">
-        <v>0.599239</v>
+        <v>0.583622</v>
       </c>
       <c r="E108" t="n">
-        <v>0.15975</v>
+        <v>0.152681</v>
       </c>
       <c r="F108" t="n">
-        <v>0.206002</v>
+        <v>0.19838</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.267192</v>
+        <v>0.265315</v>
       </c>
       <c r="C109" t="n">
-        <v>0.446488</v>
+        <v>0.429398</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639622</v>
+        <v>0.597875</v>
       </c>
       <c r="E109" t="n">
-        <v>0.16606</v>
+        <v>0.155336</v>
       </c>
       <c r="F109" t="n">
-        <v>0.203402</v>
+        <v>0.191955</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.198989</v>
+        <v>0.184051</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255461</v>
+        <v>0.255244</v>
       </c>
       <c r="D110" t="n">
-        <v>0.609065</v>
+        <v>0.615464</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178126</v>
+        <v>0.159705</v>
       </c>
       <c r="F110" t="n">
-        <v>0.217293</v>
+        <v>0.19638</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.189871</v>
+        <v>0.194568</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265803</v>
+        <v>0.255772</v>
       </c>
       <c r="D111" t="n">
-        <v>0.654481</v>
+        <v>0.626735</v>
       </c>
       <c r="E111" t="n">
-        <v>0.168409</v>
+        <v>0.153453</v>
       </c>
       <c r="F111" t="n">
-        <v>0.214614</v>
+        <v>0.211138</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.200716</v>
+        <v>0.184636</v>
       </c>
       <c r="C112" t="n">
-        <v>0.268427</v>
+        <v>0.269099</v>
       </c>
       <c r="D112" t="n">
-        <v>0.655195</v>
+        <v>0.64541</v>
       </c>
       <c r="E112" t="n">
-        <v>0.175852</v>
+        <v>0.16637</v>
       </c>
       <c r="F112" t="n">
-        <v>0.21609</v>
+        <v>0.205281</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.19658</v>
+        <v>0.185973</v>
       </c>
       <c r="C113" t="n">
-        <v>0.286039</v>
+        <v>0.266806</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675998</v>
+        <v>0.675069</v>
       </c>
       <c r="E113" t="n">
-        <v>0.172378</v>
+        <v>0.166548</v>
       </c>
       <c r="F113" t="n">
-        <v>0.223203</v>
+        <v>0.206192</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.200919</v>
+        <v>0.218221</v>
       </c>
       <c r="C114" t="n">
-        <v>0.31276</v>
+        <v>0.277832</v>
       </c>
       <c r="D114" t="n">
-        <v>0.755552</v>
+        <v>0.700316</v>
       </c>
       <c r="E114" t="n">
-        <v>0.174748</v>
+        <v>0.159151</v>
       </c>
       <c r="F114" t="n">
-        <v>0.221526</v>
+        <v>0.213917</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200941</v>
+        <v>0.196549</v>
       </c>
       <c r="C115" t="n">
-        <v>0.295991</v>
+        <v>0.287048</v>
       </c>
       <c r="D115" t="n">
-        <v>0.763671</v>
+        <v>0.713483</v>
       </c>
       <c r="E115" t="n">
-        <v>0.17428</v>
+        <v>0.161185</v>
       </c>
       <c r="F115" t="n">
-        <v>0.246306</v>
+        <v>0.216467</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.207715</v>
+        <v>0.20394</v>
       </c>
       <c r="C116" t="n">
-        <v>0.299796</v>
+        <v>0.294276</v>
       </c>
       <c r="D116" t="n">
-        <v>0.799231</v>
+        <v>0.71512</v>
       </c>
       <c r="E116" t="n">
-        <v>0.186468</v>
+        <v>0.163902</v>
       </c>
       <c r="F116" t="n">
-        <v>0.235574</v>
+        <v>0.223143</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21595</v>
+        <v>0.226312</v>
       </c>
       <c r="C117" t="n">
-        <v>0.324812</v>
+        <v>0.305553</v>
       </c>
       <c r="D117" t="n">
-        <v>0.755731</v>
+        <v>0.735619</v>
       </c>
       <c r="E117" t="n">
-        <v>0.17528</v>
+        <v>0.169941</v>
       </c>
       <c r="F117" t="n">
-        <v>0.250987</v>
+        <v>0.23325</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.224884</v>
+        <v>0.232073</v>
       </c>
       <c r="C118" t="n">
-        <v>0.32714</v>
+        <v>0.322141</v>
       </c>
       <c r="D118" t="n">
-        <v>0.780632</v>
+        <v>0.765811</v>
       </c>
       <c r="E118" t="n">
-        <v>0.178157</v>
+        <v>0.177597</v>
       </c>
       <c r="F118" t="n">
-        <v>0.252331</v>
+        <v>0.239467</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.233699</v>
+        <v>0.229083</v>
       </c>
       <c r="C119" t="n">
-        <v>0.356228</v>
+        <v>0.340711</v>
       </c>
       <c r="D119" t="n">
-        <v>0.795302</v>
+        <v>0.779219</v>
       </c>
       <c r="E119" t="n">
-        <v>0.183049</v>
+        <v>0.170275</v>
       </c>
       <c r="F119" t="n">
-        <v>0.263008</v>
+        <v>0.247549</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.239236</v>
+        <v>0.23775</v>
       </c>
       <c r="C120" t="n">
-        <v>0.372917</v>
+        <v>0.36389</v>
       </c>
       <c r="D120" t="n">
-        <v>0.828339</v>
+        <v>0.806381</v>
       </c>
       <c r="E120" t="n">
-        <v>0.193771</v>
+        <v>0.178358</v>
       </c>
       <c r="F120" t="n">
-        <v>0.279702</v>
+        <v>0.258632</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.293913</v>
+        <v>0.255962</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428536</v>
+        <v>0.406589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.622286</v>
+        <v>0.618837</v>
       </c>
       <c r="E121" t="n">
-        <v>0.202813</v>
+        <v>0.188456</v>
       </c>
       <c r="F121" t="n">
-        <v>0.288369</v>
+        <v>0.280451</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307618</v>
+        <v>0.31302</v>
       </c>
       <c r="C122" t="n">
-        <v>0.472224</v>
+        <v>0.466067</v>
       </c>
       <c r="D122" t="n">
-        <v>0.652288</v>
+        <v>0.648958</v>
       </c>
       <c r="E122" t="n">
-        <v>0.220504</v>
+        <v>0.206641</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318656</v>
+        <v>0.305266</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.368569</v>
+        <v>0.357703</v>
       </c>
       <c r="C123" t="n">
-        <v>0.574834</v>
+        <v>0.593832</v>
       </c>
       <c r="D123" t="n">
-        <v>0.676368</v>
+        <v>0.650649</v>
       </c>
       <c r="E123" t="n">
-        <v>0.260843</v>
+        <v>0.23331</v>
       </c>
       <c r="F123" t="n">
-        <v>0.307202</v>
+        <v>0.287209</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.297245</v>
+        <v>0.295337</v>
       </c>
       <c r="C124" t="n">
-        <v>0.367836</v>
+        <v>0.373797</v>
       </c>
       <c r="D124" t="n">
-        <v>0.678935</v>
+        <v>0.694852</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262811</v>
+        <v>0.241574</v>
       </c>
       <c r="F124" t="n">
-        <v>0.320527</v>
+        <v>0.291793</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317942</v>
+        <v>0.300913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.383942</v>
+        <v>0.378528</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695265</v>
+        <v>0.701847</v>
       </c>
       <c r="E125" t="n">
-        <v>0.260509</v>
+        <v>0.245558</v>
       </c>
       <c r="F125" t="n">
-        <v>0.318944</v>
+        <v>0.302312</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.313994</v>
+        <v>0.299484</v>
       </c>
       <c r="C126" t="n">
-        <v>0.392703</v>
+        <v>0.384213</v>
       </c>
       <c r="D126" t="n">
-        <v>0.735338</v>
+        <v>0.7203079999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259653</v>
+        <v>0.24248</v>
       </c>
       <c r="F126" t="n">
-        <v>0.329712</v>
+        <v>0.304154</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30735</v>
+        <v>0.323119</v>
       </c>
       <c r="C127" t="n">
-        <v>0.390943</v>
+        <v>0.387554</v>
       </c>
       <c r="D127" t="n">
-        <v>0.798901</v>
+        <v>0.729649</v>
       </c>
       <c r="E127" t="n">
-        <v>0.264161</v>
+        <v>0.25037</v>
       </c>
       <c r="F127" t="n">
-        <v>0.332959</v>
+        <v>0.305627</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.312989</v>
+        <v>0.315066</v>
       </c>
       <c r="C128" t="n">
-        <v>0.409068</v>
+        <v>0.394337</v>
       </c>
       <c r="D128" t="n">
-        <v>0.794857</v>
+        <v>0.759118</v>
       </c>
       <c r="E128" t="n">
-        <v>0.263779</v>
+        <v>0.24956</v>
       </c>
       <c r="F128" t="n">
-        <v>0.334225</v>
+        <v>0.327057</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.317958</v>
+        <v>0.313711</v>
       </c>
       <c r="C129" t="n">
-        <v>0.410232</v>
+        <v>0.412672</v>
       </c>
       <c r="D129" t="n">
-        <v>0.816261</v>
+        <v>0.795212</v>
       </c>
       <c r="E129" t="n">
-        <v>0.271309</v>
+        <v>0.244993</v>
       </c>
       <c r="F129" t="n">
-        <v>0.337933</v>
+        <v>0.319168</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.324615</v>
+        <v>0.317592</v>
       </c>
       <c r="C130" t="n">
-        <v>0.425038</v>
+        <v>0.418307</v>
       </c>
       <c r="D130" t="n">
-        <v>0.835693</v>
+        <v>0.816229</v>
       </c>
       <c r="E130" t="n">
-        <v>0.277821</v>
+        <v>0.24865</v>
       </c>
       <c r="F130" t="n">
-        <v>0.345105</v>
+        <v>0.329529</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.345059</v>
+        <v>0.337821</v>
       </c>
       <c r="C131" t="n">
-        <v>0.438652</v>
+        <v>0.431545</v>
       </c>
       <c r="D131" t="n">
-        <v>0.849078</v>
+        <v>0.8317830000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.281202</v>
+        <v>0.251304</v>
       </c>
       <c r="F131" t="n">
-        <v>0.35389</v>
+        <v>0.333416</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.340994</v>
+        <v>0.335238</v>
       </c>
       <c r="C132" t="n">
-        <v>0.444802</v>
+        <v>0.445206</v>
       </c>
       <c r="D132" t="n">
-        <v>0.894078</v>
+        <v>0.869043</v>
       </c>
       <c r="E132" t="n">
-        <v>0.291939</v>
+        <v>0.255367</v>
       </c>
       <c r="F132" t="n">
-        <v>0.369753</v>
+        <v>0.342477</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.352064</v>
+        <v>0.354488</v>
       </c>
       <c r="C133" t="n">
-        <v>0.484215</v>
+        <v>0.502782</v>
       </c>
       <c r="D133" t="n">
-        <v>0.907646</v>
+        <v>0.891855</v>
       </c>
       <c r="E133" t="n">
-        <v>0.284527</v>
+        <v>0.260546</v>
       </c>
       <c r="F133" t="n">
-        <v>0.387269</v>
+        <v>0.350394</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374328</v>
+        <v>0.374687</v>
       </c>
       <c r="C134" t="n">
-        <v>0.490107</v>
+        <v>0.498502</v>
       </c>
       <c r="D134" t="n">
-        <v>0.974221</v>
+        <v>0.947819</v>
       </c>
       <c r="E134" t="n">
-        <v>0.292598</v>
+        <v>0.275867</v>
       </c>
       <c r="F134" t="n">
-        <v>0.39648</v>
+        <v>0.364719</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.407351</v>
+        <v>0.392354</v>
       </c>
       <c r="C135" t="n">
-        <v>0.540696</v>
+        <v>0.539395</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7940199999999999</v>
+        <v>0.769266</v>
       </c>
       <c r="E135" t="n">
-        <v>0.308467</v>
+        <v>0.281317</v>
       </c>
       <c r="F135" t="n">
-        <v>0.408774</v>
+        <v>0.385169</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.443273</v>
+        <v>0.434604</v>
       </c>
       <c r="C136" t="n">
-        <v>0.603185</v>
+        <v>0.596301</v>
       </c>
       <c r="D136" t="n">
-        <v>0.833983</v>
+        <v>0.826171</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324637</v>
+        <v>0.300476</v>
       </c>
       <c r="F136" t="n">
-        <v>0.449019</v>
+        <v>0.422452</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.510499</v>
+        <v>0.511276</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7122849999999999</v>
+        <v>0.69603</v>
       </c>
       <c r="D137" t="n">
-        <v>0.848146</v>
+        <v>0.827473</v>
       </c>
       <c r="E137" t="n">
-        <v>0.317025</v>
+        <v>0.288913</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3817</v>
+        <v>0.355419</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366155</v>
+        <v>0.367374</v>
       </c>
       <c r="C138" t="n">
-        <v>0.45452</v>
+        <v>0.438408</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8742220000000001</v>
+        <v>0.845283</v>
       </c>
       <c r="E138" t="n">
-        <v>0.320499</v>
+        <v>0.290867</v>
       </c>
       <c r="F138" t="n">
-        <v>0.381387</v>
+        <v>0.350915</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.389644</v>
+        <v>0.365175</v>
       </c>
       <c r="C139" t="n">
-        <v>0.450897</v>
+        <v>0.44799</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9140779999999999</v>
+        <v>0.900519</v>
       </c>
       <c r="E139" t="n">
-        <v>0.336641</v>
+        <v>0.297579</v>
       </c>
       <c r="F139" t="n">
-        <v>0.395609</v>
+        <v>0.354805</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.380412</v>
+        <v>0.367735</v>
       </c>
       <c r="C140" t="n">
-        <v>0.471499</v>
+        <v>0.463007</v>
       </c>
       <c r="D140" t="n">
-        <v>0.956361</v>
+        <v>0.921688</v>
       </c>
       <c r="E140" t="n">
-        <v>0.339699</v>
+        <v>0.294614</v>
       </c>
       <c r="F140" t="n">
-        <v>0.395743</v>
+        <v>0.360806</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.392222</v>
+        <v>0.373447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.463945</v>
+        <v>0.466975</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9822</v>
+        <v>0.951329</v>
       </c>
       <c r="E141" t="n">
-        <v>0.325216</v>
+        <v>0.296998</v>
       </c>
       <c r="F141" t="n">
-        <v>0.400344</v>
+        <v>0.377241</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.392979</v>
+        <v>0.382831</v>
       </c>
       <c r="C142" t="n">
-        <v>0.491851</v>
+        <v>0.466194</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02939</v>
+        <v>0.981593</v>
       </c>
       <c r="E142" t="n">
-        <v>0.341496</v>
+        <v>0.301974</v>
       </c>
       <c r="F142" t="n">
-        <v>0.409126</v>
+        <v>0.369876</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.40165</v>
+        <v>0.381273</v>
       </c>
       <c r="C143" t="n">
-        <v>0.507611</v>
+        <v>0.477303</v>
       </c>
       <c r="D143" t="n">
-        <v>1.05159</v>
+        <v>1.01753</v>
       </c>
       <c r="E143" t="n">
-        <v>0.331635</v>
+        <v>0.305317</v>
       </c>
       <c r="F143" t="n">
-        <v>0.413331</v>
+        <v>0.377078</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404362</v>
+        <v>0.0402535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041986</v>
+        <v>0.0417641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.116246</v>
+        <v>0.111828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0324778</v>
+        <v>0.033172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327558</v>
+        <v>0.0328978</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417594</v>
+        <v>0.0422031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0435933</v>
+        <v>0.0441183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122458</v>
+        <v>0.11406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0337755</v>
+        <v>0.034352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0335681</v>
+        <v>0.0332931</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0445887</v>
+        <v>0.0453142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451925</v>
+        <v>0.046579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124318</v>
+        <v>0.120137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350723</v>
+        <v>0.0353644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0351705</v>
+        <v>0.0343029</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502431</v>
+        <v>0.0492016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499336</v>
+        <v>0.0523716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129965</v>
+        <v>0.123115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0360469</v>
+        <v>0.0370589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0359472</v>
+        <v>0.0368588</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570153</v>
+        <v>0.0559702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599362</v>
+        <v>0.060644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138796</v>
+        <v>0.128842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0406152</v>
+        <v>0.0414188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389581</v>
+        <v>0.039212</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06806909999999999</v>
+        <v>0.0686884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07032239999999999</v>
+        <v>0.07292940000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.099283</v>
+        <v>0.09379990000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0479201</v>
+        <v>0.0491025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456343</v>
+        <v>0.0456165</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0873116</v>
+        <v>0.0904797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092393</v>
+        <v>0.0916773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101528</v>
+        <v>0.09744990000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0597865</v>
+        <v>0.0612599</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572511</v>
+        <v>0.056237</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119508</v>
+        <v>0.120756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119817</v>
+        <v>0.120898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106786</v>
+        <v>0.101688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303854</v>
+        <v>0.0301768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.033305</v>
+        <v>0.0321042</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0389041</v>
+        <v>0.0377658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420637</v>
+        <v>0.0398271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11205</v>
+        <v>0.106461</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031037</v>
+        <v>0.0303598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0329142</v>
+        <v>0.0323638</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040616</v>
+        <v>0.0383108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041538</v>
+        <v>0.0405501</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118638</v>
+        <v>0.110464</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306992</v>
+        <v>0.0306173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0333101</v>
+        <v>0.0329334</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395175</v>
+        <v>0.0389371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450282</v>
+        <v>0.0417185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122719</v>
+        <v>0.115181</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0313068</v>
+        <v>0.0311909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033834</v>
+        <v>0.0335108</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399744</v>
+        <v>0.0394911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0453172</v>
+        <v>0.0425049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128513</v>
+        <v>0.118569</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0314736</v>
+        <v>0.0313586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03471</v>
+        <v>0.033818</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408352</v>
+        <v>0.0400639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0450283</v>
+        <v>0.0433775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131175</v>
+        <v>0.12288</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317195</v>
+        <v>0.0317973</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0352389</v>
+        <v>0.0342965</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.044551</v>
+        <v>0.0410453</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0457955</v>
+        <v>0.0447181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141678</v>
+        <v>0.126195</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331701</v>
+        <v>0.0322858</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0352946</v>
+        <v>0.0348842</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0435382</v>
+        <v>0.0424969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0474843</v>
+        <v>0.04603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144116</v>
+        <v>0.12942</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0357789</v>
+        <v>0.0344869</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359599</v>
+        <v>0.0357705</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453576</v>
+        <v>0.046</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485653</v>
+        <v>0.0500225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141976</v>
+        <v>0.132491</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362708</v>
+        <v>0.0362039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373824</v>
+        <v>0.0368451</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0501786</v>
+        <v>0.0483112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0543532</v>
+        <v>0.0520516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152324</v>
+        <v>0.137474</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374009</v>
+        <v>0.0374757</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0383808</v>
+        <v>0.0376094</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544271</v>
+        <v>0.0525589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059371</v>
+        <v>0.0573505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151239</v>
+        <v>0.141004</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392211</v>
+        <v>0.0390592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418777</v>
+        <v>0.0393357</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0606677</v>
+        <v>0.0621466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0645435</v>
+        <v>0.06667960000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162025</v>
+        <v>0.146989</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427745</v>
+        <v>0.0425475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0439695</v>
+        <v>0.0447167</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.074145</v>
+        <v>0.0754402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07972369999999999</v>
+        <v>0.0788773</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110723</v>
+        <v>0.103132</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0483317</v>
+        <v>0.047884</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496986</v>
+        <v>0.0496957</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09081939999999999</v>
+        <v>0.09301329999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09321119999999999</v>
+        <v>0.0977818</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112144</v>
+        <v>0.110537</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609434</v>
+        <v>0.0591887</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602872</v>
+        <v>0.0608318</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120811</v>
+        <v>0.13037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122248</v>
+        <v>0.133602</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118618</v>
+        <v>0.112377</v>
       </c>
       <c r="E23" t="n">
-        <v>0.030753</v>
+        <v>0.0306946</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0353468</v>
+        <v>0.0352043</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416771</v>
+        <v>0.0412764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0478926</v>
+        <v>0.0460578</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125958</v>
+        <v>0.119501</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0317401</v>
+        <v>0.031085</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0368002</v>
+        <v>0.035879</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04164</v>
+        <v>0.0416455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0478428</v>
+        <v>0.0471283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130175</v>
+        <v>0.125391</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0312143</v>
+        <v>0.0311771</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365007</v>
+        <v>0.0363753</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421758</v>
+        <v>0.0422113</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0473957</v>
+        <v>0.0481401</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132907</v>
+        <v>0.131194</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315112</v>
+        <v>0.0324339</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368916</v>
+        <v>0.0368088</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0439696</v>
+        <v>0.0428424</v>
       </c>
       <c r="C27" t="n">
-        <v>0.050343</v>
+        <v>0.0495983</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137876</v>
+        <v>0.133854</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0325526</v>
+        <v>0.0319655</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376497</v>
+        <v>0.0376284</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.043697</v>
+        <v>0.0437092</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502933</v>
+        <v>0.0505666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140166</v>
+        <v>0.138092</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0326467</v>
+        <v>0.0327183</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0383194</v>
+        <v>0.0385093</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045005</v>
+        <v>0.0449971</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521585</v>
+        <v>0.0536833</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149553</v>
+        <v>0.145447</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334457</v>
+        <v>0.0334982</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0387334</v>
+        <v>0.0400027</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465236</v>
+        <v>0.0474495</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538341</v>
+        <v>0.0557317</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152487</v>
+        <v>0.150773</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349555</v>
+        <v>0.0347368</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040995</v>
+        <v>0.0415297</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488954</v>
+        <v>0.0488741</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572025</v>
+        <v>0.0572035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156806</v>
+        <v>0.155432</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0357641</v>
+        <v>0.0355106</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0417069</v>
+        <v>0.0416273</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513122</v>
+        <v>0.0530518</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614403</v>
+        <v>0.0598799</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166565</v>
+        <v>0.157253</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368108</v>
+        <v>0.0365446</v>
       </c>
       <c r="F32" t="n">
-        <v>0.042747</v>
+        <v>0.0430292</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0558583</v>
+        <v>0.056577</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0665572</v>
+        <v>0.0644793</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171394</v>
+        <v>0.169093</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0391967</v>
+        <v>0.0387409</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0453143</v>
+        <v>0.0468975</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06331589999999999</v>
+        <v>0.06756529999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0722377</v>
+        <v>0.0712812</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171562</v>
+        <v>0.168054</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0422655</v>
+        <v>0.0419971</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0482619</v>
+        <v>0.0481812</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0728707</v>
+        <v>0.0751202</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08380360000000001</v>
+        <v>0.08142969999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128175</v>
+        <v>0.126921</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475461</v>
+        <v>0.0512335</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0537826</v>
+        <v>0.0572183</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08846759999999999</v>
+        <v>0.0905897</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09875200000000001</v>
+        <v>0.09989720000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134887</v>
+        <v>0.134792</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560714</v>
+        <v>0.0559496</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0628471</v>
+        <v>0.0622053</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117061</v>
+        <v>0.118366</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127238</v>
+        <v>0.126136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143487</v>
+        <v>0.142893</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0344162</v>
+        <v>0.0335211</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0430593</v>
+        <v>0.0416021</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0459329</v>
+        <v>0.0450893</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0572698</v>
+        <v>0.0568908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.150834</v>
+        <v>0.146069</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342813</v>
+        <v>0.0342133</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0432442</v>
+        <v>0.0425109</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0487169</v>
+        <v>0.0462188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582866</v>
+        <v>0.0586601</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159981</v>
+        <v>0.156244</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378599</v>
+        <v>0.0342617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044102</v>
+        <v>0.0435269</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0461593</v>
+        <v>0.0471334</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595433</v>
+        <v>0.0598777</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16531</v>
+        <v>0.161633</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0344896</v>
+        <v>0.0352771</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0443527</v>
+        <v>0.0441792</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0469866</v>
+        <v>0.0471937</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0623402</v>
+        <v>0.0610776</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177457</v>
+        <v>0.169768</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035605</v>
+        <v>0.0348263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0495032</v>
+        <v>0.0451775</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0477105</v>
+        <v>0.0480905</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638729</v>
+        <v>0.0631849</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193805</v>
+        <v>0.178779</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354899</v>
+        <v>0.0357899</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0467169</v>
+        <v>0.0464282</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488798</v>
+        <v>0.0496557</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0655994</v>
+        <v>0.0649583</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197669</v>
+        <v>0.191505</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0361927</v>
+        <v>0.0364523</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0476285</v>
+        <v>0.0477248</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508165</v>
+        <v>0.0512482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680159</v>
+        <v>0.06849570000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205484</v>
+        <v>0.197196</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0398077</v>
+        <v>0.0369516</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0492365</v>
+        <v>0.0495877</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536734</v>
+        <v>0.053594</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.0706744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225882</v>
+        <v>0.208567</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381182</v>
+        <v>0.0383028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510109</v>
+        <v>0.0516709</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0557344</v>
+        <v>0.0560397</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07529619999999999</v>
+        <v>0.0760397</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229607</v>
+        <v>0.224791</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0395388</v>
+        <v>0.0397501</v>
       </c>
       <c r="F46" t="n">
-        <v>0.052651</v>
+        <v>0.0530922</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0600394</v>
+        <v>0.060764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0806094</v>
+        <v>0.0809909</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244161</v>
+        <v>0.237682</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0416194</v>
+        <v>0.0414392</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568505</v>
+        <v>0.0554581</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0661538</v>
+        <v>0.0663308</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0869086</v>
+        <v>0.0873169</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260082</v>
+        <v>0.251458</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0457633</v>
+        <v>0.0444369</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0606538</v>
+        <v>0.0609631</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759223</v>
+        <v>0.0760552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10024</v>
+        <v>0.09839779999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.298851</v>
+        <v>0.267459</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0489659</v>
+        <v>0.0490434</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649551</v>
+        <v>0.0649981</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906221</v>
+        <v>0.09203</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11429</v>
+        <v>0.115052</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214434</v>
+        <v>0.213607</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556428</v>
+        <v>0.0555091</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0722276</v>
+        <v>0.0711726</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12013</v>
+        <v>0.11589</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141017</v>
+        <v>0.147036</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237603</v>
+        <v>0.226833</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0413313</v>
+        <v>0.0407251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0528234</v>
+        <v>0.0519323</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154244</v>
+        <v>0.155658</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178435</v>
+        <v>0.181605</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240196</v>
+        <v>0.241491</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0407936</v>
+        <v>0.0404836</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0548775</v>
+        <v>0.0524398</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0551701</v>
+        <v>0.0558074</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07398349999999999</v>
+        <v>0.0770255</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254403</v>
+        <v>0.25152</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0412837</v>
+        <v>0.0411962</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0530613</v>
+        <v>0.0534278</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0566962</v>
+        <v>0.056559</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0757848</v>
+        <v>0.0755308</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271524</v>
+        <v>0.268097</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0414938</v>
+        <v>0.043581</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0544707</v>
+        <v>0.0542743</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569572</v>
+        <v>0.0573967</v>
       </c>
       <c r="C55" t="n">
-        <v>0.078907</v>
+        <v>0.07721799999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283266</v>
+        <v>0.280007</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0427383</v>
+        <v>0.0422945</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0561123</v>
+        <v>0.0569999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.058437</v>
+        <v>0.0586674</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809004</v>
+        <v>0.0799875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302774</v>
+        <v>0.295391</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0427525</v>
+        <v>0.0435905</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0580761</v>
+        <v>0.0577474</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0593854</v>
+        <v>0.0598263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0910841</v>
+        <v>0.0827619</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330268</v>
+        <v>0.312551</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0444326</v>
+        <v>0.0440923</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0611473</v>
+        <v>0.0593168</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614494</v>
+        <v>0.0611003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0849065</v>
+        <v>0.08587930000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336314</v>
+        <v>0.329609</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0453353</v>
+        <v>0.0446992</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614085</v>
+        <v>0.0607048</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0636515</v>
+        <v>0.0638051</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907852</v>
+        <v>0.0907956</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355425</v>
+        <v>0.35142</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0466662</v>
+        <v>0.0464465</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0630646</v>
+        <v>0.063009</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0700942</v>
+        <v>0.0666968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933652</v>
+        <v>0.0949459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371713</v>
+        <v>0.37013</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047456</v>
+        <v>0.0479334</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651863</v>
+        <v>0.0652903</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0710199</v>
+        <v>0.0707706</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101091</v>
+        <v>0.100979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388808</v>
+        <v>0.418304</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0491451</v>
+        <v>0.0498562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06736159999999999</v>
+        <v>0.0680181</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0756875</v>
+        <v>0.0764223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106938</v>
+        <v>0.108796</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409971</v>
+        <v>0.408789</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0521299</v>
+        <v>0.0525508</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0723188</v>
+        <v>0.07185510000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0853706</v>
+        <v>0.0837652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11949</v>
+        <v>0.119382</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434777</v>
+        <v>0.429566</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0571107</v>
+        <v>0.0561772</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0777558</v>
+        <v>0.0761526</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.09633949999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134404</v>
+        <v>0.137529</v>
       </c>
       <c r="D64" t="n">
-        <v>0.344521</v>
+        <v>0.340529</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0631449</v>
+        <v>0.0629151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0854058</v>
+        <v>0.0858299</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119381</v>
+        <v>0.11925</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159236</v>
+        <v>0.163813</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351988</v>
+        <v>0.352081</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0746338</v>
+        <v>0.0767596</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0986189</v>
+        <v>0.100083</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158493</v>
+        <v>0.156161</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203579</v>
+        <v>0.210933</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371605</v>
+        <v>0.371182</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0475054</v>
+        <v>0.0459625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.061328</v>
+        <v>0.0594607</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06386169999999999</v>
+        <v>0.06308660000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0882926</v>
+        <v>0.08727260000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381588</v>
+        <v>0.384327</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0468844</v>
+        <v>0.047194</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0618258</v>
+        <v>0.0608013</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0650374</v>
+        <v>0.0639943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0897511</v>
+        <v>0.08979910000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416642</v>
+        <v>0.396986</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477552</v>
+        <v>0.0470099</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06297460000000001</v>
+        <v>0.0623357</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0654559</v>
+        <v>0.0659783</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954667</v>
+        <v>0.0931732</v>
       </c>
       <c r="D69" t="n">
-        <v>0.428868</v>
+        <v>0.414137</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0476321</v>
+        <v>0.0483192</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06471830000000001</v>
+        <v>0.0642906</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0669676</v>
+        <v>0.06984940000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978571</v>
+        <v>0.09828340000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437423</v>
+        <v>0.445399</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0497952</v>
+        <v>0.0495186</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647721</v>
+        <v>0.0668612</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0688936</v>
+        <v>0.06965449999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100299</v>
+        <v>0.105842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456569</v>
+        <v>0.456907</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497732</v>
+        <v>0.0500266</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0725305</v>
+        <v>0.06953230000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07111969999999999</v>
+        <v>0.0718411</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107175</v>
+        <v>0.106425</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468044</v>
+        <v>0.473804</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518184</v>
+        <v>0.0516039</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07032629999999999</v>
+        <v>0.07050389999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727338</v>
+        <v>0.07294249999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.112048</v>
+        <v>0.11093</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486261</v>
+        <v>0.49289</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0523911</v>
+        <v>0.0526373</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738123</v>
+        <v>0.0758775</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0753537</v>
+        <v>0.07512249999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119469</v>
+        <v>0.114164</v>
       </c>
       <c r="D74" t="n">
-        <v>0.508954</v>
+        <v>0.503277</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0546589</v>
+        <v>0.0543066</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0789223</v>
+        <v>0.0765501</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0799859</v>
+        <v>0.0809617</v>
       </c>
       <c r="C75" t="n">
-        <v>0.128779</v>
+        <v>0.12519</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549866</v>
+        <v>0.524713</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0561139</v>
+        <v>0.0569904</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0796655</v>
+        <v>0.07872750000000001</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0862149</v>
+        <v>0.086494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142744</v>
+        <v>0.133699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548701</v>
+        <v>0.545398</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0598729</v>
+        <v>0.0603109</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891107</v>
+        <v>0.08492760000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.099398</v>
+        <v>0.0970805</v>
       </c>
       <c r="C77" t="n">
-        <v>0.151816</v>
+        <v>0.155187</v>
       </c>
       <c r="D77" t="n">
-        <v>0.577696</v>
+        <v>0.581968</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0655797</v>
+        <v>0.0670582</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10123</v>
+        <v>0.0991773</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116046</v>
+        <v>0.114009</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170264</v>
+        <v>0.17944</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435619</v>
+        <v>0.437332</v>
       </c>
       <c r="E78" t="n">
-        <v>0.074755</v>
+        <v>0.0703691</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106528</v>
+        <v>0.102017</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129634</v>
+        <v>0.129804</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201055</v>
+        <v>0.205272</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452011</v>
+        <v>0.44762</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08676059999999999</v>
+        <v>0.08082979999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118167</v>
+        <v>0.115849</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177057</v>
+        <v>0.162222</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251908</v>
+        <v>0.262579</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475599</v>
+        <v>0.464803</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0539204</v>
+        <v>0.0511341</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0729897</v>
+        <v>0.0690959</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07768890000000001</v>
+        <v>0.07356409999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112193</v>
+        <v>0.108968</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484759</v>
+        <v>0.478029</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0542798</v>
+        <v>0.0516032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0791089</v>
+        <v>0.0717846</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0790233</v>
+        <v>0.07535119999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115862</v>
+        <v>0.116139</v>
       </c>
       <c r="D82" t="n">
-        <v>0.512985</v>
+        <v>0.50262</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0571083</v>
+        <v>0.0536959</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0745753</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843458</v>
+        <v>0.0773184</v>
       </c>
       <c r="C83" t="n">
-        <v>0.124253</v>
+        <v>0.120261</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51098</v>
+        <v>0.512115</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0583103</v>
+        <v>0.0538746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0779292</v>
+        <v>0.0765195</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0893636</v>
+        <v>0.0795053</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130475</v>
+        <v>0.12474</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540766</v>
+        <v>0.527613</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0617369</v>
+        <v>0.0564672</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0849266</v>
+        <v>0.0796702</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.094219</v>
+        <v>0.08183</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140659</v>
+        <v>0.134415</v>
       </c>
       <c r="D85" t="n">
-        <v>0.555134</v>
+        <v>0.562269</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06457889999999999</v>
+        <v>0.0589142</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0870744</v>
+        <v>0.0845038</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979448</v>
+        <v>0.087353</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144325</v>
+        <v>0.139375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.574121</v>
+        <v>0.577949</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0676546</v>
+        <v>0.0604159</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0885669</v>
+        <v>0.0911072</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0984781</v>
+        <v>0.0902727</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148939</v>
+        <v>0.145871</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586298</v>
+        <v>0.590905</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0665384</v>
+        <v>0.0623295</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0913786</v>
+        <v>0.0926916</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0976479</v>
+        <v>0.0972145</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1583</v>
+        <v>0.157558</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601536</v>
+        <v>0.609313</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0683646</v>
+        <v>0.0662821</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0983782</v>
+        <v>0.103618</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.101102</v>
+        <v>0.100818</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164007</v>
+        <v>0.165243</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620403</v>
+        <v>0.6236</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06847350000000001</v>
+        <v>0.06780070000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>0.102762</v>
+        <v>0.101389</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1077</v>
+        <v>0.106061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174169</v>
+        <v>0.17282</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641492</v>
+        <v>0.641279</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0725128</v>
+        <v>0.0714386</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110137</v>
+        <v>0.110535</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1205</v>
+        <v>0.117778</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18898</v>
+        <v>0.189186</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679501</v>
+        <v>0.659586</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0788985</v>
+        <v>0.07639849999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118408</v>
+        <v>0.116824</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131985</v>
+        <v>0.128207</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215321</v>
+        <v>0.209566</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508915</v>
+        <v>0.5094030000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0847053</v>
+        <v>0.0882792</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127258</v>
+        <v>0.130985</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147601</v>
+        <v>0.14869</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239659</v>
+        <v>0.24234</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.519364</v>
       </c>
       <c r="E93" t="n">
-        <v>0.100589</v>
+        <v>0.0959327</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143147</v>
+        <v>0.145343</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180921</v>
+        <v>0.181764</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288295</v>
+        <v>0.288905</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550536</v>
+        <v>0.5295530000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0736607</v>
+        <v>0.0753528</v>
       </c>
       <c r="F94" t="n">
-        <v>0.106778</v>
+        <v>0.103175</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107634</v>
+        <v>0.101436</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153023</v>
+        <v>0.153811</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552986</v>
+        <v>0.543174</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07269879999999999</v>
+        <v>0.0717131</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106242</v>
+        <v>0.104824</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.105944</v>
+        <v>0.102868</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160429</v>
+        <v>0.160145</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57694</v>
+        <v>0.567567</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07476140000000001</v>
+        <v>0.0742377</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109459</v>
+        <v>0.109493</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107381</v>
+        <v>0.106025</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166085</v>
+        <v>0.166698</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581048</v>
+        <v>0.581407</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07571170000000001</v>
+        <v>0.0756478</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113953</v>
+        <v>0.113031</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.10852</v>
+        <v>0.108502</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175071</v>
+        <v>0.171397</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593866</v>
+        <v>0.601478</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0780786</v>
+        <v>0.07778889999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117277</v>
+        <v>0.121217</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11235</v>
+        <v>0.113937</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17442</v>
+        <v>0.174882</v>
       </c>
       <c r="D99" t="n">
-        <v>0.615204</v>
+        <v>0.610862</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0787761</v>
+        <v>0.07885109999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120136</v>
+        <v>0.125091</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.116102</v>
+        <v>0.114222</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180881</v>
+        <v>0.184487</v>
       </c>
       <c r="D100" t="n">
-        <v>0.633903</v>
+        <v>0.639652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0821117</v>
+        <v>0.0819358</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129824</v>
+        <v>0.125819</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124719</v>
+        <v>0.118658</v>
       </c>
       <c r="C101" t="n">
-        <v>0.193751</v>
+        <v>0.190973</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68023</v>
+        <v>0.6579700000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0839321</v>
+        <v>0.0838888</v>
       </c>
       <c r="F101" t="n">
-        <v>0.129727</v>
+        <v>0.126801</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.124133</v>
+        <v>0.121308</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202819</v>
+        <v>0.196973</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669713</v>
+        <v>0.668693</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0873278</v>
+        <v>0.08587110000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.134873</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130664</v>
+        <v>0.127984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20681</v>
+        <v>0.207592</v>
       </c>
       <c r="D103" t="n">
-        <v>0.692277</v>
+        <v>0.686563</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0885615</v>
+        <v>0.0893518</v>
       </c>
       <c r="F103" t="n">
-        <v>0.142146</v>
+        <v>0.137808</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13302</v>
+        <v>0.133354</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218941</v>
+        <v>0.22099</v>
       </c>
       <c r="D104" t="n">
-        <v>0.716569</v>
+        <v>0.720092</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09418310000000001</v>
+        <v>0.0944675</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145305</v>
+        <v>0.147307</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149261</v>
+        <v>0.144854</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23741</v>
+        <v>0.236564</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.729219</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995622</v>
+        <v>0.0977962</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15793</v>
+        <v>0.152971</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.158719</v>
+        <v>0.155781</v>
       </c>
       <c r="C106" t="n">
-        <v>0.263344</v>
+        <v>0.256691</v>
       </c>
       <c r="D106" t="n">
-        <v>0.767298</v>
+        <v>0.755505</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.104624</v>
       </c>
       <c r="F106" t="n">
-        <v>0.168224</v>
+        <v>0.164514</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180233</v>
+        <v>0.175117</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295267</v>
+        <v>0.310602</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571398</v>
+        <v>0.558926</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117779</v>
+        <v>0.115864</v>
       </c>
       <c r="F107" t="n">
-        <v>0.18211</v>
+        <v>0.182923</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212849</v>
+        <v>0.210471</v>
       </c>
       <c r="C108" t="n">
-        <v>0.341322</v>
+        <v>0.342112</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583622</v>
+        <v>0.571062</v>
       </c>
       <c r="E108" t="n">
-        <v>0.152681</v>
+        <v>0.146343</v>
       </c>
       <c r="F108" t="n">
-        <v>0.19838</v>
+        <v>0.188798</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265315</v>
+        <v>0.270061</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429398</v>
+        <v>0.428585</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597875</v>
+        <v>0.597938</v>
       </c>
       <c r="E109" t="n">
-        <v>0.155336</v>
+        <v>0.15025</v>
       </c>
       <c r="F109" t="n">
-        <v>0.191955</v>
+        <v>0.190955</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.184051</v>
+        <v>0.189105</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255244</v>
+        <v>0.253169</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615464</v>
+        <v>0.615383</v>
       </c>
       <c r="E110" t="n">
-        <v>0.159705</v>
+        <v>0.151144</v>
       </c>
       <c r="F110" t="n">
-        <v>0.19638</v>
+        <v>0.201139</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.194568</v>
+        <v>0.185328</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255772</v>
+        <v>0.255503</v>
       </c>
       <c r="D111" t="n">
-        <v>0.626735</v>
+        <v>0.624023</v>
       </c>
       <c r="E111" t="n">
-        <v>0.153453</v>
+        <v>0.152618</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211138</v>
+        <v>0.200889</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184636</v>
+        <v>0.188777</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269099</v>
+        <v>0.258791</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64541</v>
+        <v>0.645184</v>
       </c>
       <c r="E112" t="n">
-        <v>0.16637</v>
+        <v>0.153416</v>
       </c>
       <c r="F112" t="n">
-        <v>0.205281</v>
+        <v>0.204308</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185973</v>
+        <v>0.189104</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266806</v>
+        <v>0.267401</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675069</v>
+        <v>0.698692</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166548</v>
+        <v>0.154241</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206192</v>
+        <v>0.206426</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218221</v>
+        <v>0.192638</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277832</v>
+        <v>0.276013</v>
       </c>
       <c r="D114" t="n">
-        <v>0.700316</v>
+        <v>0.680627</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159151</v>
+        <v>0.156823</v>
       </c>
       <c r="F114" t="n">
-        <v>0.213917</v>
+        <v>0.227057</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196549</v>
+        <v>0.203348</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287048</v>
+        <v>0.285328</v>
       </c>
       <c r="D115" t="n">
-        <v>0.713483</v>
+        <v>0.703568</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161185</v>
+        <v>0.16167</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216467</v>
+        <v>0.218819</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20394</v>
+        <v>0.203971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294276</v>
+        <v>0.293431</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71512</v>
+        <v>0.7107599999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163902</v>
+        <v>0.172856</v>
       </c>
       <c r="F116" t="n">
-        <v>0.223143</v>
+        <v>0.218876</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226312</v>
+        <v>0.204411</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305553</v>
+        <v>0.304615</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735619</v>
+        <v>0.748602</v>
       </c>
       <c r="E117" t="n">
-        <v>0.169941</v>
+        <v>0.165992</v>
       </c>
       <c r="F117" t="n">
-        <v>0.23325</v>
+        <v>0.227836</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232073</v>
+        <v>0.211846</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322141</v>
+        <v>0.322555</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765811</v>
+        <v>0.76095</v>
       </c>
       <c r="E118" t="n">
-        <v>0.177597</v>
+        <v>0.167159</v>
       </c>
       <c r="F118" t="n">
-        <v>0.239467</v>
+        <v>0.236739</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.229083</v>
+        <v>0.219802</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340711</v>
+        <v>0.341295</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779219</v>
+        <v>0.779915</v>
       </c>
       <c r="E119" t="n">
-        <v>0.170275</v>
+        <v>0.172271</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247549</v>
+        <v>0.241723</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23775</v>
+        <v>0.234427</v>
       </c>
       <c r="C120" t="n">
-        <v>0.36389</v>
+        <v>0.361531</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806381</v>
+        <v>0.810621</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178358</v>
+        <v>0.191932</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258632</v>
+        <v>0.255028</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255962</v>
+        <v>0.26573</v>
       </c>
       <c r="C121" t="n">
-        <v>0.406589</v>
+        <v>0.399692</v>
       </c>
       <c r="D121" t="n">
-        <v>0.618837</v>
+        <v>0.623732</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.189404</v>
       </c>
       <c r="F121" t="n">
-        <v>0.280451</v>
+        <v>0.278118</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31302</v>
+        <v>0.291412</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466067</v>
+        <v>0.459411</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648958</v>
+        <v>0.645111</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206641</v>
+        <v>0.206522</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305266</v>
+        <v>0.305577</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.357703</v>
+        <v>0.354278</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593832</v>
+        <v>0.580282</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650649</v>
+        <v>0.665255</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23331</v>
+        <v>0.242325</v>
       </c>
       <c r="F123" t="n">
-        <v>0.287209</v>
+        <v>0.292101</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295337</v>
+        <v>0.2946</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373797</v>
+        <v>0.368236</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694852</v>
+        <v>0.676641</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241574</v>
+        <v>0.243759</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291793</v>
+        <v>0.294458</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.300913</v>
+        <v>0.297933</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378528</v>
+        <v>0.375113</v>
       </c>
       <c r="D125" t="n">
-        <v>0.701847</v>
+        <v>0.698627</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245558</v>
+        <v>0.245364</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302312</v>
+        <v>0.30612</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299484</v>
+        <v>0.30411</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384213</v>
+        <v>0.389777</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7203079999999999</v>
+        <v>0.722394</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24248</v>
+        <v>0.242</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304154</v>
+        <v>0.30252</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323119</v>
+        <v>0.310189</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387554</v>
+        <v>0.386162</v>
       </c>
       <c r="D127" t="n">
-        <v>0.729649</v>
+        <v>0.7370679999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25037</v>
+        <v>0.24204</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305627</v>
+        <v>0.305327</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315066</v>
+        <v>0.307741</v>
       </c>
       <c r="C128" t="n">
-        <v>0.394337</v>
+        <v>0.397748</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759118</v>
+        <v>0.759026</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24956</v>
+        <v>0.244923</v>
       </c>
       <c r="F128" t="n">
-        <v>0.327057</v>
+        <v>0.311456</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313711</v>
+        <v>0.313617</v>
       </c>
       <c r="C129" t="n">
-        <v>0.412672</v>
+        <v>0.409428</v>
       </c>
       <c r="D129" t="n">
-        <v>0.795212</v>
+        <v>0.824298</v>
       </c>
       <c r="E129" t="n">
-        <v>0.244993</v>
+        <v>0.247296</v>
       </c>
       <c r="F129" t="n">
-        <v>0.319168</v>
+        <v>0.316876</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317592</v>
+        <v>0.318623</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418307</v>
+        <v>0.41373</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816229</v>
+        <v>0.802567</v>
       </c>
       <c r="E130" t="n">
-        <v>0.24865</v>
+        <v>0.254179</v>
       </c>
       <c r="F130" t="n">
-        <v>0.329529</v>
+        <v>0.325137</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.337821</v>
+        <v>0.325621</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431545</v>
+        <v>0.431281</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8317830000000001</v>
+        <v>0.837058</v>
       </c>
       <c r="E131" t="n">
-        <v>0.251304</v>
+        <v>0.257083</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333416</v>
+        <v>0.334089</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335238</v>
+        <v>0.337112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445206</v>
+        <v>0.457058</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869043</v>
+        <v>0.8519139999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.255367</v>
+        <v>0.261006</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342477</v>
+        <v>0.342935</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354488</v>
+        <v>0.347827</v>
       </c>
       <c r="C133" t="n">
-        <v>0.502782</v>
+        <v>0.465094</v>
       </c>
       <c r="D133" t="n">
-        <v>0.891855</v>
+        <v>0.884176</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260546</v>
+        <v>0.260421</v>
       </c>
       <c r="F133" t="n">
-        <v>0.350394</v>
+        <v>0.349896</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374687</v>
+        <v>0.368994</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498502</v>
+        <v>0.49085</v>
       </c>
       <c r="D134" t="n">
-        <v>0.947819</v>
+        <v>0.914876</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275867</v>
+        <v>0.272862</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364719</v>
+        <v>0.369221</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.392354</v>
+        <v>0.405747</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539395</v>
+        <v>0.545226</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769266</v>
+        <v>0.7798310000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281317</v>
+        <v>0.2822</v>
       </c>
       <c r="F135" t="n">
-        <v>0.385169</v>
+        <v>0.387422</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434604</v>
+        <v>0.457724</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596301</v>
+        <v>0.61795</v>
       </c>
       <c r="D136" t="n">
-        <v>0.826171</v>
+        <v>0.796249</v>
       </c>
       <c r="E136" t="n">
-        <v>0.300476</v>
+        <v>0.303062</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422452</v>
+        <v>0.432517</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511276</v>
+        <v>0.5181210000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69603</v>
+        <v>0.709095</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827473</v>
+        <v>0.821418</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288913</v>
+        <v>0.295409</v>
       </c>
       <c r="F137" t="n">
-        <v>0.355419</v>
+        <v>0.347541</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367374</v>
+        <v>0.361714</v>
       </c>
       <c r="C138" t="n">
-        <v>0.438408</v>
+        <v>0.432293</v>
       </c>
       <c r="D138" t="n">
-        <v>0.845283</v>
+        <v>0.874918</v>
       </c>
       <c r="E138" t="n">
-        <v>0.290867</v>
+        <v>0.300977</v>
       </c>
       <c r="F138" t="n">
-        <v>0.350915</v>
+        <v>0.360391</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365175</v>
+        <v>0.376811</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44799</v>
+        <v>0.455165</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900519</v>
+        <v>0.874793</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297579</v>
+        <v>0.291807</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354805</v>
+        <v>0.356041</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367735</v>
+        <v>0.373389</v>
       </c>
       <c r="C140" t="n">
-        <v>0.463007</v>
+        <v>0.450453</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921688</v>
+        <v>0.91237</v>
       </c>
       <c r="E140" t="n">
-        <v>0.294614</v>
+        <v>0.29821</v>
       </c>
       <c r="F140" t="n">
-        <v>0.360806</v>
+        <v>0.356906</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373447</v>
+        <v>0.375026</v>
       </c>
       <c r="C141" t="n">
-        <v>0.466975</v>
+        <v>0.464826</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951329</v>
+        <v>0.951935</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296998</v>
+        <v>0.300789</v>
       </c>
       <c r="F141" t="n">
-        <v>0.377241</v>
+        <v>0.367237</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.382831</v>
+        <v>0.381559</v>
       </c>
       <c r="C142" t="n">
-        <v>0.466194</v>
+        <v>0.465226</v>
       </c>
       <c r="D142" t="n">
-        <v>0.981593</v>
+        <v>0.989194</v>
       </c>
       <c r="E142" t="n">
-        <v>0.301974</v>
+        <v>0.296868</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369876</v>
+        <v>0.369572</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381273</v>
+        <v>0.384566</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477303</v>
+        <v>0.478869</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01753</v>
+        <v>1.01806</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305317</v>
+        <v>0.308104</v>
       </c>
       <c r="F143" t="n">
-        <v>0.377078</v>
+        <v>0.384187</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0402535</v>
+        <v>0.0401102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0417641</v>
+        <v>0.0417428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111828</v>
+        <v>0.110712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.033172</v>
+        <v>0.032797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0328978</v>
+        <v>0.0332851</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0422031</v>
+        <v>0.04271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0441183</v>
+        <v>0.045237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11406</v>
+        <v>0.11332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.034352</v>
+        <v>0.0331558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0332931</v>
+        <v>0.0333807</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0453142</v>
+        <v>0.0451219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.046579</v>
+        <v>0.0490977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120137</v>
+        <v>0.117879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0353644</v>
+        <v>0.0352786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0343029</v>
+        <v>0.0347928</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0492016</v>
+        <v>0.0490849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0523716</v>
+        <v>0.0526897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123115</v>
+        <v>0.122952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0370589</v>
+        <v>0.0362472</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0368588</v>
+        <v>0.0365951</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0559702</v>
+        <v>0.0560201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.060644</v>
+        <v>0.0636372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128842</v>
+        <v>0.12781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0414188</v>
+        <v>0.0409097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.039212</v>
+        <v>0.0392523</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0686884</v>
+        <v>0.06951789999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07292940000000001</v>
+        <v>0.0724115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09379990000000001</v>
+        <v>0.0942027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0491025</v>
+        <v>0.0488004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456165</v>
+        <v>0.045716</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0904797</v>
+        <v>0.08853419999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0916773</v>
+        <v>0.0895898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09744990000000001</v>
+        <v>0.0972389</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0612599</v>
+        <v>0.0604712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.056237</v>
+        <v>0.0571298</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120756</v>
+        <v>0.123566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120898</v>
+        <v>0.11816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101688</v>
+        <v>0.102082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0301768</v>
+        <v>0.0303917</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0321042</v>
+        <v>0.0325228</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0377658</v>
+        <v>0.038918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0398271</v>
+        <v>0.040681</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106461</v>
+        <v>0.107271</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0303598</v>
+        <v>0.030399</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0323638</v>
+        <v>0.032302</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0383108</v>
+        <v>0.0390875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0405501</v>
+        <v>0.041354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110464</v>
+        <v>0.110556</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306173</v>
+        <v>0.0306417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0329334</v>
+        <v>0.032736</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0389371</v>
+        <v>0.0393859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0417185</v>
+        <v>0.0421109</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115181</v>
+        <v>0.114799</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0311909</v>
+        <v>0.0312798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0335108</v>
+        <v>0.0331337</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0394911</v>
+        <v>0.0408833</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0425049</v>
+        <v>0.0443119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.118569</v>
+        <v>0.119323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0313586</v>
+        <v>0.0315321</v>
       </c>
       <c r="F13" t="n">
-        <v>0.033818</v>
+        <v>0.03388</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0400639</v>
+        <v>0.0412319</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0433775</v>
+        <v>0.0445482</v>
       </c>
       <c r="D14" t="n">
-        <v>0.12288</v>
+        <v>0.123257</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317973</v>
+        <v>0.0318713</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0342965</v>
+        <v>0.0339633</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0410453</v>
+        <v>0.0426662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0447181</v>
+        <v>0.045909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.126195</v>
+        <v>0.12598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0322858</v>
+        <v>0.0325113</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0348842</v>
+        <v>0.0348894</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0424969</v>
+        <v>0.0448973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04603</v>
+        <v>0.0474734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.12942</v>
+        <v>0.128927</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0344869</v>
+        <v>0.0350052</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0357705</v>
+        <v>0.0352979</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.046</v>
+        <v>0.0469912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0500225</v>
+        <v>0.0505692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.132491</v>
+        <v>0.134713</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362039</v>
+        <v>0.0363736</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0368451</v>
+        <v>0.0367872</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0483112</v>
+        <v>0.0501122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0520516</v>
+        <v>0.052828</v>
       </c>
       <c r="D18" t="n">
-        <v>0.137474</v>
+        <v>0.137569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374757</v>
+        <v>0.03762</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0376094</v>
+        <v>0.0384621</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0525589</v>
+        <v>0.0558114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0573505</v>
+        <v>0.0589525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.141004</v>
+        <v>0.141657</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0390592</v>
+        <v>0.0402979</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0393357</v>
+        <v>0.0400274</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621466</v>
+        <v>0.0627453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06667960000000001</v>
+        <v>0.06655220000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.146989</v>
+        <v>0.146871</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0425475</v>
+        <v>0.0432073</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0447167</v>
+        <v>0.0436788</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0754402</v>
+        <v>0.0776578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0788773</v>
+        <v>0.0785295</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103132</v>
+        <v>0.104397</v>
       </c>
       <c r="E21" t="n">
-        <v>0.047884</v>
+        <v>0.0482186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496957</v>
+        <v>0.0500584</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09301329999999999</v>
+        <v>0.0956699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0977818</v>
+        <v>0.0972898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110537</v>
+        <v>0.110108</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0591887</v>
+        <v>0.0598632</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0608318</v>
+        <v>0.0607304</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.13037</v>
+        <v>0.125019</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133602</v>
+        <v>0.12631</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112377</v>
+        <v>0.112039</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0306946</v>
+        <v>0.0308867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0352043</v>
+        <v>0.0347411</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0412764</v>
+        <v>0.0412704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0460578</v>
+        <v>0.0469528</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119501</v>
+        <v>0.118255</v>
       </c>
       <c r="E24" t="n">
-        <v>0.031085</v>
+        <v>0.0311556</v>
       </c>
       <c r="F24" t="n">
-        <v>0.035879</v>
+        <v>0.0355514</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0416455</v>
+        <v>0.0423183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0471283</v>
+        <v>0.0471418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125391</v>
+        <v>0.12464</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0311771</v>
+        <v>0.0316051</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0363753</v>
+        <v>0.0361879</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0422113</v>
+        <v>0.0421602</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0481401</v>
+        <v>0.0479529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.131194</v>
+        <v>0.127171</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0324339</v>
+        <v>0.0315364</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368088</v>
+        <v>0.0366776</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0428424</v>
+        <v>0.0436857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0495983</v>
+        <v>0.0501869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.133854</v>
+        <v>0.133507</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0319655</v>
+        <v>0.0320811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376284</v>
+        <v>0.0376764</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0437092</v>
+        <v>0.0446449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0505666</v>
+        <v>0.0511836</v>
       </c>
       <c r="D28" t="n">
-        <v>0.138092</v>
+        <v>0.138789</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0327183</v>
+        <v>0.0329635</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0385093</v>
+        <v>0.0386754</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0449971</v>
+        <v>0.045545</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0536833</v>
+        <v>0.0537293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.145447</v>
+        <v>0.144792</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334982</v>
+        <v>0.0337416</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0400027</v>
+        <v>0.0405436</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0474495</v>
+        <v>0.0475913</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0557317</v>
+        <v>0.0554033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.150773</v>
+        <v>0.148788</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0347368</v>
+        <v>0.0344061</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0415297</v>
+        <v>0.0408788</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488741</v>
+        <v>0.0494973</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572035</v>
+        <v>0.0587091</v>
       </c>
       <c r="D31" t="n">
-        <v>0.155432</v>
+        <v>0.154651</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0355106</v>
+        <v>0.035993</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0416273</v>
+        <v>0.0419691</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0530518</v>
+        <v>0.0529713</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0598799</v>
+        <v>0.0621348</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157253</v>
+        <v>0.165165</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0365446</v>
+        <v>0.0375515</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0430292</v>
+        <v>0.0436602</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.056577</v>
+        <v>0.0580599</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0644793</v>
+        <v>0.0675573</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169093</v>
+        <v>0.173742</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0387409</v>
+        <v>0.0390127</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0468975</v>
+        <v>0.0457755</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06756529999999999</v>
+        <v>0.06556919999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0712812</v>
+        <v>0.0742106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168054</v>
+        <v>0.174067</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0419971</v>
+        <v>0.0425002</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0481812</v>
+        <v>0.0499065</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0751202</v>
+        <v>0.07575229999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08142969999999999</v>
+        <v>0.0833631</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126921</v>
+        <v>0.130136</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0512335</v>
+        <v>0.0477739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0572183</v>
+        <v>0.0549973</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0905897</v>
+        <v>0.090826</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09989720000000001</v>
+        <v>0.0988947</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134792</v>
+        <v>0.135677</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0559496</v>
+        <v>0.0562983</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0622053</v>
+        <v>0.0625762</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118366</v>
+        <v>0.118038</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126136</v>
+        <v>0.129183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.142893</v>
+        <v>0.138239</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0335211</v>
+        <v>0.0334558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0416021</v>
+        <v>0.0422959</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0450893</v>
+        <v>0.0466507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0568908</v>
+        <v>0.0569955</v>
       </c>
       <c r="D38" t="n">
-        <v>0.146069</v>
+        <v>0.147588</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342133</v>
+        <v>0.0344197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0425109</v>
+        <v>0.042958</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0462188</v>
+        <v>0.046906</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0586601</v>
+        <v>0.058697</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156244</v>
+        <v>0.151058</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0342617</v>
+        <v>0.0342876</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0435269</v>
+        <v>0.0433781</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0471334</v>
+        <v>0.0469262</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0598777</v>
+        <v>0.0608886</v>
       </c>
       <c r="D40" t="n">
-        <v>0.161633</v>
+        <v>0.159649</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0352771</v>
+        <v>0.0347396</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0441792</v>
+        <v>0.0441269</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0471937</v>
+        <v>0.0477988</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0610776</v>
+        <v>0.0613491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.169768</v>
+        <v>0.168081</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0348263</v>
+        <v>0.0356889</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0451775</v>
+        <v>0.0454444</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0480905</v>
+        <v>0.0481779</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0631849</v>
+        <v>0.0644434</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178779</v>
+        <v>0.177791</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0357899</v>
+        <v>0.0367566</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0464282</v>
+        <v>0.0472397</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0496557</v>
+        <v>0.0502649</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0649583</v>
+        <v>0.06664440000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.191505</v>
+        <v>0.189481</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0364523</v>
+        <v>0.0366201</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0477248</v>
+        <v>0.0480188</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0512482</v>
+        <v>0.050938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06849570000000001</v>
+        <v>0.0686991</v>
       </c>
       <c r="D44" t="n">
-        <v>0.197196</v>
+        <v>0.197736</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0369516</v>
+        <v>0.0371731</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0495877</v>
+        <v>0.0496473</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.053594</v>
+        <v>0.0531589</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0706744</v>
+        <v>0.07451720000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.208567</v>
+        <v>0.213034</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0383028</v>
+        <v>0.0383992</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0516709</v>
+        <v>0.0511681</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0560397</v>
+        <v>0.0557427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0760397</v>
+        <v>0.0766698</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224791</v>
+        <v>0.225424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0397501</v>
+        <v>0.0408027</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0530922</v>
+        <v>0.0543534</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.060764</v>
+        <v>0.0603963</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0809909</v>
+        <v>0.0809508</v>
       </c>
       <c r="D47" t="n">
-        <v>0.237682</v>
+        <v>0.239754</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0414392</v>
+        <v>0.0423891</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0554581</v>
+        <v>0.0556232</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0663308</v>
+        <v>0.0658483</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0873169</v>
+        <v>0.0880595</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251458</v>
+        <v>0.251462</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0444369</v>
+        <v>0.0447979</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0609631</v>
+        <v>0.0599646</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0760552</v>
+        <v>0.0742428</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09839779999999999</v>
+        <v>0.0986692</v>
       </c>
       <c r="D49" t="n">
-        <v>0.267459</v>
+        <v>0.269546</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0490434</v>
+        <v>0.0488351</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649981</v>
+        <v>0.063738</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09203</v>
+        <v>0.0881137</v>
       </c>
       <c r="C50" t="n">
-        <v>0.115052</v>
+        <v>0.112065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213607</v>
+        <v>0.21385</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0555091</v>
+        <v>0.055671</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0711726</v>
+        <v>0.0720682</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11589</v>
+        <v>0.112806</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147036</v>
+        <v>0.138485</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226833</v>
+        <v>0.227382</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0407251</v>
+        <v>0.0406659</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0519323</v>
+        <v>0.0515851</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.155658</v>
+        <v>0.151823</v>
       </c>
       <c r="C52" t="n">
-        <v>0.181605</v>
+        <v>0.176389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.241491</v>
+        <v>0.234832</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0404836</v>
+        <v>0.0404728</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0524398</v>
+        <v>0.0515285</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0558074</v>
+        <v>0.0552156</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0770255</v>
+        <v>0.07473200000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25152</v>
+        <v>0.263973</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0411962</v>
+        <v>0.0418212</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0534278</v>
+        <v>0.0540366</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.056559</v>
+        <v>0.0567757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0755308</v>
+        <v>0.0755917</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268097</v>
+        <v>0.266116</v>
       </c>
       <c r="E54" t="n">
-        <v>0.043581</v>
+        <v>0.0420784</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0542743</v>
+        <v>0.0543182</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0573967</v>
+        <v>0.0582503</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07721799999999999</v>
+        <v>0.0781308</v>
       </c>
       <c r="D55" t="n">
-        <v>0.280007</v>
+        <v>0.278637</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0422945</v>
+        <v>0.0427645</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0569999</v>
+        <v>0.0575564</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0586674</v>
+        <v>0.0584767</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0799875</v>
+        <v>0.0798693</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295391</v>
+        <v>0.293637</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0435905</v>
+        <v>0.0431069</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0577474</v>
+        <v>0.0571724</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0598263</v>
+        <v>0.060006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0827619</v>
+        <v>0.0836708</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312551</v>
+        <v>0.311681</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0440923</v>
+        <v>0.0440908</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0593168</v>
+        <v>0.0592949</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0611003</v>
+        <v>0.0609568</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08587930000000001</v>
+        <v>0.085558</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329609</v>
+        <v>0.328373</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0446992</v>
+        <v>0.0448371</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0607048</v>
+        <v>0.0600545</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0638051</v>
+        <v>0.06343989999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907956</v>
+        <v>0.0892182</v>
       </c>
       <c r="D59" t="n">
-        <v>0.35142</v>
+        <v>0.347428</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0464465</v>
+        <v>0.0458693</v>
       </c>
       <c r="F59" t="n">
-        <v>0.063009</v>
+        <v>0.0619024</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0666968</v>
+        <v>0.0664772</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0949459</v>
+        <v>0.0935947</v>
       </c>
       <c r="D60" t="n">
-        <v>0.37013</v>
+        <v>0.36433</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0479334</v>
+        <v>0.0474718</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0652903</v>
+        <v>0.0641346</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0707706</v>
+        <v>0.0695651</v>
       </c>
       <c r="C61" t="n">
-        <v>0.100979</v>
+        <v>0.101673</v>
       </c>
       <c r="D61" t="n">
-        <v>0.418304</v>
+        <v>0.383692</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0498562</v>
+        <v>0.0496021</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0680181</v>
+        <v>0.0671795</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0764223</v>
+        <v>0.0762586</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108796</v>
+        <v>0.106867</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408789</v>
+        <v>0.403862</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0525508</v>
+        <v>0.0541199</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07185510000000001</v>
+        <v>0.07083440000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0837652</v>
+        <v>0.0857243</v>
       </c>
       <c r="C63" t="n">
-        <v>0.119382</v>
+        <v>0.120913</v>
       </c>
       <c r="D63" t="n">
-        <v>0.429566</v>
+        <v>0.428036</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0561772</v>
+        <v>0.0565313</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0761526</v>
+        <v>0.07731979999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09633949999999999</v>
+        <v>0.0973671</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137529</v>
+        <v>0.137369</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340529</v>
+        <v>0.336443</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0629151</v>
+        <v>0.06326420000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0858299</v>
+        <v>0.0853602</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11925</v>
+        <v>0.118662</v>
       </c>
       <c r="C65" t="n">
-        <v>0.163813</v>
+        <v>0.165262</v>
       </c>
       <c r="D65" t="n">
-        <v>0.352081</v>
+        <v>0.34753</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0767596</v>
+        <v>0.0755598</v>
       </c>
       <c r="F65" t="n">
-        <v>0.100083</v>
+        <v>0.0988155</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156161</v>
+        <v>0.152959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210933</v>
+        <v>0.200434</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371182</v>
+        <v>0.358305</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0459625</v>
+        <v>0.0457192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0594607</v>
+        <v>0.0589556</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06308660000000001</v>
+        <v>0.0633209</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08727260000000001</v>
+        <v>0.0860711</v>
       </c>
       <c r="D67" t="n">
-        <v>0.384327</v>
+        <v>0.373742</v>
       </c>
       <c r="E67" t="n">
-        <v>0.047194</v>
+        <v>0.0466961</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0608013</v>
+        <v>0.0615183</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0639943</v>
+        <v>0.06557780000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08979910000000001</v>
+        <v>0.0903408</v>
       </c>
       <c r="D68" t="n">
-        <v>0.396986</v>
+        <v>0.393102</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0470099</v>
+        <v>0.0478027</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0623357</v>
+        <v>0.0625049</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0659783</v>
+        <v>0.0664119</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0931732</v>
+        <v>0.09301719999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414137</v>
+        <v>0.407797</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0483192</v>
+        <v>0.0480816</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0642906</v>
+        <v>0.0637959</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06984940000000001</v>
+        <v>0.067661</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09828340000000001</v>
+        <v>0.09551419999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.445399</v>
+        <v>0.426297</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0495186</v>
+        <v>0.0491339</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668612</v>
+        <v>0.0651866</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06965449999999999</v>
+        <v>0.069554</v>
       </c>
       <c r="C71" t="n">
-        <v>0.105842</v>
+        <v>0.0995717</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456907</v>
+        <v>0.442289</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0500266</v>
+        <v>0.0500987</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06953230000000001</v>
+        <v>0.0671807</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0718411</v>
+        <v>0.07168679999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.106425</v>
+        <v>0.104134</v>
       </c>
       <c r="D72" t="n">
-        <v>0.473804</v>
+        <v>0.460662</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0516039</v>
+        <v>0.051442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07050389999999999</v>
+        <v>0.06952750000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07294249999999999</v>
+        <v>0.0755454</v>
       </c>
       <c r="C73" t="n">
-        <v>0.11093</v>
+        <v>0.111876</v>
       </c>
       <c r="D73" t="n">
-        <v>0.49289</v>
+        <v>0.482098</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0526373</v>
+        <v>0.0527551</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0758775</v>
+        <v>0.0726275</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07512249999999999</v>
+        <v>0.0770025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.114164</v>
+        <v>0.115803</v>
       </c>
       <c r="D74" t="n">
-        <v>0.503277</v>
+        <v>0.508377</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0543066</v>
+        <v>0.0554912</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0765501</v>
+        <v>0.0801849</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0809617</v>
+        <v>0.0844063</v>
       </c>
       <c r="C75" t="n">
-        <v>0.12519</v>
+        <v>0.129643</v>
       </c>
       <c r="D75" t="n">
-        <v>0.524713</v>
+        <v>0.524527</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0569904</v>
+        <v>0.0579325</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07872750000000001</v>
+        <v>0.08399570000000001</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.086494</v>
+        <v>0.0918204</v>
       </c>
       <c r="C76" t="n">
-        <v>0.133699</v>
+        <v>0.139206</v>
       </c>
       <c r="D76" t="n">
-        <v>0.545398</v>
+        <v>0.5512049999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0603109</v>
+        <v>0.0613108</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08492760000000001</v>
+        <v>0.09470919999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0970805</v>
+        <v>0.10234</v>
       </c>
       <c r="C77" t="n">
-        <v>0.155187</v>
+        <v>0.152107</v>
       </c>
       <c r="D77" t="n">
-        <v>0.581968</v>
+        <v>0.565068</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0670582</v>
+        <v>0.0667804</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0991773</v>
+        <v>0.0958579</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.114009</v>
+        <v>0.115899</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17944</v>
+        <v>0.171901</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437332</v>
+        <v>0.435177</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0703691</v>
+        <v>0.07418089999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.102017</v>
+        <v>0.104942</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129804</v>
+        <v>0.140152</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205272</v>
+        <v>0.201744</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44762</v>
+        <v>0.445444</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08082979999999999</v>
+        <v>0.08580069999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115849</v>
+        <v>0.117789</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.162222</v>
+        <v>0.167244</v>
       </c>
       <c r="C80" t="n">
-        <v>0.262579</v>
+        <v>0.252109</v>
       </c>
       <c r="D80" t="n">
-        <v>0.464803</v>
+        <v>0.461764</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0511341</v>
+        <v>0.0541667</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0690959</v>
+        <v>0.0731803</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07356409999999999</v>
+        <v>0.07560550000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.108968</v>
+        <v>0.111336</v>
       </c>
       <c r="D81" t="n">
-        <v>0.478029</v>
+        <v>0.47684</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0516032</v>
+        <v>0.0556154</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0717846</v>
+        <v>0.07565620000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07535119999999999</v>
+        <v>0.0857339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.116139</v>
+        <v>0.11846</v>
       </c>
       <c r="D82" t="n">
-        <v>0.50262</v>
+        <v>0.498202</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0536959</v>
+        <v>0.0543043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0745753</v>
+        <v>0.07502010000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0773184</v>
+        <v>0.0784359</v>
       </c>
       <c r="C83" t="n">
-        <v>0.120261</v>
+        <v>0.124173</v>
       </c>
       <c r="D83" t="n">
-        <v>0.512115</v>
+        <v>0.5087159999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0538746</v>
+        <v>0.0567613</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0765195</v>
+        <v>0.08082780000000001</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0795053</v>
+        <v>0.0818156</v>
       </c>
       <c r="C84" t="n">
-        <v>0.12474</v>
+        <v>0.128515</v>
       </c>
       <c r="D84" t="n">
-        <v>0.527613</v>
+        <v>0.525579</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0564672</v>
+        <v>0.0567175</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0796702</v>
+        <v>0.08022550000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08183</v>
+        <v>0.0829903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.134415</v>
+        <v>0.131688</v>
       </c>
       <c r="D85" t="n">
-        <v>0.562269</v>
+        <v>0.545144</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0589142</v>
+        <v>0.0605006</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0845038</v>
+        <v>0.0846698</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.087353</v>
+        <v>0.0874101</v>
       </c>
       <c r="C86" t="n">
-        <v>0.139375</v>
+        <v>0.140213</v>
       </c>
       <c r="D86" t="n">
-        <v>0.577949</v>
+        <v>0.564366</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0604159</v>
+        <v>0.0611391</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0911072</v>
+        <v>0.0877822</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0902727</v>
+        <v>0.0901856</v>
       </c>
       <c r="C87" t="n">
-        <v>0.145871</v>
+        <v>0.144927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.590905</v>
+        <v>0.579577</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0623295</v>
+        <v>0.0622302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0926916</v>
+        <v>0.0922196</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0972145</v>
+        <v>0.0945797</v>
       </c>
       <c r="C88" t="n">
-        <v>0.157558</v>
+        <v>0.154061</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609313</v>
+        <v>0.619032</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0662821</v>
+        <v>0.0649059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.103618</v>
+        <v>0.0979429</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.100818</v>
+        <v>0.101258</v>
       </c>
       <c r="C89" t="n">
-        <v>0.165243</v>
+        <v>0.161883</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6236</v>
+        <v>0.61564</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06780070000000001</v>
+        <v>0.0674985</v>
       </c>
       <c r="F89" t="n">
-        <v>0.101389</v>
+        <v>0.101868</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.106061</v>
+        <v>0.105057</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17282</v>
+        <v>0.173803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641279</v>
+        <v>0.63206</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0714386</v>
+        <v>0.0717223</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110535</v>
+        <v>0.109619</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.117778</v>
+        <v>0.115879</v>
       </c>
       <c r="C91" t="n">
-        <v>0.189186</v>
+        <v>0.188544</v>
       </c>
       <c r="D91" t="n">
-        <v>0.659586</v>
+        <v>0.655873</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07639849999999999</v>
+        <v>0.082909</v>
       </c>
       <c r="F91" t="n">
-        <v>0.116824</v>
+        <v>0.118225</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.128207</v>
+        <v>0.128242</v>
       </c>
       <c r="C92" t="n">
-        <v>0.209566</v>
+        <v>0.208983</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5094030000000001</v>
+        <v>0.500236</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0882792</v>
+        <v>0.0876695</v>
       </c>
       <c r="F92" t="n">
-        <v>0.130985</v>
+        <v>0.13009</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14869</v>
+        <v>0.147316</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24234</v>
+        <v>0.240366</v>
       </c>
       <c r="D93" t="n">
-        <v>0.519364</v>
+        <v>0.52132</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0959327</v>
+        <v>0.09684089999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.145343</v>
+        <v>0.146548</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.181764</v>
+        <v>0.182193</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288905</v>
+        <v>0.290665</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5295530000000001</v>
+        <v>0.53311</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0753528</v>
+        <v>0.0712691</v>
       </c>
       <c r="F94" t="n">
-        <v>0.103175</v>
+        <v>0.103689</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.101436</v>
+        <v>0.101646</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153811</v>
+        <v>0.157079</v>
       </c>
       <c r="D95" t="n">
-        <v>0.543174</v>
+        <v>0.544125</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0717131</v>
+        <v>0.0723705</v>
       </c>
       <c r="F95" t="n">
-        <v>0.104824</v>
+        <v>0.107145</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.102868</v>
+        <v>0.107064</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160145</v>
+        <v>0.160616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.567567</v>
+        <v>0.555917</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0742377</v>
+        <v>0.07424550000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109493</v>
+        <v>0.112703</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.106025</v>
+        <v>0.107643</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166698</v>
+        <v>0.165316</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581407</v>
+        <v>0.580875</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0756478</v>
+        <v>0.07930959999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113031</v>
+        <v>0.116562</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.108502</v>
+        <v>0.108758</v>
       </c>
       <c r="C98" t="n">
-        <v>0.171397</v>
+        <v>0.170785</v>
       </c>
       <c r="D98" t="n">
-        <v>0.601478</v>
+        <v>0.6007</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07778889999999999</v>
+        <v>0.0781646</v>
       </c>
       <c r="F98" t="n">
-        <v>0.121217</v>
+        <v>0.116202</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.113937</v>
+        <v>0.115187</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174882</v>
+        <v>0.178579</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610862</v>
+        <v>0.610747</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07885109999999999</v>
+        <v>0.0797631</v>
       </c>
       <c r="F99" t="n">
-        <v>0.125091</v>
+        <v>0.120881</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.114222</v>
+        <v>0.11445</v>
       </c>
       <c r="C100" t="n">
-        <v>0.184487</v>
+        <v>0.187736</v>
       </c>
       <c r="D100" t="n">
-        <v>0.639652</v>
+        <v>0.6314689999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0819358</v>
+        <v>0.0822306</v>
       </c>
       <c r="F100" t="n">
-        <v>0.125819</v>
+        <v>0.128101</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.118658</v>
+        <v>0.118207</v>
       </c>
       <c r="C101" t="n">
-        <v>0.190973</v>
+        <v>0.191597</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6579700000000001</v>
+        <v>0.655528</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0838888</v>
+        <v>0.0839973</v>
       </c>
       <c r="F101" t="n">
-        <v>0.126801</v>
+        <v>0.12926</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.121308</v>
+        <v>0.125557</v>
       </c>
       <c r="C102" t="n">
-        <v>0.196973</v>
+        <v>0.19957</v>
       </c>
       <c r="D102" t="n">
-        <v>0.668693</v>
+        <v>0.675474</v>
       </c>
       <c r="E102" t="n">
-        <v>0.08587110000000001</v>
+        <v>0.0877645</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1333</v>
+        <v>0.133581</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127984</v>
+        <v>0.131061</v>
       </c>
       <c r="C103" t="n">
-        <v>0.207592</v>
+        <v>0.208724</v>
       </c>
       <c r="D103" t="n">
-        <v>0.686563</v>
+        <v>0.689832</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0893518</v>
+        <v>0.0917013</v>
       </c>
       <c r="F103" t="n">
-        <v>0.137808</v>
+        <v>0.144774</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.133354</v>
+        <v>0.133539</v>
       </c>
       <c r="C104" t="n">
-        <v>0.22099</v>
+        <v>0.223975</v>
       </c>
       <c r="D104" t="n">
-        <v>0.720092</v>
+        <v>0.766409</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0944675</v>
+        <v>0.09595720000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.147307</v>
+        <v>0.14534</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.144854</v>
+        <v>0.154446</v>
       </c>
       <c r="C105" t="n">
-        <v>0.236564</v>
+        <v>0.239587</v>
       </c>
       <c r="D105" t="n">
-        <v>0.729219</v>
+        <v>0.729532</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0977962</v>
+        <v>0.0998298</v>
       </c>
       <c r="F105" t="n">
-        <v>0.152971</v>
+        <v>0.154357</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.155781</v>
+        <v>0.157478</v>
       </c>
       <c r="C106" t="n">
-        <v>0.256691</v>
+        <v>0.260984</v>
       </c>
       <c r="D106" t="n">
-        <v>0.755505</v>
+        <v>0.7516929999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.104624</v>
+        <v>0.10632</v>
       </c>
       <c r="F106" t="n">
-        <v>0.164514</v>
+        <v>0.169736</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.175117</v>
+        <v>0.176045</v>
       </c>
       <c r="C107" t="n">
-        <v>0.310602</v>
+        <v>0.301049</v>
       </c>
       <c r="D107" t="n">
-        <v>0.558926</v>
+        <v>0.592221</v>
       </c>
       <c r="E107" t="n">
-        <v>0.115864</v>
+        <v>0.116385</v>
       </c>
       <c r="F107" t="n">
-        <v>0.182923</v>
+        <v>0.190655</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.210471</v>
+        <v>0.213617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.342112</v>
+        <v>0.343202</v>
       </c>
       <c r="D108" t="n">
-        <v>0.571062</v>
+        <v>0.581581</v>
       </c>
       <c r="E108" t="n">
-        <v>0.146343</v>
+        <v>0.154109</v>
       </c>
       <c r="F108" t="n">
-        <v>0.188798</v>
+        <v>0.187988</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.270061</v>
+        <v>0.269724</v>
       </c>
       <c r="C109" t="n">
-        <v>0.428585</v>
+        <v>0.438573</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597938</v>
+        <v>0.587467</v>
       </c>
       <c r="E109" t="n">
-        <v>0.15025</v>
+        <v>0.149161</v>
       </c>
       <c r="F109" t="n">
-        <v>0.190955</v>
+        <v>0.193351</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.189105</v>
+        <v>0.200491</v>
       </c>
       <c r="C110" t="n">
-        <v>0.253169</v>
+        <v>0.276686</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615383</v>
+        <v>0.610327</v>
       </c>
       <c r="E110" t="n">
-        <v>0.151144</v>
+        <v>0.15088</v>
       </c>
       <c r="F110" t="n">
-        <v>0.201139</v>
+        <v>0.197273</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.185328</v>
+        <v>0.186771</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255503</v>
+        <v>0.252998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.624023</v>
+        <v>0.619488</v>
       </c>
       <c r="E111" t="n">
-        <v>0.152618</v>
+        <v>0.151451</v>
       </c>
       <c r="F111" t="n">
-        <v>0.200889</v>
+        <v>0.197843</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.188777</v>
+        <v>0.200564</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258791</v>
+        <v>0.263921</v>
       </c>
       <c r="D112" t="n">
-        <v>0.645184</v>
+        <v>0.641157</v>
       </c>
       <c r="E112" t="n">
-        <v>0.153416</v>
+        <v>0.154914</v>
       </c>
       <c r="F112" t="n">
-        <v>0.204308</v>
+        <v>0.203121</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.189104</v>
+        <v>0.190592</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267401</v>
+        <v>0.26934</v>
       </c>
       <c r="D113" t="n">
-        <v>0.698692</v>
+        <v>0.661223</v>
       </c>
       <c r="E113" t="n">
-        <v>0.154241</v>
+        <v>0.155468</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206426</v>
+        <v>0.214619</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.192638</v>
+        <v>0.201716</v>
       </c>
       <c r="C114" t="n">
-        <v>0.276013</v>
+        <v>0.27778</v>
       </c>
       <c r="D114" t="n">
-        <v>0.680627</v>
+        <v>0.681549</v>
       </c>
       <c r="E114" t="n">
-        <v>0.156823</v>
+        <v>0.157817</v>
       </c>
       <c r="F114" t="n">
-        <v>0.227057</v>
+        <v>0.221116</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.203348</v>
+        <v>0.196852</v>
       </c>
       <c r="C115" t="n">
-        <v>0.285328</v>
+        <v>0.2859</v>
       </c>
       <c r="D115" t="n">
-        <v>0.703568</v>
+        <v>0.690568</v>
       </c>
       <c r="E115" t="n">
-        <v>0.16167</v>
+        <v>0.158006</v>
       </c>
       <c r="F115" t="n">
-        <v>0.218819</v>
+        <v>0.214569</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.203971</v>
+        <v>0.200237</v>
       </c>
       <c r="C116" t="n">
-        <v>0.293431</v>
+        <v>0.320338</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7107599999999999</v>
+        <v>0.717537</v>
       </c>
       <c r="E116" t="n">
-        <v>0.172856</v>
+        <v>0.160334</v>
       </c>
       <c r="F116" t="n">
-        <v>0.218876</v>
+        <v>0.219005</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204411</v>
+        <v>0.206502</v>
       </c>
       <c r="C117" t="n">
-        <v>0.304615</v>
+        <v>0.303943</v>
       </c>
       <c r="D117" t="n">
-        <v>0.748602</v>
+        <v>0.76927</v>
       </c>
       <c r="E117" t="n">
-        <v>0.165992</v>
+        <v>0.164771</v>
       </c>
       <c r="F117" t="n">
-        <v>0.227836</v>
+        <v>0.227434</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211846</v>
+        <v>0.213669</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322555</v>
+        <v>0.317163</v>
       </c>
       <c r="D118" t="n">
-        <v>0.76095</v>
+        <v>0.753387</v>
       </c>
       <c r="E118" t="n">
-        <v>0.167159</v>
+        <v>0.16756</v>
       </c>
       <c r="F118" t="n">
-        <v>0.236739</v>
+        <v>0.238228</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.219802</v>
+        <v>0.225106</v>
       </c>
       <c r="C119" t="n">
-        <v>0.341295</v>
+        <v>0.340123</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779915</v>
+        <v>0.780672</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172271</v>
+        <v>0.171438</v>
       </c>
       <c r="F119" t="n">
-        <v>0.241723</v>
+        <v>0.246579</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.234427</v>
+        <v>0.239428</v>
       </c>
       <c r="C120" t="n">
-        <v>0.361531</v>
+        <v>0.365573</v>
       </c>
       <c r="D120" t="n">
-        <v>0.810621</v>
+        <v>0.803572</v>
       </c>
       <c r="E120" t="n">
-        <v>0.191932</v>
+        <v>0.179346</v>
       </c>
       <c r="F120" t="n">
-        <v>0.255028</v>
+        <v>0.258799</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.26573</v>
+        <v>0.258337</v>
       </c>
       <c r="C121" t="n">
-        <v>0.399692</v>
+        <v>0.405264</v>
       </c>
       <c r="D121" t="n">
-        <v>0.623732</v>
+        <v>0.617146</v>
       </c>
       <c r="E121" t="n">
-        <v>0.189404</v>
+        <v>0.193776</v>
       </c>
       <c r="F121" t="n">
-        <v>0.278118</v>
+        <v>0.281888</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.291412</v>
+        <v>0.293348</v>
       </c>
       <c r="C122" t="n">
-        <v>0.459411</v>
+        <v>0.464585</v>
       </c>
       <c r="D122" t="n">
-        <v>0.645111</v>
+        <v>0.639923</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206522</v>
+        <v>0.204165</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305577</v>
+        <v>0.304767</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.354278</v>
+        <v>0.353627</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580282</v>
+        <v>0.560389</v>
       </c>
       <c r="D123" t="n">
-        <v>0.665255</v>
+        <v>0.6448430000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.242325</v>
+        <v>0.237253</v>
       </c>
       <c r="F123" t="n">
-        <v>0.292101</v>
+        <v>0.289954</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2946</v>
+        <v>0.299039</v>
       </c>
       <c r="C124" t="n">
-        <v>0.368236</v>
+        <v>0.376151</v>
       </c>
       <c r="D124" t="n">
-        <v>0.676641</v>
+        <v>0.67034</v>
       </c>
       <c r="E124" t="n">
-        <v>0.243759</v>
+        <v>0.241331</v>
       </c>
       <c r="F124" t="n">
-        <v>0.294458</v>
+        <v>0.29132</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.297933</v>
+        <v>0.298211</v>
       </c>
       <c r="C125" t="n">
-        <v>0.375113</v>
+        <v>0.372678</v>
       </c>
       <c r="D125" t="n">
-        <v>0.698627</v>
+        <v>0.6854479999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245364</v>
+        <v>0.239081</v>
       </c>
       <c r="F125" t="n">
-        <v>0.30612</v>
+        <v>0.296344</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30411</v>
+        <v>0.314915</v>
       </c>
       <c r="C126" t="n">
-        <v>0.389777</v>
+        <v>0.376374</v>
       </c>
       <c r="D126" t="n">
-        <v>0.722394</v>
+        <v>0.715303</v>
       </c>
       <c r="E126" t="n">
-        <v>0.242</v>
+        <v>0.239998</v>
       </c>
       <c r="F126" t="n">
-        <v>0.30252</v>
+        <v>0.301126</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.310189</v>
+        <v>0.315031</v>
       </c>
       <c r="C127" t="n">
-        <v>0.386162</v>
+        <v>0.388257</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7370679999999999</v>
+        <v>0.7374849999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.24204</v>
+        <v>0.251326</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305327</v>
+        <v>0.306634</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.307741</v>
+        <v>0.312001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.397748</v>
+        <v>0.410331</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759026</v>
+        <v>0.766447</v>
       </c>
       <c r="E128" t="n">
-        <v>0.244923</v>
+        <v>0.243063</v>
       </c>
       <c r="F128" t="n">
-        <v>0.311456</v>
+        <v>0.313206</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313617</v>
+        <v>0.312215</v>
       </c>
       <c r="C129" t="n">
-        <v>0.409428</v>
+        <v>0.404751</v>
       </c>
       <c r="D129" t="n">
-        <v>0.824298</v>
+        <v>0.778016</v>
       </c>
       <c r="E129" t="n">
-        <v>0.247296</v>
+        <v>0.252212</v>
       </c>
       <c r="F129" t="n">
-        <v>0.316876</v>
+        <v>0.316567</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.318623</v>
+        <v>0.321989</v>
       </c>
       <c r="C130" t="n">
-        <v>0.41373</v>
+        <v>0.415383</v>
       </c>
       <c r="D130" t="n">
-        <v>0.802567</v>
+        <v>0.803723</v>
       </c>
       <c r="E130" t="n">
-        <v>0.254179</v>
+        <v>0.251932</v>
       </c>
       <c r="F130" t="n">
-        <v>0.325137</v>
+        <v>0.323089</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.325621</v>
+        <v>0.32419</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431281</v>
+        <v>0.431245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.837058</v>
+        <v>0.8290149999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.257083</v>
+        <v>0.254289</v>
       </c>
       <c r="F131" t="n">
-        <v>0.334089</v>
+        <v>0.338669</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.337112</v>
+        <v>0.34871</v>
       </c>
       <c r="C132" t="n">
-        <v>0.457058</v>
+        <v>0.44328</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8519139999999999</v>
+        <v>0.8781060000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.261006</v>
+        <v>0.256793</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342935</v>
+        <v>0.340629</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.347827</v>
+        <v>0.350471</v>
       </c>
       <c r="C133" t="n">
-        <v>0.465094</v>
+        <v>0.461981</v>
       </c>
       <c r="D133" t="n">
-        <v>0.884176</v>
+        <v>0.897187</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260421</v>
+        <v>0.263605</v>
       </c>
       <c r="F133" t="n">
-        <v>0.349896</v>
+        <v>0.352058</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.368994</v>
+        <v>0.367627</v>
       </c>
       <c r="C134" t="n">
-        <v>0.49085</v>
+        <v>0.491713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.914876</v>
+        <v>0.927462</v>
       </c>
       <c r="E134" t="n">
-        <v>0.272862</v>
+        <v>0.270589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.369221</v>
+        <v>0.364367</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.405747</v>
+        <v>0.393901</v>
       </c>
       <c r="C135" t="n">
-        <v>0.545226</v>
+        <v>0.530182</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7798310000000001</v>
+        <v>0.768857</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2822</v>
+        <v>0.289366</v>
       </c>
       <c r="F135" t="n">
-        <v>0.387422</v>
+        <v>0.392985</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.457724</v>
+        <v>0.436467</v>
       </c>
       <c r="C136" t="n">
-        <v>0.61795</v>
+        <v>0.593518</v>
       </c>
       <c r="D136" t="n">
-        <v>0.796249</v>
+        <v>0.793608</v>
       </c>
       <c r="E136" t="n">
-        <v>0.303062</v>
+        <v>0.310266</v>
       </c>
       <c r="F136" t="n">
-        <v>0.432517</v>
+        <v>0.417053</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5181210000000001</v>
+        <v>0.5136309999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.709095</v>
+        <v>0.700616</v>
       </c>
       <c r="D137" t="n">
-        <v>0.821418</v>
+        <v>0.827708</v>
       </c>
       <c r="E137" t="n">
-        <v>0.295409</v>
+        <v>0.290247</v>
       </c>
       <c r="F137" t="n">
-        <v>0.347541</v>
+        <v>0.343988</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.361714</v>
+        <v>0.369846</v>
       </c>
       <c r="C138" t="n">
-        <v>0.432293</v>
+        <v>0.439026</v>
       </c>
       <c r="D138" t="n">
-        <v>0.874918</v>
+        <v>0.857486</v>
       </c>
       <c r="E138" t="n">
-        <v>0.300977</v>
+        <v>0.290873</v>
       </c>
       <c r="F138" t="n">
-        <v>0.360391</v>
+        <v>0.352965</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.376811</v>
+        <v>0.37102</v>
       </c>
       <c r="C139" t="n">
-        <v>0.455165</v>
+        <v>0.452595</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874793</v>
+        <v>0.881479</v>
       </c>
       <c r="E139" t="n">
-        <v>0.291807</v>
+        <v>0.307685</v>
       </c>
       <c r="F139" t="n">
-        <v>0.356041</v>
+        <v>0.356456</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.373389</v>
+        <v>0.36972</v>
       </c>
       <c r="C140" t="n">
-        <v>0.450453</v>
+        <v>0.451884</v>
       </c>
       <c r="D140" t="n">
-        <v>0.91237</v>
+        <v>0.923237</v>
       </c>
       <c r="E140" t="n">
-        <v>0.29821</v>
+        <v>0.293161</v>
       </c>
       <c r="F140" t="n">
-        <v>0.356906</v>
+        <v>0.363412</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.375026</v>
+        <v>0.371076</v>
       </c>
       <c r="C141" t="n">
-        <v>0.464826</v>
+        <v>0.459524</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951935</v>
+        <v>0.946354</v>
       </c>
       <c r="E141" t="n">
-        <v>0.300789</v>
+        <v>0.301286</v>
       </c>
       <c r="F141" t="n">
-        <v>0.367237</v>
+        <v>0.364289</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.381559</v>
+        <v>0.380057</v>
       </c>
       <c r="C142" t="n">
-        <v>0.465226</v>
+        <v>0.494273</v>
       </c>
       <c r="D142" t="n">
-        <v>0.989194</v>
+        <v>0.977772</v>
       </c>
       <c r="E142" t="n">
-        <v>0.296868</v>
+        <v>0.299497</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369572</v>
+        <v>0.372778</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.384566</v>
+        <v>0.387587</v>
       </c>
       <c r="C143" t="n">
-        <v>0.478869</v>
+        <v>0.475083</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01806</v>
+        <v>1.0191</v>
       </c>
       <c r="E143" t="n">
-        <v>0.308104</v>
+        <v>0.304379</v>
       </c>
       <c r="F143" t="n">
-        <v>0.384187</v>
+        <v>0.381548</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404362</v>
+        <v>0.0421272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041986</v>
+        <v>0.0420753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.116246</v>
+        <v>0.111132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0324778</v>
+        <v>0.0328848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327558</v>
+        <v>0.0331316</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417594</v>
+        <v>0.0438162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0435933</v>
+        <v>0.0462838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122458</v>
+        <v>0.114637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0337755</v>
+        <v>0.0353477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0335681</v>
+        <v>0.0331001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0445887</v>
+        <v>0.0460024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451925</v>
+        <v>0.0479967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124318</v>
+        <v>0.117397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350723</v>
+        <v>0.0360403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0351705</v>
+        <v>0.0341623</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502431</v>
+        <v>0.0511485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499336</v>
+        <v>0.0529006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129965</v>
+        <v>0.122324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0360469</v>
+        <v>0.0373222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0359472</v>
+        <v>0.0355615</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570153</v>
+        <v>0.059321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599362</v>
+        <v>0.0628862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138796</v>
+        <v>0.131418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0406152</v>
+        <v>0.041999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389581</v>
+        <v>0.0387434</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06806909999999999</v>
+        <v>0.07161670000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07032239999999999</v>
+        <v>0.0733403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.099283</v>
+        <v>0.0931611</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0479201</v>
+        <v>0.0481752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456343</v>
+        <v>0.0457974</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0873116</v>
+        <v>0.09398479999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092393</v>
+        <v>0.0918911</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101528</v>
+        <v>0.0977446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0597865</v>
+        <v>0.0599223</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572511</v>
+        <v>0.0562884</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119508</v>
+        <v>0.120907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119817</v>
+        <v>0.118881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106786</v>
+        <v>0.101452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303854</v>
+        <v>0.0302732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.033305</v>
+        <v>0.0320391</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0389041</v>
+        <v>0.0385284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420637</v>
+        <v>0.0403862</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11205</v>
+        <v>0.105911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031037</v>
+        <v>0.0303731</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0329142</v>
+        <v>0.0322927</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040616</v>
+        <v>0.038959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041538</v>
+        <v>0.0414164</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118638</v>
+        <v>0.110562</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306992</v>
+        <v>0.030752</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0333101</v>
+        <v>0.0328913</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395175</v>
+        <v>0.0395933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450282</v>
+        <v>0.0415941</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122719</v>
+        <v>0.114377</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0313068</v>
+        <v>0.0311525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033834</v>
+        <v>0.0334578</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399744</v>
+        <v>0.040167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0453172</v>
+        <v>0.0428958</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128513</v>
+        <v>0.119179</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0314736</v>
+        <v>0.0315694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03471</v>
+        <v>0.0337667</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408352</v>
+        <v>0.0415262</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0450283</v>
+        <v>0.0433486</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131175</v>
+        <v>0.122455</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317195</v>
+        <v>0.0319002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0352389</v>
+        <v>0.0343656</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.044551</v>
+        <v>0.0436615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0457955</v>
+        <v>0.0455092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141678</v>
+        <v>0.126443</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331701</v>
+        <v>0.0328742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0352946</v>
+        <v>0.0372878</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0435382</v>
+        <v>0.0455517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0474843</v>
+        <v>0.0471534</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144116</v>
+        <v>0.129472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0357789</v>
+        <v>0.0340083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359599</v>
+        <v>0.0357125</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453576</v>
+        <v>0.0459501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485653</v>
+        <v>0.0504793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141976</v>
+        <v>0.133536</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362708</v>
+        <v>0.0365496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373824</v>
+        <v>0.0374233</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0501786</v>
+        <v>0.0492492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0543532</v>
+        <v>0.0550203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152324</v>
+        <v>0.142864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374009</v>
+        <v>0.0365144</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0383808</v>
+        <v>0.0379732</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544271</v>
+        <v>0.0544655</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059371</v>
+        <v>0.0604936</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151239</v>
+        <v>0.143085</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392211</v>
+        <v>0.03812</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418777</v>
+        <v>0.039408</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0606677</v>
+        <v>0.0621077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0645435</v>
+        <v>0.0661281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162025</v>
+        <v>0.145439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427745</v>
+        <v>0.0426766</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0439695</v>
+        <v>0.043569</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.074145</v>
+        <v>0.0738868</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07972369999999999</v>
+        <v>0.080737</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110723</v>
+        <v>0.103611</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0483317</v>
+        <v>0.0481488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496986</v>
+        <v>0.0497652</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09081939999999999</v>
+        <v>0.0927499</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09321119999999999</v>
+        <v>0.09375989999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112144</v>
+        <v>0.107681</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609434</v>
+        <v>0.0595639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602872</v>
+        <v>0.0602361</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120811</v>
+        <v>0.118247</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122248</v>
+        <v>0.128202</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118618</v>
+        <v>0.113694</v>
       </c>
       <c r="E23" t="n">
-        <v>0.030753</v>
+        <v>0.0307563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0353468</v>
+        <v>0.0344463</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416771</v>
+        <v>0.0417811</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0478926</v>
+        <v>0.044661</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125958</v>
+        <v>0.11604</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0317401</v>
+        <v>0.030985</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0368002</v>
+        <v>0.0358414</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04164</v>
+        <v>0.0434334</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0478428</v>
+        <v>0.0451899</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130175</v>
+        <v>0.120871</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0312143</v>
+        <v>0.0311173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365007</v>
+        <v>0.0366884</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421758</v>
+        <v>0.0421037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0473957</v>
+        <v>0.0468163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132907</v>
+        <v>0.125348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315112</v>
+        <v>0.0315023</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368916</v>
+        <v>0.0361272</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0439696</v>
+        <v>0.0434248</v>
       </c>
       <c r="C27" t="n">
-        <v>0.050343</v>
+        <v>0.0475117</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137876</v>
+        <v>0.133057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0325526</v>
+        <v>0.0319522</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376497</v>
+        <v>0.0366992</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.043697</v>
+        <v>0.0434252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502933</v>
+        <v>0.0490916</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140166</v>
+        <v>0.135594</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0326467</v>
+        <v>0.0338498</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0383194</v>
+        <v>0.0386836</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045005</v>
+        <v>0.0457734</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521585</v>
+        <v>0.0512041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149553</v>
+        <v>0.137833</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334457</v>
+        <v>0.0334503</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0387334</v>
+        <v>0.0389029</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465236</v>
+        <v>0.0465863</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538341</v>
+        <v>0.0529587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152487</v>
+        <v>0.145527</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349555</v>
+        <v>0.0342369</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040995</v>
+        <v>0.0400438</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488954</v>
+        <v>0.048616</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572025</v>
+        <v>0.0561944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156806</v>
+        <v>0.14994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0357641</v>
+        <v>0.0358039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0417069</v>
+        <v>0.0411132</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513122</v>
+        <v>0.0515342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614403</v>
+        <v>0.0596323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166565</v>
+        <v>0.154814</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368108</v>
+        <v>0.0368097</v>
       </c>
       <c r="F32" t="n">
-        <v>0.042747</v>
+        <v>0.0425761</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0558583</v>
+        <v>0.056263</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0665572</v>
+        <v>0.06370339999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171394</v>
+        <v>0.158544</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0391967</v>
+        <v>0.0390407</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0453143</v>
+        <v>0.0442274</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06331589999999999</v>
+        <v>0.06373139999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0722377</v>
+        <v>0.0709216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171562</v>
+        <v>0.166743</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0422655</v>
+        <v>0.0419634</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0482619</v>
+        <v>0.0483447</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0728707</v>
+        <v>0.0709588</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08380360000000001</v>
+        <v>0.0806456</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128175</v>
+        <v>0.125921</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475461</v>
+        <v>0.0475748</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0537826</v>
+        <v>0.0534089</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08846759999999999</v>
+        <v>0.08656800000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09875200000000001</v>
+        <v>0.0969858</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134887</v>
+        <v>0.134054</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560714</v>
+        <v>0.0570172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0628471</v>
+        <v>0.0619358</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117061</v>
+        <v>0.116877</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127238</v>
+        <v>0.122946</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143487</v>
+        <v>0.139763</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0344162</v>
+        <v>0.0333218</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0430593</v>
+        <v>0.0419564</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0459329</v>
+        <v>0.0455737</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0572698</v>
+        <v>0.0576445</v>
       </c>
       <c r="D38" t="n">
-        <v>0.150834</v>
+        <v>0.148402</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342813</v>
+        <v>0.0336431</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0432442</v>
+        <v>0.0427777</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0487169</v>
+        <v>0.045368</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582866</v>
+        <v>0.0595008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159981</v>
+        <v>0.15845</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378599</v>
+        <v>0.0350925</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044102</v>
+        <v>0.0434418</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0461593</v>
+        <v>0.046784</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595433</v>
+        <v>0.060474</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16531</v>
+        <v>0.159443</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0344896</v>
+        <v>0.035398</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0443527</v>
+        <v>0.0450562</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0469866</v>
+        <v>0.0467135</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0623402</v>
+        <v>0.0608515</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177457</v>
+        <v>0.169012</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035605</v>
+        <v>0.0347561</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0495032</v>
+        <v>0.0448517</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0477105</v>
+        <v>0.0481331</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638729</v>
+        <v>0.06327190000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193805</v>
+        <v>0.177677</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354899</v>
+        <v>0.0366145</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0467169</v>
+        <v>0.0464427</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488798</v>
+        <v>0.0488088</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0655994</v>
+        <v>0.0662069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197669</v>
+        <v>0.189332</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0361927</v>
+        <v>0.0360814</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0476285</v>
+        <v>0.0474948</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508165</v>
+        <v>0.0500726</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680159</v>
+        <v>0.0681238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205484</v>
+        <v>0.197075</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0398077</v>
+        <v>0.0367692</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0492365</v>
+        <v>0.050108</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536734</v>
+        <v>0.0515443</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.0712237</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225882</v>
+        <v>0.207666</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381182</v>
+        <v>0.0381407</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510109</v>
+        <v>0.0510715</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0557344</v>
+        <v>0.0552347</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07529619999999999</v>
+        <v>0.0751347</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229607</v>
+        <v>0.223096</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0395388</v>
+        <v>0.0398223</v>
       </c>
       <c r="F46" t="n">
-        <v>0.052651</v>
+        <v>0.0530058</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0600394</v>
+        <v>0.0594124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0806094</v>
+        <v>0.0804129</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244161</v>
+        <v>0.234016</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0416194</v>
+        <v>0.0414484</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568505</v>
+        <v>0.0556842</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0661538</v>
+        <v>0.0650746</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0869086</v>
+        <v>0.0883246</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260082</v>
+        <v>0.249234</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0457633</v>
+        <v>0.0445348</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0606538</v>
+        <v>0.0593503</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759223</v>
+        <v>0.07569049999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10024</v>
+        <v>0.0968231</v>
       </c>
       <c r="D49" t="n">
-        <v>0.298851</v>
+        <v>0.265787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0489659</v>
+        <v>0.0491259</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649551</v>
+        <v>0.0641827</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906221</v>
+        <v>0.0920578</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11429</v>
+        <v>0.11552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214434</v>
+        <v>0.211035</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556428</v>
+        <v>0.0556462</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0722276</v>
+        <v>0.0737067</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12013</v>
+        <v>0.118475</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141017</v>
+        <v>0.13804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237603</v>
+        <v>0.222655</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0413313</v>
+        <v>0.0402311</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0528234</v>
+        <v>0.0509823</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154244</v>
+        <v>0.15045</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178435</v>
+        <v>0.174407</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240196</v>
+        <v>0.235384</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0407936</v>
+        <v>0.0403234</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0548775</v>
+        <v>0.0519831</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0551701</v>
+        <v>0.0554205</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07398349999999999</v>
+        <v>0.0739201</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254403</v>
+        <v>0.251013</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0412837</v>
+        <v>0.0417249</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0530613</v>
+        <v>0.0532416</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0566962</v>
+        <v>0.0572924</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0757848</v>
+        <v>0.07611370000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271524</v>
+        <v>0.265395</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0414938</v>
+        <v>0.0425991</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0544707</v>
+        <v>0.0538576</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569572</v>
+        <v>0.0574575</v>
       </c>
       <c r="C55" t="n">
-        <v>0.078907</v>
+        <v>0.077699</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283266</v>
+        <v>0.282894</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0427383</v>
+        <v>0.0428817</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0561123</v>
+        <v>0.0575567</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.058437</v>
+        <v>0.0585926</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809004</v>
+        <v>0.0808963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302774</v>
+        <v>0.293694</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0427525</v>
+        <v>0.043656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0580761</v>
+        <v>0.0591832</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0593854</v>
+        <v>0.0599271</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0910841</v>
+        <v>0.08152669999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330268</v>
+        <v>0.315069</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0444326</v>
+        <v>0.0445266</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0611473</v>
+        <v>0.0593029</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614494</v>
+        <v>0.0618382</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0849065</v>
+        <v>0.0847271</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336314</v>
+        <v>0.32518</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0453353</v>
+        <v>0.0448023</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614085</v>
+        <v>0.0597077</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0636515</v>
+        <v>0.06321019999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907852</v>
+        <v>0.0888311</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355425</v>
+        <v>0.342056</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0466662</v>
+        <v>0.0459522</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0630646</v>
+        <v>0.06154</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0700942</v>
+        <v>0.0660134</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933652</v>
+        <v>0.0925081</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371713</v>
+        <v>0.356611</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047456</v>
+        <v>0.0471859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651863</v>
+        <v>0.0649189</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0710199</v>
+        <v>0.0699355</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101091</v>
+        <v>0.0985038</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388808</v>
+        <v>0.385214</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0491451</v>
+        <v>0.0492158</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06736159999999999</v>
+        <v>0.06766949999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0756875</v>
+        <v>0.07772560000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106938</v>
+        <v>0.108549</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409971</v>
+        <v>0.403635</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0521299</v>
+        <v>0.0526462</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0723188</v>
+        <v>0.0744881</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0853706</v>
+        <v>0.0836689</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11949</v>
+        <v>0.117711</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434777</v>
+        <v>0.426086</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0571107</v>
+        <v>0.0563306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0777558</v>
+        <v>0.0762028</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.09591330000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134404</v>
+        <v>0.135291</v>
       </c>
       <c r="D64" t="n">
-        <v>0.344521</v>
+        <v>0.340098</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0631449</v>
+        <v>0.06460390000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0854058</v>
+        <v>0.08821080000000001</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119381</v>
+        <v>0.118065</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159236</v>
+        <v>0.164922</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351988</v>
+        <v>0.350224</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0746338</v>
+        <v>0.07422189999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0986189</v>
+        <v>0.09706099999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158493</v>
+        <v>0.151705</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203579</v>
+        <v>0.211727</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371605</v>
+        <v>0.360573</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0475054</v>
+        <v>0.0457538</v>
       </c>
       <c r="F66" t="n">
-        <v>0.061328</v>
+        <v>0.0588315</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06386169999999999</v>
+        <v>0.0635917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0882926</v>
+        <v>0.08873490000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381588</v>
+        <v>0.377403</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0468844</v>
+        <v>0.0491494</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0618258</v>
+        <v>0.0632062</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0650374</v>
+        <v>0.0713337</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0897511</v>
+        <v>0.0896161</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416642</v>
+        <v>0.402809</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477552</v>
+        <v>0.0477149</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06297460000000001</v>
+        <v>0.0615765</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0654559</v>
+        <v>0.065605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954667</v>
+        <v>0.094499</v>
       </c>
       <c r="D69" t="n">
-        <v>0.428868</v>
+        <v>0.421206</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0476321</v>
+        <v>0.0485547</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06471830000000001</v>
+        <v>0.0642046</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0669676</v>
+        <v>0.0676881</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978571</v>
+        <v>0.0996248</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437423</v>
+        <v>0.439258</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0497952</v>
+        <v>0.0506023</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647721</v>
+        <v>0.0654222</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0688936</v>
+        <v>0.06939380000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100299</v>
+        <v>0.100577</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456569</v>
+        <v>0.442811</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497732</v>
+        <v>0.0496306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0725305</v>
+        <v>0.067381</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07111969999999999</v>
+        <v>0.0706497</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107175</v>
+        <v>0.106548</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468044</v>
+        <v>0.462032</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518184</v>
+        <v>0.0507146</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07032629999999999</v>
+        <v>0.0705379</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727338</v>
+        <v>0.0733002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.112048</v>
+        <v>0.110436</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486261</v>
+        <v>0.489427</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0523911</v>
+        <v>0.0551146</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738123</v>
+        <v>0.0745716</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0753537</v>
+        <v>0.0793341</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119469</v>
+        <v>0.116988</v>
       </c>
       <c r="D74" t="n">
-        <v>0.508954</v>
+        <v>0.507804</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0546589</v>
+        <v>0.0548201</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0789223</v>
+        <v>0.0787108</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0799859</v>
+        <v>0.0811138</v>
       </c>
       <c r="C75" t="n">
-        <v>0.128779</v>
+        <v>0.122943</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549866</v>
+        <v>0.532789</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0561139</v>
+        <v>0.0573498</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0796655</v>
+        <v>0.0800309</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0862149</v>
+        <v>0.0863411</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142744</v>
+        <v>0.142224</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548701</v>
+        <v>0.549952</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0598729</v>
+        <v>0.059411</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891107</v>
+        <v>0.084338</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.099398</v>
+        <v>0.0943167</v>
       </c>
       <c r="C77" t="n">
-        <v>0.151816</v>
+        <v>0.152343</v>
       </c>
       <c r="D77" t="n">
-        <v>0.577696</v>
+        <v>0.569652</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0655797</v>
+        <v>0.06452049999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10123</v>
+        <v>0.101608</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116046</v>
+        <v>0.106523</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170264</v>
+        <v>0.169409</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435619</v>
+        <v>0.463113</v>
       </c>
       <c r="E78" t="n">
-        <v>0.074755</v>
+        <v>0.070538</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106528</v>
+        <v>0.101453</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129634</v>
+        <v>0.131336</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201055</v>
+        <v>0.212488</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452011</v>
+        <v>0.460218</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08676059999999999</v>
+        <v>0.0816508</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118167</v>
+        <v>0.116659</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177057</v>
+        <v>0.169997</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251908</v>
+        <v>0.252444</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475599</v>
+        <v>0.469764</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0539204</v>
+        <v>0.050965</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0729897</v>
+        <v>0.0694145</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07768890000000001</v>
+        <v>0.0789947</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112193</v>
+        <v>0.111851</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484759</v>
+        <v>0.487564</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0542798</v>
+        <v>0.0516216</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0791089</v>
+        <v>0.0712581</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0790233</v>
+        <v>0.07581690000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115862</v>
+        <v>0.115183</v>
       </c>
       <c r="D82" t="n">
-        <v>0.512985</v>
+        <v>0.498905</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0571083</v>
+        <v>0.0535168</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.07675360000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843458</v>
+        <v>0.078059</v>
       </c>
       <c r="C83" t="n">
-        <v>0.124253</v>
+        <v>0.122024</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51098</v>
+        <v>0.509475</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0583103</v>
+        <v>0.0547255</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0779292</v>
+        <v>0.0773808</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0893636</v>
+        <v>0.0807504</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130475</v>
+        <v>0.127689</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540766</v>
+        <v>0.531436</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0617369</v>
+        <v>0.056374</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0849266</v>
+        <v>0.08262</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.094219</v>
+        <v>0.0835564</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140659</v>
+        <v>0.132384</v>
       </c>
       <c r="D85" t="n">
-        <v>0.555134</v>
+        <v>0.5534289999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06457889999999999</v>
+        <v>0.0581076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0870744</v>
+        <v>0.0847846</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979448</v>
+        <v>0.0861224</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144325</v>
+        <v>0.138387</v>
       </c>
       <c r="D86" t="n">
-        <v>0.574121</v>
+        <v>0.564456</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0676546</v>
+        <v>0.0596976</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0885669</v>
+        <v>0.0901735</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0984781</v>
+        <v>0.0902247</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148939</v>
+        <v>0.146318</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586298</v>
+        <v>0.585161</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0665384</v>
+        <v>0.0630587</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0913786</v>
+        <v>0.0931004</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0976479</v>
+        <v>0.0942016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1583</v>
+        <v>0.153481</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601536</v>
+        <v>0.60193</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0683646</v>
+        <v>0.0656779</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0983782</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.101102</v>
+        <v>0.0986427</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164007</v>
+        <v>0.162964</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620403</v>
+        <v>0.622142</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06847350000000001</v>
+        <v>0.06773079999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.102762</v>
+        <v>0.101733</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1077</v>
+        <v>0.107586</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174169</v>
+        <v>0.173897</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641492</v>
+        <v>0.651212</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0725128</v>
+        <v>0.0736052</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110137</v>
+        <v>0.11072</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1205</v>
+        <v>0.117654</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18898</v>
+        <v>0.192085</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679501</v>
+        <v>0.669794</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0788985</v>
+        <v>0.0824165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118408</v>
+        <v>0.119441</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131985</v>
+        <v>0.129025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215321</v>
+        <v>0.211399</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508915</v>
+        <v>0.5135960000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0847053</v>
+        <v>0.0878292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127258</v>
+        <v>0.127992</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147601</v>
+        <v>0.148239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239659</v>
+        <v>0.257954</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.528803</v>
       </c>
       <c r="E93" t="n">
-        <v>0.100589</v>
+        <v>0.096486</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143147</v>
+        <v>0.146018</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180921</v>
+        <v>0.183412</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288295</v>
+        <v>0.290703</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550536</v>
+        <v>0.5268119999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0736607</v>
+        <v>0.0703226</v>
       </c>
       <c r="F94" t="n">
-        <v>0.106778</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107634</v>
+        <v>0.101902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153023</v>
+        <v>0.153927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552986</v>
+        <v>0.541169</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07269879999999999</v>
+        <v>0.0720977</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106242</v>
+        <v>0.105778</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.105944</v>
+        <v>0.103341</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160429</v>
+        <v>0.15842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57694</v>
+        <v>0.568523</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07476140000000001</v>
+        <v>0.0738347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109459</v>
+        <v>0.108129</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107381</v>
+        <v>0.105837</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166085</v>
+        <v>0.166146</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581048</v>
+        <v>0.578308</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07571170000000001</v>
+        <v>0.0763843</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113953</v>
+        <v>0.111781</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.10852</v>
+        <v>0.107806</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175071</v>
+        <v>0.169228</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593866</v>
+        <v>0.5893929999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0780786</v>
+        <v>0.07766679999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117277</v>
+        <v>0.116688</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11235</v>
+        <v>0.110424</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17442</v>
+        <v>0.174958</v>
       </c>
       <c r="D99" t="n">
-        <v>0.615204</v>
+        <v>0.601836</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0787761</v>
+        <v>0.0785894</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120136</v>
+        <v>0.118463</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.116102</v>
+        <v>0.115986</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180881</v>
+        <v>0.183643</v>
       </c>
       <c r="D100" t="n">
-        <v>0.633903</v>
+        <v>0.629506</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0821117</v>
+        <v>0.082306</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129824</v>
+        <v>0.123039</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124719</v>
+        <v>0.119179</v>
       </c>
       <c r="C101" t="n">
-        <v>0.193751</v>
+        <v>0.190975</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68023</v>
+        <v>0.640409</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0839321</v>
+        <v>0.0843816</v>
       </c>
       <c r="F101" t="n">
-        <v>0.129727</v>
+        <v>0.127886</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.124133</v>
+        <v>0.121985</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202819</v>
+        <v>0.199337</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669713</v>
+        <v>0.662054</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0873278</v>
+        <v>0.0865407</v>
       </c>
       <c r="F102" t="n">
-        <v>0.134873</v>
+        <v>0.132173</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130664</v>
+        <v>0.129845</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20681</v>
+        <v>0.206028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.692277</v>
+        <v>0.67876</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0885615</v>
+        <v>0.0899052</v>
       </c>
       <c r="F103" t="n">
-        <v>0.142146</v>
+        <v>0.138613</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13302</v>
+        <v>0.135845</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218941</v>
+        <v>0.21937</v>
       </c>
       <c r="D104" t="n">
-        <v>0.716569</v>
+        <v>0.708876</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09418310000000001</v>
+        <v>0.0931558</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145305</v>
+        <v>0.151504</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149261</v>
+        <v>0.145874</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23741</v>
+        <v>0.234852</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.742352</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995622</v>
+        <v>0.100662</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15793</v>
+        <v>0.154742</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.158719</v>
+        <v>0.157722</v>
       </c>
       <c r="C106" t="n">
-        <v>0.263344</v>
+        <v>0.26024</v>
       </c>
       <c r="D106" t="n">
-        <v>0.767298</v>
+        <v>0.745351</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.104992</v>
       </c>
       <c r="F106" t="n">
-        <v>0.168224</v>
+        <v>0.166926</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180233</v>
+        <v>0.180218</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295267</v>
+        <v>0.28978</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571398</v>
+        <v>0.564016</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117779</v>
+        <v>0.117516</v>
       </c>
       <c r="F107" t="n">
-        <v>0.18211</v>
+        <v>0.182174</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212849</v>
+        <v>0.215822</v>
       </c>
       <c r="C108" t="n">
-        <v>0.341322</v>
+        <v>0.34446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583622</v>
+        <v>0.575991</v>
       </c>
       <c r="E108" t="n">
-        <v>0.152681</v>
+        <v>0.147893</v>
       </c>
       <c r="F108" t="n">
-        <v>0.19838</v>
+        <v>0.189438</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265315</v>
+        <v>0.278647</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429398</v>
+        <v>0.433868</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597875</v>
+        <v>0.615662</v>
       </c>
       <c r="E109" t="n">
-        <v>0.155336</v>
+        <v>0.161134</v>
       </c>
       <c r="F109" t="n">
-        <v>0.191955</v>
+        <v>0.195739</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.184051</v>
+        <v>0.183941</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255244</v>
+        <v>0.270134</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615464</v>
+        <v>0.635271</v>
       </c>
       <c r="E110" t="n">
-        <v>0.159705</v>
+        <v>0.151185</v>
       </c>
       <c r="F110" t="n">
-        <v>0.19638</v>
+        <v>0.204717</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.194568</v>
+        <v>0.182555</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255772</v>
+        <v>0.253786</v>
       </c>
       <c r="D111" t="n">
-        <v>0.626735</v>
+        <v>0.623552</v>
       </c>
       <c r="E111" t="n">
-        <v>0.153453</v>
+        <v>0.152026</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211138</v>
+        <v>0.20236</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184636</v>
+        <v>0.189392</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269099</v>
+        <v>0.265888</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64541</v>
+        <v>0.639456</v>
       </c>
       <c r="E112" t="n">
-        <v>0.16637</v>
+        <v>0.154209</v>
       </c>
       <c r="F112" t="n">
-        <v>0.205281</v>
+        <v>0.202769</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185973</v>
+        <v>0.194366</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266806</v>
+        <v>0.281304</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675069</v>
+        <v>0.665106</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166548</v>
+        <v>0.160235</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206192</v>
+        <v>0.204795</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218221</v>
+        <v>0.195496</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277832</v>
+        <v>0.277684</v>
       </c>
       <c r="D114" t="n">
-        <v>0.700316</v>
+        <v>0.704346</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159151</v>
+        <v>0.177343</v>
       </c>
       <c r="F114" t="n">
-        <v>0.213917</v>
+        <v>0.227777</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196549</v>
+        <v>0.21181</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287048</v>
+        <v>0.284075</v>
       </c>
       <c r="D115" t="n">
-        <v>0.713483</v>
+        <v>0.693495</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161185</v>
+        <v>0.156827</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216467</v>
+        <v>0.216048</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20394</v>
+        <v>0.198939</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294276</v>
+        <v>0.314907</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71512</v>
+        <v>0.7184970000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163902</v>
+        <v>0.161794</v>
       </c>
       <c r="F116" t="n">
-        <v>0.223143</v>
+        <v>0.225468</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226312</v>
+        <v>0.230606</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305553</v>
+        <v>0.314964</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735619</v>
+        <v>0.825282</v>
       </c>
       <c r="E117" t="n">
-        <v>0.169941</v>
+        <v>0.170219</v>
       </c>
       <c r="F117" t="n">
-        <v>0.23325</v>
+        <v>0.226706</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232073</v>
+        <v>0.231576</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322141</v>
+        <v>0.325194</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765811</v>
+        <v>0.7612409999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.177597</v>
+        <v>0.169469</v>
       </c>
       <c r="F118" t="n">
-        <v>0.239467</v>
+        <v>0.237671</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.229083</v>
+        <v>0.239543</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340711</v>
+        <v>0.342868</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779219</v>
+        <v>0.795811</v>
       </c>
       <c r="E119" t="n">
-        <v>0.170275</v>
+        <v>0.174631</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247549</v>
+        <v>0.246328</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23775</v>
+        <v>0.235711</v>
       </c>
       <c r="C120" t="n">
-        <v>0.36389</v>
+        <v>0.375777</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806381</v>
+        <v>0.811118</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178358</v>
+        <v>0.179934</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258632</v>
+        <v>0.27689</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255962</v>
+        <v>0.261615</v>
       </c>
       <c r="C121" t="n">
-        <v>0.406589</v>
+        <v>0.407499</v>
       </c>
       <c r="D121" t="n">
-        <v>0.618837</v>
+        <v>0.614654</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.189762</v>
       </c>
       <c r="F121" t="n">
-        <v>0.280451</v>
+        <v>0.287111</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31302</v>
+        <v>0.293537</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466067</v>
+        <v>0.460482</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648958</v>
+        <v>0.62857</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206641</v>
+        <v>0.204787</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305266</v>
+        <v>0.308541</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.357703</v>
+        <v>0.346993</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593832</v>
+        <v>0.5611390000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650649</v>
+        <v>0.650752</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23331</v>
+        <v>0.2379</v>
       </c>
       <c r="F123" t="n">
-        <v>0.287209</v>
+        <v>0.288454</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295337</v>
+        <v>0.294471</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373797</v>
+        <v>0.363805</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694852</v>
+        <v>0.701546</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241574</v>
+        <v>0.236083</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291793</v>
+        <v>0.293783</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.300913</v>
+        <v>0.294312</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378528</v>
+        <v>0.374452</v>
       </c>
       <c r="D125" t="n">
-        <v>0.701847</v>
+        <v>0.684859</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245558</v>
+        <v>0.240177</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302312</v>
+        <v>0.302602</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299484</v>
+        <v>0.300693</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384213</v>
+        <v>0.382025</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7203079999999999</v>
+        <v>0.719282</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24248</v>
+        <v>0.242749</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304154</v>
+        <v>0.304987</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323119</v>
+        <v>0.304861</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387554</v>
+        <v>0.38739</v>
       </c>
       <c r="D127" t="n">
-        <v>0.729649</v>
+        <v>0.734119</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25037</v>
+        <v>0.240459</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305627</v>
+        <v>0.309556</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315066</v>
+        <v>0.318872</v>
       </c>
       <c r="C128" t="n">
-        <v>0.394337</v>
+        <v>0.39547</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759118</v>
+        <v>0.752327</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24956</v>
+        <v>0.246992</v>
       </c>
       <c r="F128" t="n">
-        <v>0.327057</v>
+        <v>0.323815</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313711</v>
+        <v>0.323856</v>
       </c>
       <c r="C129" t="n">
-        <v>0.412672</v>
+        <v>0.418166</v>
       </c>
       <c r="D129" t="n">
-        <v>0.795212</v>
+        <v>0.79717</v>
       </c>
       <c r="E129" t="n">
-        <v>0.244993</v>
+        <v>0.246436</v>
       </c>
       <c r="F129" t="n">
-        <v>0.319168</v>
+        <v>0.315954</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317592</v>
+        <v>0.320147</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418307</v>
+        <v>0.412878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816229</v>
+        <v>0.8013439999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.24865</v>
+        <v>0.247844</v>
       </c>
       <c r="F130" t="n">
-        <v>0.329529</v>
+        <v>0.33472</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.337821</v>
+        <v>0.331488</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431545</v>
+        <v>0.446328</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8317830000000001</v>
+        <v>0.857487</v>
       </c>
       <c r="E131" t="n">
-        <v>0.251304</v>
+        <v>0.26225</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333416</v>
+        <v>0.33876</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335238</v>
+        <v>0.335995</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445206</v>
+        <v>0.463514</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869043</v>
+        <v>0.856602</v>
       </c>
       <c r="E132" t="n">
-        <v>0.255367</v>
+        <v>0.281958</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342477</v>
+        <v>0.343516</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354488</v>
+        <v>0.346803</v>
       </c>
       <c r="C133" t="n">
-        <v>0.502782</v>
+        <v>0.475997</v>
       </c>
       <c r="D133" t="n">
-        <v>0.891855</v>
+        <v>0.907199</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260546</v>
+        <v>0.272315</v>
       </c>
       <c r="F133" t="n">
-        <v>0.350394</v>
+        <v>0.358708</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374687</v>
+        <v>0.36482</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498502</v>
+        <v>0.495497</v>
       </c>
       <c r="D134" t="n">
-        <v>0.947819</v>
+        <v>0.923862</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275867</v>
+        <v>0.268827</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364719</v>
+        <v>0.363341</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.392354</v>
+        <v>0.393537</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539395</v>
+        <v>0.52979</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769266</v>
+        <v>0.787797</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281317</v>
+        <v>0.291121</v>
       </c>
       <c r="F135" t="n">
-        <v>0.385169</v>
+        <v>0.382402</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434604</v>
+        <v>0.435912</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596301</v>
+        <v>0.60463</v>
       </c>
       <c r="D136" t="n">
-        <v>0.826171</v>
+        <v>0.801633</v>
       </c>
       <c r="E136" t="n">
-        <v>0.300476</v>
+        <v>0.302462</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422452</v>
+        <v>0.418551</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511276</v>
+        <v>0.512212</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69603</v>
+        <v>0.697182</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827473</v>
+        <v>0.847652</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288913</v>
+        <v>0.288617</v>
       </c>
       <c r="F137" t="n">
-        <v>0.355419</v>
+        <v>0.348624</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367374</v>
+        <v>0.385868</v>
       </c>
       <c r="C138" t="n">
-        <v>0.438408</v>
+        <v>0.434886</v>
       </c>
       <c r="D138" t="n">
-        <v>0.845283</v>
+        <v>0.858348</v>
       </c>
       <c r="E138" t="n">
-        <v>0.290867</v>
+        <v>0.293589</v>
       </c>
       <c r="F138" t="n">
-        <v>0.350915</v>
+        <v>0.366848</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365175</v>
+        <v>0.390148</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44799</v>
+        <v>0.459521</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900519</v>
+        <v>0.900212</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297579</v>
+        <v>0.293896</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354805</v>
+        <v>0.356484</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367735</v>
+        <v>0.370058</v>
       </c>
       <c r="C140" t="n">
-        <v>0.463007</v>
+        <v>0.450025</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921688</v>
+        <v>0.928824</v>
       </c>
       <c r="E140" t="n">
-        <v>0.294614</v>
+        <v>0.296489</v>
       </c>
       <c r="F140" t="n">
-        <v>0.360806</v>
+        <v>0.364835</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373447</v>
+        <v>0.380416</v>
       </c>
       <c r="C141" t="n">
-        <v>0.466975</v>
+        <v>0.481731</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951329</v>
+        <v>0.962096</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296998</v>
+        <v>0.30201</v>
       </c>
       <c r="F141" t="n">
-        <v>0.377241</v>
+        <v>0.37849</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.382831</v>
+        <v>0.379926</v>
       </c>
       <c r="C142" t="n">
-        <v>0.466194</v>
+        <v>0.487944</v>
       </c>
       <c r="D142" t="n">
-        <v>0.981593</v>
+        <v>0.98314</v>
       </c>
       <c r="E142" t="n">
-        <v>0.301974</v>
+        <v>0.305343</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369876</v>
+        <v>0.377998</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381273</v>
+        <v>0.385612</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477303</v>
+        <v>0.482233</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01753</v>
+        <v>1.02541</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305317</v>
+        <v>0.309264</v>
       </c>
       <c r="F143" t="n">
-        <v>0.377078</v>
+        <v>0.383242</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0421272</v>
+        <v>0.042305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0420753</v>
+        <v>0.0436417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111132</v>
+        <v>0.113722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0328848</v>
+        <v>0.0344965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0331316</v>
+        <v>0.0330017</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0438162</v>
+        <v>0.0427235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0462838</v>
+        <v>0.0438617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114637</v>
+        <v>0.113293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0353477</v>
+        <v>0.035558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0331001</v>
+        <v>0.0349648</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0460024</v>
+        <v>0.045845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0479967</v>
+        <v>0.0461025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.117397</v>
+        <v>0.118448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0360403</v>
+        <v>0.0355469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0341623</v>
+        <v>0.0343127</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0511485</v>
+        <v>0.0497349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0529006</v>
+        <v>0.0516036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122324</v>
+        <v>0.126343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0373222</v>
+        <v>0.0361557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0355615</v>
+        <v>0.0389308</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.059321</v>
+        <v>0.0582385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0628862</v>
+        <v>0.0599955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.131418</v>
+        <v>0.135246</v>
       </c>
       <c r="E6" t="n">
-        <v>0.041999</v>
+        <v>0.0413837</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0387434</v>
+        <v>0.0405124</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07161670000000001</v>
+        <v>0.06877659999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0733403</v>
+        <v>0.0701166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0931611</v>
+        <v>0.0966916</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0481752</v>
+        <v>0.048199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0457974</v>
+        <v>0.0472983</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09398479999999999</v>
+        <v>0.087626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0918911</v>
+        <v>0.0924111</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0977446</v>
+        <v>0.0993682</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0599223</v>
+        <v>0.0606933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0562884</v>
+        <v>0.0566098</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120907</v>
+        <v>0.12325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118881</v>
+        <v>0.126308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101452</v>
+        <v>0.102326</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0302732</v>
+        <v>0.0315947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0320391</v>
+        <v>0.0344997</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0385284</v>
+        <v>0.0383194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0403862</v>
+        <v>0.0414389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.105911</v>
+        <v>0.108347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0303731</v>
+        <v>0.0304512</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0322927</v>
+        <v>0.0338736</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.038959</v>
+        <v>0.038953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0414164</v>
+        <v>0.0422685</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110562</v>
+        <v>0.110314</v>
       </c>
       <c r="E11" t="n">
-        <v>0.030752</v>
+        <v>0.031509</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0328913</v>
+        <v>0.032755</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395933</v>
+        <v>0.0389846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0415941</v>
+        <v>0.0412687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114377</v>
+        <v>0.11485</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0311525</v>
+        <v>0.0327931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0334578</v>
+        <v>0.0345153</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.040167</v>
+        <v>0.0397649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0428958</v>
+        <v>0.0450218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.119179</v>
+        <v>0.121772</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0315694</v>
+        <v>0.0317674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0337667</v>
+        <v>0.0336785</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0415262</v>
+        <v>0.0406397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0433486</v>
+        <v>0.0428812</v>
       </c>
       <c r="D14" t="n">
-        <v>0.122455</v>
+        <v>0.123962</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0319002</v>
+        <v>0.0332351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0343656</v>
+        <v>0.0343871</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0436615</v>
+        <v>0.0413362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0455092</v>
+        <v>0.0448663</v>
       </c>
       <c r="D15" t="n">
-        <v>0.126443</v>
+        <v>0.129333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0328742</v>
+        <v>0.0328418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0372878</v>
+        <v>0.0356639</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0455517</v>
+        <v>0.0437671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0471534</v>
+        <v>0.0476659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.129472</v>
+        <v>0.130537</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0340083</v>
+        <v>0.0370998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0357125</v>
+        <v>0.0365593</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0459501</v>
+        <v>0.045971</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0504793</v>
+        <v>0.0492254</v>
       </c>
       <c r="D17" t="n">
-        <v>0.133536</v>
+        <v>0.134116</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0365496</v>
+        <v>0.0364554</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0374233</v>
+        <v>0.0371221</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0492492</v>
+        <v>0.0476984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0550203</v>
+        <v>0.0521214</v>
       </c>
       <c r="D18" t="n">
-        <v>0.142864</v>
+        <v>0.138989</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0365144</v>
+        <v>0.0378569</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0379732</v>
+        <v>0.0377216</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544655</v>
+        <v>0.0546235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0604936</v>
+        <v>0.0579524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.143085</v>
+        <v>0.147801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03812</v>
+        <v>0.0403501</v>
       </c>
       <c r="F19" t="n">
-        <v>0.039408</v>
+        <v>0.0394561</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621077</v>
+        <v>0.0623484</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0661281</v>
+        <v>0.0659955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.145439</v>
+        <v>0.147151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0426766</v>
+        <v>0.0432321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.043569</v>
+        <v>0.0440734</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0738868</v>
+        <v>0.07092420000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.080737</v>
+        <v>0.0806936</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103611</v>
+        <v>0.104703</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0481488</v>
+        <v>0.048329</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0497652</v>
+        <v>0.050538</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0927499</v>
+        <v>0.09260839999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09375989999999999</v>
+        <v>0.0980343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.107681</v>
+        <v>0.110219</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0595639</v>
+        <v>0.0598508</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602361</v>
+        <v>0.0604515</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118247</v>
+        <v>0.119935</v>
       </c>
       <c r="C23" t="n">
-        <v>0.128202</v>
+        <v>0.132549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.113694</v>
+        <v>0.113706</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0307563</v>
+        <v>0.0317291</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0344463</v>
+        <v>0.0360812</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0417811</v>
+        <v>0.0414265</v>
       </c>
       <c r="C24" t="n">
-        <v>0.044661</v>
+        <v>0.0453052</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11604</v>
+        <v>0.119157</v>
       </c>
       <c r="E24" t="n">
-        <v>0.030985</v>
+        <v>0.0312172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0358414</v>
+        <v>0.0372652</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0434334</v>
+        <v>0.0428372</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0451899</v>
+        <v>0.0463504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.120871</v>
+        <v>0.124328</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0311173</v>
+        <v>0.0313238</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0366884</v>
+        <v>0.036457</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421037</v>
+        <v>0.0426658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0468163</v>
+        <v>0.0480225</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125348</v>
+        <v>0.135602</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315023</v>
+        <v>0.0325611</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0361272</v>
+        <v>0.0366581</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0434248</v>
+        <v>0.0433837</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0475117</v>
+        <v>0.0516199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.133057</v>
+        <v>0.131571</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0319522</v>
+        <v>0.0320672</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0366992</v>
+        <v>0.0387232</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0434252</v>
+        <v>0.0469748</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0490916</v>
+        <v>0.0496722</v>
       </c>
       <c r="D28" t="n">
-        <v>0.135594</v>
+        <v>0.137978</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0338498</v>
+        <v>0.0330096</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0386836</v>
+        <v>0.0387208</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0457734</v>
+        <v>0.0455021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0512041</v>
+        <v>0.051523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137833</v>
+        <v>0.142561</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334503</v>
+        <v>0.0335303</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0389029</v>
+        <v>0.0393039</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465863</v>
+        <v>0.0487733</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0529587</v>
+        <v>0.053937</v>
       </c>
       <c r="D30" t="n">
-        <v>0.145527</v>
+        <v>0.147848</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0342369</v>
+        <v>0.0351975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0400438</v>
+        <v>0.0405798</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.048616</v>
+        <v>0.0502601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0561944</v>
+        <v>0.0558472</v>
       </c>
       <c r="D31" t="n">
-        <v>0.14994</v>
+        <v>0.147807</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0358039</v>
+        <v>0.0355678</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0411132</v>
+        <v>0.0405101</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0515342</v>
+        <v>0.0532226</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0596323</v>
+        <v>0.0587525</v>
       </c>
       <c r="D32" t="n">
-        <v>0.154814</v>
+        <v>0.155723</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368097</v>
+        <v>0.0383721</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0425761</v>
+        <v>0.0426987</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.056263</v>
+        <v>0.0589388</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06370339999999999</v>
+        <v>0.06753670000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158544</v>
+        <v>0.161343</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0390407</v>
+        <v>0.039269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0442274</v>
+        <v>0.0454884</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06373139999999999</v>
+        <v>0.06593309999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0709216</v>
+        <v>0.0712363</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166743</v>
+        <v>0.165431</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0419634</v>
+        <v>0.0447908</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0483447</v>
+        <v>0.0484491</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0709588</v>
+        <v>0.0775989</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0806456</v>
+        <v>0.08132830000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125921</v>
+        <v>0.124445</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475748</v>
+        <v>0.0488364</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0534089</v>
+        <v>0.0538054</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08656800000000001</v>
+        <v>0.09554799999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0969858</v>
+        <v>0.0991692</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134054</v>
+        <v>0.132464</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0570172</v>
+        <v>0.0577417</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0619358</v>
+        <v>0.0622147</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116877</v>
+        <v>0.121308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122946</v>
+        <v>0.126879</v>
       </c>
       <c r="D37" t="n">
-        <v>0.139763</v>
+        <v>0.138984</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0333218</v>
+        <v>0.033994</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0419564</v>
+        <v>0.0433575</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0455737</v>
+        <v>0.0465942</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0576445</v>
+        <v>0.0570025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.148402</v>
+        <v>0.14428</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0336431</v>
+        <v>0.0340811</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0427777</v>
+        <v>0.0425705</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.045368</v>
+        <v>0.0488645</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0595008</v>
+        <v>0.0579275</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15845</v>
+        <v>0.151796</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0350925</v>
+        <v>0.0354236</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0434418</v>
+        <v>0.0453283</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.046784</v>
+        <v>0.0485417</v>
       </c>
       <c r="C40" t="n">
-        <v>0.060474</v>
+        <v>0.0597846</v>
       </c>
       <c r="D40" t="n">
-        <v>0.159443</v>
+        <v>0.160786</v>
       </c>
       <c r="E40" t="n">
-        <v>0.035398</v>
+        <v>0.0352547</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0450562</v>
+        <v>0.045284</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0467135</v>
+        <v>0.0488356</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0608515</v>
+        <v>0.0618855</v>
       </c>
       <c r="D41" t="n">
-        <v>0.169012</v>
+        <v>0.168879</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0347561</v>
+        <v>0.0377046</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0448517</v>
+        <v>0.0483133</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0481331</v>
+        <v>0.0495548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06327190000000001</v>
+        <v>0.0657538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177677</v>
+        <v>0.180177</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0366145</v>
+        <v>0.036945</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0464427</v>
+        <v>0.0472755</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488088</v>
+        <v>0.0507081</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0662069</v>
+        <v>0.066566</v>
       </c>
       <c r="D43" t="n">
-        <v>0.189332</v>
+        <v>0.193051</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0360814</v>
+        <v>0.0367441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0474948</v>
+        <v>0.0508812</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0500726</v>
+        <v>0.0524363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0681238</v>
+        <v>0.0708106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.197075</v>
+        <v>0.205038</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0367692</v>
+        <v>0.037872</v>
       </c>
       <c r="F44" t="n">
-        <v>0.050108</v>
+        <v>0.0495317</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0515443</v>
+        <v>0.0535868</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0712237</v>
+        <v>0.07204380000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207666</v>
+        <v>0.211177</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381407</v>
+        <v>0.0386956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510715</v>
+        <v>0.0517558</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0552347</v>
+        <v>0.0569078</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0751347</v>
+        <v>0.0767931</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223096</v>
+        <v>0.223794</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0398223</v>
+        <v>0.0396355</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0530058</v>
+        <v>0.0537183</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0594124</v>
+        <v>0.0609466</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0804129</v>
+        <v>0.08221199999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234016</v>
+        <v>0.237558</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0414484</v>
+        <v>0.0421119</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0556842</v>
+        <v>0.0561545</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0650746</v>
+        <v>0.0671868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0883246</v>
+        <v>0.0925656</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249234</v>
+        <v>0.25281</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0445348</v>
+        <v>0.0450029</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0593503</v>
+        <v>0.0602835</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07569049999999999</v>
+        <v>0.0771787</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0968231</v>
+        <v>0.10072</v>
       </c>
       <c r="D49" t="n">
-        <v>0.265787</v>
+        <v>0.268935</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0491259</v>
+        <v>0.0490086</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0641827</v>
+        <v>0.0650925</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0920578</v>
+        <v>0.09527629999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11552</v>
+        <v>0.116368</v>
       </c>
       <c r="D50" t="n">
-        <v>0.211035</v>
+        <v>0.215841</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556462</v>
+        <v>0.0565521</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0737067</v>
+        <v>0.07426430000000001</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118475</v>
+        <v>0.120006</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13804</v>
+        <v>0.140176</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222655</v>
+        <v>0.225556</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0402311</v>
+        <v>0.0408242</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0509823</v>
+        <v>0.0519578</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15045</v>
+        <v>0.157515</v>
       </c>
       <c r="C52" t="n">
-        <v>0.174407</v>
+        <v>0.179151</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235384</v>
+        <v>0.236773</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0403234</v>
+        <v>0.0408234</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0519831</v>
+        <v>0.0520802</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0554205</v>
+        <v>0.0556183</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0739201</v>
+        <v>0.0734552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.251013</v>
+        <v>0.24979</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0417249</v>
+        <v>0.04219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0532416</v>
+        <v>0.0555858</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0572924</v>
+        <v>0.0567332</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07611370000000001</v>
+        <v>0.0765091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.265395</v>
+        <v>0.268247</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0425991</v>
+        <v>0.0424564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0538576</v>
+        <v>0.0550219</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0574575</v>
+        <v>0.0579996</v>
       </c>
       <c r="C55" t="n">
-        <v>0.077699</v>
+        <v>0.07877049999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.282894</v>
+        <v>0.284845</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0428817</v>
+        <v>0.0428167</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0575567</v>
+        <v>0.0565916</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0585926</v>
+        <v>0.0588522</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0808963</v>
+        <v>0.0810327</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293694</v>
+        <v>0.295711</v>
       </c>
       <c r="E56" t="n">
-        <v>0.043656</v>
+        <v>0.043377</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0591832</v>
+        <v>0.0578397</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0599271</v>
+        <v>0.0603518</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08152669999999999</v>
+        <v>0.08282109999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.315069</v>
+        <v>0.318253</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0445266</v>
+        <v>0.0442728</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0593029</v>
+        <v>0.058693</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0618382</v>
+        <v>0.0634261</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0847271</v>
+        <v>0.087496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.32518</v>
+        <v>0.325542</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0448023</v>
+        <v>0.0446468</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0597077</v>
+        <v>0.0602786</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06321019999999999</v>
+        <v>0.0632373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0888311</v>
+        <v>0.08873880000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.342056</v>
+        <v>0.34938</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0459522</v>
+        <v>0.0467404</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06154</v>
+        <v>0.0617774</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0660134</v>
+        <v>0.06767919999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0925081</v>
+        <v>0.0945535</v>
       </c>
       <c r="D60" t="n">
-        <v>0.356611</v>
+        <v>0.364136</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0471859</v>
+        <v>0.0502573</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0649189</v>
+        <v>0.06485349999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0699355</v>
+        <v>0.070621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0985038</v>
+        <v>0.101234</v>
       </c>
       <c r="D61" t="n">
-        <v>0.385214</v>
+        <v>0.386598</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0492158</v>
+        <v>0.0499507</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06766949999999999</v>
+        <v>0.07074279999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07772560000000001</v>
+        <v>0.07871019999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108549</v>
+        <v>0.110485</v>
       </c>
       <c r="D62" t="n">
-        <v>0.403635</v>
+        <v>0.427265</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0526462</v>
+        <v>0.0525569</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0744881</v>
+        <v>0.0725319</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0836689</v>
+        <v>0.0854671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117711</v>
+        <v>0.121924</v>
       </c>
       <c r="D63" t="n">
-        <v>0.426086</v>
+        <v>0.431977</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0563306</v>
+        <v>0.0564066</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0762028</v>
+        <v>0.0768611</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09591330000000001</v>
+        <v>0.0973088</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135291</v>
+        <v>0.136174</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340098</v>
+        <v>0.337958</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06460390000000001</v>
+        <v>0.06253980000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08821080000000001</v>
+        <v>0.0845342</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118065</v>
+        <v>0.118889</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164922</v>
+        <v>0.161961</v>
       </c>
       <c r="D65" t="n">
-        <v>0.350224</v>
+        <v>0.342125</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07422189999999999</v>
+        <v>0.0744631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09706099999999999</v>
+        <v>0.0992397</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.151705</v>
+        <v>0.157426</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211727</v>
+        <v>0.20736</v>
       </c>
       <c r="D66" t="n">
-        <v>0.360573</v>
+        <v>0.35949</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0457538</v>
+        <v>0.0458422</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0588315</v>
+        <v>0.0590542</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0635917</v>
+        <v>0.0632605</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08873490000000001</v>
+        <v>0.0879244</v>
       </c>
       <c r="D67" t="n">
-        <v>0.377403</v>
+        <v>0.37464</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0491494</v>
+        <v>0.0472271</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0632062</v>
+        <v>0.0615046</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0713337</v>
+        <v>0.06526410000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0896161</v>
+        <v>0.08927839999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.402809</v>
+        <v>0.399013</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477149</v>
+        <v>0.0483697</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0615765</v>
+        <v>0.0633895</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.065605</v>
+        <v>0.0663533</v>
       </c>
       <c r="C69" t="n">
-        <v>0.094499</v>
+        <v>0.09205969999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.421206</v>
+        <v>0.406542</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0485547</v>
+        <v>0.0485709</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0642046</v>
+        <v>0.06397659999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0676881</v>
+        <v>0.06665649999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0996248</v>
+        <v>0.0953411</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439258</v>
+        <v>0.417975</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0506023</v>
+        <v>0.0485296</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0654222</v>
+        <v>0.06454120000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06939380000000001</v>
+        <v>0.06893539999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100577</v>
+        <v>0.1018</v>
       </c>
       <c r="D71" t="n">
-        <v>0.442811</v>
+        <v>0.440581</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0496306</v>
+        <v>0.0498691</v>
       </c>
       <c r="F71" t="n">
-        <v>0.067381</v>
+        <v>0.06895759999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0706497</v>
+        <v>0.07060080000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.106548</v>
+        <v>0.103812</v>
       </c>
       <c r="D72" t="n">
-        <v>0.462032</v>
+        <v>0.462965</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0507146</v>
+        <v>0.0517545</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0705379</v>
+        <v>0.0705706</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0733002</v>
+        <v>0.0739301</v>
       </c>
       <c r="C73" t="n">
-        <v>0.110436</v>
+        <v>0.114196</v>
       </c>
       <c r="D73" t="n">
-        <v>0.489427</v>
+        <v>0.490346</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0551146</v>
+        <v>0.0531985</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0745716</v>
+        <v>0.0745165</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0793341</v>
+        <v>0.0771746</v>
       </c>
       <c r="C74" t="n">
-        <v>0.116988</v>
+        <v>0.114201</v>
       </c>
       <c r="D74" t="n">
-        <v>0.507804</v>
+        <v>0.499706</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0548201</v>
+        <v>0.0550681</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0787108</v>
+        <v>0.0778609</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0811138</v>
+        <v>0.0815471</v>
       </c>
       <c r="C75" t="n">
-        <v>0.122943</v>
+        <v>0.123488</v>
       </c>
       <c r="D75" t="n">
-        <v>0.532789</v>
+        <v>0.5197889999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0573498</v>
+        <v>0.0576971</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0800309</v>
+        <v>0.0795324</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0863411</v>
+        <v>0.09211519999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142224</v>
+        <v>0.14225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.549952</v>
+        <v>0.540755</v>
       </c>
       <c r="E76" t="n">
-        <v>0.059411</v>
+        <v>0.0611924</v>
       </c>
       <c r="F76" t="n">
-        <v>0.084338</v>
+        <v>0.08946270000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0943167</v>
+        <v>0.10152</v>
       </c>
       <c r="C77" t="n">
-        <v>0.152343</v>
+        <v>0.155519</v>
       </c>
       <c r="D77" t="n">
-        <v>0.569652</v>
+        <v>0.5625520000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06452049999999999</v>
+        <v>0.0650874</v>
       </c>
       <c r="F77" t="n">
-        <v>0.101608</v>
+        <v>0.0951395</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.106523</v>
+        <v>0.113976</v>
       </c>
       <c r="C78" t="n">
-        <v>0.169409</v>
+        <v>0.168269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.463113</v>
+        <v>0.431911</v>
       </c>
       <c r="E78" t="n">
-        <v>0.070538</v>
+        <v>0.07500510000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.101453</v>
+        <v>0.101935</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.131336</v>
+        <v>0.133229</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212488</v>
+        <v>0.201613</v>
       </c>
       <c r="D79" t="n">
-        <v>0.460218</v>
+        <v>0.458072</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0816508</v>
+        <v>0.0881247</v>
       </c>
       <c r="F79" t="n">
-        <v>0.116659</v>
+        <v>0.121788</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169997</v>
+        <v>0.165165</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252444</v>
+        <v>0.252446</v>
       </c>
       <c r="D80" t="n">
-        <v>0.469764</v>
+        <v>0.469391</v>
       </c>
       <c r="E80" t="n">
-        <v>0.050965</v>
+        <v>0.0523998</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0694145</v>
+        <v>0.0684304</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0789947</v>
+        <v>0.0726673</v>
       </c>
       <c r="C81" t="n">
-        <v>0.111851</v>
+        <v>0.110934</v>
       </c>
       <c r="D81" t="n">
-        <v>0.487564</v>
+        <v>0.476866</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0516216</v>
+        <v>0.0536844</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0712581</v>
+        <v>0.0708477</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07581690000000001</v>
+        <v>0.0742708</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115183</v>
+        <v>0.113408</v>
       </c>
       <c r="D82" t="n">
-        <v>0.498905</v>
+        <v>0.49233</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0535168</v>
+        <v>0.0561197</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07675360000000001</v>
+        <v>0.0736542</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.078059</v>
+        <v>0.08419450000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.122024</v>
+        <v>0.119539</v>
       </c>
       <c r="D83" t="n">
-        <v>0.509475</v>
+        <v>0.505459</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0547255</v>
+        <v>0.0541906</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0773808</v>
+        <v>0.0826189</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0807504</v>
+        <v>0.07982889999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.127689</v>
+        <v>0.127006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.531436</v>
+        <v>0.547109</v>
       </c>
       <c r="E84" t="n">
-        <v>0.056374</v>
+        <v>0.0574515</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08262</v>
+        <v>0.0803425</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0835564</v>
+        <v>0.09907729999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.132384</v>
+        <v>0.134005</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5534289999999999</v>
+        <v>0.5477610000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0581076</v>
+        <v>0.059772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0847846</v>
+        <v>0.0845385</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0861224</v>
+        <v>0.0863032</v>
       </c>
       <c r="C86" t="n">
-        <v>0.138387</v>
+        <v>0.139821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.564456</v>
+        <v>0.570713</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0596976</v>
+        <v>0.0608178</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0901735</v>
+        <v>0.0889273</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0902247</v>
+        <v>0.09074409999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.146318</v>
+        <v>0.146049</v>
       </c>
       <c r="D87" t="n">
-        <v>0.585161</v>
+        <v>0.586791</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0630587</v>
+        <v>0.0625933</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0931004</v>
+        <v>0.09311220000000001</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0942016</v>
+        <v>0.09466289999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.153481</v>
+        <v>0.154627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.60193</v>
+        <v>0.606429</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0656779</v>
+        <v>0.0653929</v>
       </c>
       <c r="F88" t="n">
-        <v>0.096</v>
+        <v>0.0984585</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0986427</v>
+        <v>0.0988657</v>
       </c>
       <c r="C89" t="n">
-        <v>0.162964</v>
+        <v>0.161894</v>
       </c>
       <c r="D89" t="n">
-        <v>0.622142</v>
+        <v>0.617725</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06773079999999999</v>
+        <v>0.0673861</v>
       </c>
       <c r="F89" t="n">
-        <v>0.101733</v>
+        <v>0.10237</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.107586</v>
+        <v>0.106492</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173897</v>
+        <v>0.182249</v>
       </c>
       <c r="D90" t="n">
-        <v>0.651212</v>
+        <v>0.695115</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0736052</v>
+        <v>0.072313</v>
       </c>
       <c r="F90" t="n">
-        <v>0.11072</v>
+        <v>0.110105</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.117654</v>
+        <v>0.115888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.192085</v>
+        <v>0.197671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.669794</v>
+        <v>0.668172</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0824165</v>
+        <v>0.0789648</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119441</v>
+        <v>0.121572</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.129025</v>
+        <v>0.134798</v>
       </c>
       <c r="C92" t="n">
-        <v>0.211399</v>
+        <v>0.209509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5135960000000001</v>
+        <v>0.497379</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0878292</v>
+        <v>0.0837146</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127992</v>
+        <v>0.127819</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148239</v>
+        <v>0.147654</v>
       </c>
       <c r="C93" t="n">
-        <v>0.257954</v>
+        <v>0.239597</v>
       </c>
       <c r="D93" t="n">
-        <v>0.528803</v>
+        <v>0.5200129999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.096486</v>
+        <v>0.0954062</v>
       </c>
       <c r="F93" t="n">
-        <v>0.146018</v>
+        <v>0.144451</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.183412</v>
+        <v>0.179982</v>
       </c>
       <c r="C94" t="n">
-        <v>0.290703</v>
+        <v>0.286872</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5268119999999999</v>
+        <v>0.528744</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0703226</v>
+        <v>0.0706343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.102</v>
+        <v>0.101959</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.101902</v>
+        <v>0.101458</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153927</v>
+        <v>0.155243</v>
       </c>
       <c r="D95" t="n">
-        <v>0.541169</v>
+        <v>0.539487</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0720977</v>
+        <v>0.0720594</v>
       </c>
       <c r="F95" t="n">
-        <v>0.105778</v>
+        <v>0.105426</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.103341</v>
+        <v>0.10279</v>
       </c>
       <c r="C96" t="n">
-        <v>0.15842</v>
+        <v>0.158275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.568523</v>
+        <v>0.557558</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0738347</v>
+        <v>0.07354339999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.108129</v>
+        <v>0.108236</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.105837</v>
+        <v>0.104945</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166146</v>
+        <v>0.163306</v>
       </c>
       <c r="D97" t="n">
-        <v>0.578308</v>
+        <v>0.577385</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0763843</v>
+        <v>0.07477880000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.111781</v>
+        <v>0.111766</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.107806</v>
+        <v>0.107542</v>
       </c>
       <c r="C98" t="n">
-        <v>0.169228</v>
+        <v>0.168896</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5893929999999999</v>
+        <v>0.587697</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07766679999999999</v>
+        <v>0.0770448</v>
       </c>
       <c r="F98" t="n">
-        <v>0.116688</v>
+        <v>0.11536</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.110424</v>
+        <v>0.110651</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174958</v>
+        <v>0.175406</v>
       </c>
       <c r="D99" t="n">
-        <v>0.601836</v>
+        <v>0.613417</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0785894</v>
+        <v>0.07960680000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.118463</v>
+        <v>0.118737</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.115986</v>
+        <v>0.113427</v>
       </c>
       <c r="C100" t="n">
-        <v>0.183643</v>
+        <v>0.18328</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629506</v>
+        <v>0.632381</v>
       </c>
       <c r="E100" t="n">
-        <v>0.082306</v>
+        <v>0.0808521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.123039</v>
+        <v>0.122636</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.119179</v>
+        <v>0.117073</v>
       </c>
       <c r="C101" t="n">
-        <v>0.190975</v>
+        <v>0.191463</v>
       </c>
       <c r="D101" t="n">
-        <v>0.640409</v>
+        <v>0.642867</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0843816</v>
+        <v>0.083541</v>
       </c>
       <c r="F101" t="n">
-        <v>0.127886</v>
+        <v>0.127625</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.121985</v>
+        <v>0.122329</v>
       </c>
       <c r="C102" t="n">
-        <v>0.199337</v>
+        <v>0.207623</v>
       </c>
       <c r="D102" t="n">
-        <v>0.662054</v>
+        <v>0.661025</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0865407</v>
+        <v>0.0859533</v>
       </c>
       <c r="F102" t="n">
-        <v>0.132173</v>
+        <v>0.132333</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.129845</v>
+        <v>0.126626</v>
       </c>
       <c r="C103" t="n">
-        <v>0.206028</v>
+        <v>0.206351</v>
       </c>
       <c r="D103" t="n">
-        <v>0.67876</v>
+        <v>0.686629</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0899052</v>
+        <v>0.0904194</v>
       </c>
       <c r="F103" t="n">
-        <v>0.138613</v>
+        <v>0.137773</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.135845</v>
+        <v>0.133532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21937</v>
+        <v>0.217761</v>
       </c>
       <c r="D104" t="n">
-        <v>0.708876</v>
+        <v>0.7014629999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0931558</v>
+        <v>0.0928659</v>
       </c>
       <c r="F104" t="n">
-        <v>0.151504</v>
+        <v>0.149526</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.145874</v>
+        <v>0.149943</v>
       </c>
       <c r="C105" t="n">
-        <v>0.234852</v>
+        <v>0.249827</v>
       </c>
       <c r="D105" t="n">
-        <v>0.742352</v>
+        <v>0.722943</v>
       </c>
       <c r="E105" t="n">
-        <v>0.100662</v>
+        <v>0.0984372</v>
       </c>
       <c r="F105" t="n">
-        <v>0.154742</v>
+        <v>0.153146</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.157722</v>
+        <v>0.159191</v>
       </c>
       <c r="C106" t="n">
-        <v>0.26024</v>
+        <v>0.257123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.745351</v>
+        <v>0.764242</v>
       </c>
       <c r="E106" t="n">
-        <v>0.104992</v>
+        <v>0.107104</v>
       </c>
       <c r="F106" t="n">
-        <v>0.166926</v>
+        <v>0.164487</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180218</v>
+        <v>0.184915</v>
       </c>
       <c r="C107" t="n">
-        <v>0.28978</v>
+        <v>0.289498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.564016</v>
+        <v>0.556844</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117516</v>
+        <v>0.116694</v>
       </c>
       <c r="F107" t="n">
-        <v>0.182174</v>
+        <v>0.182304</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215822</v>
+        <v>0.209001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.34446</v>
+        <v>0.341575</v>
       </c>
       <c r="D108" t="n">
-        <v>0.575991</v>
+        <v>0.573429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.147893</v>
+        <v>0.157298</v>
       </c>
       <c r="F108" t="n">
-        <v>0.189438</v>
+        <v>0.18697</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.278647</v>
+        <v>0.273062</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433868</v>
+        <v>0.443154</v>
       </c>
       <c r="D109" t="n">
-        <v>0.615662</v>
+        <v>0.614363</v>
       </c>
       <c r="E109" t="n">
-        <v>0.161134</v>
+        <v>0.151803</v>
       </c>
       <c r="F109" t="n">
-        <v>0.195739</v>
+        <v>0.209373</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.183941</v>
+        <v>0.189921</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270134</v>
+        <v>0.249999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.635271</v>
+        <v>0.613304</v>
       </c>
       <c r="E110" t="n">
-        <v>0.151185</v>
+        <v>0.161738</v>
       </c>
       <c r="F110" t="n">
-        <v>0.204717</v>
+        <v>0.195282</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.182555</v>
+        <v>0.183386</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253786</v>
+        <v>0.256082</v>
       </c>
       <c r="D111" t="n">
-        <v>0.623552</v>
+        <v>0.629145</v>
       </c>
       <c r="E111" t="n">
-        <v>0.152026</v>
+        <v>0.160886</v>
       </c>
       <c r="F111" t="n">
-        <v>0.20236</v>
+        <v>0.200164</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.189392</v>
+        <v>0.20578</v>
       </c>
       <c r="C112" t="n">
-        <v>0.265888</v>
+        <v>0.268459</v>
       </c>
       <c r="D112" t="n">
-        <v>0.639456</v>
+        <v>0.6498969999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.154209</v>
+        <v>0.155327</v>
       </c>
       <c r="F112" t="n">
-        <v>0.202769</v>
+        <v>0.202363</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.194366</v>
+        <v>0.20818</v>
       </c>
       <c r="C113" t="n">
-        <v>0.281304</v>
+        <v>0.278495</v>
       </c>
       <c r="D113" t="n">
-        <v>0.665106</v>
+        <v>0.655799</v>
       </c>
       <c r="E113" t="n">
-        <v>0.160235</v>
+        <v>0.153876</v>
       </c>
       <c r="F113" t="n">
-        <v>0.204795</v>
+        <v>0.205052</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.195496</v>
+        <v>0.194333</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277684</v>
+        <v>0.277958</v>
       </c>
       <c r="D114" t="n">
-        <v>0.704346</v>
+        <v>0.684939</v>
       </c>
       <c r="E114" t="n">
-        <v>0.177343</v>
+        <v>0.155792</v>
       </c>
       <c r="F114" t="n">
-        <v>0.227777</v>
+        <v>0.212794</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21181</v>
+        <v>0.227201</v>
       </c>
       <c r="C115" t="n">
-        <v>0.284075</v>
+        <v>0.282896</v>
       </c>
       <c r="D115" t="n">
-        <v>0.693495</v>
+        <v>0.692051</v>
       </c>
       <c r="E115" t="n">
-        <v>0.156827</v>
+        <v>0.157621</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216048</v>
+        <v>0.219908</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198939</v>
+        <v>0.205572</v>
       </c>
       <c r="C116" t="n">
-        <v>0.314907</v>
+        <v>0.294223</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7184970000000001</v>
+        <v>0.726948</v>
       </c>
       <c r="E116" t="n">
-        <v>0.161794</v>
+        <v>0.175547</v>
       </c>
       <c r="F116" t="n">
-        <v>0.225468</v>
+        <v>0.235641</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.230606</v>
+        <v>0.231172</v>
       </c>
       <c r="C117" t="n">
-        <v>0.314964</v>
+        <v>0.307968</v>
       </c>
       <c r="D117" t="n">
-        <v>0.825282</v>
+        <v>0.747644</v>
       </c>
       <c r="E117" t="n">
-        <v>0.170219</v>
+        <v>0.167737</v>
       </c>
       <c r="F117" t="n">
-        <v>0.226706</v>
+        <v>0.231475</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231576</v>
+        <v>0.219432</v>
       </c>
       <c r="C118" t="n">
-        <v>0.325194</v>
+        <v>0.324405</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7612409999999999</v>
+        <v>0.7518590000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.169469</v>
+        <v>0.171925</v>
       </c>
       <c r="F118" t="n">
-        <v>0.237671</v>
+        <v>0.247939</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.239543</v>
+        <v>0.230611</v>
       </c>
       <c r="C119" t="n">
-        <v>0.342868</v>
+        <v>0.340487</v>
       </c>
       <c r="D119" t="n">
-        <v>0.795811</v>
+        <v>0.792486</v>
       </c>
       <c r="E119" t="n">
-        <v>0.174631</v>
+        <v>0.172363</v>
       </c>
       <c r="F119" t="n">
-        <v>0.246328</v>
+        <v>0.248708</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235711</v>
+        <v>0.240391</v>
       </c>
       <c r="C120" t="n">
-        <v>0.375777</v>
+        <v>0.378842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.811118</v>
+        <v>0.872587</v>
       </c>
       <c r="E120" t="n">
-        <v>0.179934</v>
+        <v>0.183184</v>
       </c>
       <c r="F120" t="n">
-        <v>0.27689</v>
+        <v>0.259822</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.261615</v>
+        <v>0.267664</v>
       </c>
       <c r="C121" t="n">
-        <v>0.407499</v>
+        <v>0.405546</v>
       </c>
       <c r="D121" t="n">
-        <v>0.614654</v>
+        <v>0.615762</v>
       </c>
       <c r="E121" t="n">
-        <v>0.189762</v>
+        <v>0.187114</v>
       </c>
       <c r="F121" t="n">
-        <v>0.287111</v>
+        <v>0.275499</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.293537</v>
+        <v>0.294671</v>
       </c>
       <c r="C122" t="n">
-        <v>0.460482</v>
+        <v>0.468484</v>
       </c>
       <c r="D122" t="n">
-        <v>0.62857</v>
+        <v>0.644572</v>
       </c>
       <c r="E122" t="n">
-        <v>0.204787</v>
+        <v>0.205566</v>
       </c>
       <c r="F122" t="n">
-        <v>0.308541</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.346993</v>
+        <v>0.350182</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5611390000000001</v>
+        <v>0.561972</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650752</v>
+        <v>0.641358</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2379</v>
+        <v>0.235453</v>
       </c>
       <c r="F123" t="n">
-        <v>0.288454</v>
+        <v>0.289608</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.294471</v>
+        <v>0.300383</v>
       </c>
       <c r="C124" t="n">
-        <v>0.363805</v>
+        <v>0.374123</v>
       </c>
       <c r="D124" t="n">
-        <v>0.701546</v>
+        <v>0.666695</v>
       </c>
       <c r="E124" t="n">
-        <v>0.236083</v>
+        <v>0.238647</v>
       </c>
       <c r="F124" t="n">
-        <v>0.293783</v>
+        <v>0.295803</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.294312</v>
+        <v>0.297329</v>
       </c>
       <c r="C125" t="n">
-        <v>0.374452</v>
+        <v>0.380955</v>
       </c>
       <c r="D125" t="n">
-        <v>0.684859</v>
+        <v>0.688659</v>
       </c>
       <c r="E125" t="n">
-        <v>0.240177</v>
+        <v>0.248488</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302602</v>
+        <v>0.297015</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.300693</v>
+        <v>0.302638</v>
       </c>
       <c r="C126" t="n">
-        <v>0.382025</v>
+        <v>0.381439</v>
       </c>
       <c r="D126" t="n">
-        <v>0.719282</v>
+        <v>0.709555</v>
       </c>
       <c r="E126" t="n">
-        <v>0.242749</v>
+        <v>0.244009</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304987</v>
+        <v>0.303344</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.304861</v>
+        <v>0.307063</v>
       </c>
       <c r="C127" t="n">
-        <v>0.38739</v>
+        <v>0.384855</v>
       </c>
       <c r="D127" t="n">
-        <v>0.734119</v>
+        <v>0.724011</v>
       </c>
       <c r="E127" t="n">
-        <v>0.240459</v>
+        <v>0.246271</v>
       </c>
       <c r="F127" t="n">
-        <v>0.309556</v>
+        <v>0.304404</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318872</v>
+        <v>0.307495</v>
       </c>
       <c r="C128" t="n">
-        <v>0.39547</v>
+        <v>0.403918</v>
       </c>
       <c r="D128" t="n">
-        <v>0.752327</v>
+        <v>0.764798</v>
       </c>
       <c r="E128" t="n">
-        <v>0.246992</v>
+        <v>0.243414</v>
       </c>
       <c r="F128" t="n">
-        <v>0.323815</v>
+        <v>0.308364</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.323856</v>
+        <v>0.31416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.418166</v>
+        <v>0.417194</v>
       </c>
       <c r="D129" t="n">
-        <v>0.79717</v>
+        <v>0.80687</v>
       </c>
       <c r="E129" t="n">
-        <v>0.246436</v>
+        <v>0.244871</v>
       </c>
       <c r="F129" t="n">
-        <v>0.315954</v>
+        <v>0.316302</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.320147</v>
+        <v>0.318794</v>
       </c>
       <c r="C130" t="n">
-        <v>0.412878</v>
+        <v>0.412146</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8013439999999999</v>
+        <v>0.792248</v>
       </c>
       <c r="E130" t="n">
-        <v>0.247844</v>
+        <v>0.24987</v>
       </c>
       <c r="F130" t="n">
-        <v>0.33472</v>
+        <v>0.321245</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.331488</v>
+        <v>0.326524</v>
       </c>
       <c r="C131" t="n">
-        <v>0.446328</v>
+        <v>0.428735</v>
       </c>
       <c r="D131" t="n">
-        <v>0.857487</v>
+        <v>0.8344</v>
       </c>
       <c r="E131" t="n">
-        <v>0.26225</v>
+        <v>0.253056</v>
       </c>
       <c r="F131" t="n">
-        <v>0.33876</v>
+        <v>0.330706</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335995</v>
+        <v>0.340086</v>
       </c>
       <c r="C132" t="n">
-        <v>0.463514</v>
+        <v>0.458784</v>
       </c>
       <c r="D132" t="n">
-        <v>0.856602</v>
+        <v>0.8526550000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.281958</v>
+        <v>0.254371</v>
       </c>
       <c r="F132" t="n">
-        <v>0.343516</v>
+        <v>0.34013</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.346803</v>
+        <v>0.346704</v>
       </c>
       <c r="C133" t="n">
-        <v>0.475997</v>
+        <v>0.464249</v>
       </c>
       <c r="D133" t="n">
-        <v>0.907199</v>
+        <v>0.89838</v>
       </c>
       <c r="E133" t="n">
-        <v>0.272315</v>
+        <v>0.261768</v>
       </c>
       <c r="F133" t="n">
-        <v>0.358708</v>
+        <v>0.348653</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.36482</v>
+        <v>0.366789</v>
       </c>
       <c r="C134" t="n">
-        <v>0.495497</v>
+        <v>0.489733</v>
       </c>
       <c r="D134" t="n">
-        <v>0.923862</v>
+        <v>0.956823</v>
       </c>
       <c r="E134" t="n">
-        <v>0.268827</v>
+        <v>0.269763</v>
       </c>
       <c r="F134" t="n">
-        <v>0.363341</v>
+        <v>0.362935</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.393537</v>
+        <v>0.392704</v>
       </c>
       <c r="C135" t="n">
-        <v>0.52979</v>
+        <v>0.532886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.787797</v>
+        <v>0.768806</v>
       </c>
       <c r="E135" t="n">
-        <v>0.291121</v>
+        <v>0.291978</v>
       </c>
       <c r="F135" t="n">
-        <v>0.382402</v>
+        <v>0.382804</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.435912</v>
+        <v>0.431782</v>
       </c>
       <c r="C136" t="n">
-        <v>0.60463</v>
+        <v>0.591938</v>
       </c>
       <c r="D136" t="n">
-        <v>0.801633</v>
+        <v>0.79817</v>
       </c>
       <c r="E136" t="n">
-        <v>0.302462</v>
+        <v>0.30798</v>
       </c>
       <c r="F136" t="n">
-        <v>0.418551</v>
+        <v>0.412998</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512212</v>
+        <v>0.516029</v>
       </c>
       <c r="C137" t="n">
-        <v>0.697182</v>
+        <v>0.700753</v>
       </c>
       <c r="D137" t="n">
-        <v>0.847652</v>
+        <v>0.828847</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288617</v>
+        <v>0.294443</v>
       </c>
       <c r="F137" t="n">
-        <v>0.348624</v>
+        <v>0.359671</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.385868</v>
+        <v>0.363956</v>
       </c>
       <c r="C138" t="n">
-        <v>0.434886</v>
+        <v>0.442886</v>
       </c>
       <c r="D138" t="n">
-        <v>0.858348</v>
+        <v>0.843639</v>
       </c>
       <c r="E138" t="n">
-        <v>0.293589</v>
+        <v>0.290776</v>
       </c>
       <c r="F138" t="n">
-        <v>0.366848</v>
+        <v>0.354529</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.390148</v>
+        <v>0.376163</v>
       </c>
       <c r="C139" t="n">
-        <v>0.459521</v>
+        <v>0.441613</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900212</v>
+        <v>0.914099</v>
       </c>
       <c r="E139" t="n">
-        <v>0.293896</v>
+        <v>0.293997</v>
       </c>
       <c r="F139" t="n">
-        <v>0.356484</v>
+        <v>0.352696</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.370058</v>
+        <v>0.368019</v>
       </c>
       <c r="C140" t="n">
-        <v>0.450025</v>
+        <v>0.464684</v>
       </c>
       <c r="D140" t="n">
-        <v>0.928824</v>
+        <v>0.9014450000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.296489</v>
+        <v>0.294426</v>
       </c>
       <c r="F140" t="n">
-        <v>0.364835</v>
+        <v>0.359246</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.380416</v>
+        <v>0.376579</v>
       </c>
       <c r="C141" t="n">
-        <v>0.481731</v>
+        <v>0.455613</v>
       </c>
       <c r="D141" t="n">
-        <v>0.962096</v>
+        <v>0.936048</v>
       </c>
       <c r="E141" t="n">
-        <v>0.30201</v>
+        <v>0.307708</v>
       </c>
       <c r="F141" t="n">
-        <v>0.37849</v>
+        <v>0.369954</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.379926</v>
+        <v>0.386065</v>
       </c>
       <c r="C142" t="n">
-        <v>0.487944</v>
+        <v>0.466389</v>
       </c>
       <c r="D142" t="n">
-        <v>0.98314</v>
+        <v>0.974585</v>
       </c>
       <c r="E142" t="n">
-        <v>0.305343</v>
+        <v>0.299381</v>
       </c>
       <c r="F142" t="n">
-        <v>0.377998</v>
+        <v>0.370491</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.385612</v>
+        <v>0.401412</v>
       </c>
       <c r="C143" t="n">
-        <v>0.482233</v>
+        <v>0.480026</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02541</v>
+        <v>1.01756</v>
       </c>
       <c r="E143" t="n">
-        <v>0.309264</v>
+        <v>0.301367</v>
       </c>
       <c r="F143" t="n">
-        <v>0.383242</v>
+        <v>0.376863</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404362</v>
+        <v>0.0412565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041986</v>
+        <v>0.0428671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.116246</v>
+        <v>0.113076</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0324778</v>
+        <v>0.0336209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327558</v>
+        <v>0.0335617</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417594</v>
+        <v>0.042737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0435933</v>
+        <v>0.0418953</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122458</v>
+        <v>0.113923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0337755</v>
+        <v>0.0349224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0335681</v>
+        <v>0.0349916</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0445887</v>
+        <v>0.045303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451925</v>
+        <v>0.0433536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124318</v>
+        <v>0.117467</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350723</v>
+        <v>0.0346412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0351705</v>
+        <v>0.0356115</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502431</v>
+        <v>0.0491619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499336</v>
+        <v>0.0490029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129965</v>
+        <v>0.12328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0360469</v>
+        <v>0.0372569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0359472</v>
+        <v>0.0376552</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570153</v>
+        <v>0.055236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599362</v>
+        <v>0.0559659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138796</v>
+        <v>0.127937</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0406152</v>
+        <v>0.0436837</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389581</v>
+        <v>0.0416455</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06806909999999999</v>
+        <v>0.0665825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07032239999999999</v>
+        <v>0.067078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.099283</v>
+        <v>0.0933268</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0479201</v>
+        <v>0.030359</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456343</v>
+        <v>0.0314176</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0873116</v>
+        <v>0.0872352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092393</v>
+        <v>0.08591409999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101528</v>
+        <v>0.0976137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0597865</v>
+        <v>0.0306243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572511</v>
+        <v>0.0319223</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119508</v>
+        <v>0.11534</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119817</v>
+        <v>0.119154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106786</v>
+        <v>0.101213</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303854</v>
+        <v>0.0307225</v>
       </c>
       <c r="F9" t="n">
-        <v>0.033305</v>
+        <v>0.0320105</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0389041</v>
+        <v>0.0387351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420637</v>
+        <v>0.0396627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11205</v>
+        <v>0.106399</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031037</v>
+        <v>0.030882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0329142</v>
+        <v>0.0324493</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040616</v>
+        <v>0.0392876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041538</v>
+        <v>0.0403564</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118638</v>
+        <v>0.109716</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306992</v>
+        <v>0.0311929</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0333101</v>
+        <v>0.0327463</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395175</v>
+        <v>0.0400506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450282</v>
+        <v>0.0409222</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122719</v>
+        <v>0.11427</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0313068</v>
+        <v>0.031657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033834</v>
+        <v>0.0335548</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399744</v>
+        <v>0.0399431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0453172</v>
+        <v>0.0415226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128513</v>
+        <v>0.119278</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0314736</v>
+        <v>0.032099</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03471</v>
+        <v>0.0340973</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408352</v>
+        <v>0.0408372</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0450283</v>
+        <v>0.0428095</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131175</v>
+        <v>0.123055</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317195</v>
+        <v>0.0324277</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0352389</v>
+        <v>0.0348669</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.044551</v>
+        <v>0.0424864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0457955</v>
+        <v>0.0442775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141678</v>
+        <v>0.1262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331701</v>
+        <v>0.0330465</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0352946</v>
+        <v>0.0356607</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0435382</v>
+        <v>0.0439643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0474843</v>
+        <v>0.0467346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144116</v>
+        <v>0.129659</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0357789</v>
+        <v>0.0345333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359599</v>
+        <v>0.0362471</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453576</v>
+        <v>0.0465057</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485653</v>
+        <v>0.0489029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141976</v>
+        <v>0.133264</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362708</v>
+        <v>0.0346808</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373824</v>
+        <v>0.0379068</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0501786</v>
+        <v>0.0495748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0543532</v>
+        <v>0.0531001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152324</v>
+        <v>0.142587</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374009</v>
+        <v>0.0369484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0383808</v>
+        <v>0.0394515</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544271</v>
+        <v>0.0548769</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059371</v>
+        <v>0.0578739</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151239</v>
+        <v>0.142795</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392211</v>
+        <v>0.0388979</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418777</v>
+        <v>0.041909</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0606677</v>
+        <v>0.0620261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0645435</v>
+        <v>0.0651108</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162025</v>
+        <v>0.146875</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427745</v>
+        <v>0.0454067</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0439695</v>
+        <v>0.0483218</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.074145</v>
+        <v>0.0753463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07972369999999999</v>
+        <v>0.0758055</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110723</v>
+        <v>0.103607</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0483317</v>
+        <v>0.031029</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496986</v>
+        <v>0.0342475</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09081939999999999</v>
+        <v>0.09501519999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09321119999999999</v>
+        <v>0.0945479</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112144</v>
+        <v>0.107817</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609434</v>
+        <v>0.0311816</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602872</v>
+        <v>0.0344971</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120811</v>
+        <v>0.121218</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122248</v>
+        <v>0.12117</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118618</v>
+        <v>0.111421</v>
       </c>
       <c r="E23" t="n">
-        <v>0.030753</v>
+        <v>0.0313343</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0353468</v>
+        <v>0.0348145</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416771</v>
+        <v>0.0409597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0478926</v>
+        <v>0.045138</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125958</v>
+        <v>0.116598</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0317401</v>
+        <v>0.0316237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0368002</v>
+        <v>0.0351701</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04164</v>
+        <v>0.0412704</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0478428</v>
+        <v>0.0450223</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130175</v>
+        <v>0.121177</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0312143</v>
+        <v>0.0319659</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365007</v>
+        <v>0.0354826</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421758</v>
+        <v>0.0420646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0473957</v>
+        <v>0.0452317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132907</v>
+        <v>0.124091</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315112</v>
+        <v>0.0329029</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368916</v>
+        <v>0.0361017</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0439696</v>
+        <v>0.0423384</v>
       </c>
       <c r="C27" t="n">
-        <v>0.050343</v>
+        <v>0.0489407</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137876</v>
+        <v>0.128701</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0325526</v>
+        <v>0.0326422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376497</v>
+        <v>0.0367027</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.043697</v>
+        <v>0.0435443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502933</v>
+        <v>0.0477633</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140166</v>
+        <v>0.132033</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0326467</v>
+        <v>0.0353412</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0383194</v>
+        <v>0.0376121</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045005</v>
+        <v>0.0451996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521585</v>
+        <v>0.0490368</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149553</v>
+        <v>0.136872</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334457</v>
+        <v>0.0344532</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0387334</v>
+        <v>0.0385567</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465236</v>
+        <v>0.0467602</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538341</v>
+        <v>0.051882</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152487</v>
+        <v>0.14208</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349555</v>
+        <v>0.0359944</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040995</v>
+        <v>0.0393767</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488954</v>
+        <v>0.050224</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572025</v>
+        <v>0.0542405</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156806</v>
+        <v>0.14951</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0357641</v>
+        <v>0.0356951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0417069</v>
+        <v>0.0409671</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513122</v>
+        <v>0.0525092</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614403</v>
+        <v>0.0583142</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166565</v>
+        <v>0.15418</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368108</v>
+        <v>0.0369652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.042747</v>
+        <v>0.0428895</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0558583</v>
+        <v>0.0562918</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0665572</v>
+        <v>0.0629641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171394</v>
+        <v>0.157837</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0391967</v>
+        <v>0.0389695</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0453143</v>
+        <v>0.0452387</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06331589999999999</v>
+        <v>0.06457160000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0722377</v>
+        <v>0.06968290000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171562</v>
+        <v>0.163669</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0422655</v>
+        <v>0.0426017</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0482619</v>
+        <v>0.0488506</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0728707</v>
+        <v>0.0744235</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08380360000000001</v>
+        <v>0.0795892</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128175</v>
+        <v>0.120671</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475461</v>
+        <v>0.0502226</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0537826</v>
+        <v>0.0583755</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08846759999999999</v>
+        <v>0.0914576</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09875200000000001</v>
+        <v>0.0969489</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134887</v>
+        <v>0.129033</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560714</v>
+        <v>0.0342871</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0628471</v>
+        <v>0.0415909</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117061</v>
+        <v>0.119588</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127238</v>
+        <v>0.12766</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143487</v>
+        <v>0.14067</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0344162</v>
+        <v>0.0361944</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0430593</v>
+        <v>0.0416688</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0459329</v>
+        <v>0.0457745</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0572698</v>
+        <v>0.0559652</v>
       </c>
       <c r="D38" t="n">
-        <v>0.150834</v>
+        <v>0.140993</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342813</v>
+        <v>0.0343218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0432442</v>
+        <v>0.0421539</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0487169</v>
+        <v>0.0456904</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582866</v>
+        <v>0.0578675</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159981</v>
+        <v>0.151035</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378599</v>
+        <v>0.0347789</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044102</v>
+        <v>0.0435997</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0461593</v>
+        <v>0.04664</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595433</v>
+        <v>0.0590485</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16531</v>
+        <v>0.160556</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0344896</v>
+        <v>0.0357581</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0443527</v>
+        <v>0.0455734</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0469866</v>
+        <v>0.0473079</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0623402</v>
+        <v>0.0619791</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177457</v>
+        <v>0.167238</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035605</v>
+        <v>0.0357342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0495032</v>
+        <v>0.0453918</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0477105</v>
+        <v>0.0479752</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638729</v>
+        <v>0.0619449</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193805</v>
+        <v>0.175031</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354899</v>
+        <v>0.0362011</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0467169</v>
+        <v>0.0462507</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488798</v>
+        <v>0.0490868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0655994</v>
+        <v>0.06686110000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197669</v>
+        <v>0.187813</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0361927</v>
+        <v>0.0366991</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0476285</v>
+        <v>0.0477225</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508165</v>
+        <v>0.0517942</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680159</v>
+        <v>0.06953570000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205484</v>
+        <v>0.20161</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0398077</v>
+        <v>0.0378382</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0492365</v>
+        <v>0.0500463</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536734</v>
+        <v>0.0542448</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.07001930000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225882</v>
+        <v>0.210783</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381182</v>
+        <v>0.0386673</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510109</v>
+        <v>0.0514914</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0557344</v>
+        <v>0.0561433</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07529619999999999</v>
+        <v>0.0747336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229607</v>
+        <v>0.225801</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0395388</v>
+        <v>0.0402244</v>
       </c>
       <c r="F46" t="n">
-        <v>0.052651</v>
+        <v>0.0531893</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0600394</v>
+        <v>0.0599613</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0806094</v>
+        <v>0.0819125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244161</v>
+        <v>0.236424</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0416194</v>
+        <v>0.0421982</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568505</v>
+        <v>0.057226</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0661538</v>
+        <v>0.06764820000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0869086</v>
+        <v>0.0864538</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260082</v>
+        <v>0.252564</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0457633</v>
+        <v>0.0453327</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0606538</v>
+        <v>0.0605313</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759223</v>
+        <v>0.0764996</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10024</v>
+        <v>0.0987228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.298851</v>
+        <v>0.267671</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0489659</v>
+        <v>0.0510901</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649551</v>
+        <v>0.0675114</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906221</v>
+        <v>0.09265420000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11429</v>
+        <v>0.113391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214434</v>
+        <v>0.220998</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556428</v>
+        <v>0.0414943</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0722276</v>
+        <v>0.0517978</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12013</v>
+        <v>0.117252</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141017</v>
+        <v>0.136998</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237603</v>
+        <v>0.220049</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0413313</v>
+        <v>0.0406224</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0528234</v>
+        <v>0.0513255</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154244</v>
+        <v>0.152758</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178435</v>
+        <v>0.176586</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240196</v>
+        <v>0.232042</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0407936</v>
+        <v>0.0413311</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0548775</v>
+        <v>0.0523898</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0551701</v>
+        <v>0.0552248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07398349999999999</v>
+        <v>0.0726552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254403</v>
+        <v>0.247272</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0412837</v>
+        <v>0.0416789</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0530613</v>
+        <v>0.0534096</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0566962</v>
+        <v>0.0558782</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0757848</v>
+        <v>0.0748745</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271524</v>
+        <v>0.26242</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0414938</v>
+        <v>0.0420926</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0544707</v>
+        <v>0.0548079</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569572</v>
+        <v>0.0568955</v>
       </c>
       <c r="C55" t="n">
-        <v>0.078907</v>
+        <v>0.0760841</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283266</v>
+        <v>0.27387</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0427383</v>
+        <v>0.0429267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0561123</v>
+        <v>0.055985</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.058437</v>
+        <v>0.0578945</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809004</v>
+        <v>0.07898670000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302774</v>
+        <v>0.292065</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0427525</v>
+        <v>0.0435363</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0580761</v>
+        <v>0.0570752</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0593854</v>
+        <v>0.0592807</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0910841</v>
+        <v>0.0824145</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330268</v>
+        <v>0.313974</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0444326</v>
+        <v>0.0446162</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0611473</v>
+        <v>0.0597211</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614494</v>
+        <v>0.0615399</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0849065</v>
+        <v>0.0843653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336314</v>
+        <v>0.330649</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0453353</v>
+        <v>0.0452229</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614085</v>
+        <v>0.0602101</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0636515</v>
+        <v>0.06250459999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907852</v>
+        <v>0.0871001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355425</v>
+        <v>0.349945</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0466662</v>
+        <v>0.0505741</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0630646</v>
+        <v>0.0623229</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0700942</v>
+        <v>0.0673902</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933652</v>
+        <v>0.09266629999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371713</v>
+        <v>0.36646</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047456</v>
+        <v>0.0493972</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651863</v>
+        <v>0.0655184</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0710199</v>
+        <v>0.0701856</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101091</v>
+        <v>0.0983195</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388808</v>
+        <v>0.387917</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0491451</v>
+        <v>0.0499336</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06736159999999999</v>
+        <v>0.07298499999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0756875</v>
+        <v>0.08039490000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106938</v>
+        <v>0.107081</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409971</v>
+        <v>0.396949</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0521299</v>
+        <v>0.053295</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0723188</v>
+        <v>0.0723437</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0853706</v>
+        <v>0.0837087</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11949</v>
+        <v>0.117941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434777</v>
+        <v>0.435626</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0571107</v>
+        <v>0.0585382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0777558</v>
+        <v>0.0794757</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.0973328</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134404</v>
+        <v>0.13705</v>
       </c>
       <c r="D64" t="n">
-        <v>0.344521</v>
+        <v>0.327569</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0631449</v>
+        <v>0.045529</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0854058</v>
+        <v>0.0571599</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119381</v>
+        <v>0.118381</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159236</v>
+        <v>0.159328</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351988</v>
+        <v>0.341855</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0746338</v>
+        <v>0.0458079</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0986189</v>
+        <v>0.0581797</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158493</v>
+        <v>0.152816</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203579</v>
+        <v>0.200884</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371605</v>
+        <v>0.356003</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0475054</v>
+        <v>0.0463738</v>
       </c>
       <c r="F66" t="n">
-        <v>0.061328</v>
+        <v>0.05928</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06386169999999999</v>
+        <v>0.06544949999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0882926</v>
+        <v>0.08712399999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381588</v>
+        <v>0.372601</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0468844</v>
+        <v>0.046995</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0618258</v>
+        <v>0.0610139</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0650374</v>
+        <v>0.0648077</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0897511</v>
+        <v>0.0892983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416642</v>
+        <v>0.393479</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477552</v>
+        <v>0.0484457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06297460000000001</v>
+        <v>0.0620328</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0654559</v>
+        <v>0.0650626</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954667</v>
+        <v>0.0903076</v>
       </c>
       <c r="D69" t="n">
-        <v>0.428868</v>
+        <v>0.402453</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0476321</v>
+        <v>0.0488414</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06471830000000001</v>
+        <v>0.0642493</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0669676</v>
+        <v>0.0673839</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978571</v>
+        <v>0.0959719</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437423</v>
+        <v>0.427445</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0497952</v>
+        <v>0.0496667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647721</v>
+        <v>0.06659229999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0688936</v>
+        <v>0.06910910000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100299</v>
+        <v>0.0987918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456569</v>
+        <v>0.444437</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497732</v>
+        <v>0.0507857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0725305</v>
+        <v>0.0682958</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07111969999999999</v>
+        <v>0.07099800000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107175</v>
+        <v>0.102996</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468044</v>
+        <v>0.462324</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518184</v>
+        <v>0.0519809</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07032629999999999</v>
+        <v>0.0704615</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727338</v>
+        <v>0.0733248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.112048</v>
+        <v>0.109195</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486261</v>
+        <v>0.481256</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0523911</v>
+        <v>0.052681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738123</v>
+        <v>0.07434209999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0753537</v>
+        <v>0.0746913</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119469</v>
+        <v>0.114488</v>
       </c>
       <c r="D74" t="n">
-        <v>0.508954</v>
+        <v>0.51237</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0546589</v>
+        <v>0.0549514</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0789223</v>
+        <v>0.07627159999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0799859</v>
+        <v>0.07996259999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.128779</v>
+        <v>0.124527</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549866</v>
+        <v>0.518168</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0561139</v>
+        <v>0.0570358</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0796655</v>
+        <v>0.0801374</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0862149</v>
+        <v>0.0858072</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142744</v>
+        <v>0.134775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548701</v>
+        <v>0.554167</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0598729</v>
+        <v>0.0613523</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891107</v>
+        <v>0.08872529999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.099398</v>
+        <v>0.09924239999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.151816</v>
+        <v>0.153994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.577696</v>
+        <v>0.5802619999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0655797</v>
+        <v>0.0686394</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10123</v>
+        <v>0.101412</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116046</v>
+        <v>0.108213</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170264</v>
+        <v>0.170301</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435619</v>
+        <v>0.440749</v>
       </c>
       <c r="E78" t="n">
-        <v>0.074755</v>
+        <v>0.0759952</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106528</v>
+        <v>0.104916</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129634</v>
+        <v>0.129983</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201055</v>
+        <v>0.199114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452011</v>
+        <v>0.456141</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08676059999999999</v>
+        <v>0.0498895</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118167</v>
+        <v>0.0669141</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177057</v>
+        <v>0.164006</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251908</v>
+        <v>0.249086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475599</v>
+        <v>0.460449</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0539204</v>
+        <v>0.0525992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0729897</v>
+        <v>0.0688057</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07768890000000001</v>
+        <v>0.0723471</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112193</v>
+        <v>0.108782</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484759</v>
+        <v>0.474981</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0542798</v>
+        <v>0.0528783</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0791089</v>
+        <v>0.0732394</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0790233</v>
+        <v>0.0749171</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115862</v>
+        <v>0.113853</v>
       </c>
       <c r="D82" t="n">
-        <v>0.512985</v>
+        <v>0.489453</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0571083</v>
+        <v>0.053042</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.07438259999999999</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843458</v>
+        <v>0.0778348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.124253</v>
+        <v>0.119348</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51098</v>
+        <v>0.509336</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0583103</v>
+        <v>0.0556468</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0779292</v>
+        <v>0.077579</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0893636</v>
+        <v>0.08249919999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130475</v>
+        <v>0.125907</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540766</v>
+        <v>0.530043</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0617369</v>
+        <v>0.05743</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0849266</v>
+        <v>0.0825795</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.094219</v>
+        <v>0.08298229999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140659</v>
+        <v>0.130748</v>
       </c>
       <c r="D85" t="n">
-        <v>0.555134</v>
+        <v>0.539873</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06457889999999999</v>
+        <v>0.0579782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0870744</v>
+        <v>0.0842238</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979448</v>
+        <v>0.0865657</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144325</v>
+        <v>0.137965</v>
       </c>
       <c r="D86" t="n">
-        <v>0.574121</v>
+        <v>0.5599730000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0676546</v>
+        <v>0.0604993</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0885669</v>
+        <v>0.09014419999999999</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0984781</v>
+        <v>0.0895695</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148939</v>
+        <v>0.144531</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586298</v>
+        <v>0.588784</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0665384</v>
+        <v>0.06380859999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0913786</v>
+        <v>0.09331109999999999</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0976479</v>
+        <v>0.094572</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1583</v>
+        <v>0.163128</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601536</v>
+        <v>0.6007439999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0683646</v>
+        <v>0.06569750000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0983782</v>
+        <v>0.09870130000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.101102</v>
+        <v>0.0996021</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164007</v>
+        <v>0.161293</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620403</v>
+        <v>0.639394</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06847350000000001</v>
+        <v>0.06918009999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.102762</v>
+        <v>0.105139</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1077</v>
+        <v>0.107141</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174169</v>
+        <v>0.172428</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641492</v>
+        <v>0.640221</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0725128</v>
+        <v>0.07345260000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110137</v>
+        <v>0.111818</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1205</v>
+        <v>0.116259</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18898</v>
+        <v>0.188919</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679501</v>
+        <v>0.6616379999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0788985</v>
+        <v>0.07934339999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118408</v>
+        <v>0.121276</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131985</v>
+        <v>0.12949</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215321</v>
+        <v>0.209601</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508915</v>
+        <v>0.498018</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0847053</v>
+        <v>0.0917781</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127258</v>
+        <v>0.138177</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147601</v>
+        <v>0.148971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239659</v>
+        <v>0.240768</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.514665</v>
       </c>
       <c r="E93" t="n">
-        <v>0.100589</v>
+        <v>0.07015349999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143147</v>
+        <v>0.100255</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180921</v>
+        <v>0.180171</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288295</v>
+        <v>0.292387</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550536</v>
+        <v>0.530354</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0736607</v>
+        <v>0.073404</v>
       </c>
       <c r="F94" t="n">
-        <v>0.106778</v>
+        <v>0.103557</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107634</v>
+        <v>0.10131</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153023</v>
+        <v>0.153534</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552986</v>
+        <v>0.540535</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07269879999999999</v>
+        <v>0.0725836</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106242</v>
+        <v>0.105914</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.105944</v>
+        <v>0.105235</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160429</v>
+        <v>0.162372</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57694</v>
+        <v>0.561029</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07476140000000001</v>
+        <v>0.0744879</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109459</v>
+        <v>0.11191</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107381</v>
+        <v>0.106681</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166085</v>
+        <v>0.164495</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581048</v>
+        <v>0.572227</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07571170000000001</v>
+        <v>0.07595490000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113953</v>
+        <v>0.113799</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.10852</v>
+        <v>0.10914</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175071</v>
+        <v>0.16841</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593866</v>
+        <v>0.5882270000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0780786</v>
+        <v>0.0777504</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117277</v>
+        <v>0.116276</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11235</v>
+        <v>0.110312</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17442</v>
+        <v>0.173727</v>
       </c>
       <c r="D99" t="n">
-        <v>0.615204</v>
+        <v>0.610032</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0787761</v>
+        <v>0.08033270000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120136</v>
+        <v>0.121432</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.116102</v>
+        <v>0.114601</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180881</v>
+        <v>0.184616</v>
       </c>
       <c r="D100" t="n">
-        <v>0.633903</v>
+        <v>0.637829</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0821117</v>
+        <v>0.08192199999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129824</v>
+        <v>0.124505</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124719</v>
+        <v>0.117641</v>
       </c>
       <c r="C101" t="n">
-        <v>0.193751</v>
+        <v>0.188135</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68023</v>
+        <v>0.644602</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0839321</v>
+        <v>0.0850293</v>
       </c>
       <c r="F101" t="n">
-        <v>0.129727</v>
+        <v>0.129634</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.124133</v>
+        <v>0.121212</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202819</v>
+        <v>0.195716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669713</v>
+        <v>0.664921</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0873278</v>
+        <v>0.0866387</v>
       </c>
       <c r="F102" t="n">
-        <v>0.134873</v>
+        <v>0.134179</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130664</v>
+        <v>0.126148</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20681</v>
+        <v>0.205083</v>
       </c>
       <c r="D103" t="n">
-        <v>0.692277</v>
+        <v>0.6798380000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0885615</v>
+        <v>0.090319</v>
       </c>
       <c r="F103" t="n">
-        <v>0.142146</v>
+        <v>0.139468</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13302</v>
+        <v>0.135002</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218941</v>
+        <v>0.219826</v>
       </c>
       <c r="D104" t="n">
-        <v>0.716569</v>
+        <v>0.705649</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09418310000000001</v>
+        <v>0.094899</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145305</v>
+        <v>0.149839</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149261</v>
+        <v>0.14289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23741</v>
+        <v>0.238266</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.748855</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995622</v>
+        <v>0.101679</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15793</v>
+        <v>0.158251</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.158719</v>
+        <v>0.154554</v>
       </c>
       <c r="C106" t="n">
-        <v>0.263344</v>
+        <v>0.257349</v>
       </c>
       <c r="D106" t="n">
-        <v>0.767298</v>
+        <v>0.759903</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.108678</v>
       </c>
       <c r="F106" t="n">
-        <v>0.168224</v>
+        <v>0.172012</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180233</v>
+        <v>0.174934</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295267</v>
+        <v>0.286463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571398</v>
+        <v>0.560341</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117779</v>
+        <v>0.157201</v>
       </c>
       <c r="F107" t="n">
-        <v>0.18211</v>
+        <v>0.184029</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212849</v>
+        <v>0.207605</v>
       </c>
       <c r="C108" t="n">
-        <v>0.341322</v>
+        <v>0.338606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583622</v>
+        <v>0.5723200000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.152681</v>
+        <v>0.160307</v>
       </c>
       <c r="F108" t="n">
-        <v>0.19838</v>
+        <v>0.189779</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265315</v>
+        <v>0.274849</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429398</v>
+        <v>0.428591</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597875</v>
+        <v>0.593384</v>
       </c>
       <c r="E109" t="n">
-        <v>0.155336</v>
+        <v>0.150952</v>
       </c>
       <c r="F109" t="n">
-        <v>0.191955</v>
+        <v>0.190771</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.184051</v>
+        <v>0.1829</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255244</v>
+        <v>0.268383</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615464</v>
+        <v>0.608354</v>
       </c>
       <c r="E110" t="n">
-        <v>0.159705</v>
+        <v>0.152376</v>
       </c>
       <c r="F110" t="n">
-        <v>0.19638</v>
+        <v>0.194629</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.194568</v>
+        <v>0.183809</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255772</v>
+        <v>0.254081</v>
       </c>
       <c r="D111" t="n">
-        <v>0.626735</v>
+        <v>0.62285</v>
       </c>
       <c r="E111" t="n">
-        <v>0.153453</v>
+        <v>0.153432</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211138</v>
+        <v>0.225507</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184636</v>
+        <v>0.187112</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269099</v>
+        <v>0.258276</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64541</v>
+        <v>0.638387</v>
       </c>
       <c r="E112" t="n">
-        <v>0.16637</v>
+        <v>0.15441</v>
       </c>
       <c r="F112" t="n">
-        <v>0.205281</v>
+        <v>0.202772</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185973</v>
+        <v>0.193336</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266806</v>
+        <v>0.267456</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675069</v>
+        <v>0.654359</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166548</v>
+        <v>0.156908</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206192</v>
+        <v>0.207908</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218221</v>
+        <v>0.193006</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277832</v>
+        <v>0.27794</v>
       </c>
       <c r="D114" t="n">
-        <v>0.700316</v>
+        <v>0.678306</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159151</v>
+        <v>0.1686</v>
       </c>
       <c r="F114" t="n">
-        <v>0.213917</v>
+        <v>0.226476</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196549</v>
+        <v>0.196409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287048</v>
+        <v>0.283409</v>
       </c>
       <c r="D115" t="n">
-        <v>0.713483</v>
+        <v>0.691308</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161185</v>
+        <v>0.159485</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216467</v>
+        <v>0.214739</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20394</v>
+        <v>0.218024</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294276</v>
+        <v>0.292658</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71512</v>
+        <v>0.714148</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163902</v>
+        <v>0.163116</v>
       </c>
       <c r="F116" t="n">
-        <v>0.223143</v>
+        <v>0.221686</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226312</v>
+        <v>0.203518</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305553</v>
+        <v>0.305203</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735619</v>
+        <v>0.746965</v>
       </c>
       <c r="E117" t="n">
-        <v>0.169941</v>
+        <v>0.168441</v>
       </c>
       <c r="F117" t="n">
-        <v>0.23325</v>
+        <v>0.230167</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232073</v>
+        <v>0.212299</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322141</v>
+        <v>0.320837</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765811</v>
+        <v>0.7574920000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.177597</v>
+        <v>0.169382</v>
       </c>
       <c r="F118" t="n">
-        <v>0.239467</v>
+        <v>0.238198</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.229083</v>
+        <v>0.222962</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340711</v>
+        <v>0.338151</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779219</v>
+        <v>0.783501</v>
       </c>
       <c r="E119" t="n">
-        <v>0.170275</v>
+        <v>0.174704</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247549</v>
+        <v>0.24642</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23775</v>
+        <v>0.236943</v>
       </c>
       <c r="C120" t="n">
-        <v>0.36389</v>
+        <v>0.367236</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806381</v>
+        <v>0.800666</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178358</v>
+        <v>0.181446</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258632</v>
+        <v>0.262698</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255962</v>
+        <v>0.257242</v>
       </c>
       <c r="C121" t="n">
-        <v>0.406589</v>
+        <v>0.407089</v>
       </c>
       <c r="D121" t="n">
-        <v>0.618837</v>
+        <v>0.610692</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.23704</v>
       </c>
       <c r="F121" t="n">
-        <v>0.280451</v>
+        <v>0.281523</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31302</v>
+        <v>0.303612</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466067</v>
+        <v>0.461709</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648958</v>
+        <v>0.62545</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206641</v>
+        <v>0.236523</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305266</v>
+        <v>0.287785</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.357703</v>
+        <v>0.35273</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593832</v>
+        <v>0.5830070000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650649</v>
+        <v>0.660585</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23331</v>
+        <v>0.243788</v>
       </c>
       <c r="F123" t="n">
-        <v>0.287209</v>
+        <v>0.293485</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295337</v>
+        <v>0.294329</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373797</v>
+        <v>0.366649</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694852</v>
+        <v>0.670424</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241574</v>
+        <v>0.242903</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291793</v>
+        <v>0.291611</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.300913</v>
+        <v>0.301955</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378528</v>
+        <v>0.382279</v>
       </c>
       <c r="D125" t="n">
-        <v>0.701847</v>
+        <v>0.688998</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245558</v>
+        <v>0.242895</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302312</v>
+        <v>0.297348</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299484</v>
+        <v>0.303317</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384213</v>
+        <v>0.382836</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7203079999999999</v>
+        <v>0.704059</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24248</v>
+        <v>0.245695</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304154</v>
+        <v>0.301478</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323119</v>
+        <v>0.302428</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387554</v>
+        <v>0.386305</v>
       </c>
       <c r="D127" t="n">
-        <v>0.729649</v>
+        <v>0.725456</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25037</v>
+        <v>0.245351</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305627</v>
+        <v>0.30663</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315066</v>
+        <v>0.315276</v>
       </c>
       <c r="C128" t="n">
-        <v>0.394337</v>
+        <v>0.394825</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759118</v>
+        <v>0.750829</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24956</v>
+        <v>0.251078</v>
       </c>
       <c r="F128" t="n">
-        <v>0.327057</v>
+        <v>0.31983</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313711</v>
+        <v>0.31208</v>
       </c>
       <c r="C129" t="n">
-        <v>0.412672</v>
+        <v>0.416001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.795212</v>
+        <v>0.786596</v>
       </c>
       <c r="E129" t="n">
-        <v>0.244993</v>
+        <v>0.249929</v>
       </c>
       <c r="F129" t="n">
-        <v>0.319168</v>
+        <v>0.316579</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317592</v>
+        <v>0.317855</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418307</v>
+        <v>0.428528</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816229</v>
+        <v>0.796034</v>
       </c>
       <c r="E130" t="n">
-        <v>0.24865</v>
+        <v>0.25318</v>
       </c>
       <c r="F130" t="n">
-        <v>0.329529</v>
+        <v>0.324534</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.337821</v>
+        <v>0.326169</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431545</v>
+        <v>0.428789</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8317830000000001</v>
+        <v>0.825515</v>
       </c>
       <c r="E131" t="n">
-        <v>0.251304</v>
+        <v>0.265867</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333416</v>
+        <v>0.33476</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335238</v>
+        <v>0.338364</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445206</v>
+        <v>0.447428</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869043</v>
+        <v>0.868113</v>
       </c>
       <c r="E132" t="n">
-        <v>0.255367</v>
+        <v>0.264163</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342477</v>
+        <v>0.345098</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354488</v>
+        <v>0.34978</v>
       </c>
       <c r="C133" t="n">
-        <v>0.502782</v>
+        <v>0.479467</v>
       </c>
       <c r="D133" t="n">
-        <v>0.891855</v>
+        <v>0.893696</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260546</v>
+        <v>0.269136</v>
       </c>
       <c r="F133" t="n">
-        <v>0.350394</v>
+        <v>0.355761</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374687</v>
+        <v>0.368571</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498502</v>
+        <v>0.495402</v>
       </c>
       <c r="D134" t="n">
-        <v>0.947819</v>
+        <v>0.933604</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275867</v>
+        <v>0.286947</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364719</v>
+        <v>0.380568</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.392354</v>
+        <v>0.41051</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539395</v>
+        <v>0.531724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769266</v>
+        <v>0.775125</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281317</v>
+        <v>0.2978</v>
       </c>
       <c r="F135" t="n">
-        <v>0.385169</v>
+        <v>0.349158</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434604</v>
+        <v>0.437501</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596301</v>
+        <v>0.5913929999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.826171</v>
+        <v>0.7875180000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.300476</v>
+        <v>0.292256</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422452</v>
+        <v>0.345853</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511276</v>
+        <v>0.506288</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69603</v>
+        <v>0.722959</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827473</v>
+        <v>0.834392</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288913</v>
+        <v>0.299202</v>
       </c>
       <c r="F137" t="n">
-        <v>0.355419</v>
+        <v>0.350889</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367374</v>
+        <v>0.365118</v>
       </c>
       <c r="C138" t="n">
-        <v>0.438408</v>
+        <v>0.433502</v>
       </c>
       <c r="D138" t="n">
-        <v>0.845283</v>
+        <v>0.856318</v>
       </c>
       <c r="E138" t="n">
-        <v>0.290867</v>
+        <v>0.300025</v>
       </c>
       <c r="F138" t="n">
-        <v>0.350915</v>
+        <v>0.353497</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365175</v>
+        <v>0.373376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44799</v>
+        <v>0.444118</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900519</v>
+        <v>0.880821</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297579</v>
+        <v>0.300478</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354805</v>
+        <v>0.357875</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367735</v>
+        <v>0.369767</v>
       </c>
       <c r="C140" t="n">
-        <v>0.463007</v>
+        <v>0.449494</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921688</v>
+        <v>0.906099</v>
       </c>
       <c r="E140" t="n">
-        <v>0.294614</v>
+        <v>0.300987</v>
       </c>
       <c r="F140" t="n">
-        <v>0.360806</v>
+        <v>0.359738</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373447</v>
+        <v>0.382155</v>
       </c>
       <c r="C141" t="n">
-        <v>0.466975</v>
+        <v>0.461811</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951329</v>
+        <v>0.954475</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296998</v>
+        <v>0.303663</v>
       </c>
       <c r="F141" t="n">
-        <v>0.377241</v>
+        <v>0.36813</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.382831</v>
+        <v>0.38045</v>
       </c>
       <c r="C142" t="n">
-        <v>0.466194</v>
+        <v>0.466728</v>
       </c>
       <c r="D142" t="n">
-        <v>0.981593</v>
+        <v>0.986103</v>
       </c>
       <c r="E142" t="n">
-        <v>0.301974</v>
+        <v>0.306711</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369876</v>
+        <v>0.373013</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381273</v>
+        <v>0.397802</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477303</v>
+        <v>0.477988</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01753</v>
+        <v>1.01001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305317</v>
+        <v>0.311961</v>
       </c>
       <c r="F143" t="n">
-        <v>0.377078</v>
+        <v>0.378251</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404362</v>
+        <v>0.0419326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041986</v>
+        <v>0.041061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.116246</v>
+        <v>0.111931</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0324778</v>
+        <v>0.0318866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327558</v>
+        <v>0.0326794</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417594</v>
+        <v>0.043521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0435933</v>
+        <v>0.0446736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122458</v>
+        <v>0.115352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0337755</v>
+        <v>0.0326605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0335681</v>
+        <v>0.0333517</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0445887</v>
+        <v>0.0478217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451925</v>
+        <v>0.0474881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124318</v>
+        <v>0.120456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350723</v>
+        <v>0.0330588</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0351705</v>
+        <v>0.0340799</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502431</v>
+        <v>0.0511675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499336</v>
+        <v>0.0534325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129965</v>
+        <v>0.12251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0360469</v>
+        <v>0.0359934</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0359472</v>
+        <v>0.0353803</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570153</v>
+        <v>0.0614527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599362</v>
+        <v>0.06287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138796</v>
+        <v>0.128737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0406152</v>
+        <v>0.0401586</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389581</v>
+        <v>0.038552</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06806909999999999</v>
+        <v>0.0720141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07032239999999999</v>
+        <v>0.0739645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.099283</v>
+        <v>0.0967291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0479201</v>
+        <v>0.0463369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456343</v>
+        <v>0.0451009</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0873116</v>
+        <v>0.09601419999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092393</v>
+        <v>0.0975312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101528</v>
+        <v>0.0991335</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0597865</v>
+        <v>0.0596209</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572511</v>
+        <v>0.0573996</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119508</v>
+        <v>0.130685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119817</v>
+        <v>0.125152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106786</v>
+        <v>0.104314</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303854</v>
+        <v>0.0300695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.033305</v>
+        <v>0.0339085</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0389041</v>
+        <v>0.039097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420637</v>
+        <v>0.04045</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11205</v>
+        <v>0.110145</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031037</v>
+        <v>0.0301556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0329142</v>
+        <v>0.0331632</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040616</v>
+        <v>0.0399668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041538</v>
+        <v>0.0414029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118638</v>
+        <v>0.112301</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306992</v>
+        <v>0.0303658</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0333101</v>
+        <v>0.0330117</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395175</v>
+        <v>0.0394523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450282</v>
+        <v>0.0426479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122719</v>
+        <v>0.119242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0313068</v>
+        <v>0.0306031</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033834</v>
+        <v>0.0336446</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399744</v>
+        <v>0.0398901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0453172</v>
+        <v>0.0423412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128513</v>
+        <v>0.124396</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0314736</v>
+        <v>0.0307316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03471</v>
+        <v>0.0339743</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408352</v>
+        <v>0.0422313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0450283</v>
+        <v>0.0431359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131175</v>
+        <v>0.126972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317195</v>
+        <v>0.0314489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0352389</v>
+        <v>0.0346841</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.044551</v>
+        <v>0.0414351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0457955</v>
+        <v>0.0443722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141678</v>
+        <v>0.131264</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331701</v>
+        <v>0.0319896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0352946</v>
+        <v>0.0359065</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0435382</v>
+        <v>0.0427999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0474843</v>
+        <v>0.0465507</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144116</v>
+        <v>0.132901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0357789</v>
+        <v>0.0332055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359599</v>
+        <v>0.0368594</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453576</v>
+        <v>0.0455833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485653</v>
+        <v>0.0487841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141976</v>
+        <v>0.136213</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362708</v>
+        <v>0.0335388</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373824</v>
+        <v>0.0380343</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0501786</v>
+        <v>0.0492101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0543532</v>
+        <v>0.0523798</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152324</v>
+        <v>0.139893</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374009</v>
+        <v>0.034733</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0383808</v>
+        <v>0.0384048</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544271</v>
+        <v>0.0538714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059371</v>
+        <v>0.0609683</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151239</v>
+        <v>0.143298</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392211</v>
+        <v>0.0369549</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418777</v>
+        <v>0.0404645</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0606677</v>
+        <v>0.0616015</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0645435</v>
+        <v>0.0658536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162025</v>
+        <v>0.149934</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427745</v>
+        <v>0.0410812</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0439695</v>
+        <v>0.044443</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.074145</v>
+        <v>0.0721966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07972369999999999</v>
+        <v>0.0795077</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110723</v>
+        <v>0.116018</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0483317</v>
+        <v>0.0458459</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496986</v>
+        <v>0.0500036</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09081939999999999</v>
+        <v>0.08916209999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09321119999999999</v>
+        <v>0.0931833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112144</v>
+        <v>0.11302</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609434</v>
+        <v>0.0572701</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602872</v>
+        <v>0.0608219</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120811</v>
+        <v>0.12137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122248</v>
+        <v>0.121217</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118618</v>
+        <v>0.117564</v>
       </c>
       <c r="E23" t="n">
-        <v>0.030753</v>
+        <v>0.0303977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0353468</v>
+        <v>0.035385</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416771</v>
+        <v>0.0416934</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0478926</v>
+        <v>0.0467943</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125958</v>
+        <v>0.123457</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0317401</v>
+        <v>0.0308692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0368002</v>
+        <v>0.036058</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04164</v>
+        <v>0.0418158</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0478428</v>
+        <v>0.0473928</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130175</v>
+        <v>0.129654</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0312143</v>
+        <v>0.0308978</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365007</v>
+        <v>0.0363965</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421758</v>
+        <v>0.0423645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0473957</v>
+        <v>0.0482178</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132907</v>
+        <v>0.130015</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315112</v>
+        <v>0.0310839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368916</v>
+        <v>0.0371372</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0439696</v>
+        <v>0.0428398</v>
       </c>
       <c r="C27" t="n">
-        <v>0.050343</v>
+        <v>0.0494714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137876</v>
+        <v>0.135385</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0325526</v>
+        <v>0.0316914</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376497</v>
+        <v>0.0388593</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.043697</v>
+        <v>0.0438141</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502933</v>
+        <v>0.0513029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140166</v>
+        <v>0.141731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0326467</v>
+        <v>0.0319965</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0383194</v>
+        <v>0.0389849</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045005</v>
+        <v>0.0448212</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521585</v>
+        <v>0.0518623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149553</v>
+        <v>0.14471</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334457</v>
+        <v>0.0325346</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0387334</v>
+        <v>0.0396872</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465236</v>
+        <v>0.0474548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538341</v>
+        <v>0.0538883</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152487</v>
+        <v>0.147853</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349555</v>
+        <v>0.0332765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040995</v>
+        <v>0.0407615</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488954</v>
+        <v>0.0493892</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572025</v>
+        <v>0.0579265</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156806</v>
+        <v>0.157972</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0357641</v>
+        <v>0.034169</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0417069</v>
+        <v>0.042112</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513122</v>
+        <v>0.0514968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614403</v>
+        <v>0.0614788</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166565</v>
+        <v>0.165071</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368108</v>
+        <v>0.0355189</v>
       </c>
       <c r="F32" t="n">
-        <v>0.042747</v>
+        <v>0.0448193</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0558583</v>
+        <v>0.058278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0665572</v>
+        <v>0.0670456</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171394</v>
+        <v>0.171401</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0391967</v>
+        <v>0.037326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0453143</v>
+        <v>0.0457547</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06331589999999999</v>
+        <v>0.06376510000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0722377</v>
+        <v>0.0724154</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171562</v>
+        <v>0.18126</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0422655</v>
+        <v>0.0410521</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0482619</v>
+        <v>0.0486314</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0728707</v>
+        <v>0.07340149999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08380360000000001</v>
+        <v>0.08171920000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128175</v>
+        <v>0.129816</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475461</v>
+        <v>0.0454196</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0537826</v>
+        <v>0.0542176</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08846759999999999</v>
+        <v>0.0901115</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09875200000000001</v>
+        <v>0.0994458</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134887</v>
+        <v>0.142528</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560714</v>
+        <v>0.0562877</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0628471</v>
+        <v>0.0624806</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117061</v>
+        <v>0.114953</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127238</v>
+        <v>0.123024</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143487</v>
+        <v>0.144898</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0344162</v>
+        <v>0.033278</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0430593</v>
+        <v>0.041973</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0459329</v>
+        <v>0.0456012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0572698</v>
+        <v>0.0571583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.150834</v>
+        <v>0.153929</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342813</v>
+        <v>0.0352747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0432442</v>
+        <v>0.0436589</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0487169</v>
+        <v>0.0462952</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582866</v>
+        <v>0.0589584</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159981</v>
+        <v>0.157876</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378599</v>
+        <v>0.0343801</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044102</v>
+        <v>0.0434144</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0461593</v>
+        <v>0.0473472</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595433</v>
+        <v>0.0605708</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16531</v>
+        <v>0.168561</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0344896</v>
+        <v>0.0347345</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0443527</v>
+        <v>0.0441861</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0469866</v>
+        <v>0.0471762</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0623402</v>
+        <v>0.0611135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177457</v>
+        <v>0.172503</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035605</v>
+        <v>0.0353308</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0495032</v>
+        <v>0.0457366</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0477105</v>
+        <v>0.0480177</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638729</v>
+        <v>0.0646842</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193805</v>
+        <v>0.178538</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354899</v>
+        <v>0.0359764</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0467169</v>
+        <v>0.0469983</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488798</v>
+        <v>0.0504297</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0655994</v>
+        <v>0.0645992</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197669</v>
+        <v>0.190554</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0361927</v>
+        <v>0.0368809</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0476285</v>
+        <v>0.0479228</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508165</v>
+        <v>0.0508738</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680159</v>
+        <v>0.0674823</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205484</v>
+        <v>0.199888</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0398077</v>
+        <v>0.0374126</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0492365</v>
+        <v>0.0509712</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536734</v>
+        <v>0.0541858</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.0715273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225882</v>
+        <v>0.214083</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381182</v>
+        <v>0.0378592</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510109</v>
+        <v>0.0507853</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0557344</v>
+        <v>0.0553472</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07529619999999999</v>
+        <v>0.0742386</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229607</v>
+        <v>0.222183</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0395388</v>
+        <v>0.0402375</v>
       </c>
       <c r="F46" t="n">
-        <v>0.052651</v>
+        <v>0.0528133</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0600394</v>
+        <v>0.0613208</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0806094</v>
+        <v>0.0821949</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244161</v>
+        <v>0.235234</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0416194</v>
+        <v>0.0401741</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568505</v>
+        <v>0.0553426</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0661538</v>
+        <v>0.0677304</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0869086</v>
+        <v>0.0898386</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260082</v>
+        <v>0.262217</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0457633</v>
+        <v>0.0433781</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0606538</v>
+        <v>0.0598233</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759223</v>
+        <v>0.0765807</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10024</v>
+        <v>0.0987833</v>
       </c>
       <c r="D49" t="n">
-        <v>0.298851</v>
+        <v>0.273593</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0489659</v>
+        <v>0.0472301</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649551</v>
+        <v>0.0634034</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906221</v>
+        <v>0.0948695</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11429</v>
+        <v>0.12002</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214434</v>
+        <v>0.216633</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556428</v>
+        <v>0.0549553</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0722276</v>
+        <v>0.07182719999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12013</v>
+        <v>0.116371</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141017</v>
+        <v>0.140236</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237603</v>
+        <v>0.226909</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0413313</v>
+        <v>0.0407655</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0528234</v>
+        <v>0.0517007</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154244</v>
+        <v>0.155484</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178435</v>
+        <v>0.181102</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240196</v>
+        <v>0.248373</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0407936</v>
+        <v>0.041049</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0548775</v>
+        <v>0.0549353</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0551701</v>
+        <v>0.0558807</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07398349999999999</v>
+        <v>0.0757989</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254403</v>
+        <v>0.254446</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0412837</v>
+        <v>0.0416224</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0530613</v>
+        <v>0.05542</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0566962</v>
+        <v>0.0567211</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0757848</v>
+        <v>0.07723530000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271524</v>
+        <v>0.267287</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0414938</v>
+        <v>0.0421637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0544707</v>
+        <v>0.0564169</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569572</v>
+        <v>0.0585103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.078907</v>
+        <v>0.0775903</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283266</v>
+        <v>0.287952</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0427383</v>
+        <v>0.0423642</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0561123</v>
+        <v>0.0557743</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.058437</v>
+        <v>0.0579648</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809004</v>
+        <v>0.0808608</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302774</v>
+        <v>0.314998</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0427525</v>
+        <v>0.0436866</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0580761</v>
+        <v>0.0592238</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0593854</v>
+        <v>0.0595424</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0910841</v>
+        <v>0.08361499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330268</v>
+        <v>0.314512</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0444326</v>
+        <v>0.0434009</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0611473</v>
+        <v>0.0598766</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614494</v>
+        <v>0.0617841</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0849065</v>
+        <v>0.0906633</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336314</v>
+        <v>0.331687</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0453353</v>
+        <v>0.0454638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614085</v>
+        <v>0.0606179</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0636515</v>
+        <v>0.06348529999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907852</v>
+        <v>0.08922670000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355425</v>
+        <v>0.353528</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0466662</v>
+        <v>0.0454686</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0630646</v>
+        <v>0.0645363</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0700942</v>
+        <v>0.0663135</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933652</v>
+        <v>0.09407889999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371713</v>
+        <v>0.367552</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047456</v>
+        <v>0.046934</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651863</v>
+        <v>0.064364</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0710199</v>
+        <v>0.0701181</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101091</v>
+        <v>0.100927</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388808</v>
+        <v>0.389134</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0491451</v>
+        <v>0.050234</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06736159999999999</v>
+        <v>0.06754930000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0756875</v>
+        <v>0.07517600000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106938</v>
+        <v>0.10826</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409971</v>
+        <v>0.410195</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0521299</v>
+        <v>0.0528538</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0723188</v>
+        <v>0.07106030000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0853706</v>
+        <v>0.0835383</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11949</v>
+        <v>0.120547</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434777</v>
+        <v>0.435926</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0571107</v>
+        <v>0.0570212</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0777558</v>
+        <v>0.0771766</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.0981817</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134404</v>
+        <v>0.134712</v>
       </c>
       <c r="D64" t="n">
-        <v>0.344521</v>
+        <v>0.338976</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0631449</v>
+        <v>0.0623353</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0854058</v>
+        <v>0.0855408</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119381</v>
+        <v>0.11824</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159236</v>
+        <v>0.165849</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351988</v>
+        <v>0.35063</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0746338</v>
+        <v>0.0732874</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0986189</v>
+        <v>0.0991264</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158493</v>
+        <v>0.156785</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203579</v>
+        <v>0.209743</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371605</v>
+        <v>0.368663</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0475054</v>
+        <v>0.0465476</v>
       </c>
       <c r="F66" t="n">
-        <v>0.061328</v>
+        <v>0.0608012</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06386169999999999</v>
+        <v>0.0660791</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0882926</v>
+        <v>0.0881763</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381588</v>
+        <v>0.386685</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0468844</v>
+        <v>0.0478942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0618258</v>
+        <v>0.061583</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0650374</v>
+        <v>0.0677141</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0897511</v>
+        <v>0.093227</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416642</v>
+        <v>0.404665</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477552</v>
+        <v>0.0489798</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06297460000000001</v>
+        <v>0.0656852</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0654559</v>
+        <v>0.0669178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954667</v>
+        <v>0.0954578</v>
       </c>
       <c r="D69" t="n">
-        <v>0.428868</v>
+        <v>0.431479</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0476321</v>
+        <v>0.0483209</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06471830000000001</v>
+        <v>0.0644098</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0669676</v>
+        <v>0.0688317</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978571</v>
+        <v>0.100608</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437423</v>
+        <v>0.440622</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0497952</v>
+        <v>0.048834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647721</v>
+        <v>0.065443</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0688936</v>
+        <v>0.0698675</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100299</v>
+        <v>0.104356</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456569</v>
+        <v>0.455843</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497732</v>
+        <v>0.0497001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0725305</v>
+        <v>0.0682604</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07111969999999999</v>
+        <v>0.070826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107175</v>
+        <v>0.106238</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468044</v>
+        <v>0.473159</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518184</v>
+        <v>0.0508301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07032629999999999</v>
+        <v>0.0715322</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727338</v>
+        <v>0.0734094</v>
       </c>
       <c r="C73" t="n">
-        <v>0.112048</v>
+        <v>0.109423</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486261</v>
+        <v>0.486852</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0523911</v>
+        <v>0.0520206</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738123</v>
+        <v>0.07446170000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0753537</v>
+        <v>0.0776012</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119469</v>
+        <v>0.116547</v>
       </c>
       <c r="D74" t="n">
-        <v>0.508954</v>
+        <v>0.513006</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0546589</v>
+        <v>0.0543375</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0789223</v>
+        <v>0.07589129999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0799859</v>
+        <v>0.0810241</v>
       </c>
       <c r="C75" t="n">
-        <v>0.128779</v>
+        <v>0.125514</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549866</v>
+        <v>0.522693</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0561139</v>
+        <v>0.0556298</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0796655</v>
+        <v>0.07885789999999999</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0862149</v>
+        <v>0.08606709999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142744</v>
+        <v>0.135757</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548701</v>
+        <v>0.541067</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0598729</v>
+        <v>0.0633672</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891107</v>
+        <v>0.08399429999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.099398</v>
+        <v>0.0952892</v>
       </c>
       <c r="C77" t="n">
-        <v>0.151816</v>
+        <v>0.152518</v>
       </c>
       <c r="D77" t="n">
-        <v>0.577696</v>
+        <v>0.565935</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0655797</v>
+        <v>0.0643053</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10123</v>
+        <v>0.0922906</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116046</v>
+        <v>0.110449</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170264</v>
+        <v>0.176679</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435619</v>
+        <v>0.440034</v>
       </c>
       <c r="E78" t="n">
-        <v>0.074755</v>
+        <v>0.07208390000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106528</v>
+        <v>0.106622</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129634</v>
+        <v>0.132448</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201055</v>
+        <v>0.218481</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452011</v>
+        <v>0.457582</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08676059999999999</v>
+        <v>0.0837247</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118167</v>
+        <v>0.120599</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177057</v>
+        <v>0.170986</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251908</v>
+        <v>0.261572</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475599</v>
+        <v>0.483632</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0539204</v>
+        <v>0.0534804</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0729897</v>
+        <v>0.0725454</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07768890000000001</v>
+        <v>0.0813181</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112193</v>
+        <v>0.112544</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484759</v>
+        <v>0.482333</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0542798</v>
+        <v>0.0524731</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0791089</v>
+        <v>0.07262440000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0790233</v>
+        <v>0.0777446</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115862</v>
+        <v>0.122474</v>
       </c>
       <c r="D82" t="n">
-        <v>0.512985</v>
+        <v>0.491345</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0571083</v>
+        <v>0.053584</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.0771361</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843458</v>
+        <v>0.07772</v>
       </c>
       <c r="C83" t="n">
-        <v>0.124253</v>
+        <v>0.12502</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51098</v>
+        <v>0.526462</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0583103</v>
+        <v>0.0573356</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0779292</v>
+        <v>0.0841147</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0893636</v>
+        <v>0.0809368</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130475</v>
+        <v>0.126241</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540766</v>
+        <v>0.525293</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0617369</v>
+        <v>0.0561831</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0849266</v>
+        <v>0.0813599</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.094219</v>
+        <v>0.08395</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140659</v>
+        <v>0.134375</v>
       </c>
       <c r="D85" t="n">
-        <v>0.555134</v>
+        <v>0.563466</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06457889999999999</v>
+        <v>0.0589562</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0870744</v>
+        <v>0.085259</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979448</v>
+        <v>0.08802740000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144325</v>
+        <v>0.140513</v>
       </c>
       <c r="D86" t="n">
-        <v>0.574121</v>
+        <v>0.5672469999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0676546</v>
+        <v>0.0614364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0885669</v>
+        <v>0.0899443</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0984781</v>
+        <v>0.0912794</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148939</v>
+        <v>0.147429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586298</v>
+        <v>0.586334</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0665384</v>
+        <v>0.0619475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0913786</v>
+        <v>0.0936506</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0976479</v>
+        <v>0.0944871</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1583</v>
+        <v>0.155837</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601536</v>
+        <v>0.6049909999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0683646</v>
+        <v>0.06483120000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0983782</v>
+        <v>0.0990515</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.101102</v>
+        <v>0.10073</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164007</v>
+        <v>0.16574</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620403</v>
+        <v>0.631435</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06847350000000001</v>
+        <v>0.0685019</v>
       </c>
       <c r="F89" t="n">
-        <v>0.102762</v>
+        <v>0.103285</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1077</v>
+        <v>0.107717</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174169</v>
+        <v>0.175381</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641492</v>
+        <v>0.641899</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0725128</v>
+        <v>0.0731897</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110137</v>
+        <v>0.113116</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1205</v>
+        <v>0.11678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18898</v>
+        <v>0.188562</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679501</v>
+        <v>0.668639</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0788985</v>
+        <v>0.0786393</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118408</v>
+        <v>0.119086</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131985</v>
+        <v>0.13714</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215321</v>
+        <v>0.213533</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508915</v>
+        <v>0.499524</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0847053</v>
+        <v>0.0862092</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127258</v>
+        <v>0.132519</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147601</v>
+        <v>0.148598</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239659</v>
+        <v>0.251503</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.533352</v>
       </c>
       <c r="E93" t="n">
-        <v>0.100589</v>
+        <v>0.0962638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143147</v>
+        <v>0.144873</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180921</v>
+        <v>0.184915</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288295</v>
+        <v>0.298754</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550536</v>
+        <v>0.5246420000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0736607</v>
+        <v>0.07155300000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.106778</v>
+        <v>0.105776</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107634</v>
+        <v>0.104394</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153023</v>
+        <v>0.157884</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552986</v>
+        <v>0.540621</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07269879999999999</v>
+        <v>0.0734137</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106242</v>
+        <v>0.107893</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.105944</v>
+        <v>0.104488</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160429</v>
+        <v>0.159992</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57694</v>
+        <v>0.5633629999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07476140000000001</v>
+        <v>0.0757352</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109459</v>
+        <v>0.109884</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107381</v>
+        <v>0.10642</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166085</v>
+        <v>0.168006</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581048</v>
+        <v>0.585874</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07571170000000001</v>
+        <v>0.0768997</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113953</v>
+        <v>0.113218</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.10852</v>
+        <v>0.108033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175071</v>
+        <v>0.17367</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593866</v>
+        <v>0.605974</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0780786</v>
+        <v>0.0797693</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117277</v>
+        <v>0.117459</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11235</v>
+        <v>0.113053</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17442</v>
+        <v>0.186681</v>
       </c>
       <c r="D99" t="n">
-        <v>0.615204</v>
+        <v>0.613124</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0787761</v>
+        <v>0.0813416</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120136</v>
+        <v>0.12143</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.116102</v>
+        <v>0.119681</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180881</v>
+        <v>0.183773</v>
       </c>
       <c r="D100" t="n">
-        <v>0.633903</v>
+        <v>0.655971</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0821117</v>
+        <v>0.08256189999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129824</v>
+        <v>0.129355</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124719</v>
+        <v>0.119464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.193751</v>
+        <v>0.192837</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68023</v>
+        <v>0.669548</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0839321</v>
+        <v>0.0853532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.129727</v>
+        <v>0.130953</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.124133</v>
+        <v>0.125468</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202819</v>
+        <v>0.207537</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669713</v>
+        <v>0.67481</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0873278</v>
+        <v>0.0871972</v>
       </c>
       <c r="F102" t="n">
-        <v>0.134873</v>
+        <v>0.132725</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130664</v>
+        <v>0.131896</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20681</v>
+        <v>0.211293</v>
       </c>
       <c r="D103" t="n">
-        <v>0.692277</v>
+        <v>0.700851</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0885615</v>
+        <v>0.0916795</v>
       </c>
       <c r="F103" t="n">
-        <v>0.142146</v>
+        <v>0.139301</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13302</v>
+        <v>0.135228</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218941</v>
+        <v>0.21874</v>
       </c>
       <c r="D104" t="n">
-        <v>0.716569</v>
+        <v>0.704311</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09418310000000001</v>
+        <v>0.0940091</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145305</v>
+        <v>0.153014</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149261</v>
+        <v>0.146351</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23741</v>
+        <v>0.242862</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.73763</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995622</v>
+        <v>0.0995414</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15793</v>
+        <v>0.161432</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.158719</v>
+        <v>0.16145</v>
       </c>
       <c r="C106" t="n">
-        <v>0.263344</v>
+        <v>0.260126</v>
       </c>
       <c r="D106" t="n">
-        <v>0.767298</v>
+        <v>0.765292</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.108745</v>
       </c>
       <c r="F106" t="n">
-        <v>0.168224</v>
+        <v>0.166506</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180233</v>
+        <v>0.179054</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295267</v>
+        <v>0.299353</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571398</v>
+        <v>0.555319</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117779</v>
+        <v>0.117858</v>
       </c>
       <c r="F107" t="n">
-        <v>0.18211</v>
+        <v>0.184954</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212849</v>
+        <v>0.212897</v>
       </c>
       <c r="C108" t="n">
-        <v>0.341322</v>
+        <v>0.351272</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583622</v>
+        <v>0.583106</v>
       </c>
       <c r="E108" t="n">
-        <v>0.152681</v>
+        <v>0.150431</v>
       </c>
       <c r="F108" t="n">
-        <v>0.19838</v>
+        <v>0.192261</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265315</v>
+        <v>0.279921</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429398</v>
+        <v>0.429852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597875</v>
+        <v>0.590584</v>
       </c>
       <c r="E109" t="n">
-        <v>0.155336</v>
+        <v>0.154637</v>
       </c>
       <c r="F109" t="n">
-        <v>0.191955</v>
+        <v>0.193875</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.184051</v>
+        <v>0.192711</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255244</v>
+        <v>0.252026</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615464</v>
+        <v>0.616175</v>
       </c>
       <c r="E110" t="n">
-        <v>0.159705</v>
+        <v>0.153805</v>
       </c>
       <c r="F110" t="n">
-        <v>0.19638</v>
+        <v>0.199481</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.194568</v>
+        <v>0.187287</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255772</v>
+        <v>0.272309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.626735</v>
+        <v>0.621634</v>
       </c>
       <c r="E111" t="n">
-        <v>0.153453</v>
+        <v>0.152196</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211138</v>
+        <v>0.219699</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184636</v>
+        <v>0.187744</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269099</v>
+        <v>0.260315</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64541</v>
+        <v>0.636161</v>
       </c>
       <c r="E112" t="n">
-        <v>0.16637</v>
+        <v>0.155866</v>
       </c>
       <c r="F112" t="n">
-        <v>0.205281</v>
+        <v>0.207213</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185973</v>
+        <v>0.187495</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266806</v>
+        <v>0.269883</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675069</v>
+        <v>0.660319</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166548</v>
+        <v>0.161112</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206192</v>
+        <v>0.205827</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218221</v>
+        <v>0.206767</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277832</v>
+        <v>0.278871</v>
       </c>
       <c r="D114" t="n">
-        <v>0.700316</v>
+        <v>0.686999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159151</v>
+        <v>0.164345</v>
       </c>
       <c r="F114" t="n">
-        <v>0.213917</v>
+        <v>0.21125</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196549</v>
+        <v>0.196403</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287048</v>
+        <v>0.286472</v>
       </c>
       <c r="D115" t="n">
-        <v>0.713483</v>
+        <v>0.70351</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161185</v>
+        <v>0.161858</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216467</v>
+        <v>0.219588</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20394</v>
+        <v>0.200347</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294276</v>
+        <v>0.295298</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71512</v>
+        <v>0.737611</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163902</v>
+        <v>0.171964</v>
       </c>
       <c r="F116" t="n">
-        <v>0.223143</v>
+        <v>0.228292</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226312</v>
+        <v>0.217363</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305553</v>
+        <v>0.312792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735619</v>
+        <v>0.751323</v>
       </c>
       <c r="E117" t="n">
-        <v>0.169941</v>
+        <v>0.167142</v>
       </c>
       <c r="F117" t="n">
-        <v>0.23325</v>
+        <v>0.22566</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232073</v>
+        <v>0.217454</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322141</v>
+        <v>0.338194</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765811</v>
+        <v>0.80449</v>
       </c>
       <c r="E118" t="n">
-        <v>0.177597</v>
+        <v>0.173523</v>
       </c>
       <c r="F118" t="n">
-        <v>0.239467</v>
+        <v>0.240674</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.229083</v>
+        <v>0.226572</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340711</v>
+        <v>0.344936</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779219</v>
+        <v>0.791351</v>
       </c>
       <c r="E119" t="n">
-        <v>0.170275</v>
+        <v>0.184068</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247549</v>
+        <v>0.244755</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23775</v>
+        <v>0.24242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.36389</v>
+        <v>0.366597</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806381</v>
+        <v>0.807796</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178358</v>
+        <v>0.198154</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258632</v>
+        <v>0.256041</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255962</v>
+        <v>0.263099</v>
       </c>
       <c r="C121" t="n">
-        <v>0.406589</v>
+        <v>0.409688</v>
       </c>
       <c r="D121" t="n">
-        <v>0.618837</v>
+        <v>0.607249</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.192472</v>
       </c>
       <c r="F121" t="n">
-        <v>0.280451</v>
+        <v>0.277853</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31302</v>
+        <v>0.290767</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466067</v>
+        <v>0.46708</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648958</v>
+        <v>0.629629</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206641</v>
+        <v>0.207504</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305266</v>
+        <v>0.304615</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.357703</v>
+        <v>0.350619</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593832</v>
+        <v>0.580058</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650649</v>
+        <v>0.647481</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23331</v>
+        <v>0.243798</v>
       </c>
       <c r="F123" t="n">
-        <v>0.287209</v>
+        <v>0.313456</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295337</v>
+        <v>0.295966</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373797</v>
+        <v>0.369661</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694852</v>
+        <v>0.666938</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241574</v>
+        <v>0.239866</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291793</v>
+        <v>0.300018</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.300913</v>
+        <v>0.302544</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378528</v>
+        <v>0.375909</v>
       </c>
       <c r="D125" t="n">
-        <v>0.701847</v>
+        <v>0.684239</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245558</v>
+        <v>0.243537</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302312</v>
+        <v>0.302546</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299484</v>
+        <v>0.302554</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384213</v>
+        <v>0.381002</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7203079999999999</v>
+        <v>0.701345</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24248</v>
+        <v>0.245988</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304154</v>
+        <v>0.302743</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323119</v>
+        <v>0.312714</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387554</v>
+        <v>0.387779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.729649</v>
+        <v>0.737592</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25037</v>
+        <v>0.247336</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305627</v>
+        <v>0.304897</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315066</v>
+        <v>0.307541</v>
       </c>
       <c r="C128" t="n">
-        <v>0.394337</v>
+        <v>0.396907</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759118</v>
+        <v>0.74866</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24956</v>
+        <v>0.244818</v>
       </c>
       <c r="F128" t="n">
-        <v>0.327057</v>
+        <v>0.314629</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313711</v>
+        <v>0.323594</v>
       </c>
       <c r="C129" t="n">
-        <v>0.412672</v>
+        <v>0.408615</v>
       </c>
       <c r="D129" t="n">
-        <v>0.795212</v>
+        <v>0.797037</v>
       </c>
       <c r="E129" t="n">
-        <v>0.244993</v>
+        <v>0.250147</v>
       </c>
       <c r="F129" t="n">
-        <v>0.319168</v>
+        <v>0.336492</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317592</v>
+        <v>0.3299</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418307</v>
+        <v>0.415421</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816229</v>
+        <v>0.818719</v>
       </c>
       <c r="E130" t="n">
-        <v>0.24865</v>
+        <v>0.250287</v>
       </c>
       <c r="F130" t="n">
-        <v>0.329529</v>
+        <v>0.328102</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.337821</v>
+        <v>0.333885</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431545</v>
+        <v>0.432476</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8317830000000001</v>
+        <v>0.862103</v>
       </c>
       <c r="E131" t="n">
-        <v>0.251304</v>
+        <v>0.265284</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333416</v>
+        <v>0.338619</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335238</v>
+        <v>0.336357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445206</v>
+        <v>0.443554</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869043</v>
+        <v>0.8724150000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.255367</v>
+        <v>0.258081</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342477</v>
+        <v>0.340057</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354488</v>
+        <v>0.352447</v>
       </c>
       <c r="C133" t="n">
-        <v>0.502782</v>
+        <v>0.462299</v>
       </c>
       <c r="D133" t="n">
-        <v>0.891855</v>
+        <v>0.899272</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260546</v>
+        <v>0.26635</v>
       </c>
       <c r="F133" t="n">
-        <v>0.350394</v>
+        <v>0.34859</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374687</v>
+        <v>0.363084</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498502</v>
+        <v>0.492518</v>
       </c>
       <c r="D134" t="n">
-        <v>0.947819</v>
+        <v>0.94284</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275867</v>
+        <v>0.277879</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364719</v>
+        <v>0.364822</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.392354</v>
+        <v>0.401132</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539395</v>
+        <v>0.550777</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769266</v>
+        <v>0.77229</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281317</v>
+        <v>0.292189</v>
       </c>
       <c r="F135" t="n">
-        <v>0.385169</v>
+        <v>0.391331</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434604</v>
+        <v>0.434501</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596301</v>
+        <v>0.5985780000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.826171</v>
+        <v>0.790997</v>
       </c>
       <c r="E136" t="n">
-        <v>0.300476</v>
+        <v>0.30128</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422452</v>
+        <v>0.43054</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511276</v>
+        <v>0.513103</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69603</v>
+        <v>0.705255</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827473</v>
+        <v>0.816806</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288913</v>
+        <v>0.289809</v>
       </c>
       <c r="F137" t="n">
-        <v>0.355419</v>
+        <v>0.351558</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367374</v>
+        <v>0.360846</v>
       </c>
       <c r="C138" t="n">
-        <v>0.438408</v>
+        <v>0.437894</v>
       </c>
       <c r="D138" t="n">
-        <v>0.845283</v>
+        <v>0.847677</v>
       </c>
       <c r="E138" t="n">
-        <v>0.290867</v>
+        <v>0.29249</v>
       </c>
       <c r="F138" t="n">
-        <v>0.350915</v>
+        <v>0.356372</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365175</v>
+        <v>0.368972</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44799</v>
+        <v>0.449219</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900519</v>
+        <v>0.882748</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297579</v>
+        <v>0.298037</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354805</v>
+        <v>0.356383</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367735</v>
+        <v>0.376311</v>
       </c>
       <c r="C140" t="n">
-        <v>0.463007</v>
+        <v>0.462153</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921688</v>
+        <v>0.915421</v>
       </c>
       <c r="E140" t="n">
-        <v>0.294614</v>
+        <v>0.30035</v>
       </c>
       <c r="F140" t="n">
-        <v>0.360806</v>
+        <v>0.361083</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373447</v>
+        <v>0.384832</v>
       </c>
       <c r="C141" t="n">
-        <v>0.466975</v>
+        <v>0.463989</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951329</v>
+        <v>0.940086</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296998</v>
+        <v>0.30228</v>
       </c>
       <c r="F141" t="n">
-        <v>0.377241</v>
+        <v>0.369245</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.382831</v>
+        <v>0.389162</v>
       </c>
       <c r="C142" t="n">
-        <v>0.466194</v>
+        <v>0.483785</v>
       </c>
       <c r="D142" t="n">
-        <v>0.981593</v>
+        <v>1.00114</v>
       </c>
       <c r="E142" t="n">
-        <v>0.301974</v>
+        <v>0.306565</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369876</v>
+        <v>0.374918</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381273</v>
+        <v>0.381597</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477303</v>
+        <v>0.501367</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01753</v>
+        <v>1.01381</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305317</v>
+        <v>0.304374</v>
       </c>
       <c r="F143" t="n">
-        <v>0.377078</v>
+        <v>0.382667</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0419326</v>
+        <v>0.0421416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041061</v>
+        <v>0.0430147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.111931</v>
+        <v>0.115139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0318866</v>
+        <v>0.0334869</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0326794</v>
+        <v>0.0327881</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043521</v>
+        <v>0.04333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0446736</v>
+        <v>0.0457654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.115352</v>
+        <v>0.118965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0326605</v>
+        <v>0.0335858</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0333517</v>
+        <v>0.0332871</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0478217</v>
+        <v>0.0463126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0474881</v>
+        <v>0.0486423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120456</v>
+        <v>0.124273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0330588</v>
+        <v>0.0344618</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0340799</v>
+        <v>0.0343303</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0511675</v>
+        <v>0.0522398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0534325</v>
+        <v>0.0562583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12251</v>
+        <v>0.129944</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0359934</v>
+        <v>0.0367999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0353803</v>
+        <v>0.03601</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0614527</v>
+        <v>0.0598078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06287</v>
+        <v>0.062061</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128737</v>
+        <v>0.135334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0401586</v>
+        <v>0.0425095</v>
       </c>
       <c r="F6" t="n">
-        <v>0.038552</v>
+        <v>0.0389399</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0720141</v>
+        <v>0.072225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0739645</v>
+        <v>0.07388260000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0967291</v>
+        <v>0.0968952</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0463369</v>
+        <v>0.0499139</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0451009</v>
+        <v>0.0456005</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09601419999999999</v>
+        <v>0.0934051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0975312</v>
+        <v>0.0932784</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0991335</v>
+        <v>0.09895080000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0596209</v>
+        <v>0.0620401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0573996</v>
+        <v>0.0569048</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.130685</v>
+        <v>0.124088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.125152</v>
+        <v>0.120663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104314</v>
+        <v>0.10441</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0300695</v>
+        <v>0.0302431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0339085</v>
+        <v>0.0333139</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.039097</v>
+        <v>0.0383904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04045</v>
+        <v>0.0398326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110145</v>
+        <v>0.108726</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0301556</v>
+        <v>0.0304439</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0331632</v>
+        <v>0.0325487</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0399668</v>
+        <v>0.0387587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0414029</v>
+        <v>0.0406295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112301</v>
+        <v>0.114473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0303658</v>
+        <v>0.030758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0330117</v>
+        <v>0.0330251</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0394523</v>
+        <v>0.0394145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0426479</v>
+        <v>0.0411207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119242</v>
+        <v>0.118439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0306031</v>
+        <v>0.0311673</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0336446</v>
+        <v>0.033526</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0398901</v>
+        <v>0.0402281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0423412</v>
+        <v>0.0427919</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124396</v>
+        <v>0.124061</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0307316</v>
+        <v>0.0315718</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0339743</v>
+        <v>0.0339587</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0422313</v>
+        <v>0.0410325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0431359</v>
+        <v>0.0435479</v>
       </c>
       <c r="D14" t="n">
-        <v>0.126972</v>
+        <v>0.127136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0314489</v>
+        <v>0.0318838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0346841</v>
+        <v>0.0345539</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0414351</v>
+        <v>0.0427237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0443722</v>
+        <v>0.0456236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.131264</v>
+        <v>0.130596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0319896</v>
+        <v>0.033462</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0359065</v>
+        <v>0.0349515</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0427999</v>
+        <v>0.0437835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0465507</v>
+        <v>0.0468859</v>
       </c>
       <c r="D16" t="n">
-        <v>0.132901</v>
+        <v>0.133863</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0332055</v>
+        <v>0.0347861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0368594</v>
+        <v>0.0358576</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0455833</v>
+        <v>0.0458577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0487841</v>
+        <v>0.0499879</v>
       </c>
       <c r="D17" t="n">
-        <v>0.136213</v>
+        <v>0.138847</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0335388</v>
+        <v>0.0359132</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0380343</v>
+        <v>0.0373307</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0492101</v>
+        <v>0.0484453</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0523798</v>
+        <v>0.0531819</v>
       </c>
       <c r="D18" t="n">
-        <v>0.139893</v>
+        <v>0.143844</v>
       </c>
       <c r="E18" t="n">
-        <v>0.034733</v>
+        <v>0.0383944</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0384048</v>
+        <v>0.0376324</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0538714</v>
+        <v>0.0530911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0609683</v>
+        <v>0.0579321</v>
       </c>
       <c r="D19" t="n">
-        <v>0.143298</v>
+        <v>0.151722</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0369549</v>
+        <v>0.03897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0404645</v>
+        <v>0.0394539</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0616015</v>
+        <v>0.0611628</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0658536</v>
+        <v>0.0641592</v>
       </c>
       <c r="D20" t="n">
-        <v>0.149934</v>
+        <v>0.152695</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0410812</v>
+        <v>0.0429124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.044443</v>
+        <v>0.0435144</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0721966</v>
+        <v>0.0739947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0795077</v>
+        <v>0.0775371</v>
       </c>
       <c r="D21" t="n">
-        <v>0.116018</v>
+        <v>0.106776</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0458459</v>
+        <v>0.0490395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0500036</v>
+        <v>0.0494942</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08916209999999999</v>
+        <v>0.0927941</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0931833</v>
+        <v>0.09247660000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.11302</v>
+        <v>0.112663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0572701</v>
+        <v>0.0601615</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0608219</v>
+        <v>0.0614877</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12137</v>
+        <v>0.121373</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121217</v>
+        <v>0.119533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.117564</v>
+        <v>0.118103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0303977</v>
+        <v>0.0307942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.035385</v>
+        <v>0.035084</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416934</v>
+        <v>0.0408293</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0467943</v>
+        <v>0.045025</v>
       </c>
       <c r="D24" t="n">
-        <v>0.123457</v>
+        <v>0.121817</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0308692</v>
+        <v>0.0308601</v>
       </c>
       <c r="F24" t="n">
-        <v>0.036058</v>
+        <v>0.0355653</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0418158</v>
+        <v>0.0411599</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0473928</v>
+        <v>0.0464722</v>
       </c>
       <c r="D25" t="n">
-        <v>0.129654</v>
+        <v>0.12737</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0308978</v>
+        <v>0.0313249</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0363965</v>
+        <v>0.03611</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0423645</v>
+        <v>0.0431703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0482178</v>
+        <v>0.0474155</v>
       </c>
       <c r="D26" t="n">
-        <v>0.130015</v>
+        <v>0.133556</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0310839</v>
+        <v>0.0324253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0371372</v>
+        <v>0.0367711</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0428398</v>
+        <v>0.0434751</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0494714</v>
+        <v>0.0484231</v>
       </c>
       <c r="D27" t="n">
-        <v>0.135385</v>
+        <v>0.138648</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0316914</v>
+        <v>0.0320814</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0388593</v>
+        <v>0.0374291</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0438141</v>
+        <v>0.0444827</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0513029</v>
+        <v>0.0500777</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141731</v>
+        <v>0.143405</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0319965</v>
+        <v>0.033013</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0389849</v>
+        <v>0.03874</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0448212</v>
+        <v>0.0451956</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0518623</v>
+        <v>0.0520759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.14471</v>
+        <v>0.150047</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0325346</v>
+        <v>0.0338281</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0396872</v>
+        <v>0.0401967</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0474548</v>
+        <v>0.046551</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538883</v>
+        <v>0.0537497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.147853</v>
+        <v>0.157296</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0332765</v>
+        <v>0.0349973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0407615</v>
+        <v>0.0404418</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0493892</v>
+        <v>0.0490308</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0579265</v>
+        <v>0.0567836</v>
       </c>
       <c r="D31" t="n">
-        <v>0.157972</v>
+        <v>0.157369</v>
       </c>
       <c r="E31" t="n">
-        <v>0.034169</v>
+        <v>0.0361284</v>
       </c>
       <c r="F31" t="n">
-        <v>0.042112</v>
+        <v>0.0418733</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0514968</v>
+        <v>0.0523876</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614788</v>
+        <v>0.0600729</v>
       </c>
       <c r="D32" t="n">
-        <v>0.165071</v>
+        <v>0.168153</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0355189</v>
+        <v>0.0369678</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0448193</v>
+        <v>0.0427975</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.058278</v>
+        <v>0.0559016</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0670456</v>
+        <v>0.063944</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171401</v>
+        <v>0.169902</v>
       </c>
       <c r="E33" t="n">
-        <v>0.037326</v>
+        <v>0.0388672</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0457547</v>
+        <v>0.0446793</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06376510000000001</v>
+        <v>0.06253599999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0724154</v>
+        <v>0.07109260000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18126</v>
+        <v>0.178797</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0410521</v>
+        <v>0.0426847</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0486314</v>
+        <v>0.0492925</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07340149999999999</v>
+        <v>0.0742225</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08171920000000001</v>
+        <v>0.0810414</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129816</v>
+        <v>0.125934</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0454196</v>
+        <v>0.0481424</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0542176</v>
+        <v>0.0539386</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0901115</v>
+        <v>0.0899766</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0994458</v>
+        <v>0.0971723</v>
       </c>
       <c r="D36" t="n">
-        <v>0.142528</v>
+        <v>0.139538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0562877</v>
+        <v>0.056755</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0624806</v>
+        <v>0.0633345</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.114953</v>
+        <v>0.112996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.123024</v>
+        <v>0.122537</v>
       </c>
       <c r="D37" t="n">
-        <v>0.144898</v>
+        <v>0.138971</v>
       </c>
       <c r="E37" t="n">
-        <v>0.033278</v>
+        <v>0.0338612</v>
       </c>
       <c r="F37" t="n">
-        <v>0.041973</v>
+        <v>0.0414693</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0456012</v>
+        <v>0.0456652</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0571583</v>
+        <v>0.0565017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153929</v>
+        <v>0.146075</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0352747</v>
+        <v>0.0340274</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0436589</v>
+        <v>0.0430224</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0462952</v>
+        <v>0.0459657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0589584</v>
+        <v>0.059704</v>
       </c>
       <c r="D39" t="n">
-        <v>0.157876</v>
+        <v>0.157533</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0343801</v>
+        <v>0.0351711</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0434144</v>
+        <v>0.0441673</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0473472</v>
+        <v>0.046987</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0605708</v>
+        <v>0.0603089</v>
       </c>
       <c r="D40" t="n">
-        <v>0.168561</v>
+        <v>0.163873</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0347345</v>
+        <v>0.0357163</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0441861</v>
+        <v>0.0449015</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0471762</v>
+        <v>0.0477279</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0611135</v>
+        <v>0.0625078</v>
       </c>
       <c r="D41" t="n">
-        <v>0.172503</v>
+        <v>0.172947</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0353308</v>
+        <v>0.0354842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0457366</v>
+        <v>0.0456704</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0480177</v>
+        <v>0.048906</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0646842</v>
+        <v>0.0639489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178538</v>
+        <v>0.182251</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0359764</v>
+        <v>0.0358373</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0469983</v>
+        <v>0.0468771</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0504297</v>
+        <v>0.0491943</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0645992</v>
+        <v>0.0648087</v>
       </c>
       <c r="D43" t="n">
-        <v>0.190554</v>
+        <v>0.190196</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0368809</v>
+        <v>0.0366888</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0479228</v>
+        <v>0.0477081</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508738</v>
+        <v>0.0504748</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0674823</v>
+        <v>0.067644</v>
       </c>
       <c r="D44" t="n">
-        <v>0.199888</v>
+        <v>0.201272</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0374126</v>
+        <v>0.0375875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0509712</v>
+        <v>0.0493043</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0541858</v>
+        <v>0.0526815</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0715273</v>
+        <v>0.0706133</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214083</v>
+        <v>0.214587</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0378592</v>
+        <v>0.039264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0507853</v>
+        <v>0.0512044</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0553472</v>
+        <v>0.0565584</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0742386</v>
+        <v>0.0745475</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222183</v>
+        <v>0.225162</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0402375</v>
+        <v>0.0396884</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0528133</v>
+        <v>0.0522777</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0613208</v>
+        <v>0.0593366</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0821949</v>
+        <v>0.0798654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.235234</v>
+        <v>0.241107</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0401741</v>
+        <v>0.0426358</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0553426</v>
+        <v>0.0553469</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0677304</v>
+        <v>0.067444</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0898386</v>
+        <v>0.0883777</v>
       </c>
       <c r="D48" t="n">
-        <v>0.262217</v>
+        <v>0.25765</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0433781</v>
+        <v>0.0452178</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0598233</v>
+        <v>0.0598434</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0765807</v>
+        <v>0.0756756</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0987833</v>
+        <v>0.0976727</v>
       </c>
       <c r="D49" t="n">
-        <v>0.273593</v>
+        <v>0.274073</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0472301</v>
+        <v>0.0497472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0634034</v>
+        <v>0.06505279999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0948695</v>
+        <v>0.09092169999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12002</v>
+        <v>0.114638</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216633</v>
+        <v>0.21452</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0549553</v>
+        <v>0.0570812</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07182719999999999</v>
+        <v>0.0726818</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116371</v>
+        <v>0.115492</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140236</v>
+        <v>0.138619</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226909</v>
+        <v>0.228426</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0407655</v>
+        <v>0.0409048</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0517007</v>
+        <v>0.0519826</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.155484</v>
+        <v>0.153982</v>
       </c>
       <c r="C52" t="n">
-        <v>0.181102</v>
+        <v>0.175527</v>
       </c>
       <c r="D52" t="n">
-        <v>0.248373</v>
+        <v>0.240281</v>
       </c>
       <c r="E52" t="n">
-        <v>0.041049</v>
+        <v>0.0415659</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0549353</v>
+        <v>0.0533189</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0558807</v>
+        <v>0.0571012</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0757989</v>
+        <v>0.07434499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254446</v>
+        <v>0.255765</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0416224</v>
+        <v>0.0415548</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05542</v>
+        <v>0.0535092</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0567211</v>
+        <v>0.0562446</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07723530000000001</v>
+        <v>0.0769418</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267287</v>
+        <v>0.267399</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0421637</v>
+        <v>0.0419417</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0564169</v>
+        <v>0.0542209</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0585103</v>
+        <v>0.0572175</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0775903</v>
+        <v>0.0782866</v>
       </c>
       <c r="D55" t="n">
-        <v>0.287952</v>
+        <v>0.28063</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0423642</v>
+        <v>0.0425347</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0557743</v>
+        <v>0.0552974</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0579648</v>
+        <v>0.0583014</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0808608</v>
+        <v>0.07992</v>
       </c>
       <c r="D56" t="n">
-        <v>0.314998</v>
+        <v>0.297322</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0436866</v>
+        <v>0.0428257</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0592238</v>
+        <v>0.0568384</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0595424</v>
+        <v>0.0596542</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08361499999999999</v>
+        <v>0.08136939999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314512</v>
+        <v>0.313688</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0434009</v>
+        <v>0.0439842</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0598766</v>
+        <v>0.0580112</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0617841</v>
+        <v>0.0615303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0906633</v>
+        <v>0.0856954</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331687</v>
+        <v>0.335439</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0454638</v>
+        <v>0.0451353</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0606179</v>
+        <v>0.0598602</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06348529999999999</v>
+        <v>0.0634226</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08922670000000001</v>
+        <v>0.08929960000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.353528</v>
+        <v>0.355123</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0454686</v>
+        <v>0.046187</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0645363</v>
+        <v>0.0617199</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0663135</v>
+        <v>0.06625060000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09407889999999999</v>
+        <v>0.09351520000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.367552</v>
+        <v>0.367882</v>
       </c>
       <c r="E60" t="n">
-        <v>0.046934</v>
+        <v>0.0477625</v>
       </c>
       <c r="F60" t="n">
-        <v>0.064364</v>
+        <v>0.0639202</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0701181</v>
+        <v>0.0696063</v>
       </c>
       <c r="C61" t="n">
-        <v>0.100927</v>
+        <v>0.0985417</v>
       </c>
       <c r="D61" t="n">
-        <v>0.389134</v>
+        <v>0.390756</v>
       </c>
       <c r="E61" t="n">
-        <v>0.050234</v>
+        <v>0.0506</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06754930000000001</v>
+        <v>0.0676805</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07517600000000001</v>
+        <v>0.0757555</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10826</v>
+        <v>0.106128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.410195</v>
+        <v>0.407212</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0528538</v>
+        <v>0.0527114</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07106030000000001</v>
+        <v>0.0706006</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0835383</v>
+        <v>0.0834438</v>
       </c>
       <c r="C63" t="n">
-        <v>0.120547</v>
+        <v>0.118876</v>
       </c>
       <c r="D63" t="n">
-        <v>0.435926</v>
+        <v>0.434111</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0570212</v>
+        <v>0.05793</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0771766</v>
+        <v>0.0782635</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0981817</v>
+        <v>0.09655710000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134712</v>
+        <v>0.134445</v>
       </c>
       <c r="D64" t="n">
-        <v>0.338976</v>
+        <v>0.340472</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0623353</v>
+        <v>0.0645361</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0855408</v>
+        <v>0.0880582</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11824</v>
+        <v>0.118674</v>
       </c>
       <c r="C65" t="n">
-        <v>0.165849</v>
+        <v>0.165232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.35063</v>
+        <v>0.365569</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0732874</v>
+        <v>0.0756129</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0991264</v>
+        <v>0.098977</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156785</v>
+        <v>0.153718</v>
       </c>
       <c r="C66" t="n">
-        <v>0.209743</v>
+        <v>0.210555</v>
       </c>
       <c r="D66" t="n">
-        <v>0.368663</v>
+        <v>0.378388</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0465476</v>
+        <v>0.0466819</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0608012</v>
+        <v>0.0594277</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0660791</v>
+        <v>0.0637717</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0881763</v>
+        <v>0.08761770000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.386685</v>
+        <v>0.390814</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0478942</v>
+        <v>0.0466565</v>
       </c>
       <c r="F67" t="n">
-        <v>0.061583</v>
+        <v>0.0606219</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0677141</v>
+        <v>0.0654522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.093227</v>
+        <v>0.0914191</v>
       </c>
       <c r="D68" t="n">
-        <v>0.404665</v>
+        <v>0.405912</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0489798</v>
+        <v>0.0474525</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0656852</v>
+        <v>0.0618902</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0669178</v>
+        <v>0.0660505</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954578</v>
+        <v>0.0956342</v>
       </c>
       <c r="D69" t="n">
-        <v>0.431479</v>
+        <v>0.425615</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0483209</v>
+        <v>0.0485639</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0644098</v>
+        <v>0.0642264</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0688317</v>
+        <v>0.0682165</v>
       </c>
       <c r="C70" t="n">
-        <v>0.100608</v>
+        <v>0.0995853</v>
       </c>
       <c r="D70" t="n">
-        <v>0.440622</v>
+        <v>0.450959</v>
       </c>
       <c r="E70" t="n">
-        <v>0.048834</v>
+        <v>0.0488538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.065443</v>
+        <v>0.0651543</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0698675</v>
+        <v>0.0682933</v>
       </c>
       <c r="C71" t="n">
-        <v>0.104356</v>
+        <v>0.101885</v>
       </c>
       <c r="D71" t="n">
-        <v>0.455843</v>
+        <v>0.44263</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497001</v>
+        <v>0.0497856</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0682604</v>
+        <v>0.0663218</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.070826</v>
+        <v>0.0703728</v>
       </c>
       <c r="C72" t="n">
-        <v>0.106238</v>
+        <v>0.107704</v>
       </c>
       <c r="D72" t="n">
-        <v>0.473159</v>
+        <v>0.502681</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0508301</v>
+        <v>0.0519368</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0715322</v>
+        <v>0.06957670000000001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0734094</v>
+        <v>0.0741552</v>
       </c>
       <c r="C73" t="n">
-        <v>0.109423</v>
+        <v>0.117379</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486852</v>
+        <v>0.500821</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0520206</v>
+        <v>0.0524022</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07446170000000001</v>
+        <v>0.07369249999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0776012</v>
+        <v>0.0776497</v>
       </c>
       <c r="C74" t="n">
-        <v>0.116547</v>
+        <v>0.119971</v>
       </c>
       <c r="D74" t="n">
-        <v>0.513006</v>
+        <v>0.500607</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0543375</v>
+        <v>0.0572574</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07589129999999999</v>
+        <v>0.077538</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0810241</v>
+        <v>0.08451599999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.125514</v>
+        <v>0.127966</v>
       </c>
       <c r="D75" t="n">
-        <v>0.522693</v>
+        <v>0.540266</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0556298</v>
+        <v>0.0578479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07885789999999999</v>
+        <v>0.0837825</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08606709999999999</v>
+        <v>0.0892939</v>
       </c>
       <c r="C76" t="n">
-        <v>0.135757</v>
+        <v>0.142613</v>
       </c>
       <c r="D76" t="n">
-        <v>0.541067</v>
+        <v>0.553959</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0633672</v>
+        <v>0.0608464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08399429999999999</v>
+        <v>0.08900089999999999</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0952892</v>
+        <v>0.09755809999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.152518</v>
+        <v>0.149888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.565935</v>
+        <v>0.593689</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0643053</v>
+        <v>0.06661160000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0922906</v>
+        <v>0.0923341</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110449</v>
+        <v>0.118532</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176679</v>
+        <v>0.171279</v>
       </c>
       <c r="D78" t="n">
-        <v>0.440034</v>
+        <v>0.440671</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07208390000000001</v>
+        <v>0.07410750000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106622</v>
+        <v>0.107869</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.132448</v>
+        <v>0.128648</v>
       </c>
       <c r="C79" t="n">
-        <v>0.218481</v>
+        <v>0.203582</v>
       </c>
       <c r="D79" t="n">
-        <v>0.457582</v>
+        <v>0.45157</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0837247</v>
+        <v>0.0850606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.120599</v>
+        <v>0.11818</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170986</v>
+        <v>0.164666</v>
       </c>
       <c r="C80" t="n">
-        <v>0.261572</v>
+        <v>0.248516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.483632</v>
+        <v>0.462832</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0534804</v>
+        <v>0.0519516</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0725454</v>
+        <v>0.0687683</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0813181</v>
+        <v>0.0802959</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112544</v>
+        <v>0.112285</v>
       </c>
       <c r="D81" t="n">
-        <v>0.482333</v>
+        <v>0.493141</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0524731</v>
+        <v>0.0518925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07262440000000001</v>
+        <v>0.0744431</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0777446</v>
+        <v>0.0776071</v>
       </c>
       <c r="C82" t="n">
-        <v>0.122474</v>
+        <v>0.118255</v>
       </c>
       <c r="D82" t="n">
-        <v>0.491345</v>
+        <v>0.5160940000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.053584</v>
+        <v>0.0539889</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0771361</v>
+        <v>0.075571</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07772</v>
+        <v>0.07967399999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.12502</v>
+        <v>0.121452</v>
       </c>
       <c r="D83" t="n">
-        <v>0.526462</v>
+        <v>0.526626</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0573356</v>
+        <v>0.055578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0841147</v>
+        <v>0.079195</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0809368</v>
+        <v>0.0880459</v>
       </c>
       <c r="C84" t="n">
-        <v>0.126241</v>
+        <v>0.127741</v>
       </c>
       <c r="D84" t="n">
-        <v>0.525293</v>
+        <v>0.541412</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0561831</v>
+        <v>0.0627074</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0813599</v>
+        <v>0.08130569999999999</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08395</v>
+        <v>0.0836861</v>
       </c>
       <c r="C85" t="n">
-        <v>0.134375</v>
+        <v>0.132881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.563466</v>
+        <v>0.548736</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0589562</v>
+        <v>0.0589214</v>
       </c>
       <c r="F85" t="n">
-        <v>0.085259</v>
+        <v>0.0888558</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.08802740000000001</v>
+        <v>0.0864528</v>
       </c>
       <c r="C86" t="n">
-        <v>0.140513</v>
+        <v>0.141214</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5672469999999999</v>
+        <v>0.577255</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0614364</v>
+        <v>0.0663773</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0899443</v>
+        <v>0.0887597</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0912794</v>
+        <v>0.0904402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.147429</v>
+        <v>0.147309</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586334</v>
+        <v>0.593394</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0619475</v>
+        <v>0.062899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0936506</v>
+        <v>0.0953397</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0944871</v>
+        <v>0.0943881</v>
       </c>
       <c r="C88" t="n">
-        <v>0.155837</v>
+        <v>0.16238</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6049909999999999</v>
+        <v>0.608353</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06483120000000001</v>
+        <v>0.06634370000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0990515</v>
+        <v>0.097591</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.10073</v>
+        <v>0.100258</v>
       </c>
       <c r="C89" t="n">
-        <v>0.16574</v>
+        <v>0.168967</v>
       </c>
       <c r="D89" t="n">
-        <v>0.631435</v>
+        <v>0.6374570000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0685019</v>
+        <v>0.0699323</v>
       </c>
       <c r="F89" t="n">
-        <v>0.103285</v>
+        <v>0.105744</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.107717</v>
+        <v>0.108889</v>
       </c>
       <c r="C90" t="n">
-        <v>0.175381</v>
+        <v>0.17421</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641899</v>
+        <v>0.668281</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0731897</v>
+        <v>0.0723741</v>
       </c>
       <c r="F90" t="n">
-        <v>0.113116</v>
+        <v>0.11316</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11678</v>
+        <v>0.118625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.188562</v>
+        <v>0.192432</v>
       </c>
       <c r="D91" t="n">
-        <v>0.668639</v>
+        <v>0.671396</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0786393</v>
+        <v>0.0796543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119086</v>
+        <v>0.119451</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.13714</v>
+        <v>0.132317</v>
       </c>
       <c r="C92" t="n">
-        <v>0.213533</v>
+        <v>0.209772</v>
       </c>
       <c r="D92" t="n">
-        <v>0.499524</v>
+        <v>0.511034</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0862092</v>
+        <v>0.08687590000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.132519</v>
+        <v>0.131733</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.148598</v>
+        <v>0.15409</v>
       </c>
       <c r="C93" t="n">
-        <v>0.251503</v>
+        <v>0.255797</v>
       </c>
       <c r="D93" t="n">
-        <v>0.533352</v>
+        <v>0.514602</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0962638</v>
+        <v>0.0981596</v>
       </c>
       <c r="F93" t="n">
-        <v>0.144873</v>
+        <v>0.143449</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.184915</v>
+        <v>0.181951</v>
       </c>
       <c r="C94" t="n">
-        <v>0.298754</v>
+        <v>0.291032</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5246420000000001</v>
+        <v>0.537942</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07155300000000001</v>
+        <v>0.0715431</v>
       </c>
       <c r="F94" t="n">
-        <v>0.105776</v>
+        <v>0.104116</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.104394</v>
+        <v>0.102965</v>
       </c>
       <c r="C95" t="n">
-        <v>0.157884</v>
+        <v>0.157315</v>
       </c>
       <c r="D95" t="n">
-        <v>0.540621</v>
+        <v>0.5519269999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0734137</v>
+        <v>0.07378709999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.107893</v>
+        <v>0.110747</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.104488</v>
+        <v>0.103906</v>
       </c>
       <c r="C96" t="n">
-        <v>0.159992</v>
+        <v>0.161769</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5633629999999999</v>
+        <v>0.582073</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0757352</v>
+        <v>0.07645399999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109884</v>
+        <v>0.110506</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.10642</v>
+        <v>0.105005</v>
       </c>
       <c r="C97" t="n">
-        <v>0.168006</v>
+        <v>0.168118</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585874</v>
+        <v>0.592655</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0768997</v>
+        <v>0.0761782</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113218</v>
+        <v>0.11793</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.108033</v>
+        <v>0.110158</v>
       </c>
       <c r="C98" t="n">
-        <v>0.17367</v>
+        <v>0.171616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.605974</v>
+        <v>0.596557</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0797693</v>
+        <v>0.0790284</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117459</v>
+        <v>0.118219</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.113053</v>
+        <v>0.113022</v>
       </c>
       <c r="C99" t="n">
-        <v>0.186681</v>
+        <v>0.179751</v>
       </c>
       <c r="D99" t="n">
-        <v>0.613124</v>
+        <v>0.625059</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0813416</v>
+        <v>0.08554970000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.12143</v>
+        <v>0.120081</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119681</v>
+        <v>0.121928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.183773</v>
+        <v>0.189741</v>
       </c>
       <c r="D100" t="n">
-        <v>0.655971</v>
+        <v>0.629907</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08256189999999999</v>
+        <v>0.0827755</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129355</v>
+        <v>0.124228</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.119464</v>
+        <v>0.12082</v>
       </c>
       <c r="C101" t="n">
-        <v>0.192837</v>
+        <v>0.194849</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669548</v>
+        <v>0.657148</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0853532</v>
+        <v>0.0835124</v>
       </c>
       <c r="F101" t="n">
-        <v>0.130953</v>
+        <v>0.130613</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.125468</v>
+        <v>0.123253</v>
       </c>
       <c r="C102" t="n">
-        <v>0.207537</v>
+        <v>0.198752</v>
       </c>
       <c r="D102" t="n">
-        <v>0.67481</v>
+        <v>0.685585</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0871972</v>
+        <v>0.0884775</v>
       </c>
       <c r="F102" t="n">
-        <v>0.132725</v>
+        <v>0.137898</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.131896</v>
+        <v>0.12914</v>
       </c>
       <c r="C103" t="n">
-        <v>0.211293</v>
+        <v>0.222113</v>
       </c>
       <c r="D103" t="n">
-        <v>0.700851</v>
+        <v>0.747565</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0916795</v>
+        <v>0.0927096</v>
       </c>
       <c r="F103" t="n">
-        <v>0.139301</v>
+        <v>0.140634</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.135228</v>
+        <v>0.135694</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21874</v>
+        <v>0.223117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.704311</v>
+        <v>0.717731</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0940091</v>
+        <v>0.09463340000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.153014</v>
+        <v>0.145159</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.146351</v>
+        <v>0.145752</v>
       </c>
       <c r="C105" t="n">
-        <v>0.242862</v>
+        <v>0.238913</v>
       </c>
       <c r="D105" t="n">
-        <v>0.73763</v>
+        <v>0.734771</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995414</v>
+        <v>0.102345</v>
       </c>
       <c r="F105" t="n">
-        <v>0.161432</v>
+        <v>0.15646</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.16145</v>
+        <v>0.160467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.260126</v>
+        <v>0.268321</v>
       </c>
       <c r="D106" t="n">
-        <v>0.765292</v>
+        <v>0.764258</v>
       </c>
       <c r="E106" t="n">
-        <v>0.108745</v>
+        <v>0.107444</v>
       </c>
       <c r="F106" t="n">
-        <v>0.166506</v>
+        <v>0.164998</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.179054</v>
+        <v>0.179143</v>
       </c>
       <c r="C107" t="n">
-        <v>0.299353</v>
+        <v>0.30087</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555319</v>
+        <v>0.603146</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117858</v>
+        <v>0.123301</v>
       </c>
       <c r="F107" t="n">
-        <v>0.184954</v>
+        <v>0.181945</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212897</v>
+        <v>0.216707</v>
       </c>
       <c r="C108" t="n">
-        <v>0.351272</v>
+        <v>0.344339</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583106</v>
+        <v>0.614446</v>
       </c>
       <c r="E108" t="n">
-        <v>0.150431</v>
+        <v>0.151316</v>
       </c>
       <c r="F108" t="n">
-        <v>0.192261</v>
+        <v>0.189259</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.279921</v>
+        <v>0.267253</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429852</v>
+        <v>0.433073</v>
       </c>
       <c r="D109" t="n">
-        <v>0.590584</v>
+        <v>0.6211950000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.154637</v>
+        <v>0.164405</v>
       </c>
       <c r="F109" t="n">
-        <v>0.193875</v>
+        <v>0.200273</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.192711</v>
+        <v>0.187708</v>
       </c>
       <c r="C110" t="n">
-        <v>0.252026</v>
+        <v>0.25971</v>
       </c>
       <c r="D110" t="n">
-        <v>0.616175</v>
+        <v>0.607011</v>
       </c>
       <c r="E110" t="n">
-        <v>0.153805</v>
+        <v>0.151814</v>
       </c>
       <c r="F110" t="n">
-        <v>0.199481</v>
+        <v>0.210392</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.187287</v>
+        <v>0.191118</v>
       </c>
       <c r="C111" t="n">
-        <v>0.272309</v>
+        <v>0.277396</v>
       </c>
       <c r="D111" t="n">
-        <v>0.621634</v>
+        <v>0.628403</v>
       </c>
       <c r="E111" t="n">
-        <v>0.152196</v>
+        <v>0.155583</v>
       </c>
       <c r="F111" t="n">
-        <v>0.219699</v>
+        <v>0.196841</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.187744</v>
+        <v>0.198768</v>
       </c>
       <c r="C112" t="n">
-        <v>0.260315</v>
+        <v>0.26644</v>
       </c>
       <c r="D112" t="n">
-        <v>0.636161</v>
+        <v>0.651776</v>
       </c>
       <c r="E112" t="n">
-        <v>0.155866</v>
+        <v>0.163893</v>
       </c>
       <c r="F112" t="n">
-        <v>0.207213</v>
+        <v>0.20556</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.187495</v>
+        <v>0.192006</v>
       </c>
       <c r="C113" t="n">
-        <v>0.269883</v>
+        <v>0.271896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.660319</v>
+        <v>0.719103</v>
       </c>
       <c r="E113" t="n">
-        <v>0.161112</v>
+        <v>0.15675</v>
       </c>
       <c r="F113" t="n">
-        <v>0.205827</v>
+        <v>0.20473</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.206767</v>
+        <v>0.201376</v>
       </c>
       <c r="C114" t="n">
-        <v>0.278871</v>
+        <v>0.302951</v>
       </c>
       <c r="D114" t="n">
-        <v>0.686999</v>
+        <v>0.709738</v>
       </c>
       <c r="E114" t="n">
-        <v>0.164345</v>
+        <v>0.159879</v>
       </c>
       <c r="F114" t="n">
-        <v>0.21125</v>
+        <v>0.226252</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196403</v>
+        <v>0.199611</v>
       </c>
       <c r="C115" t="n">
-        <v>0.286472</v>
+        <v>0.29548</v>
       </c>
       <c r="D115" t="n">
-        <v>0.70351</v>
+        <v>0.696391</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161858</v>
+        <v>0.161611</v>
       </c>
       <c r="F115" t="n">
-        <v>0.219588</v>
+        <v>0.223202</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.200347</v>
+        <v>0.221433</v>
       </c>
       <c r="C116" t="n">
-        <v>0.295298</v>
+        <v>0.295073</v>
       </c>
       <c r="D116" t="n">
-        <v>0.737611</v>
+        <v>0.719361</v>
       </c>
       <c r="E116" t="n">
-        <v>0.171964</v>
+        <v>0.161677</v>
       </c>
       <c r="F116" t="n">
-        <v>0.228292</v>
+        <v>0.220816</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.217363</v>
+        <v>0.209893</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312792</v>
+        <v>0.308774</v>
       </c>
       <c r="D117" t="n">
-        <v>0.751323</v>
+        <v>0.74752</v>
       </c>
       <c r="E117" t="n">
-        <v>0.167142</v>
+        <v>0.167792</v>
       </c>
       <c r="F117" t="n">
-        <v>0.22566</v>
+        <v>0.244879</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217454</v>
+        <v>0.223139</v>
       </c>
       <c r="C118" t="n">
-        <v>0.338194</v>
+        <v>0.352074</v>
       </c>
       <c r="D118" t="n">
-        <v>0.80449</v>
+        <v>0.7913559999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173523</v>
+        <v>0.171426</v>
       </c>
       <c r="F118" t="n">
-        <v>0.240674</v>
+        <v>0.237862</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.226572</v>
+        <v>0.227263</v>
       </c>
       <c r="C119" t="n">
-        <v>0.344936</v>
+        <v>0.340694</v>
       </c>
       <c r="D119" t="n">
-        <v>0.791351</v>
+        <v>0.792122</v>
       </c>
       <c r="E119" t="n">
-        <v>0.184068</v>
+        <v>0.182061</v>
       </c>
       <c r="F119" t="n">
-        <v>0.244755</v>
+        <v>0.240183</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.24242</v>
+        <v>0.26227</v>
       </c>
       <c r="C120" t="n">
-        <v>0.366597</v>
+        <v>0.366357</v>
       </c>
       <c r="D120" t="n">
-        <v>0.807796</v>
+        <v>0.817194</v>
       </c>
       <c r="E120" t="n">
-        <v>0.198154</v>
+        <v>0.178209</v>
       </c>
       <c r="F120" t="n">
-        <v>0.256041</v>
+        <v>0.256319</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.263099</v>
+        <v>0.262251</v>
       </c>
       <c r="C121" t="n">
-        <v>0.409688</v>
+        <v>0.428485</v>
       </c>
       <c r="D121" t="n">
-        <v>0.607249</v>
+        <v>0.629835</v>
       </c>
       <c r="E121" t="n">
-        <v>0.192472</v>
+        <v>0.188127</v>
       </c>
       <c r="F121" t="n">
-        <v>0.277853</v>
+        <v>0.273883</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.290767</v>
+        <v>0.307203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.46708</v>
+        <v>0.466962</v>
       </c>
       <c r="D122" t="n">
-        <v>0.629629</v>
+        <v>0.64946</v>
       </c>
       <c r="E122" t="n">
-        <v>0.207504</v>
+        <v>0.215228</v>
       </c>
       <c r="F122" t="n">
-        <v>0.304615</v>
+        <v>0.298443</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.350619</v>
+        <v>0.380962</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580058</v>
+        <v>0.576787</v>
       </c>
       <c r="D123" t="n">
-        <v>0.647481</v>
+        <v>0.657101</v>
       </c>
       <c r="E123" t="n">
-        <v>0.243798</v>
+        <v>0.235728</v>
       </c>
       <c r="F123" t="n">
-        <v>0.313456</v>
+        <v>0.292393</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295966</v>
+        <v>0.296615</v>
       </c>
       <c r="C124" t="n">
-        <v>0.369661</v>
+        <v>0.365815</v>
       </c>
       <c r="D124" t="n">
-        <v>0.666938</v>
+        <v>0.6700159999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.239866</v>
+        <v>0.240502</v>
       </c>
       <c r="F124" t="n">
-        <v>0.300018</v>
+        <v>0.297035</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.302544</v>
+        <v>0.302913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.375909</v>
+        <v>0.377189</v>
       </c>
       <c r="D125" t="n">
-        <v>0.684239</v>
+        <v>0.719031</v>
       </c>
       <c r="E125" t="n">
-        <v>0.243537</v>
+        <v>0.243556</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302546</v>
+        <v>0.297358</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.302554</v>
+        <v>0.307828</v>
       </c>
       <c r="C126" t="n">
-        <v>0.381002</v>
+        <v>0.389367</v>
       </c>
       <c r="D126" t="n">
-        <v>0.701345</v>
+        <v>0.713179</v>
       </c>
       <c r="E126" t="n">
-        <v>0.245988</v>
+        <v>0.246046</v>
       </c>
       <c r="F126" t="n">
-        <v>0.302743</v>
+        <v>0.301516</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.312714</v>
+        <v>0.307093</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387779</v>
+        <v>0.404679</v>
       </c>
       <c r="D127" t="n">
-        <v>0.737592</v>
+        <v>0.751966</v>
       </c>
       <c r="E127" t="n">
-        <v>0.247336</v>
+        <v>0.250454</v>
       </c>
       <c r="F127" t="n">
-        <v>0.304897</v>
+        <v>0.324162</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.307541</v>
+        <v>0.315596</v>
       </c>
       <c r="C128" t="n">
-        <v>0.396907</v>
+        <v>0.398455</v>
       </c>
       <c r="D128" t="n">
-        <v>0.74866</v>
+        <v>0.772763</v>
       </c>
       <c r="E128" t="n">
-        <v>0.244818</v>
+        <v>0.257219</v>
       </c>
       <c r="F128" t="n">
-        <v>0.314629</v>
+        <v>0.324073</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.323594</v>
+        <v>0.325625</v>
       </c>
       <c r="C129" t="n">
-        <v>0.408615</v>
+        <v>0.422625</v>
       </c>
       <c r="D129" t="n">
-        <v>0.797037</v>
+        <v>0.808582</v>
       </c>
       <c r="E129" t="n">
-        <v>0.250147</v>
+        <v>0.257466</v>
       </c>
       <c r="F129" t="n">
-        <v>0.336492</v>
+        <v>0.338751</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3299</v>
+        <v>0.3241</v>
       </c>
       <c r="C130" t="n">
-        <v>0.415421</v>
+        <v>0.422716</v>
       </c>
       <c r="D130" t="n">
-        <v>0.818719</v>
+        <v>0.824759</v>
       </c>
       <c r="E130" t="n">
-        <v>0.250287</v>
+        <v>0.259873</v>
       </c>
       <c r="F130" t="n">
-        <v>0.328102</v>
+        <v>0.330058</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.333885</v>
+        <v>0.340034</v>
       </c>
       <c r="C131" t="n">
-        <v>0.432476</v>
+        <v>0.43192</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862103</v>
+        <v>0.8611760000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.265284</v>
+        <v>0.261036</v>
       </c>
       <c r="F131" t="n">
-        <v>0.338619</v>
+        <v>0.331145</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.336357</v>
+        <v>0.35073</v>
       </c>
       <c r="C132" t="n">
-        <v>0.443554</v>
+        <v>0.45197</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8724150000000001</v>
+        <v>0.884664</v>
       </c>
       <c r="E132" t="n">
-        <v>0.258081</v>
+        <v>0.258753</v>
       </c>
       <c r="F132" t="n">
-        <v>0.340057</v>
+        <v>0.338467</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.352447</v>
+        <v>0.357429</v>
       </c>
       <c r="C133" t="n">
-        <v>0.462299</v>
+        <v>0.465211</v>
       </c>
       <c r="D133" t="n">
-        <v>0.899272</v>
+        <v>0.923674</v>
       </c>
       <c r="E133" t="n">
-        <v>0.26635</v>
+        <v>0.263722</v>
       </c>
       <c r="F133" t="n">
-        <v>0.34859</v>
+        <v>0.348252</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.363084</v>
+        <v>0.369824</v>
       </c>
       <c r="C134" t="n">
-        <v>0.492518</v>
+        <v>0.509072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.94284</v>
+        <v>0.942617</v>
       </c>
       <c r="E134" t="n">
-        <v>0.277879</v>
+        <v>0.283775</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364822</v>
+        <v>0.361717</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.401132</v>
+        <v>0.395302</v>
       </c>
       <c r="C135" t="n">
-        <v>0.550777</v>
+        <v>0.530544</v>
       </c>
       <c r="D135" t="n">
-        <v>0.77229</v>
+        <v>0.7860549999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.292189</v>
+        <v>0.283369</v>
       </c>
       <c r="F135" t="n">
-        <v>0.391331</v>
+        <v>0.380656</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434501</v>
+        <v>0.437816</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5985780000000001</v>
+        <v>0.598202</v>
       </c>
       <c r="D136" t="n">
-        <v>0.790997</v>
+        <v>0.796768</v>
       </c>
       <c r="E136" t="n">
-        <v>0.30128</v>
+        <v>0.309302</v>
       </c>
       <c r="F136" t="n">
-        <v>0.43054</v>
+        <v>0.408197</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.513103</v>
+        <v>0.513223</v>
       </c>
       <c r="C137" t="n">
-        <v>0.705255</v>
+        <v>0.710742</v>
       </c>
       <c r="D137" t="n">
-        <v>0.816806</v>
+        <v>0.830149</v>
       </c>
       <c r="E137" t="n">
-        <v>0.289809</v>
+        <v>0.302674</v>
       </c>
       <c r="F137" t="n">
-        <v>0.351558</v>
+        <v>0.344906</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.360846</v>
+        <v>0.363147</v>
       </c>
       <c r="C138" t="n">
-        <v>0.437894</v>
+        <v>0.436054</v>
       </c>
       <c r="D138" t="n">
-        <v>0.847677</v>
+        <v>0.863895</v>
       </c>
       <c r="E138" t="n">
-        <v>0.29249</v>
+        <v>0.293181</v>
       </c>
       <c r="F138" t="n">
-        <v>0.356372</v>
+        <v>0.348349</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.368972</v>
+        <v>0.372632</v>
       </c>
       <c r="C139" t="n">
-        <v>0.449219</v>
+        <v>0.443542</v>
       </c>
       <c r="D139" t="n">
-        <v>0.882748</v>
+        <v>0.886728</v>
       </c>
       <c r="E139" t="n">
-        <v>0.298037</v>
+        <v>0.295013</v>
       </c>
       <c r="F139" t="n">
-        <v>0.356383</v>
+        <v>0.358146</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.376311</v>
+        <v>0.376527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.462153</v>
+        <v>0.462309</v>
       </c>
       <c r="D140" t="n">
-        <v>0.915421</v>
+        <v>0.913519</v>
       </c>
       <c r="E140" t="n">
-        <v>0.30035</v>
+        <v>0.296585</v>
       </c>
       <c r="F140" t="n">
-        <v>0.361083</v>
+        <v>0.35982</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.384832</v>
+        <v>0.377383</v>
       </c>
       <c r="C141" t="n">
-        <v>0.463989</v>
+        <v>0.456898</v>
       </c>
       <c r="D141" t="n">
-        <v>0.940086</v>
+        <v>0.945451</v>
       </c>
       <c r="E141" t="n">
-        <v>0.30228</v>
+        <v>0.304919</v>
       </c>
       <c r="F141" t="n">
-        <v>0.369245</v>
+        <v>0.363876</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.389162</v>
+        <v>0.377283</v>
       </c>
       <c r="C142" t="n">
-        <v>0.483785</v>
+        <v>0.471576</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00114</v>
+        <v>0.990258</v>
       </c>
       <c r="E142" t="n">
-        <v>0.306565</v>
+        <v>0.300428</v>
       </c>
       <c r="F142" t="n">
-        <v>0.374918</v>
+        <v>0.370976</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381597</v>
+        <v>0.388776</v>
       </c>
       <c r="C143" t="n">
-        <v>0.501367</v>
+        <v>0.494693</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01381</v>
+        <v>1.02161</v>
       </c>
       <c r="E143" t="n">
-        <v>0.304374</v>
+        <v>0.306488</v>
       </c>
       <c r="F143" t="n">
-        <v>0.382667</v>
+        <v>0.38546</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0421416</v>
+        <v>0.0402418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0430147</v>
+        <v>0.0411476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.115139</v>
+        <v>0.110756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0334869</v>
+        <v>0.0365242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327881</v>
+        <v>0.0370446</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04333</v>
+        <v>0.0415244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0457654</v>
+        <v>0.0440071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.118965</v>
+        <v>0.117928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0335858</v>
+        <v>0.0367767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0332871</v>
+        <v>0.0391522</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0463126</v>
+        <v>0.0439391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0486423</v>
+        <v>0.0471677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124273</v>
+        <v>0.124565</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0344618</v>
+        <v>0.03901</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0343303</v>
+        <v>0.0385629</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0522398</v>
+        <v>0.0487072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0562583</v>
+        <v>0.0502564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129944</v>
+        <v>0.124428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0367999</v>
+        <v>0.0392769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03601</v>
+        <v>0.0415872</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0598078</v>
+        <v>0.0567622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.062061</v>
+        <v>0.0592669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.135334</v>
+        <v>0.127592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0425095</v>
+        <v>0.0458263</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389399</v>
+        <v>0.0470066</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.072225</v>
+        <v>0.0712385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07388260000000001</v>
+        <v>0.07281849999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0968952</v>
+        <v>0.0935831</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0499139</v>
+        <v>0.0552019</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456005</v>
+        <v>0.0542679</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0934051</v>
+        <v>0.0894949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0932784</v>
+        <v>0.0884233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09895080000000001</v>
+        <v>0.100799</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0620401</v>
+        <v>0.065609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0569048</v>
+        <v>0.06451990000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124088</v>
+        <v>0.11971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120663</v>
+        <v>0.114561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10441</v>
+        <v>0.104321</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0302431</v>
+        <v>0.0340353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0333139</v>
+        <v>0.0360526</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0383904</v>
+        <v>0.0395855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0398326</v>
+        <v>0.0415888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.108726</v>
+        <v>0.106589</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0304439</v>
+        <v>0.034629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0325487</v>
+        <v>0.0364275</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0387587</v>
+        <v>0.0388672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0406295</v>
+        <v>0.0424391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.114473</v>
+        <v>0.115286</v>
       </c>
       <c r="E11" t="n">
-        <v>0.030758</v>
+        <v>0.0345396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0330251</v>
+        <v>0.0369046</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0394145</v>
+        <v>0.0390815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0411207</v>
+        <v>0.0424407</v>
       </c>
       <c r="D12" t="n">
-        <v>0.118439</v>
+        <v>0.116749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0311673</v>
+        <v>0.0348318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033526</v>
+        <v>0.0394719</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0402281</v>
+        <v>0.0409335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0427919</v>
+        <v>0.0425954</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124061</v>
+        <v>0.1234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0315718</v>
+        <v>0.0346947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0339587</v>
+        <v>0.0371905</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0410325</v>
+        <v>0.0412527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0435479</v>
+        <v>0.0440109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.127136</v>
+        <v>0.126398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0318838</v>
+        <v>0.035367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0345539</v>
+        <v>0.0380789</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0427237</v>
+        <v>0.0426344</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0456236</v>
+        <v>0.0454545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.130596</v>
+        <v>0.128947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.033462</v>
+        <v>0.035599</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0349515</v>
+        <v>0.0389894</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0437835</v>
+        <v>0.0430486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0468859</v>
+        <v>0.0475803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.133863</v>
+        <v>0.131042</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0347861</v>
+        <v>0.0380481</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0358576</v>
+        <v>0.0394966</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0458577</v>
+        <v>0.0450098</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0499879</v>
+        <v>0.0493675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.138847</v>
+        <v>0.133325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0359132</v>
+        <v>0.0377576</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373307</v>
+        <v>0.0409557</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0484453</v>
+        <v>0.0473721</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0531819</v>
+        <v>0.0513895</v>
       </c>
       <c r="D18" t="n">
-        <v>0.143844</v>
+        <v>0.138231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0383944</v>
+        <v>0.0410019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0376324</v>
+        <v>0.0436369</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0530911</v>
+        <v>0.0540615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579321</v>
+        <v>0.0589931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151722</v>
+        <v>0.141947</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03897</v>
+        <v>0.0417272</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0394539</v>
+        <v>0.0440811</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0611628</v>
+        <v>0.0619597</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0641592</v>
+        <v>0.06503100000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.152695</v>
+        <v>0.14713</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0429124</v>
+        <v>0.0454474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0435144</v>
+        <v>0.050421</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0739947</v>
+        <v>0.0772933</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0775371</v>
+        <v>0.0772775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106776</v>
+        <v>0.109609</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0490395</v>
+        <v>0.0522043</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0494942</v>
+        <v>0.056604</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0927941</v>
+        <v>0.09273770000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09247660000000001</v>
+        <v>0.09699049999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112663</v>
+        <v>0.115944</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0601615</v>
+        <v>0.0649419</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0614877</v>
+        <v>0.06763520000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121373</v>
+        <v>0.123247</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119533</v>
+        <v>0.121935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118103</v>
+        <v>0.122774</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0307942</v>
+        <v>0.0356929</v>
       </c>
       <c r="F23" t="n">
-        <v>0.035084</v>
+        <v>0.0388163</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0408293</v>
+        <v>0.0425571</v>
       </c>
       <c r="C24" t="n">
-        <v>0.045025</v>
+        <v>0.0466877</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121817</v>
+        <v>0.121192</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0308601</v>
+        <v>0.0364969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0355653</v>
+        <v>0.0390708</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0411599</v>
+        <v>0.0426296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0464722</v>
+        <v>0.0468754</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12737</v>
+        <v>0.127907</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0313249</v>
+        <v>0.0347632</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03611</v>
+        <v>0.0404469</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0431703</v>
+        <v>0.0424531</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0474155</v>
+        <v>0.0491593</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133556</v>
+        <v>0.13192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0324253</v>
+        <v>0.0373098</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0367711</v>
+        <v>0.0407813</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0434751</v>
+        <v>0.0430301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0484231</v>
+        <v>0.0516245</v>
       </c>
       <c r="D27" t="n">
-        <v>0.138648</v>
+        <v>0.136388</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0320814</v>
+        <v>0.0355936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0374291</v>
+        <v>0.0412059</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0444827</v>
+        <v>0.0457311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0500777</v>
+        <v>0.0507612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.143405</v>
+        <v>0.141533</v>
       </c>
       <c r="E28" t="n">
-        <v>0.033013</v>
+        <v>0.0357707</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03874</v>
+        <v>0.0414579</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0451956</v>
+        <v>0.0457926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0520759</v>
+        <v>0.0531448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.150047</v>
+        <v>0.144964</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0338281</v>
+        <v>0.0372561</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0401967</v>
+        <v>0.0420238</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.046551</v>
+        <v>0.0476908</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0537497</v>
+        <v>0.0543959</v>
       </c>
       <c r="D30" t="n">
-        <v>0.157296</v>
+        <v>0.155876</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349973</v>
+        <v>0.0373069</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0404418</v>
+        <v>0.0441091</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0490308</v>
+        <v>0.0501738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0567836</v>
+        <v>0.0595374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.157369</v>
+        <v>0.155773</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0361284</v>
+        <v>0.0404076</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0418733</v>
+        <v>0.0448399</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0523876</v>
+        <v>0.0540813</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0600729</v>
+        <v>0.0608567</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168153</v>
+        <v>0.156894</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0369678</v>
+        <v>0.0409243</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0427975</v>
+        <v>0.0467158</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0559016</v>
+        <v>0.0592119</v>
       </c>
       <c r="C33" t="n">
-        <v>0.063944</v>
+        <v>0.066473</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169902</v>
+        <v>0.165718</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0388672</v>
+        <v>0.0441975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0446793</v>
+        <v>0.048565</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06253599999999999</v>
+        <v>0.0627809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07109260000000001</v>
+        <v>0.0719451</v>
       </c>
       <c r="D34" t="n">
-        <v>0.178797</v>
+        <v>0.164969</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0426847</v>
+        <v>0.0488217</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0492925</v>
+        <v>0.0538422</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0742225</v>
+        <v>0.0745706</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0810414</v>
+        <v>0.0835362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.125934</v>
+        <v>0.126073</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0481424</v>
+        <v>0.0530464</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0539386</v>
+        <v>0.0584987</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0899766</v>
+        <v>0.0878073</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0971723</v>
+        <v>0.100576</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139538</v>
+        <v>0.13335</v>
       </c>
       <c r="E36" t="n">
-        <v>0.056755</v>
+        <v>0.0640546</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0633345</v>
+        <v>0.0669255</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.112996</v>
+        <v>0.115116</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122537</v>
+        <v>0.125958</v>
       </c>
       <c r="D37" t="n">
-        <v>0.138971</v>
+        <v>0.143043</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0338612</v>
+        <v>0.0378474</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0414693</v>
+        <v>0.0450561</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0456652</v>
+        <v>0.0480851</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565017</v>
+        <v>0.0577019</v>
       </c>
       <c r="D38" t="n">
-        <v>0.146075</v>
+        <v>0.147229</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0340274</v>
+        <v>0.0392428</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0430224</v>
+        <v>0.0458006</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0459657</v>
+        <v>0.047969</v>
       </c>
       <c r="C39" t="n">
-        <v>0.059704</v>
+        <v>0.0597985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.157533</v>
+        <v>0.157521</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0351711</v>
+        <v>0.040413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0441673</v>
+        <v>0.0471397</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.046987</v>
+        <v>0.0477452</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0603089</v>
+        <v>0.0598006</v>
       </c>
       <c r="D40" t="n">
-        <v>0.163873</v>
+        <v>0.160997</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0357163</v>
+        <v>0.0387171</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0449015</v>
+        <v>0.0480503</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0477279</v>
+        <v>0.0489954</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0625078</v>
+        <v>0.06434049999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.172947</v>
+        <v>0.172967</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0354842</v>
+        <v>0.040506</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0456704</v>
+        <v>0.049008</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.048906</v>
+        <v>0.0499043</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0639489</v>
+        <v>0.0679554</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182251</v>
+        <v>0.183569</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0358373</v>
+        <v>0.0392651</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0468771</v>
+        <v>0.0500531</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0491943</v>
+        <v>0.050536</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0648087</v>
+        <v>0.0673772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.190196</v>
+        <v>0.196021</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0366888</v>
+        <v>0.0395988</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0477081</v>
+        <v>0.0510221</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0504748</v>
+        <v>0.055083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.067644</v>
+        <v>0.0684746</v>
       </c>
       <c r="D44" t="n">
-        <v>0.201272</v>
+        <v>0.205921</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0375875</v>
+        <v>0.0412357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0493043</v>
+        <v>0.053063</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0526815</v>
+        <v>0.056918</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0706133</v>
+        <v>0.0729597</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214587</v>
+        <v>0.225247</v>
       </c>
       <c r="E45" t="n">
-        <v>0.039264</v>
+        <v>0.0423458</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0512044</v>
+        <v>0.0539555</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0565584</v>
+        <v>0.0584832</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0745475</v>
+        <v>0.0758205</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225162</v>
+        <v>0.228426</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0396884</v>
+        <v>0.0449995</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0522777</v>
+        <v>0.0564667</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0593366</v>
+        <v>0.0618877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0798654</v>
+        <v>0.0813012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241107</v>
+        <v>0.240549</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0426358</v>
+        <v>0.0469657</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0553469</v>
+        <v>0.0614631</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.067444</v>
+        <v>0.0673981</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0883777</v>
+        <v>0.0949729</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25765</v>
+        <v>0.269158</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0452178</v>
+        <v>0.049746</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0598434</v>
+        <v>0.0661402</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0756756</v>
+        <v>0.0788194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0976727</v>
+        <v>0.101527</v>
       </c>
       <c r="D49" t="n">
-        <v>0.274073</v>
+        <v>0.276186</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0497472</v>
+        <v>0.0526906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06505279999999999</v>
+        <v>0.0713604</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09092169999999999</v>
+        <v>0.09395920000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114638</v>
+        <v>0.114076</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21452</v>
+        <v>0.218643</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0570812</v>
+        <v>0.0612441</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0726818</v>
+        <v>0.07847659999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.115492</v>
+        <v>0.115629</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138619</v>
+        <v>0.136679</v>
       </c>
       <c r="D51" t="n">
-        <v>0.228426</v>
+        <v>0.228848</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0409048</v>
+        <v>0.0435355</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0519826</v>
+        <v>0.0570684</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.153982</v>
+        <v>0.153494</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175527</v>
+        <v>0.181175</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240281</v>
+        <v>0.243734</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0415659</v>
+        <v>0.0449573</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0533189</v>
+        <v>0.0561789</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0571012</v>
+        <v>0.0558346</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07434499999999999</v>
+        <v>0.0748153</v>
       </c>
       <c r="D53" t="n">
-        <v>0.255765</v>
+        <v>0.253423</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0415548</v>
+        <v>0.0467458</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0535092</v>
+        <v>0.0571056</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0562446</v>
+        <v>0.0567388</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0769418</v>
+        <v>0.0783036</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267399</v>
+        <v>0.284289</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0419417</v>
+        <v>0.0462983</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0542209</v>
+        <v>0.0596719</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0572175</v>
+        <v>0.0576349</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0782866</v>
+        <v>0.0783182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.28063</v>
+        <v>0.294534</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0425347</v>
+        <v>0.0458267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0552974</v>
+        <v>0.0595879</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0583014</v>
+        <v>0.0584342</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07992</v>
+        <v>0.0820587</v>
       </c>
       <c r="D56" t="n">
-        <v>0.297322</v>
+        <v>0.315833</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0428257</v>
+        <v>0.0468944</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0568384</v>
+        <v>0.0652822</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0596542</v>
+        <v>0.0594852</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08136939999999999</v>
+        <v>0.0839323</v>
       </c>
       <c r="D57" t="n">
-        <v>0.313688</v>
+        <v>0.318576</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0439842</v>
+        <v>0.0478614</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0580112</v>
+        <v>0.0630424</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0615303</v>
+        <v>0.06315320000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0856954</v>
+        <v>0.0874351</v>
       </c>
       <c r="D58" t="n">
-        <v>0.335439</v>
+        <v>0.339194</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0451353</v>
+        <v>0.0485075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0598602</v>
+        <v>0.06358469999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0634226</v>
+        <v>0.0636056</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08929960000000001</v>
+        <v>0.0950684</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355123</v>
+        <v>0.358492</v>
       </c>
       <c r="E59" t="n">
-        <v>0.046187</v>
+        <v>0.0494075</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0617199</v>
+        <v>0.0670312</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06625060000000001</v>
+        <v>0.0687845</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09351520000000001</v>
+        <v>0.0998503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.367882</v>
+        <v>0.378657</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0477625</v>
+        <v>0.050708</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0639202</v>
+        <v>0.0683068</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0696063</v>
+        <v>0.0715759</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0985417</v>
+        <v>0.100516</v>
       </c>
       <c r="D61" t="n">
-        <v>0.390756</v>
+        <v>0.408208</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0506</v>
+        <v>0.0544874</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0676805</v>
+        <v>0.0710485</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0757555</v>
+        <v>0.078695</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106128</v>
+        <v>0.108259</v>
       </c>
       <c r="D62" t="n">
-        <v>0.407212</v>
+        <v>0.408737</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0527114</v>
+        <v>0.0569249</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0706006</v>
+        <v>0.0760233</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0834438</v>
+        <v>0.0854816</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118876</v>
+        <v>0.121621</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434111</v>
+        <v>0.448398</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05793</v>
+        <v>0.0607892</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0782635</v>
+        <v>0.0857087</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09655710000000001</v>
+        <v>0.100419</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134445</v>
+        <v>0.135858</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340472</v>
+        <v>0.348226</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0645361</v>
+        <v>0.067929</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0880582</v>
+        <v>0.08944630000000001</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118674</v>
+        <v>0.11973</v>
       </c>
       <c r="C65" t="n">
-        <v>0.165232</v>
+        <v>0.164638</v>
       </c>
       <c r="D65" t="n">
-        <v>0.365569</v>
+        <v>0.356788</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0756129</v>
+        <v>0.0796587</v>
       </c>
       <c r="F65" t="n">
-        <v>0.098977</v>
+        <v>0.103548</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.153718</v>
+        <v>0.154856</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210555</v>
+        <v>0.207713</v>
       </c>
       <c r="D66" t="n">
-        <v>0.378388</v>
+        <v>0.375703</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0466819</v>
+        <v>0.0497803</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0594277</v>
+        <v>0.0629323</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0637717</v>
+        <v>0.0665129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08761770000000001</v>
+        <v>0.0878955</v>
       </c>
       <c r="D67" t="n">
-        <v>0.390814</v>
+        <v>0.388154</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0466565</v>
+        <v>0.0507904</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0606219</v>
+        <v>0.0653372</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0654522</v>
+        <v>0.0681591</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0914191</v>
+        <v>0.0920849</v>
       </c>
       <c r="D68" t="n">
-        <v>0.405912</v>
+        <v>0.408622</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0474525</v>
+        <v>0.0525262</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0618902</v>
+        <v>0.06745080000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0660505</v>
+        <v>0.0657693</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0956342</v>
+        <v>0.09576320000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.425615</v>
+        <v>0.428314</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0485639</v>
+        <v>0.0517683</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0642264</v>
+        <v>0.06763760000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0682165</v>
+        <v>0.067397</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0995853</v>
+        <v>0.0992287</v>
       </c>
       <c r="D70" t="n">
-        <v>0.450959</v>
+        <v>0.446394</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0488538</v>
+        <v>0.0528277</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0651543</v>
+        <v>0.0724745</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0682933</v>
+        <v>0.0703281</v>
       </c>
       <c r="C71" t="n">
-        <v>0.101885</v>
+        <v>0.100048</v>
       </c>
       <c r="D71" t="n">
-        <v>0.44263</v>
+        <v>0.465112</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497856</v>
+        <v>0.0544403</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0663218</v>
+        <v>0.0729144</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0703728</v>
+        <v>0.07334309999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107704</v>
+        <v>0.114332</v>
       </c>
       <c r="D72" t="n">
-        <v>0.502681</v>
+        <v>0.489794</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0519368</v>
+        <v>0.0553938</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06957670000000001</v>
+        <v>0.074575</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0741552</v>
+        <v>0.0765673</v>
       </c>
       <c r="C73" t="n">
-        <v>0.117379</v>
+        <v>0.111792</v>
       </c>
       <c r="D73" t="n">
-        <v>0.500821</v>
+        <v>0.497196</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0524022</v>
+        <v>0.0581836</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07369249999999999</v>
+        <v>0.0760754</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0776497</v>
+        <v>0.0771221</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119971</v>
+        <v>0.123801</v>
       </c>
       <c r="D74" t="n">
-        <v>0.500607</v>
+        <v>0.522274</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0572574</v>
+        <v>0.0571748</v>
       </c>
       <c r="F74" t="n">
-        <v>0.077538</v>
+        <v>0.0806703</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08451599999999999</v>
+        <v>0.0853536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.127966</v>
+        <v>0.128599</v>
       </c>
       <c r="D75" t="n">
-        <v>0.540266</v>
+        <v>0.540259</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0578479</v>
+        <v>0.060446</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0837825</v>
+        <v>0.0832348</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0892939</v>
+        <v>0.0894055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142613</v>
+        <v>0.142783</v>
       </c>
       <c r="D76" t="n">
-        <v>0.553959</v>
+        <v>0.549396</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0608464</v>
+        <v>0.0643963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08900089999999999</v>
+        <v>0.09112480000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09755809999999999</v>
+        <v>0.09866270000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.149888</v>
+        <v>0.155543</v>
       </c>
       <c r="D77" t="n">
-        <v>0.593689</v>
+        <v>0.571655</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06661160000000001</v>
+        <v>0.0678294</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0923341</v>
+        <v>0.101405</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.118532</v>
+        <v>0.111953</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171279</v>
+        <v>0.177914</v>
       </c>
       <c r="D78" t="n">
-        <v>0.440671</v>
+        <v>0.462889</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07410750000000001</v>
+        <v>0.0773668</v>
       </c>
       <c r="F78" t="n">
-        <v>0.107869</v>
+        <v>0.112866</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.128648</v>
+        <v>0.131025</v>
       </c>
       <c r="C79" t="n">
-        <v>0.203582</v>
+        <v>0.214524</v>
       </c>
       <c r="D79" t="n">
-        <v>0.45157</v>
+        <v>0.474732</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0850606</v>
+        <v>0.09040189999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.11818</v>
+        <v>0.123468</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164666</v>
+        <v>0.172403</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248516</v>
+        <v>0.257113</v>
       </c>
       <c r="D80" t="n">
-        <v>0.462832</v>
+        <v>0.487771</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0519516</v>
+        <v>0.0571411</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0687683</v>
+        <v>0.07553550000000001</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0802959</v>
+        <v>0.0763336</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112285</v>
+        <v>0.11484</v>
       </c>
       <c r="D81" t="n">
-        <v>0.493141</v>
+        <v>0.519123</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0518925</v>
+        <v>0.0575574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0744431</v>
+        <v>0.0812006</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0776071</v>
+        <v>0.0796941</v>
       </c>
       <c r="C82" t="n">
-        <v>0.118255</v>
+        <v>0.123332</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5160940000000001</v>
+        <v>0.512837</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0539889</v>
+        <v>0.0568395</v>
       </c>
       <c r="F82" t="n">
-        <v>0.075571</v>
+        <v>0.07961360000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07967399999999999</v>
+        <v>0.0808263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.121452</v>
+        <v>0.127045</v>
       </c>
       <c r="D83" t="n">
-        <v>0.526626</v>
+        <v>0.532759</v>
       </c>
       <c r="E83" t="n">
-        <v>0.055578</v>
+        <v>0.0604219</v>
       </c>
       <c r="F83" t="n">
-        <v>0.079195</v>
+        <v>0.08593729999999999</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0880459</v>
+        <v>0.082177</v>
       </c>
       <c r="C84" t="n">
-        <v>0.127741</v>
+        <v>0.136984</v>
       </c>
       <c r="D84" t="n">
-        <v>0.541412</v>
+        <v>0.552607</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0627074</v>
+        <v>0.0605976</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08130569999999999</v>
+        <v>0.08779389999999999</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0836861</v>
+        <v>0.0902198</v>
       </c>
       <c r="C85" t="n">
-        <v>0.132881</v>
+        <v>0.142131</v>
       </c>
       <c r="D85" t="n">
-        <v>0.548736</v>
+        <v>0.562173</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0589214</v>
+        <v>0.0628285</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0888558</v>
+        <v>0.0920749</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0864528</v>
+        <v>0.089599</v>
       </c>
       <c r="C86" t="n">
-        <v>0.141214</v>
+        <v>0.149478</v>
       </c>
       <c r="D86" t="n">
-        <v>0.577255</v>
+        <v>0.58779</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0663773</v>
+        <v>0.0676167</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0887597</v>
+        <v>0.0928609</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0904402</v>
+        <v>0.0984679</v>
       </c>
       <c r="C87" t="n">
-        <v>0.147309</v>
+        <v>0.150887</v>
       </c>
       <c r="D87" t="n">
-        <v>0.593394</v>
+        <v>0.593396</v>
       </c>
       <c r="E87" t="n">
-        <v>0.062899</v>
+        <v>0.0668212</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0953397</v>
+        <v>0.100393</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0943881</v>
+        <v>0.0966447</v>
       </c>
       <c r="C88" t="n">
-        <v>0.16238</v>
+        <v>0.163292</v>
       </c>
       <c r="D88" t="n">
-        <v>0.608353</v>
+        <v>0.633728</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06634370000000001</v>
+        <v>0.071272</v>
       </c>
       <c r="F88" t="n">
-        <v>0.097591</v>
+        <v>0.105694</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.100258</v>
+        <v>0.101941</v>
       </c>
       <c r="C89" t="n">
-        <v>0.168967</v>
+        <v>0.174266</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6374570000000001</v>
+        <v>0.631259</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0699323</v>
+        <v>0.0736464</v>
       </c>
       <c r="F89" t="n">
-        <v>0.105744</v>
+        <v>0.107878</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.108889</v>
+        <v>0.11037</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17421</v>
+        <v>0.182384</v>
       </c>
       <c r="D90" t="n">
-        <v>0.668281</v>
+        <v>0.650157</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0723741</v>
+        <v>0.0789687</v>
       </c>
       <c r="F90" t="n">
-        <v>0.11316</v>
+        <v>0.116681</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.118625</v>
+        <v>0.11792</v>
       </c>
       <c r="C91" t="n">
-        <v>0.192432</v>
+        <v>0.205488</v>
       </c>
       <c r="D91" t="n">
-        <v>0.671396</v>
+        <v>0.680878</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0796543</v>
+        <v>0.0832726</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119451</v>
+        <v>0.126485</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.132317</v>
+        <v>0.132977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.209772</v>
+        <v>0.216732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.511034</v>
+        <v>0.521848</v>
       </c>
       <c r="E92" t="n">
-        <v>0.08687590000000001</v>
+        <v>0.0914624</v>
       </c>
       <c r="F92" t="n">
-        <v>0.131733</v>
+        <v>0.140083</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.15409</v>
+        <v>0.157799</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255797</v>
+        <v>0.247359</v>
       </c>
       <c r="D93" t="n">
-        <v>0.514602</v>
+        <v>0.533861</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0981596</v>
+        <v>0.101967</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143449</v>
+        <v>0.1576</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.181951</v>
+        <v>0.186336</v>
       </c>
       <c r="C94" t="n">
-        <v>0.291032</v>
+        <v>0.299611</v>
       </c>
       <c r="D94" t="n">
-        <v>0.537942</v>
+        <v>0.551044</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0715431</v>
+        <v>0.0757977</v>
       </c>
       <c r="F94" t="n">
-        <v>0.104116</v>
+        <v>0.111754</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.102965</v>
+        <v>0.1053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.157315</v>
+        <v>0.165709</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5519269999999999</v>
+        <v>0.55043</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07378709999999999</v>
+        <v>0.0789219</v>
       </c>
       <c r="F95" t="n">
-        <v>0.110747</v>
+        <v>0.112894</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.103906</v>
+        <v>0.105614</v>
       </c>
       <c r="C96" t="n">
-        <v>0.161769</v>
+        <v>0.164404</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582073</v>
+        <v>0.58083</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07645399999999999</v>
+        <v>0.07897800000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.110506</v>
+        <v>0.115392</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.105005</v>
+        <v>0.108247</v>
       </c>
       <c r="C97" t="n">
-        <v>0.168118</v>
+        <v>0.1731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592655</v>
+        <v>0.590148</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0761782</v>
+        <v>0.08244609999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.11793</v>
+        <v>0.124138</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.110158</v>
+        <v>0.110435</v>
       </c>
       <c r="C98" t="n">
-        <v>0.171616</v>
+        <v>0.174045</v>
       </c>
       <c r="D98" t="n">
-        <v>0.596557</v>
+        <v>0.614748</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0790284</v>
+        <v>0.0839517</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118219</v>
+        <v>0.120452</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.113022</v>
+        <v>0.11539</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179751</v>
+        <v>0.182506</v>
       </c>
       <c r="D99" t="n">
-        <v>0.625059</v>
+        <v>0.63</v>
       </c>
       <c r="E99" t="n">
-        <v>0.08554970000000001</v>
+        <v>0.0864158</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120081</v>
+        <v>0.130211</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121928</v>
+        <v>0.118051</v>
       </c>
       <c r="C100" t="n">
-        <v>0.189741</v>
+        <v>0.18806</v>
       </c>
       <c r="D100" t="n">
-        <v>0.629907</v>
+        <v>0.66274</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0827755</v>
+        <v>0.0879298</v>
       </c>
       <c r="F100" t="n">
-        <v>0.124228</v>
+        <v>0.132122</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.12082</v>
+        <v>0.121596</v>
       </c>
       <c r="C101" t="n">
-        <v>0.194849</v>
+        <v>0.197525</v>
       </c>
       <c r="D101" t="n">
-        <v>0.657148</v>
+        <v>0.666429</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0835124</v>
+        <v>0.0941418</v>
       </c>
       <c r="F101" t="n">
-        <v>0.130613</v>
+        <v>0.135178</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.123253</v>
+        <v>0.125757</v>
       </c>
       <c r="C102" t="n">
-        <v>0.198752</v>
+        <v>0.210936</v>
       </c>
       <c r="D102" t="n">
-        <v>0.685585</v>
+        <v>0.716708</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0884775</v>
+        <v>0.0922202</v>
       </c>
       <c r="F102" t="n">
-        <v>0.137898</v>
+        <v>0.142234</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.12914</v>
+        <v>0.129948</v>
       </c>
       <c r="C103" t="n">
-        <v>0.222113</v>
+        <v>0.215821</v>
       </c>
       <c r="D103" t="n">
-        <v>0.747565</v>
+        <v>0.71297</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0927096</v>
+        <v>0.09404129999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.140634</v>
+        <v>0.148133</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.135694</v>
+        <v>0.136682</v>
       </c>
       <c r="C104" t="n">
-        <v>0.223117</v>
+        <v>0.22708</v>
       </c>
       <c r="D104" t="n">
-        <v>0.717731</v>
+        <v>0.735172</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09463340000000001</v>
+        <v>0.100028</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145159</v>
+        <v>0.163332</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.145752</v>
+        <v>0.150393</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238913</v>
+        <v>0.248129</v>
       </c>
       <c r="D105" t="n">
-        <v>0.734771</v>
+        <v>0.758646</v>
       </c>
       <c r="E105" t="n">
-        <v>0.102345</v>
+        <v>0.10526</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15646</v>
+        <v>0.169244</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.160467</v>
+        <v>0.157547</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268321</v>
+        <v>0.264547</v>
       </c>
       <c r="D106" t="n">
-        <v>0.764258</v>
+        <v>0.790698</v>
       </c>
       <c r="E106" t="n">
-        <v>0.107444</v>
+        <v>0.112706</v>
       </c>
       <c r="F106" t="n">
-        <v>0.164998</v>
+        <v>0.182226</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.179143</v>
+        <v>0.183385</v>
       </c>
       <c r="C107" t="n">
-        <v>0.30087</v>
+        <v>0.30313</v>
       </c>
       <c r="D107" t="n">
-        <v>0.603146</v>
+        <v>0.605008</v>
       </c>
       <c r="E107" t="n">
-        <v>0.123301</v>
+        <v>0.129888</v>
       </c>
       <c r="F107" t="n">
-        <v>0.181945</v>
+        <v>0.195215</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.216707</v>
+        <v>0.217324</v>
       </c>
       <c r="C108" t="n">
-        <v>0.344339</v>
+        <v>0.361303</v>
       </c>
       <c r="D108" t="n">
-        <v>0.614446</v>
+        <v>0.588314</v>
       </c>
       <c r="E108" t="n">
-        <v>0.151316</v>
+        <v>0.155437</v>
       </c>
       <c r="F108" t="n">
-        <v>0.189259</v>
+        <v>0.196639</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.267253</v>
+        <v>0.27561</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433073</v>
+        <v>0.459908</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6211950000000001</v>
+        <v>0.604004</v>
       </c>
       <c r="E109" t="n">
-        <v>0.164405</v>
+        <v>0.163013</v>
       </c>
       <c r="F109" t="n">
-        <v>0.200273</v>
+        <v>0.203017</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.187708</v>
+        <v>0.204556</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25971</v>
+        <v>0.261136</v>
       </c>
       <c r="D110" t="n">
-        <v>0.607011</v>
+        <v>0.682065</v>
       </c>
       <c r="E110" t="n">
-        <v>0.151814</v>
+        <v>0.174642</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210392</v>
+        <v>0.20345</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.191118</v>
+        <v>0.191089</v>
       </c>
       <c r="C111" t="n">
-        <v>0.277396</v>
+        <v>0.276909</v>
       </c>
       <c r="D111" t="n">
-        <v>0.628403</v>
+        <v>0.678297</v>
       </c>
       <c r="E111" t="n">
-        <v>0.155583</v>
+        <v>0.172554</v>
       </c>
       <c r="F111" t="n">
-        <v>0.196841</v>
+        <v>0.206308</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.198768</v>
+        <v>0.193286</v>
       </c>
       <c r="C112" t="n">
-        <v>0.26644</v>
+        <v>0.277555</v>
       </c>
       <c r="D112" t="n">
-        <v>0.651776</v>
+        <v>0.708122</v>
       </c>
       <c r="E112" t="n">
-        <v>0.163893</v>
+        <v>0.166703</v>
       </c>
       <c r="F112" t="n">
-        <v>0.20556</v>
+        <v>0.215061</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.192006</v>
+        <v>0.20372</v>
       </c>
       <c r="C113" t="n">
-        <v>0.271896</v>
+        <v>0.280884</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719103</v>
+        <v>0.744341</v>
       </c>
       <c r="E113" t="n">
-        <v>0.15675</v>
+        <v>0.165875</v>
       </c>
       <c r="F113" t="n">
-        <v>0.20473</v>
+        <v>0.236446</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.201376</v>
+        <v>0.209967</v>
       </c>
       <c r="C114" t="n">
-        <v>0.302951</v>
+        <v>0.294294</v>
       </c>
       <c r="D114" t="n">
-        <v>0.709738</v>
+        <v>0.694955</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159879</v>
+        <v>0.167917</v>
       </c>
       <c r="F114" t="n">
-        <v>0.226252</v>
+        <v>0.218763</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199611</v>
+        <v>0.204531</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29548</v>
+        <v>0.294629</v>
       </c>
       <c r="D115" t="n">
-        <v>0.696391</v>
+        <v>0.714051</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161611</v>
+        <v>0.16938</v>
       </c>
       <c r="F115" t="n">
-        <v>0.223202</v>
+        <v>0.226896</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.221433</v>
+        <v>0.222794</v>
       </c>
       <c r="C116" t="n">
-        <v>0.295073</v>
+        <v>0.309903</v>
       </c>
       <c r="D116" t="n">
-        <v>0.719361</v>
+        <v>0.794859</v>
       </c>
       <c r="E116" t="n">
-        <v>0.161677</v>
+        <v>0.184137</v>
       </c>
       <c r="F116" t="n">
-        <v>0.220816</v>
+        <v>0.246483</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.209893</v>
+        <v>0.220098</v>
       </c>
       <c r="C117" t="n">
-        <v>0.308774</v>
+        <v>0.314749</v>
       </c>
       <c r="D117" t="n">
-        <v>0.74752</v>
+        <v>0.7599590000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.167792</v>
+        <v>0.17084</v>
       </c>
       <c r="F117" t="n">
-        <v>0.244879</v>
+        <v>0.246413</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.223139</v>
+        <v>0.220606</v>
       </c>
       <c r="C118" t="n">
-        <v>0.352074</v>
+        <v>0.33003</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7913559999999999</v>
+        <v>0.860839</v>
       </c>
       <c r="E118" t="n">
-        <v>0.171426</v>
+        <v>0.175506</v>
       </c>
       <c r="F118" t="n">
-        <v>0.237862</v>
+        <v>0.245713</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.227263</v>
+        <v>0.23206</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340694</v>
+        <v>0.348801</v>
       </c>
       <c r="D119" t="n">
-        <v>0.792122</v>
+        <v>0.809721</v>
       </c>
       <c r="E119" t="n">
-        <v>0.182061</v>
+        <v>0.182943</v>
       </c>
       <c r="F119" t="n">
-        <v>0.240183</v>
+        <v>0.263395</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26227</v>
+        <v>0.254996</v>
       </c>
       <c r="C120" t="n">
-        <v>0.366357</v>
+        <v>0.381067</v>
       </c>
       <c r="D120" t="n">
-        <v>0.817194</v>
+        <v>0.82538</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178209</v>
+        <v>0.190467</v>
       </c>
       <c r="F120" t="n">
-        <v>0.256319</v>
+        <v>0.266233</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.262251</v>
+        <v>0.2748</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428485</v>
+        <v>0.426118</v>
       </c>
       <c r="D121" t="n">
-        <v>0.629835</v>
+        <v>0.668215</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188127</v>
+        <v>0.20685</v>
       </c>
       <c r="F121" t="n">
-        <v>0.273883</v>
+        <v>0.296267</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307203</v>
+        <v>0.303121</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466962</v>
+        <v>0.479346</v>
       </c>
       <c r="D122" t="n">
-        <v>0.64946</v>
+        <v>0.658929</v>
       </c>
       <c r="E122" t="n">
-        <v>0.215228</v>
+        <v>0.216313</v>
       </c>
       <c r="F122" t="n">
-        <v>0.298443</v>
+        <v>0.327321</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.380962</v>
+        <v>0.37442</v>
       </c>
       <c r="C123" t="n">
-        <v>0.576787</v>
+        <v>0.575419</v>
       </c>
       <c r="D123" t="n">
-        <v>0.657101</v>
+        <v>0.671824</v>
       </c>
       <c r="E123" t="n">
-        <v>0.235728</v>
+        <v>0.25575</v>
       </c>
       <c r="F123" t="n">
-        <v>0.292393</v>
+        <v>0.299486</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.296615</v>
+        <v>0.296772</v>
       </c>
       <c r="C124" t="n">
-        <v>0.365815</v>
+        <v>0.371838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6700159999999999</v>
+        <v>0.718411</v>
       </c>
       <c r="E124" t="n">
-        <v>0.240502</v>
+        <v>0.250315</v>
       </c>
       <c r="F124" t="n">
-        <v>0.297035</v>
+        <v>0.301791</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.302913</v>
+        <v>0.305087</v>
       </c>
       <c r="C125" t="n">
-        <v>0.377189</v>
+        <v>0.390226</v>
       </c>
       <c r="D125" t="n">
-        <v>0.719031</v>
+        <v>0.7101690000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.243556</v>
+        <v>0.257613</v>
       </c>
       <c r="F125" t="n">
-        <v>0.297358</v>
+        <v>0.307242</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307828</v>
+        <v>0.307431</v>
       </c>
       <c r="C126" t="n">
-        <v>0.389367</v>
+        <v>0.386793</v>
       </c>
       <c r="D126" t="n">
-        <v>0.713179</v>
+        <v>0.765489</v>
       </c>
       <c r="E126" t="n">
-        <v>0.246046</v>
+        <v>0.260142</v>
       </c>
       <c r="F126" t="n">
-        <v>0.301516</v>
+        <v>0.315796</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307093</v>
+        <v>0.316596</v>
       </c>
       <c r="C127" t="n">
-        <v>0.404679</v>
+        <v>0.40531</v>
       </c>
       <c r="D127" t="n">
-        <v>0.751966</v>
+        <v>0.752588</v>
       </c>
       <c r="E127" t="n">
-        <v>0.250454</v>
+        <v>0.256422</v>
       </c>
       <c r="F127" t="n">
-        <v>0.324162</v>
+        <v>0.316528</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315596</v>
+        <v>0.311354</v>
       </c>
       <c r="C128" t="n">
-        <v>0.398455</v>
+        <v>0.406579</v>
       </c>
       <c r="D128" t="n">
-        <v>0.772763</v>
+        <v>0.7791709999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257219</v>
+        <v>0.254552</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324073</v>
+        <v>0.326455</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.325625</v>
+        <v>0.328283</v>
       </c>
       <c r="C129" t="n">
-        <v>0.422625</v>
+        <v>0.422506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.808582</v>
+        <v>0.829561</v>
       </c>
       <c r="E129" t="n">
-        <v>0.257466</v>
+        <v>0.262687</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338751</v>
+        <v>0.340786</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3241</v>
+        <v>0.325416</v>
       </c>
       <c r="C130" t="n">
-        <v>0.422716</v>
+        <v>0.421735</v>
       </c>
       <c r="D130" t="n">
-        <v>0.824759</v>
+        <v>0.877455</v>
       </c>
       <c r="E130" t="n">
-        <v>0.259873</v>
+        <v>0.267124</v>
       </c>
       <c r="F130" t="n">
-        <v>0.330058</v>
+        <v>0.338205</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.340034</v>
+        <v>0.347842</v>
       </c>
       <c r="C131" t="n">
-        <v>0.43192</v>
+        <v>0.441587</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8611760000000001</v>
+        <v>0.898066</v>
       </c>
       <c r="E131" t="n">
-        <v>0.261036</v>
+        <v>0.282451</v>
       </c>
       <c r="F131" t="n">
-        <v>0.331145</v>
+        <v>0.351274</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.35073</v>
+        <v>0.361347</v>
       </c>
       <c r="C132" t="n">
-        <v>0.45197</v>
+        <v>0.453714</v>
       </c>
       <c r="D132" t="n">
-        <v>0.884664</v>
+        <v>0.901177</v>
       </c>
       <c r="E132" t="n">
-        <v>0.258753</v>
+        <v>0.286464</v>
       </c>
       <c r="F132" t="n">
-        <v>0.338467</v>
+        <v>0.351258</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.357429</v>
+        <v>0.369836</v>
       </c>
       <c r="C133" t="n">
-        <v>0.465211</v>
+        <v>0.475639</v>
       </c>
       <c r="D133" t="n">
-        <v>0.923674</v>
+        <v>0.945033</v>
       </c>
       <c r="E133" t="n">
-        <v>0.263722</v>
+        <v>0.276148</v>
       </c>
       <c r="F133" t="n">
-        <v>0.348252</v>
+        <v>0.366362</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369824</v>
+        <v>0.37102</v>
       </c>
       <c r="C134" t="n">
-        <v>0.509072</v>
+        <v>0.521177</v>
       </c>
       <c r="D134" t="n">
-        <v>0.942617</v>
+        <v>0.9685820000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.283775</v>
+        <v>0.287139</v>
       </c>
       <c r="F134" t="n">
-        <v>0.361717</v>
+        <v>0.379218</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.395302</v>
+        <v>0.413542</v>
       </c>
       <c r="C135" t="n">
-        <v>0.530544</v>
+        <v>0.548616</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7860549999999999</v>
+        <v>0.804831</v>
       </c>
       <c r="E135" t="n">
-        <v>0.283369</v>
+        <v>0.299418</v>
       </c>
       <c r="F135" t="n">
-        <v>0.380656</v>
+        <v>0.395261</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.437816</v>
+        <v>0.442217</v>
       </c>
       <c r="C136" t="n">
-        <v>0.598202</v>
+        <v>0.634189</v>
       </c>
       <c r="D136" t="n">
-        <v>0.796768</v>
+        <v>0.841942</v>
       </c>
       <c r="E136" t="n">
-        <v>0.309302</v>
+        <v>0.325335</v>
       </c>
       <c r="F136" t="n">
-        <v>0.408197</v>
+        <v>0.439446</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.513223</v>
+        <v>0.530973</v>
       </c>
       <c r="C137" t="n">
-        <v>0.710742</v>
+        <v>0.724858</v>
       </c>
       <c r="D137" t="n">
-        <v>0.830149</v>
+        <v>0.864803</v>
       </c>
       <c r="E137" t="n">
-        <v>0.302674</v>
+        <v>0.310417</v>
       </c>
       <c r="F137" t="n">
-        <v>0.344906</v>
+        <v>0.358317</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.363147</v>
+        <v>0.370968</v>
       </c>
       <c r="C138" t="n">
-        <v>0.436054</v>
+        <v>0.445271</v>
       </c>
       <c r="D138" t="n">
-        <v>0.863895</v>
+        <v>0.896855</v>
       </c>
       <c r="E138" t="n">
-        <v>0.293181</v>
+        <v>0.317588</v>
       </c>
       <c r="F138" t="n">
-        <v>0.348349</v>
+        <v>0.36572</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.372632</v>
+        <v>0.371974</v>
       </c>
       <c r="C139" t="n">
-        <v>0.443542</v>
+        <v>0.463333</v>
       </c>
       <c r="D139" t="n">
-        <v>0.886728</v>
+        <v>0.933721</v>
       </c>
       <c r="E139" t="n">
-        <v>0.295013</v>
+        <v>0.315666</v>
       </c>
       <c r="F139" t="n">
-        <v>0.358146</v>
+        <v>0.372003</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.376527</v>
+        <v>0.385758</v>
       </c>
       <c r="C140" t="n">
-        <v>0.462309</v>
+        <v>0.464782</v>
       </c>
       <c r="D140" t="n">
-        <v>0.913519</v>
+        <v>0.968948</v>
       </c>
       <c r="E140" t="n">
-        <v>0.296585</v>
+        <v>0.3151</v>
       </c>
       <c r="F140" t="n">
-        <v>0.35982</v>
+        <v>0.378151</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.377383</v>
+        <v>0.386554</v>
       </c>
       <c r="C141" t="n">
-        <v>0.456898</v>
+        <v>0.473162</v>
       </c>
       <c r="D141" t="n">
-        <v>0.945451</v>
+        <v>0.9812380000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.304919</v>
+        <v>0.321388</v>
       </c>
       <c r="F141" t="n">
-        <v>0.363876</v>
+        <v>0.377815</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.377283</v>
+        <v>0.391753</v>
       </c>
       <c r="C142" t="n">
-        <v>0.471576</v>
+        <v>0.490749</v>
       </c>
       <c r="D142" t="n">
-        <v>0.990258</v>
+        <v>1.02786</v>
       </c>
       <c r="E142" t="n">
-        <v>0.300428</v>
+        <v>0.314084</v>
       </c>
       <c r="F142" t="n">
-        <v>0.370976</v>
+        <v>0.387334</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.388776</v>
+        <v>0.395059</v>
       </c>
       <c r="C143" t="n">
-        <v>0.494693</v>
+        <v>0.491997</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02161</v>
+        <v>1.06564</v>
       </c>
       <c r="E143" t="n">
-        <v>0.306488</v>
+        <v>0.315629</v>
       </c>
       <c r="F143" t="n">
-        <v>0.38546</v>
+        <v>0.397961</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404362</v>
+        <v>0.06623130000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.041986</v>
+        <v>0.0530434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.116246</v>
+        <v>0.144368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0324778</v>
+        <v>0.046946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327558</v>
+        <v>0.0344626</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0417594</v>
+        <v>0.0664979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0435933</v>
+        <v>0.0396129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122458</v>
+        <v>0.0988764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0337755</v>
+        <v>0.0298906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0335681</v>
+        <v>0.040407</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0445887</v>
+        <v>0.0502711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451925</v>
+        <v>0.0524801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.124318</v>
+        <v>0.143489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0350723</v>
+        <v>0.0666882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0351705</v>
+        <v>0.0447051</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502431</v>
+        <v>0.0576701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499336</v>
+        <v>0.0513342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.129965</v>
+        <v>0.175976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0360469</v>
+        <v>0.0644619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0359472</v>
+        <v>0.047379</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570153</v>
+        <v>0.0658233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599362</v>
+        <v>0.06887210000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138796</v>
+        <v>0.136659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0406152</v>
+        <v>0.0443372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0389581</v>
+        <v>0.0457317</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06806909999999999</v>
+        <v>0.0827238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07032239999999999</v>
+        <v>0.0858146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.099283</v>
+        <v>0.101351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0479201</v>
+        <v>0.069521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0456343</v>
+        <v>0.0517738</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0873116</v>
+        <v>0.08533839999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.092393</v>
+        <v>0.113431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101528</v>
+        <v>0.10522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0597865</v>
+        <v>0.0498266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572511</v>
+        <v>0.0757348</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119508</v>
+        <v>0.191082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119817</v>
+        <v>0.157247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.106786</v>
+        <v>0.09950199999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303854</v>
+        <v>0.0413001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.033305</v>
+        <v>0.0317969</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0389041</v>
+        <v>0.0380763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0420637</v>
+        <v>0.0405404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11205</v>
+        <v>0.117385</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031037</v>
+        <v>0.0458639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0329142</v>
+        <v>0.0339753</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.040616</v>
+        <v>0.0524225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.041538</v>
+        <v>0.0766651</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118638</v>
+        <v>0.231343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0306992</v>
+        <v>0.0523733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0333101</v>
+        <v>0.0405662</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0395175</v>
+        <v>0.0436483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450282</v>
+        <v>0.0396789</v>
       </c>
       <c r="D12" t="n">
-        <v>0.122719</v>
+        <v>0.152843</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0313068</v>
+        <v>0.0396414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.033834</v>
+        <v>0.0657015</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399744</v>
+        <v>0.0438338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0453172</v>
+        <v>0.0336591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128513</v>
+        <v>0.101321</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0314736</v>
+        <v>0.0333546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03471</v>
+        <v>0.044467</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0408352</v>
+        <v>0.0537938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0450283</v>
+        <v>0.0352741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131175</v>
+        <v>0.0954985</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0317195</v>
+        <v>0.0285383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0352389</v>
+        <v>0.0330084</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.044551</v>
+        <v>0.0560872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0457955</v>
+        <v>0.0570208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141678</v>
+        <v>0.133929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0331701</v>
+        <v>0.041756</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0352946</v>
+        <v>0.0292301</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0435382</v>
+        <v>0.0351936</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0474843</v>
+        <v>0.042127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144116</v>
+        <v>0.103843</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0357789</v>
+        <v>0.0379643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359599</v>
+        <v>0.0287158</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0453576</v>
+        <v>0.0460364</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485653</v>
+        <v>0.0831268</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141976</v>
+        <v>0.199452</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0362708</v>
+        <v>0.0506253</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0373824</v>
+        <v>0.0322643</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0501786</v>
+        <v>0.0467654</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0543532</v>
+        <v>0.0552429</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152324</v>
+        <v>0.187197</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0374009</v>
+        <v>0.0382416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0383808</v>
+        <v>0.030316</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0544271</v>
+        <v>0.06533269999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.059371</v>
+        <v>0.0599866</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151239</v>
+        <v>0.222165</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392211</v>
+        <v>0.0454748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418777</v>
+        <v>0.0573957</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0606677</v>
+        <v>0.06741709999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0645435</v>
+        <v>0.07465040000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162025</v>
+        <v>0.163166</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0427745</v>
+        <v>0.0327104</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0439695</v>
+        <v>0.040114</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.074145</v>
+        <v>0.09791279999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07972369999999999</v>
+        <v>0.101015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.110723</v>
+        <v>0.0987339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0483317</v>
+        <v>0.0371624</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0496986</v>
+        <v>0.0546137</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09081939999999999</v>
+        <v>0.156528</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09321119999999999</v>
+        <v>0.0926609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112144</v>
+        <v>0.117012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0609434</v>
+        <v>0.0752853</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0602872</v>
+        <v>0.0682943</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120811</v>
+        <v>0.178143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122248</v>
+        <v>0.278272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118618</v>
+        <v>0.223138</v>
       </c>
       <c r="E23" t="n">
-        <v>0.030753</v>
+        <v>0.0331189</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0353468</v>
+        <v>0.0282726</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0416771</v>
+        <v>0.0384887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0478926</v>
+        <v>0.0498612</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125958</v>
+        <v>0.129932</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0317401</v>
+        <v>0.0319473</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0368002</v>
+        <v>0.0321381</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04164</v>
+        <v>0.0459877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0478428</v>
+        <v>0.052009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.130175</v>
+        <v>0.17953</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0312143</v>
+        <v>0.0363451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0365007</v>
+        <v>0.0458941</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0421758</v>
+        <v>0.0355758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0473957</v>
+        <v>0.0359001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132907</v>
+        <v>0.153237</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0315112</v>
+        <v>0.0526398</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0368916</v>
+        <v>0.0339576</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0439696</v>
+        <v>0.0377444</v>
       </c>
       <c r="C27" t="n">
-        <v>0.050343</v>
+        <v>0.0375843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137876</v>
+        <v>0.114679</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0325526</v>
+        <v>0.0470994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0376497</v>
+        <v>0.0449781</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.043697</v>
+        <v>0.0724429</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502933</v>
+        <v>0.0664959</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140166</v>
+        <v>0.16022</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0326467</v>
+        <v>0.0389343</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0383194</v>
+        <v>0.0508955</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045005</v>
+        <v>0.0736275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521585</v>
+        <v>0.0680863</v>
       </c>
       <c r="D29" t="n">
-        <v>0.149553</v>
+        <v>0.211963</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0334457</v>
+        <v>0.0393129</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0387334</v>
+        <v>0.0442674</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0465236</v>
+        <v>0.0414783</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538341</v>
+        <v>0.0510671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.152487</v>
+        <v>0.230027</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0349555</v>
+        <v>0.0468173</v>
       </c>
       <c r="F30" t="n">
-        <v>0.040995</v>
+        <v>0.0450953</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0488954</v>
+        <v>0.0421124</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0572025</v>
+        <v>0.0465364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156806</v>
+        <v>0.241723</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0357641</v>
+        <v>0.0434045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0417069</v>
+        <v>0.0478624</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0513122</v>
+        <v>0.06348810000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0614403</v>
+        <v>0.08427750000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.166565</v>
+        <v>0.205477</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0368108</v>
+        <v>0.0488807</v>
       </c>
       <c r="F32" t="n">
-        <v>0.042747</v>
+        <v>0.0636255</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0558583</v>
+        <v>0.0825847</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0665572</v>
+        <v>0.0769319</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171394</v>
+        <v>0.239186</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0391967</v>
+        <v>0.0479603</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0453143</v>
+        <v>0.0398473</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06331589999999999</v>
+        <v>0.058861</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0722377</v>
+        <v>0.0679216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171562</v>
+        <v>0.182087</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0422655</v>
+        <v>0.044631</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0482619</v>
+        <v>0.0563106</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0728707</v>
+        <v>0.1152</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08380360000000001</v>
+        <v>0.06623950000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128175</v>
+        <v>0.140099</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0475461</v>
+        <v>0.0620047</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0537826</v>
+        <v>0.0442123</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08846759999999999</v>
+        <v>0.123964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09875200000000001</v>
+        <v>0.159564</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134887</v>
+        <v>0.156284</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0560714</v>
+        <v>0.104995</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0628471</v>
+        <v>0.0539084</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117061</v>
+        <v>0.132569</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127238</v>
+        <v>0.143954</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143487</v>
+        <v>0.154271</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0344162</v>
+        <v>0.0409349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0430593</v>
+        <v>0.0552058</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0459329</v>
+        <v>0.0405057</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0572698</v>
+        <v>0.0472105</v>
       </c>
       <c r="D38" t="n">
-        <v>0.150834</v>
+        <v>0.128279</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0342813</v>
+        <v>0.0341658</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0432442</v>
+        <v>0.0396816</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0487169</v>
+        <v>0.069452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582866</v>
+        <v>0.0555596</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159981</v>
+        <v>0.135795</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0378599</v>
+        <v>0.0428723</v>
       </c>
       <c r="F39" t="n">
-        <v>0.044102</v>
+        <v>0.0478229</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0461593</v>
+        <v>0.0315365</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595433</v>
+        <v>0.0459997</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16531</v>
+        <v>0.185727</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0344896</v>
+        <v>0.0380485</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0443527</v>
+        <v>0.0398353</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0469866</v>
+        <v>0.0464716</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0623402</v>
+        <v>0.0795038</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177457</v>
+        <v>0.256827</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035605</v>
+        <v>0.0493078</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0495032</v>
+        <v>0.0458458</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0477105</v>
+        <v>0.0420614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0638729</v>
+        <v>0.0559246</v>
       </c>
       <c r="D42" t="n">
-        <v>0.193805</v>
+        <v>0.144259</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0354899</v>
+        <v>0.028408</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0467169</v>
+        <v>0.035448</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0488798</v>
+        <v>0.0438513</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0655994</v>
+        <v>0.0377671</v>
       </c>
       <c r="D43" t="n">
-        <v>0.197669</v>
+        <v>0.113357</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0361927</v>
+        <v>0.0366722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0476285</v>
+        <v>0.052335</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0508165</v>
+        <v>0.0421833</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680159</v>
+        <v>0.0779692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205484</v>
+        <v>0.143017</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0398077</v>
+        <v>0.0346926</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0492365</v>
+        <v>0.0427553</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0536734</v>
+        <v>0.07828640000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.0655698</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225882</v>
+        <v>0.182631</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0381182</v>
+        <v>0.0469603</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0510109</v>
+        <v>0.0645218</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0557344</v>
+        <v>0.0619858</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07529619999999999</v>
+        <v>0.0612785</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229607</v>
+        <v>0.153791</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0395388</v>
+        <v>0.0574753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.052651</v>
+        <v>0.0601124</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0600394</v>
+        <v>0.101197</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0806094</v>
+        <v>0.115387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244161</v>
+        <v>0.282177</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0416194</v>
+        <v>0.06533319999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0568505</v>
+        <v>0.059399</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0661538</v>
+        <v>0.098038</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0869086</v>
+        <v>0.0796008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.260082</v>
+        <v>0.15447</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0457633</v>
+        <v>0.0536303</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0606538</v>
+        <v>0.072016</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759223</v>
+        <v>0.07543519999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10024</v>
+        <v>0.0978176</v>
       </c>
       <c r="D49" t="n">
-        <v>0.298851</v>
+        <v>0.128752</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0489659</v>
+        <v>0.07303460000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0649551</v>
+        <v>0.06622690000000001</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906221</v>
+        <v>0.172428</v>
       </c>
       <c r="C50" t="n">
-        <v>0.11429</v>
+        <v>0.08926630000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214434</v>
+        <v>0.0914339</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0556428</v>
+        <v>0.0492886</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0722276</v>
+        <v>0.061188</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12013</v>
+        <v>0.09858749999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141017</v>
+        <v>0.105384</v>
       </c>
       <c r="D51" t="n">
-        <v>0.237603</v>
+        <v>0.0950676</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0413313</v>
+        <v>0.041493</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0528234</v>
+        <v>0.0302749</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154244</v>
+        <v>0.1745</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178435</v>
+        <v>0.265545</v>
       </c>
       <c r="D52" t="n">
-        <v>0.240196</v>
+        <v>0.147875</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0407936</v>
+        <v>0.0450321</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0548775</v>
+        <v>0.0502633</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0551701</v>
+        <v>0.06757009999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07398349999999999</v>
+        <v>0.0934482</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254403</v>
+        <v>0.152131</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0412837</v>
+        <v>0.0520112</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0530613</v>
+        <v>0.0503201</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0566962</v>
+        <v>0.0517303</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0757848</v>
+        <v>0.0651143</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271524</v>
+        <v>0.128616</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0414938</v>
+        <v>0.0308357</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0544707</v>
+        <v>0.0453518</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0569572</v>
+        <v>0.0451795</v>
       </c>
       <c r="C55" t="n">
-        <v>0.078907</v>
+        <v>0.061031</v>
       </c>
       <c r="D55" t="n">
-        <v>0.283266</v>
+        <v>0.152174</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0427383</v>
+        <v>0.0464419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0561123</v>
+        <v>0.06307160000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.058437</v>
+        <v>0.0495948</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809004</v>
+        <v>0.0511954</v>
       </c>
       <c r="D56" t="n">
-        <v>0.302774</v>
+        <v>0.183084</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0427525</v>
+        <v>0.0397178</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0580761</v>
+        <v>0.0500774</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0593854</v>
+        <v>0.0473995</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0910841</v>
+        <v>0.0439641</v>
       </c>
       <c r="D57" t="n">
-        <v>0.330268</v>
+        <v>0.257534</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0444326</v>
+        <v>0.0588062</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0611473</v>
+        <v>0.0550202</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0614494</v>
+        <v>0.0683864</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0849065</v>
+        <v>0.0642055</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336314</v>
+        <v>0.15063</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0453353</v>
+        <v>0.034431</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0614085</v>
+        <v>0.0378341</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0636515</v>
+        <v>0.0901236</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0907852</v>
+        <v>0.105945</v>
       </c>
       <c r="D59" t="n">
-        <v>0.355425</v>
+        <v>0.19549</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0466662</v>
+        <v>0.031025</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0630646</v>
+        <v>0.0525261</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0700942</v>
+        <v>0.0559082</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933652</v>
+        <v>0.08156040000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371713</v>
+        <v>0.149197</v>
       </c>
       <c r="E60" t="n">
-        <v>0.047456</v>
+        <v>0.0601944</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0651863</v>
+        <v>0.0750064</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0710199</v>
+        <v>0.0614099</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101091</v>
+        <v>0.0763245</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388808</v>
+        <v>0.267301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0491451</v>
+        <v>0.0556848</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06736159999999999</v>
+        <v>0.0427513</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0756875</v>
+        <v>0.09723999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106938</v>
+        <v>0.0620765</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409971</v>
+        <v>0.196583</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0521299</v>
+        <v>0.0391104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0723188</v>
+        <v>0.0788266</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0853706</v>
+        <v>0.08897770000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11949</v>
+        <v>0.0938203</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434777</v>
+        <v>0.249902</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0571107</v>
+        <v>0.0384249</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0777558</v>
+        <v>0.0644962</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.100134</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134404</v>
+        <v>0.120129</v>
       </c>
       <c r="D64" t="n">
-        <v>0.344521</v>
+        <v>0.107555</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0631449</v>
+        <v>0.0536767</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0854058</v>
+        <v>0.134301</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119381</v>
+        <v>0.125661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159236</v>
+        <v>0.236366</v>
       </c>
       <c r="D65" t="n">
-        <v>0.351988</v>
+        <v>0.260653</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0746338</v>
+        <v>0.07706449999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0986189</v>
+        <v>0.0647924</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158493</v>
+        <v>0.131652</v>
       </c>
       <c r="C66" t="n">
-        <v>0.203579</v>
+        <v>0.146858</v>
       </c>
       <c r="D66" t="n">
-        <v>0.371605</v>
+        <v>0.101155</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0475054</v>
+        <v>0.0456484</v>
       </c>
       <c r="F66" t="n">
-        <v>0.061328</v>
+        <v>0.0444825</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06386169999999999</v>
+        <v>0.0407622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0882926</v>
+        <v>0.0481967</v>
       </c>
       <c r="D67" t="n">
-        <v>0.381588</v>
+        <v>0.235285</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0468844</v>
+        <v>0.0456892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0618258</v>
+        <v>0.0523095</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0650374</v>
+        <v>0.0701218</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0897511</v>
+        <v>0.0627554</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416642</v>
+        <v>0.168838</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0477552</v>
+        <v>0.0727062</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06297460000000001</v>
+        <v>0.07136140000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0654559</v>
+        <v>0.0553108</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0954667</v>
+        <v>0.0676317</v>
       </c>
       <c r="D69" t="n">
-        <v>0.428868</v>
+        <v>0.14735</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0476321</v>
+        <v>0.0701058</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06471830000000001</v>
+        <v>0.0502809</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0669676</v>
+        <v>0.0436417</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0978571</v>
+        <v>0.07039380000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437423</v>
+        <v>0.138459</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0497952</v>
+        <v>0.0611729</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0647721</v>
+        <v>0.0507879</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0688936</v>
+        <v>0.0665644</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100299</v>
+        <v>0.0752977</v>
       </c>
       <c r="D71" t="n">
-        <v>0.456569</v>
+        <v>0.144396</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0497732</v>
+        <v>0.0440723</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0725305</v>
+        <v>0.09051430000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07111969999999999</v>
+        <v>0.06494659999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107175</v>
+        <v>0.107953</v>
       </c>
       <c r="D72" t="n">
-        <v>0.468044</v>
+        <v>0.16938</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0518184</v>
+        <v>0.0364553</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07032629999999999</v>
+        <v>0.0485474</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0727338</v>
+        <v>0.07643800000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.112048</v>
+        <v>0.105449</v>
       </c>
       <c r="D73" t="n">
-        <v>0.486261</v>
+        <v>0.268704</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0523911</v>
+        <v>0.0765044</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0738123</v>
+        <v>0.0487884</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0753537</v>
+        <v>0.047448</v>
       </c>
       <c r="C74" t="n">
-        <v>0.119469</v>
+        <v>0.0632886</v>
       </c>
       <c r="D74" t="n">
-        <v>0.508954</v>
+        <v>0.235928</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0546589</v>
+        <v>0.0466886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0789223</v>
+        <v>0.0507558</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0799859</v>
+        <v>0.0558697</v>
       </c>
       <c r="C75" t="n">
-        <v>0.128779</v>
+        <v>0.07062110000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.549866</v>
+        <v>0.222612</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0561139</v>
+        <v>0.0531867</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0796655</v>
+        <v>0.0474947</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0862149</v>
+        <v>0.0816779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.142744</v>
+        <v>0.0829377</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548701</v>
+        <v>0.278465</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0598729</v>
+        <v>0.08873929999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891107</v>
+        <v>0.104366</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.099398</v>
+        <v>0.0704362</v>
       </c>
       <c r="C77" t="n">
-        <v>0.151816</v>
+        <v>0.118189</v>
       </c>
       <c r="D77" t="n">
-        <v>0.577696</v>
+        <v>0.303077</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0655797</v>
+        <v>0.0623738</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10123</v>
+        <v>0.07488839999999999</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116046</v>
+        <v>0.140527</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170264</v>
+        <v>0.122083</v>
       </c>
       <c r="D78" t="n">
-        <v>0.435619</v>
+        <v>0.208813</v>
       </c>
       <c r="E78" t="n">
-        <v>0.074755</v>
+        <v>0.0848361</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106528</v>
+        <v>0.105862</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.129634</v>
+        <v>0.142531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201055</v>
+        <v>0.144154</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452011</v>
+        <v>0.212253</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08676059999999999</v>
+        <v>0.06418740000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118167</v>
+        <v>0.0682213</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177057</v>
+        <v>0.176008</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251908</v>
+        <v>0.151521</v>
       </c>
       <c r="D80" t="n">
-        <v>0.475599</v>
+        <v>0.222086</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0539204</v>
+        <v>0.0384949</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0729897</v>
+        <v>0.0393631</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07768890000000001</v>
+        <v>0.0637084</v>
       </c>
       <c r="C81" t="n">
-        <v>0.112193</v>
+        <v>0.0578286</v>
       </c>
       <c r="D81" t="n">
-        <v>0.484759</v>
+        <v>0.256568</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0542798</v>
+        <v>0.0431021</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0791089</v>
+        <v>0.0514147</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0790233</v>
+        <v>0.06738429999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115862</v>
+        <v>0.110226</v>
       </c>
       <c r="D82" t="n">
-        <v>0.512985</v>
+        <v>0.292739</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0571083</v>
+        <v>0.0630144</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07432900000000001</v>
+        <v>0.100823</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843458</v>
+        <v>0.09431440000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.124253</v>
+        <v>0.137897</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51098</v>
+        <v>0.277728</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0583103</v>
+        <v>0.0837774</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0779292</v>
+        <v>0.100849</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0893636</v>
+        <v>0.100316</v>
       </c>
       <c r="C84" t="n">
-        <v>0.130475</v>
+        <v>0.142337</v>
       </c>
       <c r="D84" t="n">
-        <v>0.540766</v>
+        <v>0.361293</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0617369</v>
+        <v>0.0395388</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0849266</v>
+        <v>0.0743494</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.094219</v>
+        <v>0.0927625</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140659</v>
+        <v>0.0903904</v>
       </c>
       <c r="D85" t="n">
-        <v>0.555134</v>
+        <v>0.284453</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06457889999999999</v>
+        <v>0.0458597</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0870744</v>
+        <v>0.0849341</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979448</v>
+        <v>0.0539297</v>
       </c>
       <c r="C86" t="n">
-        <v>0.144325</v>
+        <v>0.10757</v>
       </c>
       <c r="D86" t="n">
-        <v>0.574121</v>
+        <v>0.406355</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0676546</v>
+        <v>0.0608805</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0885669</v>
+        <v>0.0610702</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0984781</v>
+        <v>0.0757154</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148939</v>
+        <v>0.120437</v>
       </c>
       <c r="D87" t="n">
-        <v>0.586298</v>
+        <v>0.448435</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0665384</v>
+        <v>0.0761616</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0913786</v>
+        <v>0.0974168</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0976479</v>
+        <v>0.101579</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1583</v>
+        <v>0.174558</v>
       </c>
       <c r="D88" t="n">
-        <v>0.601536</v>
+        <v>0.438807</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0683646</v>
+        <v>0.0662017</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0983782</v>
+        <v>0.0988991</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.101102</v>
+        <v>0.09982539999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164007</v>
+        <v>0.172814</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620403</v>
+        <v>0.344481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06847350000000001</v>
+        <v>0.0727474</v>
       </c>
       <c r="F89" t="n">
-        <v>0.102762</v>
+        <v>0.0930011</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1077</v>
+        <v>0.0735639</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174169</v>
+        <v>0.217592</v>
       </c>
       <c r="D90" t="n">
-        <v>0.641492</v>
+        <v>0.511217</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0725128</v>
+        <v>0.0605544</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110137</v>
+        <v>0.09908019999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1205</v>
+        <v>0.159937</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18898</v>
+        <v>0.22159</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679501</v>
+        <v>0.416194</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0788985</v>
+        <v>0.0896605</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118408</v>
+        <v>0.0792025</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.131985</v>
+        <v>0.161532</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215321</v>
+        <v>0.224548</v>
       </c>
       <c r="D92" t="n">
-        <v>0.508915</v>
+        <v>0.366903</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0847053</v>
+        <v>0.0903955</v>
       </c>
       <c r="F92" t="n">
-        <v>0.127258</v>
+        <v>0.153312</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.147601</v>
+        <v>0.144482</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239659</v>
+        <v>0.207071</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.386193</v>
       </c>
       <c r="E93" t="n">
-        <v>0.100589</v>
+        <v>0.132935</v>
       </c>
       <c r="F93" t="n">
-        <v>0.143147</v>
+        <v>0.16996</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.180921</v>
+        <v>0.195429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288295</v>
+        <v>0.215231</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550536</v>
+        <v>0.329467</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0736607</v>
+        <v>0.0746623</v>
       </c>
       <c r="F94" t="n">
-        <v>0.106778</v>
+        <v>0.0799646</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107634</v>
+        <v>0.09458</v>
       </c>
       <c r="C95" t="n">
-        <v>0.153023</v>
+        <v>0.170779</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552986</v>
+        <v>0.42862</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07269879999999999</v>
+        <v>0.0441393</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106242</v>
+        <v>0.071883</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.105944</v>
+        <v>0.07051250000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160429</v>
+        <v>0.150902</v>
       </c>
       <c r="D96" t="n">
-        <v>0.57694</v>
+        <v>0.40739</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07476140000000001</v>
+        <v>0.0531453</v>
       </c>
       <c r="F96" t="n">
-        <v>0.109459</v>
+        <v>0.0827565</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107381</v>
+        <v>0.107665</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166085</v>
+        <v>0.158131</v>
       </c>
       <c r="D97" t="n">
-        <v>0.581048</v>
+        <v>0.363515</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07571170000000001</v>
+        <v>0.061436</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113953</v>
+        <v>0.0712647</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.10852</v>
+        <v>0.121908</v>
       </c>
       <c r="C98" t="n">
-        <v>0.175071</v>
+        <v>0.146507</v>
       </c>
       <c r="D98" t="n">
-        <v>0.593866</v>
+        <v>0.527092</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0780786</v>
+        <v>0.0615492</v>
       </c>
       <c r="F98" t="n">
-        <v>0.117277</v>
+        <v>0.08985700000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11235</v>
+        <v>0.09004230000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17442</v>
+        <v>0.200108</v>
       </c>
       <c r="D99" t="n">
-        <v>0.615204</v>
+        <v>0.430071</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0787761</v>
+        <v>0.0934541</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120136</v>
+        <v>0.106577</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.116102</v>
+        <v>0.08599560000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180881</v>
+        <v>0.206493</v>
       </c>
       <c r="D100" t="n">
-        <v>0.633903</v>
+        <v>0.566103</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0821117</v>
+        <v>0.117194</v>
       </c>
       <c r="F100" t="n">
-        <v>0.129824</v>
+        <v>0.148634</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124719</v>
+        <v>0.09947209999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.193751</v>
+        <v>0.171227</v>
       </c>
       <c r="D101" t="n">
-        <v>0.68023</v>
+        <v>0.51253</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0839321</v>
+        <v>0.05793</v>
       </c>
       <c r="F101" t="n">
-        <v>0.129727</v>
+        <v>0.09919219999999999</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.124133</v>
+        <v>0.143886</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202819</v>
+        <v>0.175694</v>
       </c>
       <c r="D102" t="n">
-        <v>0.669713</v>
+        <v>0.427466</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0873278</v>
+        <v>0.0848163</v>
       </c>
       <c r="F102" t="n">
-        <v>0.134873</v>
+        <v>0.0945057</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130664</v>
+        <v>0.125853</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20681</v>
+        <v>0.224915</v>
       </c>
       <c r="D103" t="n">
-        <v>0.692277</v>
+        <v>0.432634</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0885615</v>
+        <v>0.09442059999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.142146</v>
+        <v>0.109941</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.13302</v>
+        <v>0.175885</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218941</v>
+        <v>0.239923</v>
       </c>
       <c r="D104" t="n">
-        <v>0.716569</v>
+        <v>0.580261</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09418310000000001</v>
+        <v>0.112517</v>
       </c>
       <c r="F104" t="n">
-        <v>0.145305</v>
+        <v>0.159819</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149261</v>
+        <v>0.17029</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23741</v>
+        <v>0.250235</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7390949999999999</v>
+        <v>0.442588</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0995622</v>
+        <v>0.116682</v>
       </c>
       <c r="F105" t="n">
-        <v>0.15793</v>
+        <v>0.145093</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.158719</v>
+        <v>0.126694</v>
       </c>
       <c r="C106" t="n">
-        <v>0.263344</v>
+        <v>0.289477</v>
       </c>
       <c r="D106" t="n">
-        <v>0.767298</v>
+        <v>0.565808</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1058</v>
+        <v>0.13305</v>
       </c>
       <c r="F106" t="n">
-        <v>0.168224</v>
+        <v>0.184162</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180233</v>
+        <v>0.153633</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295267</v>
+        <v>0.306129</v>
       </c>
       <c r="D107" t="n">
-        <v>0.571398</v>
+        <v>0.5069939999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.117779</v>
+        <v>0.103607</v>
       </c>
       <c r="F107" t="n">
-        <v>0.18211</v>
+        <v>0.185937</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.212849</v>
+        <v>0.265893</v>
       </c>
       <c r="C108" t="n">
-        <v>0.341322</v>
+        <v>0.29766</v>
       </c>
       <c r="D108" t="n">
-        <v>0.583622</v>
+        <v>0.496258</v>
       </c>
       <c r="E108" t="n">
-        <v>0.152681</v>
+        <v>0.0805573</v>
       </c>
       <c r="F108" t="n">
-        <v>0.19838</v>
+        <v>0.109642</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265315</v>
+        <v>0.298563</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429398</v>
+        <v>0.467691</v>
       </c>
       <c r="D109" t="n">
-        <v>0.597875</v>
+        <v>0.415298</v>
       </c>
       <c r="E109" t="n">
-        <v>0.155336</v>
+        <v>0.0670549</v>
       </c>
       <c r="F109" t="n">
-        <v>0.191955</v>
+        <v>0.0852126</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.184051</v>
+        <v>0.13939</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255244</v>
+        <v>0.212677</v>
       </c>
       <c r="D110" t="n">
-        <v>0.615464</v>
+        <v>0.465391</v>
       </c>
       <c r="E110" t="n">
-        <v>0.159705</v>
+        <v>0.058208</v>
       </c>
       <c r="F110" t="n">
-        <v>0.19638</v>
+        <v>0.132995</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.194568</v>
+        <v>0.111362</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255772</v>
+        <v>0.163841</v>
       </c>
       <c r="D111" t="n">
-        <v>0.626735</v>
+        <v>0.502613</v>
       </c>
       <c r="E111" t="n">
-        <v>0.153453</v>
+        <v>0.0946052</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211138</v>
+        <v>0.125542</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184636</v>
+        <v>0.129756</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269099</v>
+        <v>0.202829</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64541</v>
+        <v>0.54938</v>
       </c>
       <c r="E112" t="n">
-        <v>0.16637</v>
+        <v>0.09727860000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.205281</v>
+        <v>0.163361</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185973</v>
+        <v>0.152399</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266806</v>
+        <v>0.196329</v>
       </c>
       <c r="D113" t="n">
-        <v>0.675069</v>
+        <v>0.526168</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166548</v>
+        <v>0.106607</v>
       </c>
       <c r="F113" t="n">
-        <v>0.206192</v>
+        <v>0.137848</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218221</v>
+        <v>0.148172</v>
       </c>
       <c r="C114" t="n">
-        <v>0.277832</v>
+        <v>0.218565</v>
       </c>
       <c r="D114" t="n">
-        <v>0.700316</v>
+        <v>0.553487</v>
       </c>
       <c r="E114" t="n">
-        <v>0.159151</v>
+        <v>0.115408</v>
       </c>
       <c r="F114" t="n">
-        <v>0.213917</v>
+        <v>0.111039</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.196549</v>
+        <v>0.144559</v>
       </c>
       <c r="C115" t="n">
-        <v>0.287048</v>
+        <v>0.242583</v>
       </c>
       <c r="D115" t="n">
-        <v>0.713483</v>
+        <v>0.566937</v>
       </c>
       <c r="E115" t="n">
-        <v>0.161185</v>
+        <v>0.0972845</v>
       </c>
       <c r="F115" t="n">
-        <v>0.216467</v>
+        <v>0.136179</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20394</v>
+        <v>0.13531</v>
       </c>
       <c r="C116" t="n">
-        <v>0.294276</v>
+        <v>0.191697</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71512</v>
+        <v>0.500755</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163902</v>
+        <v>0.0776289</v>
       </c>
       <c r="F116" t="n">
-        <v>0.223143</v>
+        <v>0.148802</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226312</v>
+        <v>0.14029</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305553</v>
+        <v>0.252038</v>
       </c>
       <c r="D117" t="n">
-        <v>0.735619</v>
+        <v>0.504785</v>
       </c>
       <c r="E117" t="n">
-        <v>0.169941</v>
+        <v>0.125305</v>
       </c>
       <c r="F117" t="n">
-        <v>0.23325</v>
+        <v>0.154173</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232073</v>
+        <v>0.155593</v>
       </c>
       <c r="C118" t="n">
-        <v>0.322141</v>
+        <v>0.252453</v>
       </c>
       <c r="D118" t="n">
-        <v>0.765811</v>
+        <v>0.531145</v>
       </c>
       <c r="E118" t="n">
-        <v>0.177597</v>
+        <v>0.145415</v>
       </c>
       <c r="F118" t="n">
-        <v>0.239467</v>
+        <v>0.12288</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.229083</v>
+        <v>0.159434</v>
       </c>
       <c r="C119" t="n">
-        <v>0.340711</v>
+        <v>0.214537</v>
       </c>
       <c r="D119" t="n">
-        <v>0.779219</v>
+        <v>0.583685</v>
       </c>
       <c r="E119" t="n">
-        <v>0.170275</v>
+        <v>0.139264</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247549</v>
+        <v>0.187383</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.23775</v>
+        <v>0.178976</v>
       </c>
       <c r="C120" t="n">
-        <v>0.36389</v>
+        <v>0.230574</v>
       </c>
       <c r="D120" t="n">
-        <v>0.806381</v>
+        <v>0.625262</v>
       </c>
       <c r="E120" t="n">
-        <v>0.178358</v>
+        <v>0.08889030000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258632</v>
+        <v>0.19718</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255962</v>
+        <v>0.187779</v>
       </c>
       <c r="C121" t="n">
-        <v>0.406589</v>
+        <v>0.274166</v>
       </c>
       <c r="D121" t="n">
-        <v>0.618837</v>
+        <v>0.393014</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.120632</v>
       </c>
       <c r="F121" t="n">
-        <v>0.280451</v>
+        <v>0.195385</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.31302</v>
+        <v>0.274365</v>
       </c>
       <c r="C122" t="n">
-        <v>0.466067</v>
+        <v>0.387209</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648958</v>
+        <v>0.434014</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206641</v>
+        <v>0.184145</v>
       </c>
       <c r="F122" t="n">
-        <v>0.305266</v>
+        <v>0.22001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.357703</v>
+        <v>0.21608</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593832</v>
+        <v>0.469522</v>
       </c>
       <c r="D123" t="n">
-        <v>0.650649</v>
+        <v>0.42861</v>
       </c>
       <c r="E123" t="n">
-        <v>0.23331</v>
+        <v>0.0857455</v>
       </c>
       <c r="F123" t="n">
-        <v>0.287209</v>
+        <v>0.153364</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.295337</v>
+        <v>0.107287</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373797</v>
+        <v>0.184317</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694852</v>
+        <v>0.563265</v>
       </c>
       <c r="E124" t="n">
-        <v>0.241574</v>
+        <v>0.086922</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291793</v>
+        <v>0.141933</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.300913</v>
+        <v>0.139398</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378528</v>
+        <v>0.170399</v>
       </c>
       <c r="D125" t="n">
-        <v>0.701847</v>
+        <v>0.55681</v>
       </c>
       <c r="E125" t="n">
-        <v>0.245558</v>
+        <v>0.0730774</v>
       </c>
       <c r="F125" t="n">
-        <v>0.302312</v>
+        <v>0.105264</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.299484</v>
+        <v>0.160183</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384213</v>
+        <v>0.209554</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7203079999999999</v>
+        <v>0.592303</v>
       </c>
       <c r="E126" t="n">
-        <v>0.24248</v>
+        <v>0.083979</v>
       </c>
       <c r="F126" t="n">
-        <v>0.304154</v>
+        <v>0.0956518</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323119</v>
+        <v>0.16363</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387554</v>
+        <v>0.22996</v>
       </c>
       <c r="D127" t="n">
-        <v>0.729649</v>
+        <v>0.539698</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25037</v>
+        <v>0.123937</v>
       </c>
       <c r="F127" t="n">
-        <v>0.305627</v>
+        <v>0.159151</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315066</v>
+        <v>0.186329</v>
       </c>
       <c r="C128" t="n">
-        <v>0.394337</v>
+        <v>0.238299</v>
       </c>
       <c r="D128" t="n">
-        <v>0.759118</v>
+        <v>0.562682</v>
       </c>
       <c r="E128" t="n">
-        <v>0.24956</v>
+        <v>0.125603</v>
       </c>
       <c r="F128" t="n">
-        <v>0.327057</v>
+        <v>0.126146</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313711</v>
+        <v>0.224046</v>
       </c>
       <c r="C129" t="n">
-        <v>0.412672</v>
+        <v>0.2274</v>
       </c>
       <c r="D129" t="n">
-        <v>0.795212</v>
+        <v>0.569615</v>
       </c>
       <c r="E129" t="n">
-        <v>0.244993</v>
+        <v>0.0823928</v>
       </c>
       <c r="F129" t="n">
-        <v>0.319168</v>
+        <v>0.179128</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317592</v>
+        <v>0.180554</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418307</v>
+        <v>0.268667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.816229</v>
+        <v>0.495735</v>
       </c>
       <c r="E130" t="n">
-        <v>0.24865</v>
+        <v>0.0799869</v>
       </c>
       <c r="F130" t="n">
-        <v>0.329529</v>
+        <v>0.135725</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.337821</v>
+        <v>0.188198</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431545</v>
+        <v>0.232685</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8317830000000001</v>
+        <v>0.493415</v>
       </c>
       <c r="E131" t="n">
-        <v>0.251304</v>
+        <v>0.101561</v>
       </c>
       <c r="F131" t="n">
-        <v>0.333416</v>
+        <v>0.129228</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335238</v>
+        <v>0.142916</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445206</v>
+        <v>0.291644</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869043</v>
+        <v>0.627695</v>
       </c>
       <c r="E132" t="n">
-        <v>0.255367</v>
+        <v>0.12286</v>
       </c>
       <c r="F132" t="n">
-        <v>0.342477</v>
+        <v>0.171313</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354488</v>
+        <v>0.195637</v>
       </c>
       <c r="C133" t="n">
-        <v>0.502782</v>
+        <v>0.280288</v>
       </c>
       <c r="D133" t="n">
-        <v>0.891855</v>
+        <v>0.681018</v>
       </c>
       <c r="E133" t="n">
-        <v>0.260546</v>
+        <v>0.0975244</v>
       </c>
       <c r="F133" t="n">
-        <v>0.350394</v>
+        <v>0.171948</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374687</v>
+        <v>0.224432</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498502</v>
+        <v>0.315199</v>
       </c>
       <c r="D134" t="n">
-        <v>0.947819</v>
+        <v>0.741601</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275867</v>
+        <v>0.101737</v>
       </c>
       <c r="F134" t="n">
-        <v>0.364719</v>
+        <v>0.157261</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.392354</v>
+        <v>0.289246</v>
       </c>
       <c r="C135" t="n">
-        <v>0.539395</v>
+        <v>0.378734</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769266</v>
+        <v>0.473674</v>
       </c>
       <c r="E135" t="n">
-        <v>0.281317</v>
+        <v>0.137061</v>
       </c>
       <c r="F135" t="n">
-        <v>0.385169</v>
+        <v>0.193145</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.434604</v>
+        <v>0.336475</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596301</v>
+        <v>0.441275</v>
       </c>
       <c r="D136" t="n">
-        <v>0.826171</v>
+        <v>0.490516</v>
       </c>
       <c r="E136" t="n">
-        <v>0.300476</v>
+        <v>0.149929</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422452</v>
+        <v>0.208612</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511276</v>
+        <v>0.312531</v>
       </c>
       <c r="C137" t="n">
-        <v>0.69603</v>
+        <v>0.345511</v>
       </c>
       <c r="D137" t="n">
-        <v>0.827473</v>
+        <v>0.425635</v>
       </c>
       <c r="E137" t="n">
-        <v>0.288913</v>
+        <v>0.166818</v>
       </c>
       <c r="F137" t="n">
-        <v>0.355419</v>
+        <v>0.240878</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367374</v>
+        <v>0.223542</v>
       </c>
       <c r="C138" t="n">
-        <v>0.438408</v>
+        <v>0.272317</v>
       </c>
       <c r="D138" t="n">
-        <v>0.845283</v>
+        <v>0.478211</v>
       </c>
       <c r="E138" t="n">
-        <v>0.290867</v>
+        <v>0.203254</v>
       </c>
       <c r="F138" t="n">
-        <v>0.350915</v>
+        <v>0.244432</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.365175</v>
+        <v>0.243487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.44799</v>
+        <v>0.304096</v>
       </c>
       <c r="D139" t="n">
-        <v>0.900519</v>
+        <v>0.496744</v>
       </c>
       <c r="E139" t="n">
-        <v>0.297579</v>
+        <v>0.182638</v>
       </c>
       <c r="F139" t="n">
-        <v>0.354805</v>
+        <v>0.213264</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367735</v>
+        <v>0.215281</v>
       </c>
       <c r="C140" t="n">
-        <v>0.463007</v>
+        <v>0.252178</v>
       </c>
       <c r="D140" t="n">
-        <v>0.921688</v>
+        <v>0.523742</v>
       </c>
       <c r="E140" t="n">
-        <v>0.294614</v>
+        <v>0.177644</v>
       </c>
       <c r="F140" t="n">
-        <v>0.360806</v>
+        <v>0.255467</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373447</v>
+        <v>0.241816</v>
       </c>
       <c r="C141" t="n">
-        <v>0.466975</v>
+        <v>0.24502</v>
       </c>
       <c r="D141" t="n">
-        <v>0.951329</v>
+        <v>0.513236</v>
       </c>
       <c r="E141" t="n">
-        <v>0.296998</v>
+        <v>0.171832</v>
       </c>
       <c r="F141" t="n">
-        <v>0.377241</v>
+        <v>0.260146</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.382831</v>
+        <v>0.186145</v>
       </c>
       <c r="C142" t="n">
-        <v>0.466194</v>
+        <v>0.297718</v>
       </c>
       <c r="D142" t="n">
-        <v>0.981593</v>
+        <v>0.510182</v>
       </c>
       <c r="E142" t="n">
-        <v>0.301974</v>
+        <v>0.186602</v>
       </c>
       <c r="F142" t="n">
-        <v>0.369876</v>
+        <v>0.254952</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.381273</v>
+        <v>0.244457</v>
       </c>
       <c r="C143" t="n">
-        <v>0.477303</v>
+        <v>0.315912</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01753</v>
+        <v>0.517091</v>
       </c>
       <c r="E143" t="n">
-        <v>0.305317</v>
+        <v>0.194935</v>
       </c>
       <c r="F143" t="n">
-        <v>0.377078</v>
+        <v>0.295326</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06623130000000001</v>
+        <v>0.0536508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0530434</v>
+        <v>0.0423432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.144368</v>
+        <v>0.151511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.046946</v>
+        <v>0.0307096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0344626</v>
+        <v>0.0323661</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0664979</v>
+        <v>0.0401052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0396129</v>
+        <v>0.0358614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0988764</v>
+        <v>0.112371</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0298906</v>
+        <v>0.0369412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.040407</v>
+        <v>0.0412705</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0502711</v>
+        <v>0.0510092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0524801</v>
+        <v>0.0613361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.143489</v>
+        <v>0.166883</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0666882</v>
+        <v>0.0328441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0447051</v>
+        <v>0.031558</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0576701</v>
+        <v>0.0550723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0513342</v>
+        <v>0.07185569999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175976</v>
+        <v>0.17324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0644619</v>
+        <v>0.0447424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.047379</v>
+        <v>0.0608937</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0658233</v>
+        <v>0.0881391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06887210000000001</v>
+        <v>0.0756814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.136659</v>
+        <v>0.219064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0443372</v>
+        <v>0.0404706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0457317</v>
+        <v>0.0541927</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0827238</v>
+        <v>0.0892524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0858146</v>
+        <v>0.0577185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101351</v>
+        <v>0.125692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.069521</v>
+        <v>0.0408898</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0517738</v>
+        <v>0.0479916</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08533839999999999</v>
+        <v>0.155785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113431</v>
+        <v>0.148415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10522</v>
+        <v>0.0997841</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0498266</v>
+        <v>0.0905268</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0757348</v>
+        <v>0.0504174</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191082</v>
+        <v>0.200701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.157247</v>
+        <v>0.21321</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09950199999999999</v>
+        <v>0.136659</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0413001</v>
+        <v>0.0300491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0317969</v>
+        <v>0.0544819</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0380763</v>
+        <v>0.0409754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0405404</v>
+        <v>0.0334507</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117385</v>
+        <v>0.122035</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0458639</v>
+        <v>0.0379339</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0339753</v>
+        <v>0.0308852</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0524225</v>
+        <v>0.0336553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0766651</v>
+        <v>0.0527851</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231343</v>
+        <v>0.107552</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0523733</v>
+        <v>0.0493674</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0405662</v>
+        <v>0.0415588</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0436483</v>
+        <v>0.0433227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0396789</v>
+        <v>0.0507452</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152843</v>
+        <v>0.158052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0396414</v>
+        <v>0.0265752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657015</v>
+        <v>0.0320283</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0438338</v>
+        <v>0.0539359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0336591</v>
+        <v>0.0337278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101321</v>
+        <v>0.213587</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0333546</v>
+        <v>0.0377651</v>
       </c>
       <c r="F13" t="n">
-        <v>0.044467</v>
+        <v>0.0386933</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0537938</v>
+        <v>0.0327693</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0352741</v>
+        <v>0.0402667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0954985</v>
+        <v>0.160891</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0285383</v>
+        <v>0.0308761</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0330084</v>
+        <v>0.0372871</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0560872</v>
+        <v>0.0384641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0570208</v>
+        <v>0.0532807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.133929</v>
+        <v>0.113942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.041756</v>
+        <v>0.0310992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0292301</v>
+        <v>0.0273312</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351936</v>
+        <v>0.0382784</v>
       </c>
       <c r="C16" t="n">
-        <v>0.042127</v>
+        <v>0.0414907</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103843</v>
+        <v>0.115631</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0379643</v>
+        <v>0.0399695</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0287158</v>
+        <v>0.0316115</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0460364</v>
+        <v>0.0424787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0831268</v>
+        <v>0.0543919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.199452</v>
+        <v>0.206803</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0506253</v>
+        <v>0.0380923</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0322643</v>
+        <v>0.0504805</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0467654</v>
+        <v>0.07130309999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0552429</v>
+        <v>0.0782649</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187197</v>
+        <v>0.193416</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0382416</v>
+        <v>0.0490217</v>
       </c>
       <c r="F18" t="n">
-        <v>0.030316</v>
+        <v>0.0514207</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06533269999999999</v>
+        <v>0.0841278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0599866</v>
+        <v>0.0551403</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222165</v>
+        <v>0.21471</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0454748</v>
+        <v>0.0410824</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0573957</v>
+        <v>0.0459956</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06741709999999999</v>
+        <v>0.0648241</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07465040000000001</v>
+        <v>0.0774953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163166</v>
+        <v>0.205314</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0327104</v>
+        <v>0.0542211</v>
       </c>
       <c r="F20" t="n">
-        <v>0.040114</v>
+        <v>0.0428988</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09791279999999999</v>
+        <v>0.138034</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101015</v>
+        <v>0.09312429999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0987339</v>
+        <v>0.102725</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0371624</v>
+        <v>0.0434085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0546137</v>
+        <v>0.0609524</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156528</v>
+        <v>0.102905</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0926609</v>
+        <v>0.105554</v>
       </c>
       <c r="D22" t="n">
-        <v>0.117012</v>
+        <v>0.09979490000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0752853</v>
+        <v>0.0651497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0682943</v>
+        <v>0.0585352</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.178143</v>
+        <v>0.203053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278272</v>
+        <v>0.226434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223138</v>
+        <v>0.145748</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0331189</v>
+        <v>0.0412392</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0282726</v>
+        <v>0.0360171</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0384887</v>
+        <v>0.0342959</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0498612</v>
+        <v>0.0341369</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129932</v>
+        <v>0.111152</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0319473</v>
+        <v>0.037634</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0321381</v>
+        <v>0.0290825</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0459877</v>
+        <v>0.0575773</v>
       </c>
       <c r="C25" t="n">
-        <v>0.052009</v>
+        <v>0.0380639</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17953</v>
+        <v>0.117115</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0363451</v>
+        <v>0.0330643</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0458941</v>
+        <v>0.0287682</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0355758</v>
+        <v>0.0348929</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0359001</v>
+        <v>0.0413549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.153237</v>
+        <v>0.110581</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0526398</v>
+        <v>0.0267216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0339576</v>
+        <v>0.0331636</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0377444</v>
+        <v>0.0531292</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0375843</v>
+        <v>0.0447738</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114679</v>
+        <v>0.114178</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0470994</v>
+        <v>0.0334413</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0449781</v>
+        <v>0.0288409</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0724429</v>
+        <v>0.0400455</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0664959</v>
+        <v>0.0522284</v>
       </c>
       <c r="D28" t="n">
-        <v>0.16022</v>
+        <v>0.143297</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0389343</v>
+        <v>0.0331875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0508955</v>
+        <v>0.0536271</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0736275</v>
+        <v>0.06616229999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0680863</v>
+        <v>0.0623548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211963</v>
+        <v>0.184443</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0393129</v>
+        <v>0.0528173</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0442674</v>
+        <v>0.0347631</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0414783</v>
+        <v>0.0491324</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0510671</v>
+        <v>0.0604711</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230027</v>
+        <v>0.158046</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0468173</v>
+        <v>0.0440797</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0450953</v>
+        <v>0.0581197</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0421124</v>
+        <v>0.0549573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0465364</v>
+        <v>0.072131</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241723</v>
+        <v>0.254743</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0434045</v>
+        <v>0.060177</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0478624</v>
+        <v>0.0528329</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06348810000000001</v>
+        <v>0.0532856</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08427750000000001</v>
+        <v>0.0716564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205477</v>
+        <v>0.157053</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0488807</v>
+        <v>0.0548605</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0636255</v>
+        <v>0.06608940000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0825847</v>
+        <v>0.06555950000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0769319</v>
+        <v>0.056068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.239186</v>
+        <v>0.137741</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0479603</v>
+        <v>0.0536523</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0398473</v>
+        <v>0.0491916</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.058861</v>
+        <v>0.100027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0679216</v>
+        <v>0.0606031</v>
       </c>
       <c r="D34" t="n">
-        <v>0.182087</v>
+        <v>0.140377</v>
       </c>
       <c r="E34" t="n">
-        <v>0.044631</v>
+        <v>0.0431731</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0563106</v>
+        <v>0.0448962</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1152</v>
+        <v>0.0912823</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06623950000000001</v>
+        <v>0.142436</v>
       </c>
       <c r="D35" t="n">
-        <v>0.140099</v>
+        <v>0.195108</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0620047</v>
+        <v>0.0746156</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0442123</v>
+        <v>0.0633271</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.123964</v>
+        <v>0.105655</v>
       </c>
       <c r="C36" t="n">
-        <v>0.159564</v>
+        <v>0.0921696</v>
       </c>
       <c r="D36" t="n">
-        <v>0.156284</v>
+        <v>0.0968417</v>
       </c>
       <c r="E36" t="n">
-        <v>0.104995</v>
+        <v>0.0596903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0539084</v>
+        <v>0.0588047</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.132569</v>
+        <v>0.137432</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143954</v>
+        <v>0.200779</v>
       </c>
       <c r="D37" t="n">
-        <v>0.154271</v>
+        <v>0.198248</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0409349</v>
+        <v>0.0287202</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0552058</v>
+        <v>0.0445431</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0405057</v>
+        <v>0.0566789</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0472105</v>
+        <v>0.0552949</v>
       </c>
       <c r="D38" t="n">
-        <v>0.128279</v>
+        <v>0.172255</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0341658</v>
+        <v>0.0383851</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0396816</v>
+        <v>0.0297532</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.069452</v>
+        <v>0.0523566</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0555596</v>
+        <v>0.0362776</v>
       </c>
       <c r="D39" t="n">
-        <v>0.135795</v>
+        <v>0.139844</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0428723</v>
+        <v>0.0495393</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0478229</v>
+        <v>0.0375245</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0315365</v>
+        <v>0.0477634</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0459997</v>
+        <v>0.0377496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185727</v>
+        <v>0.176115</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0380485</v>
+        <v>0.0408102</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0398353</v>
+        <v>0.0456828</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0464716</v>
+        <v>0.0422027</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0795038</v>
+        <v>0.0487115</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256827</v>
+        <v>0.152442</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0493078</v>
+        <v>0.0461196</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0458458</v>
+        <v>0.0414235</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0420614</v>
+        <v>0.0654105</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0559246</v>
+        <v>0.0483681</v>
       </c>
       <c r="D42" t="n">
-        <v>0.144259</v>
+        <v>0.175783</v>
       </c>
       <c r="E42" t="n">
-        <v>0.028408</v>
+        <v>0.0287611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.035448</v>
+        <v>0.0396256</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0438513</v>
+        <v>0.0742777</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0377671</v>
+        <v>0.0878187</v>
       </c>
       <c r="D43" t="n">
-        <v>0.113357</v>
+        <v>0.197823</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0366722</v>
+        <v>0.0339101</v>
       </c>
       <c r="F43" t="n">
-        <v>0.052335</v>
+        <v>0.0341754</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0421833</v>
+        <v>0.0716755</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0779692</v>
+        <v>0.0696116</v>
       </c>
       <c r="D44" t="n">
-        <v>0.143017</v>
+        <v>0.152734</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0346926</v>
+        <v>0.0572718</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0427553</v>
+        <v>0.0527562</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07828640000000001</v>
+        <v>0.0591136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0655698</v>
+        <v>0.069919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182631</v>
+        <v>0.142779</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0469603</v>
+        <v>0.0366135</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0645218</v>
+        <v>0.0557009</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0619858</v>
+        <v>0.0770332</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0612785</v>
+        <v>0.0705276</v>
       </c>
       <c r="D46" t="n">
-        <v>0.153791</v>
+        <v>0.204519</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0574753</v>
+        <v>0.0515186</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0601124</v>
+        <v>0.0719138</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101197</v>
+        <v>0.0567451</v>
       </c>
       <c r="C47" t="n">
-        <v>0.115387</v>
+        <v>0.0639716</v>
       </c>
       <c r="D47" t="n">
-        <v>0.282177</v>
+        <v>0.152165</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06533319999999999</v>
+        <v>0.0319945</v>
       </c>
       <c r="F47" t="n">
-        <v>0.059399</v>
+        <v>0.0554747</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.098038</v>
+        <v>0.0829352</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0796008</v>
+        <v>0.0673184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15447</v>
+        <v>0.277228</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0536303</v>
+        <v>0.0526861</v>
       </c>
       <c r="F48" t="n">
-        <v>0.072016</v>
+        <v>0.0576085</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07543519999999999</v>
+        <v>0.118855</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0978176</v>
+        <v>0.0886646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.128752</v>
+        <v>0.268548</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07303460000000001</v>
+        <v>0.0462045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06622690000000001</v>
+        <v>0.0446439</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172428</v>
+        <v>0.107186</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08926630000000001</v>
+        <v>0.140985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0914339</v>
+        <v>0.149486</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0492886</v>
+        <v>0.0713008</v>
       </c>
       <c r="F50" t="n">
-        <v>0.061188</v>
+        <v>0.0551422</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09858749999999999</v>
+        <v>0.188779</v>
       </c>
       <c r="C51" t="n">
-        <v>0.105384</v>
+        <v>0.148573</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0950676</v>
+        <v>0.106196</v>
       </c>
       <c r="E51" t="n">
-        <v>0.041493</v>
+        <v>0.0341555</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0302749</v>
+        <v>0.0507959</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1745</v>
+        <v>0.265338</v>
       </c>
       <c r="C52" t="n">
-        <v>0.265545</v>
+        <v>0.262949</v>
       </c>
       <c r="D52" t="n">
-        <v>0.147875</v>
+        <v>0.153869</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0450321</v>
+        <v>0.0353921</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0502633</v>
+        <v>0.0371665</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06757009999999999</v>
+        <v>0.0596164</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0934482</v>
+        <v>0.0515604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.152131</v>
+        <v>0.193006</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0520112</v>
+        <v>0.0401786</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0503201</v>
+        <v>0.0386059</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0517303</v>
+        <v>0.07322620000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0651143</v>
+        <v>0.0629236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.128616</v>
+        <v>0.225472</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0308357</v>
+        <v>0.0443434</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0453518</v>
+        <v>0.0536053</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0451795</v>
+        <v>0.0484018</v>
       </c>
       <c r="C55" t="n">
-        <v>0.061031</v>
+        <v>0.0682386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152174</v>
+        <v>0.209523</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0464419</v>
+        <v>0.0389564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06307160000000001</v>
+        <v>0.0656234</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0495948</v>
+        <v>0.0691132</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0511954</v>
+        <v>0.0474423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.183084</v>
+        <v>0.242667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0397178</v>
+        <v>0.0375537</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0500774</v>
+        <v>0.0353412</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0473995</v>
+        <v>0.0682835</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0439641</v>
+        <v>0.0888086</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257534</v>
+        <v>0.168399</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0588062</v>
+        <v>0.0562958</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0550202</v>
+        <v>0.0683218</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0683864</v>
+        <v>0.0640965</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0642055</v>
+        <v>0.07380390000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.15063</v>
+        <v>0.157928</v>
       </c>
       <c r="E58" t="n">
-        <v>0.034431</v>
+        <v>0.0383486</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0378341</v>
+        <v>0.0322286</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0901236</v>
+        <v>0.0539372</v>
       </c>
       <c r="C59" t="n">
-        <v>0.105945</v>
+        <v>0.0964581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.19549</v>
+        <v>0.238537</v>
       </c>
       <c r="E59" t="n">
-        <v>0.031025</v>
+        <v>0.0549308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0525261</v>
+        <v>0.0645313</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0559082</v>
+        <v>0.0595254</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08156040000000001</v>
+        <v>0.0957229</v>
       </c>
       <c r="D60" t="n">
-        <v>0.149197</v>
+        <v>0.179676</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0601944</v>
+        <v>0.0556488</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0750064</v>
+        <v>0.0527324</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0614099</v>
+        <v>0.0758634</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0763245</v>
+        <v>0.0923863</v>
       </c>
       <c r="D61" t="n">
-        <v>0.267301</v>
+        <v>0.272378</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0556848</v>
+        <v>0.0648</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0427513</v>
+        <v>0.0732129</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09723999999999999</v>
+        <v>0.111262</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0620765</v>
+        <v>0.0765086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.196583</v>
+        <v>0.221651</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0391104</v>
+        <v>0.05305</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0788266</v>
+        <v>0.0648875</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08897770000000001</v>
+        <v>0.109402</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0938203</v>
+        <v>0.107374</v>
       </c>
       <c r="D63" t="n">
-        <v>0.249902</v>
+        <v>0.240879</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0384249</v>
+        <v>0.0426024</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0644962</v>
+        <v>0.0674725</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100134</v>
+        <v>0.153595</v>
       </c>
       <c r="C64" t="n">
-        <v>0.120129</v>
+        <v>0.122682</v>
       </c>
       <c r="D64" t="n">
-        <v>0.107555</v>
+        <v>0.09506870000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0536767</v>
+        <v>0.0609385</v>
       </c>
       <c r="F64" t="n">
-        <v>0.134301</v>
+        <v>0.0617142</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125661</v>
+        <v>0.112182</v>
       </c>
       <c r="C65" t="n">
-        <v>0.236366</v>
+        <v>0.141653</v>
       </c>
       <c r="D65" t="n">
-        <v>0.260653</v>
+        <v>0.14964</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07706449999999999</v>
+        <v>0.0994583</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0647924</v>
+        <v>0.08701390000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.131652</v>
+        <v>0.240028</v>
       </c>
       <c r="C66" t="n">
-        <v>0.146858</v>
+        <v>0.286226</v>
       </c>
       <c r="D66" t="n">
-        <v>0.101155</v>
+        <v>0.227322</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0456484</v>
+        <v>0.06697160000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0444825</v>
+        <v>0.076214</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0407622</v>
+        <v>0.07469919999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0481967</v>
+        <v>0.0774688</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235285</v>
+        <v>0.241914</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0456892</v>
+        <v>0.0680752</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0523095</v>
+        <v>0.0761901</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0701218</v>
+        <v>0.0810174</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0627554</v>
+        <v>0.09826070000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168838</v>
+        <v>0.239638</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0727062</v>
+        <v>0.0673523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07136140000000001</v>
+        <v>0.074161</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0553108</v>
+        <v>0.06740160000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0676317</v>
+        <v>0.0993291</v>
       </c>
       <c r="D69" t="n">
-        <v>0.14735</v>
+        <v>0.265516</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0701058</v>
+        <v>0.0701633</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0502809</v>
+        <v>0.0835679</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436417</v>
+        <v>0.0650873</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07039380000000001</v>
+        <v>0.106698</v>
       </c>
       <c r="D70" t="n">
-        <v>0.138459</v>
+        <v>0.276785</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0611729</v>
+        <v>0.0705418</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0507879</v>
+        <v>0.08099679999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0665644</v>
+        <v>0.0748486</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0752977</v>
+        <v>0.100002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.144396</v>
+        <v>0.281809</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0440723</v>
+        <v>0.0736049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09051430000000001</v>
+        <v>0.07767209999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06494659999999999</v>
+        <v>0.09036089999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.107953</v>
+        <v>0.112914</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16938</v>
+        <v>0.268613</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0364553</v>
+        <v>0.0757347</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0485474</v>
+        <v>0.0867146</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07643800000000001</v>
+        <v>0.0991548</v>
       </c>
       <c r="C73" t="n">
-        <v>0.105449</v>
+        <v>0.117895</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268704</v>
+        <v>0.297983</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0765044</v>
+        <v>0.07795920000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0487884</v>
+        <v>0.06646879999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.047448</v>
+        <v>0.100419</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0632886</v>
+        <v>0.106617</v>
       </c>
       <c r="D74" t="n">
-        <v>0.235928</v>
+        <v>0.220994</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0466886</v>
+        <v>0.08072849999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0507558</v>
+        <v>0.0916815</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0558697</v>
+        <v>0.119243</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07062110000000001</v>
+        <v>0.09494660000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222612</v>
+        <v>0.339244</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0531867</v>
+        <v>0.0772106</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0474947</v>
+        <v>0.096528</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0816779</v>
+        <v>0.118301</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0829377</v>
+        <v>0.119767</v>
       </c>
       <c r="D76" t="n">
-        <v>0.278465</v>
+        <v>0.356781</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08873929999999999</v>
+        <v>0.0650029</v>
       </c>
       <c r="F76" t="n">
-        <v>0.104366</v>
+        <v>0.09174640000000001</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0704362</v>
+        <v>0.104965</v>
       </c>
       <c r="C77" t="n">
-        <v>0.118189</v>
+        <v>0.123077</v>
       </c>
       <c r="D77" t="n">
-        <v>0.303077</v>
+        <v>0.331884</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0623738</v>
+        <v>0.09413249999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.07488839999999999</v>
+        <v>0.107873</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.140527</v>
+        <v>0.135175</v>
       </c>
       <c r="C78" t="n">
-        <v>0.122083</v>
+        <v>0.177625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208813</v>
+        <v>0.247145</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0848361</v>
+        <v>0.112608</v>
       </c>
       <c r="F78" t="n">
-        <v>0.105862</v>
+        <v>0.1088</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.142531</v>
+        <v>0.183041</v>
       </c>
       <c r="C79" t="n">
-        <v>0.144154</v>
+        <v>0.209867</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212253</v>
+        <v>0.301658</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06418740000000001</v>
+        <v>0.119081</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0682213</v>
+        <v>0.147074</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176008</v>
+        <v>0.259836</v>
       </c>
       <c r="C80" t="n">
-        <v>0.151521</v>
+        <v>0.224474</v>
       </c>
       <c r="D80" t="n">
-        <v>0.222086</v>
+        <v>0.278237</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0384949</v>
+        <v>0.0751396</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0393631</v>
+        <v>0.08948639999999999</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0637084</v>
+        <v>0.0906484</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0578286</v>
+        <v>0.116258</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256568</v>
+        <v>0.312255</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0431021</v>
+        <v>0.0660742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0514147</v>
+        <v>0.0810487</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06738429999999999</v>
+        <v>0.09552389999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.110226</v>
+        <v>0.116873</v>
       </c>
       <c r="D82" t="n">
-        <v>0.292739</v>
+        <v>0.333109</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0630144</v>
+        <v>0.08054699999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.100823</v>
+        <v>0.0719051</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09431440000000001</v>
+        <v>0.101959</v>
       </c>
       <c r="C83" t="n">
-        <v>0.137897</v>
+        <v>0.09312330000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.277728</v>
+        <v>0.302641</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0837774</v>
+        <v>0.0520495</v>
       </c>
       <c r="F83" t="n">
-        <v>0.100849</v>
+        <v>0.0618864</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.100316</v>
+        <v>0.0617037</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142337</v>
+        <v>0.0714991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361293</v>
+        <v>0.253225</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0395388</v>
+        <v>0.0493053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0743494</v>
+        <v>0.07433240000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0927625</v>
+        <v>0.107953</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0903904</v>
+        <v>0.133631</v>
       </c>
       <c r="D85" t="n">
-        <v>0.284453</v>
+        <v>0.314802</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0458597</v>
+        <v>0.0515978</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0849341</v>
+        <v>0.06968489999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0539297</v>
+        <v>0.0628499</v>
       </c>
       <c r="C86" t="n">
-        <v>0.10757</v>
+        <v>0.124695</v>
       </c>
       <c r="D86" t="n">
-        <v>0.406355</v>
+        <v>0.276952</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0608805</v>
+        <v>0.068257</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0610702</v>
+        <v>0.0980524</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0757154</v>
+        <v>0.0888984</v>
       </c>
       <c r="C87" t="n">
-        <v>0.120437</v>
+        <v>0.0958514</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448435</v>
+        <v>0.40654</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0761616</v>
+        <v>0.066551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0974168</v>
+        <v>0.0787693</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101579</v>
+        <v>0.0639627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174558</v>
+        <v>0.141324</v>
       </c>
       <c r="D88" t="n">
-        <v>0.438807</v>
+        <v>0.347847</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0662017</v>
+        <v>0.0525055</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0988991</v>
+        <v>0.0701502</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09982539999999999</v>
+        <v>0.129039</v>
       </c>
       <c r="C89" t="n">
-        <v>0.172814</v>
+        <v>0.175281</v>
       </c>
       <c r="D89" t="n">
-        <v>0.344481</v>
+        <v>0.359844</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0727474</v>
+        <v>0.0822473</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0930011</v>
+        <v>0.0954941</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0735639</v>
+        <v>0.08826870000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.217592</v>
+        <v>0.208994</v>
       </c>
       <c r="D90" t="n">
-        <v>0.511217</v>
+        <v>0.412955</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0605544</v>
+        <v>0.060124</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09908019999999999</v>
+        <v>0.104813</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.159937</v>
+        <v>0.135953</v>
       </c>
       <c r="C91" t="n">
-        <v>0.22159</v>
+        <v>0.230953</v>
       </c>
       <c r="D91" t="n">
-        <v>0.416194</v>
+        <v>0.502992</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0896605</v>
+        <v>0.0764321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0792025</v>
+        <v>0.125391</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.161532</v>
+        <v>0.153468</v>
       </c>
       <c r="C92" t="n">
-        <v>0.224548</v>
+        <v>0.275203</v>
       </c>
       <c r="D92" t="n">
-        <v>0.366903</v>
+        <v>0.376546</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0903955</v>
+        <v>0.06697790000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.153312</v>
+        <v>0.144331</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.144482</v>
+        <v>0.162312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207071</v>
+        <v>0.253268</v>
       </c>
       <c r="D93" t="n">
-        <v>0.386193</v>
+        <v>0.35607</v>
       </c>
       <c r="E93" t="n">
-        <v>0.132935</v>
+        <v>0.08201269999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16996</v>
+        <v>0.110115</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195429</v>
+        <v>0.242003</v>
       </c>
       <c r="C94" t="n">
-        <v>0.215231</v>
+        <v>0.323609</v>
       </c>
       <c r="D94" t="n">
-        <v>0.329467</v>
+        <v>0.364927</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0746623</v>
+        <v>0.0426277</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0799646</v>
+        <v>0.0756146</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09458</v>
+        <v>0.0925092</v>
       </c>
       <c r="C95" t="n">
-        <v>0.170779</v>
+        <v>0.174384</v>
       </c>
       <c r="D95" t="n">
-        <v>0.42862</v>
+        <v>0.363118</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0441393</v>
+        <v>0.0626756</v>
       </c>
       <c r="F95" t="n">
-        <v>0.071883</v>
+        <v>0.0795289</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07051250000000001</v>
+        <v>0.07599939999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150902</v>
+        <v>0.186411</v>
       </c>
       <c r="D96" t="n">
-        <v>0.40739</v>
+        <v>0.339176</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0531453</v>
+        <v>0.06787899999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0827565</v>
+        <v>0.0888902</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107665</v>
+        <v>0.0820423</v>
       </c>
       <c r="C97" t="n">
-        <v>0.158131</v>
+        <v>0.170628</v>
       </c>
       <c r="D97" t="n">
-        <v>0.363515</v>
+        <v>0.460369</v>
       </c>
       <c r="E97" t="n">
-        <v>0.061436</v>
+        <v>0.06502810000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0712647</v>
+        <v>0.114577</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.121908</v>
+        <v>0.07490380000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.146507</v>
+        <v>0.189568</v>
       </c>
       <c r="D98" t="n">
-        <v>0.527092</v>
+        <v>0.468405</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0615492</v>
+        <v>0.0780478</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08985700000000001</v>
+        <v>0.100565</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09004230000000001</v>
+        <v>0.132444</v>
       </c>
       <c r="C99" t="n">
-        <v>0.200108</v>
+        <v>0.170118</v>
       </c>
       <c r="D99" t="n">
-        <v>0.430071</v>
+        <v>0.498939</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0934541</v>
+        <v>0.0521986</v>
       </c>
       <c r="F99" t="n">
-        <v>0.106577</v>
+        <v>0.0770832</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08599560000000001</v>
+        <v>0.122159</v>
       </c>
       <c r="C100" t="n">
-        <v>0.206493</v>
+        <v>0.19246</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566103</v>
+        <v>0.446937</v>
       </c>
       <c r="E100" t="n">
-        <v>0.117194</v>
+        <v>0.0703136</v>
       </c>
       <c r="F100" t="n">
-        <v>0.148634</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.09947209999999999</v>
+        <v>0.128284</v>
       </c>
       <c r="C101" t="n">
-        <v>0.171227</v>
+        <v>0.153198</v>
       </c>
       <c r="D101" t="n">
-        <v>0.51253</v>
+        <v>0.412149</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05793</v>
+        <v>0.07301149999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09919219999999999</v>
+        <v>0.128787</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143886</v>
+        <v>0.141752</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175694</v>
+        <v>0.17887</v>
       </c>
       <c r="D102" t="n">
-        <v>0.427466</v>
+        <v>0.464699</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0848163</v>
+        <v>0.126603</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0945057</v>
+        <v>0.156925</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125853</v>
+        <v>0.135546</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224915</v>
+        <v>0.232767</v>
       </c>
       <c r="D103" t="n">
-        <v>0.432634</v>
+        <v>0.488917</v>
       </c>
       <c r="E103" t="n">
-        <v>0.09442059999999999</v>
+        <v>0.115821</v>
       </c>
       <c r="F103" t="n">
-        <v>0.109941</v>
+        <v>0.116233</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.175885</v>
+        <v>0.184884</v>
       </c>
       <c r="C104" t="n">
-        <v>0.239923</v>
+        <v>0.208081</v>
       </c>
       <c r="D104" t="n">
-        <v>0.580261</v>
+        <v>0.448679</v>
       </c>
       <c r="E104" t="n">
-        <v>0.112517</v>
+        <v>0.113425</v>
       </c>
       <c r="F104" t="n">
-        <v>0.159819</v>
+        <v>0.138317</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.17029</v>
+        <v>0.188158</v>
       </c>
       <c r="C105" t="n">
-        <v>0.250235</v>
+        <v>0.232869</v>
       </c>
       <c r="D105" t="n">
-        <v>0.442588</v>
+        <v>0.669448</v>
       </c>
       <c r="E105" t="n">
-        <v>0.116682</v>
+        <v>0.151304</v>
       </c>
       <c r="F105" t="n">
-        <v>0.145093</v>
+        <v>0.11599</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.126694</v>
+        <v>0.200968</v>
       </c>
       <c r="C106" t="n">
-        <v>0.289477</v>
+        <v>0.264134</v>
       </c>
       <c r="D106" t="n">
-        <v>0.565808</v>
+        <v>0.593617</v>
       </c>
       <c r="E106" t="n">
-        <v>0.13305</v>
+        <v>0.0857252</v>
       </c>
       <c r="F106" t="n">
-        <v>0.184162</v>
+        <v>0.127713</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153633</v>
+        <v>0.211479</v>
       </c>
       <c r="C107" t="n">
-        <v>0.306129</v>
+        <v>0.284536</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5069939999999999</v>
+        <v>0.433412</v>
       </c>
       <c r="E107" t="n">
-        <v>0.103607</v>
+        <v>0.0866229</v>
       </c>
       <c r="F107" t="n">
-        <v>0.185937</v>
+        <v>0.160809</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.265893</v>
+        <v>0.233505</v>
       </c>
       <c r="C108" t="n">
-        <v>0.29766</v>
+        <v>0.384212</v>
       </c>
       <c r="D108" t="n">
-        <v>0.496258</v>
+        <v>0.37938</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0805573</v>
+        <v>0.0782649</v>
       </c>
       <c r="F108" t="n">
-        <v>0.109642</v>
+        <v>0.130113</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.298563</v>
+        <v>0.304937</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467691</v>
+        <v>0.485418</v>
       </c>
       <c r="D109" t="n">
-        <v>0.415298</v>
+        <v>0.446219</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0670549</v>
+        <v>0.0880527</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0852126</v>
+        <v>0.115429</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.13939</v>
+        <v>0.126442</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212677</v>
+        <v>0.146859</v>
       </c>
       <c r="D110" t="n">
-        <v>0.465391</v>
+        <v>0.558813</v>
       </c>
       <c r="E110" t="n">
-        <v>0.058208</v>
+        <v>0.12558</v>
       </c>
       <c r="F110" t="n">
-        <v>0.132995</v>
+        <v>0.128943</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.111362</v>
+        <v>0.157137</v>
       </c>
       <c r="C111" t="n">
-        <v>0.163841</v>
+        <v>0.216497</v>
       </c>
       <c r="D111" t="n">
-        <v>0.502613</v>
+        <v>0.428711</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0946052</v>
+        <v>0.09452439999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.125542</v>
+        <v>0.123862</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.129756</v>
+        <v>0.147393</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202829</v>
+        <v>0.208849</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54938</v>
+        <v>0.434648</v>
       </c>
       <c r="E112" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.0794272</v>
       </c>
       <c r="F112" t="n">
-        <v>0.163361</v>
+        <v>0.132086</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.152399</v>
+        <v>0.142592</v>
       </c>
       <c r="C113" t="n">
-        <v>0.196329</v>
+        <v>0.200483</v>
       </c>
       <c r="D113" t="n">
-        <v>0.526168</v>
+        <v>0.546481</v>
       </c>
       <c r="E113" t="n">
-        <v>0.106607</v>
+        <v>0.0971963</v>
       </c>
       <c r="F113" t="n">
-        <v>0.137848</v>
+        <v>0.128812</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.148172</v>
+        <v>0.12265</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218565</v>
+        <v>0.204349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.553487</v>
+        <v>0.578477</v>
       </c>
       <c r="E114" t="n">
-        <v>0.115408</v>
+        <v>0.111172</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111039</v>
+        <v>0.160127</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.144559</v>
+        <v>0.113501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.242583</v>
+        <v>0.21142</v>
       </c>
       <c r="D115" t="n">
-        <v>0.566937</v>
+        <v>0.556938</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0972845</v>
+        <v>0.119558</v>
       </c>
       <c r="F115" t="n">
-        <v>0.136179</v>
+        <v>0.170449</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13531</v>
+        <v>0.15116</v>
       </c>
       <c r="C116" t="n">
-        <v>0.191697</v>
+        <v>0.265093</v>
       </c>
       <c r="D116" t="n">
-        <v>0.500755</v>
+        <v>0.5595</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0776289</v>
+        <v>0.09480570000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>0.148802</v>
+        <v>0.136977</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.14029</v>
+        <v>0.169475</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252038</v>
+        <v>0.243806</v>
       </c>
       <c r="D117" t="n">
-        <v>0.504785</v>
+        <v>0.675009</v>
       </c>
       <c r="E117" t="n">
-        <v>0.125305</v>
+        <v>0.0987523</v>
       </c>
       <c r="F117" t="n">
-        <v>0.154173</v>
+        <v>0.11898</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.155593</v>
+        <v>0.180961</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252453</v>
+        <v>0.241565</v>
       </c>
       <c r="D118" t="n">
-        <v>0.531145</v>
+        <v>0.664687</v>
       </c>
       <c r="E118" t="n">
-        <v>0.145415</v>
+        <v>0.138616</v>
       </c>
       <c r="F118" t="n">
-        <v>0.12288</v>
+        <v>0.192486</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.159434</v>
+        <v>0.177071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.214537</v>
+        <v>0.243911</v>
       </c>
       <c r="D119" t="n">
-        <v>0.583685</v>
+        <v>0.6123420000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.139264</v>
+        <v>0.140998</v>
       </c>
       <c r="F119" t="n">
-        <v>0.187383</v>
+        <v>0.188404</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.178976</v>
+        <v>0.184653</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230574</v>
+        <v>0.266895</v>
       </c>
       <c r="D120" t="n">
-        <v>0.625262</v>
+        <v>0.633572</v>
       </c>
       <c r="E120" t="n">
-        <v>0.08889030000000001</v>
+        <v>0.109687</v>
       </c>
       <c r="F120" t="n">
-        <v>0.19718</v>
+        <v>0.16891</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.187779</v>
+        <v>0.253894</v>
       </c>
       <c r="C121" t="n">
-        <v>0.274166</v>
+        <v>0.267463</v>
       </c>
       <c r="D121" t="n">
-        <v>0.393014</v>
+        <v>0.486113</v>
       </c>
       <c r="E121" t="n">
-        <v>0.120632</v>
+        <v>0.171466</v>
       </c>
       <c r="F121" t="n">
-        <v>0.195385</v>
+        <v>0.221513</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.274365</v>
+        <v>0.30585</v>
       </c>
       <c r="C122" t="n">
-        <v>0.387209</v>
+        <v>0.367405</v>
       </c>
       <c r="D122" t="n">
-        <v>0.434014</v>
+        <v>0.38569</v>
       </c>
       <c r="E122" t="n">
-        <v>0.184145</v>
+        <v>0.170071</v>
       </c>
       <c r="F122" t="n">
-        <v>0.22001</v>
+        <v>0.260572</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.21608</v>
+        <v>0.286598</v>
       </c>
       <c r="C123" t="n">
-        <v>0.469522</v>
+        <v>0.365909</v>
       </c>
       <c r="D123" t="n">
-        <v>0.42861</v>
+        <v>0.394763</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0857455</v>
+        <v>0.115831</v>
       </c>
       <c r="F123" t="n">
-        <v>0.153364</v>
+        <v>0.0947515</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.107287</v>
+        <v>0.137635</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184317</v>
+        <v>0.225052</v>
       </c>
       <c r="D124" t="n">
-        <v>0.563265</v>
+        <v>0.561195</v>
       </c>
       <c r="E124" t="n">
-        <v>0.086922</v>
+        <v>0.105604</v>
       </c>
       <c r="F124" t="n">
-        <v>0.141933</v>
+        <v>0.157265</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.139398</v>
+        <v>0.113502</v>
       </c>
       <c r="C125" t="n">
-        <v>0.170399</v>
+        <v>0.207346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.55681</v>
+        <v>0.494957</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0730774</v>
+        <v>0.122105</v>
       </c>
       <c r="F125" t="n">
-        <v>0.105264</v>
+        <v>0.120216</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160183</v>
+        <v>0.109101</v>
       </c>
       <c r="C126" t="n">
-        <v>0.209554</v>
+        <v>0.228572</v>
       </c>
       <c r="D126" t="n">
-        <v>0.592303</v>
+        <v>0.5978520000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.083979</v>
+        <v>0.122917</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0956518</v>
+        <v>0.156663</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.16363</v>
+        <v>0.149819</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22996</v>
+        <v>0.251692</v>
       </c>
       <c r="D127" t="n">
-        <v>0.539698</v>
+        <v>0.546525</v>
       </c>
       <c r="E127" t="n">
-        <v>0.123937</v>
+        <v>0.109071</v>
       </c>
       <c r="F127" t="n">
-        <v>0.159151</v>
+        <v>0.158097</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.186329</v>
+        <v>0.156617</v>
       </c>
       <c r="C128" t="n">
-        <v>0.238299</v>
+        <v>0.227293</v>
       </c>
       <c r="D128" t="n">
-        <v>0.562682</v>
+        <v>0.502047</v>
       </c>
       <c r="E128" t="n">
-        <v>0.125603</v>
+        <v>0.128145</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126146</v>
+        <v>0.143771</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224046</v>
+        <v>0.156082</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2274</v>
+        <v>0.185939</v>
       </c>
       <c r="D129" t="n">
-        <v>0.569615</v>
+        <v>0.482317</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0823928</v>
+        <v>0.102998</v>
       </c>
       <c r="F129" t="n">
-        <v>0.179128</v>
+        <v>0.119258</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.180554</v>
+        <v>0.142583</v>
       </c>
       <c r="C130" t="n">
-        <v>0.268667</v>
+        <v>0.232399</v>
       </c>
       <c r="D130" t="n">
-        <v>0.495735</v>
+        <v>0.5286459999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0799869</v>
+        <v>0.117718</v>
       </c>
       <c r="F130" t="n">
-        <v>0.135725</v>
+        <v>0.16079</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.188198</v>
+        <v>0.175229</v>
       </c>
       <c r="C131" t="n">
-        <v>0.232685</v>
+        <v>0.241203</v>
       </c>
       <c r="D131" t="n">
-        <v>0.493415</v>
+        <v>0.713189</v>
       </c>
       <c r="E131" t="n">
-        <v>0.101561</v>
+        <v>0.138204</v>
       </c>
       <c r="F131" t="n">
-        <v>0.129228</v>
+        <v>0.141547</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142916</v>
+        <v>0.186203</v>
       </c>
       <c r="C132" t="n">
-        <v>0.291644</v>
+        <v>0.289226</v>
       </c>
       <c r="D132" t="n">
-        <v>0.627695</v>
+        <v>0.741729</v>
       </c>
       <c r="E132" t="n">
-        <v>0.12286</v>
+        <v>0.118528</v>
       </c>
       <c r="F132" t="n">
-        <v>0.171313</v>
+        <v>0.177775</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.195637</v>
+        <v>0.171136</v>
       </c>
       <c r="C133" t="n">
-        <v>0.280288</v>
+        <v>0.22142</v>
       </c>
       <c r="D133" t="n">
-        <v>0.681018</v>
+        <v>0.735094</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0975244</v>
+        <v>0.130238</v>
       </c>
       <c r="F133" t="n">
-        <v>0.171948</v>
+        <v>0.155737</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.224432</v>
+        <v>0.197271</v>
       </c>
       <c r="C134" t="n">
-        <v>0.315199</v>
+        <v>0.379604</v>
       </c>
       <c r="D134" t="n">
-        <v>0.741601</v>
+        <v>0.621866</v>
       </c>
       <c r="E134" t="n">
-        <v>0.101737</v>
+        <v>0.150713</v>
       </c>
       <c r="F134" t="n">
-        <v>0.157261</v>
+        <v>0.20167</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.289246</v>
+        <v>0.261317</v>
       </c>
       <c r="C135" t="n">
-        <v>0.378734</v>
+        <v>0.351327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.473674</v>
+        <v>0.554418</v>
       </c>
       <c r="E135" t="n">
-        <v>0.137061</v>
+        <v>0.173687</v>
       </c>
       <c r="F135" t="n">
-        <v>0.193145</v>
+        <v>0.218267</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.336475</v>
+        <v>0.24958</v>
       </c>
       <c r="C136" t="n">
-        <v>0.441275</v>
+        <v>0.367669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.490516</v>
+        <v>0.532202</v>
       </c>
       <c r="E136" t="n">
-        <v>0.149929</v>
+        <v>0.150923</v>
       </c>
       <c r="F136" t="n">
-        <v>0.208612</v>
+        <v>0.207947</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.312531</v>
+        <v>0.312207</v>
       </c>
       <c r="C137" t="n">
-        <v>0.345511</v>
+        <v>0.392977</v>
       </c>
       <c r="D137" t="n">
-        <v>0.425635</v>
+        <v>0.595283</v>
       </c>
       <c r="E137" t="n">
-        <v>0.166818</v>
+        <v>0.171597</v>
       </c>
       <c r="F137" t="n">
-        <v>0.240878</v>
+        <v>0.251078</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.223542</v>
+        <v>0.207469</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272317</v>
+        <v>0.292708</v>
       </c>
       <c r="D138" t="n">
-        <v>0.478211</v>
+        <v>0.427535</v>
       </c>
       <c r="E138" t="n">
-        <v>0.203254</v>
+        <v>0.187926</v>
       </c>
       <c r="F138" t="n">
-        <v>0.244432</v>
+        <v>0.232715</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.243487</v>
+        <v>0.202494</v>
       </c>
       <c r="C139" t="n">
-        <v>0.304096</v>
+        <v>0.293074</v>
       </c>
       <c r="D139" t="n">
-        <v>0.496744</v>
+        <v>0.576998</v>
       </c>
       <c r="E139" t="n">
-        <v>0.182638</v>
+        <v>0.173527</v>
       </c>
       <c r="F139" t="n">
-        <v>0.213264</v>
+        <v>0.258124</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.215281</v>
+        <v>0.243</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252178</v>
+        <v>0.256711</v>
       </c>
       <c r="D140" t="n">
-        <v>0.523742</v>
+        <v>0.6637459999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.177644</v>
+        <v>0.173522</v>
       </c>
       <c r="F140" t="n">
-        <v>0.255467</v>
+        <v>0.246061</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.241816</v>
+        <v>0.223219</v>
       </c>
       <c r="C141" t="n">
-        <v>0.24502</v>
+        <v>0.301401</v>
       </c>
       <c r="D141" t="n">
-        <v>0.513236</v>
+        <